--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3286487316527145</v>
+        <v>0.3330367986292047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2729070196533681</v>
+        <v>0.2711232525897542</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3984442486939174</v>
+        <v>0.3958399487810412</v>
       </c>
       <c r="L3" t="n">
-        <v>1.384390443652061</v>
+        <v>1.394950344668655</v>
       </c>
       <c r="M3" t="n">
-        <v>1.217165307654021</v>
+        <v>1.209209706550304</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -621,22 +621,22 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5290160548753123</v>
+        <v>0.5224981169015069</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1914568882620682</v>
+        <v>0.1941064565441028</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2795270568626195</v>
+        <v>0.2833954265543902</v>
       </c>
       <c r="L4" t="n">
-        <v>1.866575221488556</v>
+        <v>1.850889777258911</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8538977216488239</v>
+        <v>0.8657147961866987</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6894393345704937</v>
+        <v>0.7053570628962207</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1262441729388237</v>
+        <v>0.119773551668203</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1843164924906826</v>
+        <v>0.1748693854355764</v>
       </c>
       <c r="L6" t="n">
-        <v>2.252634496202164</v>
+        <v>2.290940574124238</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5630490113071537</v>
+        <v>0.5341900404401854</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -749,25 +749,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2335438649580536</v>
+        <v>0.2257057799013872</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4254820922031881</v>
+        <v>0.4447637814425874</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3409740428387583</v>
+        <v>0.3295304386560253</v>
       </c>
       <c r="L7" t="n">
-        <v>1.041605637712919</v>
+        <v>1.006647778360187</v>
       </c>
       <c r="M7" t="n">
-        <v>1.617420319448323</v>
+        <v>1.663821782983788</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -791,22 +791,22 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6131788189437142</v>
+        <v>0.6191975877767318</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1572443825432057</v>
+        <v>0.154797728546044</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2295767985130802</v>
+        <v>0.2260046836772242</v>
       </c>
       <c r="L8" t="n">
-        <v>2.069113255344223</v>
+        <v>2.08359744700742</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7013099461426973</v>
+        <v>0.6903978693153561</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -827,25 +827,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2671310979858595</v>
+        <v>0.2646969956018007</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3428574989547856</v>
+        <v>0.3488453908195701</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3900114030593549</v>
+        <v>0.3864576135786291</v>
       </c>
       <c r="L9" t="n">
-        <v>1.191404697016933</v>
+        <v>1.180548600384031</v>
       </c>
       <c r="M9" t="n">
-        <v>1.418583899923712</v>
+        <v>1.432993786037339</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -869,22 +869,22 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6964261225203917</v>
+        <v>0.7124204537404047</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1234040152356132</v>
+        <v>0.1169022545770712</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1801698622439952</v>
+        <v>0.170677291682524</v>
       </c>
       <c r="L10" t="n">
-        <v>2.26944822980517</v>
+        <v>2.307938652903738</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5503819079508346</v>
+        <v>0.5213840554137377</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -905,25 +905,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2301420203864466</v>
+        <v>0.2221255855623253</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4338506298493415</v>
+        <v>0.4535710595166799</v>
       </c>
       <c r="K11" t="n">
-        <v>0.336007349764212</v>
+        <v>0.3243033549209949</v>
       </c>
       <c r="L11" t="n">
-        <v>1.026433410923552</v>
+        <v>0.9906801116079709</v>
       </c>
       <c r="M11" t="n">
-        <v>1.637559239312236</v>
+        <v>1.685016533471035</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -947,22 +947,22 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I12" t="n">
-        <v>0.840381210736954</v>
+        <v>0.8458421096171884</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06488568669229515</v>
+        <v>0.0626658090987039</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09473310257075092</v>
+        <v>0.09149208128410768</v>
       </c>
       <c r="L12" t="n">
-        <v>2.615876734781613</v>
+        <v>2.629018410135673</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2893901626476363</v>
+        <v>0.2794895085802194</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -983,25 +983,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1442466293043561</v>
+        <v>0.1402759691409165</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6451532919112841</v>
+        <v>0.6549211159133456</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2106000787843599</v>
+        <v>0.204802914945738</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6433399666974281</v>
+        <v>0.6256308223684874</v>
       </c>
       <c r="M13" t="n">
-        <v>2.146059954518212</v>
+        <v>2.169566262685775</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1025,22 +1025,22 @@
         <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6556940501497752</v>
+        <v>0.6522224680644508</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1399617682317987</v>
+        <v>0.1413729804616054</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2043441816184261</v>
+        <v>0.2064045514739438</v>
       </c>
       <c r="L14" t="n">
-        <v>2.171426332067752</v>
+        <v>2.163071955667296</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6242294863138224</v>
+        <v>0.63052349285876</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1061,25 +1061,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2491713113019106</v>
+        <v>0.2507071516961641</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3870385741972999</v>
+        <v>0.3832604068274361</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3637901145007895</v>
+        <v>0.3660324414763997</v>
       </c>
       <c r="L15" t="n">
-        <v>1.111304048406522</v>
+        <v>1.118153896564892</v>
       </c>
       <c r="M15" t="n">
-        <v>1.524905837092689</v>
+        <v>1.515813661958708</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1103,22 +1103,22 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7171487502426419</v>
+        <v>0.7259555326566703</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1149801828281943</v>
+        <v>0.1114001899769632</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1678710669291637</v>
+        <v>0.1626442773663663</v>
       </c>
       <c r="L16" t="n">
-        <v>2.319317317657089</v>
+        <v>2.340510875336377</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5128116154137468</v>
+        <v>0.496844847297256</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1195,22 +1195,22 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6884534198770709</v>
+        <v>0.6912327995568081</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1266449512694834</v>
+        <v>0.1255151221313789</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1849016288534457</v>
+        <v>0.1832520783118131</v>
       </c>
       <c r="L18" t="n">
-        <v>2.250261888484658</v>
+        <v>2.256950476982237</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5648364826618959</v>
+        <v>0.5597974447059497</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1231,25 +1231,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2340191414906212</v>
+        <v>0.2326762931686547</v>
       </c>
       <c r="J19" t="n">
-        <v>0.424312911933072</v>
+        <v>0.4276163188051094</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3416679465763069</v>
+        <v>0.3397073880262359</v>
       </c>
       <c r="L19" t="n">
-        <v>1.04372537104817</v>
+        <v>1.0377362675322</v>
       </c>
       <c r="M19" t="n">
-        <v>1.614606682375523</v>
+        <v>1.622556344441564</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1273,22 +1273,22 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6369869451530084</v>
+        <v>0.6545783850613206</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1475662824581267</v>
+        <v>0.1404152906254795</v>
       </c>
       <c r="K20" t="n">
-        <v>0.215446772388865</v>
+        <v>0.2050063243132</v>
       </c>
       <c r="L20" t="n">
-        <v>2.12640760784789</v>
+        <v>2.168741479497162</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6581456197632451</v>
+        <v>0.6262521961896385</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1309,25 +1309,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2572978531049689</v>
+        <v>0.2496662913978397</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3670472813617763</v>
+        <v>0.3858209231613142</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3756548655332547</v>
+        <v>0.3645127854408461</v>
       </c>
       <c r="L21" t="n">
-        <v>1.147548424848162</v>
+        <v>1.113511659634365</v>
       </c>
       <c r="M21" t="n">
-        <v>1.476796709618584</v>
+        <v>1.521975554924789</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1351,22 +1351,22 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I22" t="n">
-        <v>0.776633202153692</v>
+        <v>0.7831242065914028</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09079951131963743</v>
+        <v>0.088160891629511</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1325672865266706</v>
+        <v>0.1287149017790861</v>
       </c>
       <c r="L22" t="n">
-        <v>2.462466892987747</v>
+        <v>2.478087521553295</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4049658204855829</v>
+        <v>0.3931975766676191</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1387,25 +1387,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1863913560265492</v>
+        <v>0.1824292734609968</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5414772641746891</v>
+        <v>0.551223987285948</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2721313797987617</v>
+        <v>0.2663467392530552</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8313054478784092</v>
+        <v>0.8136345596360455</v>
       </c>
       <c r="M23" t="n">
-        <v>1.896563172322829</v>
+        <v>1.920018701110899</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1429,22 +1429,22 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6161125324565441</v>
+        <v>0.646996208854048</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1560518160745756</v>
+        <v>0.1434974760755903</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2278356514688804</v>
+        <v>0.2095063150703618</v>
       </c>
       <c r="L24" t="n">
-        <v>2.076173248838513</v>
+        <v>2.150494941632506</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6959910996926071</v>
+        <v>0.6399987432971326</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1521,22 +1521,22 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7876179006542581</v>
+        <v>0.7869903838362703</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08633418672591135</v>
+        <v>0.08658927486330473</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1260479126198306</v>
+        <v>0.1264203413004249</v>
       </c>
       <c r="L26" t="n">
-        <v>2.488901614582605</v>
+        <v>2.487391492809236</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3850504727975647</v>
+        <v>0.3861881658903391</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1663,25 +1663,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1387228312415823</v>
+        <v>0.1322578260467294</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6587418351457076</v>
+        <v>0.6746457479250457</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2025353336127101</v>
+        <v>0.1930964260282249</v>
       </c>
       <c r="L29" t="n">
-        <v>0.618703827337457</v>
+        <v>0.589869904168413</v>
       </c>
       <c r="M29" t="n">
-        <v>2.178760839049833</v>
+        <v>2.217033669803362</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1705,22 +1705,22 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7191388200112934</v>
+        <v>0.7367093487345413</v>
       </c>
       <c r="J30" t="n">
-        <v>0.114171211377523</v>
+        <v>0.1070287200266092</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1666899686111836</v>
+        <v>0.1562619312388494</v>
       </c>
       <c r="L30" t="n">
-        <v>2.324106428645063</v>
+        <v>2.366389977442473</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5092036027437525</v>
+        <v>0.4773480913186771</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1741,25 +1741,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2186600358366811</v>
+        <v>0.2093087299450089</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4620963118417646</v>
+        <v>0.4851005243352783</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3192436523215543</v>
+        <v>0.3055907457197128</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9752237598315976</v>
+        <v>0.9335169355547395</v>
       </c>
       <c r="M31" t="n">
-        <v>1.705532587846848</v>
+        <v>1.760892318725548</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1783,22 +1783,22 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8481796046199329</v>
+        <v>0.8561031336566073</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06171560787807608</v>
+        <v>0.05849466111520026</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09010478750199108</v>
+        <v>0.08540220522819239</v>
       </c>
       <c r="L32" t="n">
-        <v>2.63464360136179</v>
+        <v>2.653711606198014</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2752516111362193</v>
+        <v>0.2608861885737932</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1819,25 +1819,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1385575036436514</v>
+        <v>0.1326467231036903</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6591485410366176</v>
+        <v>0.6736890611649219</v>
       </c>
       <c r="K33" t="n">
-        <v>0.202293955319731</v>
+        <v>0.1936642157313879</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6179664662506852</v>
+        <v>0.5916043850424588</v>
       </c>
       <c r="M33" t="n">
-        <v>2.179739578429584</v>
+        <v>2.214731399226153</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -1911,25 +1911,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1623683005939763</v>
+        <v>0.156486466759022</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6005739805388185</v>
+        <v>0.6150432917728058</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2370577188672053</v>
+        <v>0.2284702414681721</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7241626206491341</v>
+        <v>0.6979296417452381</v>
       </c>
       <c r="M35" t="n">
-        <v>2.038779660483661</v>
+        <v>2.07360011678659</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2003,25 +2003,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1378671773434302</v>
+        <v>0.1446245504093844</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6608467437351619</v>
+        <v>0.6442236059929143</v>
       </c>
       <c r="K37" t="n">
-        <v>0.201286078921408</v>
+        <v>0.2111518435977012</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6148876109516984</v>
+        <v>0.6450254948258545</v>
       </c>
       <c r="M37" t="n">
-        <v>2.183826310126894</v>
+        <v>2.143822661576444</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2045,22 +2045,22 @@
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8619187234825868</v>
+        <v>0.8712890542703579</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05613060021033053</v>
+        <v>0.05232152265432611</v>
       </c>
       <c r="K38" t="n">
-        <v>0.08195067630708258</v>
+        <v>0.07638942307531611</v>
       </c>
       <c r="L38" t="n">
-        <v>2.667706846754843</v>
+        <v>2.690256585886389</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2503424769380742</v>
+        <v>0.2333539910382945</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2081,25 +2081,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1282227610979185</v>
+        <v>0.1209382043516318</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6845720076991204</v>
+        <v>0.7024920172949858</v>
       </c>
       <c r="K39" t="n">
-        <v>0.187205231202961</v>
+        <v>0.1765697783533825</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5718735144967166</v>
+        <v>0.5393843914082779</v>
       </c>
       <c r="M39" t="n">
-        <v>2.240921254300322</v>
+        <v>2.28404583023834</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2120,25 +2120,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H40" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4330604271798567</v>
+        <v>0.431509315256898</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2304632409837981</v>
+        <v>0.2310937742858138</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3364763318363452</v>
+        <v>0.3373969104572882</v>
       </c>
       <c r="L40" t="n">
-        <v>1.635657613375915</v>
+        <v>1.631924856227982</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02786605478774</v>
+        <v>1.03067823331473</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2159,25 +2159,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H41" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3963452313538647</v>
+        <v>0.3982916236655607</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2453881173358273</v>
+        <v>0.2445969009489591</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3582666513103079</v>
+        <v>0.3571114753854802</v>
       </c>
       <c r="L41" t="n">
-        <v>1.547302345371902</v>
+        <v>1.551986346382162</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09443100331779</v>
+        <v>1.090902178232357</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2198,25 +2198,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H42" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6015503794614159</v>
+        <v>0.6241477021099006</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1619713904628391</v>
+        <v>0.1527854869471949</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2364782300757451</v>
+        <v>0.2230668109429046</v>
       </c>
       <c r="L42" t="n">
-        <v>2.041129368459993</v>
+        <v>2.095509917272606</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7223924014642624</v>
+        <v>0.6814232717844892</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2237,25 +2237,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H43" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2689991910801836</v>
+        <v>0.2599909767416462</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3382619899427485</v>
+        <v>0.3604221972155503</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3927388189770679</v>
+        <v>0.3795868260428034</v>
       </c>
       <c r="L43" t="n">
-        <v>1.199736392217619</v>
+        <v>1.159559756267742</v>
       </c>
       <c r="M43" t="n">
-        <v>1.407524788805314</v>
+        <v>1.460853417689454</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2276,25 +2276,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H44" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5187721365434106</v>
+        <v>0.5300623671837439</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1956210827059307</v>
+        <v>0.1910315580553887</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2856067807506588</v>
+        <v>0.2789060747608674</v>
       </c>
       <c r="L44" t="n">
-        <v>1.841923190380891</v>
+        <v>1.869093176312099</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8724700288684508</v>
+        <v>0.8520007489270334</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2315,25 +2315,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H45" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3145362871195411</v>
+        <v>0.3048044865838609</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2786437857237639</v>
+        <v>0.2825998022016826</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4068199271566952</v>
+        <v>0.4125957112144566</v>
       </c>
       <c r="L45" t="n">
-        <v>1.350428788515318</v>
+        <v>1.327009170966039</v>
       </c>
       <c r="M45" t="n">
-        <v>1.242751284327987</v>
+        <v>1.260395117819504</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2407,25 +2407,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H47" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2658747840299802</v>
+        <v>0.2566389101775972</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3459480312862487</v>
+        <v>0.3686682809631109</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3881771846837711</v>
+        <v>0.374692808859292</v>
       </c>
       <c r="L47" t="n">
-        <v>1.185801536773712</v>
+        <v>1.144609539392084</v>
       </c>
       <c r="M47" t="n">
-        <v>1.426021278542517</v>
+        <v>1.480697651748625</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2446,25 +2446,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H48" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7816822879558172</v>
+        <v>0.791931289102428</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08874703741633447</v>
+        <v>0.0845807767876309</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1295706746278483</v>
+        <v>0.1234879341099411</v>
       </c>
       <c r="L48" t="n">
-        <v>2.4746175384953</v>
+        <v>2.499281801417225</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3958117868768517</v>
+        <v>0.3772302644728338</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2485,25 +2485,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H49" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1802753134840402</v>
+        <v>0.1740788736676898</v>
       </c>
       <c r="J49" t="n">
-        <v>0.556522728829261</v>
+        <v>0.5717659707774828</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2632019576866987</v>
+        <v>0.2541551555548272</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8040278981388193</v>
+        <v>0.7763917765578967</v>
       </c>
       <c r="M49" t="n">
-        <v>1.932770144174482</v>
+        <v>1.969453067887275</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2524,25 +2524,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H50" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5642904909605736</v>
+        <v>0.5653917020259045</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1771176866013928</v>
+        <v>0.1766700398268681</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2585918224380336</v>
+        <v>0.2579382581472274</v>
       </c>
       <c r="L50" t="n">
-        <v>1.951463295319754</v>
+        <v>1.954113364224941</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7899448822422122</v>
+        <v>0.7879483776278315</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2563,25 +2563,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H51" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2831156500081017</v>
+        <v>0.2828487256657856</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3035355009800699</v>
+        <v>0.3041921348621675</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4133488490118284</v>
+        <v>0.4129591394720469</v>
       </c>
       <c r="L51" t="n">
-        <v>1.262695799036134</v>
+        <v>1.261505316469404</v>
       </c>
       <c r="M51" t="n">
-        <v>1.323955351952038</v>
+        <v>1.325535544058549</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2655,25 +2655,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H53" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2561596202921582</v>
+        <v>0.2499850246358342</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3698473340812908</v>
+        <v>0.3850368393958479</v>
       </c>
       <c r="K53" t="n">
-        <v>0.373993045626551</v>
+        <v>0.364978135968318</v>
       </c>
       <c r="L53" t="n">
-        <v>1.142471906503026</v>
+        <v>1.114933209875821</v>
       </c>
       <c r="M53" t="n">
-        <v>1.483535047870423</v>
+        <v>1.520088654155862</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2694,25 +2694,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H54" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6004471482676104</v>
+        <v>0.6082923817775092</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1624198584278007</v>
+        <v>0.1592307391148337</v>
       </c>
       <c r="K54" t="n">
-        <v>0.237132993304589</v>
+        <v>0.2324768791076571</v>
       </c>
       <c r="L54" t="n">
-        <v>2.03847443810742</v>
+        <v>2.057354024440185</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7243925685879909</v>
+        <v>0.7101690964521581</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2786,25 +2786,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H56" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5440703750164532</v>
+        <v>0.5679461790460483</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1853372459282711</v>
+        <v>0.1756316345341267</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2705923790552758</v>
+        <v>0.256422186419825</v>
       </c>
       <c r="L56" t="n">
-        <v>1.902803504104635</v>
+        <v>1.96026072355797</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8266041168400891</v>
+        <v>0.7833170900222053</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2825,25 +2825,25 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H57" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I57" t="n">
-        <v>0.292209518716241</v>
+        <v>0.2819158879218633</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2877197078389264</v>
+        <v>0.3064869157122162</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4200707734448326</v>
+        <v>0.4115971963659205</v>
       </c>
       <c r="L57" t="n">
-        <v>1.296699329593555</v>
+        <v>1.25734486013151</v>
       </c>
       <c r="M57" t="n">
-        <v>1.283229896961612</v>
+        <v>1.331057943502569</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -2917,25 +2917,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H59" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2239573381283475</v>
+        <v>0.2180696508538835</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4490649482042651</v>
+        <v>0.4635486588994466</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3269777136673874</v>
+        <v>0.31838169024667</v>
       </c>
       <c r="L59" t="n">
-        <v>0.99884972805243</v>
+        <v>0.9725906428083204</v>
       </c>
       <c r="M59" t="n">
-        <v>1.674172558280183</v>
+        <v>1.70902766694501</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -2956,25 +2956,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H60" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5218635360244424</v>
+        <v>0.559741381067475</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1943644162502267</v>
+        <v>0.1789669182652541</v>
       </c>
       <c r="K60" t="n">
-        <v>0.283772047725331</v>
+        <v>0.2612917006672709</v>
       </c>
       <c r="L60" t="n">
-        <v>1.849362655798658</v>
+        <v>1.940515843869696</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8668652964760111</v>
+        <v>0.7981924554630332</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -2995,25 +2995,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H61" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3117656445843615</v>
+        <v>0.284893669010666</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2797700631770889</v>
+        <v>0.2991615742337618</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4084642922385497</v>
+        <v>0.4159447567555722</v>
       </c>
       <c r="L61" t="n">
-        <v>1.343761225991634</v>
+        <v>1.27062576378757</v>
       </c>
       <c r="M61" t="n">
-        <v>1.247774481769816</v>
+        <v>1.313429479456858</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3034,25 +3034,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H62" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7160711471713737</v>
+        <v>0.7193277775624789</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1154182328571652</v>
+        <v>0.1140943993648459</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1685106199714612</v>
+        <v>0.1665778230726751</v>
       </c>
       <c r="L62" t="n">
-        <v>2.316724061485582</v>
+        <v>2.324561155760112</v>
       </c>
       <c r="M62" t="n">
-        <v>0.5147653185429568</v>
+        <v>0.5088610211672129</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3073,25 +3073,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H63" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I63" t="n">
-        <v>0.217193250208934</v>
+        <v>0.2156589251692876</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4657046044860221</v>
+        <v>0.4694790440835525</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3171021453050438</v>
+        <v>0.3148620307471598</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9686818959318459</v>
+        <v>0.9618388062550225</v>
       </c>
       <c r="M63" t="n">
-        <v>1.71421595876311</v>
+        <v>1.723299162997817</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3112,25 +3112,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H64" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7913502862980147</v>
+        <v>0.8056098894991602</v>
       </c>
       <c r="J64" t="n">
-        <v>0.08481695678942493</v>
+        <v>0.07902037012229257</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1238327569125604</v>
+        <v>0.1153697403785472</v>
       </c>
       <c r="L64" t="n">
-        <v>2.497883615806605</v>
+        <v>2.532199408876028</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3782836272808352</v>
+        <v>0.3524308507454249</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3151,25 +3151,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H65" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1742887286676436</v>
+        <v>0.1653284452671135</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5712497274775969</v>
+        <v>0.5932920246429008</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2544615438547596</v>
+        <v>0.2413795300899858</v>
       </c>
       <c r="L65" t="n">
-        <v>0.7773277298576902</v>
+        <v>0.7373648658913263</v>
       </c>
       <c r="M65" t="n">
-        <v>1.96821072628755</v>
+        <v>2.021255604018688</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3190,25 +3190,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H66" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6352076489348211</v>
+        <v>0.6599756658907856</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1482895736037312</v>
+        <v>0.1382212740281359</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2165027774614476</v>
+        <v>0.2018030600810784</v>
       </c>
       <c r="L66" t="n">
-        <v>2.122125724265911</v>
+        <v>2.181730057753435</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6613714982726413</v>
+        <v>0.6164668821654862</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3335,25 +3335,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H69" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1741085737074376</v>
+        <v>0.1657558109209556</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5716929086797033</v>
+        <v>0.5922407051344493</v>
       </c>
       <c r="K69" t="n">
-        <v>0.254198517612859</v>
+        <v>0.2420034839445952</v>
       </c>
       <c r="L69" t="n">
-        <v>0.7765242387351718</v>
+        <v>0.739270916707462</v>
       </c>
       <c r="M69" t="n">
-        <v>1.969277243651969</v>
+        <v>2.018725599347943</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3374,25 +3374,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H70" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7489194731849258</v>
+        <v>0.7633345019185176</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1020652548028757</v>
+        <v>0.09620548702499282</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1490152720121986</v>
+        <v>0.1404600110564895</v>
       </c>
       <c r="L70" t="n">
-        <v>2.395773691566976</v>
+        <v>2.430463516812042</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4552110364208257</v>
+        <v>0.429076472131468</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3413,25 +3413,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H71" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1994804466830924</v>
+        <v>0.1913874929992368</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5092781011595926</v>
+        <v>0.5291867672218774</v>
       </c>
       <c r="K71" t="n">
-        <v>0.291241452157315</v>
+        <v>0.2794257397788858</v>
       </c>
       <c r="L71" t="n">
-        <v>0.8896827922065922</v>
+        <v>0.8535882187765962</v>
       </c>
       <c r="M71" t="n">
-        <v>1.819075755636093</v>
+        <v>1.866986041444518</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3452,25 +3452,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H72" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7928351787487357</v>
+        <v>0.7843866964155416</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08421334197205865</v>
+        <v>0.08764768438392614</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1229514792792056</v>
+        <v>0.1279656192005322</v>
       </c>
       <c r="L72" t="n">
-        <v>2.501457015525413</v>
+        <v>2.481125708447157</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3755915051953816</v>
+        <v>0.3909086723523106</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3491,25 +3491,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H73" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1733557189156147</v>
+        <v>0.178771690762523</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5735449314675879</v>
+        <v>0.5602216407241933</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2530993496167974</v>
+        <v>0.2610066685132836</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7731665063636415</v>
+        <v>0.7973217408008526</v>
       </c>
       <c r="M73" t="n">
-        <v>1.973734144019561</v>
+        <v>1.941671590685864</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3530,25 +3530,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H74" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8093432275627934</v>
+        <v>0.8244301602786174</v>
       </c>
       <c r="J74" t="n">
-        <v>0.07750275302325473</v>
+        <v>0.07136985354527751</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1131540194139519</v>
+        <v>0.1041999861761052</v>
       </c>
       <c r="L74" t="n">
-        <v>2.541183702102332</v>
+        <v>2.577490467011957</v>
       </c>
       <c r="M74" t="n">
-        <v>0.3456622784837161</v>
+        <v>0.3183095468119377</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3675,25 +3675,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H77" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2756665665913852</v>
+        <v>0.266218415406939</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3218602461851924</v>
+        <v>0.34510269809893</v>
       </c>
       <c r="K77" t="n">
-        <v>0.4024731872234223</v>
+        <v>0.3886788864941309</v>
       </c>
       <c r="L77" t="n">
-        <v>1.229472886997578</v>
+        <v>1.187334132714948</v>
       </c>
       <c r="M77" t="n">
-        <v>1.368053925778999</v>
+        <v>1.423986980790921</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3714,25 +3714,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H78" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4994923571537876</v>
+        <v>0.5126488736616388</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2034583914008993</v>
+        <v>0.1981102139586834</v>
       </c>
       <c r="K78" t="n">
-        <v>0.297049251445313</v>
+        <v>0.2892409123796778</v>
       </c>
       <c r="L78" t="n">
-        <v>1.795526322906676</v>
+        <v>1.827187533364594</v>
       </c>
       <c r="M78" t="n">
-        <v>0.907424425648011</v>
+        <v>0.8835715542557281</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3806,25 +3806,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H80" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5908818431064926</v>
+        <v>0.6157697811259613</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1663081938591493</v>
+        <v>0.1561911458837555</v>
       </c>
       <c r="K80" t="n">
-        <v>0.242809963034358</v>
+        <v>0.2280390729902831</v>
       </c>
       <c r="L80" t="n">
-        <v>2.015455492353836</v>
+        <v>2.075348416368167</v>
       </c>
       <c r="M80" t="n">
-        <v>0.741734544611806</v>
+        <v>0.6966125106415497</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3845,25 +3845,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H81" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2726182537868606</v>
+        <v>0.2629301463949292</v>
       </c>
       <c r="J81" t="n">
-        <v>0.329359095684323</v>
+        <v>0.3531918398684742</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3980226505288165</v>
+        <v>0.3838780137365966</v>
       </c>
       <c r="L81" t="n">
-        <v>1.215877411889398</v>
+        <v>1.172668452921384</v>
       </c>
       <c r="M81" t="n">
-        <v>1.386099937581786</v>
+        <v>1.443453533342019</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3884,25 +3884,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H82" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7682298013254054</v>
+        <v>0.780197533832412</v>
       </c>
       <c r="J82" t="n">
-        <v>0.09421552791650185</v>
+        <v>0.08935059600308459</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1375546707580927</v>
+        <v>0.1304518701645035</v>
       </c>
       <c r="L82" t="n">
-        <v>2.442244074734309</v>
+        <v>2.471044471661739</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4202012545075983</v>
+        <v>0.3985036581737573</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -3923,25 +3923,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H83" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1877461917786942</v>
+        <v>0.1807877075262882</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5381443682244121</v>
+        <v>0.555262239485331</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2741094399968935</v>
+        <v>0.2639500529883808</v>
       </c>
       <c r="L83" t="n">
-        <v>0.837348015332976</v>
+        <v>0.8063131755672455</v>
       </c>
       <c r="M83" t="n">
-        <v>1.88854254467013</v>
+        <v>1.929736771444374</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -3962,25 +3962,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H84" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5452357177655633</v>
+        <v>0.5481714269413068</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1848635293635921</v>
+        <v>0.1836701516498753</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2699007528708445</v>
+        <v>0.268158421408818</v>
       </c>
       <c r="L84" t="n">
-        <v>1.905607906167535</v>
+        <v>1.912672702232739</v>
       </c>
       <c r="M84" t="n">
-        <v>0.824491340961621</v>
+        <v>0.8191688763584439</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4107,25 +4107,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H87" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2631177127749377</v>
+        <v>0.2563922047917043</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3527304265736531</v>
+        <v>0.3692751762124073</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3841518606514092</v>
+        <v>0.3743326189958883</v>
       </c>
       <c r="L87" t="n">
-        <v>1.173504998976222</v>
+        <v>1.143509233371001</v>
       </c>
       <c r="M87" t="n">
-        <v>1.442343140372368</v>
+        <v>1.48215814763311</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4146,25 +4146,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H88" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5818017482960178</v>
+        <v>0.5915439288933702</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1699992893105619</v>
+        <v>0.166039053295378</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2481989623934203</v>
+        <v>0.2424170178112519</v>
       </c>
       <c r="L88" t="n">
-        <v>1.993604207281474</v>
+        <v>2.017048804491362</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7581968303251059</v>
+        <v>0.7405341776973858</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4185,25 +4185,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H89" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2760907296740611</v>
+        <v>0.272553961596001</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3208168050018096</v>
+        <v>0.3295172544738377</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4030924653241292</v>
+        <v>0.3979287839301614</v>
       </c>
       <c r="L89" t="n">
-        <v>1.231364654346312</v>
+        <v>1.215590668718165</v>
       </c>
       <c r="M89" t="n">
-        <v>1.365542880329558</v>
+        <v>1.386480547351674</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4224,25 +4224,25 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H90" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5248758721273372</v>
+        <v>0.550746694726332</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1931398893791312</v>
+        <v>0.1826232948266943</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2819842384935315</v>
+        <v>0.2666300104469737</v>
       </c>
       <c r="L90" t="n">
-        <v>1.856611854875543</v>
+        <v>1.91887009462597</v>
       </c>
       <c r="M90" t="n">
-        <v>0.8614039066309251</v>
+        <v>0.8144998949270565</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -4263,25 +4263,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H91" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3077860695375135</v>
+        <v>0.2876374848027135</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2813877766107669</v>
+        <v>0.2924117873853249</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4108261538517196</v>
+        <v>0.4199507278119617</v>
       </c>
       <c r="L91" t="n">
-        <v>1.33418436246426</v>
+        <v>1.282863182220102</v>
       </c>
       <c r="M91" t="n">
-        <v>1.25498948368402</v>
+        <v>1.297186089967936</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4355,25 +4355,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H93" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2313869413659815</v>
+        <v>0.2248338576407521</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4307881242396855</v>
+        <v>0.4469087102037497</v>
       </c>
       <c r="K93" t="n">
-        <v>0.337824934394333</v>
+        <v>0.3282574321554981</v>
       </c>
       <c r="L93" t="n">
-        <v>1.031985758492278</v>
+        <v>1.002759005077755</v>
       </c>
       <c r="M93" t="n">
-        <v>1.630189307113389</v>
+        <v>1.668983562766747</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4394,25 +4394,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H94" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5025888564122117</v>
+        <v>0.5424783923198588</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2021996518649546</v>
+        <v>0.185984393365911</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2952114917228336</v>
+        <v>0.2715372143142301</v>
       </c>
       <c r="L94" t="n">
-        <v>1.802978060959469</v>
+        <v>1.898972391273807</v>
       </c>
       <c r="M94" t="n">
-        <v>0.9018104473176973</v>
+        <v>0.8294903944119632</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -4486,25 +4486,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H96" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I96" t="n">
-        <v>0.70012673053182</v>
+        <v>0.7050247016633332</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1218997030358455</v>
+        <v>0.1199086578604337</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1779735664323345</v>
+        <v>0.1750666404762332</v>
       </c>
       <c r="L96" t="n">
-        <v>2.278353758027794</v>
+        <v>2.290140745466233</v>
       </c>
       <c r="M96" t="n">
-        <v>0.5436726755398711</v>
+        <v>0.5347926140575342</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4525,25 +4525,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H97" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I97" t="n">
-        <v>0.224674638621768</v>
+        <v>0.222436625200316</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4473003889904507</v>
+        <v>0.4528059020072228</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3280249723877813</v>
+        <v>0.3247574727924613</v>
       </c>
       <c r="L97" t="n">
-        <v>1.002048888253085</v>
+        <v>0.9920673483934093</v>
       </c>
       <c r="M97" t="n">
-        <v>1.669926139359133</v>
+        <v>1.68317517881413</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4564,25 +4564,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H98" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I98" t="n">
-        <v>0.778324588703143</v>
+        <v>0.7944473004487431</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09011195581173045</v>
+        <v>0.08355800794766538</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1315634554851265</v>
+        <v>0.1219946916035914</v>
       </c>
       <c r="L98" t="n">
-        <v>2.466537221594555</v>
+        <v>2.505336592949821</v>
       </c>
       <c r="M98" t="n">
-        <v>0.4018993229203178</v>
+        <v>0.3726687154465876</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4603,25 +4603,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H99" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I99" t="n">
-        <v>0.181710786482021</v>
+        <v>0.1719495330521474</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5529914652542283</v>
+        <v>0.5770041486917173</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2652977482637507</v>
+        <v>0.2510463182561352</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8104301077098137</v>
+        <v>0.7668949174125773</v>
       </c>
       <c r="M99" t="n">
-        <v>1.924272144026435</v>
+        <v>1.982058764331287</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4642,25 +4642,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H100" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I100" t="n">
-        <v>0.617150092964645</v>
+        <v>0.6441442837474214</v>
       </c>
       <c r="J100" t="n">
-        <v>0.155630043510307</v>
+        <v>0.1446567952246255</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2272198635250481</v>
+        <v>0.2111989210279532</v>
       </c>
       <c r="L100" t="n">
-        <v>2.078670142418983</v>
+        <v>2.143631772270217</v>
       </c>
       <c r="M100" t="n">
-        <v>0.694109994055969</v>
+        <v>0.6451693067018295</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4681,25 +4681,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H101" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2621673100312596</v>
+        <v>0.2509635636796798</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3550684173231012</v>
+        <v>0.3826296333479875</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3827642726456391</v>
+        <v>0.3664068029723326</v>
       </c>
       <c r="L101" t="n">
-        <v>1.169266202739418</v>
+        <v>1.119297494011372</v>
       </c>
       <c r="M101" t="n">
-        <v>1.447969524614943</v>
+        <v>1.514295703016295</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -4720,25 +4720,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H102" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7786246718262841</v>
+        <v>0.7937626043371732</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08998997080232349</v>
+        <v>0.0838363397003361</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1313853573713923</v>
+        <v>0.1224010559624907</v>
       </c>
       <c r="L102" t="n">
-        <v>2.467259372850245</v>
+        <v>2.50368886897401</v>
       </c>
       <c r="M102" t="n">
-        <v>0.4013552697783627</v>
+        <v>0.373910075063499</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4812,25 +4812,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H104" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7341348146489589</v>
+        <v>0.7504961552796686</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1080752785979842</v>
+        <v>0.1014243271220859</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1577899067530569</v>
+        <v>0.1480795175982454</v>
       </c>
       <c r="L104" t="n">
-        <v>2.360194350699933</v>
+        <v>2.399567983437251</v>
       </c>
       <c r="M104" t="n">
-        <v>0.4820157425470094</v>
+        <v>0.4523524989645032</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4851,25 +4851,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H105" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2070189066269791</v>
+        <v>0.1981945683616591</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4907334896976313</v>
+        <v>0.5124413618303187</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3022476036753896</v>
+        <v>0.2893640698080222</v>
       </c>
       <c r="L105" t="n">
-        <v>0.923304323556327</v>
+        <v>0.8839477748929995</v>
       </c>
       <c r="M105" t="n">
-        <v>1.774448072768283</v>
+        <v>1.826688155298978</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4890,25 +4890,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H106" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7798763952966161</v>
+        <v>0.7723497796605052</v>
       </c>
       <c r="J106" t="n">
-        <v>0.08948114012332681</v>
+        <v>0.09254073997540432</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1306424645800571</v>
+        <v>0.1351094803640903</v>
       </c>
       <c r="L106" t="n">
-        <v>2.470271650469905</v>
+        <v>2.452158819345606</v>
       </c>
       <c r="M106" t="n">
-        <v>0.3990858849500376</v>
+        <v>0.4127317002903033</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -4929,25 +4929,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H107" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1807689742512356</v>
+        <v>0.1855170252085752</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5553083233419605</v>
+        <v>0.5436281179869049</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2639227024068039</v>
+        <v>0.2708548568045199</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8062296251605108</v>
+        <v>0.8274059324302456</v>
       </c>
       <c r="M107" t="n">
-        <v>1.929847672432685</v>
+        <v>1.901739210765235</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -4968,25 +4968,25 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H108" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I108" t="n">
-        <v>0.7971528740420126</v>
+        <v>0.8140989128292524</v>
       </c>
       <c r="J108" t="n">
-        <v>0.08245818128373469</v>
+        <v>0.07556954763038523</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1203889446742526</v>
+        <v>0.1103315395403624</v>
       </c>
       <c r="L108" t="n">
-        <v>2.511847566800291</v>
+        <v>2.55262827802812</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3677634885254567</v>
+        <v>0.3370401824315181</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -5007,25 +5007,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H109" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1700228573549919</v>
+        <v>0.1592048826179106</v>
       </c>
       <c r="J109" t="n">
-        <v>0.58174377090672</v>
+        <v>0.60835598875994</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2482333717382881</v>
+        <v>0.2324391286221494</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7583019438032639</v>
+        <v>0.7100537764758812</v>
       </c>
       <c r="M109" t="n">
-        <v>1.993464684458448</v>
+        <v>2.057507094901969</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5046,25 +5046,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H110" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3294690523321107</v>
+        <v>0.3178660880396244</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2725735559625566</v>
+        <v>0.2772902081139739</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3979573917053327</v>
+        <v>0.4048437038464018</v>
       </c>
       <c r="L110" t="n">
-        <v>1.386364548701665</v>
+        <v>1.358441967965275</v>
       </c>
       <c r="M110" t="n">
-        <v>1.215678059593003</v>
+        <v>1.236714328188323</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5085,25 +5085,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H111" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I111" t="n">
-        <v>0.4941241482277867</v>
+        <v>0.5063667248637642</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2056405901513062</v>
+        <v>0.2006639329822097</v>
       </c>
       <c r="K111" t="n">
-        <v>0.300235261620907</v>
+        <v>0.2929693421540261</v>
       </c>
       <c r="L111" t="n">
-        <v>1.782607706304267</v>
+        <v>1.812069516745319</v>
       </c>
       <c r="M111" t="n">
-        <v>0.9171570320748257</v>
+        <v>0.8949611411006552</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -5124,25 +5124,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H112" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4155799932389799</v>
+        <v>0.4151851260492763</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2375691084394391</v>
+        <v>0.2377296235572048</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3468508983215811</v>
+        <v>0.347085250393519</v>
       </c>
       <c r="L112" t="n">
-        <v>1.593590878038521</v>
+        <v>1.592640628541348</v>
       </c>
       <c r="M112" t="n">
-        <v>1.059558223639898</v>
+        <v>1.060274121065133</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5216,25 +5216,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H114" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I114" t="n">
-        <v>0.6200559455037328</v>
+        <v>0.611260978539636</v>
       </c>
       <c r="J114" t="n">
-        <v>0.154448802640759</v>
+        <v>0.1580239924635626</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2254952518555081</v>
+        <v>0.2307150289968014</v>
       </c>
       <c r="L114" t="n">
-        <v>2.085663088366706</v>
+        <v>2.064497964615709</v>
       </c>
       <c r="M114" t="n">
-        <v>0.6888416597777852</v>
+        <v>0.7047870063874893</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5255,25 +5255,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H115" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2557385764127312</v>
+        <v>0.2588080944185137</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3708831020246811</v>
+        <v>0.3633320877304563</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3733783215625876</v>
+        <v>0.37785981785103</v>
       </c>
       <c r="L115" t="n">
-        <v>1.140594050800781</v>
+        <v>1.154284101106571</v>
       </c>
       <c r="M115" t="n">
-        <v>1.486027627636631</v>
+        <v>1.467856081042399</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5294,25 +5294,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H116" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3711893490878919</v>
+        <v>0.3495729503329368</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2556140857366293</v>
+        <v>0.2644012397020583</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3731965651754788</v>
+        <v>0.386025809965005</v>
       </c>
       <c r="L116" t="n">
-        <v>1.486764612439154</v>
+        <v>1.434744660963815</v>
       </c>
       <c r="M116" t="n">
-        <v>1.140038822385367</v>
+        <v>1.17922952907118</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5386,25 +5386,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H118" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I118" t="n">
-        <v>0.440059798094554</v>
+        <v>0.4315472446573049</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2276179682542463</v>
+        <v>0.2310783558303639</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3323222336511996</v>
+        <v>0.3373743995123313</v>
       </c>
       <c r="L118" t="n">
-        <v>1.652501627934862</v>
+        <v>1.632016133484246</v>
       </c>
       <c r="M118" t="n">
-        <v>1.015176138413939</v>
+        <v>1.030609467003423</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5425,25 +5425,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H119" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3747343394474651</v>
+        <v>0.3817543576651354</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2541730327449329</v>
+        <v>0.2513193668027905</v>
       </c>
       <c r="K119" t="n">
-        <v>0.371092627807602</v>
+        <v>0.3669262755320742</v>
       </c>
       <c r="L119" t="n">
-        <v>1.495295646149997</v>
+        <v>1.51218934852748</v>
       </c>
       <c r="M119" t="n">
-        <v>1.133611726042401</v>
+        <v>1.120884375940446</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5517,25 +5517,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H121" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4087833086090933</v>
+        <v>0.423830855958707</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2403319883702873</v>
+        <v>0.2342150992037776</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3508847030206194</v>
+        <v>0.3419540448375153</v>
       </c>
       <c r="L121" t="n">
-        <v>1.577234628847899</v>
+        <v>1.613446612713636</v>
       </c>
       <c r="M121" t="n">
-        <v>1.071880668131481</v>
+        <v>1.044599342448848</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -5556,25 +5556,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H122" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3522939281281503</v>
+        <v>0.3519419578781321</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2632951511674186</v>
+        <v>0.2634382285048243</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3844109207044312</v>
+        <v>0.3846198136170435</v>
       </c>
       <c r="L122" t="n">
-        <v>1.441292705088882</v>
+        <v>1.44044568725144</v>
       </c>
       <c r="M122" t="n">
-        <v>1.174296374206687</v>
+        <v>1.174934499131516</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5595,25 +5595,25 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H123" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4677484856517501</v>
+        <v>0.4666155420130174</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2163624042066056</v>
+        <v>0.2168229504012124</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3158891101416442</v>
+        <v>0.3165615075857701</v>
       </c>
       <c r="L123" t="n">
-        <v>1.719134567096894</v>
+        <v>1.716408133624822</v>
       </c>
       <c r="M123" t="n">
-        <v>0.9649763227614611</v>
+        <v>0.9670303587894074</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -5634,25 +5634,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H124" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5187091114426295</v>
+        <v>0.508555892583876</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1956467026655978</v>
+        <v>0.1997740274049284</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2856441858917728</v>
+        <v>0.2916700800111955</v>
       </c>
       <c r="L124" t="n">
-        <v>1.841771520219661</v>
+        <v>1.817337757762824</v>
       </c>
       <c r="M124" t="n">
-        <v>0.8725842938885661</v>
+        <v>0.8909921622259809</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5673,25 +5673,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H125" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3014544047709258</v>
+        <v>0.3091134327723168</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2839616240768595</v>
+        <v>0.2808481980600338</v>
       </c>
       <c r="K125" t="n">
-        <v>0.4145839711522148</v>
+        <v>0.4100383691676494</v>
       </c>
       <c r="L125" t="n">
-        <v>1.318947185464992</v>
+        <v>1.3373786674846</v>
       </c>
       <c r="M125" t="n">
-        <v>1.266468843382793</v>
+        <v>1.252582963347751</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5765,25 +5765,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H127" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4909044977162799</v>
+        <v>0.4752606464009816</v>
       </c>
       <c r="J127" t="n">
-        <v>0.206949391172244</v>
+        <v>0.2133086803248042</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3021461111114762</v>
+        <v>0.3114306732742141</v>
       </c>
       <c r="L127" t="n">
-        <v>1.774859604260316</v>
+        <v>1.737212612477159</v>
       </c>
       <c r="M127" t="n">
-        <v>0.922994284628208</v>
+        <v>0.9513567142486269</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5857,25 +5857,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H129" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2884089389866188</v>
+        <v>0.3040478006768889</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2905140100929176</v>
+        <v>0.2829073980988257</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4210770509204635</v>
+        <v>0.4130448012242855</v>
       </c>
       <c r="L129" t="n">
-        <v>1.28630386788032</v>
+        <v>1.325188203254952</v>
       </c>
       <c r="M129" t="n">
-        <v>1.292619081199216</v>
+        <v>1.261766995520763</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -5896,25 +5896,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H130" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6335257964067542</v>
+        <v>0.6312870191889843</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1489732534931894</v>
+        <v>0.1498833255329332</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2175009501000564</v>
+        <v>0.2188296552780825</v>
       </c>
       <c r="L130" t="n">
-        <v>2.118078339320319</v>
+        <v>2.112690712845036</v>
       </c>
       <c r="M130" t="n">
-        <v>0.6644207105796245</v>
+        <v>0.6684796318768821</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -5988,25 +5988,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H132" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I132" t="n">
-        <v>0.442483819839533</v>
+        <v>0.4450220113072174</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2266325935611654</v>
+        <v>0.2256008084117003</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3308835865993016</v>
+        <v>0.3293771802810824</v>
       </c>
       <c r="L132" t="n">
-        <v>1.658335046117901</v>
+        <v>1.664443214202735</v>
       </c>
       <c r="M132" t="n">
-        <v>1.010781367282798</v>
+        <v>1.006179605516183</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6027,25 +6027,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H133" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3723416167029016</v>
+        <v>0.3684122194617037</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2551456842671132</v>
+        <v>0.2567430002188196</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3725126990299852</v>
+        <v>0.3748447803194767</v>
       </c>
       <c r="L133" t="n">
-        <v>1.48953754913869</v>
+        <v>1.480081438704588</v>
       </c>
       <c r="M133" t="n">
-        <v>1.137949751831325</v>
+        <v>1.145073780975936</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -6066,25 +6066,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H134" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6339297024935898</v>
+        <v>0.6303117424468301</v>
       </c>
       <c r="J134" t="n">
-        <v>0.148809064026996</v>
+        <v>0.1502797794931585</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2172612334794141</v>
+        <v>0.2194084780600114</v>
       </c>
       <c r="L134" t="n">
-        <v>2.119050340960184</v>
+        <v>2.110343705400502</v>
       </c>
       <c r="M134" t="n">
-        <v>0.6636884255604021</v>
+        <v>0.670247816539487</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6105,25 +6105,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H135" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2498412687954928</v>
+        <v>0.250805390974013</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3853904787630877</v>
+        <v>0.383018738203928</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3647682524414196</v>
+        <v>0.366175870822059</v>
       </c>
       <c r="L135" t="n">
-        <v>1.114292058827898</v>
+        <v>1.118592043744098</v>
       </c>
       <c r="M135" t="n">
-        <v>1.520939688730683</v>
+        <v>1.515232085433843</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6144,25 +6144,25 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H136" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I136" t="n">
-        <v>0.5761885933204527</v>
+        <v>0.5712757570492937</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1722810596258323</v>
+        <v>0.1742781475409375</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2515303470537151</v>
+        <v>0.2544460954097688</v>
       </c>
       <c r="L136" t="n">
-        <v>1.980096127015073</v>
+        <v>1.96827336655765</v>
       </c>
       <c r="M136" t="n">
-        <v>0.7683735259312119</v>
+        <v>0.7772805380325811</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -6183,25 +6183,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H137" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2732719802673834</v>
+        <v>0.2745884424270613</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3277509285422371</v>
+        <v>0.3245124316294292</v>
       </c>
       <c r="K137" t="n">
-        <v>0.3989770911903797</v>
+        <v>0.4008991259435095</v>
       </c>
       <c r="L137" t="n">
-        <v>1.21879303199253</v>
+        <v>1.224664453224694</v>
       </c>
       <c r="M137" t="n">
-        <v>1.382229876817091</v>
+        <v>1.374436420831797</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6222,25 +6222,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H138" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I138" t="n">
-        <v>0.6356166951416459</v>
+        <v>0.6004703069218963</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1481232946578676</v>
+        <v>0.1624104443406926</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2162600102004866</v>
+        <v>0.2371192487374112</v>
       </c>
       <c r="L138" t="n">
-        <v>2.123110095625425</v>
+        <v>2.0385301695031</v>
       </c>
       <c r="M138" t="n">
-        <v>0.6606298941740893</v>
+        <v>0.7243505817594891</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6261,25 +6261,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H139" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2491119694620449</v>
+        <v>0.2631984907284383</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3871845551233696</v>
+        <v>0.3525317128080419</v>
       </c>
       <c r="K139" t="n">
-        <v>0.3637034754145855</v>
+        <v>0.3842697964635199</v>
       </c>
       <c r="L139" t="n">
-        <v>1.11103938380072</v>
+        <v>1.173865268648835</v>
       </c>
       <c r="M139" t="n">
-        <v>1.525257140784694</v>
+        <v>1.441864934887645</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6353,25 +6353,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H141" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2385973465667126</v>
+        <v>0.2377206287352367</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4130505274458868</v>
+        <v>0.4152072533113177</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3483521259874005</v>
+        <v>0.3470721179534456</v>
       </c>
       <c r="L141" t="n">
-        <v>1.064144165687539</v>
+        <v>1.060234004159156</v>
       </c>
       <c r="M141" t="n">
-        <v>1.587503708325061</v>
+        <v>1.592693877887399</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6392,25 +6392,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H142" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5023331788123757</v>
+        <v>0.5149198511738565</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2023035858486278</v>
+        <v>0.197187052368351</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2953632353389966</v>
+        <v>0.2878930964577924</v>
       </c>
       <c r="L142" t="n">
-        <v>1.802362771776124</v>
+        <v>1.832652649979362</v>
       </c>
       <c r="M142" t="n">
-        <v>0.90227399288488</v>
+        <v>0.8794542535628453</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6431,25 +6431,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H143" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I143" t="n">
-        <v>0.3219689012450728</v>
+        <v>0.3101979974926685</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2756223978678566</v>
+        <v>0.2804073180924112</v>
       </c>
       <c r="K143" t="n">
-        <v>0.4024087008870706</v>
+        <v>0.4093946844149203</v>
       </c>
       <c r="L143" t="n">
-        <v>1.368315404622289</v>
+        <v>1.339988676892926</v>
       </c>
       <c r="M143" t="n">
-        <v>1.22927589449064</v>
+        <v>1.250616638692154</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -6470,25 +6470,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H144" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I144" t="n">
-        <v>0.6984785412624889</v>
+        <v>0.7015906140286053</v>
       </c>
       <c r="J144" t="n">
-        <v>0.122569698673785</v>
+        <v>0.1213046284436563</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1789517600637261</v>
+        <v>0.1771047575277383</v>
       </c>
       <c r="L144" t="n">
-        <v>2.274387383851193</v>
+        <v>2.281876599613554</v>
       </c>
       <c r="M144" t="n">
-        <v>0.5466608560850812</v>
+        <v>0.5410186428587073</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -6509,25 +6509,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H145" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2226667247116462</v>
+        <v>0.2209040772684265</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4522398572093504</v>
+        <v>0.4565759699196709</v>
       </c>
       <c r="K145" t="n">
-        <v>0.3250934180790034</v>
+        <v>0.3225199528119027</v>
       </c>
       <c r="L145" t="n">
-        <v>0.993093592213942</v>
+        <v>0.9852321846171821</v>
       </c>
       <c r="M145" t="n">
-        <v>1.681812989707054</v>
+        <v>1.692247862570915</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -6601,25 +6601,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H147" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I147" t="n">
-        <v>0.365605018239956</v>
+        <v>0.3752605912278973</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2578841389268471</v>
+        <v>0.2539591092569523</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3765108428331968</v>
+        <v>0.3707802995151503</v>
       </c>
       <c r="L147" t="n">
-        <v>1.473325897553065</v>
+        <v>1.496562073198842</v>
       </c>
       <c r="M147" t="n">
-        <v>1.150163259613738</v>
+        <v>1.132657627286007</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6640,25 +6640,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H148" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5273123371859463</v>
+        <v>0.5316393557247232</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1921494564284771</v>
+        <v>0.1903905058029581</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2805382063855766</v>
+        <v>0.2779701384723188</v>
       </c>
       <c r="L148" t="n">
-        <v>1.862475217943415</v>
+        <v>1.872888205646488</v>
       </c>
       <c r="M148" t="n">
-        <v>0.856986575671008</v>
+        <v>0.8491416558811931</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6785,25 +6785,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H151" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3305269396056128</v>
+        <v>0.3331742954060795</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2721435204855233</v>
+        <v>0.2710673595910246</v>
       </c>
       <c r="K151" t="n">
-        <v>0.397329539908864</v>
+        <v>0.3957583450028959</v>
       </c>
       <c r="L151" t="n">
-        <v>1.388910358725703</v>
+        <v>1.395281231221134</v>
       </c>
       <c r="M151" t="n">
-        <v>1.213760101365434</v>
+        <v>1.20896042377597</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6824,25 +6824,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H152" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4356848842057757</v>
+        <v>0.4481258230446003</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2293963885342375</v>
+        <v>0.2243390963233332</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3349187272599868</v>
+        <v>0.3275350806320664</v>
       </c>
       <c r="L152" t="n">
-        <v>1.641973379877314</v>
+        <v>1.671912549765867</v>
       </c>
       <c r="M152" t="n">
-        <v>1.023107892862699</v>
+        <v>1.000552369602066</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -6863,25 +6863,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H153" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3855656088989006</v>
+        <v>0.3727276269583802</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2497700776833737</v>
+        <v>0.2549887695291137</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3646643134177256</v>
+        <v>0.372283603512506</v>
       </c>
       <c r="L153" t="n">
-        <v>1.521361140114428</v>
+        <v>1.490466484387647</v>
       </c>
       <c r="M153" t="n">
-        <v>1.113974546467847</v>
+        <v>1.137249912099847</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -6902,25 +6902,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H154" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6047146967447289</v>
+        <v>0.6074235130024027</v>
       </c>
       <c r="J154" t="n">
-        <v>0.160685082624094</v>
+        <v>0.1595839378039014</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2346002206311772</v>
+        <v>0.232992549193696</v>
       </c>
       <c r="L154" t="n">
-        <v>2.048744310865364</v>
+        <v>2.055263088200904</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7166554685034592</v>
+        <v>0.7117443626054001</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -6941,25 +6941,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H155" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I155" t="n">
-        <v>0.264606247649644</v>
+        <v>0.263321872037489</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3490686307818758</v>
+        <v>0.3522281947877771</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3863251215684802</v>
+        <v>0.3844499331747339</v>
       </c>
       <c r="L155" t="n">
-        <v>1.180143864517412</v>
+        <v>1.174415549287201</v>
       </c>
       <c r="M155" t="n">
-        <v>1.433531013914108</v>
+        <v>1.441134517538065</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -6980,25 +6980,25 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H156" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4138859936013141</v>
+        <v>0.4398896317345647</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2382577261783276</v>
+        <v>0.2276871415713151</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3478562802203583</v>
+        <v>0.3324232266941201</v>
       </c>
       <c r="L156" t="n">
-        <v>1.589514261024301</v>
+        <v>1.652092121897814</v>
       </c>
       <c r="M156" t="n">
-        <v>1.062629458755341</v>
+        <v>1.015484651408066</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -7019,25 +7019,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H157" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I157" t="n">
-        <v>0.4077700956641447</v>
+        <v>0.3808753653196345</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2407438635511607</v>
+        <v>0.2516766807643762</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3514860407846946</v>
+        <v>0.3674479539159893</v>
       </c>
       <c r="L157" t="n">
-        <v>1.574796327777129</v>
+        <v>1.510074049874893</v>
       </c>
       <c r="M157" t="n">
-        <v>1.073717631438177</v>
+        <v>1.122477996209118</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7111,25 +7111,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H159" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2583519811812514</v>
+        <v>0.2611040699492071</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3644541262941214</v>
+        <v>0.3576839879249505</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3771938925246271</v>
+        <v>0.3812119421258424</v>
       </c>
       <c r="L159" t="n">
-        <v>1.152249836068381</v>
+        <v>1.164524151973464</v>
       </c>
       <c r="M159" t="n">
-        <v>1.470556271406991</v>
+        <v>1.454263905900694</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7150,25 +7150,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H160" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I160" t="n">
-        <v>0.7104663714942027</v>
+        <v>0.7191016921996616</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1176965969535761</v>
+        <v>0.1141863039838774</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1718370315522211</v>
+        <v>0.166712003816461</v>
       </c>
       <c r="L160" t="n">
-        <v>2.303236146034829</v>
+        <v>2.324017080415446</v>
       </c>
       <c r="M160" t="n">
-        <v>0.5249268224129495</v>
+        <v>0.509270915768093</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7189,25 +7189,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H161" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2166203505113831</v>
+        <v>0.2119462592403805</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4671139377419974</v>
+        <v>0.4786122022686639</v>
       </c>
       <c r="K161" t="n">
-        <v>0.3162657117466194</v>
+        <v>0.3094415384909556</v>
       </c>
       <c r="L161" t="n">
-        <v>0.9661267632807689</v>
+        <v>0.9452803162120972</v>
       </c>
       <c r="M161" t="n">
-        <v>1.717607524972612</v>
+        <v>1.745278145296947</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7228,25 +7228,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H162" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I162" t="n">
-        <v>0.529762261976543</v>
+        <v>0.5452417346981059</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1911535520420557</v>
+        <v>0.1848610834560545</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2790841859814013</v>
+        <v>0.2698971818458396</v>
       </c>
       <c r="L162" t="n">
-        <v>1.86837097191103</v>
+        <v>1.905622385940157</v>
       </c>
       <c r="M162" t="n">
-        <v>0.8525448421075683</v>
+        <v>0.8244804322140031</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7320,25 +7320,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H164" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I164" t="n">
-        <v>0.7108241853025625</v>
+        <v>0.7182550267471669</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1175511441859502</v>
+        <v>0.114530476932046</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1716246705114873</v>
+        <v>0.1672144963207871</v>
       </c>
       <c r="L164" t="n">
-        <v>2.304097226419175</v>
+        <v>2.321979576562288</v>
       </c>
       <c r="M164" t="n">
-        <v>0.5242781030693378</v>
+        <v>0.5108059271169251</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7359,25 +7359,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H165" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2164372224751307</v>
+        <v>0.2123880087778665</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4675644327111783</v>
+        <v>0.4775254984064484</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3159983448136909</v>
+        <v>0.3100864928156851</v>
       </c>
       <c r="L165" t="n">
-        <v>0.965310012239083</v>
+        <v>0.9472505191492846</v>
       </c>
       <c r="M165" t="n">
-        <v>1.718691642947226</v>
+        <v>1.74266298803503</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7398,25 +7398,25 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H166" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6586814984396671</v>
+        <v>0.6658169909244352</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1387473583578589</v>
+        <v>0.1358467516567337</v>
       </c>
       <c r="K166" t="n">
-        <v>0.202571143202474</v>
+        <v>0.1983362574188312</v>
       </c>
       <c r="L166" t="n">
-        <v>2.178615638521475</v>
+        <v>2.195787230192137</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6188132182760508</v>
+        <v>0.6058765123890322</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -7490,25 +7490,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H168" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I168" t="n">
-        <v>0.7123176297166537</v>
+        <v>0.6920440948615696</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1169440529607099</v>
+        <v>0.1251853272920448</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1707383173226364</v>
+        <v>0.1827705778463855</v>
       </c>
       <c r="L168" t="n">
-        <v>2.307691206472597</v>
+        <v>2.258902862431095</v>
       </c>
       <c r="M168" t="n">
-        <v>0.521570476204766</v>
+        <v>0.55832655972252</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7582,25 +7582,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H170" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I170" t="n">
-        <v>0.733081706604803</v>
+        <v>0.7436321182822302</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1085033712988606</v>
+        <v>0.104214586064134</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1584149220963365</v>
+        <v>0.1521532956536357</v>
       </c>
       <c r="L170" t="n">
-        <v>2.357660041910746</v>
+        <v>2.383049650500326</v>
       </c>
       <c r="M170" t="n">
-        <v>0.4839250359929184</v>
+        <v>0.4647970538460379</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7621,25 +7621,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H171" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2047320314548888</v>
+        <v>0.1987490689464353</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4963592026209735</v>
+        <v>0.511077290391769</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2989087659241377</v>
+        <v>0.2901736406617956</v>
       </c>
       <c r="L171" t="n">
-        <v>0.9131048602888041</v>
+        <v>0.8864208475011017</v>
       </c>
       <c r="M171" t="n">
-        <v>1.787986373787058</v>
+        <v>1.823405511837102</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7660,25 +7660,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H172" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I172" t="n">
-        <v>0.6119781504692431</v>
+        <v>0.6027694095422271</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1577324591588443</v>
+        <v>0.1614758497795825</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2302893903719127</v>
+        <v>0.2357547406781904</v>
       </c>
       <c r="L172" t="n">
-        <v>2.066223841779642</v>
+        <v>2.044062969304872</v>
       </c>
       <c r="M172" t="n">
-        <v>0.7034867678484457</v>
+        <v>0.7201822900169379</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -7699,25 +7699,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H173" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2588397355673577</v>
+        <v>0.2620114477524432</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3632542505043003</v>
+        <v>0.3554518385289899</v>
       </c>
       <c r="K173" t="n">
-        <v>0.3779060139283421</v>
+        <v>0.382536713718567</v>
       </c>
       <c r="L173" t="n">
-        <v>1.154425220630415</v>
+        <v>1.168571056975896</v>
       </c>
       <c r="M173" t="n">
-        <v>1.467668765441243</v>
+        <v>1.448892229305537</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7738,25 +7738,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H174" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3632539728688166</v>
+        <v>0.3415229284347354</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2588398484273103</v>
+        <v>0.2676736063273433</v>
       </c>
       <c r="K174" t="n">
-        <v>0.3779061787038731</v>
+        <v>0.3908034652379212</v>
       </c>
       <c r="L174" t="n">
-        <v>1.467668097310323</v>
+        <v>1.415372250542128</v>
       </c>
       <c r="M174" t="n">
-        <v>1.154425723985804</v>
+        <v>1.193824284219951</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7777,25 +7777,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H175" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4547552142192502</v>
+        <v>0.4778422835153008</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2216442218620934</v>
+        <v>0.2122592343433736</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3236005639186564</v>
+        <v>0.3098984821413255</v>
       </c>
       <c r="L175" t="n">
-        <v>1.687866206576407</v>
+        <v>1.743425332687228</v>
       </c>
       <c r="M175" t="n">
-        <v>0.9885332295049367</v>
+        <v>0.9466761851714465</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -7816,25 +7816,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H176" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4316628099009908</v>
+        <v>0.4228366933020508</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2310313780890281</v>
+        <v>0.23461923036502</v>
       </c>
       <c r="K176" t="n">
-        <v>0.337305812009981</v>
+        <v>0.3425440763329292</v>
       </c>
       <c r="L176" t="n">
-        <v>1.632294241712953</v>
+        <v>1.611054156239082</v>
       </c>
       <c r="M176" t="n">
-        <v>1.030399946277065</v>
+        <v>1.046401767427989</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -7855,25 +7855,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H177" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3824594741812713</v>
+        <v>0.3898650168865403</v>
       </c>
       <c r="J177" t="n">
-        <v>0.251032734072654</v>
+        <v>0.24802235085913</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3665077917460748</v>
+        <v>0.3621126322543298</v>
       </c>
       <c r="L177" t="n">
-        <v>1.513886214289889</v>
+        <v>1.531707682913951</v>
       </c>
       <c r="M177" t="n">
-        <v>1.119605993964037</v>
+        <v>1.10617968483172</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -7894,25 +7894,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H178" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3983047965870385</v>
+        <v>0.3823823566442522</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2445915461028299</v>
+        <v>0.2510640826649381</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3571036573101316</v>
+        <v>0.3665535606908096</v>
       </c>
       <c r="L178" t="n">
-        <v>1.552018047071247</v>
+        <v>1.513700630623567</v>
       </c>
       <c r="M178" t="n">
-        <v>1.090878295618621</v>
+        <v>1.119745808685624</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8039,25 +8039,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H181" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I181" t="n">
-        <v>0.47593157868346</v>
+        <v>0.475143518406299</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2130359436246097</v>
+        <v>0.2133562933307728</v>
       </c>
       <c r="K181" t="n">
-        <v>0.3110324776919302</v>
+        <v>0.3115001882629282</v>
       </c>
       <c r="L181" t="n">
-        <v>1.73882721374231</v>
+        <v>1.736930743481825</v>
       </c>
       <c r="M181" t="n">
-        <v>0.9501403085657594</v>
+        <v>0.9515690682552466</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8078,25 +8078,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H182" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5101787532499718</v>
+        <v>0.4996572265724875</v>
       </c>
       <c r="J182" t="n">
-        <v>0.199114327947166</v>
+        <v>0.2033913713119969</v>
       </c>
       <c r="K182" t="n">
-        <v>0.2907069188028623</v>
+        <v>0.2969514021155155</v>
       </c>
       <c r="L182" t="n">
-        <v>1.821243178552778</v>
+        <v>1.795923081832978</v>
       </c>
       <c r="M182" t="n">
-        <v>0.8880499026443602</v>
+        <v>0.9071255160515064</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8117,25 +8117,25 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H183" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I183" t="n">
-        <v>0.3084140151135882</v>
+        <v>0.3164707789029173</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2811325141814682</v>
+        <v>0.2778574069500336</v>
       </c>
       <c r="K183" t="n">
-        <v>0.4104534707049436</v>
+        <v>0.4056718141470491</v>
       </c>
       <c r="L183" t="n">
-        <v>1.335695516045708</v>
+        <v>1.355084150855801</v>
       </c>
       <c r="M183" t="n">
-        <v>1.253851013249348</v>
+        <v>1.23924403499715</v>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
@@ -8156,25 +8156,25 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H184" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3246787867373164</v>
+        <v>0.3363782731202606</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2745208183994648</v>
+        <v>0.2697649296259103</v>
       </c>
       <c r="K184" t="n">
-        <v>0.4008003948632187</v>
+        <v>0.393856797253829</v>
       </c>
       <c r="L184" t="n">
-        <v>1.374836755075168</v>
+        <v>1.402991616614611</v>
       </c>
       <c r="M184" t="n">
-        <v>1.224362850061613</v>
+        <v>1.20315158613156</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -8195,25 +8195,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H185" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4991128132080077</v>
+        <v>0.4838033097996434</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2036126775577204</v>
+        <v>0.2098360529269742</v>
       </c>
       <c r="K185" t="n">
-        <v>0.2972745092342718</v>
+        <v>0.3063606372733823</v>
       </c>
       <c r="L185" t="n">
-        <v>1.794612948858295</v>
+        <v>1.757770566672312</v>
       </c>
       <c r="M185" t="n">
-        <v>0.9081125419074332</v>
+        <v>0.9358687960543048</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8234,25 +8234,25 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H186" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5262742232617906</v>
+        <v>0.5053850720708241</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1925714539586217</v>
+        <v>0.2010629788329983</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2811543227795877</v>
+        <v>0.2935519490961775</v>
       </c>
       <c r="L186" t="n">
-        <v>1.85997699256496</v>
+        <v>1.80970716530865</v>
       </c>
       <c r="M186" t="n">
-        <v>0.8588686846554529</v>
+        <v>0.8967408855951726</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -8273,25 +8273,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H187" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I187" t="n">
-        <v>0.2942987709769986</v>
+        <v>0.3113389104379242</v>
       </c>
       <c r="J187" t="n">
-        <v>0.286870418302033</v>
+        <v>0.2799435323423072</v>
       </c>
       <c r="K187" t="n">
-        <v>0.4188308107209682</v>
+        <v>0.4087175572197685</v>
       </c>
       <c r="L187" t="n">
-        <v>1.301727123651964</v>
+        <v>1.342734288533541</v>
       </c>
       <c r="M187" t="n">
-        <v>1.279442065627067</v>
+        <v>1.24854815424669</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8312,25 +8312,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H188" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6255614408437282</v>
+        <v>0.6229630716879234</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1522107964049885</v>
+        <v>0.1532670440292994</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2222277627512832</v>
+        <v>0.2237698842827771</v>
       </c>
       <c r="L188" t="n">
-        <v>2.098912085282468</v>
+        <v>2.092659099346547</v>
       </c>
       <c r="M188" t="n">
-        <v>0.6788601519662487</v>
+        <v>0.6835710163706754</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8404,25 +8404,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H190" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4340764346605303</v>
+        <v>0.4362482055759194</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2300502298127926</v>
+        <v>0.2291673961073499</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3358733355266771</v>
+        <v>0.3345843983167308</v>
       </c>
       <c r="L190" t="n">
-        <v>1.638102639508268</v>
+        <v>1.643329015044489</v>
       </c>
       <c r="M190" t="n">
-        <v>1.026024024965055</v>
+        <v>1.02208658663878</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -8443,25 +8443,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H191" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3800474066847296</v>
+        <v>0.3764119986768985</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2520132493151506</v>
+        <v>0.2534910574484153</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3679393440001199</v>
+        <v>0.3700969438746863</v>
       </c>
       <c r="L191" t="n">
-        <v>1.508081564054308</v>
+        <v>1.499332939905381</v>
       </c>
       <c r="M191" t="n">
-        <v>1.123979091945571</v>
+        <v>1.130570116219932</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8535,25 +8535,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H193" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2529909164324654</v>
+        <v>0.2540800906762585</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3776423455761351</v>
+        <v>0.3749629769364041</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3693667379913995</v>
+        <v>0.3709569323873374</v>
       </c>
       <c r="L193" t="n">
-        <v>1.128339487288796</v>
+        <v>1.133197204416113</v>
       </c>
       <c r="M193" t="n">
-        <v>1.502293774719805</v>
+        <v>1.49584586319655</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8574,25 +8574,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H194" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I194" t="n">
-        <v>0.5678281971853246</v>
+        <v>0.562535849305329</v>
       </c>
       <c r="J194" t="n">
-        <v>0.175679594640112</v>
+        <v>0.1778309555669394</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2564922081745635</v>
+        <v>0.2596331951277315</v>
       </c>
       <c r="L194" t="n">
-        <v>1.959976799730538</v>
+        <v>1.947240743043718</v>
       </c>
       <c r="M194" t="n">
-        <v>0.7835309920948994</v>
+        <v>0.7931260618285498</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8613,25 +8613,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H195" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2761962523166498</v>
+        <v>0.2776199794733401</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3205572193010414</v>
+        <v>0.3170548504955835</v>
       </c>
       <c r="K195" t="n">
-        <v>0.4032465283823088</v>
+        <v>0.4053251700310765</v>
       </c>
       <c r="L195" t="n">
-        <v>1.231835285332258</v>
+        <v>1.238185108451097</v>
       </c>
       <c r="M195" t="n">
-        <v>1.364918186285433</v>
+        <v>1.356489721517827</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -8652,25 +8652,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H196" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I196" t="n">
-        <v>0.6276710741558205</v>
+        <v>0.591900396267559</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1513532218878779</v>
+        <v>0.1658941478587159</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2209757039563017</v>
+        <v>0.2422054558737252</v>
       </c>
       <c r="L196" t="n">
-        <v>2.103988926423763</v>
+        <v>2.017906644676402</v>
       </c>
       <c r="M196" t="n">
-        <v>0.6750353696199353</v>
+        <v>0.7398878994498729</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8797,25 +8797,25 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H199" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2418240476001724</v>
+        <v>0.2410890251457508</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4051128429035759</v>
+        <v>0.406920998141453</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3530631094962516</v>
+        <v>0.3519899767127961</v>
       </c>
       <c r="L199" t="n">
-        <v>1.078535252296769</v>
+        <v>1.075257052150048</v>
       </c>
       <c r="M199" t="n">
-        <v>1.568401638206979</v>
+        <v>1.572752971137155</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -8836,25 +8836,25 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H200" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I200" t="n">
-        <v>0.2409306418752867</v>
+        <v>0.2351819267798604</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4073106209867946</v>
+        <v>0.4214524601215435</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3517587371379186</v>
+        <v>0.3433656130985962</v>
       </c>
       <c r="L200" t="n">
-        <v>1.074550662763779</v>
+        <v>1.048911393438178</v>
       </c>
       <c r="M200" t="n">
-        <v>1.573690600098302</v>
+        <v>1.607722993463227</v>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
@@ -8928,25 +8928,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H202" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2681100613832363</v>
+        <v>0.2681918846374358</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3404492489972389</v>
+        <v>0.340247963791908</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3914406896195249</v>
+        <v>0.3915601515706563</v>
       </c>
       <c r="L202" t="n">
-        <v>1.195770873769234</v>
+        <v>1.196135805482963</v>
       </c>
       <c r="M202" t="n">
-        <v>1.412788436611242</v>
+        <v>1.41230404294638</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9020,25 +9020,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H204" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I204" t="n">
-        <v>0.2553019504981112</v>
+        <v>0.2524471777276777</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3719572017746467</v>
+        <v>0.3789799427899128</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3727408477272423</v>
+        <v>0.3685728794824095</v>
       </c>
       <c r="L204" t="n">
-        <v>1.138646699221576</v>
+        <v>1.125914412665443</v>
       </c>
       <c r="M204" t="n">
-        <v>1.488612453051182</v>
+        <v>1.505512707852148</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9059,25 +9059,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H205" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I205" t="n">
-        <v>0.6211825009431754</v>
+        <v>0.6276967939615707</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1539908532751319</v>
+        <v>0.1513427666822883</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2248266457816926</v>
+        <v>0.2209604393561409</v>
       </c>
       <c r="L205" t="n">
-        <v>2.088374148611219</v>
+        <v>2.104050821240853</v>
       </c>
       <c r="M205" t="n">
-        <v>0.6867992056070884</v>
+        <v>0.6749887394030057</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9151,25 +9151,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H207" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6757662088185178</v>
+        <v>0.6672289799436116</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1318023541388139</v>
+        <v>0.1352727723806457</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1924314370426683</v>
+        <v>0.1974982476757426</v>
       </c>
       <c r="L207" t="n">
-        <v>2.219730063498222</v>
+        <v>2.199185187506577</v>
       </c>
       <c r="M207" t="n">
-        <v>0.5878384994591099</v>
+        <v>0.6033165648176797</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9190,25 +9190,25 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H208" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I208" t="n">
-        <v>0.3050765286114203</v>
+        <v>0.3039908568494307</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2824892160116178</v>
+        <v>0.2829305459961663</v>
       </c>
       <c r="K208" t="n">
-        <v>0.4124342553769619</v>
+        <v>0.4130785971544029</v>
       </c>
       <c r="L208" t="n">
-        <v>1.327663841211223</v>
+        <v>1.325051167702695</v>
       </c>
       <c r="M208" t="n">
-        <v>1.259901903411815</v>
+        <v>1.261870235142902</v>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
@@ -9229,25 +9229,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H209" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I209" t="n">
-        <v>0.5057962612297118</v>
+        <v>0.5062866981455655</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2008958287684099</v>
+        <v>0.2006964641684693</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2933079100018784</v>
+        <v>0.2930168376859652</v>
       </c>
       <c r="L209" t="n">
-        <v>1.810696693691014</v>
+        <v>1.811876932122662</v>
       </c>
       <c r="M209" t="n">
-        <v>0.895995396307108</v>
+        <v>0.8951062301913731</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9268,25 +9268,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H210" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I210" t="n">
-        <v>0.2239132354159302</v>
+        <v>0.2329020592639833</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4491734408768118</v>
+        <v>0.4270609342106009</v>
       </c>
       <c r="K210" t="n">
-        <v>0.3269133237072581</v>
+        <v>0.3400370065254157</v>
       </c>
       <c r="L210" t="n">
-        <v>0.9986530299550487</v>
+        <v>1.038743184317366</v>
       </c>
       <c r="M210" t="n">
-        <v>1.674433646337694</v>
+        <v>1.621219809157219</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9307,25 +9307,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H211" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6957586932290538</v>
+        <v>0.6748880361713446</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1236753279556692</v>
+        <v>0.1321593348896974</v>
       </c>
       <c r="K211" t="n">
-        <v>0.180565978815277</v>
+        <v>0.1929526289389581</v>
       </c>
       <c r="L211" t="n">
-        <v>2.267842058502438</v>
+        <v>2.217616737452992</v>
       </c>
       <c r="M211" t="n">
-        <v>0.5515919626822845</v>
+        <v>0.5894306336080503</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9346,25 +9346,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H212" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3189142589391855</v>
+        <v>0.3088602884650137</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2768641223824449</v>
+        <v>0.2809511022499944</v>
       </c>
       <c r="K212" t="n">
-        <v>0.4042216186783695</v>
+        <v>0.4101886092849919</v>
       </c>
       <c r="L212" t="n">
-        <v>1.360964395495926</v>
+        <v>1.336769474680033</v>
       </c>
       <c r="M212" t="n">
-        <v>1.234813985825704</v>
+        <v>1.253041916034975</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9385,25 +9385,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H213" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I213" t="n">
-        <v>0.4890352598483791</v>
+        <v>0.5003298534843659</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2077092439640735</v>
+        <v>0.2031179457380626</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3032554961875473</v>
+        <v>0.2965522007775714</v>
       </c>
       <c r="L213" t="n">
-        <v>1.770361275732685</v>
+        <v>1.797541761230669</v>
       </c>
       <c r="M213" t="n">
-        <v>0.9263832280797678</v>
+        <v>0.9059060379917594</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9424,25 +9424,25 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H214" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4132034977467636</v>
+        <v>0.4194942294003369</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2385351635175758</v>
+        <v>0.2359779555283184</v>
       </c>
       <c r="K214" t="n">
-        <v>0.3482613387356607</v>
+        <v>0.3445278150713447</v>
       </c>
       <c r="L214" t="n">
-        <v>1.587871831975951</v>
+        <v>1.603010503272355</v>
       </c>
       <c r="M214" t="n">
-        <v>1.063866829288388</v>
+        <v>1.0524616816563</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -9463,25 +9463,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H215" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I215" t="n">
-        <v>0.385038780984667</v>
+        <v>0.3778914311320051</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2499842353720865</v>
+        <v>0.2528896621414614</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3649769836432464</v>
+        <v>0.3692189067265335</v>
       </c>
       <c r="L215" t="n">
-        <v>1.520093326597248</v>
+        <v>1.502893200122549</v>
       </c>
       <c r="M215" t="n">
-        <v>1.114929689759506</v>
+        <v>1.127887893150918</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9555,25 +9555,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H217" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I217" t="n">
-        <v>0.5845265460756347</v>
+        <v>0.5720894060518258</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1688916479367339</v>
+        <v>0.1739473959138919</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2465818059876314</v>
+        <v>0.2539631980342822</v>
       </c>
       <c r="L217" t="n">
-        <v>2.000161444214535</v>
+        <v>1.97023141618976</v>
       </c>
       <c r="M217" t="n">
-        <v>0.7532567497978331</v>
+        <v>0.775805385775958</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9594,25 +9594,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H218" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4136254765969221</v>
+        <v>0.4184747935855196</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2383636273996252</v>
+        <v>0.2363923603310896</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3480108960034528</v>
+        <v>0.3451328460833908</v>
       </c>
       <c r="L218" t="n">
-        <v>1.588887325794219</v>
+        <v>1.60055722683995</v>
       </c>
       <c r="M218" t="n">
-        <v>1.063101778202328</v>
+        <v>1.05430992707666</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -9686,25 +9686,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H220" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I220" t="n">
-        <v>0.356413697532871</v>
+        <v>0.3599608720167517</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2616204481573695</v>
+        <v>0.2601785073102635</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3819658543097595</v>
+        <v>0.3798606206729848</v>
       </c>
       <c r="L220" t="n">
-        <v>1.451206946908373</v>
+        <v>1.45974323672324</v>
       </c>
       <c r="M220" t="n">
-        <v>1.166827198781868</v>
+        <v>1.160396142603775</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9831,25 +9831,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H223" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I223" t="n">
-        <v>0.3828207622178734</v>
+        <v>0.410238866884881</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2508858690171246</v>
+        <v>0.239740298014276</v>
       </c>
       <c r="K223" t="n">
-        <v>0.366293368765002</v>
+        <v>0.350020835100843</v>
       </c>
       <c r="L223" t="n">
-        <v>1.514755655418622</v>
+        <v>1.580737435755486</v>
       </c>
       <c r="M223" t="n">
-        <v>1.118950975816376</v>
+        <v>1.069241729143671</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -9923,25 +9923,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H225" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I225" t="n">
-        <v>0.357694189200666</v>
+        <v>0.3478671758502634</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2610999230891602</v>
+        <v>0.2650946439633076</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3812058877101738</v>
+        <v>0.387038180186429</v>
       </c>
       <c r="L225" t="n">
-        <v>1.454288455312172</v>
+        <v>1.430639707737219</v>
       </c>
       <c r="M225" t="n">
-        <v>1.164505656977654</v>
+        <v>1.182322112076352</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -9962,25 +9962,25 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H226" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I226" t="n">
-        <v>0.4796487157164061</v>
+        <v>0.4945853789459908</v>
       </c>
       <c r="J226" t="n">
-        <v>0.211524912310404</v>
+        <v>0.2054530979894347</v>
       </c>
       <c r="K226" t="n">
-        <v>0.3088263719731899</v>
+        <v>0.2999615230645746</v>
       </c>
       <c r="L226" t="n">
-        <v>1.747772519122408</v>
+        <v>1.783717659902547</v>
       </c>
       <c r="M226" t="n">
-        <v>0.9434011089044019</v>
+        <v>0.9163208170328786</v>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
@@ -10001,25 +10001,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H227" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I227" t="n">
-        <v>0.3395511515910102</v>
+        <v>0.3260235191274949</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2684751416296707</v>
+        <v>0.2739741792164654</v>
       </c>
       <c r="K227" t="n">
-        <v>0.3919737067793192</v>
+        <v>0.4000023016560396</v>
       </c>
       <c r="L227" t="n">
-        <v>1.41062716155235</v>
+        <v>1.378072859038524</v>
       </c>
       <c r="M227" t="n">
-        <v>1.197399131668331</v>
+        <v>1.221924839305436</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10040,25 +10040,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H228" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I228" t="n">
-        <v>0.445489150970127</v>
+        <v>0.4526501519831685</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2254109142397858</v>
+        <v>0.2224999382182242</v>
       </c>
       <c r="K228" t="n">
-        <v>0.3290999347900873</v>
+        <v>0.3248499097986073</v>
       </c>
       <c r="L228" t="n">
-        <v>1.665567387700468</v>
+        <v>1.682800365748113</v>
       </c>
       <c r="M228" t="n">
-        <v>1.005332677509445</v>
+        <v>0.9923497244532797</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10079,25 +10079,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H229" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I229" t="n">
-        <v>0.3723068157593973</v>
+        <v>0.3655897526767319</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2551598309921149</v>
+        <v>0.2578903444403529</v>
       </c>
       <c r="K229" t="n">
-        <v>0.3725333532484878</v>
+        <v>0.3765199028829152</v>
       </c>
       <c r="L229" t="n">
-        <v>1.48945380052668</v>
+        <v>1.473289160913111</v>
       </c>
       <c r="M229" t="n">
-        <v>1.138012846224833</v>
+        <v>1.150190936203974</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10118,25 +10118,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H230" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I230" t="n">
-        <v>0.3894791970775295</v>
+        <v>0.4117750801881745</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2481791881798661</v>
+        <v>0.2391158210617177</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3623416147426044</v>
+        <v>0.3491090987501078</v>
       </c>
       <c r="L230" t="n">
-        <v>1.530779205975193</v>
+        <v>1.584434339314631</v>
       </c>
       <c r="M230" t="n">
-        <v>1.106879179282203</v>
+        <v>1.066456561935261</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10210,25 +10210,25 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H232" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I232" t="n">
-        <v>0.5583185208900925</v>
+        <v>0.5715330710280194</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1795453167113445</v>
+        <v>0.1741735483625937</v>
       </c>
       <c r="K232" t="n">
-        <v>0.262136162398563</v>
+        <v>0.2542933806093868</v>
       </c>
       <c r="L232" t="n">
-        <v>1.93709172506884</v>
+        <v>1.968892593693445</v>
       </c>
       <c r="M232" t="n">
-        <v>0.8007721125325966</v>
+        <v>0.7768140256971681</v>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -10302,25 +10302,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H234" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I234" t="n">
-        <v>0.3684825763841661</v>
+        <v>0.4037182460362893</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2567143998438349</v>
+        <v>0.2423909568958174</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3748030237719989</v>
+        <v>0.3538907970678933</v>
       </c>
       <c r="L234" t="n">
-        <v>1.480250752924497</v>
+        <v>1.565045535176761</v>
       </c>
       <c r="M234" t="n">
-        <v>1.144946223303504</v>
+        <v>1.081063667755345</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10341,25 +10341,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H235" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I235" t="n">
-        <v>0.4527113019862082</v>
+        <v>0.4150431773819372</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2224750804934113</v>
+        <v>0.2377873262675052</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3248136175203805</v>
+        <v>0.3471694963505576</v>
       </c>
       <c r="L235" t="n">
-        <v>1.682947523479005</v>
+        <v>1.592299028496369</v>
       </c>
       <c r="M235" t="n">
-        <v>0.9922388590006144</v>
+        <v>1.060531475153073</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10380,25 +10380,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H236" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I236" t="n">
-        <v>0.5741525122225654</v>
+        <v>0.5771344578463121</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1731087348688758</v>
+        <v>0.1718965618510926</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2527387529085587</v>
+        <v>0.2509689803025953</v>
       </c>
       <c r="L236" t="n">
-        <v>1.975196289576255</v>
+        <v>1.982372353841532</v>
       </c>
       <c r="M236" t="n">
-        <v>0.7720649575151863</v>
+        <v>0.7666586658558733</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10419,25 +10419,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H237" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I237" t="n">
-        <v>0.2751618427343375</v>
+        <v>0.2741423856475217</v>
       </c>
       <c r="J237" t="n">
-        <v>0.3231018668735298</v>
+        <v>0.3256097313070966</v>
       </c>
       <c r="K237" t="n">
-        <v>0.4017362903921328</v>
+        <v>0.4002478830453817</v>
       </c>
       <c r="L237" t="n">
-        <v>1.227221818595145</v>
+        <v>1.222675039987947</v>
       </c>
       <c r="M237" t="n">
-        <v>1.371041891012722</v>
+        <v>1.377077076966672</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -10458,25 +10458,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H238" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I238" t="n">
-        <v>0.6697029430062497</v>
+        <v>0.6881799268321633</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1342670963389229</v>
+        <v>0.1267561273039986</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1960299606548274</v>
+        <v>0.185063945863838</v>
       </c>
       <c r="L238" t="n">
-        <v>2.205138789673577</v>
+        <v>2.249603726360328</v>
       </c>
       <c r="M238" t="n">
-        <v>0.5988312496715962</v>
+        <v>0.5653323277758338</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10497,25 +10497,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H239" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2350223514664408</v>
+        <v>0.226351231780655</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4218450153925555</v>
+        <v>0.4431759698195885</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3431326331410037</v>
+        <v>0.3304727983997564</v>
       </c>
       <c r="L239" t="n">
-        <v>1.048199687540326</v>
+        <v>1.009526493741721</v>
       </c>
       <c r="M239" t="n">
-        <v>1.60866767931867</v>
+        <v>1.660000707858522</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10536,25 +10536,25 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H240" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I240" t="n">
-        <v>0.4821030514946597</v>
+        <v>0.5082685392492109</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2105272148395692</v>
+        <v>0.1998908377035728</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3073697336657711</v>
+        <v>0.2918406230472163</v>
       </c>
       <c r="L240" t="n">
-        <v>1.75367888814975</v>
+        <v>1.816646240794849</v>
       </c>
       <c r="M240" t="n">
-        <v>0.9389513781844787</v>
+        <v>0.8915131361579346</v>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
@@ -10575,25 +10575,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H241" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3372619043734029</v>
+        <v>0.3136410299364084</v>
       </c>
       <c r="J241" t="n">
-        <v>0.269405729929511</v>
+        <v>0.2790077114079641</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3933323656970861</v>
+        <v>0.4073512586556275</v>
       </c>
       <c r="L241" t="n">
-        <v>1.405118078817295</v>
+        <v>1.348274348464853</v>
       </c>
       <c r="M241" t="n">
-        <v>1.201549555485619</v>
+        <v>1.24437439287952</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10614,25 +10614,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H242" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I242" t="n">
-        <v>0.6700877405258115</v>
+        <v>0.687280590393325</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1341106745830034</v>
+        <v>0.1271217112222256</v>
       </c>
       <c r="K242" t="n">
-        <v>0.195801584891185</v>
+        <v>0.1855976983844494</v>
       </c>
       <c r="L242" t="n">
-        <v>2.20606480646862</v>
+        <v>2.247439469564425</v>
       </c>
       <c r="M242" t="n">
-        <v>0.5981336086401954</v>
+        <v>0.5669628320511263</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10653,25 +10653,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H243" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I243" t="n">
-        <v>0.2348429068516553</v>
+        <v>0.226788007646065</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4222864491449278</v>
+        <v>0.4421015011906802</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3428706440034168</v>
+        <v>0.3311104911632549</v>
       </c>
       <c r="L243" t="n">
-        <v>1.047399364558383</v>
+        <v>1.01147451410145</v>
       </c>
       <c r="M243" t="n">
-        <v>1.6097299914382</v>
+        <v>1.657414994735296</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10745,25 +10745,25 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H245" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I245" t="n">
-        <v>0.2591941868079738</v>
+        <v>0.2519794100295527</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3623823004523843</v>
+        <v>0.3801306513273004</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3784235127396418</v>
+        <v>0.3678899386431469</v>
       </c>
       <c r="L245" t="n">
-        <v>1.156006073163563</v>
+        <v>1.123828168731805</v>
       </c>
       <c r="M245" t="n">
-        <v>1.465570414096795</v>
+        <v>1.508281892625048</v>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -10784,25 +10784,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H246" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6716943990514389</v>
+        <v>0.6595539235542222</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1334575613612037</v>
+        <v>0.1383927140023487</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1948480395873574</v>
+        <v>0.2020533624434291</v>
       </c>
       <c r="L246" t="n">
-        <v>2.209931236741674</v>
+        <v>2.180715133106095</v>
       </c>
       <c r="M246" t="n">
-        <v>0.5952207236709686</v>
+        <v>0.6172315044504751</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -10876,25 +10876,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H248" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I248" t="n">
-        <v>0.6941315160798255</v>
+        <v>0.7143379938794516</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1243367820813717</v>
+        <v>0.1161227667156701</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1815317018388028</v>
+        <v>0.1695392394048783</v>
       </c>
       <c r="L248" t="n">
-        <v>2.263926250078279</v>
+        <v>2.312553221043233</v>
       </c>
       <c r="M248" t="n">
-        <v>0.554542048082918</v>
+        <v>0.5179075395518886</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -10915,25 +10915,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H249" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2233118236417869</v>
+        <v>0.2132401708729663</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4506529138412044</v>
+        <v>0.475429179652503</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3260352625170088</v>
+        <v>0.3113306494745308</v>
       </c>
       <c r="L249" t="n">
-        <v>0.9959707334423695</v>
+        <v>0.9510511620934299</v>
       </c>
       <c r="M249" t="n">
-        <v>1.677994004040622</v>
+        <v>1.73761818843204</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -10954,25 +10954,25 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H250" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I250" t="n">
-        <v>0.3736569914232437</v>
+        <v>0.3660594723420734</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2546109790962424</v>
+        <v>0.257699401486962</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3717320294805139</v>
+        <v>0.3762411261709645</v>
       </c>
       <c r="L250" t="n">
-        <v>1.492703003750245</v>
+        <v>1.474419543197185</v>
       </c>
       <c r="M250" t="n">
-        <v>1.135564966769241</v>
+        <v>1.149339330631851</v>
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
@@ -10993,25 +10993,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H251" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I251" t="n">
-        <v>0.4412391118233006</v>
+        <v>0.4487287610182242</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2271385724295527</v>
+        <v>0.2240939995860878</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3316223157471468</v>
+        <v>0.3271772393956882</v>
       </c>
       <c r="L251" t="n">
-        <v>1.655339651217048</v>
+        <v>1.673363522450361</v>
       </c>
       <c r="M251" t="n">
-        <v>1.013038033035805</v>
+        <v>0.9994592381539515</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11032,25 +11032,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H252" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3214429777839348</v>
+        <v>0.3283134916728456</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2758361878927094</v>
+        <v>0.273043296067949</v>
       </c>
       <c r="K252" t="n">
-        <v>0.4027208343233558</v>
+        <v>0.3986432122592055</v>
       </c>
       <c r="L252" t="n">
-        <v>1.36704976767516</v>
+        <v>1.383583687277743</v>
       </c>
       <c r="M252" t="n">
-        <v>1.230229398001484</v>
+        <v>1.217773100463052</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11071,25 +11071,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H253" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I253" t="n">
-        <v>0.5009193171949893</v>
+        <v>0.4918811307964147</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2028783263435003</v>
+        <v>0.206552385855116</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2962023564615104</v>
+        <v>0.3015664833484694</v>
       </c>
       <c r="L253" t="n">
-        <v>1.798960308046478</v>
+        <v>1.777209875737713</v>
       </c>
       <c r="M253" t="n">
-        <v>0.9048373354920114</v>
+        <v>0.9212236409138174</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11110,25 +11110,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H254" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4841788333918217</v>
+        <v>0.4822370030881629</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2096834010602351</v>
+        <v>0.2104727629722916</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3061377655479433</v>
+        <v>0.3072902339395456</v>
       </c>
       <c r="L254" t="n">
-        <v>1.758674265723408</v>
+        <v>1.754001243204034</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9351879687286485</v>
+        <v>0.9387085228564203</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11149,25 +11149,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H255" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3301472861766791</v>
+        <v>0.3311454599048746</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2722978511476914</v>
+        <v>0.2718920894695632</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3975548626756294</v>
+        <v>0.3969624506255622</v>
       </c>
       <c r="L255" t="n">
-        <v>1.387996721205667</v>
+        <v>1.390398830340186</v>
       </c>
       <c r="M255" t="n">
-        <v>1.214448416118703</v>
+        <v>1.212638719034252</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11188,25 +11188,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H256" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3022980524318435</v>
+        <v>0.3209985260385671</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2836186778732344</v>
+        <v>0.2760168593339158</v>
       </c>
       <c r="K256" t="n">
-        <v>0.4140832696949222</v>
+        <v>0.4029846146275171</v>
       </c>
       <c r="L256" t="n">
-        <v>1.320977426990453</v>
+        <v>1.365980192743218</v>
       </c>
       <c r="M256" t="n">
-        <v>1.264939303314625</v>
+        <v>1.231035192629264</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11227,25 +11227,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H257" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I257" t="n">
-        <v>0.5241004772738141</v>
+        <v>0.5005550465076507</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1934550905391</v>
+        <v>0.2030264038586786</v>
       </c>
       <c r="K257" t="n">
-        <v>0.2824444321870859</v>
+        <v>0.2964185496336708</v>
       </c>
       <c r="L257" t="n">
-        <v>1.854745864008529</v>
+        <v>1.798083689156623</v>
       </c>
       <c r="M257" t="n">
-        <v>0.8628097038043858</v>
+        <v>0.9054977612097065</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11266,25 +11266,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H258" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I258" t="n">
-        <v>0.5002918376407912</v>
+        <v>0.4879599063169857</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2031333993330117</v>
+        <v>0.2081463795459407</v>
       </c>
       <c r="K258" t="n">
-        <v>0.2965747630261971</v>
+        <v>0.3038937141370735</v>
       </c>
       <c r="L258" t="n">
-        <v>1.797450275948571</v>
+        <v>1.767773433088031</v>
       </c>
       <c r="M258" t="n">
-        <v>0.9059749610252323</v>
+        <v>0.9283328527748957</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11358,25 +11358,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H260" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I260" t="n">
-        <v>0.6008949314268409</v>
+        <v>0.606454567695941</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1622378327533167</v>
+        <v>0.1599778180097801</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2368672358198424</v>
+        <v>0.2335676142942789</v>
       </c>
       <c r="L260" t="n">
-        <v>2.039552030100365</v>
+        <v>2.052931317382102</v>
       </c>
       <c r="M260" t="n">
-        <v>0.7235807340797926</v>
+        <v>0.7135010683236193</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11397,25 +11397,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H261" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I261" t="n">
-        <v>0.2625923201074287</v>
+        <v>0.2600027702095901</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3540228925357254</v>
+        <v>0.3603931852844086</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3833847873568458</v>
+        <v>0.3796040445060015</v>
       </c>
       <c r="L261" t="n">
-        <v>1.171161747679132</v>
+        <v>1.159612355134772</v>
       </c>
       <c r="M261" t="n">
-        <v>1.445453464964022</v>
+        <v>1.460783600359227</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11436,25 +11436,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H262" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4087186766907287</v>
+        <v>0.4191865626400399</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2403582615078338</v>
+        <v>0.2361030233170569</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3509230618014375</v>
+        <v>0.3447104140429031</v>
       </c>
       <c r="L262" t="n">
-        <v>1.577079091873623</v>
+        <v>1.602270101963023</v>
       </c>
       <c r="M262" t="n">
-        <v>1.071997846324939</v>
+        <v>1.053019483994074</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -11528,25 +11528,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H264" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I264" t="n">
-        <v>0.6013121687239787</v>
+        <v>0.6054546585441889</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1620682240959436</v>
+        <v>0.1603842851446386</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2366196071800776</v>
+        <v>0.2341610563111724</v>
       </c>
       <c r="L264" t="n">
-        <v>2.040556113352014</v>
+        <v>2.050525031943739</v>
       </c>
       <c r="M264" t="n">
-        <v>0.7228242794679085</v>
+        <v>0.7153139117450884</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11620,25 +11620,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H266" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I266" t="n">
-        <v>0.5421420982882025</v>
+        <v>0.5453126587066739</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1861210982568283</v>
+        <v>0.1848322525582627</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2717368034549693</v>
+        <v>0.2698550887350635</v>
       </c>
       <c r="L266" t="n">
-        <v>1.898163098319577</v>
+        <v>1.905793064855085</v>
       </c>
       <c r="M266" t="n">
-        <v>0.8301000982254541</v>
+        <v>0.8243518464098516</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11659,25 +11659,25 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H267" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I267" t="n">
-        <v>0.2848889040041936</v>
+        <v>0.2834463493039171</v>
       </c>
       <c r="J267" t="n">
-        <v>0.2991732961496838</v>
+        <v>0.3027219807123639</v>
       </c>
       <c r="K267" t="n">
-        <v>0.4159377998461227</v>
+        <v>0.413831669983719</v>
       </c>
       <c r="L267" t="n">
-        <v>1.270604511858703</v>
+        <v>1.26417071789547</v>
       </c>
       <c r="M267" t="n">
-        <v>1.313457688295174</v>
+        <v>1.321997612120811</v>
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
@@ -11698,25 +11698,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H268" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I268" t="n">
-        <v>0.6030553540434754</v>
+        <v>0.5749597802763173</v>
       </c>
       <c r="J268" t="n">
-        <v>0.161359612177449</v>
+        <v>0.1727805771234482</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2355850337790755</v>
+        <v>0.2522596426002345</v>
       </c>
       <c r="L268" t="n">
-        <v>2.044751095909502</v>
+        <v>1.977138983429187</v>
       </c>
       <c r="M268" t="n">
-        <v>0.7196638703114224</v>
+        <v>0.7706013739705792</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -11737,25 +11737,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H269" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I269" t="n">
-        <v>0.261719370413796</v>
+        <v>0.2724478242251421</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3561703487820618</v>
+        <v>0.3297783524061503</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3821102808041422</v>
+        <v>0.3977738233687075</v>
       </c>
       <c r="L269" t="n">
-        <v>1.16726839204553</v>
+        <v>1.215117296044134</v>
       </c>
       <c r="M269" t="n">
-        <v>1.450621327150328</v>
+        <v>1.387108880587158</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -11776,25 +11776,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H270" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6275825444158999</v>
+        <v>0.6358406006651922</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1513892095870326</v>
+        <v>0.1480322761523609</v>
       </c>
       <c r="K270" t="n">
-        <v>0.2210282459970675</v>
+        <v>0.2161271231824469</v>
       </c>
       <c r="L270" t="n">
-        <v>2.103775879244767</v>
+        <v>2.123648925178024</v>
       </c>
       <c r="M270" t="n">
-        <v>0.6751958747581652</v>
+        <v>0.6602239516395296</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -11815,25 +11815,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H271" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I271" t="n">
-        <v>0.2515230016073747</v>
+        <v>0.2476217083072804</v>
       </c>
       <c r="J271" t="n">
-        <v>0.3812534160458584</v>
+        <v>0.3908505975640902</v>
       </c>
       <c r="K271" t="n">
-        <v>0.367223582346767</v>
+        <v>0.3615276941286293</v>
       </c>
       <c r="L271" t="n">
-        <v>1.121792587168891</v>
+        <v>1.10439281905047</v>
       </c>
       <c r="M271" t="n">
-        <v>1.510983830484342</v>
+        <v>1.5340794868209</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -11854,25 +11854,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H272" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I272" t="n">
-        <v>0.3533864788291451</v>
+        <v>0.3680058908336556</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2628510248662012</v>
+        <v>0.2569081744578636</v>
       </c>
       <c r="K272" t="n">
-        <v>0.3837624963046537</v>
+        <v>0.3750859347084808</v>
       </c>
       <c r="L272" t="n">
-        <v>1.443921932792089</v>
+        <v>1.479103607209447</v>
       </c>
       <c r="M272" t="n">
-        <v>1.172315570903257</v>
+        <v>1.145810458082071</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -11893,25 +11893,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H273" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4666032812117767</v>
+        <v>0.4499710567070856</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2168279344667574</v>
+        <v>0.2235890013385831</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3165687843214658</v>
+        <v>0.3264399419543313</v>
       </c>
       <c r="L273" t="n">
-        <v>1.716378627956796</v>
+        <v>1.676353112075588</v>
       </c>
       <c r="M273" t="n">
-        <v>0.967052587721738</v>
+        <v>0.9972069459700806</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -11932,25 +11932,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H274" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5199034957277472</v>
+        <v>0.5259665622275816</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1951611805984768</v>
+        <v>0.1926965194196823</v>
       </c>
       <c r="K274" t="n">
-        <v>0.2849353236737761</v>
+        <v>0.2813369183527361</v>
       </c>
       <c r="L274" t="n">
-        <v>1.844645810857018</v>
+        <v>1.859236605035481</v>
       </c>
       <c r="M274" t="n">
-        <v>0.8704188654692064</v>
+        <v>0.859426476611783</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12077,25 +12077,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H277" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4897547666651575</v>
+        <v>0.4585729087455935</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2074167615182286</v>
+        <v>0.2200923135180514</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3028284718166138</v>
+        <v>0.321334777736355</v>
       </c>
       <c r="L277" t="n">
-        <v>1.772092771812086</v>
+        <v>1.697053503973136</v>
       </c>
       <c r="M277" t="n">
-        <v>0.9250787563712997</v>
+        <v>0.9816117182905093</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12169,25 +12169,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H279" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I279" t="n">
-        <v>0.2880230941245049</v>
+        <v>0.2900488343285144</v>
       </c>
       <c r="J279" t="n">
-        <v>0.291463188453718</v>
+        <v>0.2885980348258071</v>
       </c>
       <c r="K279" t="n">
-        <v>0.4205137174217771</v>
+        <v>0.4213531308456784</v>
       </c>
       <c r="L279" t="n">
-        <v>1.284582999795292</v>
+        <v>1.291499633831222</v>
       </c>
       <c r="M279" t="n">
-        <v>1.294903282782931</v>
+        <v>1.2871472353231</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12208,25 +12208,25 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H280" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I280" t="n">
-        <v>0.6346359467059182</v>
+        <v>0.6473645954929746</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1485219728837731</v>
+        <v>0.1433477254093599</v>
       </c>
       <c r="K280" t="n">
-        <v>0.2168420804103088</v>
+        <v>0.2092876790976655</v>
       </c>
       <c r="L280" t="n">
-        <v>2.120749920528063</v>
+        <v>2.151381465576589</v>
       </c>
       <c r="M280" t="n">
-        <v>0.6624079990616283</v>
+        <v>0.6393308553257451</v>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr"/>
@@ -12247,25 +12247,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H281" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2495724527771593</v>
+        <v>0.2438910831240397</v>
       </c>
       <c r="J281" t="n">
-        <v>0.3860517661681881</v>
+        <v>0.4000279355148623</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3643757810546526</v>
+        <v>0.3560809813610981</v>
       </c>
       <c r="L281" t="n">
-        <v>1.113093139386131</v>
+        <v>1.087754230733217</v>
       </c>
       <c r="M281" t="n">
-        <v>1.522531079559217</v>
+        <v>1.556164787905685</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12286,25 +12286,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H282" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I282" t="n">
-        <v>0.4436644825359953</v>
+        <v>0.4623037065375051</v>
       </c>
       <c r="J282" t="n">
-        <v>0.2261526493756117</v>
+        <v>0.2185757290497946</v>
       </c>
       <c r="K282" t="n">
-        <v>0.330182868088393</v>
+        <v>0.3191205644127001</v>
       </c>
       <c r="L282" t="n">
-        <v>1.661176315696379</v>
+        <v>1.706031684025216</v>
       </c>
       <c r="M282" t="n">
-        <v>1.008640816215228</v>
+        <v>0.9748477515620841</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12325,25 +12325,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H283" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I283" t="n">
-        <v>0.3712670630984531</v>
+        <v>0.352952711230504</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2555824946754255</v>
+        <v>0.2630273531583317</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3731504422261213</v>
+        <v>0.3840199356111643</v>
       </c>
       <c r="L283" t="n">
-        <v>1.486951631521481</v>
+        <v>1.442878069302676</v>
       </c>
       <c r="M283" t="n">
-        <v>1.139897926252398</v>
+        <v>1.173101995086159</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -12364,25 +12364,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H284" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I284" t="n">
-        <v>0.6350393341072746</v>
+        <v>0.6464080256278086</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1483579942653355</v>
+        <v>0.1437365749480453</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2166026716273898</v>
+        <v>0.2098553994241461</v>
       </c>
       <c r="L284" t="n">
-        <v>2.121720673949214</v>
+        <v>2.149079476307572</v>
       </c>
       <c r="M284" t="n">
-        <v>0.6616766544233962</v>
+        <v>0.641065124268282</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12403,25 +12403,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H285" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I285" t="n">
-        <v>0.2493980559145187</v>
+        <v>0.244315804604678</v>
       </c>
       <c r="J285" t="n">
-        <v>0.3864807824502842</v>
+        <v>0.3989831206724922</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3641211616351972</v>
+        <v>0.3567010747228299</v>
       </c>
       <c r="L285" t="n">
-        <v>1.112315329378753</v>
+        <v>1.089648488536864</v>
       </c>
       <c r="M285" t="n">
-        <v>1.52356350898605</v>
+        <v>1.553650436740306</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12442,25 +12442,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H286" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5773565599890809</v>
+        <v>0.5882633981609233</v>
       </c>
       <c r="J286" t="n">
-        <v>0.1718062764272029</v>
+        <v>0.1673726023736084</v>
       </c>
       <c r="K286" t="n">
-        <v>0.2508371635837163</v>
+        <v>0.2443639994654683</v>
       </c>
       <c r="L286" t="n">
-        <v>1.982906843550959</v>
+        <v>2.009154193948238</v>
       </c>
       <c r="M286" t="n">
-        <v>0.766255992865325</v>
+        <v>0.7464818065862937</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12481,25 +12481,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H287" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I287" t="n">
-        <v>0.2728595965660449</v>
+        <v>0.2685448713398686</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3287653924475297</v>
+        <v>0.3393796165039232</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3983750109864255</v>
+        <v>0.3920755121562082</v>
       </c>
       <c r="L287" t="n">
-        <v>1.21695380068456</v>
+        <v>1.197710126175814</v>
       </c>
       <c r="M287" t="n">
-        <v>1.384671188329015</v>
+        <v>1.410214361667978</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12520,25 +12520,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H288" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I288" t="n">
-        <v>0.6367241435196465</v>
+        <v>0.6170765469159889</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1476731123903876</v>
+        <v>0.1556599402780533</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2156027440899659</v>
+        <v>0.2272635128059578</v>
       </c>
       <c r="L288" t="n">
-        <v>2.125775174648905</v>
+        <v>2.078493153553925</v>
       </c>
       <c r="M288" t="n">
-        <v>0.6586220812611285</v>
+        <v>0.6942433336401176</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12559,25 +12559,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H289" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I289" t="n">
-        <v>0.2486679967789246</v>
+        <v>0.2569173706894325</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3882767279238455</v>
+        <v>0.3679832681039961</v>
       </c>
       <c r="K289" t="n">
-        <v>0.3630552752972299</v>
+        <v>0.3750993612065715</v>
       </c>
       <c r="L289" t="n">
-        <v>1.109059265634004</v>
+        <v>1.145851473274869</v>
       </c>
       <c r="M289" t="n">
-        <v>1.527885459068766</v>
+        <v>1.47904916551856</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12598,25 +12598,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H290" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I290" t="n">
-        <v>0.6603426753795673</v>
+        <v>0.6753312548488664</v>
       </c>
       <c r="J290" t="n">
-        <v>0.1380720831790377</v>
+        <v>0.1319791646955828</v>
       </c>
       <c r="K290" t="n">
-        <v>0.201585241441395</v>
+        <v>0.1926895804555508</v>
       </c>
       <c r="L290" t="n">
-        <v>2.182613267580097</v>
+        <v>2.21868334500215</v>
       </c>
       <c r="M290" t="n">
-        <v>0.615801490978508</v>
+        <v>0.5886270745422991</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12690,25 +12690,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H292" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I292" t="n">
-        <v>0.5791946059255966</v>
+        <v>0.5688816553916153</v>
       </c>
       <c r="J292" t="n">
-        <v>0.1710591032822778</v>
+        <v>0.1752513595969044</v>
       </c>
       <c r="K292" t="n">
-        <v>0.2497462907921256</v>
+        <v>0.2558669850114804</v>
       </c>
       <c r="L292" t="n">
-        <v>1.987330108568915</v>
+        <v>1.962511951186326</v>
       </c>
       <c r="M292" t="n">
-        <v>0.762923600638959</v>
+        <v>0.7816210638021934</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -12835,25 +12835,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H295" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I295" t="n">
-        <v>0.4325204497708304</v>
+        <v>0.417571025467147</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2306827439955974</v>
+        <v>0.2367597457450622</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3367968062335722</v>
+        <v>0.3456692287877908</v>
       </c>
       <c r="L295" t="n">
-        <v>1.634358155546063</v>
+        <v>1.598382305189232</v>
       </c>
       <c r="M295" t="n">
-        <v>1.028845038220364</v>
+        <v>1.055948466022977</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -12927,25 +12927,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H297" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I297" t="n">
-        <v>0.2677819129219666</v>
+        <v>0.2750692929229411</v>
       </c>
       <c r="J297" t="n">
-        <v>0.3412564942119622</v>
+        <v>0.3233295394095649</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3909615928660712</v>
+        <v>0.401601167667494</v>
       </c>
       <c r="L297" t="n">
-        <v>1.194307331631971</v>
+        <v>1.226809046436317</v>
       </c>
       <c r="M297" t="n">
-        <v>1.414731075501958</v>
+        <v>1.371589785896189</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -12966,25 +12966,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H298" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I298" t="n">
-        <v>0.6882540065232924</v>
+        <v>0.6858535821759715</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1267260136084177</v>
+        <v>0.1277017958634263</v>
       </c>
       <c r="K298" t="n">
-        <v>0.1850199798682899</v>
+        <v>0.1864446219606023</v>
       </c>
       <c r="L298" t="n">
-        <v>2.249781999438167</v>
+        <v>2.244005368488517</v>
       </c>
       <c r="M298" t="n">
-        <v>0.5651980206935431</v>
+        <v>0.5695500095508811</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13005,25 +13005,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H299" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2268595086593615</v>
+        <v>0.2273941549239336</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4419256086979707</v>
+        <v>0.4406103788871231</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3312148826426678</v>
+        <v>0.3319954661889432</v>
       </c>
       <c r="L299" t="n">
-        <v>1.011793408620752</v>
+        <v>1.014177930960744</v>
       </c>
       <c r="M299" t="n">
-        <v>1.65699170873658</v>
+        <v>1.653826602850312</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13044,25 +13044,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H300" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I300" t="n">
-        <v>0.5033772033962557</v>
+        <v>0.505564313258273</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2018791856112782</v>
+        <v>0.2009901165616776</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2947436109924661</v>
+        <v>0.2934455701800494</v>
       </c>
       <c r="L300" t="n">
-        <v>1.804875221181233</v>
+        <v>1.810138509954868</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9003811678263007</v>
+        <v>0.8964159198650823</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13189,25 +13189,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H303" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I303" t="n">
-        <v>0.2266780579324807</v>
+        <v>0.227830398189487</v>
       </c>
       <c r="J303" t="n">
-        <v>0.4423719774860977</v>
+        <v>0.439537220453862</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3309499645814217</v>
+        <v>0.332632381356651</v>
       </c>
       <c r="L303" t="n">
-        <v>1.010984138378864</v>
+        <v>1.016123575925112</v>
       </c>
       <c r="M303" t="n">
-        <v>1.658065897039715</v>
+        <v>1.651244042718237</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13228,25 +13228,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H304" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I304" t="n">
-        <v>0.6345399115760266</v>
+        <v>0.6295113301752071</v>
       </c>
       <c r="J304" t="n">
-        <v>0.1485610115544607</v>
+        <v>0.1506051503352817</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2168990768695127</v>
+        <v>0.2198835194895112</v>
       </c>
       <c r="L304" t="n">
-        <v>2.120518811597592</v>
+        <v>2.108417510015133</v>
       </c>
       <c r="M304" t="n">
-        <v>0.6625821115328948</v>
+        <v>0.6716989704953563</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13267,25 +13267,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H305" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2514227195480078</v>
+        <v>0.2529746014289432</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3815001099119008</v>
+        <v>0.3776824804847996</v>
       </c>
       <c r="K305" t="n">
-        <v>0.3670771705400913</v>
+        <v>0.3693429180862571</v>
       </c>
       <c r="L305" t="n">
-        <v>1.121345329184115</v>
+        <v>1.128266722373087</v>
       </c>
       <c r="M305" t="n">
-        <v>1.511577500275794</v>
+        <v>1.502390359540656</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -13306,25 +13306,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H306" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I306" t="n">
-        <v>0.6901853562188703</v>
+        <v>0.6571204206216185</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1259409121061503</v>
+        <v>0.1393819428367405</v>
       </c>
       <c r="K306" t="n">
-        <v>0.1838737316749794</v>
+        <v>0.2034976365416411</v>
       </c>
       <c r="L306" t="n">
-        <v>2.25442980033159</v>
+        <v>2.174858898406497</v>
       </c>
       <c r="M306" t="n">
-        <v>0.5616964679934302</v>
+        <v>0.6216434650518625</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13345,25 +13345,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H307" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2259188681539362</v>
+        <v>0.2408443327504015</v>
       </c>
       <c r="J307" t="n">
-        <v>0.4442395843413169</v>
+        <v>0.4075229414340124</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3298415475047469</v>
+        <v>0.3516327258155861</v>
       </c>
       <c r="L307" t="n">
-        <v>1.007598151966556</v>
+        <v>1.074165724066791</v>
       </c>
       <c r="M307" t="n">
-        <v>1.662560300528698</v>
+        <v>1.574201550117623</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13384,25 +13384,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H308" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7119007850993192</v>
+        <v>0.712125167228992</v>
       </c>
       <c r="J308" t="n">
-        <v>0.1171135019921467</v>
+        <v>0.1170222897443122</v>
       </c>
       <c r="K308" t="n">
-        <v>0.1709857129085341</v>
+        <v>0.1708525430266958</v>
       </c>
       <c r="L308" t="n">
-        <v>2.306688068206491</v>
+        <v>2.307228044713672</v>
       </c>
       <c r="M308" t="n">
-        <v>0.5223262188849742</v>
+        <v>0.5219194122596325</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13423,25 +13423,25 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H309" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I309" t="n">
-        <v>0.2150456528246677</v>
+        <v>0.2142945425914556</v>
       </c>
       <c r="J309" t="n">
-        <v>0.4709876940513176</v>
+        <v>0.472835425225019</v>
       </c>
       <c r="K309" t="n">
-        <v>0.3139666531240148</v>
+        <v>0.3128700321835253</v>
       </c>
       <c r="L309" t="n">
-        <v>0.9591036115980178</v>
+        <v>0.9557536599578922</v>
       </c>
       <c r="M309" t="n">
-        <v>1.726929735277968</v>
+        <v>1.731376307858582</v>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
@@ -13462,25 +13462,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H310" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I310" t="n">
-        <v>0.2657481487250677</v>
+        <v>0.2742198214530991</v>
       </c>
       <c r="J310" t="n">
-        <v>0.3462595541363333</v>
+        <v>0.3254192392253761</v>
       </c>
       <c r="K310" t="n">
-        <v>0.387992297138599</v>
+        <v>0.4003609393215247</v>
       </c>
       <c r="L310" t="n">
-        <v>1.185236743313802</v>
+        <v>1.223020403680822</v>
       </c>
       <c r="M310" t="n">
-        <v>1.426770959547599</v>
+        <v>1.376618656997653</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13501,25 +13501,25 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H311" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I311" t="n">
-        <v>0.6016314451334767</v>
+        <v>0.5773705107149889</v>
       </c>
       <c r="J311" t="n">
-        <v>0.1619384369376111</v>
+        <v>0.171800605400411</v>
       </c>
       <c r="K311" t="n">
-        <v>0.2364301179289122</v>
+        <v>0.2508288838846001</v>
       </c>
       <c r="L311" t="n">
-        <v>2.041324453329342</v>
+        <v>1.982940416029567</v>
       </c>
       <c r="M311" t="n">
-        <v>0.7222454287417456</v>
+        <v>0.766230700085833</v>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
@@ -13540,25 +13540,25 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H312" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I312" t="n">
-        <v>0.4189086599478718</v>
+        <v>0.4084616383953167</v>
       </c>
       <c r="J312" t="n">
-        <v>0.236215991891109</v>
+        <v>0.2404627486197899</v>
       </c>
       <c r="K312" t="n">
-        <v>0.3448753481610192</v>
+        <v>0.3510756129848933</v>
       </c>
       <c r="L312" t="n">
-        <v>1.601601328004635</v>
+        <v>1.576460528170843</v>
       </c>
       <c r="M312" t="n">
-        <v>1.053523323834346</v>
+        <v>1.072463858844263</v>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
@@ -13579,25 +13579,25 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H313" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I313" t="n">
-        <v>0.3872752144574733</v>
+        <v>0.3972182163933314</v>
       </c>
       <c r="J313" t="n">
-        <v>0.2490751160741979</v>
+        <v>0.2450332453685644</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3636496694683289</v>
+        <v>0.3577485382381041</v>
       </c>
       <c r="L313" t="n">
-        <v>1.525475312840749</v>
+        <v>1.549403187418098</v>
       </c>
       <c r="M313" t="n">
-        <v>1.110875017690923</v>
+        <v>1.092848274343797</v>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
@@ -13618,25 +13618,25 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H314" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I314" t="n">
-        <v>0.5201822728467917</v>
+        <v>0.5275407093051782</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1950478565663449</v>
+        <v>0.1920566222336674</v>
       </c>
       <c r="K314" t="n">
-        <v>0.2847698705868635</v>
+        <v>0.2804026684611544</v>
       </c>
       <c r="L314" t="n">
-        <v>1.845316689127239</v>
+        <v>1.863024796376689</v>
       </c>
       <c r="M314" t="n">
-        <v>0.8699134402858981</v>
+        <v>0.8565725351621567</v>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
@@ -13710,25 +13710,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H316" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I316" t="n">
-        <v>0.3323251968289638</v>
+        <v>0.3433789604523406</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2714125216142423</v>
+        <v>0.2669191217673413</v>
       </c>
       <c r="K316" t="n">
-        <v>0.3962622815567938</v>
+        <v>0.3897019177803182</v>
       </c>
       <c r="L316" t="n">
-        <v>1.393237872043685</v>
+        <v>1.41983879913734</v>
       </c>
       <c r="M316" t="n">
-        <v>1.210499846399521</v>
+        <v>1.190459283082342</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -13749,25 +13749,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H317" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I317" t="n">
-        <v>0.4816255741130168</v>
+        <v>0.4680416609046447</v>
       </c>
       <c r="J317" t="n">
-        <v>0.2107213113361721</v>
+        <v>0.2162432272745347</v>
       </c>
       <c r="K317" t="n">
-        <v>0.3076531145508112</v>
+        <v>0.3157151118208206</v>
       </c>
       <c r="L317" t="n">
-        <v>1.752529836889861</v>
+        <v>1.719840094534755</v>
       </c>
       <c r="M317" t="n">
-        <v>0.9398170485593274</v>
+        <v>0.9644447936444247</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -13788,25 +13788,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H318" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I318" t="n">
-        <v>0.5206165731832109</v>
+        <v>0.5264968446124904</v>
       </c>
       <c r="J318" t="n">
-        <v>0.1948713117141419</v>
+        <v>0.1924809574745975</v>
       </c>
       <c r="K318" t="n">
-        <v>0.2845121151026472</v>
+        <v>0.2810221979129123</v>
       </c>
       <c r="L318" t="n">
-        <v>1.84636183465228</v>
+        <v>1.860512731750383</v>
       </c>
       <c r="M318" t="n">
-        <v>0.8691260502450729</v>
+        <v>0.8584650703367046</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -13827,25 +13827,25 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H319" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I319" t="n">
-        <v>0.2921553143014947</v>
+        <v>0.2879805310995012</v>
       </c>
       <c r="J319" t="n">
-        <v>0.287741742153864</v>
+        <v>0.2915678934952269</v>
       </c>
       <c r="K319" t="n">
-        <v>0.4201029435446414</v>
+        <v>0.4204515754052718</v>
       </c>
       <c r="L319" t="n">
-        <v>1.296568886449125</v>
+        <v>1.284393168703776</v>
       </c>
       <c r="M319" t="n">
-        <v>1.283328170006234</v>
+        <v>1.295155255890953</v>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
@@ -13866,25 +13866,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H320" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I320" t="n">
-        <v>0.4602209614445965</v>
+        <v>0.4649551681456102</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2194223733965054</v>
+        <v>0.2174978991278007</v>
       </c>
       <c r="K320" t="n">
-        <v>0.320356665158898</v>
+        <v>0.3175469327265891</v>
       </c>
       <c r="L320" t="n">
-        <v>1.701019549492688</v>
+        <v>1.71241243716342</v>
       </c>
       <c r="M320" t="n">
-        <v>0.9786237853484143</v>
+        <v>0.9700406301099913</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -13905,25 +13905,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H321" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I321" t="n">
-        <v>0.3467639472854714</v>
+        <v>0.341597074581477</v>
       </c>
       <c r="J321" t="n">
-        <v>0.2655431108595644</v>
+        <v>0.2676434656172858</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3876929418549641</v>
+        <v>0.3907594598012372</v>
       </c>
       <c r="L321" t="n">
-        <v>1.427984783711378</v>
+        <v>1.415550683545668</v>
       </c>
       <c r="M321" t="n">
-        <v>1.184322274433657</v>
+        <v>1.193689856653095</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -13997,25 +13997,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H323" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I323" t="n">
-        <v>0.2905927675607406</v>
+        <v>0.314025368808636</v>
       </c>
       <c r="J323" t="n">
-        <v>0.2883769237557965</v>
+        <v>0.2788514760940504</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4210303086834629</v>
+        <v>0.4071231550973136</v>
       </c>
       <c r="L323" t="n">
-        <v>1.292808611365685</v>
+        <v>1.349199261523222</v>
       </c>
       <c r="M323" t="n">
-        <v>1.286161079950852</v>
+        <v>1.243677583379465</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14036,25 +14036,25 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H324" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5482091154077827</v>
+        <v>0.5585297803469904</v>
       </c>
       <c r="J324" t="n">
-        <v>0.1836548311350477</v>
+        <v>0.1794594388833372</v>
       </c>
       <c r="K324" t="n">
-        <v>0.2681360534571696</v>
+        <v>0.2620107807696723</v>
       </c>
       <c r="L324" t="n">
-        <v>1.912763399680518</v>
+        <v>1.937600121810644</v>
       </c>
       <c r="M324" t="n">
-        <v>0.8191005468623126</v>
+        <v>0.800389097419684</v>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
@@ -14128,25 +14128,25 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H326" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I326" t="n">
-        <v>0.6169779194455446</v>
+        <v>0.5829512701677566</v>
       </c>
       <c r="J326" t="n">
-        <v>0.1557000327457136</v>
+        <v>0.1695320039968469</v>
       </c>
       <c r="K326" t="n">
-        <v>0.2273220478087418</v>
+        <v>0.2475167258353964</v>
       </c>
       <c r="L326" t="n">
-        <v>2.078255806145376</v>
+        <v>1.996370536338666</v>
       </c>
       <c r="M326" t="n">
-        <v>0.6944221460458826</v>
+        <v>0.7561127378259371</v>
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
@@ -14167,25 +14167,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H327" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I327" t="n">
-        <v>0.2595162542384334</v>
+        <v>0.2720846522344501</v>
       </c>
       <c r="J327" t="n">
-        <v>0.3615900145734538</v>
+        <v>0.330671755503253</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3788937311881128</v>
+        <v>0.3972435922622971</v>
       </c>
       <c r="L327" t="n">
-        <v>1.157442493903413</v>
+        <v>1.213497548965647</v>
       </c>
       <c r="M327" t="n">
-        <v>1.463663774908474</v>
+        <v>1.389258858772056</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14206,25 +14206,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H328" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I328" t="n">
-        <v>0.7078094230612137</v>
+        <v>0.6932810273992802</v>
       </c>
       <c r="J328" t="n">
-        <v>0.1187766572921895</v>
+        <v>0.1246825091872844</v>
       </c>
       <c r="K328" t="n">
-        <v>0.1734139196465967</v>
+        <v>0.1820364634134353</v>
       </c>
       <c r="L328" t="n">
-        <v>2.296842188830238</v>
+        <v>2.261879545611276</v>
       </c>
       <c r="M328" t="n">
-        <v>0.5297438915231654</v>
+        <v>0.5560839909752886</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14298,25 +14298,25 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H330" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I330" t="n">
-        <v>0.5265521025356636</v>
+        <v>0.5142353244343937</v>
       </c>
       <c r="J330" t="n">
-        <v>0.1924584949042017</v>
+        <v>0.1974653152705717</v>
       </c>
       <c r="K330" t="n">
-        <v>0.2809894025601345</v>
+        <v>0.2882993602950347</v>
       </c>
       <c r="L330" t="n">
-        <v>1.860645710167125</v>
+        <v>1.831005333598215</v>
       </c>
       <c r="M330" t="n">
-        <v>0.8583648872727399</v>
+        <v>0.8806953061067498</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
@@ -14337,25 +14337,25 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H331" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I331" t="n">
-        <v>0.3001458235274123</v>
+        <v>0.3087194672745036</v>
       </c>
       <c r="J331" t="n">
-        <v>0.2844935676717836</v>
+        <v>0.2810083466363807</v>
       </c>
       <c r="K331" t="n">
-        <v>0.4153606088008041</v>
+        <v>0.4102721860891158</v>
       </c>
       <c r="L331" t="n">
-        <v>1.315798079383041</v>
+        <v>1.336430587912627</v>
       </c>
       <c r="M331" t="n">
-        <v>1.268841311816155</v>
+        <v>1.253297225998258</v>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
@@ -14376,25 +14376,25 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H332" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I332" t="n">
-        <v>0.7081691716593363</v>
+        <v>0.6923898270229291</v>
       </c>
       <c r="J332" t="n">
-        <v>0.11863041802466</v>
+        <v>0.125044785763037</v>
       </c>
       <c r="K332" t="n">
-        <v>0.1732004103160036</v>
+        <v>0.1825653872140339</v>
       </c>
       <c r="L332" t="n">
-        <v>2.297707925294013</v>
+        <v>2.259734868282821</v>
       </c>
       <c r="M332" t="n">
-        <v>0.5290916643899837</v>
+        <v>0.5576997445031449</v>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
@@ -14415,25 +14415,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H333" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I333" t="n">
-        <v>0.217690154954521</v>
+        <v>0.2244828909034468</v>
       </c>
       <c r="J333" t="n">
-        <v>0.4644822188118785</v>
+        <v>0.447772088377521</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3178276262336006</v>
+        <v>0.3277450207190323</v>
       </c>
       <c r="L333" t="n">
-        <v>0.9708980910971636</v>
+        <v>1.001193693429373</v>
       </c>
       <c r="M333" t="n">
-        <v>1.711274282669236</v>
+        <v>1.671061285851595</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14507,25 +14507,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H335" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I335" t="n">
-        <v>0.2427782870158758</v>
+        <v>0.2497741084115186</v>
       </c>
       <c r="J335" t="n">
-        <v>0.4027654139409454</v>
+        <v>0.3855556933076645</v>
       </c>
       <c r="K335" t="n">
-        <v>0.3544562990431787</v>
+        <v>0.364670198280817</v>
       </c>
       <c r="L335" t="n">
-        <v>1.082791160090806</v>
+        <v>1.113992523515373</v>
       </c>
       <c r="M335" t="n">
-        <v>1.562752540866015</v>
+        <v>1.521337278203811</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14546,25 +14546,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H336" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I336" t="n">
-        <v>0.7096707274096207</v>
+        <v>0.6648952864946004</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1180200295082843</v>
+        <v>0.1362214282542275</v>
       </c>
       <c r="K336" t="n">
-        <v>0.172309243082095</v>
+        <v>0.1988832852511722</v>
       </c>
       <c r="L336" t="n">
-        <v>2.301321425310957</v>
+        <v>2.193569144734973</v>
       </c>
       <c r="M336" t="n">
-        <v>0.5263693316069479</v>
+        <v>0.6075475700138546</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14585,25 +14585,25 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H337" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I337" t="n">
-        <v>0.216924754970136</v>
+        <v>0.2375598444334419</v>
       </c>
       <c r="J337" t="n">
-        <v>0.4663651027734655</v>
+        <v>0.415602782693733</v>
       </c>
       <c r="K337" t="n">
-        <v>0.3167101422563985</v>
+        <v>0.3468373728728251</v>
       </c>
       <c r="L337" t="n">
-        <v>0.9674844071668065</v>
+        <v>1.059516906173151</v>
       </c>
       <c r="M337" t="n">
-        <v>1.715805450576795</v>
+        <v>1.593645720954024</v>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
@@ -14677,25 +14677,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H339" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2059906408772177</v>
+        <v>0.2109111516915299</v>
       </c>
       <c r="J339" t="n">
-        <v>0.4932630234420444</v>
+        <v>0.4811585668388363</v>
       </c>
       <c r="K339" t="n">
-        <v>0.3007463356807379</v>
+        <v>0.3079302814696337</v>
       </c>
       <c r="L339" t="n">
-        <v>0.9187182583123912</v>
+        <v>0.9406637365442234</v>
       </c>
       <c r="M339" t="n">
-        <v>1.780535406006871</v>
+        <v>1.751405981986143</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -14769,25 +14769,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H341" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I341" t="n">
-        <v>0.3060489672170266</v>
+        <v>0.290288283772112</v>
       </c>
       <c r="J341" t="n">
-        <v>0.2820939157654364</v>
+        <v>0.288500697653613</v>
       </c>
       <c r="K341" t="n">
-        <v>0.411857117017537</v>
+        <v>0.4212110185742749</v>
       </c>
       <c r="L341" t="n">
-        <v>1.330004018668617</v>
+        <v>1.292075869890611</v>
       </c>
       <c r="M341" t="n">
-        <v>1.258138864313846</v>
+        <v>1.286713111535114</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -14861,25 +14861,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H343" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I343" t="n">
-        <v>0.4977355991691099</v>
+        <v>0.4737502439276002</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2041725206629635</v>
+        <v>0.2139226650700812</v>
       </c>
       <c r="K343" t="n">
-        <v>0.2980918801679266</v>
+        <v>0.3123270910023186</v>
       </c>
       <c r="L343" t="n">
-        <v>1.791298677675256</v>
+        <v>1.733577822785119</v>
       </c>
       <c r="M343" t="n">
-        <v>0.9106094421568171</v>
+        <v>0.9540950862125623</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -14900,25 +14900,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H344" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I344" t="n">
-        <v>0.503865172819335</v>
+        <v>0.520552926745419</v>
       </c>
       <c r="J344" t="n">
-        <v>0.2016808240571809</v>
+        <v>0.1948971842498297</v>
       </c>
       <c r="K344" t="n">
-        <v>0.2944540031234842</v>
+        <v>0.2845498890047514</v>
       </c>
       <c r="L344" t="n">
-        <v>1.806049521581489</v>
+        <v>1.846208669241008</v>
       </c>
       <c r="M344" t="n">
-        <v>0.899496475295027</v>
+        <v>0.8692414417542405</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -14939,25 +14939,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H345" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I345" t="n">
-        <v>0.3056647522773918</v>
+        <v>0.2911863644493691</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2822501007002473</v>
+        <v>0.2881356242075735</v>
       </c>
       <c r="K345" t="n">
-        <v>0.412085147022361</v>
+        <v>0.4206780113430573</v>
       </c>
       <c r="L345" t="n">
-        <v>1.329079403854536</v>
+        <v>1.294237104691165</v>
       </c>
       <c r="M345" t="n">
-        <v>1.258835449123103</v>
+        <v>1.285084883965778</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -14978,25 +14978,25 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H346" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I346" t="n">
-        <v>0.443614558641494</v>
+        <v>0.459032483318351</v>
       </c>
       <c r="J346" t="n">
-        <v>0.2261729436416691</v>
+        <v>0.2199054945860362</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3302124977168369</v>
+        <v>0.3210620220956129</v>
       </c>
       <c r="L346" t="n">
-        <v>1.661056173641319</v>
+        <v>1.698159472050666</v>
       </c>
       <c r="M346" t="n">
-        <v>1.008731328641844</v>
+        <v>0.9807785058537215</v>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
@@ -15017,25 +15017,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H347" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I347" t="n">
-        <v>0.3615088893919574</v>
+        <v>0.3467687705302334</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2595492319544889</v>
+        <v>0.2655411501909621</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3789418786535537</v>
+        <v>0.3876900792788046</v>
       </c>
       <c r="L347" t="n">
-        <v>1.463468546829426</v>
+        <v>1.427996390869505</v>
       </c>
       <c r="M347" t="n">
-        <v>1.15758957451702</v>
+        <v>1.184313529851691</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15056,25 +15056,25 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H348" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I348" t="n">
-        <v>0.5056841718866855</v>
+        <v>0.4890339438390597</v>
       </c>
       <c r="J348" t="n">
-        <v>0.2009413935419978</v>
+        <v>0.2077097789272115</v>
       </c>
       <c r="K348" t="n">
-        <v>0.2933744345713168</v>
+        <v>0.3032562772337287</v>
       </c>
       <c r="L348" t="n">
-        <v>1.810426950231373</v>
+        <v>1.770358108750908</v>
       </c>
       <c r="M348" t="n">
-        <v>0.8961986151973103</v>
+        <v>0.9263856140153631</v>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
@@ -15095,25 +15095,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H349" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I349" t="n">
-        <v>0.3040609893970654</v>
+        <v>0.3189818710820376</v>
       </c>
       <c r="J349" t="n">
-        <v>0.2829020368304612</v>
+        <v>0.2768366377715294</v>
       </c>
       <c r="K349" t="n">
-        <v>0.4130369737724734</v>
+        <v>0.404181491146433</v>
       </c>
       <c r="L349" t="n">
-        <v>1.325219941963669</v>
+        <v>1.361127104392546</v>
       </c>
       <c r="M349" t="n">
-        <v>1.261743084263857</v>
+        <v>1.234691404461021</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15134,25 +15134,25 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H350" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I350" t="n">
-        <v>0.5315543357557446</v>
+        <v>0.5526463080166332</v>
       </c>
       <c r="J350" t="n">
-        <v>0.1904250667659574</v>
+        <v>0.1818510943021817</v>
       </c>
       <c r="K350" t="n">
-        <v>0.2780205974782979</v>
+        <v>0.2655025976811852</v>
       </c>
       <c r="L350" t="n">
-        <v>1.872683604745532</v>
+        <v>1.923441521731085</v>
       </c>
       <c r="M350" t="n">
-        <v>0.8492957977761701</v>
+        <v>0.8110558805877301</v>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
@@ -15173,25 +15173,25 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H351" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I351" t="n">
-        <v>0.2860158626959745</v>
+        <v>0.2784177680530326</v>
       </c>
       <c r="J351" t="n">
-        <v>0.2964009777679029</v>
+        <v>0.3150922905895396</v>
       </c>
       <c r="K351" t="n">
-        <v>0.4175831595361227</v>
+        <v>0.4064899413574277</v>
       </c>
       <c r="L351" t="n">
-        <v>1.275630747624046</v>
+        <v>1.241743245516526</v>
       </c>
       <c r="M351" t="n">
-        <v>1.306786092839832</v>
+        <v>1.351766813126047</v>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
@@ -15212,25 +15212,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H352" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I352" t="n">
-        <v>0.2635049982942041</v>
+        <v>0.2650915999590593</v>
       </c>
       <c r="J352" t="n">
-        <v>0.3517777041962581</v>
+        <v>0.347874664100714</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3847172975095379</v>
+        <v>0.3870337359402267</v>
       </c>
       <c r="L352" t="n">
-        <v>1.17523229239215</v>
+        <v>1.182308535817405</v>
       </c>
       <c r="M352" t="n">
-        <v>1.440050410098312</v>
+        <v>1.430657728242369</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15251,25 +15251,25 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H353" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I353" t="n">
-        <v>0.5984402549410677</v>
+        <v>0.5927890713889851</v>
       </c>
       <c r="J353" t="n">
-        <v>0.1632356687231432</v>
+        <v>0.1655328978093557</v>
       </c>
       <c r="K353" t="n">
-        <v>0.2383240763357891</v>
+        <v>0.2416780308016593</v>
       </c>
       <c r="L353" t="n">
-        <v>2.033644841158992</v>
+        <v>2.020045244968614</v>
       </c>
       <c r="M353" t="n">
-        <v>0.7280310825052188</v>
+        <v>0.7382767242297262</v>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
@@ -15290,25 +15290,25 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H354" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I354" t="n">
-        <v>0.399178750486169</v>
+        <v>0.3970986020655251</v>
       </c>
       <c r="J354" t="n">
-        <v>0.2442362802901752</v>
+        <v>0.2450818690790549</v>
       </c>
       <c r="K354" t="n">
-        <v>0.3565849692236558</v>
+        <v>0.3578195288554201</v>
       </c>
       <c r="L354" t="n">
-        <v>1.554121220682163</v>
+        <v>1.549115335051995</v>
       </c>
       <c r="M354" t="n">
-        <v>1.089293810094181</v>
+        <v>1.093065136092585</v>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
@@ -15382,25 +15382,25 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H356" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3427970317782059</v>
+        <v>0.3398269767021553</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2671556781389406</v>
+        <v>0.2683630176007499</v>
       </c>
       <c r="K356" t="n">
-        <v>0.3900472900828533</v>
+        <v>0.3918100056970948</v>
       </c>
       <c r="L356" t="n">
-        <v>1.418438385417471</v>
+        <v>1.411290935803561</v>
       </c>
       <c r="M356" t="n">
-        <v>1.191514324499675</v>
+        <v>1.196899058499344</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
@@ -15421,25 +15421,25 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H357" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I357" t="n">
-        <v>0.4598881132817885</v>
+        <v>0.461906463440454</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2195576775277283</v>
+        <v>0.2187372099835553</v>
       </c>
       <c r="K357" t="n">
-        <v>0.3205542091904832</v>
+        <v>0.3193563265759907</v>
       </c>
       <c r="L357" t="n">
-        <v>1.700218549035849</v>
+        <v>1.705075716897353</v>
       </c>
       <c r="M357" t="n">
-        <v>0.979227241773668</v>
+        <v>0.9755679565266564</v>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
@@ -15460,25 +15460,25 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H358" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I358" t="n">
-        <v>0.4009252242536571</v>
+        <v>0.3673276686380224</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2435263316042044</v>
+        <v>0.2571838745373893</v>
       </c>
       <c r="K358" t="n">
-        <v>0.3555484441421384</v>
+        <v>0.3754884568245884</v>
       </c>
       <c r="L358" t="n">
-        <v>1.55832411690311</v>
+        <v>1.477471462738656</v>
       </c>
       <c r="M358" t="n">
-        <v>1.086127438954752</v>
+        <v>1.147040080436756</v>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr"/>
@@ -15499,25 +15499,25 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H359" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I359" t="n">
-        <v>0.396515388546834</v>
+        <v>0.4309805460379512</v>
       </c>
       <c r="J359" t="n">
-        <v>0.2453189477451895</v>
+        <v>0.231308721122784</v>
       </c>
       <c r="K359" t="n">
-        <v>0.3581656637079766</v>
+        <v>0.3377107328392647</v>
       </c>
       <c r="L359" t="n">
-        <v>1.547711829348479</v>
+        <v>1.630652370953118</v>
       </c>
       <c r="M359" t="n">
-        <v>1.094122506943545</v>
+        <v>1.031636896207617</v>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
@@ -15538,25 +15538,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H360" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4260553126813597</v>
+        <v>0.4283813097011417</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2333108485035123</v>
+        <v>0.2323653212596985</v>
       </c>
       <c r="K360" t="n">
-        <v>0.3406338388151279</v>
+        <v>0.3392533690391598</v>
       </c>
       <c r="L360" t="n">
-        <v>1.618799776859207</v>
+        <v>1.624397298142585</v>
       </c>
       <c r="M360" t="n">
-        <v>1.040566384325665</v>
+        <v>1.036349332818255</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -15630,25 +15630,25 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H362" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I362" t="n">
-        <v>0.5988583453098646</v>
+        <v>0.591777812980991</v>
       </c>
       <c r="J362" t="n">
-        <v>0.1630657132886729</v>
+        <v>0.1659439784630118</v>
       </c>
       <c r="K362" t="n">
-        <v>0.2380759414014624</v>
+        <v>0.2422782085559973</v>
       </c>
       <c r="L362" t="n">
-        <v>2.034650977331056</v>
+        <v>2.01761164749897</v>
       </c>
       <c r="M362" t="n">
-        <v>0.7272730812674812</v>
+        <v>0.7401101439450328</v>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
@@ -15669,25 +15669,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H363" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I363" t="n">
-        <v>0.2633372026864262</v>
+        <v>0.2654929637213448</v>
       </c>
       <c r="J363" t="n">
-        <v>0.3521904813913915</v>
+        <v>0.3468873092454917</v>
       </c>
       <c r="K363" t="n">
-        <v>0.3844723159221823</v>
+        <v>0.3876197270331634</v>
       </c>
       <c r="L363" t="n">
-        <v>1.174483923981461</v>
+        <v>1.184098618197198</v>
       </c>
       <c r="M363" t="n">
-        <v>1.441043760096357</v>
+        <v>1.428281654769638</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -15708,25 +15708,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H364" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I364" t="n">
-        <v>0.5396029314716637</v>
+        <v>0.5311653781053965</v>
       </c>
       <c r="J364" t="n">
-        <v>0.1871532798895676</v>
+        <v>0.1905831796319526</v>
       </c>
       <c r="K364" t="n">
-        <v>0.2732437886387687</v>
+        <v>0.2782514422626509</v>
       </c>
       <c r="L364" t="n">
-        <v>1.89205258305376</v>
+        <v>1.871747576578841</v>
       </c>
       <c r="M364" t="n">
-        <v>0.8347036283074716</v>
+        <v>0.8500009811585088</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -15800,25 +15800,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H366" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I366" t="n">
-        <v>0.6006051333237865</v>
+        <v>0.5609923249296755</v>
       </c>
       <c r="J366" t="n">
-        <v>0.1623556368602494</v>
+        <v>0.1784584045001319</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2370392298159641</v>
+        <v>0.2605492705701925</v>
       </c>
       <c r="L366" t="n">
-        <v>2.038854629787324</v>
+        <v>1.943526245359219</v>
       </c>
       <c r="M366" t="n">
-        <v>0.7241061403967123</v>
+        <v>0.7959244840705881</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -15892,25 +15892,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H368" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I368" t="n">
-        <v>0.6251896253448387</v>
+        <v>0.6225604382093678</v>
       </c>
       <c r="J368" t="n">
-        <v>0.1523619409167322</v>
+        <v>0.1534307161750537</v>
       </c>
       <c r="K368" t="n">
-        <v>0.222448433738429</v>
+        <v>0.2240088456155785</v>
       </c>
       <c r="L368" t="n">
-        <v>2.098017309772945</v>
+        <v>2.091690160243682</v>
       </c>
       <c r="M368" t="n">
-        <v>0.6795342564886258</v>
+        <v>0.6843009941407396</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -15931,25 +15931,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H369" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I369" t="n">
-        <v>0.252464700097381</v>
+        <v>0.2528865076559315</v>
       </c>
       <c r="J369" t="n">
-        <v>0.3789368377604428</v>
+        <v>0.3778991911664085</v>
       </c>
       <c r="K369" t="n">
-        <v>0.3685984621421762</v>
+        <v>0.36921430117766</v>
       </c>
       <c r="L369" t="n">
-        <v>1.125992562434319</v>
+        <v>1.127873824145455</v>
       </c>
       <c r="M369" t="n">
-        <v>1.505408975423505</v>
+        <v>1.502911874676885</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16023,25 +16023,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H371" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I371" t="n">
-        <v>0.4603203680716685</v>
+        <v>0.460865785652569</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2193819641985087</v>
+        <v>0.2191602497347281</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3202976677298227</v>
+        <v>0.3199739646127029</v>
       </c>
       <c r="L371" t="n">
-        <v>1.701258771944828</v>
+        <v>1.70257132157041</v>
       </c>
       <c r="M371" t="n">
-        <v>0.9784435603253488</v>
+        <v>0.9774547138168872</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16062,25 +16062,25 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H372" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I372" t="n">
-        <v>0.4004906405215005</v>
+        <v>0.3683403913047116</v>
       </c>
       <c r="J372" t="n">
-        <v>0.2437029916579266</v>
+        <v>0.2567721986566213</v>
       </c>
       <c r="K372" t="n">
-        <v>0.3558063678205729</v>
+        <v>0.3748874100386671</v>
       </c>
       <c r="L372" t="n">
-        <v>1.557278289385074</v>
+        <v>1.479908583952802</v>
       </c>
       <c r="M372" t="n">
-        <v>1.086915342794353</v>
+        <v>1.145204006008531</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
@@ -16101,25 +16101,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H373" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I373" t="n">
-        <v>0.3969318530965729</v>
+        <v>0.4299538709597336</v>
       </c>
       <c r="J373" t="n">
-        <v>0.2451496532127753</v>
+        <v>0.2317260687155554</v>
       </c>
       <c r="K373" t="n">
-        <v>0.3579184936906519</v>
+        <v>0.338320060324711</v>
       </c>
       <c r="L373" t="n">
-        <v>1.548714052980371</v>
+        <v>1.628181673203912</v>
       </c>
       <c r="M373" t="n">
-        <v>1.093367453328978</v>
+        <v>1.033498266471377</v>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
@@ -16140,25 +16140,25 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H374" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I374" t="n">
-        <v>0.4256128416693268</v>
+        <v>0.4294481009651281</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2334907147685664</v>
+        <v>0.2319316662743382</v>
       </c>
       <c r="K374" t="n">
-        <v>0.3408964435621069</v>
+        <v>0.3386202327605338</v>
       </c>
       <c r="L374" t="n">
-        <v>1.617734968570087</v>
+        <v>1.626964535655918</v>
       </c>
       <c r="M374" t="n">
-        <v>1.041368587867806</v>
+        <v>1.034415231583548</v>
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
@@ -16179,25 +16179,25 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H375" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I375" t="n">
-        <v>0.3714364997481847</v>
+        <v>0.3664472024198472</v>
       </c>
       <c r="J375" t="n">
-        <v>0.2555136179885428</v>
+        <v>0.2575417876342085</v>
       </c>
       <c r="K375" t="n">
-        <v>0.3730498822632725</v>
+        <v>0.3760110099459443</v>
       </c>
       <c r="L375" t="n">
-        <v>1.487359381507826</v>
+        <v>1.475352617205486</v>
       </c>
       <c r="M375" t="n">
-        <v>1.139590736228901</v>
+        <v>1.14863637284857</v>
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
@@ -16271,25 +16271,25 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H377" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I377" t="n">
-        <v>0.3406875403215423</v>
+        <v>0.3708584834514643</v>
       </c>
       <c r="J377" t="n">
-        <v>0.2680131949912429</v>
+        <v>0.2557485839628194</v>
       </c>
       <c r="K377" t="n">
-        <v>0.3912992646872147</v>
+        <v>0.3733929325857163</v>
       </c>
       <c r="L377" t="n">
-        <v>1.413361885651842</v>
+        <v>1.485968382940109</v>
       </c>
       <c r="M377" t="n">
-        <v>1.195338849660943</v>
+        <v>1.140638684474174</v>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
@@ -16310,25 +16310,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H378" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I378" t="n">
-        <v>0.4879701514297712</v>
+        <v>0.4930636773209454</v>
       </c>
       <c r="J378" t="n">
-        <v>0.2081422148659467</v>
+        <v>0.2060716758857946</v>
       </c>
       <c r="K378" t="n">
-        <v>0.3038876337042822</v>
+        <v>0.3008646467932601</v>
       </c>
       <c r="L378" t="n">
-        <v>1.767798087993596</v>
+        <v>1.780055678756096</v>
       </c>
       <c r="M378" t="n">
-        <v>0.9283142783021223</v>
+        <v>0.919079674450644</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16349,25 +16349,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H379" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I379" t="n">
-        <v>0.3169064160683183</v>
+        <v>0.3113136105311186</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2776803186714153</v>
+        <v>0.2799538168572689</v>
       </c>
       <c r="K379" t="n">
-        <v>0.4054132652602664</v>
+        <v>0.4087325726116126</v>
       </c>
       <c r="L379" t="n">
-        <v>1.356132513465221</v>
+        <v>1.342673404204968</v>
       </c>
       <c r="M379" t="n">
-        <v>1.238454221274512</v>
+        <v>1.248594023183419</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16388,25 +16388,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H380" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I380" t="n">
-        <v>0.4237638334116044</v>
+        <v>0.4618421512736423</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2342423441416242</v>
+        <v>0.2187633531407958</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3419938224467713</v>
+        <v>0.3193944955855619</v>
       </c>
       <c r="L380" t="n">
-        <v>1.613285322681585</v>
+        <v>1.704920949406489</v>
       </c>
       <c r="M380" t="n">
-        <v>1.044720854871644</v>
+        <v>0.9756845550079494</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
@@ -16427,25 +16427,25 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H381" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I381" t="n">
-        <v>0.3731369770890894</v>
+        <v>0.3376871382384866</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2548223670369555</v>
+        <v>0.2692328706347616</v>
       </c>
       <c r="K381" t="n">
-        <v>0.3720406558739551</v>
+        <v>0.3930799911267519</v>
       </c>
       <c r="L381" t="n">
-        <v>1.491451587141223</v>
+        <v>1.406141405842212</v>
       </c>
       <c r="M381" t="n">
-        <v>1.136507756984822</v>
+        <v>1.200778603031037</v>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>

--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -539,22 +539,22 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5105004117165961</v>
+        <v>0.5057370115787179</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1989835724729284</v>
+        <v>0.2009199139923911</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2905160158104755</v>
+        <v>0.293343074428891</v>
       </c>
       <c r="L2" t="n">
-        <v>1.822017250960264</v>
+        <v>1.810554109165045</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8874667332292607</v>
+        <v>0.8961028164060643</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3118558159110756</v>
+        <v>0.3177198620330348</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2797334081662294</v>
+        <v>0.2773496495800672</v>
       </c>
       <c r="K5" t="n">
-        <v>0.408410775922695</v>
+        <v>0.404930488386898</v>
       </c>
       <c r="L5" t="n">
-        <v>1.343978223655922</v>
+        <v>1.358090074486002</v>
       </c>
       <c r="M5" t="n">
-        <v>1.247611000421383</v>
+        <v>1.2369794371271</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
@@ -1149,25 +1149,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2196927826026768</v>
+        <v>0.2150822957514095</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4595557547974151</v>
+        <v>0.4708975524515327</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3207514625999081</v>
+        <v>0.3140201517970578</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9798298104079386</v>
+        <v>0.9592670390512863</v>
       </c>
       <c r="M17" t="n">
-        <v>1.699418726992153</v>
+        <v>1.726712809151656</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1475,25 +1475,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2659489287035226</v>
+        <v>0.2529951550772887</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3457656353893344</v>
+        <v>0.3776319185098698</v>
       </c>
       <c r="K25" t="n">
-        <v>0.388285435907143</v>
+        <v>0.3693729264128415</v>
       </c>
       <c r="L25" t="n">
-        <v>1.186132222017711</v>
+        <v>1.128358391644708</v>
       </c>
       <c r="M25" t="n">
-        <v>1.425582342075146</v>
+        <v>1.502268681942451</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1567,25 +1567,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1796453014426486</v>
+        <v>0.1800361078507716</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5580725584510846</v>
+        <v>0.5571111746871017</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2622821401062669</v>
+        <v>0.2628527174621266</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8012180444342125</v>
+        <v>0.8029610410144417</v>
       </c>
       <c r="M27" t="n">
-        <v>1.936499815459521</v>
+        <v>1.934186241523432</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8479553947493842</v>
+        <v>0.856618248435607</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06180675010187635</v>
+        <v>0.05828526486357438</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09023785514873947</v>
+        <v>0.0850964867008186</v>
       </c>
       <c r="L28" t="n">
-        <v>2.634104039396892</v>
+        <v>2.654951232007639</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2756581054543685</v>
+        <v>0.2599522812915417</v>
       </c>
       <c r="N28" t="n">
         <v>3</v>
@@ -1871,22 +1871,22 @@
         <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8143350188654325</v>
+        <v>0.822998722789835</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07547356956689737</v>
+        <v>0.0719517387033191</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1101914115676701</v>
+        <v>0.1050495385068459</v>
       </c>
       <c r="L34" t="n">
-        <v>2.553196468163967</v>
+        <v>2.574045706876351</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3366121202683622</v>
+        <v>0.3209047546168032</v>
       </c>
       <c r="N34" t="n">
         <v>3</v>
@@ -1963,22 +1963,22 @@
         <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8491142560017515</v>
+        <v>0.8398570301250703</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06133566829197095</v>
+        <v>0.06509876824184138</v>
       </c>
       <c r="K36" t="n">
-        <v>0.08955007570627758</v>
+        <v>0.09504420163308841</v>
       </c>
       <c r="L36" t="n">
-        <v>2.636892843711532</v>
+        <v>2.614615292008299</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2735570805821904</v>
+        <v>0.2903405063586125</v>
       </c>
       <c r="N36" t="n">
         <v>3</v>
@@ -2364,25 +2364,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H46" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6093942026776775</v>
+        <v>0.6321426031721259</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1587828444399685</v>
+        <v>0.1495355271658025</v>
       </c>
       <c r="K46" t="n">
-        <v>0.231822952882354</v>
+        <v>0.2183218696620717</v>
       </c>
       <c r="L46" t="n">
-        <v>2.060005560915386</v>
+        <v>2.114749679178449</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7081714862022594</v>
+        <v>0.6669284511594793</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2612,25 +2612,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H52" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6329264335192558</v>
+        <v>0.6475869796696524</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1492168969433919</v>
+        <v>0.1432573253375397</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2178566695373522</v>
+        <v>0.209155694992808</v>
       </c>
       <c r="L52" t="n">
-        <v>2.116635970095119</v>
+        <v>2.151916634001765</v>
       </c>
       <c r="M52" t="n">
-        <v>0.6655073603675281</v>
+        <v>0.638927671005427</v>
       </c>
       <c r="N52" t="n">
         <v>3</v>
@@ -2743,25 +2743,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H55" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2694342215318971</v>
+        <v>0.2664598175528735</v>
       </c>
       <c r="J55" t="n">
-        <v>0.337191815031533</v>
+        <v>0.3445088488199312</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3933739634365698</v>
+        <v>0.3890313336271953</v>
       </c>
       <c r="L55" t="n">
-        <v>1.201676628032261</v>
+        <v>1.188410786285816</v>
       </c>
       <c r="M55" t="n">
-        <v>1.404949408531169</v>
+        <v>1.422557880086989</v>
       </c>
       <c r="N55" t="n">
         <v>3</v>
@@ -2874,25 +2874,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H58" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I58" t="n">
-        <v>0.702782380649092</v>
+        <v>0.7146787491073958</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1208201704678488</v>
+        <v>0.115984248330327</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1763974488830592</v>
+        <v>0.1693370025622774</v>
       </c>
       <c r="L58" t="n">
-        <v>2.284744590830336</v>
+        <v>2.313373249884465</v>
       </c>
       <c r="M58" t="n">
-        <v>0.5388579602866056</v>
+        <v>0.5172897475532583</v>
       </c>
       <c r="N58" t="n">
         <v>3</v>
@@ -3239,25 +3239,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H67" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2551896203281747</v>
+        <v>0.2444711083301312</v>
       </c>
       <c r="J67" t="n">
-        <v>0.37223353399269</v>
+        <v>0.3986010735078772</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3725768456791352</v>
+        <v>0.3569278181619916</v>
       </c>
       <c r="L67" t="n">
-        <v>1.138145706663659</v>
+        <v>1.090341143152385</v>
       </c>
       <c r="M67" t="n">
-        <v>1.489277447657205</v>
+        <v>1.552731038685623</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -3292,25 +3292,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="H68" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7916374569244052</v>
+        <v>0.8049532471849074</v>
       </c>
       <c r="J68" t="n">
-        <v>0.08470022076243691</v>
+        <v>0.07928729789231408</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1236623223131579</v>
+        <v>0.1157594549227785</v>
       </c>
       <c r="L68" t="n">
-        <v>2.498574693086374</v>
+        <v>2.530619196477501</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3777629846004686</v>
+        <v>0.3536213485997208</v>
       </c>
       <c r="N68" t="n">
         <v>3</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H75" t="n">
-        <v>97.4048157878</v>
+        <v>97.5382271762</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1627325992334198</v>
+        <v>0.1527549395839681</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5996778058857872</v>
+        <v>0.6242228486234384</v>
       </c>
       <c r="K75" t="n">
-        <v>0.237589594880793</v>
+        <v>0.2230222117925935</v>
       </c>
       <c r="L75" t="n">
-        <v>0.7257873925810525</v>
+        <v>0.6812870305444978</v>
       </c>
       <c r="M75" t="n">
-        <v>2.036623012538155</v>
+        <v>2.095690757662909</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H76" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5829207016569499</v>
+        <v>0.6076399031241819</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1695444302207521</v>
+        <v>0.1594959743397635</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2475348681222981</v>
+        <v>0.2328641225360547</v>
       </c>
       <c r="L76" t="n">
-        <v>1.996296973093148</v>
+        <v>2.055783831908601</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7561681587845545</v>
+        <v>0.7113520455553451</v>
       </c>
       <c r="N76" t="n">
         <v>3</v>
@@ -3763,25 +3763,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H79" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3307468386004146</v>
+        <v>0.3192070317294386</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2720541306502379</v>
+        <v>0.2767451090530738</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3971990307493474</v>
+        <v>0.4040478592174876</v>
       </c>
       <c r="L79" t="n">
-        <v>1.389439546550591</v>
+        <v>1.361668954405803</v>
       </c>
       <c r="M79" t="n">
-        <v>1.213361422700061</v>
+        <v>1.234283186376709</v>
       </c>
       <c r="N79" t="n">
         <v>3</v>
@@ -4011,25 +4011,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H85" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2899519337584784</v>
+        <v>0.2885454077379682</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2886374253014315</v>
+        <v>0.2901782969645983</v>
       </c>
       <c r="K85" t="n">
-        <v>0.4214106409400901</v>
+        <v>0.4212762952974336</v>
       </c>
       <c r="L85" t="n">
-        <v>1.291266442215525</v>
+        <v>1.286912518511338</v>
       </c>
       <c r="M85" t="n">
-        <v>1.287322916844385</v>
+        <v>1.291811186191228</v>
       </c>
       <c r="N85" t="n">
         <v>3</v>
@@ -4064,25 +4064,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H86" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6148244287988239</v>
+        <v>0.6315008501418395</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1565754354476326</v>
+        <v>0.149796402381366</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2286001357535435</v>
+        <v>0.2187027474767944</v>
       </c>
       <c r="L86" t="n">
-        <v>2.073073422150015</v>
+        <v>2.113205297902313</v>
       </c>
       <c r="M86" t="n">
-        <v>0.6983264420964412</v>
+        <v>0.6680919546208924</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="H92" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I92" t="n">
-        <v>0.6864185119515442</v>
+        <v>0.7002374869336235</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1274721496131934</v>
+        <v>0.1218546801082831</v>
       </c>
       <c r="K92" t="n">
-        <v>0.1861093384352623</v>
+        <v>0.1779078329580934</v>
       </c>
       <c r="L92" t="n">
-        <v>2.245364874289895</v>
+        <v>2.278620293758964</v>
       </c>
       <c r="M92" t="n">
-        <v>0.5685257872748425</v>
+        <v>0.5434718732829428</v>
       </c>
       <c r="N92" t="n">
         <v>3</v>
@@ -4443,25 +4443,25 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H95" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3279017101045909</v>
+        <v>0.2927790476367478</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2732106869493533</v>
+        <v>0.2874881920175822</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3988876029460558</v>
+        <v>0.41973276034567</v>
       </c>
       <c r="L95" t="n">
-        <v>1.382592733259828</v>
+        <v>1.298069903255914</v>
       </c>
       <c r="M95" t="n">
-        <v>1.218519663794116</v>
+        <v>1.282197336398416</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -4769,25 +4769,25 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H103" t="n">
-        <v>96.88550713079999</v>
+        <v>97.0684976167</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1815289569582933</v>
+        <v>0.1723817807031599</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5534387658825987</v>
+        <v>0.5759408194702268</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2650322771591082</v>
+        <v>0.2516773998266134</v>
       </c>
       <c r="L103" t="n">
-        <v>0.809619148033988</v>
+        <v>0.7688227419360929</v>
       </c>
       <c r="M103" t="n">
-        <v>1.925348574806904</v>
+        <v>1.979499858237294</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H113" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3994078930338434</v>
+        <v>0.3983373393883174</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2441431329130717</v>
+        <v>0.2445783173218222</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3564489740530847</v>
+        <v>0.3570843432898604</v>
       </c>
       <c r="L113" t="n">
-        <v>1.554672653154615</v>
+        <v>1.552096361454812</v>
       </c>
       <c r="M113" t="n">
-        <v>1.0888783727923</v>
+        <v>1.090819295255327</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -5343,25 +5343,25 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H117" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4466259253308035</v>
+        <v>0.4693091807671989</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2249488108411368</v>
+        <v>0.2157279752978866</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3284252638280597</v>
+        <v>0.3149628439349144</v>
       </c>
       <c r="L117" t="n">
-        <v>1.66830303982047</v>
+        <v>1.722890386236511</v>
       </c>
       <c r="M117" t="n">
-        <v>1.00327169635147</v>
+        <v>0.9621467698285742</v>
       </c>
       <c r="N117" t="n">
         <v>1</v>
@@ -5474,25 +5474,25 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H120" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I120" t="n">
-        <v>0.406517025761056</v>
+        <v>0.3908238510763127</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2412532415605464</v>
+        <v>0.2476325808632875</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3522297326783977</v>
+        <v>0.3615435680603998</v>
       </c>
       <c r="L120" t="n">
-        <v>1.571780809961566</v>
+        <v>1.534015121289338</v>
       </c>
       <c r="M120" t="n">
-        <v>1.075989457360037</v>
+        <v>1.104441310650262</v>
       </c>
       <c r="N120" t="n">
         <v>3</v>
@@ -5722,25 +5722,25 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H126" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I126" t="n">
-        <v>0.3322111342362393</v>
+        <v>0.3443704494738757</v>
       </c>
       <c r="J126" t="n">
-        <v>0.271458888521854</v>
+        <v>0.266516077449644</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3963299772419068</v>
+        <v>0.3891134730764803</v>
       </c>
       <c r="L126" t="n">
-        <v>1.392963379950625</v>
+        <v>1.422224821498107</v>
       </c>
       <c r="M126" t="n">
-        <v>1.210706642807469</v>
+        <v>1.188661705425412</v>
       </c>
       <c r="N126" t="n">
         <v>1</v>
@@ -5814,25 +5814,25 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H128" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5347798799137172</v>
+        <v>0.514280896366111</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1891138699537735</v>
+        <v>0.1974467900950769</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2761062501325093</v>
+        <v>0.2882723135388122</v>
       </c>
       <c r="L128" t="n">
-        <v>1.880445889873661</v>
+        <v>1.831115002637145</v>
       </c>
       <c r="M128" t="n">
-        <v>0.8434478599938298</v>
+        <v>0.8806126838240428</v>
       </c>
       <c r="N128" t="n">
         <v>3</v>
@@ -5945,25 +5945,25 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H131" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2500154823738698</v>
+        <v>0.2503868044526076</v>
       </c>
       <c r="J131" t="n">
-        <v>0.3849619133602801</v>
+        <v>0.3840484610465855</v>
       </c>
       <c r="K131" t="n">
-        <v>0.36502260426585</v>
+        <v>0.365564734500807</v>
       </c>
       <c r="L131" t="n">
-        <v>1.115069051387459</v>
+        <v>1.11672514785863</v>
       </c>
       <c r="M131" t="n">
-        <v>1.51990834434669</v>
+        <v>1.517710117640563</v>
       </c>
       <c r="N131" t="n">
         <v>1</v>
@@ -6310,25 +6310,25 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>92.1163744242</v>
+        <v>91.5882912066</v>
       </c>
       <c r="H140" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.6592686980829936</v>
+        <v>0.6598587972747965</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1385086593158563</v>
+        <v>0.1382687815956112</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2022226426011502</v>
+        <v>0.2018724211295923</v>
       </c>
       <c r="L140" t="n">
-        <v>2.180028736850131</v>
+        <v>2.181448812953982</v>
       </c>
       <c r="M140" t="n">
-        <v>0.617748620548719</v>
+        <v>0.6166787659164259</v>
       </c>
       <c r="N140" t="n">
         <v>3</v>
@@ -6558,25 +6558,25 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H146" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4559047806525845</v>
+        <v>0.4455545059743875</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2211769184339087</v>
+        <v>0.2253843471648831</v>
       </c>
       <c r="K146" t="n">
-        <v>0.3229183009135068</v>
+        <v>0.3290611468607294</v>
       </c>
       <c r="L146" t="n">
-        <v>1.69063264287126</v>
+        <v>1.665724664783892</v>
       </c>
       <c r="M146" t="n">
-        <v>0.986449056215233</v>
+        <v>1.005214188355379</v>
       </c>
       <c r="N146" t="n">
         <v>1</v>
@@ -6689,25 +6689,25 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H149" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2996920680638719</v>
+        <v>0.2954822796927676</v>
       </c>
       <c r="J149" t="n">
-        <v>0.2846780211122472</v>
+        <v>0.2863893171980619</v>
       </c>
       <c r="K149" t="n">
-        <v>0.415629910823881</v>
+        <v>0.4181284031091704</v>
       </c>
       <c r="L149" t="n">
-        <v>1.314706115015497</v>
+        <v>1.304575242187473</v>
       </c>
       <c r="M149" t="n">
-        <v>1.269663974160623</v>
+        <v>1.277296354703356</v>
       </c>
       <c r="N149" t="n">
         <v>3</v>
@@ -6742,25 +6742,25 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H150" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I150" t="n">
-        <v>0.4929741783903543</v>
+        <v>0.489605858383666</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2061080575648966</v>
+        <v>0.2074772933399732</v>
       </c>
       <c r="K150" t="n">
-        <v>0.3009177640447491</v>
+        <v>0.3029168482763608</v>
       </c>
       <c r="L150" t="n">
-        <v>1.779840299215812</v>
+        <v>1.771734423427359</v>
       </c>
       <c r="M150" t="n">
-        <v>0.9192419367394391</v>
+        <v>0.9253487282962805</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -7068,25 +7068,25 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="H158" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I158" t="n">
-        <v>0.62001741204529</v>
+        <v>0.6128735115879784</v>
       </c>
       <c r="J158" t="n">
-        <v>0.154464466648256</v>
+        <v>0.1573684912243991</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2255181213064538</v>
+        <v>0.2297579971876226</v>
       </c>
       <c r="L158" t="n">
-        <v>2.085570357442324</v>
+        <v>2.068378531951558</v>
       </c>
       <c r="M158" t="n">
-        <v>0.6889115212512219</v>
+        <v>0.7018634708608198</v>
       </c>
       <c r="N158" t="n">
         <v>3</v>
@@ -7277,25 +7277,25 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H163" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2975504800847637</v>
+        <v>0.2868616074327283</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2855485853313969</v>
+        <v>0.2943204457154883</v>
       </c>
       <c r="K163" t="n">
-        <v>0.4169009345838394</v>
+        <v>0.4188179468517833</v>
       </c>
       <c r="L163" t="n">
-        <v>1.309552374838131</v>
+        <v>1.279402769149968</v>
       </c>
       <c r="M163" t="n">
-        <v>1.27354669057803</v>
+        <v>1.301779283998248</v>
       </c>
       <c r="N163" t="n">
         <v>1</v>
@@ -7447,25 +7447,25 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H167" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2415656968122777</v>
+        <v>0.2380990410465822</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4057483858417969</v>
+        <v>0.4142763590254078</v>
       </c>
       <c r="K167" t="n">
-        <v>0.3526859173459254</v>
+        <v>0.3476245999280101</v>
       </c>
       <c r="L167" t="n">
-        <v>1.077383007782758</v>
+        <v>1.061921723067757</v>
       </c>
       <c r="M167" t="n">
-        <v>1.569931074871316</v>
+        <v>1.590453677004233</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
@@ -7539,25 +7539,25 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H169" t="n">
-        <v>94.474011971</v>
+        <v>94.2958640271</v>
       </c>
       <c r="I169" t="n">
-        <v>0.2156711958689996</v>
+        <v>0.2256337788840803</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4694488581622608</v>
+        <v>0.4449409039451626</v>
       </c>
       <c r="K169" t="n">
-        <v>0.3148799459687395</v>
+        <v>0.3294253171707572</v>
       </c>
       <c r="L169" t="n">
-        <v>0.9618935335757384</v>
+        <v>1.006326653822998</v>
       </c>
       <c r="M169" t="n">
-        <v>1.723226520455522</v>
+        <v>1.664248029006245</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -7943,25 +7943,25 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H179" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I179" t="n">
-        <v>0.4167425297508313</v>
+        <v>0.4322105110685806</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2370965326216133</v>
+        <v>0.2308087353379754</v>
       </c>
       <c r="K179" t="n">
-        <v>0.3461609376275554</v>
+        <v>0.336980753593444</v>
       </c>
       <c r="L179" t="n">
-        <v>1.596388526880049</v>
+        <v>1.633612286799186</v>
       </c>
       <c r="M179" t="n">
-        <v>1.057450535492395</v>
+        <v>1.02940695960737</v>
       </c>
       <c r="N179" t="n">
         <v>1</v>
@@ -7996,25 +7996,25 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H180" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I180" t="n">
-        <v>0.3445411679560992</v>
+        <v>0.3438662235128096</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2664466796926426</v>
+        <v>0.2667210473525164</v>
       </c>
       <c r="K180" t="n">
-        <v>0.3890121523512582</v>
+        <v>0.3894127291346739</v>
       </c>
       <c r="L180" t="n">
-        <v>1.422635656219556</v>
+        <v>1.421011399673103</v>
       </c>
       <c r="M180" t="n">
-        <v>1.188352191429186</v>
+        <v>1.189575871192223</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -8361,25 +8361,25 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H189" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I189" t="n">
-        <v>0.2531637771732934</v>
+        <v>0.2536649429911881</v>
       </c>
       <c r="J189" t="n">
-        <v>0.3772171081536982</v>
+        <v>0.3759842402416773</v>
       </c>
       <c r="K189" t="n">
-        <v>0.3696191146730083</v>
+        <v>0.3703508167671345</v>
       </c>
       <c r="L189" t="n">
-        <v>1.129110446192889</v>
+        <v>1.131345645740699</v>
       </c>
       <c r="M189" t="n">
-        <v>1.501270439134103</v>
+        <v>1.498303537492166</v>
       </c>
       <c r="N189" t="n">
         <v>1</v>
@@ -8492,25 +8492,25 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H192" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I192" t="n">
-        <v>0.6259689423692113</v>
+        <v>0.6219789617313686</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1520451453783694</v>
+        <v>0.153667088727086</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2219859122524193</v>
+        <v>0.2243539495415456</v>
       </c>
       <c r="L192" t="n">
-        <v>2.099892739360053</v>
+        <v>2.090290834735651</v>
       </c>
       <c r="M192" t="n">
-        <v>0.6781213483875275</v>
+        <v>0.6853552157228034</v>
       </c>
       <c r="N192" t="n">
         <v>3</v>
@@ -8701,25 +8701,25 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H197" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="I197" t="n">
-        <v>0.2522672277823765</v>
+        <v>0.2663581849888516</v>
       </c>
       <c r="J197" t="n">
-        <v>0.3794226196553538</v>
+        <v>0.3447588649274251</v>
       </c>
       <c r="K197" t="n">
-        <v>0.3683101525622697</v>
+        <v>0.3888829500837234</v>
       </c>
       <c r="L197" t="n">
-        <v>1.125111835909399</v>
+        <v>1.187957505050278</v>
       </c>
       <c r="M197" t="n">
-        <v>1.506578011528331</v>
+        <v>1.423159544865999</v>
       </c>
       <c r="N197" t="n">
         <v>0</v>
@@ -8754,25 +8754,25 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>91.8865135193</v>
+        <v>91.34868924840001</v>
       </c>
       <c r="H198" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I198" t="n">
-        <v>0.6515560928528449</v>
+        <v>0.6518241230244103</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1416438646939654</v>
+        <v>0.1415349093396706</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2068000424531896</v>
+        <v>0.2066409676359191</v>
       </c>
       <c r="L198" t="n">
-        <v>2.161468321011724</v>
+        <v>2.16211333670915</v>
       </c>
       <c r="M198" t="n">
-        <v>0.6317316365350859</v>
+        <v>0.6312456956549309</v>
       </c>
       <c r="N198" t="n">
         <v>1</v>
@@ -8885,25 +8885,25 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H201" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I201" t="n">
-        <v>0.6568425428953005</v>
+        <v>0.6696268093148474</v>
       </c>
       <c r="J201" t="n">
-        <v>0.139494901262073</v>
+        <v>0.1342980449939645</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2036625558426265</v>
+        <v>0.1960751456911881</v>
       </c>
       <c r="L201" t="n">
-        <v>2.174190184528528</v>
+        <v>2.20495557363573</v>
       </c>
       <c r="M201" t="n">
-        <v>0.6221472596288453</v>
+        <v>0.5989692806730815</v>
       </c>
       <c r="N201" t="n">
         <v>1</v>
@@ -8977,25 +8977,25 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="H203" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I203" t="n">
-        <v>0.5870075790755178</v>
+        <v>0.5859643731818495</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1678830979367814</v>
+        <v>0.168307165373232</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2451093229877008</v>
+        <v>0.2457284614449186</v>
       </c>
       <c r="L203" t="n">
-        <v>2.006132060214254</v>
+        <v>2.003621580990467</v>
       </c>
       <c r="M203" t="n">
-        <v>0.748758616798045</v>
+        <v>0.7506499575646145</v>
       </c>
       <c r="N203" t="n">
         <v>1</v>
@@ -9108,25 +9108,25 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H206" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I206" t="n">
-        <v>0.2328412264746729</v>
+        <v>0.2362121888262549</v>
       </c>
       <c r="J206" t="n">
-        <v>0.4272105828723047</v>
+        <v>0.418918015487413</v>
       </c>
       <c r="K206" t="n">
-        <v>0.3399481906530225</v>
+        <v>0.3448697956863322</v>
       </c>
       <c r="L206" t="n">
-        <v>1.038471870077041</v>
+        <v>1.053506362165097</v>
       </c>
       <c r="M206" t="n">
-        <v>1.621579939269936</v>
+        <v>1.601623842148571</v>
       </c>
       <c r="N206" t="n">
         <v>1</v>
@@ -9512,25 +9512,25 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H216" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I216" t="n">
-        <v>0.2690060694644226</v>
+        <v>0.2731421635021063</v>
       </c>
       <c r="J216" t="n">
-        <v>0.3382450691175204</v>
+        <v>0.3280702777848187</v>
       </c>
       <c r="K216" t="n">
-        <v>0.3927488614180569</v>
+        <v>0.3987875587130751</v>
       </c>
       <c r="L216" t="n">
-        <v>1.199767069811325</v>
+        <v>1.218214049219394</v>
       </c>
       <c r="M216" t="n">
-        <v>1.407484068770618</v>
+        <v>1.382998392067531</v>
       </c>
       <c r="N216" t="n">
         <v>3</v>
@@ -9643,25 +9643,25 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H219" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I219" t="n">
-        <v>0.3846103619385959</v>
+        <v>0.3789158351703988</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2501583894558553</v>
+        <v>0.2524732377356102</v>
       </c>
       <c r="K219" t="n">
-        <v>0.3652312486055487</v>
+        <v>0.3686109270939909</v>
       </c>
       <c r="L219" t="n">
-        <v>1.519062334421337</v>
+        <v>1.505358432605187</v>
       </c>
       <c r="M219" t="n">
-        <v>1.115706416973115</v>
+        <v>1.126030640300821</v>
       </c>
       <c r="N219" t="n">
         <v>3</v>
@@ -9735,25 +9735,25 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H221" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="I221" t="n">
-        <v>0.4456209434253541</v>
+        <v>0.4408294825740331</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2253573400709942</v>
+        <v>0.2273050883845394</v>
       </c>
       <c r="K221" t="n">
-        <v>0.3290217165036516</v>
+        <v>0.3318654290414275</v>
       </c>
       <c r="L221" t="n">
-        <v>1.665884546779714</v>
+        <v>1.654353876763527</v>
       </c>
       <c r="M221" t="n">
-        <v>1.005093736716634</v>
+        <v>1.013780694195046</v>
       </c>
       <c r="N221" t="n">
         <v>0</v>
@@ -9788,25 +9788,25 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H222" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4153914577162995</v>
+        <v>0.3881329752501469</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2376457488958132</v>
+        <v>0.2487264328251435</v>
       </c>
       <c r="K222" t="n">
-        <v>0.3469627933878872</v>
+        <v>0.3631405919247096</v>
       </c>
       <c r="L222" t="n">
-        <v>1.593137166536786</v>
+        <v>1.52753951767515</v>
       </c>
       <c r="M222" t="n">
-        <v>1.059900040075327</v>
+        <v>1.10931989040014</v>
       </c>
       <c r="N222" t="n">
         <v>3</v>
@@ -9880,25 +9880,25 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>86.0714001091</v>
+        <v>85.7823829526</v>
       </c>
       <c r="H224" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I224" t="n">
-        <v>0.4407611662867085</v>
+        <v>0.4501840594900287</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2273328592330453</v>
+        <v>0.2235024148414517</v>
       </c>
       <c r="K224" t="n">
-        <v>0.3319059744802461</v>
+        <v>0.3263135256685195</v>
       </c>
       <c r="L224" t="n">
-        <v>1.654189473340372</v>
+        <v>1.676865704138605</v>
       </c>
       <c r="M224" t="n">
-        <v>1.013904552179382</v>
+        <v>0.9968207701928746</v>
       </c>
       <c r="N224" t="n">
         <v>1</v>
@@ -10167,25 +10167,25 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H231" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I231" t="n">
-        <v>0.4298357726227335</v>
+        <v>0.4066445905697262</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2317740761696206</v>
+        <v>0.2412013859472658</v>
       </c>
       <c r="K231" t="n">
-        <v>0.338390151207646</v>
+        <v>0.352154023483008</v>
       </c>
       <c r="L231" t="n">
-        <v>1.627897469075846</v>
+        <v>1.572087795192187</v>
       </c>
       <c r="M231" t="n">
-        <v>1.033712379716508</v>
+        <v>1.075758181324805</v>
       </c>
       <c r="N231" t="n">
         <v>0</v>
@@ -10259,25 +10259,25 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H233" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I233" t="n">
-        <v>0.2810510673871032</v>
+        <v>0.2762605153417524</v>
       </c>
       <c r="J233" t="n">
-        <v>0.3086143742277263</v>
+        <v>0.320399132259289</v>
       </c>
       <c r="K233" t="n">
-        <v>0.4103345583851706</v>
+        <v>0.4033403523989585</v>
       </c>
       <c r="L233" t="n">
-        <v>1.25348776054648</v>
+        <v>1.232121898424216</v>
       </c>
       <c r="M233" t="n">
-        <v>1.336177681068349</v>
+        <v>1.364537749176825</v>
       </c>
       <c r="N233" t="n">
         <v>3</v>
@@ -10702,25 +10702,25 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="H244" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I244" t="n">
-        <v>0.6145824263287731</v>
+        <v>0.6320310560431134</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1566738104354581</v>
+        <v>0.1495808715271897</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2287437632357688</v>
+        <v>0.218388072429697</v>
       </c>
       <c r="L244" t="n">
-        <v>2.072491042222088</v>
+        <v>2.114481240559037</v>
       </c>
       <c r="M244" t="n">
-        <v>0.698765194542143</v>
+        <v>0.6671306870112662</v>
       </c>
       <c r="N244" t="n">
         <v>1</v>
@@ -10833,25 +10833,25 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H247" t="n">
-        <v>93.1897250565</v>
+        <v>93.29711155859999</v>
       </c>
       <c r="I247" t="n">
-        <v>0.2340919691644765</v>
+        <v>0.2398223198409242</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4241337558553877</v>
+        <v>0.4100370931913264</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3417742749801357</v>
+        <v>0.3501405869677494</v>
       </c>
       <c r="L247" t="n">
-        <v>1.044050182473565</v>
+        <v>1.069607546490522</v>
       </c>
       <c r="M247" t="n">
-        <v>1.614175542546299</v>
+        <v>1.580251866541728</v>
       </c>
       <c r="N247" t="n">
         <v>0</v>
@@ -11315,25 +11315,25 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H259" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I259" t="n">
-        <v>0.315491125078724</v>
+        <v>0.3258890827284512</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2782556402119009</v>
+        <v>0.2740288281591662</v>
       </c>
       <c r="K259" t="n">
-        <v>0.4062532347093752</v>
+        <v>0.4000820891123826</v>
       </c>
       <c r="L259" t="n">
-        <v>1.352726609945547</v>
+        <v>1.377749337297736</v>
       </c>
       <c r="M259" t="n">
-        <v>1.241020155345078</v>
+        <v>1.222168573589881</v>
       </c>
       <c r="N259" t="n">
         <v>1</v>
@@ -11485,25 +11485,25 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H263" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I263" t="n">
-        <v>0.403880624464345</v>
+        <v>0.3922710341012632</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2423249494047378</v>
+        <v>0.2470442950807873</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3537944261309172</v>
+        <v>0.3606846708179495</v>
       </c>
       <c r="L263" t="n">
-        <v>1.565436299523952</v>
+        <v>1.537497773121739</v>
       </c>
       <c r="M263" t="n">
-        <v>1.080769274345131</v>
+        <v>1.101817556060312</v>
       </c>
       <c r="N263" t="n">
         <v>3</v>
@@ -11577,25 +11577,25 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H265" t="n">
-        <v>91.1863355645</v>
+        <v>90.8794818878</v>
       </c>
       <c r="I265" t="n">
-        <v>0.2624240391314183</v>
+        <v>0.2604106175185235</v>
       </c>
       <c r="J265" t="n">
-        <v>0.3544368637367111</v>
+        <v>0.359389880904432</v>
       </c>
       <c r="K265" t="n">
-        <v>0.3831390971318706</v>
+        <v>0.3801995015770444</v>
       </c>
       <c r="L265" t="n">
-        <v>1.170411214526125</v>
+        <v>1.161431354132615</v>
       </c>
       <c r="M265" t="n">
-        <v>1.446449688342004</v>
+        <v>1.45836914429034</v>
       </c>
       <c r="N265" t="n">
         <v>0</v>
@@ -11981,25 +11981,25 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H275" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I275" t="n">
-        <v>0.3004864879548296</v>
+        <v>0.2949800901788114</v>
       </c>
       <c r="J275" t="n">
-        <v>0.2843550861972237</v>
+        <v>0.2865934592769059</v>
       </c>
       <c r="K275" t="n">
-        <v>0.4151584258479466</v>
+        <v>0.4184264505442826</v>
       </c>
       <c r="L275" t="n">
-        <v>1.316617889712435</v>
+        <v>1.303366721080717</v>
       </c>
       <c r="M275" t="n">
-        <v>1.268223684439618</v>
+        <v>1.278206828375001</v>
       </c>
       <c r="N275" t="n">
         <v>3</v>
@@ -12034,25 +12034,25 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H276" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I276" t="n">
-        <v>0.333273449921293</v>
+        <v>0.3602809187492645</v>
       </c>
       <c r="J276" t="n">
-        <v>0.2710270528775232</v>
+        <v>0.2600484070124941</v>
       </c>
       <c r="K276" t="n">
-        <v>0.3956994972011838</v>
+        <v>0.3796706742382414</v>
       </c>
       <c r="L276" t="n">
-        <v>1.395519846965063</v>
+        <v>1.460513430486035</v>
       </c>
       <c r="M276" t="n">
-        <v>1.208780655833753</v>
+        <v>1.159815895275724</v>
       </c>
       <c r="N276" t="n">
         <v>3</v>
@@ -12126,25 +12126,25 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="H278" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I278" t="n">
-        <v>0.5359700601172617</v>
+        <v>0.5316755208620507</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1886300568629018</v>
+        <v>0.1903758045276217</v>
       </c>
       <c r="K278" t="n">
-        <v>0.2753998830198366</v>
+        <v>0.2779486746103276</v>
       </c>
       <c r="L278" t="n">
-        <v>1.883310063371622</v>
+        <v>1.87297523719648</v>
       </c>
       <c r="M278" t="n">
-        <v>0.8412900536085419</v>
+        <v>0.8490760881931927</v>
       </c>
       <c r="N278" t="n">
         <v>1</v>
@@ -12647,25 +12647,25 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H291" t="n">
-        <v>92.14857895439999</v>
+        <v>92.0576470387</v>
       </c>
       <c r="I291" t="n">
-        <v>0.2381437594452739</v>
+        <v>0.2310671529824628</v>
       </c>
       <c r="J291" t="n">
-        <v>0.4141663517646261</v>
+        <v>0.4315748036631415</v>
       </c>
       <c r="K291" t="n">
-        <v>0.3476898887900999</v>
+        <v>0.3373580433543957</v>
       </c>
       <c r="L291" t="n">
-        <v>1.062121167125922</v>
+        <v>1.030559502301784</v>
       </c>
       <c r="M291" t="n">
-        <v>1.590188944083978</v>
+        <v>1.63208245434382</v>
       </c>
       <c r="N291" t="n">
         <v>1</v>
@@ -12739,25 +12739,25 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H293" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I293" t="n">
-        <v>0.273842507069197</v>
+        <v>0.2771795870100657</v>
       </c>
       <c r="J293" t="n">
-        <v>0.3263474326097753</v>
+        <v>0.3181382159552383</v>
       </c>
       <c r="K293" t="n">
-        <v>0.3998100603210276</v>
+        <v>0.4046821970346959</v>
       </c>
       <c r="L293" t="n">
-        <v>1.221337581528619</v>
+        <v>1.236220958064893</v>
       </c>
       <c r="M293" t="n">
-        <v>1.378852358150354</v>
+        <v>1.359096844900411</v>
       </c>
       <c r="N293" t="n">
         <v>1</v>
@@ -12792,25 +12792,25 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H294" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I294" t="n">
-        <v>0.3885040601458871</v>
+        <v>0.4011165254580791</v>
       </c>
       <c r="J294" t="n">
-        <v>0.24857558530655</v>
+        <v>0.2434485668869597</v>
       </c>
       <c r="K294" t="n">
-        <v>0.3629203545475629</v>
+        <v>0.3554349076549612</v>
       </c>
       <c r="L294" t="n">
-        <v>1.528432534985224</v>
+        <v>1.558784484029199</v>
       </c>
       <c r="M294" t="n">
-        <v>1.108647110467213</v>
+        <v>1.085780608315841</v>
       </c>
       <c r="N294" t="n">
         <v>1</v>
@@ -12884,25 +12884,25 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H296" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="I296" t="n">
-        <v>0.5948233194042617</v>
+        <v>0.5744918982960001</v>
       </c>
       <c r="J296" t="n">
-        <v>0.1647059677218449</v>
+        <v>0.1729707730504064</v>
       </c>
       <c r="K296" t="n">
-        <v>0.2404707128738935</v>
+        <v>0.2525373286535934</v>
       </c>
       <c r="L296" t="n">
-        <v>2.024940671086679</v>
+        <v>1.976013023541594</v>
       </c>
       <c r="M296" t="n">
-        <v>0.7345886160394282</v>
+        <v>0.7714496478048126</v>
       </c>
       <c r="N296" t="n">
         <v>3</v>
@@ -13093,25 +13093,25 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="H301" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="I301" t="n">
-        <v>0.3192168078172902</v>
+        <v>0.3158847921802971</v>
       </c>
       <c r="J301" t="n">
-        <v>0.2767411350336219</v>
+        <v>0.2780956129348386</v>
       </c>
       <c r="K301" t="n">
-        <v>0.404042057149088</v>
+        <v>0.4060195948848643</v>
       </c>
       <c r="L301" t="n">
-        <v>1.361692480600959</v>
+        <v>1.353673971425756</v>
       </c>
       <c r="M301" t="n">
-        <v>1.234265462249954</v>
+        <v>1.24030643368938</v>
       </c>
       <c r="N301" t="n">
         <v>3</v>
@@ -13146,25 +13146,25 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>93.76269800439999</v>
+        <v>93.2242913626</v>
       </c>
       <c r="H302" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="I302" t="n">
-        <v>0.6886272403231403</v>
+        <v>0.6849506078353624</v>
       </c>
       <c r="J302" t="n">
-        <v>0.126574292551569</v>
+        <v>0.1280688586035112</v>
       </c>
       <c r="K302" t="n">
-        <v>0.1847984671252907</v>
+        <v>0.1869805335611264</v>
       </c>
       <c r="L302" t="n">
-        <v>2.250680188094711</v>
+        <v>2.241832357067214</v>
       </c>
       <c r="M302" t="n">
-        <v>0.5645213447799977</v>
+        <v>0.5711871093716602</v>
       </c>
       <c r="N302" t="n">
         <v>3</v>
@@ -13667,25 +13667,25 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H315" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I315" t="n">
-        <v>0.2925297024238229</v>
+        <v>0.2876145115562011</v>
       </c>
       <c r="J315" t="n">
-        <v>0.2875895518602346</v>
+        <v>0.2924683015717454</v>
       </c>
       <c r="K315" t="n">
-        <v>0.4198807457159425</v>
+        <v>0.4199171868720536</v>
       </c>
       <c r="L315" t="n">
-        <v>1.297469852987411</v>
+        <v>1.282760721540657</v>
       </c>
       <c r="M315" t="n">
-        <v>1.282649401296646</v>
+        <v>1.29732209158729</v>
       </c>
       <c r="N315" t="n">
         <v>3</v>
@@ -13954,25 +13954,25 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="H322" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I322" t="n">
-        <v>0.5224323668326576</v>
+        <v>0.4949895287024574</v>
       </c>
       <c r="J322" t="n">
-        <v>0.1941331842143668</v>
+        <v>0.2052888094705458</v>
       </c>
       <c r="K322" t="n">
-        <v>0.2834344489529755</v>
+        <v>0.2997216618269969</v>
       </c>
       <c r="L322" t="n">
-        <v>1.850731549450948</v>
+        <v>1.784690247934369</v>
       </c>
       <c r="M322" t="n">
-        <v>0.8658340015960759</v>
+        <v>0.9155880902386342</v>
       </c>
       <c r="N322" t="n">
         <v>1</v>
@@ -14085,25 +14085,25 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H325" t="n">
-        <v>88.9758001383</v>
+        <v>88.7111050262</v>
       </c>
       <c r="I325" t="n">
-        <v>0.2804793687189682</v>
+        <v>0.2763992781371433</v>
       </c>
       <c r="J325" t="n">
-        <v>0.3100207529513382</v>
+        <v>0.3200577757826273</v>
       </c>
       <c r="K325" t="n">
-        <v>0.4094998783296935</v>
+        <v>0.4035429460802293</v>
       </c>
       <c r="L325" t="n">
-        <v>1.250937984486598</v>
+        <v>1.232740780491659</v>
       </c>
       <c r="M325" t="n">
-        <v>1.339562137183708</v>
+        <v>1.363716273428111</v>
       </c>
       <c r="N325" t="n">
         <v>1</v>
@@ -14255,25 +14255,25 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="H329" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="I329" t="n">
-        <v>0.217873127899569</v>
+        <v>0.2240450199925548</v>
       </c>
       <c r="J329" t="n">
-        <v>0.4640321053670604</v>
+        <v>0.4488492508183153</v>
       </c>
       <c r="K329" t="n">
-        <v>0.3180947667333707</v>
+        <v>0.3271057291891299</v>
       </c>
       <c r="L329" t="n">
-        <v>0.9717141504320779</v>
+        <v>0.9992407891667943</v>
       </c>
       <c r="M329" t="n">
-        <v>1.710191082834552</v>
+        <v>1.673653481644076</v>
       </c>
       <c r="N329" t="n">
         <v>1</v>
@@ -14464,25 +14464,25 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H334" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I334" t="n">
-        <v>0.6557795780717348</v>
+        <v>0.6375669461605379</v>
       </c>
       <c r="J334" t="n">
-        <v>0.1399270007838476</v>
+        <v>0.1473305096908382</v>
       </c>
       <c r="K334" t="n">
-        <v>0.2042934211444176</v>
+        <v>0.2151025441486238</v>
       </c>
       <c r="L334" t="n">
-        <v>2.171632155359622</v>
+        <v>2.127803382630237</v>
       </c>
       <c r="M334" t="n">
-        <v>0.6240744234959605</v>
+        <v>0.6570940732211386</v>
       </c>
       <c r="N334" t="n">
         <v>3</v>
@@ -14634,25 +14634,25 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>94.3873093391</v>
+        <v>93.4578390827</v>
       </c>
       <c r="H338" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="I338" t="n">
-        <v>0.7305535836770592</v>
+        <v>0.7191857870111618</v>
       </c>
       <c r="J338" t="n">
-        <v>0.1095310635459109</v>
+        <v>0.1141521191011537</v>
       </c>
       <c r="K338" t="n">
-        <v>0.1599153527770299</v>
+        <v>0.1666620938876844</v>
       </c>
       <c r="L338" t="n">
-        <v>2.351576103808208</v>
+        <v>2.32421945492117</v>
       </c>
       <c r="M338" t="n">
-        <v>0.4885085434147625</v>
+        <v>0.5091184511911456</v>
       </c>
       <c r="N338" t="n">
         <v>3</v>
@@ -14726,25 +14726,25 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H340" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I340" t="n">
-        <v>0.503430171517531</v>
+        <v>0.5215979884453531</v>
       </c>
       <c r="J340" t="n">
-        <v>0.2018576538546622</v>
+        <v>0.1944723624205882</v>
       </c>
       <c r="K340" t="n">
-        <v>0.2947121746278067</v>
+        <v>0.2839296491340587</v>
       </c>
       <c r="L340" t="n">
-        <v>1.8050026891804</v>
+        <v>1.848723614470118</v>
       </c>
       <c r="M340" t="n">
-        <v>0.9002851361917933</v>
+        <v>0.8673467363958232</v>
       </c>
       <c r="N340" t="n">
         <v>3</v>
@@ -14818,25 +14818,25 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>88.5244880826</v>
+        <v>88.55071952030001</v>
       </c>
       <c r="H342" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I342" t="n">
-        <v>0.3176181957769281</v>
+        <v>0.3380265351162132</v>
       </c>
       <c r="J342" t="n">
-        <v>0.277390977326452</v>
+        <v>0.2690949044243036</v>
       </c>
       <c r="K342" t="n">
-        <v>0.4049908268966199</v>
+        <v>0.3928785604594832</v>
       </c>
       <c r="L342" t="n">
-        <v>1.357845414227404</v>
+        <v>1.406958165808123</v>
       </c>
       <c r="M342" t="n">
-        <v>1.237163758875976</v>
+        <v>1.200163273732394</v>
       </c>
       <c r="N342" t="n">
         <v>3</v>
@@ -15339,25 +15339,25 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H355" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I355" t="n">
-        <v>0.398327689473156</v>
+        <v>0.399145652288129</v>
       </c>
       <c r="J355" t="n">
-        <v>0.2445822400515626</v>
+        <v>0.244249734842224</v>
       </c>
       <c r="K355" t="n">
-        <v>0.3570900704752814</v>
+        <v>0.356604612869647</v>
       </c>
       <c r="L355" t="n">
-        <v>1.55207313889475</v>
+        <v>1.554041569734034</v>
       </c>
       <c r="M355" t="n">
-        <v>1.090836790629969</v>
+        <v>1.089353817396319</v>
       </c>
       <c r="N355" t="n">
         <v>3</v>
@@ -15587,25 +15587,25 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>84.8796410094</v>
+        <v>84.31203815969999</v>
       </c>
       <c r="H361" t="n">
-        <v>85.66829184700001</v>
+        <v>85.1864986245</v>
       </c>
       <c r="I361" t="n">
-        <v>0.3710303275712374</v>
+        <v>0.3674199741191175</v>
       </c>
       <c r="J361" t="n">
-        <v>0.2556787286295783</v>
+        <v>0.2571463519840986</v>
       </c>
       <c r="K361" t="n">
-        <v>0.3732909437991843</v>
+        <v>0.3754336738967839</v>
       </c>
       <c r="L361" t="n">
-        <v>1.486381926512897</v>
+        <v>1.477693596254136</v>
       </c>
       <c r="M361" t="n">
-        <v>1.140327129687919</v>
+        <v>1.14687272984908</v>
       </c>
       <c r="N361" t="n">
         <v>0</v>
@@ -15757,25 +15757,25 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H365" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I365" t="n">
-        <v>0.2857252170371667</v>
+        <v>0.2880917171917416</v>
       </c>
       <c r="J365" t="n">
-        <v>0.2971159660885698</v>
+        <v>0.2912943757083156</v>
       </c>
       <c r="K365" t="n">
-        <v>0.4171588168742634</v>
+        <v>0.4206139070999428</v>
       </c>
       <c r="L365" t="n">
-        <v>1.274334467985764</v>
+        <v>1.284889058675168</v>
       </c>
       <c r="M365" t="n">
-        <v>1.308506715139973</v>
+        <v>1.29449703422489</v>
       </c>
       <c r="N365" t="n">
         <v>3</v>
@@ -15849,25 +15849,25 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="H367" t="n">
-        <v>91.11751334180001</v>
+        <v>90.496326364</v>
       </c>
       <c r="I367" t="n">
-        <v>0.2626345516117167</v>
+        <v>0.2773191524520125</v>
       </c>
       <c r="J367" t="n">
-        <v>0.3539190030351769</v>
+        <v>0.3177948849680494</v>
       </c>
       <c r="K367" t="n">
-        <v>0.3834464453531064</v>
+        <v>0.4048859625799382</v>
       </c>
       <c r="L367" t="n">
-        <v>1.171350100188256</v>
+        <v>1.236843419935976</v>
       </c>
       <c r="M367" t="n">
-        <v>1.445203454458637</v>
+        <v>1.358270617484086</v>
       </c>
       <c r="N367" t="n">
         <v>0</v>
@@ -15980,25 +15980,25 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>85.65611116149999</v>
+        <v>85.21581244470001</v>
       </c>
       <c r="H370" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="I370" t="n">
-        <v>0.3423894451338487</v>
+        <v>0.3408047219652566</v>
       </c>
       <c r="J370" t="n">
-        <v>0.2673213637667282</v>
+        <v>0.267965560176725</v>
       </c>
       <c r="K370" t="n">
-        <v>0.3902891910994231</v>
+        <v>0.3912297178580185</v>
       </c>
       <c r="L370" t="n">
-        <v>1.417457526500969</v>
+        <v>1.413643883753788</v>
       </c>
       <c r="M370" t="n">
-        <v>1.192253282399607</v>
+        <v>1.195126398388193</v>
       </c>
       <c r="N370" t="n">
         <v>1</v>
@@ -16228,25 +16228,25 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>87.3498746941</v>
+        <v>86.9412866479</v>
       </c>
       <c r="H376" t="n">
-        <v>85.6051744865</v>
+        <v>86.0987176703</v>
       </c>
       <c r="I376" t="n">
-        <v>0.4621285922372467</v>
+        <v>0.4297216256396926</v>
       </c>
       <c r="J376" t="n">
-        <v>0.2186469137246965</v>
+        <v>0.2318204773822388</v>
       </c>
       <c r="K376" t="n">
-        <v>0.3192244940380568</v>
+        <v>0.3384578969780686</v>
       </c>
       <c r="L376" t="n">
-        <v>1.705610270749797</v>
+        <v>1.627622773897146</v>
       </c>
       <c r="M376" t="n">
-        <v>0.9751652352121463</v>
+        <v>1.033919329124785</v>
       </c>
       <c r="N376" t="n">
         <v>0</v>

--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -1007,7 +1007,9 @@
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Arsenal</t>
@@ -1018,9 +1020,17 @@
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
       <c r="G14" t="n">
         <v>100</v>
       </c>
@@ -1042,8 +1052,12 @@
       <c r="M14" t="n">
         <v>0.63052349285876</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1804,7 +1818,9 @@
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="n">
+        <v>10</v>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Burnley</t>
@@ -1815,9 +1831,17 @@
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
       <c r="G33" t="n">
         <v>85.21581244470001</v>
       </c>
@@ -1839,8 +1863,12 @@
       <c r="M33" t="n">
         <v>2.214731399226153</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2183,7 +2211,9 @@
       <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="n">
+        <v>10</v>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Manchester City</t>
@@ -2194,9 +2224,17 @@
           <t>AFC Bournemouth</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
       <c r="G42" t="n">
         <v>97.5382271762</v>
       </c>
@@ -2218,8 +2256,12 @@
       <c r="M42" t="n">
         <v>0.6814232717844892</v>
       </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2810,7 +2852,9 @@
       <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="n">
+        <v>9</v>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Aston Villa</t>
@@ -2821,9 +2865,17 @@
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
       <c r="G57" t="n">
         <v>93.2242913626</v>
       </c>
@@ -2845,8 +2897,12 @@
       <c r="M57" t="n">
         <v>1.331057943502569</v>
       </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4209,7 +4265,9 @@
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="n">
+        <v>10</v>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Liverpool</t>
@@ -4220,9 +4278,17 @@
           <t>Aston Villa</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
       <c r="G90" t="n">
         <v>97.0684976167</v>
       </c>
@@ -4244,8 +4310,12 @@
       <c r="M90" t="n">
         <v>0.8144998949270565</v>
       </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>3</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -4666,7 +4736,9 @@
       <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
+      <c r="A101" t="n">
+        <v>9</v>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Brentford</t>
@@ -4677,9 +4749,17 @@
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
       <c r="G101" t="n">
         <v>90.496326364</v>
       </c>
@@ -4701,8 +4781,12 @@
       <c r="M101" t="n">
         <v>1.514295703016295</v>
       </c>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -6129,7 +6213,9 @@
       <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" t="n">
+        <v>9</v>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>AFC Bournemouth</t>
@@ -6140,9 +6226,17 @@
           <t>Nottingham Forest</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
       <c r="G136" t="n">
         <v>91.5882912066</v>
       </c>
@@ -6164,8 +6258,12 @@
       <c r="M136" t="n">
         <v>0.7772805380325811</v>
       </c>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -6416,7 +6514,9 @@
       <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
+      <c r="A143" t="n">
+        <v>10</v>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tottenham Hotspur</t>
@@ -6427,9 +6527,17 @@
           <t>Chelsea</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
       <c r="G143" t="n">
         <v>91.34868924840001</v>
       </c>
@@ -6451,11 +6559,17 @@
       <c r="M143" t="n">
         <v>1.250616638692154</v>
       </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="n">
+        <v>9</v>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Chelsea</t>
@@ -6466,9 +6580,17 @@
           <t>Sunderland</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
       <c r="G144" t="n">
         <v>94.2958640271</v>
       </c>
@@ -6490,8 +6612,12 @@
       <c r="M144" t="n">
         <v>0.5410186428587073</v>
       </c>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -8102,7 +8228,9 @@
       <c r="O182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
+      <c r="A183" t="n">
+        <v>9</v>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Everton</t>
@@ -8113,9 +8241,17 @@
           <t>Tottenham Hotspur</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
       <c r="G183" t="n">
         <v>88.7111050262</v>
       </c>
@@ -8137,8 +8273,12 @@
       <c r="M183" t="n">
         <v>1.23924403499715</v>
       </c>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -9175,7 +9315,9 @@
       <c r="O207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr"/>
+      <c r="A208" t="n">
+        <v>10</v>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Sunderland</t>
@@ -9186,9 +9328,17 @@
           <t>Everton</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G208" t="n">
         <v>85.7823829526</v>
       </c>
@@ -9210,8 +9360,12 @@
       <c r="M208" t="n">
         <v>1.261870235142902</v>
       </c>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -10521,7 +10675,9 @@
       <c r="O239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
+      <c r="A240" t="n">
+        <v>10</v>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Crystal Palace</t>
@@ -10532,9 +10688,17 @@
           <t>Brentford</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
+      <c r="D240" t="n">
+        <v>2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
       <c r="G240" t="n">
         <v>93.29711155859999</v>
       </c>
@@ -10556,8 +10720,12 @@
       <c r="M240" t="n">
         <v>0.8915131361579346</v>
       </c>
-      <c r="N240" t="inlineStr"/>
-      <c r="O240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>3</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -10939,7 +11107,9 @@
       <c r="O249" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr"/>
+      <c r="A250" t="n">
+        <v>9</v>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Manchester United</t>
@@ -10950,9 +11120,17 @@
           <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
+      <c r="D250" t="n">
+        <v>4</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
       <c r="G250" t="n">
         <v>90.8794818878</v>
       </c>
@@ -10974,8 +11152,12 @@
       <c r="M250" t="n">
         <v>1.149339330631851</v>
       </c>
-      <c r="N250" t="inlineStr"/>
-      <c r="O250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>3</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -11644,7 +11826,9 @@
       <c r="O266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
+      <c r="A267" t="n">
+        <v>10</v>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Nottingham Forest</t>
@@ -11655,9 +11839,17 @@
           <t>Manchester United</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
+      <c r="D267" t="n">
+        <v>2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G267" t="n">
         <v>86.9412866479</v>
       </c>
@@ -11679,8 +11871,12 @@
       <c r="M267" t="n">
         <v>1.321997612120811</v>
       </c>
-      <c r="N267" t="inlineStr"/>
-      <c r="O267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -12193,7 +12389,9 @@
       <c r="O279" t="inlineStr"/>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr"/>
+      <c r="A280" t="n">
+        <v>10</v>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Brighton &amp; Hove Albion</t>
@@ -12204,9 +12402,17 @@
           <t>Leeds United</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
+      <c r="D280" t="n">
+        <v>3</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
       <c r="G280" t="n">
         <v>92.0576470387</v>
       </c>
@@ -12228,8 +12434,12 @@
       <c r="M280" t="n">
         <v>0.6393308553257451</v>
       </c>
-      <c r="N280" t="inlineStr"/>
-      <c r="O280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>3</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
@@ -14113,7 +14323,9 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr"/>
+      <c r="A326" t="n">
+        <v>9</v>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Newcastle United</t>
@@ -14124,9 +14336,17 @@
           <t>Fulham</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr"/>
-      <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
+      <c r="D326" t="n">
+        <v>2</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
       <c r="G326" t="n">
         <v>93.4578390827</v>
       </c>
@@ -14148,8 +14368,12 @@
       <c r="M326" t="n">
         <v>0.7561127378259371</v>
       </c>
-      <c r="N326" t="inlineStr"/>
-      <c r="O326" t="inlineStr"/>
+      <c r="N326" t="n">
+        <v>3</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
@@ -14570,7 +14794,9 @@
       <c r="O336" t="inlineStr"/>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
+      <c r="A337" t="n">
+        <v>10</v>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>West Ham United</t>
@@ -14581,9 +14807,17 @@
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr"/>
-      <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>3</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
       <c r="G337" t="n">
         <v>86.0987176703</v>
       </c>
@@ -14605,8 +14839,12 @@
       <c r="M337" t="n">
         <v>1.593645720954024</v>
       </c>
-      <c r="N337" t="inlineStr"/>
-      <c r="O337" t="inlineStr"/>
+      <c r="N337" t="n">
+        <v>3</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -15119,7 +15357,9 @@
       <c r="O349" t="inlineStr"/>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr"/>
+      <c r="A350" t="n">
+        <v>10</v>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Fulham</t>
@@ -15130,9 +15370,17 @@
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr"/>
-      <c r="E350" t="inlineStr"/>
-      <c r="F350" t="inlineStr"/>
+      <c r="D350" t="n">
+        <v>3</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
       <c r="G350" t="n">
         <v>88.55071952030001</v>
       </c>
@@ -15154,8 +15402,12 @@
       <c r="M350" t="n">
         <v>0.8110558805877301</v>
       </c>
-      <c r="N350" t="inlineStr"/>
-      <c r="O350" t="inlineStr"/>
+      <c r="N350" t="n">
+        <v>3</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -15445,7 +15697,9 @@
       <c r="O357" t="inlineStr"/>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr"/>
+      <c r="A358" t="n">
+        <v>9</v>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Leeds United</t>
@@ -15456,9 +15710,17 @@
           <t>West Ham United</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr"/>
-      <c r="E358" t="inlineStr"/>
-      <c r="F358" t="inlineStr"/>
+      <c r="D358" t="n">
+        <v>2</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
       <c r="G358" t="n">
         <v>85.1864986245</v>
       </c>
@@ -15480,8 +15742,12 @@
       <c r="M358" t="n">
         <v>1.147040080436756</v>
       </c>
-      <c r="N358" t="inlineStr"/>
-      <c r="O358" t="inlineStr"/>
+      <c r="N358" t="n">
+        <v>3</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -16164,7 +16430,9 @@
       <c r="O374" t="inlineStr"/>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr"/>
+      <c r="A375" t="n">
+        <v>9</v>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Wolverhampton Wanderers</t>
@@ -16175,9 +16443,17 @@
           <t>Burnley</t>
         </is>
       </c>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr"/>
-      <c r="F375" t="inlineStr"/>
+      <c r="D375" t="n">
+        <v>2</v>
+      </c>
+      <c r="E375" t="n">
+        <v>3</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
       <c r="G375" t="n">
         <v>84.31203815969999</v>
       </c>
@@ -16199,8 +16475,12 @@
       <c r="M375" t="n">
         <v>1.14863637284857</v>
       </c>
-      <c r="N375" t="inlineStr"/>
-      <c r="O375" t="inlineStr"/>
+      <c r="N375" t="n">
+        <v>0</v>
+      </c>
+      <c r="O375" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">

--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3330367986292047</v>
+        <v>0.3562320289363237</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2711232525897542</v>
+        <v>0.2616942971803562</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3958399487810412</v>
+        <v>0.3820736738833201</v>
       </c>
       <c r="L3" t="n">
-        <v>1.394950344668655</v>
+        <v>1.450769760692291</v>
       </c>
       <c r="M3" t="n">
-        <v>1.209209706550304</v>
+        <v>1.167156565424389</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -621,22 +621,22 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5224981169015069</v>
+        <v>0.529423403644544</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1941064565441028</v>
+        <v>0.1912912993314862</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2833954265543902</v>
+        <v>0.2792852970239698</v>
       </c>
       <c r="L4" t="n">
-        <v>1.850889777258911</v>
+        <v>1.867555507957602</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8657147961866987</v>
+        <v>0.8531591950184283</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7053570628962207</v>
+        <v>0.7105018230049117</v>
       </c>
       <c r="J6" t="n">
-        <v>0.119773551668203</v>
+        <v>0.1176821857703611</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1748693854355764</v>
+        <v>0.1718159912247272</v>
       </c>
       <c r="L6" t="n">
-        <v>2.290940574124238</v>
+        <v>2.303321460239462</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5341900404401854</v>
+        <v>0.5248625485358105</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -749,25 +749,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2257057799013872</v>
+        <v>0.2231044329996649</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4447637814425874</v>
+        <v>0.4511630948208245</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3295304386560253</v>
+        <v>0.3257324721795107</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006647778360187</v>
+        <v>0.9950457711785052</v>
       </c>
       <c r="M7" t="n">
-        <v>1.663821782983788</v>
+        <v>1.679221756641984</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -791,22 +791,22 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6191975877767318</v>
+        <v>0.6062555345815391</v>
       </c>
       <c r="J8" t="n">
-        <v>0.154797728546044</v>
+        <v>0.1600587257798621</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2260046836772242</v>
+        <v>0.2336857396385987</v>
       </c>
       <c r="L8" t="n">
-        <v>2.08359744700742</v>
+        <v>2.052452343383216</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6903978693153561</v>
+        <v>0.7138619169781851</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -827,25 +827,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2646969956018007</v>
+        <v>0.269889079841975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3488453908195701</v>
+        <v>0.3360728635887414</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3864576135786291</v>
+        <v>0.3940380565692835</v>
       </c>
       <c r="L9" t="n">
-        <v>1.180548600384031</v>
+        <v>1.203705296095209</v>
       </c>
       <c r="M9" t="n">
-        <v>1.432993786037339</v>
+        <v>1.402256647335508</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -869,22 +869,22 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7124204537404047</v>
+        <v>0.70863980640017</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1169022545770712</v>
+        <v>0.1184391030893618</v>
       </c>
       <c r="K10" t="n">
-        <v>0.170677291682524</v>
+        <v>0.1729210905104682</v>
       </c>
       <c r="L10" t="n">
-        <v>2.307938652903738</v>
+        <v>2.298840509710978</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5213840554137377</v>
+        <v>0.5282383997785535</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -905,25 +905,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2221255855623253</v>
+        <v>0.2240498454795342</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4535710595166799</v>
+        <v>0.4488373801203459</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3243033549209949</v>
+        <v>0.3271127744001199</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9906801116079709</v>
+        <v>0.9992623108387224</v>
       </c>
       <c r="M11" t="n">
-        <v>1.685016533471035</v>
+        <v>1.673624914761157</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -947,22 +947,22 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8458421096171884</v>
+        <v>0.836521604911889</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0626658090987039</v>
+        <v>0.06645463214963862</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09149208128410768</v>
+        <v>0.0970237629384724</v>
       </c>
       <c r="L12" t="n">
-        <v>2.629018410135673</v>
+        <v>2.60658857767414</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2794895085802194</v>
+        <v>0.2963876593873883</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -983,25 +983,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1402759691409165</v>
+        <v>0.147016258087771</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6549211159133456</v>
+        <v>0.6383400051040834</v>
       </c>
       <c r="K13" t="n">
-        <v>0.204802914945738</v>
+        <v>0.2146437368081457</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6256308223684874</v>
+        <v>0.6556925110714585</v>
       </c>
       <c r="M13" t="n">
-        <v>2.169566262685775</v>
+        <v>2.129663752120396</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1075,25 +1075,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2507071516961641</v>
+        <v>0.2522817294790454</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3832604068274361</v>
+        <v>0.3793869454815485</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3660324414763997</v>
+        <v>0.3683313250394062</v>
       </c>
       <c r="L15" t="n">
-        <v>1.118153896564892</v>
+        <v>1.125176513476542</v>
       </c>
       <c r="M15" t="n">
-        <v>1.515813661958708</v>
+        <v>1.506492161484052</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1117,22 +1117,22 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7259555326566703</v>
+        <v>0.715628309761999</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1114001899769632</v>
+        <v>0.115598248064228</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1626442773663663</v>
+        <v>0.1687734421737729</v>
       </c>
       <c r="L16" t="n">
-        <v>2.340510875336377</v>
+        <v>2.31565837145977</v>
       </c>
       <c r="M16" t="n">
-        <v>0.496844847297256</v>
+        <v>0.515568186366457</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1209,22 +1209,22 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6912327995568081</v>
+        <v>0.6795379689903169</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1255151221313789</v>
+        <v>0.1302691182966191</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1832520783118131</v>
+        <v>0.1901929127130639</v>
       </c>
       <c r="L18" t="n">
-        <v>2.256950476982237</v>
+        <v>2.228806819684015</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5597974447059497</v>
+        <v>0.5810002676029212</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1245,25 +1245,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2326762931686547</v>
+        <v>0.2382645094449738</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4276163188051094</v>
+        <v>0.4138693067653643</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3397073880262359</v>
+        <v>0.3478661837896619</v>
       </c>
       <c r="L19" t="n">
-        <v>1.0377362675322</v>
+        <v>1.062659712124584</v>
       </c>
       <c r="M19" t="n">
-        <v>1.622556344441564</v>
+        <v>1.589474104085755</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1287,22 +1287,22 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6545783850613206</v>
+        <v>0.6328270285115066</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1404152906254795</v>
+        <v>0.1492573054831274</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2050063243132</v>
+        <v>0.2179156660053659</v>
       </c>
       <c r="L20" t="n">
-        <v>2.168741479497162</v>
+        <v>2.116396751539886</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6262521961896385</v>
+        <v>0.665687582454748</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1323,25 +1323,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2496662913978397</v>
+        <v>0.259056089007576</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3858209231613142</v>
+        <v>0.3627220210413629</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3645127854408461</v>
+        <v>0.378221889951061</v>
       </c>
       <c r="L21" t="n">
-        <v>1.113511659634365</v>
+        <v>1.155390156973789</v>
       </c>
       <c r="M21" t="n">
-        <v>1.521975554924789</v>
+        <v>1.46638795307515</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1365,22 +1365,22 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7831242065914028</v>
+        <v>0.7673832692509278</v>
       </c>
       <c r="J22" t="n">
-        <v>0.088160891629511</v>
+        <v>0.09455964664596436</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1287149017790861</v>
+        <v>0.138057084103108</v>
       </c>
       <c r="L22" t="n">
-        <v>2.478087521553295</v>
+        <v>2.440206891855891</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3931975766676191</v>
+        <v>0.421736024041001</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1401,25 +1401,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1824292734609968</v>
+        <v>0.1919192714880389</v>
       </c>
       <c r="J23" t="n">
-        <v>0.551223987285948</v>
+        <v>0.5278785921394245</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2663467392530552</v>
+        <v>0.2802021363725368</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8136345596360455</v>
+        <v>0.8559599508366533</v>
       </c>
       <c r="M23" t="n">
-        <v>1.920018701110899</v>
+        <v>1.86383791279081</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1443,22 +1443,22 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.646996208854048</v>
+        <v>0.6559302857977877</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1434974760755903</v>
+        <v>0.1398657374805741</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2095063150703618</v>
+        <v>0.2042039767216382</v>
       </c>
       <c r="L24" t="n">
-        <v>2.150494941632506</v>
+        <v>2.171994834115001</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6399987432971326</v>
+        <v>0.6238011891633606</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1535,22 +1535,22 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7869903838362703</v>
+        <v>0.7905141075025599</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08658927486330473</v>
+        <v>0.08515686686887811</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1264203413004249</v>
+        <v>0.124329025628562</v>
       </c>
       <c r="L26" t="n">
-        <v>2.487391492809236</v>
+        <v>2.495871348136242</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3861881658903391</v>
+        <v>0.3797996262351964</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1677,25 +1677,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1322578260467294</v>
+        <v>0.1310672788206191</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6746457479250457</v>
+        <v>0.6775744941012769</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1930964260282249</v>
+        <v>0.1913582270781039</v>
       </c>
       <c r="L29" t="n">
-        <v>0.589869904168413</v>
+        <v>0.5845600635399614</v>
       </c>
       <c r="M29" t="n">
-        <v>2.217033669803362</v>
+        <v>2.224081709381935</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1719,22 +1719,22 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7367093487345413</v>
+        <v>0.7149972086501742</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1070287200266092</v>
+        <v>0.1158547932316365</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1562619312388494</v>
+        <v>0.1691479981181893</v>
       </c>
       <c r="L30" t="n">
-        <v>2.366389977442473</v>
+        <v>2.314139624068712</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4773480913186771</v>
+        <v>0.5167123778130986</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1755,25 +1755,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2093087299450089</v>
+        <v>0.2208034320414366</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4851005243352783</v>
+        <v>0.4568235571780661</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3055907457197128</v>
+        <v>0.3223730107804974</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9335169355547395</v>
+        <v>0.9847833069048071</v>
       </c>
       <c r="M31" t="n">
-        <v>1.760892318725548</v>
+        <v>1.692843682314696</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1797,22 +1797,22 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8561031336566073</v>
+        <v>0.8561253532612352</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05849466111520026</v>
+        <v>0.05848562875559545</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08540220522819239</v>
+        <v>0.08538901798316935</v>
       </c>
       <c r="L32" t="n">
-        <v>2.653711606198014</v>
+        <v>2.653765077766875</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2608861885737932</v>
+        <v>0.2608459042499557</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1939,25 +1939,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>0.156486466759022</v>
+        <v>0.1647169779235167</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6150432917728058</v>
+        <v>0.5947962343081489</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2284702414681721</v>
+        <v>0.2404867877683344</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6979296417452381</v>
+        <v>0.7346377215388844</v>
       </c>
       <c r="M35" t="n">
-        <v>2.07360011678659</v>
+        <v>2.024875490692781</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2031,25 +2031,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1446245504093844</v>
+        <v>0.1513503200992692</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6442236059929143</v>
+        <v>0.6276782125557978</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2111518435977012</v>
+        <v>0.220971467344933</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6450254948258545</v>
+        <v>0.6750224276427405</v>
       </c>
       <c r="M37" t="n">
-        <v>2.143822661576444</v>
+        <v>2.104006105012326</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2073,22 +2073,22 @@
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8712890542703579</v>
+        <v>0.8696193710692478</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05232152265432611</v>
+        <v>0.05300025566290738</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07638942307531611</v>
+        <v>0.07738037326784478</v>
       </c>
       <c r="L38" t="n">
-        <v>2.690256585886389</v>
+        <v>2.686238486475588</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2333539910382945</v>
+        <v>0.2363811402565669</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2109,25 +2109,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1209382043516318</v>
+        <v>0.1222505737579901</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7024920172949858</v>
+        <v>0.6992635885553444</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1765697783533825</v>
+        <v>0.1784858376866655</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5393843914082779</v>
+        <v>0.5452375589606356</v>
       </c>
       <c r="M39" t="n">
-        <v>2.28404583023834</v>
+        <v>2.276276603352699</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2148,25 +2148,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H40" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.431509315256898</v>
+        <v>0.463765245819568</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2310937742858138</v>
+        <v>0.2179816073904195</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3373969104572882</v>
+        <v>0.3182531467900125</v>
       </c>
       <c r="L40" t="n">
-        <v>1.631924856227982</v>
+        <v>1.709548884248716</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03067823331473</v>
+        <v>0.972197968961271</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2187,25 +2187,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H41" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3982916236655607</v>
+        <v>0.3681292444466978</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2445969009489591</v>
+        <v>0.2568580307127244</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3571114753854802</v>
+        <v>0.3750127248405777</v>
       </c>
       <c r="L41" t="n">
-        <v>1.551986346382162</v>
+        <v>1.479400458180671</v>
       </c>
       <c r="M41" t="n">
-        <v>1.090902178232357</v>
+        <v>1.145586816978751</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2279,25 +2279,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H43" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2599909767416462</v>
+        <v>0.248119015437067</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3604221972155503</v>
+        <v>0.3896272220248153</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3795868260428034</v>
+        <v>0.3622537625381178</v>
       </c>
       <c r="L43" t="n">
-        <v>1.159559756267742</v>
+        <v>1.106610808849319</v>
       </c>
       <c r="M43" t="n">
-        <v>1.460853417689454</v>
+        <v>1.531135428612563</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2318,25 +2318,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H44" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5300623671837439</v>
+        <v>0.5420445123665368</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1910315580553887</v>
+        <v>0.186160767330676</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2789060747608674</v>
+        <v>0.271794720302787</v>
       </c>
       <c r="L44" t="n">
-        <v>1.869093176312099</v>
+        <v>1.897928257402397</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8520007489270334</v>
+        <v>0.8302770222948153</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2357,25 +2357,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H45" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3048044865838609</v>
+        <v>0.2959682519862718</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2825998022016826</v>
+        <v>0.2861917674852554</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4125957112144566</v>
+        <v>0.4178399805284728</v>
       </c>
       <c r="L45" t="n">
-        <v>1.327009170966039</v>
+        <v>1.305744736487288</v>
       </c>
       <c r="M45" t="n">
-        <v>1.260395117819504</v>
+        <v>1.276415282984239</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2449,25 +2449,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H47" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2566389101775972</v>
+        <v>0.2490264973277014</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3686682809631109</v>
+        <v>0.3873948165738544</v>
       </c>
       <c r="K47" t="n">
-        <v>0.374692808859292</v>
+        <v>0.3635786860984441</v>
       </c>
       <c r="L47" t="n">
-        <v>1.144609539392084</v>
+        <v>1.110658178081548</v>
       </c>
       <c r="M47" t="n">
-        <v>1.480697651748625</v>
+        <v>1.525763135820008</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2488,25 +2488,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H48" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I48" t="n">
-        <v>0.791931289102428</v>
+        <v>0.797307149046374</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0845807767876309</v>
+        <v>0.08239546786732764</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1234879341099411</v>
+        <v>0.1202973830862984</v>
       </c>
       <c r="L48" t="n">
-        <v>2.499281801417225</v>
+        <v>2.512218830225421</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3772302644728338</v>
+        <v>0.3674837866882812</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2527,25 +2527,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H49" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1740788736676898</v>
+        <v>0.1714762087765374</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5717659707774828</v>
+        <v>0.5781685264097179</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2541551555548272</v>
+        <v>0.2503552648137446</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7763917765578967</v>
+        <v>0.7647838911433569</v>
       </c>
       <c r="M49" t="n">
-        <v>1.969453067887275</v>
+        <v>1.984860844042899</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2566,25 +2566,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H50" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5653917020259045</v>
+        <v>0.5866204835103573</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1766700398268681</v>
+        <v>0.1680404538575783</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2579382581472274</v>
+        <v>0.2453390626320644</v>
       </c>
       <c r="L50" t="n">
-        <v>1.954113364224941</v>
+        <v>2.005200513163136</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7879483776278315</v>
+        <v>0.7494604242047994</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2605,25 +2605,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H51" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2828487256657856</v>
+        <v>0.2756507907380322</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3041921348621675</v>
+        <v>0.321899054784441</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4129591394720469</v>
+        <v>0.4024501544775269</v>
       </c>
       <c r="L51" t="n">
-        <v>1.261505316469404</v>
+        <v>1.229402526691624</v>
       </c>
       <c r="M51" t="n">
-        <v>1.325535544058549</v>
+        <v>1.36814731883085</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2697,25 +2697,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H53" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2499850246358342</v>
+        <v>0.2455927152240479</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3850368393958479</v>
+        <v>0.395841920548842</v>
       </c>
       <c r="K53" t="n">
-        <v>0.364978135968318</v>
+        <v>0.35856536422711</v>
       </c>
       <c r="L53" t="n">
-        <v>1.114933209875821</v>
+        <v>1.095343509899254</v>
       </c>
       <c r="M53" t="n">
-        <v>1.520088654155862</v>
+        <v>1.546091125873636</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2736,25 +2736,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H54" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6082923817775092</v>
+        <v>0.6197827007296399</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1592307391148337</v>
+        <v>0.1545598777521789</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2324768791076571</v>
+        <v>0.2256574215181812</v>
       </c>
       <c r="L54" t="n">
-        <v>2.057354024440185</v>
+        <v>2.085005523707101</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7101690964521581</v>
+        <v>0.6893370547747177</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2828,25 +2828,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H56" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5679461790460483</v>
+        <v>0.5698749021105219</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1756316345341267</v>
+        <v>0.1748476007680805</v>
       </c>
       <c r="K56" t="n">
-        <v>0.256422186419825</v>
+        <v>0.2552774971213975</v>
       </c>
       <c r="L56" t="n">
-        <v>1.96026072355797</v>
+        <v>1.964902203452964</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7833170900222053</v>
+        <v>0.7798202994256391</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2973,25 +2973,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H59" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2180696508538835</v>
+        <v>0.21758560620037</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4635486588994466</v>
+        <v>0.4647394087470897</v>
       </c>
       <c r="K59" t="n">
-        <v>0.31838169024667</v>
+        <v>0.3176749850525402</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9725906428083204</v>
+        <v>0.9704318036536501</v>
       </c>
       <c r="M59" t="n">
-        <v>1.70902766694501</v>
+        <v>1.711893211293809</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3012,25 +3012,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H60" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I60" t="n">
-        <v>0.559741381067475</v>
+        <v>0.5944004513290158</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1789669182652541</v>
+        <v>0.1648778653134082</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2612917006672709</v>
+        <v>0.240721683357576</v>
       </c>
       <c r="L60" t="n">
-        <v>1.940515843869696</v>
+        <v>2.023923037344623</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7981924554630332</v>
+        <v>0.7353552792978006</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3051,25 +3051,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H61" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I61" t="n">
-        <v>0.284893669010666</v>
+        <v>0.2726641349863022</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2991615742337618</v>
+        <v>0.3292462279336967</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4159447567555722</v>
+        <v>0.3980896370800012</v>
       </c>
       <c r="L61" t="n">
-        <v>1.27062576378757</v>
+        <v>1.216082042038908</v>
       </c>
       <c r="M61" t="n">
-        <v>1.313429479456858</v>
+        <v>1.385828320881091</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3090,25 +3090,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H62" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7193277775624789</v>
+        <v>0.7436456162805887</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1140943993648459</v>
+        <v>0.1042090990729314</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1665778230726751</v>
+        <v>0.1521452846464799</v>
       </c>
       <c r="L62" t="n">
-        <v>2.324561155760112</v>
+        <v>2.383082133488246</v>
       </c>
       <c r="M62" t="n">
-        <v>0.5088610211672129</v>
+        <v>0.4647725818652741</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3129,25 +3129,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H63" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2156589251692876</v>
+        <v>0.20340108392267</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4694790440835525</v>
+        <v>0.4996333335502317</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3148620307471598</v>
+        <v>0.2969655825270983</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9618388062550225</v>
+        <v>0.9071688342951083</v>
       </c>
       <c r="M63" t="n">
-        <v>1.723299162997817</v>
+        <v>1.795865583177793</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3168,25 +3168,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H64" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8056098894991602</v>
+        <v>0.8230745389665225</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07902037012229257</v>
+        <v>0.07192091911929978</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1153697403785472</v>
+        <v>0.1050045419141777</v>
       </c>
       <c r="L64" t="n">
-        <v>2.532199408876028</v>
+        <v>2.574228158813745</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3524308507454249</v>
+        <v>0.320767299272077</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3207,25 +3207,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H65" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1653284452671135</v>
+        <v>0.1544531441525848</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5932920246429008</v>
+        <v>0.6200452653846414</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2413795300899858</v>
+        <v>0.2255015904627738</v>
       </c>
       <c r="L65" t="n">
-        <v>0.7373648658913263</v>
+        <v>0.6888610229205281</v>
       </c>
       <c r="M65" t="n">
-        <v>2.021255604018688</v>
+        <v>2.085637386616698</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3246,25 +3246,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H66" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6599756658907856</v>
+        <v>0.658531373806596</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1382212740281359</v>
+        <v>0.1388083846314651</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2018030600810784</v>
+        <v>0.202660241561939</v>
       </c>
       <c r="L66" t="n">
-        <v>2.181730057753435</v>
+        <v>2.178254362981727</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6164668821654862</v>
+        <v>0.6190853954563341</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3391,25 +3391,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H69" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1657558109209556</v>
+        <v>0.1561365921483865</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5922407051344493</v>
+        <v>0.6159039833149693</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2420034839445952</v>
+        <v>0.2279594245366443</v>
       </c>
       <c r="L69" t="n">
-        <v>0.739270916707462</v>
+        <v>0.6963692009818037</v>
       </c>
       <c r="M69" t="n">
-        <v>2.018725599347943</v>
+        <v>2.075671374481552</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3430,25 +3430,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H70" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7633345019185176</v>
+        <v>0.7671522359910142</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09620548702499282</v>
+        <v>0.09465356260527877</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1404600110564895</v>
+        <v>0.138194201403707</v>
       </c>
       <c r="L70" t="n">
-        <v>2.430463516812042</v>
+        <v>2.43965090937675</v>
       </c>
       <c r="M70" t="n">
-        <v>0.429076472131468</v>
+        <v>0.4221548892195433</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3469,25 +3469,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H71" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1913874929992368</v>
+        <v>0.1899659442032121</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5291867672218774</v>
+        <v>0.5326837772600984</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2794257397788858</v>
+        <v>0.2773502785366896</v>
       </c>
       <c r="L71" t="n">
-        <v>0.8535882187765962</v>
+        <v>0.8472481111463258</v>
       </c>
       <c r="M71" t="n">
-        <v>1.866986041444518</v>
+        <v>1.875401610316985</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3508,25 +3508,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H72" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7843866964155416</v>
+        <v>0.7900813908472798</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08764768438392614</v>
+        <v>0.08533276794826025</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1279656192005322</v>
+        <v>0.12458584120446</v>
       </c>
       <c r="L72" t="n">
-        <v>2.481125708447157</v>
+        <v>2.4948300137463</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3909086723523106</v>
+        <v>0.3805841450492407</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3547,25 +3547,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H73" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="I73" t="n">
-        <v>0.178771690762523</v>
+        <v>0.1760421554842441</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5602216407241933</v>
+        <v>0.5669362975087596</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2610066685132836</v>
+        <v>0.2570215470069964</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7973217408008526</v>
+        <v>0.7851480134597286</v>
       </c>
       <c r="M73" t="n">
-        <v>1.941671590685864</v>
+        <v>1.957830439533275</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3586,25 +3586,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>97.5382271762</v>
+        <v>98.229650838</v>
       </c>
       <c r="H74" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8244301602786174</v>
+        <v>0.8367952978818941</v>
       </c>
       <c r="J74" t="n">
-        <v>0.07136985354527751</v>
+        <v>0.06634337484475847</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1041999861761052</v>
+        <v>0.09686132727334737</v>
       </c>
       <c r="L74" t="n">
-        <v>2.577490467011957</v>
+        <v>2.607247220919029</v>
       </c>
       <c r="M74" t="n">
-        <v>0.3183095468119377</v>
+        <v>0.2958914518076228</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3731,25 +3731,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H77" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I77" t="n">
-        <v>0.266218415406939</v>
+        <v>0.2663927903933912</v>
       </c>
       <c r="J77" t="n">
-        <v>0.34510269809893</v>
+        <v>0.3446737356322576</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3886788864941309</v>
+        <v>0.3889334739743512</v>
       </c>
       <c r="L77" t="n">
-        <v>1.187334132714948</v>
+        <v>1.188111845154525</v>
       </c>
       <c r="M77" t="n">
-        <v>1.423986980790921</v>
+        <v>1.422954680871124</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3770,25 +3770,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H78" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5126488736616388</v>
+        <v>0.4917943379371129</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1981102139586834</v>
+        <v>0.2065876675052387</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2892409123796778</v>
+        <v>0.3016179945576485</v>
       </c>
       <c r="L78" t="n">
-        <v>1.827187533364594</v>
+        <v>1.777001008368987</v>
       </c>
       <c r="M78" t="n">
-        <v>0.8835715542557281</v>
+        <v>0.9213809970733646</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3862,25 +3862,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H80" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6157697811259613</v>
+        <v>0.6045265783714476</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1561911458837555</v>
+        <v>0.1607615535075416</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2280390729902831</v>
+        <v>0.2347118681210108</v>
       </c>
       <c r="L80" t="n">
-        <v>2.075348416368167</v>
+        <v>2.048291603235354</v>
       </c>
       <c r="M80" t="n">
-        <v>0.6966125106415497</v>
+        <v>0.7169965286436357</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3901,25 +3901,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H81" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2629301463949292</v>
+        <v>0.2672543316098611</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3531918398684742</v>
+        <v>0.3425543442397416</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3838780137365966</v>
+        <v>0.3901913241503973</v>
       </c>
       <c r="L81" t="n">
-        <v>1.172668452921384</v>
+        <v>1.191954318979981</v>
       </c>
       <c r="M81" t="n">
-        <v>1.443453533342019</v>
+        <v>1.417854356869622</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3940,25 +3940,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H82" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I82" t="n">
-        <v>0.780197533832412</v>
+        <v>0.7628098186970073</v>
       </c>
       <c r="J82" t="n">
-        <v>0.08935059600308459</v>
+        <v>0.09641877288739543</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1304518701645035</v>
+        <v>0.1407714084155973</v>
       </c>
       <c r="L82" t="n">
-        <v>2.471044471661739</v>
+        <v>2.429200864506619</v>
       </c>
       <c r="M82" t="n">
-        <v>0.3985036581737573</v>
+        <v>0.4300277270777836</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -3979,25 +3979,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H83" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1807877075262882</v>
+        <v>0.190909108476833</v>
       </c>
       <c r="J83" t="n">
-        <v>0.555262239485331</v>
+        <v>0.5303635931469909</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2639500529883808</v>
+        <v>0.2787272983761762</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8063131755672455</v>
+        <v>0.8514546238066751</v>
       </c>
       <c r="M83" t="n">
-        <v>1.929736771444374</v>
+        <v>1.869818077817149</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4018,25 +4018,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H84" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5481714269413068</v>
+        <v>0.5370843367095743</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1836701516498753</v>
+        <v>0.188177098898547</v>
       </c>
       <c r="K84" t="n">
-        <v>0.268158421408818</v>
+        <v>0.2747385643918786</v>
       </c>
       <c r="L84" t="n">
-        <v>1.912672702232739</v>
+        <v>1.885991574520602</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8191688763584439</v>
+        <v>0.8392698610875197</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4163,25 +4163,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H87" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2563922047917043</v>
+        <v>0.2639905483956219</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3692751762124073</v>
+        <v>0.3505832509467701</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3743326189958883</v>
+        <v>0.385426200657608</v>
       </c>
       <c r="L87" t="n">
-        <v>1.143509233371001</v>
+        <v>1.177397845844474</v>
       </c>
       <c r="M87" t="n">
-        <v>1.48215814763311</v>
+        <v>1.437175953497918</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4202,25 +4202,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H88" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5915439288933702</v>
+        <v>0.5713164542506542</v>
       </c>
       <c r="J88" t="n">
-        <v>0.166039053295378</v>
+        <v>0.1742616039631487</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2424170178112519</v>
+        <v>0.254421941786197</v>
       </c>
       <c r="L88" t="n">
-        <v>2.017048804491362</v>
+        <v>1.96837130453816</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7405341776973858</v>
+        <v>0.7772067536756431</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4241,25 +4241,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H89" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I89" t="n">
-        <v>0.272553961596001</v>
+        <v>0.2800034785907444</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3295172544738377</v>
+        <v>0.3111914426667689</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3979287839301614</v>
+        <v>0.4088050787424868</v>
       </c>
       <c r="L89" t="n">
-        <v>1.215590668718165</v>
+        <v>1.24881551451472</v>
       </c>
       <c r="M89" t="n">
-        <v>1.386480547351674</v>
+        <v>1.342379406742793</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4333,25 +4333,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H91" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2876374848027135</v>
+        <v>0.3121276640319452</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2924117873853249</v>
+        <v>0.2796229008000223</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4199507278119617</v>
+        <v>0.4082494351680326</v>
       </c>
       <c r="L91" t="n">
-        <v>1.282863182220102</v>
+        <v>1.344632427263868</v>
       </c>
       <c r="M91" t="n">
-        <v>1.297186089967936</v>
+        <v>1.2471181375681</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4425,25 +4425,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H93" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2248338576407521</v>
+        <v>0.2369752098134239</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4469087102037497</v>
+        <v>0.4170409838589771</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3282574321554981</v>
+        <v>0.345983806327599</v>
       </c>
       <c r="L93" t="n">
-        <v>1.002759005077755</v>
+        <v>1.056909435767871</v>
       </c>
       <c r="M93" t="n">
-        <v>1.668983562766747</v>
+        <v>1.59710675790453</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4464,25 +4464,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H94" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5424783923198588</v>
+        <v>0.5450736001341158</v>
       </c>
       <c r="J94" t="n">
-        <v>0.185984393365911</v>
+        <v>0.1849294308397903</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2715372143142301</v>
+        <v>0.2699969690260939</v>
       </c>
       <c r="L94" t="n">
-        <v>1.898972391273807</v>
+        <v>1.905217769428441</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8294903944119632</v>
+        <v>0.8247852615454649</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -4556,25 +4556,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H96" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7050247016633332</v>
+        <v>0.7034126805652663</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1199086578604337</v>
+        <v>0.1205639509897291</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1750666404762332</v>
+        <v>0.1760233684450045</v>
       </c>
       <c r="L96" t="n">
-        <v>2.290140745466233</v>
+        <v>2.286261410140803</v>
       </c>
       <c r="M96" t="n">
-        <v>0.5347926140575342</v>
+        <v>0.537715221414192</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4595,25 +4595,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H97" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I97" t="n">
-        <v>0.222436625200316</v>
+        <v>0.2230188469588394</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4528059020072228</v>
+        <v>0.4513736364812552</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3247574727924613</v>
+        <v>0.3256075165599054</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9920673483934093</v>
+        <v>0.9946640574364236</v>
       </c>
       <c r="M97" t="n">
-        <v>1.68317517881413</v>
+        <v>1.679728426003671</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4634,25 +4634,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H98" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7944473004487431</v>
+        <v>0.7918176122042029</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08355800794766538</v>
+        <v>0.08462698690886063</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1219946916035914</v>
+        <v>0.1235554008869365</v>
       </c>
       <c r="L98" t="n">
-        <v>2.505336592949821</v>
+        <v>2.499008237499545</v>
       </c>
       <c r="M98" t="n">
-        <v>0.3726687154465876</v>
+        <v>0.3774363616135184</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4673,25 +4673,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H99" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1719495330521474</v>
+        <v>0.1733800211820452</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5770041486917173</v>
+        <v>0.5734851478921686</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2510463182561352</v>
+        <v>0.2531348309257861</v>
       </c>
       <c r="L99" t="n">
-        <v>0.7668949174125773</v>
+        <v>0.7732748944719219</v>
       </c>
       <c r="M99" t="n">
-        <v>1.982058764331287</v>
+        <v>1.973590274602292</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4712,25 +4712,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H100" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6441442837474214</v>
+        <v>0.6119115887082683</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1446567952246255</v>
+        <v>0.1577595167852568</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2111989210279532</v>
+        <v>0.2303288945064749</v>
       </c>
       <c r="L100" t="n">
-        <v>2.143631772270217</v>
+        <v>2.06606366063128</v>
       </c>
       <c r="M100" t="n">
-        <v>0.6451693067018295</v>
+        <v>0.7036074448622454</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4804,25 +4804,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H102" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7937626043371732</v>
+        <v>0.7890235015746052</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0838363397003361</v>
+        <v>0.08576280423796537</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1224010559624907</v>
+        <v>0.1252136941874294</v>
       </c>
       <c r="L102" t="n">
-        <v>2.50368886897401</v>
+        <v>2.492284198911245</v>
       </c>
       <c r="M102" t="n">
-        <v>0.373910075063499</v>
+        <v>0.3825021069013256</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4896,25 +4896,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H104" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7504961552796686</v>
+        <v>0.7292653896660205</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1014243271220859</v>
+        <v>0.1100547196479591</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1480795175982454</v>
+        <v>0.1606798906860203</v>
       </c>
       <c r="L104" t="n">
-        <v>2.399567983437251</v>
+        <v>2.348476059684082</v>
       </c>
       <c r="M104" t="n">
-        <v>0.4523524989645032</v>
+        <v>0.4908440496298977</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4935,25 +4935,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H105" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1981945683616591</v>
+        <v>0.2096253198980069</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5124413618303187</v>
+        <v>0.4843217130509032</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2893640698080222</v>
+        <v>0.30605296705109</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8839477748929995</v>
+        <v>0.9349289267451106</v>
       </c>
       <c r="M105" t="n">
-        <v>1.826688155298978</v>
+        <v>1.7590181062038</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4974,25 +4974,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H106" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7723497796605052</v>
+        <v>0.7547325791170245</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09254073997540432</v>
+        <v>0.0997022036109656</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1351094803640903</v>
+        <v>0.1455652172720098</v>
       </c>
       <c r="L106" t="n">
-        <v>2.452158819345606</v>
+        <v>2.409762954623083</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4127317002903033</v>
+        <v>0.4446718281049066</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -5013,25 +5013,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H107" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1855170252085752</v>
+        <v>0.1955619446996134</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5436281179869049</v>
+        <v>0.5189176160389509</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2708548568045199</v>
+        <v>0.2855204392614356</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8274059324302456</v>
+        <v>0.872206273360276</v>
       </c>
       <c r="M107" t="n">
-        <v>1.901739210765235</v>
+        <v>1.842273287378288</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5052,25 +5052,25 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="H108" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8140989128292524</v>
+        <v>0.8073951454096345</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07556954763038523</v>
+        <v>0.07829465633754691</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1103315395403624</v>
+        <v>0.1143101982528185</v>
       </c>
       <c r="L108" t="n">
-        <v>2.55262827802812</v>
+        <v>2.536495634481722</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3370401824315181</v>
+        <v>0.3491941672654593</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -5091,25 +5091,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H109" t="n">
-        <v>97.0684976167</v>
+        <v>96.87406227850001</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1592048826179106</v>
+        <v>0.1634056050758434</v>
       </c>
       <c r="J109" t="n">
-        <v>0.60835598875994</v>
+        <v>0.5980222115134252</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2324391286221494</v>
+        <v>0.2385721834107314</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7100537764758812</v>
+        <v>0.7287889986382616</v>
       </c>
       <c r="M109" t="n">
-        <v>2.057507094901969</v>
+        <v>2.032638817951007</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5130,25 +5130,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H110" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3178660880396244</v>
+        <v>0.3006892082611301</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2772902081139739</v>
+        <v>0.2842726795686463</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4048437038464018</v>
+        <v>0.4150381121702236</v>
       </c>
       <c r="L110" t="n">
-        <v>1.358441967965275</v>
+        <v>1.317105736953614</v>
       </c>
       <c r="M110" t="n">
-        <v>1.236714328188323</v>
+        <v>1.267856150876162</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5169,25 +5169,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H111" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5063667248637642</v>
+        <v>0.5267437046219053</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2006639329822097</v>
+        <v>0.1923806078772742</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2929693421540261</v>
+        <v>0.2808756875008204</v>
       </c>
       <c r="L111" t="n">
-        <v>1.812069516745319</v>
+        <v>1.861106801366536</v>
       </c>
       <c r="M111" t="n">
-        <v>0.8949611411006552</v>
+        <v>0.8580175111326431</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -5208,25 +5208,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H112" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4151851260492763</v>
+        <v>0.4044805455460487</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2377296235572048</v>
+        <v>0.2420810790463216</v>
       </c>
       <c r="K112" t="n">
-        <v>0.347085250393519</v>
+        <v>0.3534383754076296</v>
       </c>
       <c r="L112" t="n">
-        <v>1.592640628541348</v>
+        <v>1.566880012045776</v>
       </c>
       <c r="M112" t="n">
-        <v>1.060274121065133</v>
+        <v>1.079681612546594</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5300,25 +5300,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H114" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I114" t="n">
-        <v>0.611260978539636</v>
+        <v>0.5883028845524204</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1580239924635626</v>
+        <v>0.1673565509949511</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2307150289968014</v>
+        <v>0.2443405644526285</v>
       </c>
       <c r="L114" t="n">
-        <v>2.064497964615709</v>
+        <v>2.00924921810989</v>
       </c>
       <c r="M114" t="n">
-        <v>0.7047870063874893</v>
+        <v>0.7464102174374817</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5339,25 +5339,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H115" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2588080944185137</v>
+        <v>0.2678448586367947</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3633320877304563</v>
+        <v>0.341101647753485</v>
       </c>
       <c r="K115" t="n">
-        <v>0.37785981785103</v>
+        <v>0.3910534936097203</v>
       </c>
       <c r="L115" t="n">
-        <v>1.154284101106571</v>
+        <v>1.194588069520105</v>
       </c>
       <c r="M115" t="n">
-        <v>1.467856081042399</v>
+        <v>1.414358436870175</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5378,25 +5378,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H116" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3495729503329368</v>
+        <v>0.3401597900320761</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2644012397020583</v>
+        <v>0.2682277276292374</v>
       </c>
       <c r="K116" t="n">
-        <v>0.386025809965005</v>
+        <v>0.3916124823386866</v>
       </c>
       <c r="L116" t="n">
-        <v>1.434744660963815</v>
+        <v>1.412091852434915</v>
       </c>
       <c r="M116" t="n">
-        <v>1.17922952907118</v>
+        <v>1.196295665226399</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5470,25 +5470,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H118" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4315472446573049</v>
+        <v>0.4127184410127174</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2310783558303639</v>
+        <v>0.2387323410517409</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3373743995123313</v>
+        <v>0.3485492179355417</v>
       </c>
       <c r="L118" t="n">
-        <v>1.632016133484246</v>
+        <v>1.586704540973694</v>
       </c>
       <c r="M118" t="n">
-        <v>1.030609467003423</v>
+        <v>1.064746241090764</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5509,25 +5509,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H119" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3817543576651354</v>
+        <v>0.4003868512140741</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2513193668027905</v>
+        <v>0.2437451824333032</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3669262755320742</v>
+        <v>0.3558679663526227</v>
       </c>
       <c r="L119" t="n">
-        <v>1.51218934852748</v>
+        <v>1.557028519994845</v>
       </c>
       <c r="M119" t="n">
-        <v>1.120884375940446</v>
+        <v>1.087103513652532</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5601,25 +5601,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H121" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I121" t="n">
-        <v>0.423830855958707</v>
+        <v>0.4437948346536026</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2342150992037776</v>
+        <v>0.2260996607099177</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3419540448375153</v>
+        <v>0.3301055046364798</v>
       </c>
       <c r="L121" t="n">
-        <v>1.613446612713636</v>
+        <v>1.661490008597287</v>
       </c>
       <c r="M121" t="n">
-        <v>1.044599342448848</v>
+        <v>1.008404486766233</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -5640,25 +5640,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H122" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3519419578781321</v>
+        <v>0.324919732329192</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2634382285048243</v>
+        <v>0.2744228730369138</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3846198136170435</v>
+        <v>0.4006573946338942</v>
       </c>
       <c r="L122" t="n">
-        <v>1.44044568725144</v>
+        <v>1.37541659162147</v>
       </c>
       <c r="M122" t="n">
-        <v>1.174934499131516</v>
+        <v>1.223926013744636</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5679,25 +5679,25 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H123" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4666155420130174</v>
+        <v>0.4974504674663343</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2168229504012124</v>
+        <v>0.2042884278592137</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3165615075857701</v>
+        <v>0.2982611046744519</v>
       </c>
       <c r="L123" t="n">
-        <v>1.716408133624822</v>
+        <v>1.790612507073455</v>
       </c>
       <c r="M123" t="n">
-        <v>0.9670303587894074</v>
+        <v>0.911126388252093</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -5718,25 +5718,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H124" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I124" t="n">
-        <v>0.508555892583876</v>
+        <v>0.4795056652264599</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1997740274049284</v>
+        <v>0.2115830629160732</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2916700800111955</v>
+        <v>0.3089112718574669</v>
       </c>
       <c r="L124" t="n">
-        <v>1.817337757762824</v>
+        <v>1.747428267536847</v>
       </c>
       <c r="M124" t="n">
-        <v>0.8909921622259809</v>
+        <v>0.9436604606056864</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5757,25 +5757,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H125" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3091134327723168</v>
+        <v>0.335057691232205</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2808481980600338</v>
+        <v>0.270301751531624</v>
       </c>
       <c r="K125" t="n">
-        <v>0.4100383691676494</v>
+        <v>0.394640557236171</v>
       </c>
       <c r="L125" t="n">
-        <v>1.3373786674846</v>
+        <v>1.399813630932786</v>
       </c>
       <c r="M125" t="n">
-        <v>1.252582963347751</v>
+        <v>1.205545811831043</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5849,25 +5849,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H127" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4752606464009816</v>
+        <v>0.4712621570490292</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2133086803248042</v>
+        <v>0.2149340825003946</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3114306732742141</v>
+        <v>0.3138037604505761</v>
       </c>
       <c r="L127" t="n">
-        <v>1.737212612477159</v>
+        <v>1.727590231597664</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9513567142486269</v>
+        <v>0.95860600795176</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5941,25 +5941,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H129" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3040478006768889</v>
+        <v>0.3046593155039558</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2829073980988257</v>
+        <v>0.2826588148357903</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4130448012242855</v>
+        <v>0.4126818696602538</v>
       </c>
       <c r="L129" t="n">
-        <v>1.325188203254952</v>
+        <v>1.326659816172121</v>
       </c>
       <c r="M129" t="n">
-        <v>1.261766995520763</v>
+        <v>1.260658314167625</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -5980,25 +5980,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H130" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6312870191889843</v>
+        <v>0.6282517413603148</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1498833255329332</v>
+        <v>0.1511171783088151</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2188296552780825</v>
+        <v>0.2206310803308701</v>
       </c>
       <c r="L130" t="n">
-        <v>2.112690712845036</v>
+        <v>2.105386304411815</v>
       </c>
       <c r="M130" t="n">
-        <v>0.6684796318768821</v>
+        <v>0.6739826152573155</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -6072,25 +6072,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H132" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4450220113072174</v>
+        <v>0.4119674797446194</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2256008084117003</v>
+        <v>0.2390376098599108</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3293771802810824</v>
+        <v>0.3489949103954698</v>
       </c>
       <c r="L132" t="n">
-        <v>1.664443214202735</v>
+        <v>1.584897349629328</v>
       </c>
       <c r="M132" t="n">
-        <v>1.006179605516183</v>
+        <v>1.066107739975202</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6111,25 +6111,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H133" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3684122194617037</v>
+        <v>0.4011608824375755</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2567430002188196</v>
+        <v>0.2434305355944815</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3748447803194767</v>
+        <v>0.3554085819679429</v>
       </c>
       <c r="L133" t="n">
-        <v>1.480081438704588</v>
+        <v>1.55889122928067</v>
       </c>
       <c r="M133" t="n">
-        <v>1.145073780975936</v>
+        <v>1.085700188751388</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -6150,25 +6150,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H134" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6303117424468301</v>
+        <v>0.6243039454271863</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1502797794931585</v>
+        <v>0.1527219734035828</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2194084780600114</v>
+        <v>0.2229740811692309</v>
       </c>
       <c r="L134" t="n">
-        <v>2.110343705400502</v>
+        <v>2.09588591745079</v>
       </c>
       <c r="M134" t="n">
-        <v>0.670247816539487</v>
+        <v>0.6811400013799793</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6189,25 +6189,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H135" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I135" t="n">
-        <v>0.250805390974013</v>
+        <v>0.2531707187427541</v>
       </c>
       <c r="J135" t="n">
-        <v>0.383018738203928</v>
+        <v>0.3772000318928249</v>
       </c>
       <c r="K135" t="n">
-        <v>0.366175870822059</v>
+        <v>0.369629249364421</v>
       </c>
       <c r="L135" t="n">
-        <v>1.118592043744098</v>
+        <v>1.129141405592683</v>
       </c>
       <c r="M135" t="n">
-        <v>1.515232085433843</v>
+        <v>1.501229345042896</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6281,25 +6281,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H137" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2745884424270613</v>
+        <v>0.2841622488060354</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3245124316294292</v>
+        <v>0.3009608679371528</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4008991259435095</v>
+        <v>0.4148768832568117</v>
       </c>
       <c r="L137" t="n">
-        <v>1.224664453224694</v>
+        <v>1.267363629674918</v>
       </c>
       <c r="M137" t="n">
-        <v>1.374436420831797</v>
+        <v>1.31775948706827</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6320,25 +6320,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="H138" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I138" t="n">
-        <v>0.6004703069218963</v>
+        <v>0.5775739018402496</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1624104443406926</v>
+        <v>0.1717179260811993</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2371192487374112</v>
+        <v>0.2507081720785511</v>
       </c>
       <c r="L138" t="n">
-        <v>2.0385301695031</v>
+        <v>1.9834298775993</v>
       </c>
       <c r="M138" t="n">
-        <v>0.7243505817594891</v>
+        <v>0.7658619503221491</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6359,25 +6359,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H139" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2631984907284383</v>
+        <v>0.2720070660435137</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3525317128080419</v>
+        <v>0.330862617532956</v>
       </c>
       <c r="K139" t="n">
-        <v>0.3842697964635199</v>
+        <v>0.3971303164235301</v>
       </c>
       <c r="L139" t="n">
-        <v>1.173865268648835</v>
+        <v>1.213151514554071</v>
       </c>
       <c r="M139" t="n">
-        <v>1.441864934887645</v>
+        <v>1.389718169022398</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6451,25 +6451,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H141" t="n">
-        <v>91.5882912066</v>
+        <v>91.4141129564</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2377206287352367</v>
+        <v>0.2416825276411924</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4152072533113177</v>
+        <v>0.4054609820026667</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3470721179534456</v>
+        <v>0.3528564903561409</v>
       </c>
       <c r="L141" t="n">
-        <v>1.060234004159156</v>
+        <v>1.077904073279718</v>
       </c>
       <c r="M141" t="n">
-        <v>1.592693877887399</v>
+        <v>1.569239436364141</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6490,25 +6490,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H142" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5149198511738565</v>
+        <v>0.5244907811957451</v>
       </c>
       <c r="J142" t="n">
-        <v>0.197187052368351</v>
+        <v>0.1932964304082337</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2878930964577924</v>
+        <v>0.2822127883960212</v>
       </c>
       <c r="L142" t="n">
-        <v>1.832652649979362</v>
+        <v>1.855685131983257</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8794542535628453</v>
+        <v>0.8621020796207222</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6635,25 +6635,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H145" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2209040772684265</v>
+        <v>0.2227211894739501</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4565759699196709</v>
+        <v>0.452105873894083</v>
       </c>
       <c r="K145" t="n">
-        <v>0.3225199528119027</v>
+        <v>0.3251729366319671</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9852321846171821</v>
+        <v>0.9933365050538172</v>
       </c>
       <c r="M145" t="n">
-        <v>1.692247862570915</v>
+        <v>1.681490558314216</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -6727,25 +6727,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H147" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3752605912278973</v>
+        <v>0.3663658425038184</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2539591092569523</v>
+        <v>0.2575748607708055</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3707802995151503</v>
+        <v>0.3760592967253761</v>
       </c>
       <c r="L147" t="n">
-        <v>1.496562073198842</v>
+        <v>1.475156824236831</v>
       </c>
       <c r="M147" t="n">
-        <v>1.132657627286007</v>
+        <v>1.148783879037793</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6766,25 +6766,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H148" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5316393557247232</v>
+        <v>0.5329853365512182</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1903905058029581</v>
+        <v>0.1898433591255211</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2779701384723188</v>
+        <v>0.2771713043232608</v>
       </c>
       <c r="L148" t="n">
-        <v>1.872888205646488</v>
+        <v>1.876127313976915</v>
       </c>
       <c r="M148" t="n">
-        <v>0.8491416558811931</v>
+        <v>0.8467013816998241</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6911,25 +6911,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H151" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3331742954060795</v>
+        <v>0.3335887705666439</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2710673595910246</v>
+        <v>0.2708988737533968</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3957583450028959</v>
+        <v>0.3955123556799593</v>
       </c>
       <c r="L151" t="n">
-        <v>1.395281231221134</v>
+        <v>1.396278667379891</v>
       </c>
       <c r="M151" t="n">
-        <v>1.20896042377597</v>
+        <v>1.20820897694015</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6950,25 +6950,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H152" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4481258230446003</v>
+        <v>0.4387143530951598</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2243390963233332</v>
+        <v>0.2281648971157887</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3275350806320664</v>
+        <v>0.3331207497890515</v>
       </c>
       <c r="L152" t="n">
-        <v>1.671912549765867</v>
+        <v>1.649263809074531</v>
       </c>
       <c r="M152" t="n">
-        <v>1.000552369602066</v>
+        <v>1.017615441136418</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -6989,25 +6989,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H153" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3727276269583802</v>
+        <v>0.38309753976581</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2549887695291137</v>
+        <v>0.2507733578187764</v>
       </c>
       <c r="K153" t="n">
-        <v>0.372283603512506</v>
+        <v>0.3661291024154136</v>
       </c>
       <c r="L153" t="n">
-        <v>1.490466484387647</v>
+        <v>1.515421721712844</v>
       </c>
       <c r="M153" t="n">
-        <v>1.137249912099847</v>
+        <v>1.118449175871743</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7028,25 +7028,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H154" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6074235130024027</v>
+        <v>0.5993718991152744</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1595839378039014</v>
+        <v>0.1628569515791567</v>
       </c>
       <c r="K154" t="n">
-        <v>0.232992549193696</v>
+        <v>0.2377711493055688</v>
       </c>
       <c r="L154" t="n">
-        <v>2.055263088200904</v>
+        <v>2.035886846651392</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7117443626054001</v>
+        <v>0.7263420040430391</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7067,25 +7067,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H155" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I155" t="n">
-        <v>0.263321872037489</v>
+        <v>0.2669585030998548</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3522281947877771</v>
+        <v>0.3432820823743571</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3844499331747339</v>
+        <v>0.389759414525788</v>
       </c>
       <c r="L155" t="n">
-        <v>1.174415549287201</v>
+        <v>1.190634923825352</v>
       </c>
       <c r="M155" t="n">
-        <v>1.441134517538065</v>
+        <v>1.419605661648859</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7106,25 +7106,25 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H156" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4398896317345647</v>
+        <v>0.4636802614512525</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2276871415713151</v>
+        <v>0.2180161538816047</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3324232266941201</v>
+        <v>0.3183035846671428</v>
       </c>
       <c r="L156" t="n">
-        <v>1.652092121897814</v>
+        <v>1.7093443690209</v>
       </c>
       <c r="M156" t="n">
-        <v>1.015484651408066</v>
+        <v>0.9723520463119568</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -7145,25 +7145,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H157" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3808753653196345</v>
+        <v>0.3586332245809721</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2516766807643762</v>
+        <v>0.2607182013898487</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3674479539159893</v>
+        <v>0.3806485740291792</v>
       </c>
       <c r="L157" t="n">
-        <v>1.510074049874893</v>
+        <v>1.456548247772095</v>
       </c>
       <c r="M157" t="n">
-        <v>1.122477996209118</v>
+        <v>1.162803178198725</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7237,25 +7237,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H159" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2611040699492071</v>
+        <v>0.2538807578935106</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3576839879249505</v>
+        <v>0.375453335581964</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3812119421258424</v>
+        <v>0.3706659065245254</v>
       </c>
       <c r="L159" t="n">
-        <v>1.164524151973464</v>
+        <v>1.132308180205057</v>
       </c>
       <c r="M159" t="n">
-        <v>1.454263905900694</v>
+        <v>1.497025913270418</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7276,25 +7276,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H160" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I160" t="n">
-        <v>0.7191016921996616</v>
+        <v>0.7329410873669809</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1141863039838774</v>
+        <v>0.1085605335906581</v>
       </c>
       <c r="K160" t="n">
-        <v>0.166712003816461</v>
+        <v>0.1584983790423609</v>
       </c>
       <c r="L160" t="n">
-        <v>2.324017080415446</v>
+        <v>2.357321641143304</v>
       </c>
       <c r="M160" t="n">
-        <v>0.509270915768093</v>
+        <v>0.4841799798143352</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7315,25 +7315,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H161" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2119462592403805</v>
+        <v>0.2050492250060798</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4786122022686639</v>
+        <v>0.4955789064850435</v>
       </c>
       <c r="K161" t="n">
-        <v>0.3094415384909556</v>
+        <v>0.2993718685088766</v>
       </c>
       <c r="L161" t="n">
-        <v>0.9452803162120972</v>
+        <v>0.9145195435271161</v>
       </c>
       <c r="M161" t="n">
-        <v>1.745278145296947</v>
+        <v>1.786108587964007</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7354,25 +7354,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H162" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5452417346981059</v>
+        <v>0.5322138560861135</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1848610834560545</v>
+        <v>0.1901569690706856</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2698971818458396</v>
+        <v>0.277629174843201</v>
       </c>
       <c r="L162" t="n">
-        <v>1.905622385940157</v>
+        <v>1.874270743101541</v>
       </c>
       <c r="M162" t="n">
-        <v>0.8244804322140031</v>
+        <v>0.8481000820552578</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7446,25 +7446,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H164" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I164" t="n">
-        <v>0.7182550267471669</v>
+        <v>0.7296265920994915</v>
       </c>
       <c r="J164" t="n">
-        <v>0.114530476932046</v>
+        <v>0.1099078893904506</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1672144963207871</v>
+        <v>0.1604655185100579</v>
       </c>
       <c r="L164" t="n">
-        <v>2.321979576562288</v>
+        <v>2.349345294808532</v>
       </c>
       <c r="M164" t="n">
-        <v>0.5108059271169251</v>
+        <v>0.4901891866814096</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7485,25 +7485,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H165" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2123880087778665</v>
+        <v>0.2068316092615463</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4775254984064484</v>
+        <v>0.4911942412165959</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3100864928156851</v>
+        <v>0.3019741495218577</v>
       </c>
       <c r="L165" t="n">
-        <v>0.9472505191492846</v>
+        <v>0.9224689773064967</v>
       </c>
       <c r="M165" t="n">
-        <v>1.74266298803503</v>
+        <v>1.775556873171645</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7524,25 +7524,25 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H166" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6658169909244352</v>
+        <v>0.6602880657663952</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1358467516567337</v>
+        <v>0.1380942822087824</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1983362574188312</v>
+        <v>0.2016176520248223</v>
       </c>
       <c r="L166" t="n">
-        <v>2.195787230192137</v>
+        <v>2.182481849324008</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6058765123890322</v>
+        <v>0.6159004986511696</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -7616,25 +7616,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H168" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I168" t="n">
-        <v>0.6920440948615696</v>
+        <v>0.6894809649626675</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1251853272920448</v>
+        <v>0.1262272500151758</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1827705778463855</v>
+        <v>0.1842917850221567</v>
       </c>
       <c r="L168" t="n">
-        <v>2.258902862431095</v>
+        <v>2.252734679910159</v>
       </c>
       <c r="M168" t="n">
-        <v>0.55832655972252</v>
+        <v>0.5629735350676841</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7708,25 +7708,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="H170" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I170" t="n">
-        <v>0.7436321182822302</v>
+        <v>0.7515417648712994</v>
       </c>
       <c r="J170" t="n">
-        <v>0.104214586064134</v>
+        <v>0.1009992825726425</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1521532956536357</v>
+        <v>0.147458952556058</v>
       </c>
       <c r="L170" t="n">
-        <v>2.383049650500326</v>
+        <v>2.402084247169956</v>
       </c>
       <c r="M170" t="n">
-        <v>0.4647970538460379</v>
+        <v>0.4504568002739855</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7747,25 +7747,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H171" t="n">
-        <v>94.2958640271</v>
+        <v>94.6776744882</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1987490689464353</v>
+        <v>0.1947751053724803</v>
       </c>
       <c r="J171" t="n">
-        <v>0.511077290391769</v>
+        <v>0.5208532407836987</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2901736406617956</v>
+        <v>0.2843716538438211</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8864208475011017</v>
+        <v>0.868696969961262</v>
       </c>
       <c r="M171" t="n">
-        <v>1.823405511837102</v>
+        <v>1.846931376194917</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7786,25 +7786,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H172" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I172" t="n">
-        <v>0.6027694095422271</v>
+        <v>0.590576920943824</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1614758497795825</v>
+        <v>0.1664321459577952</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2357547406781904</v>
+        <v>0.2429909330983809</v>
       </c>
       <c r="L172" t="n">
-        <v>2.044062969304872</v>
+        <v>2.014721695929853</v>
       </c>
       <c r="M172" t="n">
-        <v>0.7201822900169379</v>
+        <v>0.7422873709717663</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -7825,25 +7825,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H173" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2620114477524432</v>
+        <v>0.2670181797986583</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3554518385289899</v>
+        <v>0.3431352776953005</v>
       </c>
       <c r="K173" t="n">
-        <v>0.382536713718567</v>
+        <v>0.3898465425060411</v>
       </c>
       <c r="L173" t="n">
-        <v>1.168571056975896</v>
+        <v>1.190901081902016</v>
       </c>
       <c r="M173" t="n">
-        <v>1.448892229305537</v>
+        <v>1.419252375591943</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7864,25 +7864,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H174" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3415229284347354</v>
+        <v>0.3422720791689617</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2676736063273433</v>
+        <v>0.2673690735085522</v>
       </c>
       <c r="K174" t="n">
-        <v>0.3908034652379212</v>
+        <v>0.3903588473224862</v>
       </c>
       <c r="L174" t="n">
-        <v>1.415372250542128</v>
+        <v>1.417175084829371</v>
       </c>
       <c r="M174" t="n">
-        <v>1.193824284219951</v>
+        <v>1.192466067848143</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7903,25 +7903,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H175" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4778422835153008</v>
+        <v>0.4773525829932021</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2122592343433736</v>
+        <v>0.2124582995962593</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3098984821413255</v>
+        <v>0.3101891174105386</v>
       </c>
       <c r="L175" t="n">
-        <v>1.743425332687228</v>
+        <v>1.742246866390145</v>
       </c>
       <c r="M175" t="n">
-        <v>0.9466761851714465</v>
+        <v>0.9475640161993164</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -7942,25 +7942,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H176" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4228366933020508</v>
+        <v>0.414997918975356</v>
       </c>
       <c r="J176" t="n">
-        <v>0.23461923036502</v>
+        <v>0.2378057239937577</v>
       </c>
       <c r="K176" t="n">
-        <v>0.3425440763329292</v>
+        <v>0.3471963570308862</v>
       </c>
       <c r="L176" t="n">
-        <v>1.611054156239082</v>
+        <v>1.592190113956954</v>
       </c>
       <c r="M176" t="n">
-        <v>1.046401767427989</v>
+        <v>1.060613529012159</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -7981,25 +7981,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H177" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3898650168865403</v>
+        <v>0.3982196163951966</v>
       </c>
       <c r="J177" t="n">
-        <v>0.24802235085913</v>
+        <v>0.2446261721970746</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3621126322543298</v>
+        <v>0.3571542114077288</v>
       </c>
       <c r="L177" t="n">
-        <v>1.531707682913951</v>
+        <v>1.551813060593319</v>
       </c>
       <c r="M177" t="n">
-        <v>1.10617968483172</v>
+        <v>1.091032727998952</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8020,25 +8020,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H178" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3823823566442522</v>
+        <v>0.3741225070308101</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2510640826649381</v>
+        <v>0.2544217451094268</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3665535606908096</v>
+        <v>0.3714557478597631</v>
       </c>
       <c r="L178" t="n">
-        <v>1.513700630623567</v>
+        <v>1.493823268952194</v>
       </c>
       <c r="M178" t="n">
-        <v>1.119745808685624</v>
+        <v>1.134720983188043</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8165,25 +8165,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H181" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I181" t="n">
-        <v>0.475143518406299</v>
+        <v>0.4951917368717127</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2133562933307728</v>
+        <v>0.2052066110277591</v>
       </c>
       <c r="K181" t="n">
-        <v>0.3115001882629282</v>
+        <v>0.2996016521005282</v>
       </c>
       <c r="L181" t="n">
-        <v>1.736930743481825</v>
+        <v>1.785176862715666</v>
       </c>
       <c r="M181" t="n">
-        <v>0.9515690682552466</v>
+        <v>0.9152214851838055</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8204,25 +8204,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H182" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4996572265724875</v>
+        <v>0.4818513638580721</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2033913713119969</v>
+        <v>0.2106295268869626</v>
       </c>
       <c r="K182" t="n">
-        <v>0.2969514021155155</v>
+        <v>0.3075191092549653</v>
       </c>
       <c r="L182" t="n">
-        <v>1.795923081832978</v>
+        <v>1.753073200829182</v>
       </c>
       <c r="M182" t="n">
-        <v>0.9071255160515064</v>
+        <v>0.939407689915853</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8296,25 +8296,25 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H184" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3363782731202606</v>
+        <v>0.3495516769733159</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2697649296259103</v>
+        <v>0.2644098874092212</v>
       </c>
       <c r="K184" t="n">
-        <v>0.393856797253829</v>
+        <v>0.3860384356174629</v>
       </c>
       <c r="L184" t="n">
-        <v>1.402991616614611</v>
+        <v>1.43469346653741</v>
       </c>
       <c r="M184" t="n">
-        <v>1.20315158613156</v>
+        <v>1.179268097845126</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -8335,25 +8335,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H185" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4838033097996434</v>
+        <v>0.4690113621055053</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2098360529269742</v>
+        <v>0.2158490397945101</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3063606372733823</v>
+        <v>0.3151395980999847</v>
       </c>
       <c r="L185" t="n">
-        <v>1.757770566672312</v>
+        <v>1.722173684416501</v>
       </c>
       <c r="M185" t="n">
-        <v>0.9358687960543048</v>
+        <v>0.9626867174835149</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8374,25 +8374,25 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H186" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5053850720708241</v>
+        <v>0.5154466943102619</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2010629788329983</v>
+        <v>0.1969728884917634</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2935519490961775</v>
+        <v>0.2875804171979746</v>
       </c>
       <c r="L186" t="n">
-        <v>1.80970716530865</v>
+        <v>1.83392050012876</v>
       </c>
       <c r="M186" t="n">
-        <v>0.8967408855951726</v>
+        <v>0.878499082673265</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -8413,25 +8413,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H187" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3113389104379242</v>
+        <v>0.3027486177997125</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2799435323423072</v>
+        <v>0.2834355212196291</v>
       </c>
       <c r="K187" t="n">
-        <v>0.4087175572197685</v>
+        <v>0.4138158609806585</v>
       </c>
       <c r="L187" t="n">
-        <v>1.342734288533541</v>
+        <v>1.322061714379796</v>
       </c>
       <c r="M187" t="n">
-        <v>1.24854815424669</v>
+        <v>1.264122424639546</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8452,25 +8452,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H188" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6229630716879234</v>
+        <v>0.6304437304495104</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1532670440292994</v>
+        <v>0.1502261258335324</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2237698842827771</v>
+        <v>0.2193301437169572</v>
       </c>
       <c r="L188" t="n">
-        <v>2.092659099346547</v>
+        <v>2.110661335065489</v>
       </c>
       <c r="M188" t="n">
-        <v>0.6835710163706754</v>
+        <v>0.6700085212175544</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8544,25 +8544,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H190" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4362482055759194</v>
+        <v>0.4142457356579724</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2291673961073499</v>
+        <v>0.2381114895699299</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3345843983167308</v>
+        <v>0.3476427747720977</v>
       </c>
       <c r="L190" t="n">
-        <v>1.643329015044489</v>
+        <v>1.590379981746015</v>
       </c>
       <c r="M190" t="n">
-        <v>1.02208658663878</v>
+        <v>1.061977243481888</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -8583,25 +8583,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H191" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3764119986768985</v>
+        <v>0.3989922458070131</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2534910574484153</v>
+        <v>0.2443120952004011</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3700969438746863</v>
+        <v>0.3566956589925857</v>
       </c>
       <c r="L191" t="n">
-        <v>1.499332939905381</v>
+        <v>1.553672396413625</v>
       </c>
       <c r="M191" t="n">
-        <v>1.130570116219932</v>
+        <v>1.089631944593789</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8675,25 +8675,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H193" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2540800906762585</v>
+        <v>0.2523069190342919</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3749629769364041</v>
+        <v>0.379324979175642</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3709569323873374</v>
+        <v>0.3683681017900661</v>
       </c>
       <c r="L193" t="n">
-        <v>1.133197204416113</v>
+        <v>1.125288858892942</v>
       </c>
       <c r="M193" t="n">
-        <v>1.49584586319655</v>
+        <v>1.506343039316992</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8714,25 +8714,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H194" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I194" t="n">
-        <v>0.562535849305329</v>
+        <v>0.5471353808182174</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1778309555669394</v>
+        <v>0.1840913086104808</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2596331951277315</v>
+        <v>0.2687733105713019</v>
       </c>
       <c r="L194" t="n">
-        <v>1.947240743043718</v>
+        <v>1.910179453025954</v>
       </c>
       <c r="M194" t="n">
-        <v>0.7931260618285498</v>
+        <v>0.8210472364027441</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8753,25 +8753,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H195" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2776199794733401</v>
+        <v>0.2833881366838932</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3170548504955835</v>
+        <v>0.3028651837576226</v>
       </c>
       <c r="K195" t="n">
-        <v>0.4053251700310765</v>
+        <v>0.4137466795584842</v>
       </c>
       <c r="L195" t="n">
-        <v>1.238185108451097</v>
+        <v>1.263911089610164</v>
       </c>
       <c r="M195" t="n">
-        <v>1.356489721517827</v>
+        <v>1.322342230831352</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -8792,25 +8792,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="H196" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I196" t="n">
-        <v>0.591900396267559</v>
+        <v>0.5798648784850071</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1658941478587159</v>
+        <v>0.1707866347621922</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2422054558737252</v>
+        <v>0.2493484867528007</v>
       </c>
       <c r="L196" t="n">
-        <v>2.017906644676402</v>
+        <v>1.988943122207822</v>
       </c>
       <c r="M196" t="n">
-        <v>0.7398878994498729</v>
+        <v>0.7617083910393774</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8937,25 +8937,25 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H199" t="n">
-        <v>91.34868924840001</v>
+        <v>91.4773609447</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2410890251457508</v>
+        <v>0.2407963696161286</v>
       </c>
       <c r="J199" t="n">
-        <v>0.406920998141453</v>
+        <v>0.4076409307443235</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3519899767127961</v>
+        <v>0.3515626996395478</v>
       </c>
       <c r="L199" t="n">
-        <v>1.075257052150048</v>
+        <v>1.073951808487934</v>
       </c>
       <c r="M199" t="n">
-        <v>1.572752971137155</v>
+        <v>1.574485491872518</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -8976,25 +8976,25 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H200" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I200" t="n">
-        <v>0.2351819267798604</v>
+        <v>0.2407841245814929</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4214524601215435</v>
+        <v>0.4076710535295275</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3433656130985962</v>
+        <v>0.3515448218889796</v>
       </c>
       <c r="L200" t="n">
-        <v>1.048911393438178</v>
+        <v>1.073897195633458</v>
       </c>
       <c r="M200" t="n">
-        <v>1.607722993463227</v>
+        <v>1.574557982477562</v>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
@@ -9068,25 +9068,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H202" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2681918846374358</v>
+        <v>0.2701248587262692</v>
       </c>
       <c r="J202" t="n">
-        <v>0.340247963791908</v>
+        <v>0.3354928475333779</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3915601515706563</v>
+        <v>0.3943822937403529</v>
       </c>
       <c r="L202" t="n">
-        <v>1.196135805482963</v>
+        <v>1.20475686991916</v>
       </c>
       <c r="M202" t="n">
-        <v>1.41230404294638</v>
+        <v>1.400860836340487</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9160,25 +9160,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H204" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I204" t="n">
-        <v>0.2524471777276777</v>
+        <v>0.2541974422019441</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3789799427899128</v>
+        <v>0.3746742921832176</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3685728794824095</v>
+        <v>0.3711282656148383</v>
       </c>
       <c r="L204" t="n">
-        <v>1.125914412665443</v>
+        <v>1.133720592220671</v>
       </c>
       <c r="M204" t="n">
-        <v>1.505512707852148</v>
+        <v>1.495151142164491</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9199,25 +9199,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H205" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I205" t="n">
-        <v>0.6276967939615707</v>
+        <v>0.6245659571929696</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1513427666822883</v>
+        <v>0.1526154645557034</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2209604393561409</v>
+        <v>0.2228185782513269</v>
       </c>
       <c r="L205" t="n">
-        <v>2.104050821240853</v>
+        <v>2.096516449830236</v>
       </c>
       <c r="M205" t="n">
-        <v>0.6749887394030057</v>
+        <v>0.680664971918437</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9291,25 +9291,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H207" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6672289799436116</v>
+        <v>0.6736083403578742</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1352727723806457</v>
+        <v>0.1326795364398885</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1974982476757426</v>
+        <v>0.1937121232022372</v>
       </c>
       <c r="L207" t="n">
-        <v>2.199185187506577</v>
+        <v>2.21453714427586</v>
       </c>
       <c r="M207" t="n">
-        <v>0.6033165648176797</v>
+        <v>0.5917507325219027</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9383,25 +9383,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H209" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I209" t="n">
-        <v>0.5062866981455655</v>
+        <v>0.512335356325532</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2006964641684693</v>
+        <v>0.1982376600302715</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2930168376859652</v>
+        <v>0.2894269836441964</v>
       </c>
       <c r="L209" t="n">
-        <v>1.811876932122662</v>
+        <v>1.826433052620792</v>
       </c>
       <c r="M209" t="n">
-        <v>0.8951062301913731</v>
+        <v>0.8841399637350111</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9422,25 +9422,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H210" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I210" t="n">
-        <v>0.2329020592639833</v>
+        <v>0.2439328139555526</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4270609342106009</v>
+        <v>0.3999252776693405</v>
       </c>
       <c r="K210" t="n">
-        <v>0.3400370065254157</v>
+        <v>0.3561419083751068</v>
       </c>
       <c r="L210" t="n">
-        <v>1.038743184317366</v>
+        <v>1.087940350241765</v>
       </c>
       <c r="M210" t="n">
-        <v>1.621219809157219</v>
+        <v>1.555917741383128</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9461,25 +9461,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H211" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6748880361713446</v>
+        <v>0.6501436713748001</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1321593348896974</v>
+        <v>0.1422180197663414</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1929526289389581</v>
+        <v>0.2076383088588585</v>
       </c>
       <c r="L211" t="n">
-        <v>2.217616737452992</v>
+        <v>2.158069322983259</v>
       </c>
       <c r="M211" t="n">
-        <v>0.5894306336080503</v>
+        <v>0.6342923681578827</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9500,25 +9500,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H212" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3088602884650137</v>
+        <v>0.3292168293568574</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2809511022499944</v>
+        <v>0.2726760856272937</v>
       </c>
       <c r="K212" t="n">
-        <v>0.4101886092849919</v>
+        <v>0.3981070850158488</v>
       </c>
       <c r="L212" t="n">
-        <v>1.336769474680033</v>
+        <v>1.385757573086421</v>
       </c>
       <c r="M212" t="n">
-        <v>1.253041916034975</v>
+        <v>1.21613534189773</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9539,25 +9539,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H213" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I213" t="n">
-        <v>0.5003298534843659</v>
+        <v>0.4774007153101677</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2031179457380626</v>
+        <v>0.212438733613753</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2965522007775714</v>
+        <v>0.3101605510760793</v>
       </c>
       <c r="L213" t="n">
-        <v>1.797541761230669</v>
+        <v>1.742362697006582</v>
       </c>
       <c r="M213" t="n">
-        <v>0.9059060379917594</v>
+        <v>0.9474767519173382</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9578,25 +9578,25 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H214" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4194942294003369</v>
+        <v>0.4404305430880522</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2359779555283184</v>
+        <v>0.2274672589072959</v>
       </c>
       <c r="K214" t="n">
-        <v>0.3445278150713447</v>
+        <v>0.332102198004652</v>
       </c>
       <c r="L214" t="n">
-        <v>1.603010503272355</v>
+        <v>1.653393827268809</v>
       </c>
       <c r="M214" t="n">
-        <v>1.0524616816563</v>
+        <v>1.014503974726539</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -9617,25 +9617,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H215" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3778914311320051</v>
+        <v>0.3585493841633307</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2528896621414614</v>
+        <v>0.2607522828604347</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3692189067265335</v>
+        <v>0.3806983329762346</v>
       </c>
       <c r="L215" t="n">
-        <v>1.502893200122549</v>
+        <v>1.456346485466227</v>
       </c>
       <c r="M215" t="n">
-        <v>1.127887893150918</v>
+        <v>1.162955181557539</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9709,25 +9709,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H217" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I217" t="n">
-        <v>0.5720894060518258</v>
+        <v>0.5827611486182787</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1739473959138919</v>
+        <v>0.1696092891795615</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2539631980342822</v>
+        <v>0.2476295622021598</v>
       </c>
       <c r="L217" t="n">
-        <v>1.97023141618976</v>
+        <v>1.995913008056996</v>
       </c>
       <c r="M217" t="n">
-        <v>0.775805385775958</v>
+        <v>0.7564574297408443</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9748,25 +9748,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H218" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4184747935855196</v>
+        <v>0.4362778783828927</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2363923603310896</v>
+        <v>0.2291553339906941</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3451328460833908</v>
+        <v>0.3345667876264133</v>
       </c>
       <c r="L218" t="n">
-        <v>1.60055722683995</v>
+        <v>1.643400422775091</v>
       </c>
       <c r="M218" t="n">
-        <v>1.05430992707666</v>
+        <v>1.022032789598496</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -9840,25 +9840,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="H220" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3599608720167517</v>
+        <v>0.3579132559166178</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2601785073102635</v>
+        <v>0.2610108715786106</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3798606206729848</v>
+        <v>0.3810758725047715</v>
       </c>
       <c r="L220" t="n">
-        <v>1.45974323672324</v>
+        <v>1.454815640254625</v>
       </c>
       <c r="M220" t="n">
-        <v>1.160396142603775</v>
+        <v>1.164108487240604</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9985,25 +9985,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H223" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I223" t="n">
-        <v>0.410238866884881</v>
+        <v>0.4106479223126045</v>
       </c>
       <c r="J223" t="n">
-        <v>0.239740298014276</v>
+        <v>0.2395740153200795</v>
       </c>
       <c r="K223" t="n">
-        <v>0.350020835100843</v>
+        <v>0.349778062367316</v>
       </c>
       <c r="L223" t="n">
-        <v>1.580737435755486</v>
+        <v>1.581721829305129</v>
       </c>
       <c r="M223" t="n">
-        <v>1.069241729143671</v>
+        <v>1.068500108327554</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10077,25 +10077,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H225" t="n">
-        <v>85.7823829526</v>
+        <v>86.27087000580001</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3478671758502634</v>
+        <v>0.3356339807248542</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2650946439633076</v>
+        <v>0.2700674875102219</v>
       </c>
       <c r="K225" t="n">
-        <v>0.387038180186429</v>
+        <v>0.3942985317649239</v>
       </c>
       <c r="L225" t="n">
-        <v>1.430639707737219</v>
+        <v>1.401200473939486</v>
       </c>
       <c r="M225" t="n">
-        <v>1.182322112076352</v>
+        <v>1.20450099429559</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10116,25 +10116,25 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H226" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I226" t="n">
-        <v>0.4945853789459908</v>
+        <v>0.4858637628186228</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2054530979894347</v>
+        <v>0.2089984703989338</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2999615230645746</v>
+        <v>0.3051377667824434</v>
       </c>
       <c r="L226" t="n">
-        <v>1.783717659902547</v>
+        <v>1.762729055238312</v>
       </c>
       <c r="M226" t="n">
-        <v>0.9163208170328786</v>
+        <v>0.932133177979245</v>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
@@ -10155,25 +10155,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H227" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I227" t="n">
-        <v>0.3260235191274949</v>
+        <v>0.3343355202614526</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2739741792164654</v>
+        <v>0.2705953169668892</v>
       </c>
       <c r="K227" t="n">
-        <v>0.4000023016560396</v>
+        <v>0.3950691627716582</v>
       </c>
       <c r="L227" t="n">
-        <v>1.378072859038524</v>
+        <v>1.398075723556016</v>
       </c>
       <c r="M227" t="n">
-        <v>1.221924839305436</v>
+        <v>1.206855113672326</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10194,25 +10194,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H228" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I228" t="n">
-        <v>0.4526501519831685</v>
+        <v>0.4432976010293313</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2224999382182242</v>
+        <v>0.2263017881994588</v>
       </c>
       <c r="K228" t="n">
-        <v>0.3248499097986073</v>
+        <v>0.3304006107712099</v>
       </c>
       <c r="L228" t="n">
-        <v>1.682800365748113</v>
+        <v>1.660293413859204</v>
       </c>
       <c r="M228" t="n">
-        <v>0.9923497244532797</v>
+        <v>1.009305975369586</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10233,25 +10233,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H229" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I229" t="n">
-        <v>0.3655897526767319</v>
+        <v>0.3750617680896698</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2578903444403529</v>
+        <v>0.2540399316708659</v>
       </c>
       <c r="K229" t="n">
-        <v>0.3765199028829152</v>
+        <v>0.3708983002394642</v>
       </c>
       <c r="L229" t="n">
-        <v>1.473289160913111</v>
+        <v>1.496083604508474</v>
       </c>
       <c r="M229" t="n">
-        <v>1.150190936203974</v>
+        <v>1.133018095252062</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10272,25 +10272,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H230" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I230" t="n">
-        <v>0.4117750801881745</v>
+        <v>0.3929151924953108</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2391158210617177</v>
+        <v>0.2467824420750769</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3491090987501078</v>
+        <v>0.3603023654296122</v>
       </c>
       <c r="L230" t="n">
-        <v>1.584434339314631</v>
+        <v>1.539047942915545</v>
       </c>
       <c r="M230" t="n">
-        <v>1.066456561935261</v>
+        <v>1.100649691654843</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10364,25 +10364,25 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H232" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I232" t="n">
-        <v>0.5715330710280194</v>
+        <v>0.5533351715990318</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1741735483625937</v>
+        <v>0.1815710684556781</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2542933806093868</v>
+        <v>0.2650937599452901</v>
       </c>
       <c r="L232" t="n">
-        <v>1.968892593693445</v>
+        <v>1.925099274742385</v>
       </c>
       <c r="M232" t="n">
-        <v>0.7768140256971681</v>
+        <v>0.8098069653123245</v>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -10456,25 +10456,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H234" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I234" t="n">
-        <v>0.4037182460362893</v>
+        <v>0.4172121051253977</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2423909568958174</v>
+        <v>0.2369056483230091</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3538907970678933</v>
+        <v>0.3458822465515933</v>
       </c>
       <c r="L234" t="n">
-        <v>1.565045535176761</v>
+        <v>1.597518561927787</v>
       </c>
       <c r="M234" t="n">
-        <v>1.081063667755345</v>
+        <v>1.056599191520621</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10495,25 +10495,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H235" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I235" t="n">
-        <v>0.4150431773819372</v>
+        <v>0.4013446713225645</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2377873262675052</v>
+        <v>0.2433558246656242</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3471694963505576</v>
+        <v>0.3552995040118113</v>
       </c>
       <c r="L235" t="n">
-        <v>1.592299028496369</v>
+        <v>1.559333517979505</v>
       </c>
       <c r="M235" t="n">
-        <v>1.060531475153073</v>
+        <v>1.085366978008684</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10534,25 +10534,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H236" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I236" t="n">
-        <v>0.5771344578463121</v>
+        <v>0.586275208816415</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1718965618510926</v>
+        <v>0.1681808094242215</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2509689803025953</v>
+        <v>0.2455439817593634</v>
       </c>
       <c r="L236" t="n">
-        <v>1.982372353841532</v>
+        <v>2.004369608208608</v>
       </c>
       <c r="M236" t="n">
-        <v>0.7666586658558733</v>
+        <v>0.750086410032028</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10573,25 +10573,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H237" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I237" t="n">
-        <v>0.2741423856475217</v>
+        <v>0.2707478951333131</v>
       </c>
       <c r="J237" t="n">
-        <v>0.3256097313070966</v>
+        <v>0.3339601779720497</v>
       </c>
       <c r="K237" t="n">
-        <v>0.4002478830453817</v>
+        <v>0.3952919268946372</v>
       </c>
       <c r="L237" t="n">
-        <v>1.222675039987947</v>
+        <v>1.207535612294576</v>
       </c>
       <c r="M237" t="n">
-        <v>1.377077076966672</v>
+        <v>1.397172460810786</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -10612,25 +10612,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H238" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I238" t="n">
-        <v>0.6881799268321633</v>
+        <v>0.6944279390561841</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1267561273039986</v>
+        <v>0.1242162849365105</v>
       </c>
       <c r="K238" t="n">
-        <v>0.185063945863838</v>
+        <v>0.1813557760073054</v>
       </c>
       <c r="L238" t="n">
-        <v>2.249603726360328</v>
+        <v>2.264639593175858</v>
       </c>
       <c r="M238" t="n">
-        <v>0.5653323277758338</v>
+        <v>0.554004630816837</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10651,25 +10651,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H239" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I239" t="n">
-        <v>0.226351231780655</v>
+        <v>0.2234212769805579</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4431759698195885</v>
+        <v>0.4503836586278276</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3304727983997564</v>
+        <v>0.3261950643916145</v>
       </c>
       <c r="L239" t="n">
-        <v>1.009526493741721</v>
+        <v>0.9964588953332881</v>
       </c>
       <c r="M239" t="n">
-        <v>1.660000707858522</v>
+        <v>1.677346040275097</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10743,25 +10743,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H241" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3136410299364084</v>
+        <v>0.3350532119605137</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2790077114079641</v>
+        <v>0.2703035723737749</v>
       </c>
       <c r="K241" t="n">
-        <v>0.4073512586556275</v>
+        <v>0.3946432156657114</v>
       </c>
       <c r="L241" t="n">
-        <v>1.348274348464853</v>
+        <v>1.399802851547252</v>
       </c>
       <c r="M241" t="n">
-        <v>1.24437439287952</v>
+        <v>1.205553932787036</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10782,25 +10782,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H242" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I242" t="n">
-        <v>0.687280590393325</v>
+        <v>0.6908370750895702</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1271217112222256</v>
+        <v>0.1256759857359471</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1855976983844494</v>
+        <v>0.1834869391744828</v>
       </c>
       <c r="L242" t="n">
-        <v>2.247439469564425</v>
+        <v>2.255998164443193</v>
       </c>
       <c r="M242" t="n">
-        <v>0.5669628320511263</v>
+        <v>0.5605148963823241</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10821,25 +10821,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H243" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I243" t="n">
-        <v>0.226788007646065</v>
+        <v>0.2251848498375912</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4421015011906802</v>
+        <v>0.4460452693995257</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3311104911632549</v>
+        <v>0.3287698807628832</v>
       </c>
       <c r="L243" t="n">
-        <v>1.01147451410145</v>
+        <v>1.004324430275657</v>
       </c>
       <c r="M243" t="n">
-        <v>1.657414994735296</v>
+        <v>1.66690568896146</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10913,25 +10913,25 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H245" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I245" t="n">
-        <v>0.2519794100295527</v>
+        <v>0.2585266613178292</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3801306513273004</v>
+        <v>0.3640244131581402</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3678899386431469</v>
+        <v>0.3774489255240306</v>
       </c>
       <c r="L245" t="n">
-        <v>1.123828168731805</v>
+        <v>1.153028909477518</v>
       </c>
       <c r="M245" t="n">
-        <v>1.508281892625048</v>
+        <v>1.469522164998451</v>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -10952,25 +10952,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H246" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6595539235542222</v>
+        <v>0.6477127934798452</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1383927140023487</v>
+        <v>0.143206181512258</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2020533624434291</v>
+        <v>0.2090810250078967</v>
       </c>
       <c r="L246" t="n">
-        <v>2.180715133106095</v>
+        <v>2.152219405447432</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6172315044504751</v>
+        <v>0.6386995695446707</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11044,25 +11044,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="H248" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I248" t="n">
-        <v>0.7143379938794516</v>
+        <v>0.7146667880366636</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1161227667156701</v>
+        <v>0.1159891105542018</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1695392394048783</v>
+        <v>0.1693441014091347</v>
       </c>
       <c r="L248" t="n">
-        <v>2.312553221043233</v>
+        <v>2.313344465519125</v>
       </c>
       <c r="M248" t="n">
-        <v>0.5179075395518886</v>
+        <v>0.5173114330717402</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11083,25 +11083,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H249" t="n">
-        <v>93.29711155859999</v>
+        <v>93.407623577</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2132401708729663</v>
+        <v>0.2132008303734687</v>
       </c>
       <c r="J249" t="n">
-        <v>0.475429179652503</v>
+        <v>0.475525957281267</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3113306494745308</v>
+        <v>0.3112732123452643</v>
       </c>
       <c r="L249" t="n">
-        <v>0.9510511620934299</v>
+        <v>0.9508757034656704</v>
       </c>
       <c r="M249" t="n">
-        <v>1.73761818843204</v>
+        <v>1.737851084189066</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11175,25 +11175,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H251" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I251" t="n">
-        <v>0.4487287610182242</v>
+        <v>0.4499881412553261</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2240939995860878</v>
+        <v>0.2235820564002739</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3271772393956882</v>
+        <v>0.3264298023443999</v>
       </c>
       <c r="L251" t="n">
-        <v>1.673363522450361</v>
+        <v>1.676394226110378</v>
       </c>
       <c r="M251" t="n">
-        <v>0.9994592381539515</v>
+        <v>0.9971759715452218</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11214,25 +11214,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H252" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3283134916728456</v>
+        <v>0.3192301613806668</v>
       </c>
       <c r="J252" t="n">
-        <v>0.273043296067949</v>
+        <v>0.2767357067558265</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3986432122592055</v>
+        <v>0.4040341318635067</v>
       </c>
       <c r="L252" t="n">
-        <v>1.383583687277743</v>
+        <v>1.361724616005507</v>
       </c>
       <c r="M252" t="n">
-        <v>1.217773100463052</v>
+        <v>1.234241252130986</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11253,25 +11253,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H253" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I253" t="n">
-        <v>0.4918811307964147</v>
+        <v>0.5037144388827158</v>
       </c>
       <c r="J253" t="n">
-        <v>0.206552385855116</v>
+        <v>0.2017420980151562</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3015664833484694</v>
+        <v>0.294543463102128</v>
       </c>
       <c r="L253" t="n">
-        <v>1.777209875737713</v>
+        <v>1.805686779750275</v>
       </c>
       <c r="M253" t="n">
-        <v>0.9212236409138174</v>
+        <v>0.8997697571475964</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11292,25 +11292,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H254" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4822370030881629</v>
+        <v>0.4730058249906275</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2104727629722916</v>
+        <v>0.2142252743940539</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3072902339395456</v>
+        <v>0.3127689006153186</v>
       </c>
       <c r="L254" t="n">
-        <v>1.754001243204034</v>
+        <v>1.731786375587201</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9387085228564203</v>
+        <v>0.9554447237974804</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11331,25 +11331,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H255" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3311454599048746</v>
+        <v>0.3406629460260766</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2718920894695632</v>
+        <v>0.2680231926723266</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3969624506255622</v>
+        <v>0.3913138613015968</v>
       </c>
       <c r="L255" t="n">
-        <v>1.390398830340186</v>
+        <v>1.413302699379827</v>
       </c>
       <c r="M255" t="n">
-        <v>1.212638719034252</v>
+        <v>1.195383439318576</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11370,25 +11370,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H256" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3209985260385671</v>
+        <v>0.3415339705116303</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2760168593339158</v>
+        <v>0.2676691176781991</v>
       </c>
       <c r="K256" t="n">
-        <v>0.4029846146275171</v>
+        <v>0.3907969118101706</v>
       </c>
       <c r="L256" t="n">
-        <v>1.365980192743218</v>
+        <v>1.415398823345062</v>
       </c>
       <c r="M256" t="n">
-        <v>1.231035192629264</v>
+        <v>1.193804264844768</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11409,25 +11409,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H257" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I257" t="n">
-        <v>0.5005550465076507</v>
+        <v>0.4775096976168818</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2030264038586786</v>
+        <v>0.2123944318630562</v>
       </c>
       <c r="K257" t="n">
-        <v>0.2964185496336708</v>
+        <v>0.310095870520062</v>
       </c>
       <c r="L257" t="n">
-        <v>1.798083689156623</v>
+        <v>1.742624963370707</v>
       </c>
       <c r="M257" t="n">
-        <v>0.9054977612097065</v>
+        <v>0.9472791661092307</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11448,25 +11448,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H258" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I258" t="n">
-        <v>0.4879599063169857</v>
+        <v>0.5065873947522376</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2081463795459407</v>
+        <v>0.2005742297755132</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3038937141370735</v>
+        <v>0.2928383754722493</v>
       </c>
       <c r="L258" t="n">
-        <v>1.767773433088031</v>
+        <v>1.812600559728962</v>
       </c>
       <c r="M258" t="n">
-        <v>0.9283328527748957</v>
+        <v>0.8945610647987889</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11540,25 +11540,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H260" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I260" t="n">
-        <v>0.606454567695941</v>
+        <v>0.6221456792412053</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1599778180097801</v>
+        <v>0.1535993173816238</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2335676142942789</v>
+        <v>0.2242550033771707</v>
       </c>
       <c r="L260" t="n">
-        <v>2.052931317382102</v>
+        <v>2.090692041100787</v>
       </c>
       <c r="M260" t="n">
-        <v>0.7135010683236193</v>
+        <v>0.6850529555220422</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11579,25 +11579,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H261" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I261" t="n">
-        <v>0.2600027702095901</v>
+        <v>0.2538876494402135</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3603931852844086</v>
+        <v>0.3754363823770747</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3796040445060015</v>
+        <v>0.3706759681827118</v>
       </c>
       <c r="L261" t="n">
-        <v>1.159612355134772</v>
+        <v>1.132338916503352</v>
       </c>
       <c r="M261" t="n">
-        <v>1.460783600359227</v>
+        <v>1.496985115313936</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11618,25 +11618,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H262" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4191865626400399</v>
+        <v>0.4056696052705497</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2361030233170569</v>
+        <v>0.2415977214347359</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3447104140429031</v>
+        <v>0.3527326732947145</v>
       </c>
       <c r="L262" t="n">
-        <v>1.602270101963023</v>
+        <v>1.569741489106363</v>
       </c>
       <c r="M262" t="n">
-        <v>1.053019483994074</v>
+        <v>1.077525837598922</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -11710,25 +11710,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H264" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I264" t="n">
-        <v>0.6054546585441889</v>
+        <v>0.6181724491943822</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1603842851446386</v>
+        <v>0.1552144515469991</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2341610563111724</v>
+        <v>0.2266130992586187</v>
       </c>
       <c r="L264" t="n">
-        <v>2.050525031943739</v>
+        <v>2.081130446841765</v>
       </c>
       <c r="M264" t="n">
-        <v>0.7153139117450884</v>
+        <v>0.6922564538996161</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11802,25 +11802,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H266" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I266" t="n">
-        <v>0.5453126587066739</v>
+        <v>0.5383365352798111</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1848322525582627</v>
+        <v>0.1876680750895077</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2698550887350635</v>
+        <v>0.2739953896306813</v>
       </c>
       <c r="L266" t="n">
-        <v>1.905793064855085</v>
+        <v>1.889004995470114</v>
       </c>
       <c r="M266" t="n">
-        <v>0.8243518464098516</v>
+        <v>0.8369996148992044</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11894,25 +11894,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H268" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I268" t="n">
-        <v>0.5749597802763173</v>
+        <v>0.5712035731201578</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1727805771234482</v>
+        <v>0.1743074906015619</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2522596426002345</v>
+        <v>0.2544889362782804</v>
       </c>
       <c r="L268" t="n">
-        <v>1.977138983429187</v>
+        <v>1.968099655638754</v>
       </c>
       <c r="M268" t="n">
-        <v>0.7706013739705792</v>
+        <v>0.7774114080829662</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -11933,25 +11933,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H269" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I269" t="n">
-        <v>0.2724478242251421</v>
+        <v>0.2742524192229502</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3297783524061503</v>
+        <v>0.3253390487115422</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3977738233687075</v>
+        <v>0.4004085320655075</v>
       </c>
       <c r="L269" t="n">
-        <v>1.215117296044134</v>
+        <v>1.223165789734358</v>
       </c>
       <c r="M269" t="n">
-        <v>1.387108880587158</v>
+        <v>1.376425678200134</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -11972,25 +11972,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="H270" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6358406006651922</v>
+        <v>0.6447226616620562</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1480322761523609</v>
+        <v>0.1444216822511967</v>
       </c>
       <c r="K270" t="n">
-        <v>0.2161271231824469</v>
+        <v>0.2108556560867472</v>
       </c>
       <c r="L270" t="n">
-        <v>2.123648925178024</v>
+        <v>2.145023641072916</v>
       </c>
       <c r="M270" t="n">
-        <v>0.6602239516395296</v>
+        <v>0.6441207028403373</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12011,25 +12011,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H271" t="n">
-        <v>90.8794818878</v>
+        <v>91.23871922470001</v>
       </c>
       <c r="I271" t="n">
-        <v>0.2476217083072804</v>
+        <v>0.2441319300829224</v>
       </c>
       <c r="J271" t="n">
-        <v>0.3908505975640902</v>
+        <v>0.3994354519960112</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3615276941286293</v>
+        <v>0.3564326179210666</v>
       </c>
       <c r="L271" t="n">
-        <v>1.10439281905047</v>
+        <v>1.088828408169834</v>
       </c>
       <c r="M271" t="n">
-        <v>1.5340794868209</v>
+        <v>1.5547389739091</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12050,25 +12050,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H272" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I272" t="n">
-        <v>0.3680058908336556</v>
+        <v>0.3591090323825342</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2569081744578636</v>
+        <v>0.2605247835843357</v>
       </c>
       <c r="K272" t="n">
-        <v>0.3750859347084808</v>
+        <v>0.3803661840331301</v>
       </c>
       <c r="L272" t="n">
-        <v>1.479103607209447</v>
+        <v>1.457693281180733</v>
       </c>
       <c r="M272" t="n">
-        <v>1.145810458082071</v>
+        <v>1.161940534786137</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -12089,25 +12089,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H273" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4499710567070856</v>
+        <v>0.4609866081224051</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2235890013385831</v>
+        <v>0.2191111349095914</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3264399419543313</v>
+        <v>0.3199022569680035</v>
       </c>
       <c r="L273" t="n">
-        <v>1.676353112075588</v>
+        <v>1.702862081335219</v>
       </c>
       <c r="M273" t="n">
-        <v>0.9972069459700806</v>
+        <v>0.9772356616967779</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12128,25 +12128,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H274" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5259665622275816</v>
+        <v>0.5174920682417182</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1926965194196823</v>
+        <v>0.1961414356740983</v>
       </c>
       <c r="K274" t="n">
-        <v>0.2813369183527361</v>
+        <v>0.2863664960841834</v>
       </c>
       <c r="L274" t="n">
-        <v>1.859236605035481</v>
+        <v>1.838842700809338</v>
       </c>
       <c r="M274" t="n">
-        <v>0.859426476611783</v>
+        <v>0.8747908031064782</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12273,25 +12273,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H277" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4585729087455935</v>
+        <v>0.4350561095403142</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2200923135180514</v>
+        <v>0.2296519879917422</v>
       </c>
       <c r="K277" t="n">
-        <v>0.321334777736355</v>
+        <v>0.3352919024679436</v>
       </c>
       <c r="L277" t="n">
-        <v>1.697053503973136</v>
+        <v>1.640460231088886</v>
       </c>
       <c r="M277" t="n">
-        <v>0.9816117182905093</v>
+        <v>1.02424786644317</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12365,25 +12365,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H279" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I279" t="n">
-        <v>0.2900488343285144</v>
+        <v>0.2829801291462012</v>
       </c>
       <c r="J279" t="n">
-        <v>0.2885980348258071</v>
+        <v>0.3038688823003449</v>
       </c>
       <c r="K279" t="n">
-        <v>0.4213531308456784</v>
+        <v>0.4131509885534538</v>
       </c>
       <c r="L279" t="n">
-        <v>1.291499633831222</v>
+        <v>1.262091375992057</v>
       </c>
       <c r="M279" t="n">
-        <v>1.2871472353231</v>
+        <v>1.324757635454489</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12457,25 +12457,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H281" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2438910831240397</v>
+        <v>0.2372520939895569</v>
       </c>
       <c r="J281" t="n">
-        <v>0.4000279355148623</v>
+        <v>0.4163598487856899</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3560809813610981</v>
+        <v>0.3463880572247531</v>
       </c>
       <c r="L281" t="n">
-        <v>1.087754230733217</v>
+        <v>1.058144339193424</v>
       </c>
       <c r="M281" t="n">
-        <v>1.556164787905685</v>
+        <v>1.595467603581823</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12496,25 +12496,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H282" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I282" t="n">
-        <v>0.4623037065375051</v>
+        <v>0.4492212380138921</v>
       </c>
       <c r="J282" t="n">
-        <v>0.2185757290497946</v>
+        <v>0.2238938056854097</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3191205644127001</v>
+        <v>0.3268849563006982</v>
       </c>
       <c r="L282" t="n">
-        <v>1.706031684025216</v>
+        <v>1.674548670342374</v>
       </c>
       <c r="M282" t="n">
-        <v>0.9748477515620841</v>
+        <v>0.9985663733569274</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12535,25 +12535,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H283" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I283" t="n">
-        <v>0.352952711230504</v>
+        <v>0.3666063082546261</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2630273531583317</v>
+        <v>0.2574771104655992</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3840199356111643</v>
+        <v>0.3759165812797748</v>
       </c>
       <c r="L283" t="n">
-        <v>1.442878069302676</v>
+        <v>1.475735506043653</v>
       </c>
       <c r="M283" t="n">
-        <v>1.173101995086159</v>
+        <v>1.148347912676572</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -12574,25 +12574,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H284" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I284" t="n">
-        <v>0.6464080256278086</v>
+        <v>0.6592327630424755</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1437365749480453</v>
+        <v>0.1385232670559043</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2098553994241461</v>
+        <v>0.2022439699016203</v>
       </c>
       <c r="L284" t="n">
-        <v>2.149079476307572</v>
+        <v>2.179942259029047</v>
       </c>
       <c r="M284" t="n">
-        <v>0.641065124268282</v>
+        <v>0.6178137710693332</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12613,25 +12613,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H285" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I285" t="n">
-        <v>0.244315804604678</v>
+        <v>0.2389823336110285</v>
       </c>
       <c r="J285" t="n">
-        <v>0.3989831206724922</v>
+        <v>0.41210345931687</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3567010747228299</v>
+        <v>0.3489142070721015</v>
       </c>
       <c r="L285" t="n">
-        <v>1.089648488536864</v>
+        <v>1.065861207905187</v>
       </c>
       <c r="M285" t="n">
-        <v>1.553650436740306</v>
+        <v>1.585224585022712</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12652,25 +12652,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H286" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5882633981609233</v>
+        <v>0.5821793603715678</v>
       </c>
       <c r="J286" t="n">
-        <v>0.1673726023736084</v>
+        <v>0.1698457884668423</v>
       </c>
       <c r="K286" t="n">
-        <v>0.2443639994654683</v>
+        <v>0.2479748511615898</v>
       </c>
       <c r="L286" t="n">
-        <v>2.009154193948238</v>
+        <v>1.994512932276293</v>
       </c>
       <c r="M286" t="n">
-        <v>0.7464818065862937</v>
+        <v>0.7575122165621169</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12691,25 +12691,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H287" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I287" t="n">
-        <v>0.2685448713398686</v>
+        <v>0.2713102215813599</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3393796165039232</v>
+        <v>0.3325768549098548</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3920755121562082</v>
+        <v>0.3961129235087854</v>
       </c>
       <c r="L287" t="n">
-        <v>1.197710126175814</v>
+        <v>1.210043588252865</v>
       </c>
       <c r="M287" t="n">
-        <v>1.410214361667978</v>
+        <v>1.39384348823835</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12730,25 +12730,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H288" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I288" t="n">
-        <v>0.6170765469159889</v>
+        <v>0.6141622074009669</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1556599402780533</v>
+        <v>0.1568446311378183</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2272635128059578</v>
+        <v>0.2289931614612147</v>
       </c>
       <c r="L288" t="n">
-        <v>2.078493153553925</v>
+        <v>2.071479783664115</v>
       </c>
       <c r="M288" t="n">
-        <v>0.6942433336401176</v>
+        <v>0.6995270548746695</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12769,25 +12769,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H289" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="I289" t="n">
-        <v>0.2569173706894325</v>
+        <v>0.258543008783533</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3679832681039961</v>
+        <v>0.3639841983925088</v>
       </c>
       <c r="K289" t="n">
-        <v>0.3750993612065715</v>
+        <v>0.3774727928239582</v>
       </c>
       <c r="L289" t="n">
-        <v>1.145851473274869</v>
+        <v>1.153101819174557</v>
       </c>
       <c r="M289" t="n">
-        <v>1.47904916551856</v>
+        <v>1.469425388001485</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12808,25 +12808,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>92.0576470387</v>
+        <v>92.4373253908</v>
       </c>
       <c r="H290" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I290" t="n">
-        <v>0.6753312548488664</v>
+        <v>0.6843855713608279</v>
       </c>
       <c r="J290" t="n">
-        <v>0.1319791646955828</v>
+        <v>0.1282985482273057</v>
       </c>
       <c r="K290" t="n">
-        <v>0.1926895804555508</v>
+        <v>0.1873158804118663</v>
       </c>
       <c r="L290" t="n">
-        <v>2.21868334500215</v>
+        <v>2.24047259449435</v>
       </c>
       <c r="M290" t="n">
-        <v>0.5886270745422991</v>
+        <v>0.5722115250937835</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12900,25 +12900,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H292" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I292" t="n">
-        <v>0.5688816553916153</v>
+        <v>0.5709121031079596</v>
       </c>
       <c r="J292" t="n">
-        <v>0.1752513595969044</v>
+        <v>0.1744259743463579</v>
       </c>
       <c r="K292" t="n">
-        <v>0.2558669850114804</v>
+        <v>0.2546619225456825</v>
       </c>
       <c r="L292" t="n">
-        <v>1.962511951186326</v>
+        <v>1.967398231869561</v>
       </c>
       <c r="M292" t="n">
-        <v>0.7816210638021934</v>
+        <v>0.7779398455847563</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -13045,25 +13045,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H295" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I295" t="n">
-        <v>0.417571025467147</v>
+        <v>0.3849626605632769</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2367597457450622</v>
+        <v>0.2500151786328143</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3456692287877908</v>
+        <v>0.3650221608039088</v>
       </c>
       <c r="L295" t="n">
-        <v>1.598382305189232</v>
+        <v>1.51991014249374</v>
       </c>
       <c r="M295" t="n">
-        <v>1.055948466022977</v>
+        <v>1.115067696702352</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13137,25 +13137,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H297" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I297" t="n">
-        <v>0.2750692929229411</v>
+        <v>0.2644695934771706</v>
       </c>
       <c r="J297" t="n">
-        <v>0.3233295394095649</v>
+        <v>0.3494048000461602</v>
       </c>
       <c r="K297" t="n">
-        <v>0.401601167667494</v>
+        <v>0.3861256064766691</v>
       </c>
       <c r="L297" t="n">
-        <v>1.226809046436317</v>
+        <v>1.179534386908181</v>
       </c>
       <c r="M297" t="n">
-        <v>1.371589785896189</v>
+        <v>1.43434000661515</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13176,25 +13176,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H298" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I298" t="n">
-        <v>0.6858535821759715</v>
+        <v>0.7093688757972622</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1277017958634263</v>
+        <v>0.1181427334157471</v>
       </c>
       <c r="K298" t="n">
-        <v>0.1864446219606023</v>
+        <v>0.1724883907869907</v>
       </c>
       <c r="L298" t="n">
-        <v>2.244005368488517</v>
+        <v>2.300595018178777</v>
       </c>
       <c r="M298" t="n">
-        <v>0.5695500095508811</v>
+        <v>0.5269165910342319</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13215,25 +13215,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H299" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2273941549239336</v>
+        <v>0.2164903254007104</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4406103788871231</v>
+        <v>0.4674337995142523</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3319954661889432</v>
+        <v>0.3160758750850372</v>
       </c>
       <c r="L299" t="n">
-        <v>1.014177930960744</v>
+        <v>0.9655468512871684</v>
       </c>
       <c r="M299" t="n">
-        <v>1.653826602850312</v>
+        <v>1.718377273627794</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13254,25 +13254,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H300" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I300" t="n">
-        <v>0.505564313258273</v>
+        <v>0.5029396992071447</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2009901165616776</v>
+        <v>0.2020570328426242</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2934455701800494</v>
+        <v>0.2950032679502312</v>
       </c>
       <c r="L300" t="n">
-        <v>1.810138509954868</v>
+        <v>1.803822365571665</v>
       </c>
       <c r="M300" t="n">
-        <v>0.8964159198650823</v>
+        <v>0.9011743664781038</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13399,25 +13399,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H303" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I303" t="n">
-        <v>0.227830398189487</v>
+        <v>0.2182644113408529</v>
       </c>
       <c r="J303" t="n">
-        <v>0.439537220453862</v>
+        <v>0.4630695481015017</v>
       </c>
       <c r="K303" t="n">
-        <v>0.332632381356651</v>
+        <v>0.3186660405576453</v>
       </c>
       <c r="L303" t="n">
-        <v>1.016123575925112</v>
+        <v>0.9734592745802042</v>
       </c>
       <c r="M303" t="n">
-        <v>1.651244042718237</v>
+        <v>1.70787468486215</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13438,25 +13438,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H304" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I304" t="n">
-        <v>0.6295113301752071</v>
+        <v>0.6335096332505368</v>
       </c>
       <c r="J304" t="n">
-        <v>0.1506051503352817</v>
+        <v>0.1489798238818957</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2198835194895112</v>
+        <v>0.2175105428675677</v>
       </c>
       <c r="L304" t="n">
-        <v>2.108417510015133</v>
+        <v>2.118039442619178</v>
       </c>
       <c r="M304" t="n">
-        <v>0.6716989704953563</v>
+        <v>0.6644500145132547</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13477,25 +13477,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H305" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2529746014289432</v>
+        <v>0.252005685399751</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3776824804847996</v>
+        <v>0.3800660139166123</v>
       </c>
       <c r="K305" t="n">
-        <v>0.3693429180862571</v>
+        <v>0.3679283006836365</v>
       </c>
       <c r="L305" t="n">
-        <v>1.128266722373087</v>
+        <v>1.12394535688289</v>
       </c>
       <c r="M305" t="n">
-        <v>1.502390359540656</v>
+        <v>1.508126342433473</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -13516,25 +13516,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H306" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I306" t="n">
-        <v>0.6571204206216185</v>
+        <v>0.6638321312454833</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1393819428367405</v>
+        <v>0.1366536051847629</v>
       </c>
       <c r="K306" t="n">
-        <v>0.2034976365416411</v>
+        <v>0.1995142635697539</v>
       </c>
       <c r="L306" t="n">
-        <v>2.174858898406497</v>
+        <v>2.191010657306204</v>
       </c>
       <c r="M306" t="n">
-        <v>0.6216434650518625</v>
+        <v>0.6094750791240426</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13555,25 +13555,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H307" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2408443327504015</v>
+        <v>0.2385440183940897</v>
       </c>
       <c r="J307" t="n">
-        <v>0.4075229414340124</v>
+        <v>0.4131817147505393</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3516327258155861</v>
+        <v>0.3482742668553709</v>
       </c>
       <c r="L307" t="n">
-        <v>1.074165724066791</v>
+        <v>1.06390632203764</v>
       </c>
       <c r="M307" t="n">
-        <v>1.574201550117623</v>
+        <v>1.587819411106989</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13594,25 +13594,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="H308" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I308" t="n">
-        <v>0.712125167228992</v>
+        <v>0.7290043227681562</v>
       </c>
       <c r="J308" t="n">
-        <v>0.1170222897443122</v>
+        <v>0.1101608444031885</v>
       </c>
       <c r="K308" t="n">
-        <v>0.1708525430266958</v>
+        <v>0.1608348328286552</v>
       </c>
       <c r="L308" t="n">
-        <v>2.307228044713672</v>
+        <v>2.347847801133124</v>
       </c>
       <c r="M308" t="n">
-        <v>0.5219194122596325</v>
+        <v>0.4913173660382208</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13633,25 +13633,25 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H309" t="n">
-        <v>93.2242913626</v>
+        <v>93.8883219965</v>
       </c>
       <c r="I309" t="n">
-        <v>0.2142945425914556</v>
+        <v>0.206229793459822</v>
       </c>
       <c r="J309" t="n">
-        <v>0.472835425225019</v>
+        <v>0.492674708088838</v>
       </c>
       <c r="K309" t="n">
-        <v>0.3128700321835253</v>
+        <v>0.30109549845134</v>
       </c>
       <c r="L309" t="n">
-        <v>0.9557536599578922</v>
+        <v>0.9197848788308058</v>
       </c>
       <c r="M309" t="n">
-        <v>1.731376307858582</v>
+        <v>1.779119622717854</v>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
@@ -13672,25 +13672,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H310" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I310" t="n">
-        <v>0.2742198214530991</v>
+        <v>0.2858307513920713</v>
       </c>
       <c r="J310" t="n">
-        <v>0.3254192392253761</v>
+        <v>0.2968563515755046</v>
       </c>
       <c r="K310" t="n">
-        <v>0.4003609393215247</v>
+        <v>0.4173128970324241</v>
       </c>
       <c r="L310" t="n">
-        <v>1.223020403680822</v>
+        <v>1.274805151208638</v>
       </c>
       <c r="M310" t="n">
-        <v>1.376618656997653</v>
+        <v>1.307881951758938</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13711,25 +13711,25 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H311" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I311" t="n">
-        <v>0.5773705107149889</v>
+        <v>0.5450508635775415</v>
       </c>
       <c r="J311" t="n">
-        <v>0.171800605400411</v>
+        <v>0.1849386733424628</v>
       </c>
       <c r="K311" t="n">
-        <v>0.2508288838846001</v>
+        <v>0.2700104630799957</v>
       </c>
       <c r="L311" t="n">
-        <v>1.982940416029567</v>
+        <v>1.90516305381262</v>
       </c>
       <c r="M311" t="n">
-        <v>0.766230700085833</v>
+        <v>0.8248264831073842</v>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
@@ -13750,25 +13750,25 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H312" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I312" t="n">
-        <v>0.4084616383953167</v>
+        <v>0.4365457495228113</v>
       </c>
       <c r="J312" t="n">
-        <v>0.2404627486197899</v>
+        <v>0.22904644328341</v>
       </c>
       <c r="K312" t="n">
-        <v>0.3510756129848933</v>
+        <v>0.3344078071937786</v>
       </c>
       <c r="L312" t="n">
-        <v>1.576460528170843</v>
+        <v>1.644045055762213</v>
       </c>
       <c r="M312" t="n">
-        <v>1.072463858844263</v>
+        <v>1.021547137044009</v>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
@@ -13789,25 +13789,25 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H313" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I313" t="n">
-        <v>0.3972182163933314</v>
+        <v>0.3706484254670552</v>
       </c>
       <c r="J313" t="n">
-        <v>0.2450332453685644</v>
+        <v>0.255833973387376</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3577485382381041</v>
+        <v>0.3735176011455689</v>
       </c>
       <c r="L313" t="n">
-        <v>1.549403187418098</v>
+        <v>1.485462877546734</v>
       </c>
       <c r="M313" t="n">
-        <v>1.092848274343797</v>
+        <v>1.141019521307697</v>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
@@ -13828,25 +13828,25 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H314" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I314" t="n">
-        <v>0.5275407093051782</v>
+        <v>0.5540681321549042</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1920566222336674</v>
+        <v>0.1812731170102015</v>
       </c>
       <c r="K314" t="n">
-        <v>0.2804026684611544</v>
+        <v>0.2646587508348943</v>
       </c>
       <c r="L314" t="n">
-        <v>1.863024796376689</v>
+        <v>1.926863147299607</v>
       </c>
       <c r="M314" t="n">
-        <v>0.8565725351621567</v>
+        <v>0.808478101865499</v>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
@@ -13920,25 +13920,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H316" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I316" t="n">
-        <v>0.3433789604523406</v>
+        <v>0.3399671967915703</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2669191217673413</v>
+        <v>0.2683060175644023</v>
       </c>
       <c r="K316" t="n">
-        <v>0.3897019177803182</v>
+        <v>0.3917267856440274</v>
       </c>
       <c r="L316" t="n">
-        <v>1.41983879913734</v>
+        <v>1.411628376018738</v>
       </c>
       <c r="M316" t="n">
-        <v>1.190459283082342</v>
+        <v>1.196644838337234</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -13959,25 +13959,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H317" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I317" t="n">
-        <v>0.4680416609046447</v>
+        <v>0.4738093107052352</v>
       </c>
       <c r="J317" t="n">
-        <v>0.2162432272745347</v>
+        <v>0.2138986541848637</v>
       </c>
       <c r="K317" t="n">
-        <v>0.3157151118208206</v>
+        <v>0.312292035109901</v>
       </c>
       <c r="L317" t="n">
-        <v>1.719840094534755</v>
+        <v>1.733719967225607</v>
       </c>
       <c r="M317" t="n">
-        <v>0.9644447936444247</v>
+        <v>0.9539879976644922</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -13998,25 +13998,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H318" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I318" t="n">
-        <v>0.5264968446124904</v>
+        <v>0.5498969467819925</v>
       </c>
       <c r="J318" t="n">
-        <v>0.1924809574745975</v>
+        <v>0.1829687208203283</v>
       </c>
       <c r="K318" t="n">
-        <v>0.2810221979129123</v>
+        <v>0.2671343323976793</v>
       </c>
       <c r="L318" t="n">
-        <v>1.860512731750383</v>
+        <v>1.916825172743657</v>
       </c>
       <c r="M318" t="n">
-        <v>0.8584650703367046</v>
+        <v>0.816040494858664</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -14037,25 +14037,25 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H319" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I319" t="n">
-        <v>0.2879805310995012</v>
+        <v>0.2802356945525022</v>
       </c>
       <c r="J319" t="n">
-        <v>0.2915678934952269</v>
+        <v>0.3106201914008446</v>
       </c>
       <c r="K319" t="n">
-        <v>0.4204515754052718</v>
+        <v>0.4091441140466532</v>
       </c>
       <c r="L319" t="n">
-        <v>1.284393168703776</v>
+        <v>1.24985119770416</v>
       </c>
       <c r="M319" t="n">
-        <v>1.295155255890953</v>
+        <v>1.341004688249187</v>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
@@ -14076,25 +14076,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H320" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I320" t="n">
-        <v>0.4649551681456102</v>
+        <v>0.4680694220802482</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2174978991278007</v>
+        <v>0.2162319422438016</v>
       </c>
       <c r="K320" t="n">
-        <v>0.3175469327265891</v>
+        <v>0.3156986356759503</v>
       </c>
       <c r="L320" t="n">
-        <v>1.71241243716342</v>
+        <v>1.719906901916695</v>
       </c>
       <c r="M320" t="n">
-        <v>0.9700406301099913</v>
+        <v>0.964394462407355</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -14115,25 +14115,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H321" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I321" t="n">
-        <v>0.341597074581477</v>
+        <v>0.3403298753142972</v>
       </c>
       <c r="J321" t="n">
-        <v>0.2676434656172858</v>
+        <v>0.2681585872706109</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3907594598012372</v>
+        <v>0.3915115374150919</v>
       </c>
       <c r="L321" t="n">
-        <v>1.415550683545668</v>
+        <v>1.412501163357984</v>
       </c>
       <c r="M321" t="n">
-        <v>1.193689856653095</v>
+        <v>1.195987299226924</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -14207,25 +14207,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H323" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="I323" t="n">
-        <v>0.314025368808636</v>
+        <v>0.3099688684204557</v>
       </c>
       <c r="J323" t="n">
-        <v>0.2788514760940504</v>
+        <v>0.2805004599916847</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4071231550973136</v>
+        <v>0.4095306715878596</v>
       </c>
       <c r="L323" t="n">
-        <v>1.349199261523222</v>
+        <v>1.339437276849227</v>
       </c>
       <c r="M323" t="n">
-        <v>1.243677583379465</v>
+        <v>1.251032051562913</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14246,25 +14246,25 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>88.7111050262</v>
+        <v>89.3437110878</v>
       </c>
       <c r="H324" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5585297803469904</v>
+        <v>0.5779533875657176</v>
       </c>
       <c r="J324" t="n">
-        <v>0.1794594388833372</v>
+        <v>0.1715636635911718</v>
       </c>
       <c r="K324" t="n">
-        <v>0.2620107807696723</v>
+        <v>0.2504829488431108</v>
       </c>
       <c r="L324" t="n">
-        <v>1.937600121810644</v>
+        <v>1.984343111540263</v>
       </c>
       <c r="M324" t="n">
-        <v>0.800389097419684</v>
+        <v>0.7651739396166262</v>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
@@ -14391,25 +14391,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H327" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I327" t="n">
-        <v>0.2720846522344501</v>
+        <v>0.2736414133830563</v>
       </c>
       <c r="J327" t="n">
-        <v>0.330671755503253</v>
+        <v>0.3268421230776815</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3972435922622971</v>
+        <v>0.3995164635392622</v>
       </c>
       <c r="L327" t="n">
-        <v>1.213497548965647</v>
+        <v>1.220440703688431</v>
       </c>
       <c r="M327" t="n">
-        <v>1.389258858772056</v>
+        <v>1.380042832772307</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14430,25 +14430,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H328" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I328" t="n">
-        <v>0.6932810273992802</v>
+        <v>0.6872815642879454</v>
       </c>
       <c r="J328" t="n">
-        <v>0.1246825091872844</v>
+        <v>0.1271213153301035</v>
       </c>
       <c r="K328" t="n">
-        <v>0.1820364634134353</v>
+        <v>0.1855971203819511</v>
       </c>
       <c r="L328" t="n">
-        <v>2.261879545611276</v>
+        <v>2.247441813245787</v>
       </c>
       <c r="M328" t="n">
-        <v>0.5560839909752886</v>
+        <v>0.5669610663722615</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14522,25 +14522,25 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H330" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I330" t="n">
-        <v>0.5142353244343937</v>
+        <v>0.4767365455538693</v>
       </c>
       <c r="J330" t="n">
-        <v>0.1974653152705717</v>
+        <v>0.2127087213195653</v>
       </c>
       <c r="K330" t="n">
-        <v>0.2882993602950347</v>
+        <v>0.3105547331265653</v>
       </c>
       <c r="L330" t="n">
-        <v>1.831005333598215</v>
+        <v>1.740764369788173</v>
       </c>
       <c r="M330" t="n">
-        <v>0.8806953061067498</v>
+        <v>0.9486808970852613</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
@@ -14561,25 +14561,25 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H331" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I331" t="n">
-        <v>0.3087194672745036</v>
+        <v>0.3422591695522421</v>
       </c>
       <c r="J331" t="n">
-        <v>0.2810083466363807</v>
+        <v>0.2673743213202268</v>
       </c>
       <c r="K331" t="n">
-        <v>0.4102721860891158</v>
+        <v>0.3903665091275311</v>
       </c>
       <c r="L331" t="n">
-        <v>1.336430587912627</v>
+        <v>1.417144017784257</v>
       </c>
       <c r="M331" t="n">
-        <v>1.253297225998258</v>
+        <v>1.192489473088211</v>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
@@ -14600,25 +14600,25 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H332" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I332" t="n">
-        <v>0.6923898270229291</v>
+        <v>0.6836449789254598</v>
       </c>
       <c r="J332" t="n">
-        <v>0.125044785763037</v>
+        <v>0.1285996020628212</v>
       </c>
       <c r="K332" t="n">
-        <v>0.1825653872140339</v>
+        <v>0.1877554190117189</v>
       </c>
       <c r="L332" t="n">
-        <v>2.259734868282821</v>
+        <v>2.238690355788098</v>
       </c>
       <c r="M332" t="n">
-        <v>0.5576997445031449</v>
+        <v>0.5735542252001826</v>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
@@ -14639,25 +14639,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H333" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I333" t="n">
-        <v>0.2244828909034468</v>
+        <v>0.2284107068459875</v>
       </c>
       <c r="J333" t="n">
-        <v>0.447772088377521</v>
+        <v>0.4381096611588707</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3277450207190323</v>
+        <v>0.3334796319951417</v>
       </c>
       <c r="L333" t="n">
-        <v>1.001193693429373</v>
+        <v>1.018711752533104</v>
       </c>
       <c r="M333" t="n">
-        <v>1.671061285851595</v>
+        <v>1.647808615471754</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14731,25 +14731,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H335" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I335" t="n">
-        <v>0.2497741084115186</v>
+        <v>0.2615411963379492</v>
       </c>
       <c r="J335" t="n">
-        <v>0.3855556933076645</v>
+        <v>0.356608657008645</v>
       </c>
       <c r="K335" t="n">
-        <v>0.364670198280817</v>
+        <v>0.3818501466534058</v>
       </c>
       <c r="L335" t="n">
-        <v>1.113992523515373</v>
+        <v>1.166473735667253</v>
       </c>
       <c r="M335" t="n">
-        <v>1.521337278203811</v>
+        <v>1.451676117679341</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14770,25 +14770,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="H336" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I336" t="n">
-        <v>0.6648952864946004</v>
+        <v>0.6400402107278393</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1362214282542275</v>
+        <v>0.1463251175903092</v>
       </c>
       <c r="K336" t="n">
-        <v>0.1988832852511722</v>
+        <v>0.2136346716818514</v>
       </c>
       <c r="L336" t="n">
-        <v>2.193569144734973</v>
+        <v>2.13375530386537</v>
       </c>
       <c r="M336" t="n">
-        <v>0.6075475700138546</v>
+        <v>0.652610024452779</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14915,25 +14915,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H339" t="n">
-        <v>93.4578390827</v>
+        <v>93.18239902969999</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2109111516915299</v>
+        <v>0.2164599591262276</v>
       </c>
       <c r="J339" t="n">
-        <v>0.4811585668388363</v>
+        <v>0.4675085005494802</v>
       </c>
       <c r="K339" t="n">
-        <v>0.3079302814696337</v>
+        <v>0.3160315403242923</v>
       </c>
       <c r="L339" t="n">
-        <v>0.9406637365442234</v>
+        <v>0.9654114177029751</v>
       </c>
       <c r="M339" t="n">
-        <v>1.751405981986143</v>
+        <v>1.718557041972733</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -15007,25 +15007,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H341" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I341" t="n">
-        <v>0.290288283772112</v>
+        <v>0.2918925282664236</v>
       </c>
       <c r="J341" t="n">
-        <v>0.288500697653613</v>
+        <v>0.2878485657453563</v>
       </c>
       <c r="K341" t="n">
-        <v>0.4212110185742749</v>
+        <v>0.4202589059882201</v>
       </c>
       <c r="L341" t="n">
-        <v>1.292075869890611</v>
+        <v>1.295936490787491</v>
       </c>
       <c r="M341" t="n">
-        <v>1.286713111535114</v>
+        <v>1.283804603224289</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -15099,25 +15099,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H343" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I343" t="n">
-        <v>0.4737502439276002</v>
+        <v>0.5073930021909326</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2139226650700812</v>
+        <v>0.2002467470768567</v>
       </c>
       <c r="K343" t="n">
-        <v>0.3123270910023186</v>
+        <v>0.2923602507322108</v>
       </c>
       <c r="L343" t="n">
-        <v>1.733577822785119</v>
+        <v>1.814539257305009</v>
       </c>
       <c r="M343" t="n">
-        <v>0.9540950862125623</v>
+        <v>0.8931004919627807</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -15138,25 +15138,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H344" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I344" t="n">
-        <v>0.520552926745419</v>
+        <v>0.5151064300095926</v>
       </c>
       <c r="J344" t="n">
-        <v>0.1948971842498297</v>
+        <v>0.1971112073131737</v>
       </c>
       <c r="K344" t="n">
-        <v>0.2845498890047514</v>
+        <v>0.2877823626772337</v>
       </c>
       <c r="L344" t="n">
-        <v>1.846208669241008</v>
+        <v>1.833101652706011</v>
       </c>
       <c r="M344" t="n">
-        <v>0.8692414417542405</v>
+        <v>0.8791159846167549</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -15177,25 +15177,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H345" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I345" t="n">
-        <v>0.2911863644493691</v>
+        <v>0.2955314650995844</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2881356242075735</v>
+        <v>0.2863693231302502</v>
       </c>
       <c r="K345" t="n">
-        <v>0.4206780113430573</v>
+        <v>0.4180992117701653</v>
       </c>
       <c r="L345" t="n">
-        <v>1.294237104691165</v>
+        <v>1.304693607068919</v>
       </c>
       <c r="M345" t="n">
-        <v>1.285084883965778</v>
+        <v>1.277207181160916</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -15216,25 +15216,25 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H346" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I346" t="n">
-        <v>0.459032483318351</v>
+        <v>0.4334702134395295</v>
       </c>
       <c r="J346" t="n">
-        <v>0.2199054945860362</v>
+        <v>0.2302966612034433</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3210620220956129</v>
+        <v>0.3362331253570272</v>
       </c>
       <c r="L346" t="n">
-        <v>1.698159472050666</v>
+        <v>1.636643765675616</v>
       </c>
       <c r="M346" t="n">
-        <v>0.9807785058537215</v>
+        <v>1.027123108967357</v>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
@@ -15255,25 +15255,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H347" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I347" t="n">
-        <v>0.3467687705302334</v>
+        <v>0.3711254530522096</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2655411501909621</v>
+        <v>0.2556400597348741</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3876900792788046</v>
+        <v>0.3732344872129162</v>
       </c>
       <c r="L347" t="n">
-        <v>1.427996390869505</v>
+        <v>1.486610846369545</v>
       </c>
       <c r="M347" t="n">
-        <v>1.184313529851691</v>
+        <v>1.140154666417538</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15294,25 +15294,25 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="H348" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I348" t="n">
-        <v>0.4890339438390597</v>
+        <v>0.4664029793846748</v>
       </c>
       <c r="J348" t="n">
-        <v>0.2077097789272115</v>
+        <v>0.2169093579737094</v>
       </c>
       <c r="K348" t="n">
-        <v>0.3032562772337287</v>
+        <v>0.3166876626416157</v>
       </c>
       <c r="L348" t="n">
-        <v>1.770358108750908</v>
+        <v>1.71589660079564</v>
       </c>
       <c r="M348" t="n">
-        <v>0.9263856140153631</v>
+        <v>0.967415736562744</v>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
@@ -15333,25 +15333,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H349" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I349" t="n">
-        <v>0.3189818710820376</v>
+        <v>0.3394307639860525</v>
       </c>
       <c r="J349" t="n">
-        <v>0.2768366377715294</v>
+        <v>0.2685240796804664</v>
       </c>
       <c r="K349" t="n">
-        <v>0.404181491146433</v>
+        <v>0.392045156333481</v>
       </c>
       <c r="L349" t="n">
-        <v>1.361127104392546</v>
+        <v>1.410337448291639</v>
       </c>
       <c r="M349" t="n">
-        <v>1.234691404461021</v>
+        <v>1.19761739537488</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15425,25 +15425,25 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H351" t="n">
-        <v>88.55071952030001</v>
+        <v>88.4026808181</v>
       </c>
       <c r="I351" t="n">
-        <v>0.2784177680530326</v>
+        <v>0.2816021309822788</v>
       </c>
       <c r="J351" t="n">
-        <v>0.3150922905895396</v>
+        <v>0.3072587577835941</v>
       </c>
       <c r="K351" t="n">
-        <v>0.4064899413574277</v>
+        <v>0.4111391112341271</v>
       </c>
       <c r="L351" t="n">
-        <v>1.241743245516526</v>
+        <v>1.255945504180964</v>
       </c>
       <c r="M351" t="n">
-        <v>1.351766813126047</v>
+        <v>1.33291538458491</v>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
@@ -15464,25 +15464,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H352" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I352" t="n">
-        <v>0.2650915999590593</v>
+        <v>0.2535921338658282</v>
       </c>
       <c r="J352" t="n">
-        <v>0.347874664100714</v>
+        <v>0.3761633506900627</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3870337359402267</v>
+        <v>0.3702445154441091</v>
       </c>
       <c r="L352" t="n">
-        <v>1.182308535817405</v>
+        <v>1.131020917041594</v>
       </c>
       <c r="M352" t="n">
-        <v>1.430657728242369</v>
+        <v>1.498734567514297</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15503,25 +15503,25 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H353" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I353" t="n">
-        <v>0.5927890713889851</v>
+        <v>0.6229030588537851</v>
       </c>
       <c r="J353" t="n">
-        <v>0.1655328978093557</v>
+        <v>0.1532914394903312</v>
       </c>
       <c r="K353" t="n">
-        <v>0.2416780308016593</v>
+        <v>0.2238055016558836</v>
       </c>
       <c r="L353" t="n">
-        <v>2.020045244968614</v>
+        <v>2.092514678217239</v>
       </c>
       <c r="M353" t="n">
-        <v>0.7382767242297262</v>
+        <v>0.6836798201268774</v>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
@@ -15542,25 +15542,25 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H354" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I354" t="n">
-        <v>0.3970986020655251</v>
+        <v>0.3939441709185579</v>
       </c>
       <c r="J354" t="n">
-        <v>0.2450818690790549</v>
+        <v>0.2463641581631878</v>
       </c>
       <c r="K354" t="n">
-        <v>0.3578195288554201</v>
+        <v>0.3596916709182542</v>
       </c>
       <c r="L354" t="n">
-        <v>1.549115335051995</v>
+        <v>1.541524183673928</v>
       </c>
       <c r="M354" t="n">
-        <v>1.093065136092585</v>
+        <v>1.098784145407818</v>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
@@ -15634,25 +15634,25 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H356" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3398269767021553</v>
+        <v>0.3188821816655092</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2683630176007499</v>
+        <v>0.2768771619245898</v>
       </c>
       <c r="K356" t="n">
-        <v>0.3918100056970948</v>
+        <v>0.404240656409901</v>
       </c>
       <c r="L356" t="n">
-        <v>1.411290935803561</v>
+        <v>1.360887201406429</v>
       </c>
       <c r="M356" t="n">
-        <v>1.196899058499344</v>
+        <v>1.23487214218367</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
@@ -15673,25 +15673,25 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H357" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I357" t="n">
-        <v>0.461906463440454</v>
+        <v>0.4862341825862811</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2187372099835553</v>
+        <v>0.2088478932576093</v>
       </c>
       <c r="K357" t="n">
-        <v>0.3193563265759907</v>
+        <v>0.3049179241561096</v>
       </c>
       <c r="L357" t="n">
-        <v>1.705075716897353</v>
+        <v>1.763620471914953</v>
       </c>
       <c r="M357" t="n">
-        <v>0.9755679565266564</v>
+        <v>0.9314616039289374</v>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
@@ -15765,25 +15765,25 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H359" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="I359" t="n">
-        <v>0.4309805460379512</v>
+        <v>0.4517710405019492</v>
       </c>
       <c r="J359" t="n">
-        <v>0.231308721122784</v>
+        <v>0.2228573006089638</v>
       </c>
       <c r="K359" t="n">
-        <v>0.3377107328392647</v>
+        <v>0.3253716588890871</v>
       </c>
       <c r="L359" t="n">
-        <v>1.630652370953118</v>
+        <v>1.680684780394935</v>
       </c>
       <c r="M359" t="n">
-        <v>1.031636896207617</v>
+        <v>0.9939435607159783</v>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
@@ -15804,25 +15804,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>85.1864986245</v>
+        <v>85.09647969549999</v>
       </c>
       <c r="H360" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4283813097011417</v>
+        <v>0.4214948771951328</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2323653212596985</v>
+        <v>0.2351646840670192</v>
       </c>
       <c r="K360" t="n">
-        <v>0.3392533690391598</v>
+        <v>0.343340438737848</v>
       </c>
       <c r="L360" t="n">
-        <v>1.624397298142585</v>
+        <v>1.607825070323246</v>
       </c>
       <c r="M360" t="n">
-        <v>1.036349332818255</v>
+        <v>1.048834490938905</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -15896,25 +15896,25 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H362" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I362" t="n">
-        <v>0.591777812980991</v>
+        <v>0.6189329148323142</v>
       </c>
       <c r="J362" t="n">
-        <v>0.1659439784630118</v>
+        <v>0.154905319173856</v>
       </c>
       <c r="K362" t="n">
-        <v>0.2422782085559973</v>
+        <v>0.2261617659938297</v>
       </c>
       <c r="L362" t="n">
-        <v>2.01761164749897</v>
+        <v>2.082960510490772</v>
       </c>
       <c r="M362" t="n">
-        <v>0.7401101439450328</v>
+        <v>0.6908777235153977</v>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
@@ -15935,25 +15935,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H363" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I363" t="n">
-        <v>0.2654929637213448</v>
+        <v>0.2552618165721734</v>
       </c>
       <c r="J363" t="n">
-        <v>0.3468873092454917</v>
+        <v>0.3720559312324535</v>
       </c>
       <c r="K363" t="n">
-        <v>0.3876197270331634</v>
+        <v>0.3726822521953731</v>
       </c>
       <c r="L363" t="n">
-        <v>1.184098618197198</v>
+        <v>1.138467701911893</v>
       </c>
       <c r="M363" t="n">
-        <v>1.428281654769638</v>
+        <v>1.488850045892733</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -15974,25 +15974,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H364" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I364" t="n">
-        <v>0.5311653781053965</v>
+        <v>0.539137463824658</v>
       </c>
       <c r="J364" t="n">
-        <v>0.1905831796319526</v>
+        <v>0.1873424943802203</v>
       </c>
       <c r="K364" t="n">
-        <v>0.2782514422626509</v>
+        <v>0.2735200417951217</v>
       </c>
       <c r="L364" t="n">
-        <v>1.871747576578841</v>
+        <v>1.890932433269096</v>
       </c>
       <c r="M364" t="n">
-        <v>0.8500009811585088</v>
+        <v>0.8355475249357827</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -16066,25 +16066,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H366" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I366" t="n">
-        <v>0.5609923249296755</v>
+        <v>0.5719928156607931</v>
       </c>
       <c r="J366" t="n">
-        <v>0.1784584045001319</v>
+        <v>0.1739866603004906</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2605492705701925</v>
+        <v>0.2540205240387163</v>
       </c>
       <c r="L366" t="n">
-        <v>1.943526245359219</v>
+        <v>1.969998971021096</v>
       </c>
       <c r="M366" t="n">
-        <v>0.7959244840705881</v>
+        <v>0.7759805049401882</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -16158,25 +16158,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="H368" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I368" t="n">
-        <v>0.6225604382093678</v>
+        <v>0.6454605760560926</v>
       </c>
       <c r="J368" t="n">
-        <v>0.1534307161750537</v>
+        <v>0.1441217170503688</v>
       </c>
       <c r="K368" t="n">
-        <v>0.2240088456155785</v>
+        <v>0.2104177068935384</v>
       </c>
       <c r="L368" t="n">
-        <v>2.091690160243682</v>
+        <v>2.146799435061816</v>
       </c>
       <c r="M368" t="n">
-        <v>0.6843009941407396</v>
+        <v>0.6427828580446449</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -16197,25 +16197,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H369" t="n">
-        <v>90.496326364</v>
+        <v>91.2604129005</v>
       </c>
       <c r="I369" t="n">
-        <v>0.2528865076559315</v>
+        <v>0.2438296278718709</v>
       </c>
       <c r="J369" t="n">
-        <v>0.3778991911664085</v>
+        <v>0.4001791154351975</v>
       </c>
       <c r="K369" t="n">
-        <v>0.36921430117766</v>
+        <v>0.3559912566929315</v>
       </c>
       <c r="L369" t="n">
-        <v>1.127873824145455</v>
+        <v>1.087480140308544</v>
       </c>
       <c r="M369" t="n">
-        <v>1.502911874676885</v>
+        <v>1.556528602998524</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16289,25 +16289,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H371" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I371" t="n">
-        <v>0.460865785652569</v>
+        <v>0.4820216677859964</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2191602497347281</v>
+        <v>0.210560297647969</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3199739646127029</v>
+        <v>0.3074180345660347</v>
       </c>
       <c r="L371" t="n">
-        <v>1.70257132157041</v>
+        <v>1.753483037924024</v>
       </c>
       <c r="M371" t="n">
-        <v>0.9774547138168872</v>
+        <v>0.9390989275099415</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16328,25 +16328,25 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H372" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I372" t="n">
-        <v>0.3683403913047116</v>
+        <v>0.3524571146286329</v>
       </c>
       <c r="J372" t="n">
-        <v>0.2567721986566213</v>
+        <v>0.2632288151916126</v>
       </c>
       <c r="K372" t="n">
-        <v>0.3748874100386671</v>
+        <v>0.3843140701797544</v>
       </c>
       <c r="L372" t="n">
-        <v>1.479908583952802</v>
+        <v>1.441685414065653</v>
       </c>
       <c r="M372" t="n">
-        <v>1.145204006008531</v>
+        <v>1.174000515754592</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
@@ -16367,25 +16367,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H373" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="I373" t="n">
-        <v>0.4299538709597336</v>
+        <v>0.4475969794894482</v>
       </c>
       <c r="J373" t="n">
-        <v>0.2317260687155554</v>
+        <v>0.2245540733782731</v>
       </c>
       <c r="K373" t="n">
-        <v>0.338320060324711</v>
+        <v>0.3278489471322787</v>
       </c>
       <c r="L373" t="n">
-        <v>1.628181673203912</v>
+        <v>1.670639885600623</v>
       </c>
       <c r="M373" t="n">
-        <v>1.033498266471377</v>
+        <v>1.001511167267098</v>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
@@ -16406,25 +16406,25 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="n">
-        <v>85.21581244470001</v>
+        <v>85.21454978929999</v>
       </c>
       <c r="H374" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I374" t="n">
-        <v>0.4294481009651281</v>
+        <v>0.4257780150760662</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2319316662743382</v>
+        <v>0.2334235711072901</v>
       </c>
       <c r="K374" t="n">
-        <v>0.3386202327605338</v>
+        <v>0.3407984138166436</v>
       </c>
       <c r="L374" t="n">
-        <v>1.626964535655918</v>
+        <v>1.618132459044842</v>
       </c>
       <c r="M374" t="n">
-        <v>1.034415231583548</v>
+        <v>1.041069127138514</v>
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
@@ -16551,25 +16551,25 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H377" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I377" t="n">
-        <v>0.3708584834514643</v>
+        <v>0.3685283619109469</v>
       </c>
       <c r="J377" t="n">
-        <v>0.2557485839628194</v>
+        <v>0.2566957878410785</v>
       </c>
       <c r="K377" t="n">
-        <v>0.3733929325857163</v>
+        <v>0.3747758502479747</v>
       </c>
       <c r="L377" t="n">
-        <v>1.485968382940109</v>
+        <v>1.480360935980815</v>
       </c>
       <c r="M377" t="n">
-        <v>1.140638684474174</v>
+        <v>1.14486321377121</v>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
@@ -16590,25 +16590,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="H378" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I378" t="n">
-        <v>0.4930636773209454</v>
+        <v>0.5105431332115101</v>
       </c>
       <c r="J378" t="n">
-        <v>0.2060716758857946</v>
+        <v>0.1989662060115812</v>
       </c>
       <c r="K378" t="n">
-        <v>0.3008646467932601</v>
+        <v>0.2904906607769086</v>
       </c>
       <c r="L378" t="n">
-        <v>1.780055678756096</v>
+        <v>1.822120060411439</v>
       </c>
       <c r="M378" t="n">
-        <v>0.919079674450644</v>
+        <v>0.8873892788116524</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16629,25 +16629,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H379" t="n">
-        <v>86.9412866479</v>
+        <v>87.51160464020001</v>
       </c>
       <c r="I379" t="n">
-        <v>0.3113136105311186</v>
+        <v>0.2973268491049902</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2799538168572689</v>
+        <v>0.2856394922337439</v>
       </c>
       <c r="K379" t="n">
-        <v>0.4087325726116126</v>
+        <v>0.417033658661266</v>
       </c>
       <c r="L379" t="n">
-        <v>1.342673404204968</v>
+        <v>1.309014205976237</v>
       </c>
       <c r="M379" t="n">
-        <v>1.248594023183419</v>
+        <v>1.273952135362498</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16668,25 +16668,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="H380" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="I380" t="n">
-        <v>0.4618421512736423</v>
+        <v>0.4759531829306355</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2187633531407958</v>
+        <v>0.2130271614103108</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3193944955855619</v>
+        <v>0.3110196556590537</v>
       </c>
       <c r="L380" t="n">
-        <v>1.704920949406489</v>
+        <v>1.73887920445096</v>
       </c>
       <c r="M380" t="n">
-        <v>0.9756845550079494</v>
+        <v>0.9501011398899859</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
@@ -16707,25 +16707,25 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="n">
-        <v>84.31203815969999</v>
+        <v>84.4156878818</v>
       </c>
       <c r="H381" t="n">
-        <v>86.0987176703</v>
+        <v>86.57979481700001</v>
       </c>
       <c r="I381" t="n">
-        <v>0.3376871382384866</v>
+        <v>0.3258656762105358</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2692328706347616</v>
+        <v>0.2740383430038473</v>
       </c>
       <c r="K381" t="n">
-        <v>0.3930799911267519</v>
+        <v>0.400095980785617</v>
       </c>
       <c r="L381" t="n">
-        <v>1.406141405842212</v>
+        <v>1.377693009417224</v>
       </c>
       <c r="M381" t="n">
-        <v>1.200778603031037</v>
+        <v>1.222211009797159</v>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>

--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3562320289363237</v>
+        <v>0.3558760582762761</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2616942971803562</v>
+        <v>0.2618390007007008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3820736738833201</v>
+        <v>0.3822849410230231</v>
       </c>
       <c r="L3" t="n">
-        <v>1.450769760692291</v>
+        <v>1.449913115851851</v>
       </c>
       <c r="M3" t="n">
-        <v>1.167156565424389</v>
+        <v>1.167801943125126</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -621,22 +621,22 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.529423403644544</v>
+        <v>0.5300755813080087</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1912912993314862</v>
+        <v>0.1910261864601591</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2792852970239698</v>
+        <v>0.2788982322318322</v>
       </c>
       <c r="L4" t="n">
-        <v>1.867555507957602</v>
+        <v>1.869124976155858</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8531591950184283</v>
+        <v>0.8519767916123095</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7105018230049117</v>
+        <v>0.7119368772851825</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1176821857703611</v>
+        <v>0.1170988303718771</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1718159912247272</v>
+        <v>0.1709642923429405</v>
       </c>
       <c r="L6" t="n">
-        <v>2.303321460239462</v>
+        <v>2.306774924198488</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5248625485358105</v>
+        <v>0.5222607834585717</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -749,25 +749,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2231044329996649</v>
+        <v>0.222372747082201</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4511630948208245</v>
+        <v>0.4529630421777856</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3257324721795107</v>
+        <v>0.3246642107400134</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9950457711785052</v>
+        <v>0.9917824519866165</v>
       </c>
       <c r="M7" t="n">
-        <v>1.679221756641984</v>
+        <v>1.68355333727337</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -791,22 +791,22 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6062555345815391</v>
+        <v>0.6073070995274786</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1600587257798621</v>
+        <v>0.1596312603546834</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2336857396385987</v>
+        <v>0.2330616401178378</v>
       </c>
       <c r="L8" t="n">
-        <v>2.052452343383216</v>
+        <v>2.054982938700274</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7138619169781851</v>
+        <v>0.7119554211818881</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -827,25 +827,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.269889079841975</v>
+        <v>0.2694730277290273</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3360728635887414</v>
+        <v>0.337096351786593</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3940380565692835</v>
+        <v>0.3934306204843798</v>
       </c>
       <c r="L9" t="n">
-        <v>1.203705296095209</v>
+        <v>1.201849703671461</v>
       </c>
       <c r="M9" t="n">
-        <v>1.402256647335508</v>
+        <v>1.404719675844159</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -869,22 +869,22 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I10" t="n">
-        <v>0.70863980640017</v>
+        <v>0.7100810930423624</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1184391030893618</v>
+        <v>0.1178532142104218</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1729210905104682</v>
+        <v>0.1720656927472158</v>
       </c>
       <c r="L10" t="n">
-        <v>2.298840509710978</v>
+        <v>2.302308971874303</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5282383997785535</v>
+        <v>0.5256253353784811</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -905,25 +905,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2240498454795342</v>
+        <v>0.2233184436824242</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4488373801203459</v>
+        <v>0.4506366285412364</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3271127744001199</v>
+        <v>0.3260449277763394</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9992623108387224</v>
+        <v>0.9960002588236121</v>
       </c>
       <c r="M11" t="n">
-        <v>1.673624914761157</v>
+        <v>1.677954813400048</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -947,22 +947,22 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.836521604911889</v>
+        <v>0.8380005033621024</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06645463214963862</v>
+        <v>0.06585345391784453</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0970237629384724</v>
+        <v>0.09614604272005299</v>
       </c>
       <c r="L12" t="n">
-        <v>2.60658857767414</v>
+        <v>2.61014755280636</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2963876593873883</v>
+        <v>0.2937064044735866</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -983,25 +983,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>0.147016258087771</v>
+        <v>0.1459585715335687</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6383400051040834</v>
+        <v>0.640941914027421</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2146437368081457</v>
+        <v>0.2130995144390103</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6556925110714585</v>
+        <v>0.6509752290397164</v>
       </c>
       <c r="M13" t="n">
-        <v>2.129663752120396</v>
+        <v>2.135925256521273</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1075,25 +1075,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2522817294790454</v>
+        <v>0.251741594632903</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3793869454815485</v>
+        <v>0.3807156772030588</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3683313250394062</v>
+        <v>0.3675427281640383</v>
       </c>
       <c r="L15" t="n">
-        <v>1.125176513476542</v>
+        <v>1.122767512062747</v>
       </c>
       <c r="M15" t="n">
-        <v>1.506492161484052</v>
+        <v>1.509689759773214</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1117,22 +1117,22 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.715628309761999</v>
+        <v>0.7170756490823752</v>
       </c>
       <c r="J16" t="n">
-        <v>0.115598248064228</v>
+        <v>0.1150098987470019</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1687734421737729</v>
+        <v>0.1679144521706228</v>
       </c>
       <c r="L16" t="n">
-        <v>2.31565837145977</v>
+        <v>2.319141399417748</v>
       </c>
       <c r="M16" t="n">
-        <v>0.515568186366457</v>
+        <v>0.5129441484116286</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1209,22 +1209,22 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6795379689903169</v>
+        <v>0.6808841287271493</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1302691182966191</v>
+        <v>0.1297218988914027</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1901929127130639</v>
+        <v>0.189393972381448</v>
       </c>
       <c r="L18" t="n">
-        <v>2.228806819684015</v>
+        <v>2.232046358562896</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5810002676029212</v>
+        <v>0.5785596690556561</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1245,25 +1245,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2382645094449738</v>
+        <v>0.2376294927050157</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4138693067653643</v>
+        <v>0.4154314479456613</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3478661837896619</v>
+        <v>0.3469390593493229</v>
       </c>
       <c r="L19" t="n">
-        <v>1.062659712124584</v>
+        <v>1.05982753746437</v>
       </c>
       <c r="M19" t="n">
-        <v>1.589474104085755</v>
+        <v>1.593233403186307</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1287,22 +1287,22 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6328270285115066</v>
+        <v>0.6339973185662926</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1492573054831274</v>
+        <v>0.1487815778185803</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2179156660053659</v>
+        <v>0.2172211036151272</v>
       </c>
       <c r="L20" t="n">
-        <v>2.116396751539886</v>
+        <v>2.119213059314005</v>
       </c>
       <c r="M20" t="n">
-        <v>0.665687582454748</v>
+        <v>0.6635658370708679</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1323,25 +1323,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>0.259056089007576</v>
+        <v>0.2585632080596746</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3627220210413629</v>
+        <v>0.3639345081732004</v>
       </c>
       <c r="K21" t="n">
-        <v>0.378221889951061</v>
+        <v>0.3775022837671249</v>
       </c>
       <c r="L21" t="n">
-        <v>1.155390156973789</v>
+        <v>1.153191907946149</v>
       </c>
       <c r="M21" t="n">
-        <v>1.46638795307515</v>
+        <v>1.469305808286726</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1365,22 +1365,22 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7673832692509278</v>
+        <v>0.768919565140424</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09455964664596436</v>
+        <v>0.09393513612177884</v>
       </c>
       <c r="K22" t="n">
-        <v>0.138057084103108</v>
+        <v>0.1371452987377971</v>
       </c>
       <c r="L22" t="n">
-        <v>2.440206891855891</v>
+        <v>2.443903994159069</v>
       </c>
       <c r="M22" t="n">
-        <v>0.421736024041001</v>
+        <v>0.4189507071031336</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1401,25 +1401,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1919192714880389</v>
+        <v>0.1910106159097056</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5278785921394245</v>
+        <v>0.5301138848621244</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2802021363725368</v>
+        <v>0.2788754992281701</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8559599508366533</v>
+        <v>0.8519073469572866</v>
       </c>
       <c r="M23" t="n">
-        <v>1.86383791279081</v>
+        <v>1.869217153814543</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1443,22 +1443,22 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6559302857977877</v>
+        <v>0.6571932759315721</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1398657374805741</v>
+        <v>0.1393523268570845</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2042039767216382</v>
+        <v>0.2034543972113434</v>
       </c>
       <c r="L24" t="n">
-        <v>2.171994834115001</v>
+        <v>2.175034225006059</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6238011891633606</v>
+        <v>0.6215113777825969</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1535,22 +1535,22 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7905141075025599</v>
+        <v>0.7920469810039715</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08515686686887811</v>
+        <v>0.08453374755936113</v>
       </c>
       <c r="K26" t="n">
-        <v>0.124329025628562</v>
+        <v>0.1234192714366673</v>
       </c>
       <c r="L26" t="n">
-        <v>2.495871348136242</v>
+        <v>2.499560214448582</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3797996262351964</v>
+        <v>0.3770205141147506</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1677,25 +1677,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1310672788206191</v>
+        <v>0.1299888665029099</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6775744941012769</v>
+        <v>0.6802273884028415</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1913582270781039</v>
+        <v>0.1897837450942486</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5845600635399614</v>
+        <v>0.5797503446029784</v>
       </c>
       <c r="M29" t="n">
-        <v>2.224081709381935</v>
+        <v>2.230465910302773</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1719,22 +1719,22 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7149972086501742</v>
+        <v>0.7164430750291617</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1158547932316365</v>
+        <v>0.1152670426710725</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1691479981181893</v>
+        <v>0.1682898822997658</v>
       </c>
       <c r="L30" t="n">
-        <v>2.314139624068712</v>
+        <v>2.317619107387251</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5167123778130986</v>
+        <v>0.5140910103129832</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1755,25 +1755,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2208034320414366</v>
+        <v>0.2200577326001946</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4568235571780661</v>
+        <v>0.4586579778035211</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3223730107804974</v>
+        <v>0.3212842895962842</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9847833069048071</v>
+        <v>0.9814574873968682</v>
       </c>
       <c r="M31" t="n">
-        <v>1.692843682314696</v>
+        <v>1.697258223006847</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1797,22 +1797,22 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8561253532612352</v>
+        <v>0.8575503548852084</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05848562875559545</v>
+        <v>0.05790635980276082</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08538901798316935</v>
+        <v>0.0845432853120308</v>
       </c>
       <c r="L32" t="n">
-        <v>2.653765077766875</v>
+        <v>2.657194349967656</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2608459042499557</v>
+        <v>0.2582623647203133</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1939,25 +1939,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1647169779235167</v>
+        <v>0.1637047644444575</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5947962343081489</v>
+        <v>0.5972862794666346</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2404867877683344</v>
+        <v>0.2390089560889079</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7346377215388844</v>
+        <v>0.7301232494222804</v>
       </c>
       <c r="M35" t="n">
-        <v>2.024875490692781</v>
+        <v>2.030867794488811</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2031,25 +2031,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1513503200992692</v>
+        <v>0.150301694437564</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6276782125557978</v>
+        <v>0.6302578316835925</v>
       </c>
       <c r="K37" t="n">
-        <v>0.220971467344933</v>
+        <v>0.2194404738788435</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6750224276427405</v>
+        <v>0.6703455571915353</v>
       </c>
       <c r="M37" t="n">
-        <v>2.104006105012326</v>
+        <v>2.110213968929621</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2073,22 +2073,22 @@
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8696193710692478</v>
+        <v>0.8709949035163258</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05300025566290738</v>
+        <v>0.05244109613157486</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07738037326784478</v>
+        <v>0.0765640003520993</v>
       </c>
       <c r="L38" t="n">
-        <v>2.686238486475588</v>
+        <v>2.689548710901077</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2363811402565669</v>
+        <v>0.2338872887468239</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2109,25 +2109,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1222505737579901</v>
+        <v>0.1211698624233798</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6992635885553444</v>
+        <v>0.7019221384384857</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1784858376866655</v>
+        <v>0.1769079991381345</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5452375589606356</v>
+        <v>0.5404175864082738</v>
       </c>
       <c r="M39" t="n">
-        <v>2.276276603352699</v>
+        <v>2.282674414453592</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2148,25 +2148,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H40" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I40" t="n">
-        <v>0.463765245819568</v>
+        <v>0.4640302114867893</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2179816073904195</v>
+        <v>0.2178738977695978</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3182531467900125</v>
+        <v>0.3180958907436128</v>
       </c>
       <c r="L40" t="n">
-        <v>1.709548884248716</v>
+        <v>1.710186525203981</v>
       </c>
       <c r="M40" t="n">
-        <v>0.972197968961271</v>
+        <v>0.9717175840524064</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2187,25 +2187,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H41" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3681292444466978</v>
+        <v>0.3678432152612338</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2568580307127244</v>
+        <v>0.2569743027393359</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3750127248405777</v>
+        <v>0.3751824819994303</v>
       </c>
       <c r="L41" t="n">
-        <v>1.479400458180671</v>
+        <v>1.478712127783132</v>
       </c>
       <c r="M41" t="n">
-        <v>1.145586816978751</v>
+        <v>1.146105390217438</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2279,25 +2279,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H43" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I43" t="n">
-        <v>0.248119015437067</v>
+        <v>0.2475604907015562</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3896272220248153</v>
+        <v>0.3910011928741717</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3622537625381178</v>
+        <v>0.361438316424272</v>
       </c>
       <c r="L43" t="n">
-        <v>1.106610808849319</v>
+        <v>1.104119788528941</v>
       </c>
       <c r="M43" t="n">
-        <v>1.531135428612563</v>
+        <v>1.534441895046787</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2318,25 +2318,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H44" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5420445123665368</v>
+        <v>0.542753058266268</v>
       </c>
       <c r="J44" t="n">
-        <v>0.186160767330676</v>
+        <v>0.1858727405421675</v>
       </c>
       <c r="K44" t="n">
-        <v>0.271794720302787</v>
+        <v>0.2713742011915646</v>
       </c>
       <c r="L44" t="n">
-        <v>1.897928257402397</v>
+        <v>1.899633375990368</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8302770222948153</v>
+        <v>0.8289924228180672</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2357,25 +2357,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H45" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2959682519862718</v>
+        <v>0.2953246426169013</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2861917674852554</v>
+        <v>0.2864533973102028</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4178399805284728</v>
+        <v>0.418221960072896</v>
       </c>
       <c r="L45" t="n">
-        <v>1.305744736487288</v>
+        <v>1.3041958879236</v>
       </c>
       <c r="M45" t="n">
-        <v>1.276415282984239</v>
+        <v>1.277582152003504</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2449,25 +2449,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H47" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2490264973277014</v>
+        <v>0.2484687593850306</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3873948165738544</v>
+        <v>0.3887668519128248</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3635786860984441</v>
+        <v>0.3627643887021446</v>
       </c>
       <c r="L47" t="n">
-        <v>1.110658178081548</v>
+        <v>1.108170666857236</v>
       </c>
       <c r="M47" t="n">
-        <v>1.525763135820008</v>
+        <v>1.529064944440619</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2488,25 +2488,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H48" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I48" t="n">
-        <v>0.797307149046374</v>
+        <v>0.7988061785841063</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08239546786732764</v>
+        <v>0.08178610626662343</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1202973830862984</v>
+        <v>0.1194077151492702</v>
       </c>
       <c r="L48" t="n">
-        <v>2.512218830225421</v>
+        <v>2.515826250901589</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3674837866882812</v>
+        <v>0.3647660339491405</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2527,25 +2527,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H49" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1714762087765374</v>
+        <v>0.1705058346883694</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5781685264097179</v>
+        <v>0.5805556466666115</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2503552648137446</v>
+        <v>0.2489385186450192</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7647838911433569</v>
+        <v>0.7604560227101272</v>
       </c>
       <c r="M49" t="n">
-        <v>1.984860844042899</v>
+        <v>1.990605458644854</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2566,25 +2566,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H50" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5866204835103573</v>
+        <v>0.5875586363076117</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1680404538575783</v>
+        <v>0.1676590909318651</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2453390626320644</v>
+        <v>0.2447822727605231</v>
       </c>
       <c r="L50" t="n">
-        <v>2.005200513163136</v>
+        <v>2.007458181683358</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7494604242047994</v>
+        <v>0.7477595455561183</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2605,25 +2605,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H51" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2756507907380322</v>
+        <v>0.2752825808055596</v>
       </c>
       <c r="J51" t="n">
-        <v>0.321899054784441</v>
+        <v>0.3228048512183233</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4024501544775269</v>
+        <v>0.401912567976117</v>
       </c>
       <c r="L51" t="n">
-        <v>1.229402526691624</v>
+        <v>1.227760310392796</v>
       </c>
       <c r="M51" t="n">
-        <v>1.36814731883085</v>
+        <v>1.370327121631087</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2697,25 +2697,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H53" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2455927152240479</v>
+        <v>0.2450173202135261</v>
       </c>
       <c r="J53" t="n">
-        <v>0.395841920548842</v>
+        <v>0.3972573922747256</v>
       </c>
       <c r="K53" t="n">
-        <v>0.35856536422711</v>
+        <v>0.3577252875117482</v>
       </c>
       <c r="L53" t="n">
-        <v>1.095343509899254</v>
+        <v>1.092777248152327</v>
       </c>
       <c r="M53" t="n">
-        <v>1.546091125873636</v>
+        <v>1.549497464335925</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2736,25 +2736,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H54" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6197827007296399</v>
+        <v>0.6208745763086586</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1545598777521789</v>
+        <v>0.1541160258907892</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2256574215181812</v>
+        <v>0.2250093978005523</v>
       </c>
       <c r="L54" t="n">
-        <v>2.085005523707101</v>
+        <v>2.087633126726528</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6893370547747177</v>
+        <v>0.6873574754729199</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2828,25 +2828,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H56" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5698749021105219</v>
+        <v>0.5707295217417924</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1748476007680805</v>
+        <v>0.1745001944139056</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2552774971213975</v>
+        <v>0.2547702838443021</v>
       </c>
       <c r="L56" t="n">
-        <v>1.964902203452964</v>
+        <v>1.966958849069679</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7798202994256391</v>
+        <v>0.7782708670860189</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2973,25 +2973,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H59" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I59" t="n">
-        <v>0.21758560620037</v>
+        <v>0.2168291787957697</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4647394087470897</v>
+        <v>0.4666002201624065</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3176749850525402</v>
+        <v>0.3165706010418238</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9704318036536501</v>
+        <v>0.9670581374291329</v>
       </c>
       <c r="M59" t="n">
-        <v>1.711893211293809</v>
+        <v>1.716371261529043</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3012,25 +3012,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H60" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5944004513290158</v>
+        <v>0.5953761419647675</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1648778653134082</v>
+        <v>0.1644812431037531</v>
       </c>
       <c r="K60" t="n">
-        <v>0.240721683357576</v>
+        <v>0.2401426149314795</v>
       </c>
       <c r="L60" t="n">
-        <v>2.023923037344623</v>
+        <v>2.026271040825782</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7353552792978006</v>
+        <v>0.7335863442427386</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3051,25 +3051,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H61" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2726641349863022</v>
+        <v>0.2722749183381317</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3292462279336967</v>
+        <v>0.3302037008881961</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3980896370800012</v>
+        <v>0.3975213807736722</v>
       </c>
       <c r="L61" t="n">
-        <v>1.216082042038908</v>
+        <v>1.214346135788067</v>
       </c>
       <c r="M61" t="n">
-        <v>1.385828320881091</v>
+        <v>1.38813248343826</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3090,25 +3090,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H62" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7436456162805887</v>
+        <v>0.7451162446959109</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1042090990729314</v>
+        <v>0.1036112826439387</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1521452846464799</v>
+        <v>0.1512724726601505</v>
       </c>
       <c r="L62" t="n">
-        <v>2.383082133488246</v>
+        <v>2.386621206747883</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4647725818652741</v>
+        <v>0.4621063205919665</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3129,25 +3129,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H63" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I63" t="n">
-        <v>0.20340108392267</v>
+        <v>0.202571835483242</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4996333335502317</v>
+        <v>0.5016732847112246</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2969655825270983</v>
+        <v>0.2957548798055334</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9071688342951083</v>
+        <v>0.9034703862552594</v>
       </c>
       <c r="M63" t="n">
-        <v>1.795865583177793</v>
+        <v>1.800774733939207</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3168,25 +3168,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H64" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8230745389665225</v>
+        <v>0.8245476193193226</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07192091911929978</v>
+        <v>0.07132210596775508</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1050045419141777</v>
+        <v>0.1041302747129224</v>
       </c>
       <c r="L64" t="n">
-        <v>2.574228158813745</v>
+        <v>2.57777313267089</v>
       </c>
       <c r="M64" t="n">
-        <v>0.320767299272077</v>
+        <v>0.3180965926161877</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3207,25 +3207,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H65" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1544531441525848</v>
+        <v>0.1534319719702995</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6200452653846414</v>
+        <v>0.6225573489530634</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2255015904627738</v>
+        <v>0.2240106790766372</v>
       </c>
       <c r="L65" t="n">
-        <v>0.6888610229205281</v>
+        <v>0.6843065949875358</v>
       </c>
       <c r="M65" t="n">
-        <v>2.085637386616698</v>
+        <v>2.091682725935827</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3246,25 +3246,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H66" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I66" t="n">
-        <v>0.658531373806596</v>
+        <v>0.6597791142633411</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1388083846314651</v>
+        <v>0.1383011730636824</v>
       </c>
       <c r="K66" t="n">
-        <v>0.202660241561939</v>
+        <v>0.2019197126729764</v>
       </c>
       <c r="L66" t="n">
-        <v>2.178254362981727</v>
+        <v>2.181257055463</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6190853954563341</v>
+        <v>0.6168232318640237</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3391,25 +3391,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H69" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1561365921483865</v>
+        <v>0.155119579576797</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6159039833149693</v>
+        <v>0.6184058342410795</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2279594245366443</v>
+        <v>0.2264745861821235</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6963692009818037</v>
+        <v>0.6918333249125145</v>
       </c>
       <c r="M69" t="n">
-        <v>2.075671374481552</v>
+        <v>2.081692088905362</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3430,25 +3430,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H70" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7671522359910142</v>
+        <v>0.7686478364171878</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09465356260527877</v>
+        <v>0.09404559495236264</v>
       </c>
       <c r="K70" t="n">
-        <v>0.138194201403707</v>
+        <v>0.1373065686304495</v>
       </c>
       <c r="L70" t="n">
-        <v>2.43965090937675</v>
+        <v>2.443250077882013</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4221548892195433</v>
+        <v>0.4194433534875374</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3469,25 +3469,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H71" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1899659442032121</v>
+        <v>0.1890707705747796</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5326837772600984</v>
+        <v>0.5348859043860422</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2773502785366896</v>
+        <v>0.2760433250391782</v>
       </c>
       <c r="L71" t="n">
-        <v>0.8472481111463258</v>
+        <v>0.8432556367635169</v>
       </c>
       <c r="M71" t="n">
-        <v>1.875401610316985</v>
+        <v>1.880701038197305</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3508,25 +3508,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H72" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7900813908472798</v>
+        <v>0.7915827448125142</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08533276794826025</v>
+        <v>0.08472246145832754</v>
       </c>
       <c r="K72" t="n">
-        <v>0.12458584120446</v>
+        <v>0.1236947937291582</v>
       </c>
       <c r="L72" t="n">
-        <v>2.4948300137463</v>
+        <v>2.498443028166701</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3805841450492407</v>
+        <v>0.3778621781041409</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3547,25 +3547,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H73" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1760421554842441</v>
+        <v>0.1750885314783387</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5669362975087596</v>
+        <v>0.5692822125632866</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2570215470069964</v>
+        <v>0.2556292559583747</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7851480134597286</v>
+        <v>0.7808948503933908</v>
       </c>
       <c r="M73" t="n">
-        <v>1.957830439533275</v>
+        <v>1.963475893648234</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3586,25 +3586,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>98.229650838</v>
+        <v>98.219200903</v>
       </c>
       <c r="H74" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8367952978818941</v>
+        <v>0.8382423929568547</v>
       </c>
       <c r="J74" t="n">
-        <v>0.06634337484475847</v>
+        <v>0.06575512481428666</v>
       </c>
       <c r="K74" t="n">
-        <v>0.09686132727334737</v>
+        <v>0.09600248222885853</v>
       </c>
       <c r="L74" t="n">
-        <v>2.607247220919029</v>
+        <v>2.610729661099422</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2958914518076228</v>
+        <v>0.2932678566717185</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3731,25 +3731,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H77" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2663927903933912</v>
+        <v>0.2659656537488254</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3446737356322576</v>
+        <v>0.3457244917778896</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3889334739743512</v>
+        <v>0.388309854473285</v>
       </c>
       <c r="L77" t="n">
-        <v>1.188111845154525</v>
+        <v>1.186206815719761</v>
       </c>
       <c r="M77" t="n">
-        <v>1.422954680871124</v>
+        <v>1.425483329806954</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3770,25 +3770,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H78" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4917943379371129</v>
+        <v>0.4922153739436826</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2065876675052387</v>
+        <v>0.2064165146570396</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3016179945576485</v>
+        <v>0.3013681113992778</v>
       </c>
       <c r="L78" t="n">
-        <v>1.777001008368987</v>
+        <v>1.778014233230326</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9213809970733646</v>
+        <v>0.9206176553703969</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3862,25 +3862,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H80" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6045265783714476</v>
+        <v>0.6055465243211879</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1607615535075416</v>
+        <v>0.1603469413328504</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2347118681210108</v>
+        <v>0.2341065343459616</v>
       </c>
       <c r="L80" t="n">
-        <v>2.048291603235354</v>
+        <v>2.050746107309525</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7169965286436357</v>
+        <v>0.7151473583445129</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3901,25 +3901,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H81" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2672543316098611</v>
+        <v>0.2668280883216684</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3425543442397416</v>
+        <v>0.3436029027286955</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3901913241503973</v>
+        <v>0.389569008949636</v>
       </c>
       <c r="L81" t="n">
-        <v>1.191954318979981</v>
+        <v>1.190053273914641</v>
       </c>
       <c r="M81" t="n">
-        <v>1.417854356869622</v>
+        <v>1.420377717135722</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3940,25 +3940,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H82" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7628098186970073</v>
+        <v>0.7642778719561386</v>
       </c>
       <c r="J82" t="n">
-        <v>0.09641877288739543</v>
+        <v>0.09582200326986236</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1407714084155973</v>
+        <v>0.139900124773999</v>
       </c>
       <c r="L82" t="n">
-        <v>2.429200864506619</v>
+        <v>2.432733740642415</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4300277270777836</v>
+        <v>0.4273661345835861</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -3979,25 +3979,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H83" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I83" t="n">
-        <v>0.190909108476833</v>
+        <v>0.1900314819369953</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5303635931469909</v>
+        <v>0.5325225544349915</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2787272983761762</v>
+        <v>0.2774459636280132</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8514546238066751</v>
+        <v>0.8475404094389991</v>
       </c>
       <c r="M83" t="n">
-        <v>1.869818077817149</v>
+        <v>1.875013626932988</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4018,25 +4018,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H84" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5370843367095743</v>
+        <v>0.5377555276429566</v>
       </c>
       <c r="J84" t="n">
-        <v>0.188177098898547</v>
+        <v>0.1879042570557087</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2747385643918786</v>
+        <v>0.2743402153013347</v>
       </c>
       <c r="L84" t="n">
-        <v>1.885991574520602</v>
+        <v>1.887606798230204</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8392698610875197</v>
+        <v>0.8380529864684608</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4163,25 +4163,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H87" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2639905483956219</v>
+        <v>0.2635469164966584</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3505832509467701</v>
+        <v>0.3516745854182203</v>
       </c>
       <c r="K87" t="n">
-        <v>0.385426200657608</v>
+        <v>0.3847784980851213</v>
       </c>
       <c r="L87" t="n">
-        <v>1.177397845844474</v>
+        <v>1.175419247575096</v>
       </c>
       <c r="M87" t="n">
-        <v>1.437175953497918</v>
+        <v>1.439802254339782</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4202,25 +4202,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H88" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5713164542506542</v>
+        <v>0.5721650827709525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1742616039631487</v>
+        <v>0.173916633019938</v>
       </c>
       <c r="K88" t="n">
-        <v>0.254421941786197</v>
+        <v>0.2539182842091095</v>
       </c>
       <c r="L88" t="n">
-        <v>1.96837130453816</v>
+        <v>1.970413532521967</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7772067536756431</v>
+        <v>0.7756681832689236</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4241,25 +4241,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H89" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2800034785907444</v>
+        <v>0.2796705475690514</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3111914426667689</v>
+        <v>0.3120104529801337</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4088050787424868</v>
+        <v>0.4083189994508149</v>
       </c>
       <c r="L89" t="n">
-        <v>1.24881551451472</v>
+        <v>1.247330642157969</v>
       </c>
       <c r="M89" t="n">
-        <v>1.342379406742793</v>
+        <v>1.344350358391216</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4333,25 +4333,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H91" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3121276640319452</v>
+        <v>0.3115646430661722</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2796229008000223</v>
+        <v>0.2798517711113121</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4082494351680326</v>
+        <v>0.4085835858225156</v>
       </c>
       <c r="L91" t="n">
-        <v>1.344632427263868</v>
+        <v>1.343277515021032</v>
       </c>
       <c r="M91" t="n">
-        <v>1.2471181375681</v>
+        <v>1.248138899156452</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4425,25 +4425,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H93" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2369752098134239</v>
+        <v>0.2363469867047988</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4170409838589771</v>
+        <v>0.4185864127061951</v>
       </c>
       <c r="K93" t="n">
-        <v>0.345983806327599</v>
+        <v>0.3450666005890062</v>
       </c>
       <c r="L93" t="n">
-        <v>1.056909435767871</v>
+        <v>1.054107560703403</v>
       </c>
       <c r="M93" t="n">
-        <v>1.59710675790453</v>
+        <v>1.600825838707591</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4464,25 +4464,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H94" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5450736001341158</v>
+        <v>0.5457872685401588</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1849294308397903</v>
+        <v>0.1846393217316428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2699969690260939</v>
+        <v>0.2695734097281985</v>
       </c>
       <c r="L94" t="n">
-        <v>1.905217769428441</v>
+        <v>1.906935215348675</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8247852615454649</v>
+        <v>0.8234913749231267</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -4556,25 +4556,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H96" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7034126805652663</v>
+        <v>0.7047791548756318</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1205639509897291</v>
+        <v>0.1200084736277919</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1760233684450045</v>
+        <v>0.1752123714965762</v>
       </c>
       <c r="L96" t="n">
-        <v>2.286261410140803</v>
+        <v>2.289549836123472</v>
       </c>
       <c r="M96" t="n">
-        <v>0.537715221414192</v>
+        <v>0.5352377923799519</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4595,25 +4595,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H97" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2230188469588394</v>
+        <v>0.2223104608231914</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4513736364812552</v>
+        <v>0.4531162663749492</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3256075165599054</v>
+        <v>0.3245732728018594</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9946640574364236</v>
+        <v>0.9915046552714336</v>
       </c>
       <c r="M97" t="n">
-        <v>1.679728426003671</v>
+        <v>1.683922071926707</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4634,25 +4634,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H98" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7918176122042029</v>
+        <v>0.7932938288800485</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08462698690886063</v>
+        <v>0.08402689882924862</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1235554008869365</v>
+        <v>0.122679272290703</v>
       </c>
       <c r="L98" t="n">
-        <v>2.499008237499545</v>
+        <v>2.502560758930849</v>
       </c>
       <c r="M98" t="n">
-        <v>0.3774363616135184</v>
+        <v>0.3747599687784488</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4673,25 +4673,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H99" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1733800211820452</v>
+        <v>0.1724309684314614</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5734851478921686</v>
+        <v>0.5758198176586047</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2531348309257861</v>
+        <v>0.2517492139099338</v>
       </c>
       <c r="L99" t="n">
-        <v>0.7732748944719219</v>
+        <v>0.7690421192043181</v>
       </c>
       <c r="M99" t="n">
-        <v>1.973590274602292</v>
+        <v>1.979208666885748</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4712,25 +4712,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H100" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6119115887082683</v>
+        <v>0.6129520604261207</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1577595167852568</v>
+        <v>0.15733656080239</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2303288945064749</v>
+        <v>0.2297113787714894</v>
       </c>
       <c r="L100" t="n">
-        <v>2.06606366063128</v>
+        <v>2.068567560049852</v>
       </c>
       <c r="M100" t="n">
-        <v>0.7036074448622454</v>
+        <v>0.7017210611786593</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4804,25 +4804,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H102" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7890235015746052</v>
+        <v>0.7905002785884614</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08576280423796537</v>
+        <v>0.08516248837867418</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1252136941874294</v>
+        <v>0.1243372330328643</v>
       </c>
       <c r="L102" t="n">
-        <v>2.492284198911245</v>
+        <v>2.495838068798248</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3825021069013256</v>
+        <v>0.3798246981688869</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4896,25 +4896,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H104" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7292653896660205</v>
+        <v>0.7306887841345903</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1100547196479591</v>
+        <v>0.1094761040103292</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1606798906860203</v>
+        <v>0.1598351118550806</v>
       </c>
       <c r="L104" t="n">
-        <v>2.348476059684082</v>
+        <v>2.351901464258851</v>
       </c>
       <c r="M104" t="n">
-        <v>0.4908440496298977</v>
+        <v>0.488263423886068</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4935,25 +4935,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H105" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2096253198980069</v>
+        <v>0.2088410622810532</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4843217130509032</v>
+        <v>0.4862509867886092</v>
       </c>
       <c r="K105" t="n">
-        <v>0.30605296705109</v>
+        <v>0.3049079509303376</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9349289267451106</v>
+        <v>0.9314311377734972</v>
       </c>
       <c r="M105" t="n">
-        <v>1.7590181062038</v>
+        <v>1.763660911296165</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4974,25 +4974,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H106" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7547325791170245</v>
+        <v>0.7561931363601007</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0997022036109656</v>
+        <v>0.09910848115443062</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1455652172720098</v>
+        <v>0.1446983824854687</v>
       </c>
       <c r="L106" t="n">
-        <v>2.409762954623083</v>
+        <v>2.413277791565771</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4446718281049066</v>
+        <v>0.4420238259487606</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -5013,25 +5013,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H107" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1955619446996134</v>
+        <v>0.1947060007600483</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5189176160389509</v>
+        <v>0.5210232381302813</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2855204392614356</v>
+        <v>0.2842707611096705</v>
       </c>
       <c r="L107" t="n">
-        <v>0.872206273360276</v>
+        <v>0.8683887633898153</v>
       </c>
       <c r="M107" t="n">
-        <v>1.842273287378288</v>
+        <v>1.847340475500514</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5052,25 +5052,25 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="H108" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8073951454096345</v>
+        <v>0.8088625939809478</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07829465633754691</v>
+        <v>0.07769813252807002</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1143101982528185</v>
+        <v>0.1134392734909822</v>
       </c>
       <c r="L108" t="n">
-        <v>2.536495634481722</v>
+        <v>2.540027055433826</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3491941672654593</v>
+        <v>0.3465336710751923</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -5091,25 +5091,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H109" t="n">
-        <v>96.87406227850001</v>
+        <v>96.8557364254</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1634056050758434</v>
+        <v>0.1624238894349637</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5980222115134252</v>
+        <v>0.6004372319899892</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2385721834107314</v>
+        <v>0.237138878575047</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7287889986382616</v>
+        <v>0.7244105468799382</v>
       </c>
       <c r="M109" t="n">
-        <v>2.032638817951007</v>
+        <v>2.038450574545014</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5130,25 +5130,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H110" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3006892082611301</v>
+        <v>0.300088307522365</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2842726795686463</v>
+        <v>0.2845169481616402</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4150381121702236</v>
+        <v>0.4153947443159948</v>
       </c>
       <c r="L110" t="n">
-        <v>1.317105736953614</v>
+        <v>1.31565966688309</v>
       </c>
       <c r="M110" t="n">
-        <v>1.267856150876162</v>
+        <v>1.268945588800916</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5169,25 +5169,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H111" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5267437046219053</v>
+        <v>0.5273428323446741</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1923806078772742</v>
+        <v>0.1921370600224902</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2808756875008204</v>
+        <v>0.2805201076328357</v>
       </c>
       <c r="L111" t="n">
-        <v>1.861106801366536</v>
+        <v>1.862548604666858</v>
       </c>
       <c r="M111" t="n">
-        <v>0.8580175111326431</v>
+        <v>0.8569312877003065</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -5208,25 +5208,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H112" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4044805455460487</v>
+        <v>0.4044141255480652</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2420810790463216</v>
+        <v>0.242108079045502</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3534383754076296</v>
+        <v>0.3534777954064329</v>
       </c>
       <c r="L112" t="n">
-        <v>1.566880012045776</v>
+        <v>1.566720172050629</v>
       </c>
       <c r="M112" t="n">
-        <v>1.079681612546594</v>
+        <v>1.079802032542939</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5300,25 +5300,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H114" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5883028845524204</v>
+        <v>0.5891714802993412</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1673565509949511</v>
+        <v>0.1670034632929507</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2443405644526285</v>
+        <v>0.2438250564077081</v>
       </c>
       <c r="L114" t="n">
-        <v>2.00924921810989</v>
+        <v>2.011339497305732</v>
       </c>
       <c r="M114" t="n">
-        <v>0.7464102174374817</v>
+        <v>0.7448354462865603</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5339,25 +5339,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H115" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2678448586367947</v>
+        <v>0.2674516394166853</v>
       </c>
       <c r="J115" t="n">
-        <v>0.341101647753485</v>
+        <v>0.342068967034954</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3910534936097203</v>
+        <v>0.3904793935483606</v>
       </c>
       <c r="L115" t="n">
-        <v>1.194588069520105</v>
+        <v>1.192834311798417</v>
       </c>
       <c r="M115" t="n">
-        <v>1.414358436870175</v>
+        <v>1.416686294653223</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5378,25 +5378,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H116" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3401597900320761</v>
+        <v>0.3397460228730299</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2682277276292374</v>
+        <v>0.26839592566137</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3916124823386866</v>
+        <v>0.3918580514656002</v>
       </c>
       <c r="L116" t="n">
-        <v>1.412091852434915</v>
+        <v>1.41109612008469</v>
       </c>
       <c r="M116" t="n">
-        <v>1.196295665226399</v>
+        <v>1.19704582844971</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5470,25 +5470,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H118" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4127184410127174</v>
+        <v>0.412683645279863</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2387323410517409</v>
+        <v>0.2387464856585923</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3485492179355417</v>
+        <v>0.3485698690615447</v>
       </c>
       <c r="L118" t="n">
-        <v>1.586704540973694</v>
+        <v>1.586620804901134</v>
       </c>
       <c r="M118" t="n">
-        <v>1.064746241090764</v>
+        <v>1.064809326037321</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5509,25 +5509,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H119" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I119" t="n">
-        <v>0.4003868512140741</v>
+        <v>0.4002858198520971</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2437451824333032</v>
+        <v>0.2437862520926435</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3558679663526227</v>
+        <v>0.3559279280552595</v>
       </c>
       <c r="L119" t="n">
-        <v>1.557028519994845</v>
+        <v>1.556785387611551</v>
       </c>
       <c r="M119" t="n">
-        <v>1.087103513652532</v>
+        <v>1.08728668433319</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5601,25 +5601,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H121" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4437948346536026</v>
+        <v>0.4439308479866954</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2260996607099177</v>
+        <v>0.2260443707371157</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3301055046364798</v>
+        <v>0.3300247812761889</v>
       </c>
       <c r="L121" t="n">
-        <v>1.661490008597287</v>
+        <v>1.661817325236275</v>
       </c>
       <c r="M121" t="n">
-        <v>1.008404486766233</v>
+        <v>1.008157893487536</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -5640,25 +5640,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H122" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I122" t="n">
-        <v>0.324919732329192</v>
+        <v>0.3244315240828105</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2744228730369138</v>
+        <v>0.2746213316736543</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4006573946338942</v>
+        <v>0.4009471442435352</v>
       </c>
       <c r="L122" t="n">
-        <v>1.37541659162147</v>
+        <v>1.374241716491967</v>
       </c>
       <c r="M122" t="n">
-        <v>1.223926013744636</v>
+        <v>1.224811139264498</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5679,25 +5679,25 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H123" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4974504674663343</v>
+        <v>0.4978868381214151</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2042884278592137</v>
+        <v>0.2041110414140589</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2982611046744519</v>
+        <v>0.298002120464526</v>
       </c>
       <c r="L123" t="n">
-        <v>1.790612507073455</v>
+        <v>1.791662634828771</v>
       </c>
       <c r="M123" t="n">
-        <v>0.911126388252093</v>
+        <v>0.9103352447067028</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -5718,25 +5718,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H124" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4795056652264599</v>
+        <v>0.4798450322846717</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2115830629160732</v>
+        <v>0.2114451088273692</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3089112718574669</v>
+        <v>0.308709858887959</v>
       </c>
       <c r="L124" t="n">
-        <v>1.747428267536847</v>
+        <v>1.748244955741974</v>
       </c>
       <c r="M124" t="n">
-        <v>0.9436604606056864</v>
+        <v>0.9430451853700668</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5757,25 +5757,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H125" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I125" t="n">
-        <v>0.335057691232205</v>
+        <v>0.334615756616553</v>
       </c>
       <c r="J125" t="n">
-        <v>0.270301751531624</v>
+        <v>0.2704813997493687</v>
       </c>
       <c r="K125" t="n">
-        <v>0.394640557236171</v>
+        <v>0.3949028436340783</v>
       </c>
       <c r="L125" t="n">
-        <v>1.399813630932786</v>
+        <v>1.398750113483737</v>
       </c>
       <c r="M125" t="n">
-        <v>1.205545811831043</v>
+        <v>1.206347042882185</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5849,25 +5849,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H127" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4712621570490292</v>
+        <v>0.4715516883665968</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2149340825003946</v>
+        <v>0.2148163868428468</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3138037604505761</v>
+        <v>0.3136319247905563</v>
       </c>
       <c r="L127" t="n">
-        <v>1.727590231597664</v>
+        <v>1.728286989890347</v>
       </c>
       <c r="M127" t="n">
-        <v>0.95860600795176</v>
+        <v>0.9580810853190969</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5941,25 +5941,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H129" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3046593155039558</v>
+        <v>0.3040949296872705</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2826588148357903</v>
+        <v>0.2828882399645242</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4126818696602538</v>
+        <v>0.4130168303482054</v>
       </c>
       <c r="L129" t="n">
-        <v>1.326659816172121</v>
+        <v>1.325301619410017</v>
       </c>
       <c r="M129" t="n">
-        <v>1.260658314167625</v>
+        <v>1.261681550241778</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -5980,25 +5980,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H130" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6282517413603148</v>
+        <v>0.629286939881297</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1511171783088151</v>
+        <v>0.1506963659019117</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2206310803308701</v>
+        <v>0.2200166942167912</v>
       </c>
       <c r="L130" t="n">
-        <v>2.105386304411815</v>
+        <v>2.107877513860682</v>
       </c>
       <c r="M130" t="n">
-        <v>0.6739826152573155</v>
+        <v>0.6721057919225264</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -6072,25 +6072,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H132" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4119674797446194</v>
+        <v>0.4119286340122028</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2390376098599108</v>
+        <v>0.2390534008080477</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3489949103954698</v>
+        <v>0.3490179651797495</v>
       </c>
       <c r="L132" t="n">
-        <v>1.584897349629328</v>
+        <v>1.584803867216358</v>
       </c>
       <c r="M132" t="n">
-        <v>1.066107739975202</v>
+        <v>1.066178167603893</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6111,25 +6111,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H133" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I133" t="n">
-        <v>0.4011608824375755</v>
+        <v>0.4010639825536024</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2434305355944815</v>
+        <v>0.2434699257912185</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3554085819679429</v>
+        <v>0.355466091655179</v>
       </c>
       <c r="L133" t="n">
-        <v>1.55889122928067</v>
+        <v>1.558658039315986</v>
       </c>
       <c r="M133" t="n">
-        <v>1.085700188751388</v>
+        <v>1.085875869028834</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -6150,25 +6150,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H134" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6243039454271863</v>
+        <v>0.6253237594847774</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1527219734035828</v>
+        <v>0.1523074148435865</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2229740811692309</v>
+        <v>0.2223688256716362</v>
       </c>
       <c r="L134" t="n">
-        <v>2.09588591745079</v>
+        <v>2.098340104125968</v>
       </c>
       <c r="M134" t="n">
-        <v>0.6811400013799793</v>
+        <v>0.6792910702023955</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6189,25 +6189,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H135" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2531707187427541</v>
+        <v>0.2526839101668628</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3772000318928249</v>
+        <v>0.3783975809895176</v>
       </c>
       <c r="K135" t="n">
-        <v>0.369629249364421</v>
+        <v>0.3689185088436197</v>
       </c>
       <c r="L135" t="n">
-        <v>1.129141405592683</v>
+        <v>1.126970239344208</v>
       </c>
       <c r="M135" t="n">
-        <v>1.501229345042896</v>
+        <v>1.504111251812172</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6281,25 +6281,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H137" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2841622488060354</v>
+        <v>0.2838751606060413</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3009608679371528</v>
+        <v>0.3016671049091385</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4148768832568117</v>
+        <v>0.4144577344848203</v>
       </c>
       <c r="L137" t="n">
-        <v>1.267363629674918</v>
+        <v>1.266083216302944</v>
       </c>
       <c r="M137" t="n">
-        <v>1.31775948706827</v>
+        <v>1.319459049212236</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6320,25 +6320,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="H138" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I138" t="n">
-        <v>0.5775739018402496</v>
+        <v>0.57839400333444</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1717179260811993</v>
+        <v>0.171384551490065</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2507081720785511</v>
+        <v>0.2502214451754949</v>
       </c>
       <c r="L138" t="n">
-        <v>1.9834298775993</v>
+        <v>1.985403455178815</v>
       </c>
       <c r="M138" t="n">
-        <v>0.7658619503221491</v>
+        <v>0.7643750996456901</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6359,25 +6359,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H139" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2720070660435137</v>
+        <v>0.2716408121316816</v>
       </c>
       <c r="J139" t="n">
-        <v>0.330862617532956</v>
+        <v>0.3317636021560632</v>
       </c>
       <c r="K139" t="n">
-        <v>0.3971303164235301</v>
+        <v>0.3965955857122551</v>
       </c>
       <c r="L139" t="n">
-        <v>1.213151514554071</v>
+        <v>1.2115180221073</v>
       </c>
       <c r="M139" t="n">
-        <v>1.389718169022398</v>
+        <v>1.391886392180445</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6451,25 +6451,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H141" t="n">
-        <v>91.4141129564</v>
+        <v>91.365203212</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2416825276411924</v>
+        <v>0.2411249390573042</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4054609820026667</v>
+        <v>0.4068326499190317</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3528564903561409</v>
+        <v>0.3520424110236641</v>
       </c>
       <c r="L141" t="n">
-        <v>1.077904073279718</v>
+        <v>1.075417228195577</v>
       </c>
       <c r="M141" t="n">
-        <v>1.569239436364141</v>
+        <v>1.572540360780759</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6490,25 +6490,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H142" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5244907811957451</v>
+        <v>0.5250911206053259</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1932964304082337</v>
+        <v>0.193052389997835</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2822127883960212</v>
+        <v>0.2818564893968391</v>
       </c>
       <c r="L142" t="n">
-        <v>1.855685131983257</v>
+        <v>1.857129851212817</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8621020796207222</v>
+        <v>0.8610136593903441</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6635,25 +6635,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H145" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2227211894739501</v>
+        <v>0.2220281062941475</v>
       </c>
       <c r="J145" t="n">
-        <v>0.452105873894083</v>
+        <v>0.4538108585163972</v>
       </c>
       <c r="K145" t="n">
-        <v>0.3251729366319671</v>
+        <v>0.3241610351894553</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9933365050538172</v>
+        <v>0.9902453540718978</v>
       </c>
       <c r="M145" t="n">
-        <v>1.681490558314216</v>
+        <v>1.685593610738647</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -6727,25 +6727,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H147" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3663658425038184</v>
+        <v>0.3660798409473311</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2575748607708055</v>
+        <v>0.2576911215661256</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3760592967253761</v>
+        <v>0.3762290374865433</v>
       </c>
       <c r="L147" t="n">
-        <v>1.475156824236831</v>
+        <v>1.474468560328537</v>
       </c>
       <c r="M147" t="n">
-        <v>1.148783879037793</v>
+        <v>1.14930240218492</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6766,25 +6766,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H148" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5329853365512182</v>
+        <v>0.5336173870931311</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1898433591255211</v>
+        <v>0.1895864280109223</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2771713043232608</v>
+        <v>0.2767961848959467</v>
       </c>
       <c r="L148" t="n">
-        <v>1.876127313976915</v>
+        <v>1.87764834617534</v>
       </c>
       <c r="M148" t="n">
-        <v>0.8467013816998241</v>
+        <v>0.8455554689287137</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6911,25 +6911,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H151" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3335887705666439</v>
+        <v>0.3331378982534846</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2708988737533968</v>
+        <v>0.2710821551815104</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3955123556799593</v>
+        <v>0.3957799465650051</v>
       </c>
       <c r="L151" t="n">
-        <v>1.396278667379891</v>
+        <v>1.395193641325459</v>
       </c>
       <c r="M151" t="n">
-        <v>1.20820897694015</v>
+        <v>1.209026412109536</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6950,25 +6950,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H152" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4387143530951598</v>
+        <v>0.4388267475129511</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2281648971157887</v>
+        <v>0.2281192083280687</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3331207497890515</v>
+        <v>0.3330540441589803</v>
       </c>
       <c r="L152" t="n">
-        <v>1.649263809074531</v>
+        <v>1.649534286697834</v>
       </c>
       <c r="M152" t="n">
-        <v>1.017615441136418</v>
+        <v>1.017411669143186</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -6989,25 +6989,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H153" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I153" t="n">
-        <v>0.38309753976581</v>
+        <v>0.3829003827190146</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2507733578187764</v>
+        <v>0.2508535029597502</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3661291024154136</v>
+        <v>0.3662461143212352</v>
       </c>
       <c r="L153" t="n">
-        <v>1.515421721712844</v>
+        <v>1.514947262478279</v>
       </c>
       <c r="M153" t="n">
-        <v>1.118449175871743</v>
+        <v>1.118806623200486</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7028,25 +7028,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H154" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5993718991152744</v>
+        <v>0.6003422722188323</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1628569515791567</v>
+        <v>0.1624624909679543</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2377711493055688</v>
+        <v>0.2371952368132133</v>
       </c>
       <c r="L154" t="n">
-        <v>2.035886846651392</v>
+        <v>2.03822205346971</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7263420040430391</v>
+        <v>0.7245827097170764</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7067,25 +7067,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H155" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2669585030998548</v>
+        <v>0.2665399422558834</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3432820823743571</v>
+        <v>0.3443117420505268</v>
       </c>
       <c r="K155" t="n">
-        <v>0.389759414525788</v>
+        <v>0.3891483156935898</v>
       </c>
       <c r="L155" t="n">
-        <v>1.190634923825352</v>
+        <v>1.18876814246124</v>
       </c>
       <c r="M155" t="n">
-        <v>1.419605661648859</v>
+        <v>1.42208354184517</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7106,25 +7106,25 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H156" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4636802614512525</v>
+        <v>0.4639333214452699</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2180161538816047</v>
+        <v>0.2179132839653375</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3183035846671428</v>
+        <v>0.3181533945893927</v>
       </c>
       <c r="L156" t="n">
-        <v>1.7093443690209</v>
+        <v>1.709953358925202</v>
       </c>
       <c r="M156" t="n">
-        <v>0.9723520463119568</v>
+        <v>0.9718932464854051</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -7145,25 +7145,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H157" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3586332245809721</v>
+        <v>0.3583071492204682</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2607182013898487</v>
+        <v>0.2608507523494031</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3806485740291792</v>
+        <v>0.3808420984301286</v>
       </c>
       <c r="L157" t="n">
-        <v>1.456548247772095</v>
+        <v>1.455763546091533</v>
       </c>
       <c r="M157" t="n">
-        <v>1.162803178198725</v>
+        <v>1.163394355478338</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7237,25 +7237,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H159" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2538807578935106</v>
+        <v>0.2533804382253035</v>
       </c>
       <c r="J159" t="n">
-        <v>0.375453335581964</v>
+        <v>0.3766841219657533</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3706659065245254</v>
+        <v>0.3699354398089431</v>
       </c>
       <c r="L159" t="n">
-        <v>1.132308180205057</v>
+        <v>1.130076754484854</v>
       </c>
       <c r="M159" t="n">
-        <v>1.497025913270418</v>
+        <v>1.499987805706203</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7276,25 +7276,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H160" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I160" t="n">
-        <v>0.7329410873669809</v>
+        <v>0.73433203678794</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1085605335906581</v>
+        <v>0.1079951069967724</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1584983790423609</v>
+        <v>0.1576728562152877</v>
       </c>
       <c r="L160" t="n">
-        <v>2.357321641143304</v>
+        <v>2.360668966579108</v>
       </c>
       <c r="M160" t="n">
-        <v>0.4841799798143352</v>
+        <v>0.4816581772056049</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7315,25 +7315,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H161" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2050492250060798</v>
+        <v>0.2042604090502138</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4955789064850435</v>
+        <v>0.4975193937364741</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2993718685088766</v>
+        <v>0.2982201972133121</v>
       </c>
       <c r="L161" t="n">
-        <v>0.9145195435271161</v>
+        <v>0.9110014243639535</v>
       </c>
       <c r="M161" t="n">
-        <v>1.786108587964007</v>
+        <v>1.790778378422734</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7354,25 +7354,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H162" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5322138560861135</v>
+        <v>0.5328418545275571</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1901569690706856</v>
+        <v>0.1899016851513995</v>
       </c>
       <c r="K162" t="n">
-        <v>0.277629174843201</v>
+        <v>0.2772564603210433</v>
       </c>
       <c r="L162" t="n">
-        <v>1.874270743101541</v>
+        <v>1.875782023903715</v>
       </c>
       <c r="M162" t="n">
-        <v>0.8481000820552578</v>
+        <v>0.846961515775242</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7446,25 +7446,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H164" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I164" t="n">
-        <v>0.7296265920994915</v>
+        <v>0.7310118339366576</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1099078893904506</v>
+        <v>0.1093447829525782</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1604655185100579</v>
+        <v>0.1596433831107642</v>
       </c>
       <c r="L164" t="n">
-        <v>2.349345294808532</v>
+        <v>2.352678884920737</v>
       </c>
       <c r="M164" t="n">
-        <v>0.4901891866814096</v>
+        <v>0.487677731968499</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7485,25 +7485,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H165" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2068316092615463</v>
+        <v>0.2060518896411884</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4911942412165959</v>
+        <v>0.4931123514826766</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3019741495218577</v>
+        <v>0.3008357588761351</v>
       </c>
       <c r="L165" t="n">
-        <v>0.9224689773064967</v>
+        <v>0.9189914277997002</v>
       </c>
       <c r="M165" t="n">
-        <v>1.775556873171645</v>
+        <v>1.780172813324165</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7524,25 +7524,25 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H166" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6602880657663952</v>
+        <v>0.6614894205557572</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1380942822087824</v>
+        <v>0.1376059266033507</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2016176520248223</v>
+        <v>0.200904652840892</v>
       </c>
       <c r="L166" t="n">
-        <v>2.182481849324008</v>
+        <v>2.185372914508164</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6159004986511696</v>
+        <v>0.6137224326509443</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -7616,25 +7616,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H168" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I168" t="n">
-        <v>0.6894809649626675</v>
+        <v>0.69077374392083</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1262272500151758</v>
+        <v>0.1257017301134838</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1842917850221567</v>
+        <v>0.1835245259656863</v>
       </c>
       <c r="L168" t="n">
-        <v>2.252734679910159</v>
+        <v>2.255845757728177</v>
       </c>
       <c r="M168" t="n">
-        <v>0.5629735350676841</v>
+        <v>0.5606297163061376</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7708,25 +7708,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="H170" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I170" t="n">
-        <v>0.7515417648712994</v>
+        <v>0.7529587550366844</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1009992825726425</v>
+        <v>0.1004232703102909</v>
       </c>
       <c r="K170" t="n">
-        <v>0.147458952556058</v>
+        <v>0.1466179746530247</v>
       </c>
       <c r="L170" t="n">
-        <v>2.402084247169956</v>
+        <v>2.405494239763078</v>
       </c>
       <c r="M170" t="n">
-        <v>0.4504568002739855</v>
+        <v>0.4478877855838974</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7747,25 +7747,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H171" t="n">
-        <v>94.6776744882</v>
+        <v>94.64682357700001</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1947751053724803</v>
+        <v>0.1939365854787934</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5208532407836987</v>
+        <v>0.5229159997221681</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2843716538438211</v>
+        <v>0.2831474147990385</v>
       </c>
       <c r="L171" t="n">
-        <v>0.868696969961262</v>
+        <v>0.8649571712354188</v>
       </c>
       <c r="M171" t="n">
-        <v>1.846931376194917</v>
+        <v>1.851895413965543</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7786,25 +7786,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H172" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I172" t="n">
-        <v>0.590576920943824</v>
+        <v>0.5914431125708618</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1664321459577952</v>
+        <v>0.1660800355403</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2429909330983809</v>
+        <v>0.2424768518888381</v>
       </c>
       <c r="L172" t="n">
-        <v>2.014721695929853</v>
+        <v>2.016806189601423</v>
       </c>
       <c r="M172" t="n">
-        <v>0.7422873709717663</v>
+        <v>0.7407169585097382</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -7825,25 +7825,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H173" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2670181797986583</v>
+        <v>0.2666241830850385</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3431352776953005</v>
+        <v>0.3441045096108054</v>
       </c>
       <c r="K173" t="n">
-        <v>0.3898465425060411</v>
+        <v>0.3892713073041562</v>
       </c>
       <c r="L173" t="n">
-        <v>1.190901081902016</v>
+        <v>1.189143856559272</v>
       </c>
       <c r="M173" t="n">
-        <v>1.419252375591943</v>
+        <v>1.421584836136572</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7864,25 +7864,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H174" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3422720791689617</v>
+        <v>0.3418562002044951</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2673690735085522</v>
+        <v>0.2675381299981727</v>
       </c>
       <c r="K174" t="n">
-        <v>0.3903588473224862</v>
+        <v>0.3906056697973322</v>
       </c>
       <c r="L174" t="n">
-        <v>1.417175084829371</v>
+        <v>1.416174270410817</v>
       </c>
       <c r="M174" t="n">
-        <v>1.192466067848143</v>
+        <v>1.19322005979185</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7903,25 +7903,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H175" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4773525829932021</v>
+        <v>0.4776897381612156</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2124582995962593</v>
+        <v>0.2123212446499124</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3101891174105386</v>
+        <v>0.3099890171888721</v>
       </c>
       <c r="L175" t="n">
-        <v>1.742246866390145</v>
+        <v>1.743058231672519</v>
       </c>
       <c r="M175" t="n">
-        <v>0.9475640161993164</v>
+        <v>0.9469527511386092</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -7942,25 +7942,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H176" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I176" t="n">
-        <v>0.414997918975356</v>
+        <v>0.4149621242218929</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2378057239937577</v>
+        <v>0.2378202747065476</v>
       </c>
       <c r="K176" t="n">
-        <v>0.3471963570308862</v>
+        <v>0.3472176010715595</v>
       </c>
       <c r="L176" t="n">
-        <v>1.592190113956954</v>
+        <v>1.592103973737238</v>
       </c>
       <c r="M176" t="n">
-        <v>1.060613529012159</v>
+        <v>1.060678425191202</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -7981,25 +7981,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H177" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3982196163951966</v>
+        <v>0.3981196634254384</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2446261721970746</v>
+        <v>0.2446668034855942</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3571542114077288</v>
+        <v>0.3572135330889674</v>
       </c>
       <c r="L177" t="n">
-        <v>1.551813060593319</v>
+        <v>1.551572523365283</v>
       </c>
       <c r="M177" t="n">
-        <v>1.091032727998952</v>
+        <v>1.09121394354575</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8020,25 +8020,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H178" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3741225070308101</v>
+        <v>0.3738692073867041</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2544217451094268</v>
+        <v>0.2545247124444292</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3714557478597631</v>
+        <v>0.3716060801688666</v>
       </c>
       <c r="L178" t="n">
-        <v>1.493823268952194</v>
+        <v>1.493213702328979</v>
       </c>
       <c r="M178" t="n">
-        <v>1.134720983188043</v>
+        <v>1.135180217502154</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8165,25 +8165,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H181" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4951917368717127</v>
+        <v>0.4956290135413933</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2052066110277591</v>
+        <v>0.2050288562839865</v>
       </c>
       <c r="K181" t="n">
-        <v>0.2996016521005282</v>
+        <v>0.2993421301746203</v>
       </c>
       <c r="L181" t="n">
-        <v>1.785176862715666</v>
+        <v>1.7862291707988</v>
       </c>
       <c r="M181" t="n">
-        <v>0.9152214851838055</v>
+        <v>0.9144286990265799</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8204,25 +8204,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H182" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4818513638580721</v>
+        <v>0.4821898836094942</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2106295268869626</v>
+        <v>0.2104919172319129</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3075191092549653</v>
+        <v>0.3073181991585928</v>
       </c>
       <c r="L182" t="n">
-        <v>1.753073200829182</v>
+        <v>1.753887849987076</v>
       </c>
       <c r="M182" t="n">
-        <v>0.939407689915853</v>
+        <v>0.9387939508543315</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8296,25 +8296,25 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H184" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3495516769733159</v>
+        <v>0.3491722229081652</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2644098874092212</v>
+        <v>0.2645641370292012</v>
       </c>
       <c r="K184" t="n">
-        <v>0.3860384356174629</v>
+        <v>0.3862636400626336</v>
       </c>
       <c r="L184" t="n">
-        <v>1.43469346653741</v>
+        <v>1.433780308787129</v>
       </c>
       <c r="M184" t="n">
-        <v>1.179268097845126</v>
+        <v>1.179956051150237</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -8335,25 +8335,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H185" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4690113621055053</v>
+        <v>0.4693016678311949</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2158490397945101</v>
+        <v>0.2157310293369126</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3151395980999847</v>
+        <v>0.3149673028318924</v>
       </c>
       <c r="L185" t="n">
-        <v>1.722173684416501</v>
+        <v>1.722872306325477</v>
       </c>
       <c r="M185" t="n">
-        <v>0.9626867174835149</v>
+        <v>0.9621603908426304</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8374,25 +8374,25 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H186" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5154466943102619</v>
+        <v>0.5159489355967712</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1969728884917634</v>
+        <v>0.1967687253671661</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2875804171979746</v>
+        <v>0.2872823390360625</v>
       </c>
       <c r="L186" t="n">
-        <v>1.83392050012876</v>
+        <v>1.835129145826376</v>
       </c>
       <c r="M186" t="n">
-        <v>0.878499082673265</v>
+        <v>0.8775885151375609</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -8413,25 +8413,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H187" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3027486177997125</v>
+        <v>0.3021870205978118</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2834355212196291</v>
+        <v>0.2836638127651172</v>
       </c>
       <c r="K187" t="n">
-        <v>0.4138158609806585</v>
+        <v>0.4141491666370711</v>
       </c>
       <c r="L187" t="n">
-        <v>1.322061714379796</v>
+        <v>1.320710228430507</v>
       </c>
       <c r="M187" t="n">
-        <v>1.264122424639546</v>
+        <v>1.265140604932423</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8452,25 +8452,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H188" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6304437304495104</v>
+        <v>0.6314755019074809</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1502261258335324</v>
+        <v>0.1498067065416744</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2193301437169572</v>
+        <v>0.2187177915508446</v>
       </c>
       <c r="L188" t="n">
-        <v>2.110661335065489</v>
+        <v>2.113144297273287</v>
       </c>
       <c r="M188" t="n">
-        <v>0.6700085212175544</v>
+        <v>0.6681379111758678</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8544,25 +8544,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H190" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4142457356579724</v>
+        <v>0.4142058842922062</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2381114895699299</v>
+        <v>0.2381276893121113</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3476427747720977</v>
+        <v>0.3476664263956825</v>
       </c>
       <c r="L190" t="n">
-        <v>1.590379981746015</v>
+        <v>1.590284079272301</v>
       </c>
       <c r="M190" t="n">
-        <v>1.061977243481888</v>
+        <v>1.062049494332016</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -8583,25 +8583,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H191" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3989922458070131</v>
+        <v>0.3988964160337048</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2443120952004011</v>
+        <v>0.2443510503928029</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3566956589925857</v>
+        <v>0.3567525335734922</v>
       </c>
       <c r="L191" t="n">
-        <v>1.553672396413625</v>
+        <v>1.553441781674607</v>
       </c>
       <c r="M191" t="n">
-        <v>1.089631944593789</v>
+        <v>1.089805684751901</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8675,25 +8675,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H193" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2523069190342919</v>
+        <v>0.2518194013873412</v>
       </c>
       <c r="J193" t="n">
-        <v>0.379324979175642</v>
+        <v>0.3805242725871406</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3683681017900661</v>
+        <v>0.3676563260255182</v>
       </c>
       <c r="L193" t="n">
-        <v>1.125288858892942</v>
+        <v>1.123114530187542</v>
       </c>
       <c r="M193" t="n">
-        <v>1.506343039316992</v>
+        <v>1.50922914378694</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8714,25 +8714,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H194" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I194" t="n">
-        <v>0.5471353808182174</v>
+        <v>0.5477977415914508</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1840913086104808</v>
+        <v>0.1838220562636379</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2687733105713019</v>
+        <v>0.2683802021449113</v>
       </c>
       <c r="L194" t="n">
-        <v>1.910179453025954</v>
+        <v>1.911773426919264</v>
       </c>
       <c r="M194" t="n">
-        <v>0.8210472364027441</v>
+        <v>0.8198463709358249</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8753,25 +8753,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H195" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2833881366838932</v>
+        <v>0.2831003416835539</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3028651837576226</v>
+        <v>0.3035731594584576</v>
       </c>
       <c r="K195" t="n">
-        <v>0.4137466795584842</v>
+        <v>0.4133264988579885</v>
       </c>
       <c r="L195" t="n">
-        <v>1.263911089610164</v>
+        <v>1.26262752390865</v>
       </c>
       <c r="M195" t="n">
-        <v>1.322342230831352</v>
+        <v>1.324045977233361</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -8792,25 +8792,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="H196" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I196" t="n">
-        <v>0.5798648784850071</v>
+        <v>0.5806828158515769</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1707866347621922</v>
+        <v>0.170454139897733</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2493484867528007</v>
+        <v>0.2488630442506901</v>
       </c>
       <c r="L196" t="n">
-        <v>1.988943122207822</v>
+        <v>1.990911491805421</v>
       </c>
       <c r="M196" t="n">
-        <v>0.7617083910393774</v>
+        <v>0.7602254639438891</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8937,25 +8937,25 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H199" t="n">
-        <v>91.4773609447</v>
+        <v>91.4284250658</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2407963696161286</v>
+        <v>0.2402382124163653</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4076409307443235</v>
+        <v>0.4090139974557416</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3515626996395478</v>
+        <v>0.3507477901278933</v>
       </c>
       <c r="L199" t="n">
-        <v>1.073951808487934</v>
+        <v>1.071462427376989</v>
       </c>
       <c r="M199" t="n">
-        <v>1.574485491872518</v>
+        <v>1.577789782495118</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -8976,25 +8976,25 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H200" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I200" t="n">
-        <v>0.2407841245814929</v>
+        <v>0.2402080485395601</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4076710535295275</v>
+        <v>0.4090882005926822</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3515448218889796</v>
+        <v>0.3507037508677577</v>
       </c>
       <c r="L200" t="n">
-        <v>1.073897195633458</v>
+        <v>1.071327896486438</v>
       </c>
       <c r="M200" t="n">
-        <v>1.574557982477562</v>
+        <v>1.577968352645805</v>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
@@ -9068,25 +9068,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H202" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2701248587262692</v>
+        <v>0.2697471389894154</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3354928475333779</v>
+        <v>0.336422038086038</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3943822937403529</v>
+        <v>0.3938308229245466</v>
       </c>
       <c r="L202" t="n">
-        <v>1.20475686991916</v>
+        <v>1.203072239892793</v>
       </c>
       <c r="M202" t="n">
-        <v>1.400860836340487</v>
+        <v>1.40309693718266</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9160,25 +9160,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H204" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I204" t="n">
-        <v>0.2541974422019441</v>
+        <v>0.2537114441403935</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3746742921832176</v>
+        <v>0.3758698474146319</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3711282656148383</v>
+        <v>0.3704187084449746</v>
       </c>
       <c r="L204" t="n">
-        <v>1.133720592220671</v>
+        <v>1.131553040866155</v>
       </c>
       <c r="M204" t="n">
-        <v>1.495151142164491</v>
+        <v>1.49802825068887</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9199,25 +9199,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H205" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I205" t="n">
-        <v>0.6245659571929696</v>
+        <v>0.6256013000826474</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1526154645557034</v>
+        <v>0.1521945934623385</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2228185782513269</v>
+        <v>0.2222041064550142</v>
       </c>
       <c r="L205" t="n">
-        <v>2.096516449830236</v>
+        <v>2.099008006702956</v>
       </c>
       <c r="M205" t="n">
-        <v>0.680664971918437</v>
+        <v>0.6787878868420297</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9291,25 +9291,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H207" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6736083403578742</v>
+        <v>0.6748410749097404</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1326795364398885</v>
+        <v>0.1321784248334388</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1937121232022372</v>
+        <v>0.1929805002568206</v>
       </c>
       <c r="L207" t="n">
-        <v>2.21453714427586</v>
+        <v>2.217503724986042</v>
       </c>
       <c r="M207" t="n">
-        <v>0.5917507325219027</v>
+        <v>0.5895157747571371</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9383,25 +9383,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H209" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I209" t="n">
-        <v>0.512335356325532</v>
+        <v>0.5128057110227647</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1982376600302715</v>
+        <v>0.1980464589338355</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2894269836441964</v>
+        <v>0.2891478300433998</v>
       </c>
       <c r="L209" t="n">
-        <v>1.826433052620792</v>
+        <v>1.827564963111694</v>
       </c>
       <c r="M209" t="n">
-        <v>0.8841399637350111</v>
+        <v>0.8832872068449062</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9422,25 +9422,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H210" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I210" t="n">
-        <v>0.2439328139555526</v>
+        <v>0.2433777058356029</v>
       </c>
       <c r="J210" t="n">
-        <v>0.3999252776693405</v>
+        <v>0.4012908436444169</v>
       </c>
       <c r="K210" t="n">
-        <v>0.3561419083751068</v>
+        <v>0.3553314505199802</v>
       </c>
       <c r="L210" t="n">
-        <v>1.087940350241765</v>
+        <v>1.085464568026789</v>
       </c>
       <c r="M210" t="n">
-        <v>1.555917741383128</v>
+        <v>1.559203981453231</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9461,25 +9461,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H211" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6501436713748001</v>
+        <v>0.6512866378259073</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1422180197663414</v>
+        <v>0.1417533992577613</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2076383088588585</v>
+        <v>0.2069599629163314</v>
       </c>
       <c r="L211" t="n">
-        <v>2.158069322983259</v>
+        <v>2.160819876394053</v>
       </c>
       <c r="M211" t="n">
-        <v>0.6342923681578827</v>
+        <v>0.6322201606896152</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9500,25 +9500,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H212" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3292168293568574</v>
+        <v>0.3287738345357016</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2726760856272937</v>
+        <v>0.2728561648228855</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3981070850158488</v>
+        <v>0.3983700006414128</v>
       </c>
       <c r="L212" t="n">
-        <v>1.385757573086421</v>
+        <v>1.384691504248518</v>
       </c>
       <c r="M212" t="n">
-        <v>1.21613534189773</v>
+        <v>1.216938495110069</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9539,25 +9539,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H213" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I213" t="n">
-        <v>0.4774007153101677</v>
+        <v>0.4777004321238273</v>
       </c>
       <c r="J213" t="n">
-        <v>0.212438733613753</v>
+        <v>0.2123168975106393</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3101605510760793</v>
+        <v>0.3099826703655333</v>
       </c>
       <c r="L213" t="n">
-        <v>1.742362697006582</v>
+        <v>1.743083966737015</v>
       </c>
       <c r="M213" t="n">
-        <v>0.9474767519173382</v>
+        <v>0.9469333628974512</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9578,25 +9578,25 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H214" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4404305430880522</v>
+        <v>0.4405324322187139</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2274672589072959</v>
+        <v>0.2274258405614984</v>
       </c>
       <c r="K214" t="n">
-        <v>0.332102198004652</v>
+        <v>0.3320417272197877</v>
       </c>
       <c r="L214" t="n">
-        <v>1.653393827268809</v>
+        <v>1.65363902387593</v>
       </c>
       <c r="M214" t="n">
-        <v>1.014503974726539</v>
+        <v>1.014319248904283</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -9617,25 +9617,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H215" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3585493841633307</v>
+        <v>0.3582468553925701</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2607522828604347</v>
+        <v>0.2608752620355406</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3806983329762346</v>
+        <v>0.3808778825718892</v>
       </c>
       <c r="L215" t="n">
-        <v>1.456346485466227</v>
+        <v>1.4556184487496</v>
       </c>
       <c r="M215" t="n">
-        <v>1.162955181557539</v>
+        <v>1.163503668678511</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9709,25 +9709,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H217" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I217" t="n">
-        <v>0.5827611486182787</v>
+        <v>0.5836030543283778</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1696092891795615</v>
+        <v>0.1692670510860254</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2476295622021598</v>
+        <v>0.247129894585597</v>
       </c>
       <c r="L217" t="n">
-        <v>1.995913008056996</v>
+        <v>1.99793905757073</v>
       </c>
       <c r="M217" t="n">
-        <v>0.7564574297408443</v>
+        <v>0.754931047843673</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9748,25 +9748,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H218" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4362778783828927</v>
+        <v>0.4363587476204318</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2291553339906941</v>
+        <v>0.2291224603168976</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3345667876264133</v>
+        <v>0.3345187920626705</v>
       </c>
       <c r="L218" t="n">
-        <v>1.643400422775091</v>
+        <v>1.643595034923966</v>
       </c>
       <c r="M218" t="n">
-        <v>1.022032789598496</v>
+        <v>1.021886173013363</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -9840,25 +9840,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="H220" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3579132559166178</v>
+        <v>0.3576044223414878</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2610108715786106</v>
+        <v>0.261136413682322</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3810758725047715</v>
+        <v>0.3812591639761901</v>
       </c>
       <c r="L220" t="n">
-        <v>1.454815640254625</v>
+        <v>1.454072431000654</v>
       </c>
       <c r="M220" t="n">
-        <v>1.164108487240604</v>
+        <v>1.164668405023156</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9985,25 +9985,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H223" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I223" t="n">
-        <v>0.4106479223126045</v>
+        <v>0.410599526992189</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2395740153200795</v>
+        <v>0.2395936882145573</v>
       </c>
       <c r="K223" t="n">
-        <v>0.349778062367316</v>
+        <v>0.3498067847932537</v>
       </c>
       <c r="L223" t="n">
-        <v>1.581721829305129</v>
+        <v>1.581605365769821</v>
       </c>
       <c r="M223" t="n">
-        <v>1.068500108327554</v>
+        <v>1.068587849436926</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10077,25 +10077,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H225" t="n">
-        <v>86.27087000580001</v>
+        <v>86.19489223870001</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3356339807248542</v>
+        <v>0.3352282290738052</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2700674875102219</v>
+        <v>0.2702324272057703</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3942985317649239</v>
+        <v>0.3945393437204246</v>
       </c>
       <c r="L225" t="n">
-        <v>1.401200473939486</v>
+        <v>1.40022403094184</v>
       </c>
       <c r="M225" t="n">
-        <v>1.20450099429559</v>
+        <v>1.205236625337735</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10116,25 +10116,25 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H226" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I226" t="n">
-        <v>0.4858637628186228</v>
+        <v>0.4862343599531668</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2089984703989338</v>
+        <v>0.2088478211572493</v>
       </c>
       <c r="K226" t="n">
-        <v>0.3051377667824434</v>
+        <v>0.304917818889584</v>
       </c>
       <c r="L226" t="n">
-        <v>1.762729055238312</v>
+        <v>1.763620898749084</v>
       </c>
       <c r="M226" t="n">
-        <v>0.932133177979245</v>
+        <v>0.9314612823613317</v>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
@@ -10155,25 +10155,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H227" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I227" t="n">
-        <v>0.3343355202614526</v>
+        <v>0.333893811511559</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2705953169668892</v>
+        <v>0.270774873369285</v>
       </c>
       <c r="K227" t="n">
-        <v>0.3950691627716582</v>
+        <v>0.395331315119156</v>
       </c>
       <c r="L227" t="n">
-        <v>1.398075723556016</v>
+        <v>1.397012749653833</v>
       </c>
       <c r="M227" t="n">
-        <v>1.206855113672326</v>
+        <v>1.207655935227011</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10194,25 +10194,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H228" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I228" t="n">
-        <v>0.4432976010293313</v>
+        <v>0.443433109125699</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2263017881994588</v>
+        <v>0.2262467036074394</v>
       </c>
       <c r="K228" t="n">
-        <v>0.3304006107712099</v>
+        <v>0.3303201872668616</v>
       </c>
       <c r="L228" t="n">
-        <v>1.660293413859204</v>
+        <v>1.660619514643959</v>
       </c>
       <c r="M228" t="n">
-        <v>1.009305975369586</v>
+        <v>1.00906029808918</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10233,25 +10233,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H229" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I229" t="n">
-        <v>0.3750617680896698</v>
+        <v>0.3748242380931501</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2540399316708659</v>
+        <v>0.2541364885800203</v>
       </c>
       <c r="K229" t="n">
-        <v>0.3708983002394642</v>
+        <v>0.3710392733268296</v>
       </c>
       <c r="L229" t="n">
-        <v>1.496083604508474</v>
+        <v>1.49551198760628</v>
       </c>
       <c r="M229" t="n">
-        <v>1.133018095252062</v>
+        <v>1.13344873906689</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10272,25 +10272,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H230" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I230" t="n">
-        <v>0.3929151924953108</v>
+        <v>0.392772200866801</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2467824420750769</v>
+        <v>0.2468405687533329</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3603023654296122</v>
+        <v>0.360387230379866</v>
       </c>
       <c r="L230" t="n">
-        <v>1.539047942915545</v>
+        <v>1.538703832980269</v>
       </c>
       <c r="M230" t="n">
-        <v>1.100649691654843</v>
+        <v>1.100908936639865</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10364,25 +10364,25 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H232" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I232" t="n">
-        <v>0.5533351715990318</v>
+        <v>0.5540732615108184</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1815710684556781</v>
+        <v>0.1812710319061714</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2650937599452901</v>
+        <v>0.2646557065830102</v>
       </c>
       <c r="L232" t="n">
-        <v>1.925099274742385</v>
+        <v>1.926875491115465</v>
       </c>
       <c r="M232" t="n">
-        <v>0.8098069653123245</v>
+        <v>0.8084688023015245</v>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -10456,25 +10456,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H234" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I234" t="n">
-        <v>0.4172121051253977</v>
+        <v>0.4172027800226163</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2369056483230091</v>
+        <v>0.2369094390151966</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3458822465515933</v>
+        <v>0.345887780962187</v>
       </c>
       <c r="L234" t="n">
-        <v>1.597518561927787</v>
+        <v>1.597496121030036</v>
       </c>
       <c r="M234" t="n">
-        <v>1.056599191520621</v>
+        <v>1.056616098007777</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10495,25 +10495,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H235" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I235" t="n">
-        <v>0.4013446713225645</v>
+        <v>0.4012479443783222</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2433558246656242</v>
+        <v>0.2433951445616576</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3552995040118113</v>
+        <v>0.3553569110600202</v>
       </c>
       <c r="L235" t="n">
-        <v>1.559333517979505</v>
+        <v>1.559100744194987</v>
       </c>
       <c r="M235" t="n">
-        <v>1.085366978008684</v>
+        <v>1.085542344744993</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10534,25 +10534,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H236" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I236" t="n">
-        <v>0.586275208816415</v>
+        <v>0.5871583052408819</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1681808094242215</v>
+        <v>0.1678218271378529</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2455439817593634</v>
+        <v>0.2450198676212653</v>
       </c>
       <c r="L236" t="n">
-        <v>2.004369608208608</v>
+        <v>2.006494783343911</v>
       </c>
       <c r="M236" t="n">
-        <v>0.750086410032028</v>
+        <v>0.7484853490348241</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10573,25 +10573,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H237" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I237" t="n">
-        <v>0.2707478951333131</v>
+        <v>0.2703651459996774</v>
       </c>
       <c r="J237" t="n">
-        <v>0.3339601779720497</v>
+        <v>0.3349017408407935</v>
       </c>
       <c r="K237" t="n">
-        <v>0.3952919268946372</v>
+        <v>0.394733113159529</v>
       </c>
       <c r="L237" t="n">
-        <v>1.207535612294576</v>
+        <v>1.205828551158561</v>
       </c>
       <c r="M237" t="n">
-        <v>1.397172460810786</v>
+        <v>1.39943833568191</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -10612,25 +10612,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H238" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I238" t="n">
-        <v>0.6944279390561841</v>
+        <v>0.6957127747605605</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1242162849365105</v>
+        <v>0.1236939939997722</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1813557760073054</v>
+        <v>0.1805932312396673</v>
       </c>
       <c r="L238" t="n">
-        <v>2.264639593175858</v>
+        <v>2.267731555521349</v>
       </c>
       <c r="M238" t="n">
-        <v>0.554004630816837</v>
+        <v>0.5516752132389838</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10651,25 +10651,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H239" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2234212769805579</v>
+        <v>0.2227421316352854</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4503836586278276</v>
+        <v>0.4520543561771977</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3261950643916145</v>
+        <v>0.3252035121875168</v>
       </c>
       <c r="L239" t="n">
-        <v>0.9964588953332881</v>
+        <v>0.993429907093373</v>
       </c>
       <c r="M239" t="n">
-        <v>1.677346040275097</v>
+        <v>1.68136658071911</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10743,25 +10743,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H241" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3350532119605137</v>
+        <v>0.3346149209868705</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2703035723737749</v>
+        <v>0.2704817394362315</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3946432156657114</v>
+        <v>0.3949033395768979</v>
       </c>
       <c r="L241" t="n">
-        <v>1.399802851547252</v>
+        <v>1.398748102537509</v>
       </c>
       <c r="M241" t="n">
-        <v>1.205553932787036</v>
+        <v>1.206348557885592</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10782,25 +10782,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H242" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I242" t="n">
-        <v>0.6908370750895702</v>
+        <v>0.6921122872906241</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1256759857359471</v>
+        <v>0.1251576067924292</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1834869391744828</v>
+        <v>0.1827301059169466</v>
       </c>
       <c r="L242" t="n">
-        <v>2.255998164443193</v>
+        <v>2.259066967788819</v>
       </c>
       <c r="M242" t="n">
-        <v>0.5605148963823241</v>
+        <v>0.5582029262942342</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10821,25 +10821,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H243" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I243" t="n">
-        <v>0.2251848498375912</v>
+        <v>0.2245157614657133</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4460452693995257</v>
+        <v>0.4476912267943453</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3287698807628832</v>
+        <v>0.3277930117399414</v>
       </c>
       <c r="L243" t="n">
-        <v>1.004324430275657</v>
+        <v>1.001340296137081</v>
       </c>
       <c r="M243" t="n">
-        <v>1.66690568896146</v>
+        <v>1.670866692122977</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10913,25 +10913,25 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H245" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I245" t="n">
-        <v>0.2585266613178292</v>
+        <v>0.2580634075502388</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3640244131581402</v>
+        <v>0.3651640174264125</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3774489255240306</v>
+        <v>0.3767725750233487</v>
       </c>
       <c r="L245" t="n">
-        <v>1.153028909477518</v>
+        <v>1.150962797674065</v>
       </c>
       <c r="M245" t="n">
-        <v>1.469522164998451</v>
+        <v>1.472264627302586</v>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -10952,25 +10952,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H246" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6477127934798452</v>
+        <v>0.6488504154529986</v>
       </c>
       <c r="J246" t="n">
-        <v>0.143206181512258</v>
+        <v>0.1427437335556916</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2090810250078967</v>
+        <v>0.2084058509913097</v>
       </c>
       <c r="L246" t="n">
-        <v>2.152219405447432</v>
+        <v>2.154957097350306</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6386995695446707</v>
+        <v>0.6366370516583845</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11044,25 +11044,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="H248" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I248" t="n">
-        <v>0.7146667880366636</v>
+        <v>0.7160000030310465</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1159891105542018</v>
+        <v>0.115447153239412</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1693441014091347</v>
+        <v>0.1685528437295415</v>
       </c>
       <c r="L248" t="n">
-        <v>2.313344465519125</v>
+        <v>2.316552852822681</v>
       </c>
       <c r="M248" t="n">
-        <v>0.5173114330717402</v>
+        <v>0.5148943034477775</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11083,25 +11083,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H249" t="n">
-        <v>93.407623577</v>
+        <v>93.36966548620001</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2132008303734687</v>
+        <v>0.2124655202407399</v>
       </c>
       <c r="J249" t="n">
-        <v>0.475525957281267</v>
+        <v>0.4773348202077798</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3112732123452643</v>
+        <v>0.3101996595514803</v>
       </c>
       <c r="L249" t="n">
-        <v>0.9508757034656704</v>
+        <v>0.9475962202736998</v>
       </c>
       <c r="M249" t="n">
-        <v>1.737851084189066</v>
+        <v>1.74220412017482</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11175,25 +11175,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H251" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I251" t="n">
-        <v>0.4499881412553261</v>
+        <v>0.4501581599563332</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2235820564002739</v>
+        <v>0.2235129431071816</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3264298023443999</v>
+        <v>0.3263288969364852</v>
       </c>
       <c r="L251" t="n">
-        <v>1.676394226110378</v>
+        <v>1.676803376805485</v>
       </c>
       <c r="M251" t="n">
-        <v>0.9971759715452218</v>
+        <v>0.9968677262580301</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11214,25 +11214,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H252" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3192301613806668</v>
+        <v>0.3187157699911142</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2767357067558265</v>
+        <v>0.2769448089467015</v>
       </c>
       <c r="K252" t="n">
-        <v>0.4040341318635067</v>
+        <v>0.4043394210621843</v>
       </c>
       <c r="L252" t="n">
-        <v>1.361724616005507</v>
+        <v>1.360486731035527</v>
       </c>
       <c r="M252" t="n">
-        <v>1.234241252130986</v>
+        <v>1.235173847902289</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11253,25 +11253,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H253" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I253" t="n">
-        <v>0.5037144388827158</v>
+        <v>0.50418477091864</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2017420980151562</v>
+        <v>0.2015509061306341</v>
       </c>
       <c r="K253" t="n">
-        <v>0.294543463102128</v>
+        <v>0.2942643229507258</v>
       </c>
       <c r="L253" t="n">
-        <v>1.805686779750275</v>
+        <v>1.806818635706646</v>
       </c>
       <c r="M253" t="n">
-        <v>0.8997697571475964</v>
+        <v>0.8989170413426282</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11292,25 +11292,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H254" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4730058249906275</v>
+        <v>0.4733095354034497</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2142252743940539</v>
+        <v>0.2141018148766465</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3127689006153186</v>
+        <v>0.3125886497199039</v>
       </c>
       <c r="L254" t="n">
-        <v>1.731786375587201</v>
+        <v>1.732517255930253</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9554447237974804</v>
+        <v>0.9548940943498434</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11331,25 +11331,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H255" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3406629460260766</v>
+        <v>0.3402479126087086</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2680231926723266</v>
+        <v>0.2681919054436144</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3913138613015968</v>
+        <v>0.3915601819476769</v>
       </c>
       <c r="L255" t="n">
-        <v>1.413302699379827</v>
+        <v>1.412303919773803</v>
       </c>
       <c r="M255" t="n">
-        <v>1.195383439318576</v>
+        <v>1.19613589827852</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11370,25 +11370,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H256" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3415339705116303</v>
+        <v>0.3411277545819532</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2676691176781991</v>
+        <v>0.2678342461048971</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3907969118101706</v>
+        <v>0.3910379993131498</v>
       </c>
       <c r="L256" t="n">
-        <v>1.415398823345062</v>
+        <v>1.41442126305901</v>
       </c>
       <c r="M256" t="n">
-        <v>1.193804264844768</v>
+        <v>1.194540737627841</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11409,25 +11409,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H257" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I257" t="n">
-        <v>0.4775096976168818</v>
+        <v>0.4778335130769306</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2123944318630562</v>
+        <v>0.2122627995622233</v>
       </c>
       <c r="K257" t="n">
-        <v>0.310095870520062</v>
+        <v>0.3099036873608461</v>
       </c>
       <c r="L257" t="n">
-        <v>1.742624963370707</v>
+        <v>1.743404226591638</v>
       </c>
       <c r="M257" t="n">
-        <v>0.9472791661092307</v>
+        <v>0.9466920860475161</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11448,25 +11448,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H258" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I258" t="n">
-        <v>0.5065873947522376</v>
+        <v>0.5070556746186753</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2005742297755132</v>
+        <v>0.2003838721062295</v>
       </c>
       <c r="K258" t="n">
-        <v>0.2928383754722493</v>
+        <v>0.2925604532750951</v>
       </c>
       <c r="L258" t="n">
-        <v>1.812600559728962</v>
+        <v>1.813727477131121</v>
       </c>
       <c r="M258" t="n">
-        <v>0.8945610647987889</v>
+        <v>0.8937120695937837</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11540,25 +11540,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H260" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I260" t="n">
-        <v>0.6221456792412053</v>
+        <v>0.6231544869984381</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1535993173816238</v>
+        <v>0.1531892329274642</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2242550033771707</v>
+        <v>0.2236562800740978</v>
       </c>
       <c r="L260" t="n">
-        <v>2.090692041100787</v>
+        <v>2.093119741069412</v>
       </c>
       <c r="M260" t="n">
-        <v>0.6850529555220422</v>
+        <v>0.6832239788564904</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11579,25 +11579,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H261" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I261" t="n">
-        <v>0.2538876494402135</v>
+        <v>0.2534063155754919</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3754363823770747</v>
+        <v>0.37662046368429</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3706759681827118</v>
+        <v>0.3699732207402182</v>
       </c>
       <c r="L261" t="n">
-        <v>1.132338916503352</v>
+        <v>1.130192167466694</v>
       </c>
       <c r="M261" t="n">
-        <v>1.496985115313936</v>
+        <v>1.499834611793088</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11618,25 +11618,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H262" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4056696052705497</v>
+        <v>0.405596862599873</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2415977214347359</v>
+        <v>0.2416272916260679</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3527326732947145</v>
+        <v>0.3527758457740591</v>
       </c>
       <c r="L262" t="n">
-        <v>1.569741489106363</v>
+        <v>1.569566433573678</v>
       </c>
       <c r="M262" t="n">
-        <v>1.077525837598922</v>
+        <v>1.077657720652263</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -11710,25 +11710,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H264" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I264" t="n">
-        <v>0.6181724491943822</v>
+        <v>0.6191654224114685</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1552144515469991</v>
+        <v>0.154810803897777</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2266130992586187</v>
+        <v>0.2260237736907545</v>
       </c>
       <c r="L264" t="n">
-        <v>2.081130446841765</v>
+        <v>2.08352004092516</v>
       </c>
       <c r="M264" t="n">
-        <v>0.6922564538996161</v>
+        <v>0.6904561853840856</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11802,25 +11802,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H266" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I266" t="n">
-        <v>0.5383365352798111</v>
+        <v>0.5389667612137844</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1876680750895077</v>
+        <v>0.1874118856854535</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2739953896306813</v>
+        <v>0.2736213531007621</v>
       </c>
       <c r="L266" t="n">
-        <v>1.889004995470114</v>
+        <v>1.890521636742115</v>
       </c>
       <c r="M266" t="n">
-        <v>0.8369996148992044</v>
+        <v>0.8358570101571225</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11894,25 +11894,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H268" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I268" t="n">
-        <v>0.5712035731201578</v>
+        <v>0.5719922704843666</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1743074906015619</v>
+        <v>0.1739868819169242</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2544889362782804</v>
+        <v>0.2540208475987093</v>
       </c>
       <c r="L268" t="n">
-        <v>1.968099655638754</v>
+        <v>1.969997659051809</v>
       </c>
       <c r="M268" t="n">
-        <v>0.7774114080829662</v>
+        <v>0.7759814933494817</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -11933,25 +11933,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H269" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I269" t="n">
-        <v>0.2742524192229502</v>
+        <v>0.2739014435117607</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3253390487115422</v>
+        <v>0.3262024489610687</v>
       </c>
       <c r="K269" t="n">
-        <v>0.4004085320655075</v>
+        <v>0.3998961075271706</v>
       </c>
       <c r="L269" t="n">
-        <v>1.223165789734358</v>
+        <v>1.221600438062453</v>
       </c>
       <c r="M269" t="n">
-        <v>1.376425678200134</v>
+        <v>1.378503454410377</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -11972,25 +11972,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="H270" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6447226616620562</v>
+        <v>0.6458164985219056</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1444216822511967</v>
+        <v>0.1439770331211765</v>
       </c>
       <c r="K270" t="n">
-        <v>0.2108556560867472</v>
+        <v>0.2102064683569178</v>
       </c>
       <c r="L270" t="n">
-        <v>2.145023641072916</v>
+        <v>2.147655963922634</v>
       </c>
       <c r="M270" t="n">
-        <v>0.6441207028403373</v>
+        <v>0.6421375677204474</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12011,25 +12011,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H271" t="n">
-        <v>91.23871922470001</v>
+        <v>91.18885800530001</v>
       </c>
       <c r="I271" t="n">
-        <v>0.2441319300829224</v>
+        <v>0.2435903113049068</v>
       </c>
       <c r="J271" t="n">
-        <v>0.3994354519960112</v>
+        <v>0.4007678341899293</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3564326179210666</v>
+        <v>0.3556418545051639</v>
       </c>
       <c r="L271" t="n">
-        <v>1.088828408169834</v>
+        <v>1.086412788419884</v>
       </c>
       <c r="M271" t="n">
-        <v>1.5547389739091</v>
+        <v>1.557945357074952</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12050,25 +12050,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H272" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I272" t="n">
-        <v>0.3591090323825342</v>
+        <v>0.3587877787095891</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2605247835843357</v>
+        <v>0.2606553745082971</v>
       </c>
       <c r="K272" t="n">
-        <v>0.3803661840331301</v>
+        <v>0.3805568467821138</v>
       </c>
       <c r="L272" t="n">
-        <v>1.457693281180733</v>
+        <v>1.456920182910881</v>
       </c>
       <c r="M272" t="n">
-        <v>1.161940534786137</v>
+        <v>1.162522970307005</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -12089,25 +12089,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H273" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4609866081224051</v>
+        <v>0.461221920234511</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2191111349095914</v>
+        <v>0.219015479579467</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3199022569680035</v>
+        <v>0.3197626001860219</v>
       </c>
       <c r="L273" t="n">
-        <v>1.702862081335219</v>
+        <v>1.703428360889555</v>
       </c>
       <c r="M273" t="n">
-        <v>0.9772356616967779</v>
+        <v>0.9768090389244231</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12128,25 +12128,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H274" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5174920682417182</v>
+        <v>0.5180389264949021</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1961414356740983</v>
+        <v>0.195919135571178</v>
       </c>
       <c r="K274" t="n">
-        <v>0.2863664960841834</v>
+        <v>0.2860419379339199</v>
       </c>
       <c r="L274" t="n">
-        <v>1.838842700809338</v>
+        <v>1.840158717418626</v>
       </c>
       <c r="M274" t="n">
-        <v>0.8747908031064782</v>
+        <v>0.8737993446474539</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12273,25 +12273,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H277" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4350561095403142</v>
+        <v>0.4351454248858582</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2296519879917422</v>
+        <v>0.2296156809407081</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3352919024679436</v>
+        <v>0.3352388941734338</v>
       </c>
       <c r="L277" t="n">
-        <v>1.640460231088886</v>
+        <v>1.640675168831008</v>
       </c>
       <c r="M277" t="n">
-        <v>1.02424786644317</v>
+        <v>1.024085936995558</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12365,25 +12365,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H279" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I279" t="n">
-        <v>0.2829801291462012</v>
+        <v>0.2826820518150842</v>
       </c>
       <c r="J279" t="n">
-        <v>0.3038688823003449</v>
+        <v>0.3046021525348929</v>
       </c>
       <c r="K279" t="n">
-        <v>0.4131509885534538</v>
+        <v>0.4127157956500229</v>
       </c>
       <c r="L279" t="n">
-        <v>1.262091375992057</v>
+        <v>1.260761951095275</v>
       </c>
       <c r="M279" t="n">
-        <v>1.324757635454489</v>
+        <v>1.326522253254702</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12457,25 +12457,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H281" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2372520939895569</v>
+        <v>0.2366609798015351</v>
       </c>
       <c r="J281" t="n">
-        <v>0.4163598487856899</v>
+        <v>0.4178139896882238</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3463880572247531</v>
+        <v>0.3455250305102412</v>
       </c>
       <c r="L281" t="n">
-        <v>1.058144339193424</v>
+        <v>1.055507969914846</v>
       </c>
       <c r="M281" t="n">
-        <v>1.595467603581823</v>
+        <v>1.598966999574913</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12496,25 +12496,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H282" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I282" t="n">
-        <v>0.4492212380138921</v>
+        <v>0.4493870475477106</v>
       </c>
       <c r="J282" t="n">
-        <v>0.2238938056854097</v>
+        <v>0.22382640343589</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3268849563006982</v>
+        <v>0.3267865490163994</v>
       </c>
       <c r="L282" t="n">
-        <v>1.674548670342374</v>
+        <v>1.674947691659531</v>
       </c>
       <c r="M282" t="n">
-        <v>0.9985663733569274</v>
+        <v>0.9982657593240694</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12535,25 +12535,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H283" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I283" t="n">
-        <v>0.3666063082546261</v>
+        <v>0.3663272600269403</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2574771104655992</v>
+        <v>0.2575905447044958</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3759165812797748</v>
+        <v>0.3760821952685639</v>
       </c>
       <c r="L283" t="n">
-        <v>1.475735506043653</v>
+        <v>1.475063975349385</v>
       </c>
       <c r="M283" t="n">
-        <v>1.148347912676572</v>
+        <v>1.148853829382051</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -12574,25 +12574,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H284" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I284" t="n">
-        <v>0.6592327630424755</v>
+        <v>0.6603956480080796</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1385232670559043</v>
+        <v>0.1380505495902115</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2022439699016203</v>
+        <v>0.2015538024017088</v>
       </c>
       <c r="L284" t="n">
-        <v>2.179942259029047</v>
+        <v>2.182740746425948</v>
       </c>
       <c r="M284" t="n">
-        <v>0.6178137710693332</v>
+        <v>0.6157054511723433</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12613,25 +12613,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H285" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I285" t="n">
-        <v>0.2389823336110285</v>
+        <v>0.2384016549718787</v>
       </c>
       <c r="J285" t="n">
-        <v>0.41210345931687</v>
+        <v>0.4135319287691783</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3489142070721015</v>
+        <v>0.348066416258943</v>
       </c>
       <c r="L285" t="n">
-        <v>1.065861207905187</v>
+        <v>1.063271381174579</v>
       </c>
       <c r="M285" t="n">
-        <v>1.585224585022712</v>
+        <v>1.588662202566478</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12652,25 +12652,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H286" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5821793603715678</v>
+        <v>0.5830323992084745</v>
       </c>
       <c r="J286" t="n">
-        <v>0.1698457884668423</v>
+        <v>0.1694990247120022</v>
       </c>
       <c r="K286" t="n">
-        <v>0.2479748511615898</v>
+        <v>0.2474685760795233</v>
       </c>
       <c r="L286" t="n">
-        <v>1.994512932276293</v>
+        <v>1.996565773704947</v>
       </c>
       <c r="M286" t="n">
-        <v>0.7575122165621169</v>
+        <v>0.7559656502155299</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12691,25 +12691,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H287" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I287" t="n">
-        <v>0.2713102215813599</v>
+        <v>0.2709352112308577</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3325768549098548</v>
+        <v>0.3334993803720901</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3961129235087854</v>
+        <v>0.3955654083970522</v>
       </c>
       <c r="L287" t="n">
-        <v>1.210043588252865</v>
+        <v>1.208371042089625</v>
       </c>
       <c r="M287" t="n">
-        <v>1.39384348823835</v>
+        <v>1.396063549513323</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12730,25 +12730,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H288" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I288" t="n">
-        <v>0.6141622074009669</v>
+        <v>0.6151552570929867</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1568446311378183</v>
+        <v>0.1564409524012249</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2289931614612147</v>
+        <v>0.2284037905057884</v>
       </c>
       <c r="L288" t="n">
-        <v>2.071479783664115</v>
+        <v>2.073869561784749</v>
       </c>
       <c r="M288" t="n">
-        <v>0.6995270548746695</v>
+        <v>0.6977266477094632</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12769,25 +12769,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H289" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="I289" t="n">
-        <v>0.258543008783533</v>
+        <v>0.2580848478127348</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3639841983925088</v>
+        <v>0.3651112743806726</v>
       </c>
       <c r="K289" t="n">
-        <v>0.3774727928239582</v>
+        <v>0.3768038778065927</v>
       </c>
       <c r="L289" t="n">
-        <v>1.153101819174557</v>
+        <v>1.151058421244797</v>
       </c>
       <c r="M289" t="n">
-        <v>1.469425388001485</v>
+        <v>1.472137700948611</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12808,25 +12808,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>92.4373253908</v>
+        <v>92.3940054373</v>
       </c>
       <c r="H290" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I290" t="n">
-        <v>0.6843855713608279</v>
+        <v>0.6856263894479095</v>
       </c>
       <c r="J290" t="n">
-        <v>0.1282985482273057</v>
+        <v>0.1277941506309311</v>
       </c>
       <c r="K290" t="n">
-        <v>0.1873158804118663</v>
+        <v>0.1865794599211594</v>
       </c>
       <c r="L290" t="n">
-        <v>2.24047259449435</v>
+        <v>2.243458628264888</v>
       </c>
       <c r="M290" t="n">
-        <v>0.5722115250937835</v>
+        <v>0.5699619118139528</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12900,25 +12900,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H292" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I292" t="n">
-        <v>0.5709121031079596</v>
+        <v>0.5717410631893733</v>
       </c>
       <c r="J292" t="n">
-        <v>0.1744259743463579</v>
+        <v>0.1740889987035067</v>
       </c>
       <c r="K292" t="n">
-        <v>0.2546619225456825</v>
+        <v>0.2541699381071198</v>
       </c>
       <c r="L292" t="n">
-        <v>1.967398231869561</v>
+        <v>1.96939312767524</v>
       </c>
       <c r="M292" t="n">
-        <v>0.7779398455847563</v>
+        <v>0.77643693421764</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -13045,25 +13045,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H295" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I295" t="n">
-        <v>0.3849626605632769</v>
+        <v>0.3847767695543257</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2500151786328143</v>
+        <v>0.2500907440836075</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3650221608039088</v>
+        <v>0.3651324863620669</v>
       </c>
       <c r="L295" t="n">
-        <v>1.51991014249374</v>
+        <v>1.519462795025044</v>
       </c>
       <c r="M295" t="n">
-        <v>1.115067696702352</v>
+        <v>1.115404718612889</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13137,25 +13137,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H297" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I297" t="n">
-        <v>0.2644695934771706</v>
+        <v>0.2640430532025043</v>
       </c>
       <c r="J297" t="n">
-        <v>0.3494048000461602</v>
+        <v>0.3504540891218397</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3861256064766691</v>
+        <v>0.3855028576756562</v>
       </c>
       <c r="L297" t="n">
-        <v>1.179534386908181</v>
+        <v>1.177632017283169</v>
       </c>
       <c r="M297" t="n">
-        <v>1.43434000661515</v>
+        <v>1.436865125041175</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13176,25 +13176,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H298" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I298" t="n">
-        <v>0.7093688757972622</v>
+        <v>0.7106988866788115</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1181427334157471</v>
+        <v>0.117602078585849</v>
       </c>
       <c r="K298" t="n">
-        <v>0.1724883907869907</v>
+        <v>0.1716990347353395</v>
       </c>
       <c r="L298" t="n">
-        <v>2.300595018178777</v>
+        <v>2.303795694771774</v>
       </c>
       <c r="M298" t="n">
-        <v>0.5269165910342319</v>
+        <v>0.5245052704928864</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13215,25 +13215,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H299" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2164903254007104</v>
+        <v>0.2157686802273532</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4674337995142523</v>
+        <v>0.4692090466407111</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3160758750850372</v>
+        <v>0.3150222731319358</v>
       </c>
       <c r="L299" t="n">
-        <v>0.9655468512871684</v>
+        <v>0.9623283138139954</v>
       </c>
       <c r="M299" t="n">
-        <v>1.718377273627794</v>
+        <v>1.722649413054069</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13254,25 +13254,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H300" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I300" t="n">
-        <v>0.5029396992071447</v>
+        <v>0.5034058426407898</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2020570328426242</v>
+        <v>0.2018675436419554</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2950032679502312</v>
+        <v>0.2947266137172548</v>
       </c>
       <c r="L300" t="n">
-        <v>1.803822365571665</v>
+        <v>1.804944141639624</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9011743664781038</v>
+        <v>0.900329244643121</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13399,25 +13399,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H303" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I303" t="n">
-        <v>0.2182644113408529</v>
+        <v>0.2175525205946812</v>
       </c>
       <c r="J303" t="n">
-        <v>0.4630695481015017</v>
+        <v>0.4648207993370843</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3186660405576453</v>
+        <v>0.3176266800682346</v>
       </c>
       <c r="L303" t="n">
-        <v>0.9734592745802042</v>
+        <v>0.9702842418522782</v>
       </c>
       <c r="M303" t="n">
-        <v>1.70787468486215</v>
+        <v>1.712089078079487</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13438,25 +13438,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H304" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I304" t="n">
-        <v>0.6335096332505368</v>
+        <v>0.6346007328181591</v>
       </c>
       <c r="J304" t="n">
-        <v>0.1489798238818957</v>
+        <v>0.1485362874722931</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2175105428675677</v>
+        <v>0.2168629797095478</v>
       </c>
       <c r="L304" t="n">
-        <v>2.118039442619178</v>
+        <v>2.120665178164025</v>
       </c>
       <c r="M304" t="n">
-        <v>0.6644500145132547</v>
+        <v>0.662471842126427</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13477,25 +13477,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H305" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I305" t="n">
-        <v>0.252005685399751</v>
+        <v>0.2514975648214337</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3800660139166123</v>
+        <v>0.3813159905392732</v>
       </c>
       <c r="K305" t="n">
-        <v>0.3679283006836365</v>
+        <v>0.3671864446392931</v>
       </c>
       <c r="L305" t="n">
-        <v>1.12394535688289</v>
+        <v>1.121679139103594</v>
       </c>
       <c r="M305" t="n">
-        <v>1.508126342433473</v>
+        <v>1.511134416257113</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -13516,25 +13516,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H306" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I306" t="n">
-        <v>0.6638321312454833</v>
+        <v>0.665033270664324</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1366536051847629</v>
+        <v>0.1361653371283235</v>
       </c>
       <c r="K306" t="n">
-        <v>0.1995142635697539</v>
+        <v>0.1988013922073524</v>
       </c>
       <c r="L306" t="n">
-        <v>2.191010657306204</v>
+        <v>2.193901204200325</v>
       </c>
       <c r="M306" t="n">
-        <v>0.6094750791240426</v>
+        <v>0.607297403592323</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13555,25 +13555,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H307" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2385440183940897</v>
+        <v>0.2379509633014121</v>
       </c>
       <c r="J307" t="n">
-        <v>0.4131817147505393</v>
+        <v>0.4146406302785262</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3482742668553709</v>
+        <v>0.3474084064200617</v>
       </c>
       <c r="L307" t="n">
-        <v>1.06390632203764</v>
+        <v>1.061261296324298</v>
       </c>
       <c r="M307" t="n">
-        <v>1.587819411106989</v>
+        <v>1.59133029725564</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13594,25 +13594,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="H308" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7290043227681562</v>
+        <v>0.7303741927054623</v>
       </c>
       <c r="J308" t="n">
-        <v>0.1101608444031885</v>
+        <v>0.1096039867050966</v>
       </c>
       <c r="K308" t="n">
-        <v>0.1608348328286552</v>
+        <v>0.1600218205894411</v>
       </c>
       <c r="L308" t="n">
-        <v>2.347847801133124</v>
+        <v>2.351144398705828</v>
       </c>
       <c r="M308" t="n">
-        <v>0.4913173660382208</v>
+        <v>0.4888337807047309</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13633,25 +13633,25 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H309" t="n">
-        <v>93.8883219965</v>
+        <v>93.853042093</v>
       </c>
       <c r="I309" t="n">
-        <v>0.206229793459822</v>
+        <v>0.2054540899207773</v>
       </c>
       <c r="J309" t="n">
-        <v>0.492674708088838</v>
+        <v>0.4945829387948877</v>
       </c>
       <c r="K309" t="n">
-        <v>0.30109549845134</v>
+        <v>0.2999629712843349</v>
       </c>
       <c r="L309" t="n">
-        <v>0.9197848788308058</v>
+        <v>0.916325241046667</v>
       </c>
       <c r="M309" t="n">
-        <v>1.779119622717854</v>
+        <v>1.783711787668998</v>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
@@ -13672,25 +13672,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H310" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I310" t="n">
-        <v>0.2858307513920713</v>
+        <v>0.2855445901340532</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2968563515755046</v>
+        <v>0.2975603082702291</v>
       </c>
       <c r="K310" t="n">
-        <v>0.4173128970324241</v>
+        <v>0.4168951015957177</v>
       </c>
       <c r="L310" t="n">
-        <v>1.274805151208638</v>
+        <v>1.273528871997877</v>
       </c>
       <c r="M310" t="n">
-        <v>1.307881951758938</v>
+        <v>1.309576026406405</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13711,25 +13711,25 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H311" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I311" t="n">
-        <v>0.5450508635775415</v>
+        <v>0.5457453714698874</v>
       </c>
       <c r="J311" t="n">
-        <v>0.1849386733424628</v>
+        <v>0.1846563530610214</v>
       </c>
       <c r="K311" t="n">
-        <v>0.2700104630799957</v>
+        <v>0.2695982754690912</v>
       </c>
       <c r="L311" t="n">
-        <v>1.90516305381262</v>
+        <v>1.906834389878754</v>
       </c>
       <c r="M311" t="n">
-        <v>0.8248264831073842</v>
+        <v>0.8235673346521554</v>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
@@ -13750,25 +13750,25 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H312" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I312" t="n">
-        <v>0.4365457495228113</v>
+        <v>0.4366220183370185</v>
       </c>
       <c r="J312" t="n">
-        <v>0.22904644328341</v>
+        <v>0.229015439700399</v>
       </c>
       <c r="K312" t="n">
-        <v>0.3344078071937786</v>
+        <v>0.3343625419625825</v>
       </c>
       <c r="L312" t="n">
-        <v>1.644045055762213</v>
+        <v>1.644228596973638</v>
       </c>
       <c r="M312" t="n">
-        <v>1.021547137044009</v>
+        <v>1.021408861063779</v>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
@@ -13789,25 +13789,25 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H313" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I313" t="n">
-        <v>0.3706484254670552</v>
+        <v>0.3704090373230475</v>
       </c>
       <c r="J313" t="n">
-        <v>0.255833973387376</v>
+        <v>0.2559312856410376</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3735176011455689</v>
+        <v>0.3736596770359149</v>
       </c>
       <c r="L313" t="n">
-        <v>1.485462877546734</v>
+        <v>1.484886789005057</v>
       </c>
       <c r="M313" t="n">
-        <v>1.141019521307697</v>
+        <v>1.141453533959028</v>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
@@ -13828,25 +13828,25 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H314" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I314" t="n">
-        <v>0.5540681321549042</v>
+        <v>0.5547425963800349</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1812731170102015</v>
+        <v>0.1809989445609614</v>
       </c>
       <c r="K314" t="n">
-        <v>0.2646587508348943</v>
+        <v>0.2642584590590036</v>
       </c>
       <c r="L314" t="n">
-        <v>1.926863147299607</v>
+        <v>1.928486248199108</v>
       </c>
       <c r="M314" t="n">
-        <v>0.808478101865499</v>
+        <v>0.8072552927418879</v>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
@@ -13920,25 +13920,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H316" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I316" t="n">
-        <v>0.3399671967915703</v>
+        <v>0.3395488077193319</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2683060175644023</v>
+        <v>0.2684760944230358</v>
       </c>
       <c r="K316" t="n">
-        <v>0.3917267856440274</v>
+        <v>0.3919750978576323</v>
       </c>
       <c r="L316" t="n">
-        <v>1.411628376018738</v>
+        <v>1.410621521015628</v>
       </c>
       <c r="M316" t="n">
-        <v>1.196644838337234</v>
+        <v>1.19740338112674</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -13959,25 +13959,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H317" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I317" t="n">
-        <v>0.4738093107052352</v>
+        <v>0.4741174283317259</v>
       </c>
       <c r="J317" t="n">
-        <v>0.2138986541848637</v>
+        <v>0.2137734031171846</v>
       </c>
       <c r="K317" t="n">
-        <v>0.312292035109901</v>
+        <v>0.3121091685510895</v>
       </c>
       <c r="L317" t="n">
-        <v>1.733719967225607</v>
+        <v>1.734461453546267</v>
       </c>
       <c r="M317" t="n">
-        <v>0.9539879976644922</v>
+        <v>0.9534293779026433</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -13998,25 +13998,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H318" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I318" t="n">
-        <v>0.5498969467819925</v>
+        <v>0.5505516678312994</v>
       </c>
       <c r="J318" t="n">
-        <v>0.1829687208203283</v>
+        <v>0.1827025740523173</v>
       </c>
       <c r="K318" t="n">
-        <v>0.2671343323976793</v>
+        <v>0.2667457581163833</v>
       </c>
       <c r="L318" t="n">
-        <v>1.916825172743657</v>
+        <v>1.918400761610281</v>
       </c>
       <c r="M318" t="n">
-        <v>0.816040494858664</v>
+        <v>0.8148534802733352</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -14037,25 +14037,25 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H319" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I319" t="n">
-        <v>0.2802356945525022</v>
+        <v>0.2799347241827946</v>
       </c>
       <c r="J319" t="n">
-        <v>0.3106201914008446</v>
+        <v>0.3113605785103253</v>
       </c>
       <c r="K319" t="n">
-        <v>0.4091441140466532</v>
+        <v>0.4087046973068801</v>
       </c>
       <c r="L319" t="n">
-        <v>1.24985119770416</v>
+        <v>1.248508869855264</v>
       </c>
       <c r="M319" t="n">
-        <v>1.341004688249187</v>
+        <v>1.342786432837856</v>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
@@ -14076,25 +14076,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H320" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I320" t="n">
-        <v>0.4680694220802482</v>
+        <v>0.4683116013528021</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2162319422438016</v>
+        <v>0.2161334953850398</v>
       </c>
       <c r="K320" t="n">
-        <v>0.3156986356759503</v>
+        <v>0.3155549032621581</v>
       </c>
       <c r="L320" t="n">
-        <v>1.719906901916695</v>
+        <v>1.720489707320564</v>
       </c>
       <c r="M320" t="n">
-        <v>0.964394462407355</v>
+        <v>0.9639553894172773</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -14115,25 +14115,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H321" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I321" t="n">
-        <v>0.3403298753142972</v>
+        <v>0.3399448492911269</v>
       </c>
       <c r="J321" t="n">
-        <v>0.2681585872706109</v>
+        <v>0.268315101914176</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3915115374150919</v>
+        <v>0.391740048794697</v>
       </c>
       <c r="L321" t="n">
-        <v>1.412501163357984</v>
+        <v>1.411574596668078</v>
       </c>
       <c r="M321" t="n">
-        <v>1.195987299226924</v>
+        <v>1.196685354537225</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -14207,25 +14207,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H323" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="I323" t="n">
-        <v>0.3099688684204557</v>
+        <v>0.3094498663524829</v>
       </c>
       <c r="J323" t="n">
-        <v>0.2805004599916847</v>
+        <v>0.2807114364420801</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4095306715878596</v>
+        <v>0.4098386972054369</v>
       </c>
       <c r="L323" t="n">
-        <v>1.339437276849227</v>
+        <v>1.338188296262886</v>
       </c>
       <c r="M323" t="n">
-        <v>1.251032051562913</v>
+        <v>1.251973006531677</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14246,25 +14246,25 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>89.3437110878</v>
+        <v>89.2833269484</v>
       </c>
       <c r="H324" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5779533875657176</v>
+        <v>0.5787374847477925</v>
       </c>
       <c r="J324" t="n">
-        <v>0.1715636635911718</v>
+        <v>0.1712449248992713</v>
       </c>
       <c r="K324" t="n">
-        <v>0.2504829488431108</v>
+        <v>0.2500175903529361</v>
       </c>
       <c r="L324" t="n">
-        <v>1.984343111540263</v>
+        <v>1.986230044596314</v>
       </c>
       <c r="M324" t="n">
-        <v>0.7651739396166262</v>
+        <v>0.7637523650507501</v>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
@@ -14391,25 +14391,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H327" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I327" t="n">
-        <v>0.2736414133830563</v>
+        <v>0.2732787995389295</v>
       </c>
       <c r="J327" t="n">
-        <v>0.3268421230776815</v>
+        <v>0.3277341531342332</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3995164635392622</v>
+        <v>0.3989870473268372</v>
       </c>
       <c r="L327" t="n">
-        <v>1.220440703688431</v>
+        <v>1.218823445943626</v>
       </c>
       <c r="M327" t="n">
-        <v>1.380042832772307</v>
+        <v>1.382189506729537</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14430,25 +14430,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H328" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I328" t="n">
-        <v>0.6872815642879454</v>
+        <v>0.6885431522451775</v>
       </c>
       <c r="J328" t="n">
-        <v>0.1271213153301035</v>
+        <v>0.1266084746970823</v>
       </c>
       <c r="K328" t="n">
-        <v>0.1855971203819511</v>
+        <v>0.1848483730577402</v>
       </c>
       <c r="L328" t="n">
-        <v>2.247441813245787</v>
+        <v>2.250477829793273</v>
       </c>
       <c r="M328" t="n">
-        <v>0.5669610663722615</v>
+        <v>0.5646737971489872</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14522,25 +14522,25 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H330" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I330" t="n">
-        <v>0.4767365455538693</v>
+        <v>0.4770561250849328</v>
       </c>
       <c r="J330" t="n">
-        <v>0.2127087213195653</v>
+        <v>0.2125788109410842</v>
       </c>
       <c r="K330" t="n">
-        <v>0.3105547331265653</v>
+        <v>0.3103650639739829</v>
       </c>
       <c r="L330" t="n">
-        <v>1.740764369788173</v>
+        <v>1.741533439228782</v>
       </c>
       <c r="M330" t="n">
-        <v>0.9486808970852613</v>
+        <v>0.9481014967972354</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
@@ -14561,25 +14561,25 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H331" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I331" t="n">
-        <v>0.3422591695522421</v>
+        <v>0.3418564691420366</v>
       </c>
       <c r="J331" t="n">
-        <v>0.2673743213202268</v>
+        <v>0.2675380206739689</v>
       </c>
       <c r="K331" t="n">
-        <v>0.3903665091275311</v>
+        <v>0.3906055101839946</v>
       </c>
       <c r="L331" t="n">
-        <v>1.417144017784257</v>
+        <v>1.416174917610104</v>
       </c>
       <c r="M331" t="n">
-        <v>1.192489473088211</v>
+        <v>1.193219572205901</v>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
@@ -14600,25 +14600,25 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H332" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I332" t="n">
-        <v>0.6836449789254598</v>
+        <v>0.6848962535555144</v>
       </c>
       <c r="J332" t="n">
-        <v>0.1285996020628212</v>
+        <v>0.1280909538392218</v>
       </c>
       <c r="K332" t="n">
-        <v>0.1877554190117189</v>
+        <v>0.1870127926052639</v>
       </c>
       <c r="L332" t="n">
-        <v>2.238690355788098</v>
+        <v>2.241701553271807</v>
       </c>
       <c r="M332" t="n">
-        <v>0.5735542252001826</v>
+        <v>0.5712856541229294</v>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
@@ -14639,25 +14639,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H333" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I333" t="n">
-        <v>0.2284107068459875</v>
+        <v>0.2277619543923633</v>
       </c>
       <c r="J333" t="n">
-        <v>0.4381096611588707</v>
+        <v>0.4397055921947862</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3334796319951417</v>
+        <v>0.3325324534128505</v>
       </c>
       <c r="L333" t="n">
-        <v>1.018711752533104</v>
+        <v>1.01581831658994</v>
       </c>
       <c r="M333" t="n">
-        <v>1.647808615471754</v>
+        <v>1.651649229997209</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14731,25 +14731,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H335" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I335" t="n">
-        <v>0.2615411963379492</v>
+        <v>0.2610987474259106</v>
       </c>
       <c r="J335" t="n">
-        <v>0.356608657008645</v>
+        <v>0.3576970813322599</v>
       </c>
       <c r="K335" t="n">
-        <v>0.3818501466534058</v>
+        <v>0.3812041712418295</v>
       </c>
       <c r="L335" t="n">
-        <v>1.166473735667253</v>
+        <v>1.164500413519561</v>
       </c>
       <c r="M335" t="n">
-        <v>1.451676117679341</v>
+        <v>1.454295415238609</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14770,25 +14770,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="H336" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I336" t="n">
-        <v>0.6400402107278393</v>
+        <v>0.6411461611039705</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1463251175903092</v>
+        <v>0.1458755442666787</v>
       </c>
       <c r="K336" t="n">
-        <v>0.2136346716818514</v>
+        <v>0.2129782946293509</v>
       </c>
       <c r="L336" t="n">
-        <v>2.13375530386537</v>
+        <v>2.136416777941262</v>
       </c>
       <c r="M336" t="n">
-        <v>0.652610024452779</v>
+        <v>0.650604927429387</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14915,25 +14915,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H339" t="n">
-        <v>93.18239902969999</v>
+        <v>93.143191079</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2164599591262276</v>
+        <v>0.2157440298827761</v>
       </c>
       <c r="J339" t="n">
-        <v>0.4675085005494802</v>
+        <v>0.4692696864883708</v>
       </c>
       <c r="K339" t="n">
-        <v>0.3160315403242923</v>
+        <v>0.3149862836288531</v>
       </c>
       <c r="L339" t="n">
-        <v>0.9654114177029751</v>
+        <v>0.9622183732771814</v>
       </c>
       <c r="M339" t="n">
-        <v>1.718557041972733</v>
+        <v>1.722795343093966</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -15007,25 +15007,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H341" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I341" t="n">
-        <v>0.2918925282664236</v>
+        <v>0.2912959255223432</v>
       </c>
       <c r="J341" t="n">
-        <v>0.2878485657453563</v>
+        <v>0.2880910871860393</v>
       </c>
       <c r="K341" t="n">
-        <v>0.4202589059882201</v>
+        <v>0.4206129872916174</v>
       </c>
       <c r="L341" t="n">
-        <v>1.295936490787491</v>
+        <v>1.294500763858647</v>
       </c>
       <c r="M341" t="n">
-        <v>1.283804603224289</v>
+        <v>1.284886248849735</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -15099,25 +15099,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H343" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I343" t="n">
-        <v>0.5073930021909326</v>
+        <v>0.5078656263198597</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2002467470768567</v>
+        <v>0.2000546234472116</v>
       </c>
       <c r="K343" t="n">
-        <v>0.2923602507322108</v>
+        <v>0.2920797502329288</v>
       </c>
       <c r="L343" t="n">
-        <v>1.814539257305009</v>
+        <v>1.815676629192508</v>
       </c>
       <c r="M343" t="n">
-        <v>0.8931004919627807</v>
+        <v>0.8922436205745634</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -15138,25 +15138,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H344" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I344" t="n">
-        <v>0.5151064300095926</v>
+        <v>0.5155970316366252</v>
       </c>
       <c r="J344" t="n">
-        <v>0.1971112073131737</v>
+        <v>0.1969117757574694</v>
       </c>
       <c r="K344" t="n">
-        <v>0.2877823626772337</v>
+        <v>0.2874911926059053</v>
       </c>
       <c r="L344" t="n">
-        <v>1.833101652706011</v>
+        <v>1.834282287515781</v>
       </c>
       <c r="M344" t="n">
-        <v>0.8791159846167549</v>
+        <v>0.8782265198783135</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -15177,25 +15177,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H345" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I345" t="n">
-        <v>0.2955314650995844</v>
+        <v>0.2949488196333812</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2863693231302502</v>
+        <v>0.2866061708807393</v>
       </c>
       <c r="K345" t="n">
-        <v>0.4180992117701653</v>
+        <v>0.4184450094858794</v>
       </c>
       <c r="L345" t="n">
-        <v>1.304693607068919</v>
+        <v>1.303291468386023</v>
       </c>
       <c r="M345" t="n">
-        <v>1.277207181160916</v>
+        <v>1.278263522128097</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -15216,25 +15216,25 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H346" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I346" t="n">
-        <v>0.4334702134395295</v>
+        <v>0.4335417587965368</v>
       </c>
       <c r="J346" t="n">
-        <v>0.2302966612034433</v>
+        <v>0.230267577724985</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3362331253570272</v>
+        <v>0.3361906634784781</v>
       </c>
       <c r="L346" t="n">
-        <v>1.636643765675616</v>
+        <v>1.636815939868089</v>
       </c>
       <c r="M346" t="n">
-        <v>1.027123108967357</v>
+        <v>1.026993396653433</v>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
@@ -15255,25 +15255,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H347" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I347" t="n">
-        <v>0.3711254530522096</v>
+        <v>0.3708780100876451</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2556400597348741</v>
+        <v>0.2557406463058353</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3732344872129162</v>
+        <v>0.3733813436065195</v>
       </c>
       <c r="L347" t="n">
-        <v>1.486610846369545</v>
+        <v>1.486015373869455</v>
       </c>
       <c r="M347" t="n">
-        <v>1.140154666417538</v>
+        <v>1.140603282524026</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15294,25 +15294,25 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="H348" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I348" t="n">
-        <v>0.4664029793846748</v>
+        <v>0.466645912634757</v>
       </c>
       <c r="J348" t="n">
-        <v>0.2169093579737094</v>
+        <v>0.2168106046200175</v>
       </c>
       <c r="K348" t="n">
-        <v>0.3166876626416157</v>
+        <v>0.3165434827452255</v>
       </c>
       <c r="L348" t="n">
-        <v>1.71589660079564</v>
+        <v>1.716481220649497</v>
       </c>
       <c r="M348" t="n">
-        <v>0.967415736562744</v>
+        <v>0.966975296605278</v>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
@@ -15333,25 +15333,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H349" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I349" t="n">
-        <v>0.3394307639860525</v>
+        <v>0.339033447880541</v>
       </c>
       <c r="J349" t="n">
-        <v>0.2685240796804664</v>
+        <v>0.268685590292463</v>
       </c>
       <c r="K349" t="n">
-        <v>0.392045156333481</v>
+        <v>0.392280961826996</v>
       </c>
       <c r="L349" t="n">
-        <v>1.410337448291639</v>
+        <v>1.409381305468619</v>
       </c>
       <c r="M349" t="n">
-        <v>1.19761739537488</v>
+        <v>1.198337732704385</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15425,25 +15425,25 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H351" t="n">
-        <v>88.4026808181</v>
+        <v>88.3377108717</v>
       </c>
       <c r="I351" t="n">
-        <v>0.2816021309822788</v>
+        <v>0.2813083835597773</v>
       </c>
       <c r="J351" t="n">
-        <v>0.3072587577835941</v>
+        <v>0.307981376442948</v>
       </c>
       <c r="K351" t="n">
-        <v>0.4111391112341271</v>
+        <v>0.4107102399972748</v>
       </c>
       <c r="L351" t="n">
-        <v>1.255945504180964</v>
+        <v>1.254635390676607</v>
       </c>
       <c r="M351" t="n">
-        <v>1.33291538458491</v>
+        <v>1.334654369326119</v>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
@@ -15464,25 +15464,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H352" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I352" t="n">
-        <v>0.2535921338658282</v>
+        <v>0.2531088268156263</v>
       </c>
       <c r="J352" t="n">
-        <v>0.3761633506900627</v>
+        <v>0.3773522860335591</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3702445154441091</v>
+        <v>0.3695388871508145</v>
       </c>
       <c r="L352" t="n">
-        <v>1.131020917041594</v>
+        <v>1.128865367597693</v>
       </c>
       <c r="M352" t="n">
-        <v>1.498734567514297</v>
+        <v>1.501595745251492</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15503,25 +15503,25 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H353" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I353" t="n">
-        <v>0.6229030588537851</v>
+        <v>0.6239151658142865</v>
       </c>
       <c r="J353" t="n">
-        <v>0.1532914394903312</v>
+        <v>0.1528800138966315</v>
       </c>
       <c r="K353" t="n">
-        <v>0.2238055016558836</v>
+        <v>0.223204820289082</v>
       </c>
       <c r="L353" t="n">
-        <v>2.092514678217239</v>
+        <v>2.094950317731942</v>
       </c>
       <c r="M353" t="n">
-        <v>0.6836798201268774</v>
+        <v>0.6818448619789765</v>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
@@ -15542,25 +15542,25 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H354" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I354" t="n">
-        <v>0.3939441709185579</v>
+        <v>0.3938122285975602</v>
       </c>
       <c r="J354" t="n">
-        <v>0.2463641581631878</v>
+        <v>0.2464177932530243</v>
       </c>
       <c r="K354" t="n">
-        <v>0.3596916709182542</v>
+        <v>0.3597699781494155</v>
       </c>
       <c r="L354" t="n">
-        <v>1.541524183673928</v>
+        <v>1.541206663942096</v>
       </c>
       <c r="M354" t="n">
-        <v>1.098784145407818</v>
+        <v>1.099023357908488</v>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
@@ -15634,25 +15634,25 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H356" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3188821816655092</v>
+        <v>0.3183989866733226</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2768771619245898</v>
+        <v>0.2770735826531209</v>
       </c>
       <c r="K356" t="n">
-        <v>0.404240656409901</v>
+        <v>0.4045274306735566</v>
       </c>
       <c r="L356" t="n">
-        <v>1.360887201406429</v>
+        <v>1.359724390693524</v>
       </c>
       <c r="M356" t="n">
-        <v>1.23487214218367</v>
+        <v>1.235748178632919</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
@@ -15673,25 +15673,25 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H357" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I357" t="n">
-        <v>0.4862341825862811</v>
+        <v>0.4865738731707509</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2088478932576093</v>
+        <v>0.2087098076541663</v>
       </c>
       <c r="K357" t="n">
-        <v>0.3049179241561096</v>
+        <v>0.3047163191750828</v>
       </c>
       <c r="L357" t="n">
-        <v>1.763620471914953</v>
+        <v>1.764437938687335</v>
       </c>
       <c r="M357" t="n">
-        <v>0.9314616039289374</v>
+        <v>0.9308457421375818</v>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
@@ -15765,25 +15765,25 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H359" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="I359" t="n">
-        <v>0.4517710405019492</v>
+        <v>0.4519314397506901</v>
       </c>
       <c r="J359" t="n">
-        <v>0.2228573006089638</v>
+        <v>0.2227920976623211</v>
       </c>
       <c r="K359" t="n">
-        <v>0.3253716588890871</v>
+        <v>0.3252764625869888</v>
       </c>
       <c r="L359" t="n">
-        <v>1.680684780394935</v>
+        <v>1.681070781839059</v>
       </c>
       <c r="M359" t="n">
-        <v>0.9939435607159783</v>
+        <v>0.9936527555739522</v>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
@@ -15804,25 +15804,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>85.09647969549999</v>
+        <v>85.014568916</v>
       </c>
       <c r="H360" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4214948771951328</v>
+        <v>0.4214990440613169</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2351646840670192</v>
+        <v>0.2351629902189769</v>
       </c>
       <c r="K360" t="n">
-        <v>0.343340438737848</v>
+        <v>0.3433379657197062</v>
       </c>
       <c r="L360" t="n">
-        <v>1.607825070323246</v>
+        <v>1.607835097903657</v>
       </c>
       <c r="M360" t="n">
-        <v>1.048834490938905</v>
+        <v>1.048826936376637</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -15896,25 +15896,25 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H362" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I362" t="n">
-        <v>0.6189329148323142</v>
+        <v>0.6199292422364925</v>
       </c>
       <c r="J362" t="n">
-        <v>0.154905319173856</v>
+        <v>0.1545003080339462</v>
       </c>
       <c r="K362" t="n">
-        <v>0.2261617659938297</v>
+        <v>0.2255704497295614</v>
       </c>
       <c r="L362" t="n">
-        <v>2.082960510490772</v>
+        <v>2.085358176439039</v>
       </c>
       <c r="M362" t="n">
-        <v>0.6908777235153977</v>
+        <v>0.6890713738313998</v>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
@@ -15935,25 +15935,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H363" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I363" t="n">
-        <v>0.2552618165721734</v>
+        <v>0.2547889965014042</v>
       </c>
       <c r="J363" t="n">
-        <v>0.3720559312324535</v>
+        <v>0.3732190686065458</v>
       </c>
       <c r="K363" t="n">
-        <v>0.3726822521953731</v>
+        <v>0.3719919348920501</v>
       </c>
       <c r="L363" t="n">
-        <v>1.138467701911893</v>
+        <v>1.136358924396263</v>
       </c>
       <c r="M363" t="n">
-        <v>1.488850045892733</v>
+        <v>1.491649140711687</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -15974,25 +15974,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H364" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I364" t="n">
-        <v>0.539137463824658</v>
+        <v>0.5397718706495818</v>
       </c>
       <c r="J364" t="n">
-        <v>0.1873424943802203</v>
+        <v>0.1870846054269993</v>
       </c>
       <c r="K364" t="n">
-        <v>0.2735200417951217</v>
+        <v>0.273143523923419</v>
       </c>
       <c r="L364" t="n">
-        <v>1.890932433269096</v>
+        <v>1.892459135872164</v>
       </c>
       <c r="M364" t="n">
-        <v>0.8355475249357827</v>
+        <v>0.8343973402044169</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -16066,25 +16066,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H366" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I366" t="n">
-        <v>0.5719928156607931</v>
+        <v>0.5727854217085322</v>
       </c>
       <c r="J366" t="n">
-        <v>0.1739866603004906</v>
+        <v>0.1736644627201089</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2540205240387163</v>
+        <v>0.2535501155713589</v>
       </c>
       <c r="L366" t="n">
-        <v>1.969998971021096</v>
+        <v>1.971906380696955</v>
       </c>
       <c r="M366" t="n">
-        <v>0.7759805049401882</v>
+        <v>0.7745435037316855</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -16158,25 +16158,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="H368" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I368" t="n">
-        <v>0.6454605760560926</v>
+        <v>0.6465573784517319</v>
       </c>
       <c r="J368" t="n">
-        <v>0.1441217170503688</v>
+        <v>0.1436758624179952</v>
       </c>
       <c r="K368" t="n">
-        <v>0.2104177068935384</v>
+        <v>0.2097667591302729</v>
       </c>
       <c r="L368" t="n">
-        <v>2.146799435061816</v>
+        <v>2.149438894485469</v>
       </c>
       <c r="M368" t="n">
-        <v>0.6427828580446449</v>
+        <v>0.6407943463842584</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -16197,25 +16197,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H369" t="n">
-        <v>91.2604129005</v>
+        <v>91.2106692582</v>
       </c>
       <c r="I369" t="n">
-        <v>0.2438296278718709</v>
+        <v>0.2432860341175166</v>
       </c>
       <c r="J369" t="n">
-        <v>0.4001791154351975</v>
+        <v>0.4015163560709091</v>
       </c>
       <c r="K369" t="n">
-        <v>0.3559912566929315</v>
+        <v>0.3551976098115742</v>
       </c>
       <c r="L369" t="n">
-        <v>1.087480140308544</v>
+        <v>1.085055712164124</v>
       </c>
       <c r="M369" t="n">
-        <v>1.556528602998524</v>
+        <v>1.559746678024302</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16289,25 +16289,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H371" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I371" t="n">
-        <v>0.4820216677859964</v>
+        <v>0.4823400538841863</v>
       </c>
       <c r="J371" t="n">
-        <v>0.210560297647969</v>
+        <v>0.2104308724048023</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3074180345660347</v>
+        <v>0.3072290737110114</v>
       </c>
       <c r="L371" t="n">
-        <v>1.753483037924024</v>
+        <v>1.754249235363571</v>
       </c>
       <c r="M371" t="n">
-        <v>0.9390989275099415</v>
+        <v>0.9385216909254186</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16328,25 +16328,25 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H372" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I372" t="n">
-        <v>0.3524571146286329</v>
+        <v>0.3521256053458784</v>
       </c>
       <c r="J372" t="n">
-        <v>0.2632288151916126</v>
+        <v>0.263363575062651</v>
       </c>
       <c r="K372" t="n">
-        <v>0.3843140701797544</v>
+        <v>0.3845108195914705</v>
       </c>
       <c r="L372" t="n">
-        <v>1.441685414065653</v>
+        <v>1.440887635629106</v>
       </c>
       <c r="M372" t="n">
-        <v>1.174000515754592</v>
+        <v>1.174601544779423</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
@@ -16367,25 +16367,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H373" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="I373" t="n">
-        <v>0.4475969794894482</v>
+        <v>0.4477361871943715</v>
       </c>
       <c r="J373" t="n">
-        <v>0.2245540733782731</v>
+        <v>0.2244974848803368</v>
       </c>
       <c r="K373" t="n">
-        <v>0.3278489471322787</v>
+        <v>0.3277663279252917</v>
       </c>
       <c r="L373" t="n">
-        <v>1.670639885600623</v>
+        <v>1.670974889508406</v>
       </c>
       <c r="M373" t="n">
-        <v>1.001511167267098</v>
+        <v>1.001258782566302</v>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
@@ -16406,25 +16406,25 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="n">
-        <v>85.21454978929999</v>
+        <v>85.13323123639999</v>
       </c>
       <c r="H374" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I374" t="n">
-        <v>0.4257780150760662</v>
+        <v>0.4258037055865055</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2334235711072901</v>
+        <v>0.2334131278103636</v>
       </c>
       <c r="K374" t="n">
-        <v>0.3407984138166436</v>
+        <v>0.3407831666031309</v>
       </c>
       <c r="L374" t="n">
-        <v>1.618132459044842</v>
+        <v>1.618194283362647</v>
       </c>
       <c r="M374" t="n">
-        <v>1.041069127138514</v>
+        <v>1.041022550034222</v>
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
@@ -16551,25 +16551,25 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H377" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I377" t="n">
-        <v>0.3685283619109469</v>
+        <v>0.3682701029826193</v>
       </c>
       <c r="J377" t="n">
-        <v>0.2566957878410785</v>
+        <v>0.2568007711452767</v>
       </c>
       <c r="K377" t="n">
-        <v>0.3747758502479747</v>
+        <v>0.374929125872104</v>
       </c>
       <c r="L377" t="n">
-        <v>1.480360935980815</v>
+        <v>1.479739434819962</v>
       </c>
       <c r="M377" t="n">
-        <v>1.14486321377121</v>
+        <v>1.145331439307934</v>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
@@ -16590,25 +16590,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="H378" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I378" t="n">
-        <v>0.5105431332115101</v>
+        <v>0.5110041485665159</v>
       </c>
       <c r="J378" t="n">
-        <v>0.1989662060115812</v>
+        <v>0.1987788013957253</v>
       </c>
       <c r="K378" t="n">
-        <v>0.2904906607769086</v>
+        <v>0.2902170500377589</v>
       </c>
       <c r="L378" t="n">
-        <v>1.822120060411439</v>
+        <v>1.823229495737307</v>
       </c>
       <c r="M378" t="n">
-        <v>0.8873892788116524</v>
+        <v>0.8865534542249347</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16629,25 +16629,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H379" t="n">
-        <v>87.51160464020001</v>
+        <v>87.4419965586</v>
       </c>
       <c r="I379" t="n">
-        <v>0.2973268491049902</v>
+        <v>0.2967567729427714</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2856394922337439</v>
+        <v>0.2858712305110685</v>
       </c>
       <c r="K379" t="n">
-        <v>0.417033658661266</v>
+        <v>0.41737199654616</v>
       </c>
       <c r="L379" t="n">
-        <v>1.309014205976237</v>
+        <v>1.307642315374474</v>
       </c>
       <c r="M379" t="n">
-        <v>1.273952135362498</v>
+        <v>1.274985688079366</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16668,25 +16668,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="H380" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="I380" t="n">
-        <v>0.4759531829306355</v>
+        <v>0.4762357237503018</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2130271614103108</v>
+        <v>0.2129123074185765</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3110196556590537</v>
+        <v>0.3108519688311218</v>
       </c>
       <c r="L380" t="n">
-        <v>1.73887920445096</v>
+        <v>1.739559140082027</v>
       </c>
       <c r="M380" t="n">
-        <v>0.9501011398899859</v>
+        <v>0.9495888910868513</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
@@ -16707,25 +16707,25 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="n">
-        <v>84.4156878818</v>
+        <v>84.3303810501</v>
       </c>
       <c r="H381" t="n">
-        <v>86.57979481700001</v>
+        <v>86.5053933141</v>
       </c>
       <c r="I381" t="n">
-        <v>0.3258656762105358</v>
+        <v>0.3254165147351737</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2740383430038473</v>
+        <v>0.2742209289694416</v>
       </c>
       <c r="K381" t="n">
-        <v>0.400095980785617</v>
+        <v>0.4003625562953847</v>
       </c>
       <c r="L381" t="n">
-        <v>1.377693009417224</v>
+        <v>1.376612100500906</v>
       </c>
       <c r="M381" t="n">
-        <v>1.222211009797159</v>
+        <v>1.223025343203709</v>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>

--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3558760582762761</v>
+        <v>0.3558361104790094</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2618390007007008</v>
+        <v>0.2618552396426791</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3822849410230231</v>
+        <v>0.3823086498783115</v>
       </c>
       <c r="L3" t="n">
-        <v>1.449913115851851</v>
+        <v>1.44981698131534</v>
       </c>
       <c r="M3" t="n">
-        <v>1.167801943125126</v>
+        <v>1.167874368806349</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -621,22 +621,22 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5300755813080087</v>
+        <v>0.5301389990065563</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1910261864601591</v>
+        <v>0.191000406907904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2788982322318322</v>
+        <v>0.2788605940855398</v>
       </c>
       <c r="L4" t="n">
-        <v>1.869124976155858</v>
+        <v>1.869277591105209</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8519767916123095</v>
+        <v>0.8518618148092516</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7119368772851825</v>
+        <v>0.7120597143603279</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1170988303718771</v>
+        <v>0.1170488966014927</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1709642923429405</v>
+        <v>0.1708913890381794</v>
       </c>
       <c r="L6" t="n">
-        <v>2.306774924198488</v>
+        <v>2.307070532119163</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5222607834585717</v>
+        <v>0.5220380788426575</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -749,25 +749,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0.222372747082201</v>
+        <v>0.2223099924422413</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4529630421777856</v>
+        <v>0.4531174185920862</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3246642107400134</v>
+        <v>0.3245725889656724</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9917824519866165</v>
+        <v>0.9915025662923964</v>
       </c>
       <c r="M7" t="n">
-        <v>1.68355333727337</v>
+        <v>1.683924844741931</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -791,22 +791,22 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6073070995274786</v>
+        <v>0.6074011394580446</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1596312603546834</v>
+        <v>0.1595930327406322</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2330616401178378</v>
+        <v>0.2330058278013231</v>
       </c>
       <c r="L8" t="n">
-        <v>2.054982938700274</v>
+        <v>2.055209246175457</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7119554211818881</v>
+        <v>0.7117849260232197</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -827,25 +827,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2694730277290273</v>
+        <v>0.2694357713212993</v>
       </c>
       <c r="J9" t="n">
-        <v>0.337096351786593</v>
+        <v>0.3371880025496036</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3934306204843798</v>
+        <v>0.3933762261290971</v>
       </c>
       <c r="L9" t="n">
-        <v>1.201849703671461</v>
+        <v>1.201683540092995</v>
       </c>
       <c r="M9" t="n">
-        <v>1.404719675844159</v>
+        <v>1.404940233777908</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -869,22 +869,22 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7100810930423624</v>
+        <v>0.710192719119047</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1178532142104218</v>
+        <v>0.117807837756485</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1720656927472158</v>
+        <v>0.1719994431244681</v>
       </c>
       <c r="L10" t="n">
-        <v>2.302308971874303</v>
+        <v>2.302577600481609</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5256253353784811</v>
+        <v>0.525422956393923</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -905,25 +905,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2233184436824242</v>
+        <v>0.2232616856726914</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4506366285412364</v>
+        <v>0.4507762532451794</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3260449277763394</v>
+        <v>0.3259620610821293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9960002588236121</v>
+        <v>0.9957471181002034</v>
       </c>
       <c r="M11" t="n">
-        <v>1.677954813400048</v>
+        <v>1.678290820817668</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -947,22 +947,22 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8380005033621024</v>
+        <v>0.838117417588641</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06585345391784453</v>
+        <v>0.06580592780949557</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09614604272005299</v>
+        <v>0.09607665460186351</v>
       </c>
       <c r="L12" t="n">
-        <v>2.61014755280636</v>
+        <v>2.610428907367786</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2937064044735866</v>
+        <v>0.2934944380303502</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -983,25 +983,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1459585715335687</v>
+        <v>0.1458747679419855</v>
       </c>
       <c r="J13" t="n">
-        <v>0.640941914027421</v>
+        <v>0.6411480708627155</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2130995144390103</v>
+        <v>0.2129771611952989</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6509752290397164</v>
+        <v>0.6506014650212555</v>
       </c>
       <c r="M13" t="n">
-        <v>2.135925256521273</v>
+        <v>2.136421373783445</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1075,25 +1075,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>0.251741594632903</v>
+        <v>0.2516943032798534</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3807156772030588</v>
+        <v>0.3808320139315606</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3675427281640383</v>
+        <v>0.3674736827885859</v>
       </c>
       <c r="L15" t="n">
-        <v>1.122767512062747</v>
+        <v>1.122556592628146</v>
       </c>
       <c r="M15" t="n">
-        <v>1.509689759773214</v>
+        <v>1.509969724583268</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1117,22 +1117,22 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7170756490823752</v>
+        <v>0.717199375939492</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1150098987470019</v>
+        <v>0.1149596032766293</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1679144521706228</v>
+        <v>0.1678410207838788</v>
       </c>
       <c r="L16" t="n">
-        <v>2.319141399417748</v>
+        <v>2.319439148602355</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5129441484116286</v>
+        <v>0.5127198306137667</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1209,22 +1209,22 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6808841287271493</v>
+        <v>0.6810004162495613</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1297218988914027</v>
+        <v>0.1296746275408287</v>
       </c>
       <c r="K18" t="n">
-        <v>0.189393972381448</v>
+        <v>0.1893249562096099</v>
       </c>
       <c r="L18" t="n">
-        <v>2.232046358562896</v>
+        <v>2.232326204958294</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5785596690556561</v>
+        <v>0.5783488388320961</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1245,25 +1245,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2376294927050157</v>
+        <v>0.2375745377266375</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4154314479456613</v>
+        <v>0.4155666371924716</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3469390593493229</v>
+        <v>0.3468588250808909</v>
       </c>
       <c r="L19" t="n">
-        <v>1.05982753746437</v>
+        <v>1.059582438260803</v>
       </c>
       <c r="M19" t="n">
-        <v>1.593233403186307</v>
+        <v>1.593558736658305</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1287,22 +1287,22 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6339973185662926</v>
+        <v>0.6341003811022152</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1487815778185803</v>
+        <v>0.1487396824787743</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2172211036151272</v>
+        <v>0.2171599364190105</v>
       </c>
       <c r="L20" t="n">
-        <v>2.119213059314005</v>
+        <v>2.119461079725656</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6635658370708679</v>
+        <v>0.6633789838553333</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1323,25 +1323,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2585632080596746</v>
+        <v>0.258519736463621</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3639345081732004</v>
+        <v>0.3640414482994925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3775022837671249</v>
+        <v>0.3774388152368866</v>
       </c>
       <c r="L21" t="n">
-        <v>1.153191907946149</v>
+        <v>1.15299802462775</v>
       </c>
       <c r="M21" t="n">
-        <v>1.469305808286726</v>
+        <v>1.469563160135364</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1365,22 +1365,22 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I22" t="n">
-        <v>0.768919565140424</v>
+        <v>0.769039346886436</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09393513612177884</v>
+        <v>0.09388644435510735</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1371452987377971</v>
+        <v>0.1370742087584567</v>
       </c>
       <c r="L22" t="n">
-        <v>2.443903994159069</v>
+        <v>2.444192249417765</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4189507071031336</v>
+        <v>0.4187335418237788</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1401,25 +1401,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1910106159097056</v>
+        <v>0.190939613000623</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5301138848621244</v>
+        <v>0.5302885520184675</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2788754992281701</v>
+        <v>0.2787718349809095</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8519073469572866</v>
+        <v>0.8515906739827785</v>
       </c>
       <c r="M23" t="n">
-        <v>1.869217153814543</v>
+        <v>1.869637491036312</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1443,22 +1443,22 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6571932759315721</v>
+        <v>0.6573033376681109</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1393523268570845</v>
+        <v>0.1393075863137761</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2034543972113434</v>
+        <v>0.2033890760181131</v>
       </c>
       <c r="L24" t="n">
-        <v>2.175034225006059</v>
+        <v>2.175299089022446</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6215113777825969</v>
+        <v>0.6213118349594413</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1535,22 +1535,22 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7920469810039715</v>
+        <v>0.792176196322699</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08453374755936113</v>
+        <v>0.08448122100703297</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1234192714366673</v>
+        <v>0.1233425826702681</v>
       </c>
       <c r="L26" t="n">
-        <v>2.499560214448582</v>
+        <v>2.499871171638365</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3770205141147506</v>
+        <v>0.376786245691367</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1677,25 +1677,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1299888665029099</v>
+        <v>0.1299031658963637</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6802273884028415</v>
+        <v>0.6804382118949452</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1897837450942486</v>
+        <v>0.1896586222086911</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5797503446029784</v>
+        <v>0.5793681198977823</v>
       </c>
       <c r="M29" t="n">
-        <v>2.230465910302773</v>
+        <v>2.230973257893527</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1719,22 +1719,22 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7164430750291617</v>
+        <v>0.7165666955014173</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1152670426710725</v>
+        <v>0.1152167904465783</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1682898822997658</v>
+        <v>0.1682165140520044</v>
       </c>
       <c r="L30" t="n">
-        <v>2.317619107387251</v>
+        <v>2.317916600556256</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5140910103129832</v>
+        <v>0.5138668853917393</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1755,25 +1755,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2200577326001946</v>
+        <v>0.2199938480350206</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4586579778035211</v>
+        <v>0.4588151338338495</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3212842895962842</v>
+        <v>0.32119101813113</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9814574873968682</v>
+        <v>0.9811725622361919</v>
       </c>
       <c r="M31" t="n">
-        <v>1.697258223006847</v>
+        <v>1.697636419632679</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1797,22 +1797,22 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8575503548852084</v>
+        <v>0.8576697464407175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05790635980276082</v>
+        <v>0.05785782665011486</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0845432853120308</v>
+        <v>0.08447242690916769</v>
       </c>
       <c r="L32" t="n">
-        <v>2.657194349967656</v>
+        <v>2.65748166623132</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2582623647203133</v>
+        <v>0.2580459068595123</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1939,25 +1939,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1637047644444575</v>
+        <v>0.163619453303936</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5972862794666346</v>
+        <v>0.5974961448723174</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2390089560889079</v>
+        <v>0.2388844018237466</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7301232494222804</v>
+        <v>0.7297427617355545</v>
       </c>
       <c r="M35" t="n">
-        <v>2.030867794488811</v>
+        <v>2.031372836440699</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2031,25 +2031,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0.150301694437564</v>
+        <v>0.150218673634065</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6302578316835925</v>
+        <v>0.6304620628602</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2194404738788435</v>
+        <v>0.2193192635057349</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6703455571915353</v>
+        <v>0.6699752844079299</v>
       </c>
       <c r="M37" t="n">
-        <v>2.110213968929621</v>
+        <v>2.110705452086335</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2073,22 +2073,22 @@
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8709949035163258</v>
+        <v>0.8711041735012214</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05244109613157486</v>
+        <v>0.05239667743852793</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0765640003520993</v>
+        <v>0.07649914906025078</v>
       </c>
       <c r="L38" t="n">
-        <v>2.689548710901077</v>
+        <v>2.689811669563915</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2338872887468239</v>
+        <v>0.2336891813758346</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2109,25 +2109,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1211698624233798</v>
+        <v>0.1210838297748005</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7019221384384857</v>
+        <v>0.7021337787539906</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1769079991381345</v>
+        <v>0.1767823914712088</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5404175864082738</v>
+        <v>0.5400338807956103</v>
       </c>
       <c r="M39" t="n">
-        <v>2.282674414453592</v>
+        <v>2.283183727733181</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2148,25 +2148,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H40" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4640302114867893</v>
+        <v>0.4640501873067769</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2178738977695978</v>
+        <v>0.2178657775175704</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3180958907436128</v>
+        <v>0.3180840351756528</v>
       </c>
       <c r="L40" t="n">
-        <v>1.710186525203981</v>
+        <v>1.710234597095984</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9717175840524064</v>
+        <v>0.9716813677283639</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2187,25 +2187,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H41" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3678432152612338</v>
+        <v>0.3678206119412558</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2569743027393359</v>
+        <v>0.2569834910807903</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3751824819994303</v>
+        <v>0.3751958969779539</v>
       </c>
       <c r="L41" t="n">
-        <v>1.478712127783132</v>
+        <v>1.478657732801721</v>
       </c>
       <c r="M41" t="n">
-        <v>1.146105390217438</v>
+        <v>1.146146370220325</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2279,25 +2279,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H43" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2475604907015562</v>
+        <v>0.2475164046246055</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3910011928741717</v>
+        <v>0.3911096446234704</v>
       </c>
       <c r="K43" t="n">
-        <v>0.361438316424272</v>
+        <v>0.361373950751924</v>
       </c>
       <c r="L43" t="n">
-        <v>1.104119788528941</v>
+        <v>1.103923164625741</v>
       </c>
       <c r="M43" t="n">
-        <v>1.534441895046787</v>
+        <v>1.534702884622335</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2318,25 +2318,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H44" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I44" t="n">
-        <v>0.542753058266268</v>
+        <v>0.5428076713671913</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1858727405421675</v>
+        <v>0.1858505400946376</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2713742011915646</v>
+        <v>0.2713417885381709</v>
       </c>
       <c r="L44" t="n">
-        <v>1.899633375990368</v>
+        <v>1.899764802639745</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8289924228180672</v>
+        <v>0.8288934088220838</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2357,25 +2357,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H45" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2953246426169013</v>
+        <v>0.2952741706414042</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2864533973102028</v>
+        <v>0.2864739143734129</v>
       </c>
       <c r="K45" t="n">
-        <v>0.418221960072896</v>
+        <v>0.4182519149851829</v>
       </c>
       <c r="L45" t="n">
-        <v>1.3041958879236</v>
+        <v>1.304074426909395</v>
       </c>
       <c r="M45" t="n">
-        <v>1.277582152003504</v>
+        <v>1.277673658105422</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2449,25 +2449,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H47" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2484687593850306</v>
+        <v>0.2484304660951426</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3887668519128248</v>
+        <v>0.3888610534059492</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3627643887021446</v>
+        <v>0.3627084804989082</v>
       </c>
       <c r="L47" t="n">
-        <v>1.108170666857236</v>
+        <v>1.107999878784336</v>
       </c>
       <c r="M47" t="n">
-        <v>1.529064944440619</v>
+        <v>1.529291640716756</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2488,25 +2488,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H48" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7988061785841063</v>
+        <v>0.7989165969681622</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08178610626662343</v>
+        <v>0.08174122074464948</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1194077151492702</v>
+        <v>0.1193421822871882</v>
       </c>
       <c r="L48" t="n">
-        <v>2.515826250901589</v>
+        <v>2.516091973191675</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3647660339491405</v>
+        <v>0.3645658445211367</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2527,25 +2527,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H49" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1705058346883694</v>
+        <v>0.1704337411492837</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5805556466666115</v>
+        <v>0.5807329967727621</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2489385186450192</v>
+        <v>0.2488332620779542</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7604560227101272</v>
+        <v>0.7601344855258053</v>
       </c>
       <c r="M49" t="n">
-        <v>1.990605458644854</v>
+        <v>1.99103225239624</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2566,25 +2566,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H50" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5875586363076117</v>
+        <v>0.5876313706270501</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1676590909318651</v>
+        <v>0.1676295241353455</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2447822727605231</v>
+        <v>0.2447391052376044</v>
       </c>
       <c r="L50" t="n">
-        <v>2.007458181683358</v>
+        <v>2.007633217118755</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7477595455561183</v>
+        <v>0.747627677643641</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2605,25 +2605,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H51" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2752825808055596</v>
+        <v>0.2752536251201529</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3228048512183233</v>
+        <v>0.322876082204424</v>
       </c>
       <c r="K51" t="n">
-        <v>0.401912567976117</v>
+        <v>0.4018702926754232</v>
       </c>
       <c r="L51" t="n">
-        <v>1.227760310392796</v>
+        <v>1.227631168035882</v>
       </c>
       <c r="M51" t="n">
-        <v>1.370327121631087</v>
+        <v>1.370498539288695</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2697,25 +2697,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H53" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2450173202135261</v>
+        <v>0.2449718855924113</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3972573922747256</v>
+        <v>0.3973691614426681</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3577252875117482</v>
+        <v>0.3576589529649206</v>
       </c>
       <c r="L53" t="n">
-        <v>1.092777248152327</v>
+        <v>1.092574609742154</v>
       </c>
       <c r="M53" t="n">
-        <v>1.549497464335925</v>
+        <v>1.549766437292925</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2736,25 +2736,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H54" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6208745763086586</v>
+        <v>0.6209595413201108</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1541160258907892</v>
+        <v>0.1540814872682476</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2250093978005523</v>
+        <v>0.2249589714116415</v>
       </c>
       <c r="L54" t="n">
-        <v>2.087633126726528</v>
+        <v>2.087837595371974</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6873574754729199</v>
+        <v>0.6872034332163844</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2828,25 +2828,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H56" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5707295217417924</v>
+        <v>0.5707956454368409</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1745001944139056</v>
+        <v>0.1744733148630728</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2547702838443021</v>
+        <v>0.2547310397000863</v>
       </c>
       <c r="L56" t="n">
-        <v>1.966958849069679</v>
+        <v>1.967117976010609</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7782708670860189</v>
+        <v>0.7781509842893046</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2973,25 +2973,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H59" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2168291787957697</v>
+        <v>0.2167751866276269</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4666002201624065</v>
+        <v>0.4667330408960378</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3165706010418238</v>
+        <v>0.3164917724763353</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9670581374291329</v>
+        <v>0.9668173323592161</v>
       </c>
       <c r="M59" t="n">
-        <v>1.716371261529043</v>
+        <v>1.716690895164449</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3012,25 +3012,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H60" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5953761419647675</v>
+        <v>0.5954518545141106</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1644812431037531</v>
+        <v>0.1644504656446704</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2401426149314795</v>
+        <v>0.2400976798412189</v>
       </c>
       <c r="L60" t="n">
-        <v>2.026271040825782</v>
+        <v>2.026453243383551</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7335863442427386</v>
+        <v>0.7334490767752302</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3051,25 +3051,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H61" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2722749183381317</v>
+        <v>0.2722442998185124</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3302037008881961</v>
+        <v>0.3302790224464595</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3975213807736722</v>
+        <v>0.3974766777350281</v>
       </c>
       <c r="L61" t="n">
-        <v>1.214346135788067</v>
+        <v>1.214209577190565</v>
       </c>
       <c r="M61" t="n">
-        <v>1.38813248343826</v>
+        <v>1.388313745074407</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3090,25 +3090,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H62" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7451162446959109</v>
+        <v>0.74523215587023</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1036112826439387</v>
+        <v>0.1035641642803943</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1512724726601505</v>
+        <v>0.1512036798493757</v>
       </c>
       <c r="L62" t="n">
-        <v>2.386621206747883</v>
+        <v>2.386900147460065</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4621063205919665</v>
+        <v>0.4618961726905587</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3129,25 +3129,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H63" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I63" t="n">
-        <v>0.202571835483242</v>
+        <v>0.2025059314269932</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5016732847112246</v>
+        <v>0.5018354086895966</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2957548798055334</v>
+        <v>0.2956586598834101</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9034703862552594</v>
+        <v>0.9031764541643896</v>
       </c>
       <c r="M63" t="n">
-        <v>1.800774733939207</v>
+        <v>1.8011648859522</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3168,25 +3168,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H64" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8245476193193226</v>
+        <v>0.8246572271387733</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07132210596775508</v>
+        <v>0.07127754994358811</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1041302747129224</v>
+        <v>0.1040652229176386</v>
       </c>
       <c r="L64" t="n">
-        <v>2.57777313267089</v>
+        <v>2.578036904333958</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3180965926161877</v>
+        <v>0.317897872748403</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3207,25 +3207,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H65" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1534319719702995</v>
+        <v>0.1533553894985999</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6225573489530634</v>
+        <v>0.6227457418334443</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2240106790766372</v>
+        <v>0.2238988686679558</v>
       </c>
       <c r="L65" t="n">
-        <v>0.6843065949875358</v>
+        <v>0.6839650371637555</v>
       </c>
       <c r="M65" t="n">
-        <v>2.091682725935827</v>
+        <v>2.092136094168289</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3246,25 +3246,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H66" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6597791142633411</v>
+        <v>0.6598765986902001</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1383011730636824</v>
+        <v>0.1382615452478862</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2019197126729764</v>
+        <v>0.2018618560619138</v>
       </c>
       <c r="L66" t="n">
-        <v>2.181257055463</v>
+        <v>2.181491652132514</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6168232318640237</v>
+        <v>0.6166464918055724</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3391,25 +3391,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H69" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I69" t="n">
-        <v>0.155119579576797</v>
+        <v>0.1550381235279826</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6184058342410795</v>
+        <v>0.6186062161211628</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2264745861821235</v>
+        <v>0.2263556603508545</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6918333249125145</v>
+        <v>0.6914700309348023</v>
       </c>
       <c r="M69" t="n">
-        <v>2.081692088905362</v>
+        <v>2.082174308714343</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3430,25 +3430,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H70" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7686478364171878</v>
+        <v>0.7687660234154844</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09404559495236264</v>
+        <v>0.09399755145712023</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1373065686304495</v>
+        <v>0.1372364251273955</v>
       </c>
       <c r="L70" t="n">
-        <v>2.443250077882013</v>
+        <v>2.443534495373849</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4194433534875374</v>
+        <v>0.4192290794987562</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3469,25 +3469,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H71" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1890707705747796</v>
+        <v>0.1889994753064488</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5348859043860422</v>
+        <v>0.5350612907461361</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2760433250391782</v>
+        <v>0.2759392339474152</v>
       </c>
       <c r="L71" t="n">
-        <v>0.8432556367635169</v>
+        <v>0.8429376598667616</v>
       </c>
       <c r="M71" t="n">
-        <v>1.880701038197305</v>
+        <v>1.881123106185823</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3508,25 +3508,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H72" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7915827448125142</v>
+        <v>0.791693015101209</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08472246145832754</v>
+        <v>0.08467763613771993</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1236947937291582</v>
+        <v>0.1236293487610711</v>
       </c>
       <c r="L72" t="n">
-        <v>2.498443028166701</v>
+        <v>2.498708394064698</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3778621781041409</v>
+        <v>0.3776622571742309</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3547,25 +3547,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H73" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1750885314783387</v>
+        <v>0.1750178722316322</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5692822125632866</v>
+        <v>0.569456034310185</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2556292559583747</v>
+        <v>0.2555260934581829</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7808948503933908</v>
+        <v>0.7805797101530794</v>
       </c>
       <c r="M73" t="n">
-        <v>1.963475893648234</v>
+        <v>1.963894196388738</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3586,25 +3586,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>98.219200903</v>
+        <v>98.218027897</v>
       </c>
       <c r="H74" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8382423929568547</v>
+        <v>0.8383506408770616</v>
       </c>
       <c r="J74" t="n">
-        <v>0.06575512481428666</v>
+        <v>0.06571112159469038</v>
       </c>
       <c r="K74" t="n">
-        <v>0.09600248222885853</v>
+        <v>0.09593823752824794</v>
       </c>
       <c r="L74" t="n">
-        <v>2.610729661099422</v>
+        <v>2.610990160159433</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2932678566717185</v>
+        <v>0.293071602312319</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3731,25 +3731,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H77" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2659656537488254</v>
+        <v>0.2659317764739156</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3457244917778896</v>
+        <v>0.3458078298741677</v>
       </c>
       <c r="K77" t="n">
-        <v>0.388309854473285</v>
+        <v>0.3882603936519167</v>
       </c>
       <c r="L77" t="n">
-        <v>1.186206815719761</v>
+        <v>1.186055723073664</v>
       </c>
       <c r="M77" t="n">
-        <v>1.425483329806954</v>
+        <v>1.42568388327442</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3770,25 +3770,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H78" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4922153739436826</v>
+        <v>0.4922477563572819</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2064165146570396</v>
+        <v>0.2064033510742756</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3013681113992778</v>
+        <v>0.3013488925684424</v>
       </c>
       <c r="L78" t="n">
-        <v>1.778014233230326</v>
+        <v>1.778092161640288</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9206176553703969</v>
+        <v>0.9205589457912693</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3862,25 +3862,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H80" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6055465243211879</v>
+        <v>0.6056128086788599</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1603469413328504</v>
+        <v>0.1603199964720082</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2341065343459616</v>
+        <v>0.2340671948491319</v>
       </c>
       <c r="L80" t="n">
-        <v>2.050746107309525</v>
+        <v>2.050905620885711</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7151473583445129</v>
+        <v>0.7150271842651564</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3901,25 +3901,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H81" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2668280883216684</v>
+        <v>0.2667997214976844</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3436029027286955</v>
+        <v>0.3436726851156964</v>
       </c>
       <c r="K81" t="n">
-        <v>0.389569008949636</v>
+        <v>0.3895275933866193</v>
       </c>
       <c r="L81" t="n">
-        <v>1.190053273914641</v>
+        <v>1.189926757879672</v>
       </c>
       <c r="M81" t="n">
-        <v>1.420377717135722</v>
+        <v>1.420545648733708</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3940,25 +3940,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H82" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7642778719561386</v>
+        <v>0.7643853519014103</v>
       </c>
       <c r="J82" t="n">
-        <v>0.09582200326986236</v>
+        <v>0.0957783122351991</v>
       </c>
       <c r="K82" t="n">
-        <v>0.139900124773999</v>
+        <v>0.1398363358633907</v>
       </c>
       <c r="L82" t="n">
-        <v>2.432733740642415</v>
+        <v>2.432992391567622</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4273661345835861</v>
+        <v>0.427171272568988</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -3979,25 +3979,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H83" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1900314819369953</v>
+        <v>0.1899665836271845</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5325225544349915</v>
+        <v>0.5326822042771261</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2774459636280132</v>
+        <v>0.2773512120956894</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8475404094389991</v>
+        <v>0.8472509629772429</v>
       </c>
       <c r="M83" t="n">
-        <v>1.875013626932988</v>
+        <v>1.875397824927068</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4018,25 +4018,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H84" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5377555276429566</v>
+        <v>0.5378076400939235</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1879042570557087</v>
+        <v>0.1878830731325515</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2743402153013347</v>
+        <v>0.2743092867735251</v>
       </c>
       <c r="L84" t="n">
-        <v>1.887606798230204</v>
+        <v>1.887732207055295</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8380529864684608</v>
+        <v>0.8379585061711794</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4163,25 +4163,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H87" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2635469164966584</v>
+        <v>0.2635117189484735</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3516745854182203</v>
+        <v>0.3517611713867551</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3847784980851213</v>
+        <v>0.3847271096647714</v>
       </c>
       <c r="L87" t="n">
-        <v>1.175419247575096</v>
+        <v>1.175262266510192</v>
       </c>
       <c r="M87" t="n">
-        <v>1.439802254339782</v>
+        <v>1.440010623825037</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4202,25 +4202,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H88" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5721650827709525</v>
+        <v>0.572231290057939</v>
       </c>
       <c r="J88" t="n">
-        <v>0.173916633019938</v>
+        <v>0.1738897194886426</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2539182842091095</v>
+        <v>0.2538789904534182</v>
       </c>
       <c r="L88" t="n">
-        <v>1.970413532521967</v>
+        <v>1.970572860627235</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7756681832689236</v>
+        <v>0.7755481489193461</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4241,25 +4241,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H89" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2796705475690514</v>
+        <v>0.27964418809275</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3120104529801337</v>
+        <v>0.3120752972918349</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4083189994508149</v>
+        <v>0.4082805146154151</v>
       </c>
       <c r="L89" t="n">
-        <v>1.247330642157969</v>
+        <v>1.247213078893665</v>
       </c>
       <c r="M89" t="n">
-        <v>1.344350358391216</v>
+        <v>1.34450640649092</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4333,25 +4333,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H91" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3115646430661722</v>
+        <v>0.3115201700704398</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2798517711113121</v>
+        <v>0.2798698495648619</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4085835858225156</v>
+        <v>0.4086099803646984</v>
       </c>
       <c r="L91" t="n">
-        <v>1.343277515021032</v>
+        <v>1.343170490576018</v>
       </c>
       <c r="M91" t="n">
-        <v>1.248138899156452</v>
+        <v>1.248219529059284</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4425,25 +4425,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H93" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2363469867047988</v>
+        <v>0.2363027989522008</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4185864127061951</v>
+        <v>0.4186951145775861</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3450666005890062</v>
+        <v>0.3450020864702131</v>
       </c>
       <c r="L93" t="n">
-        <v>1.054107560703403</v>
+        <v>1.053910483326816</v>
       </c>
       <c r="M93" t="n">
-        <v>1.600825838707591</v>
+        <v>1.601087430202972</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4464,25 +4464,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H94" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5457872685401588</v>
+        <v>0.5458427470172015</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1846393217316428</v>
+        <v>0.1846167695052026</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2695734097281985</v>
+        <v>0.2695404834775958</v>
       </c>
       <c r="L94" t="n">
-        <v>1.906935215348675</v>
+        <v>1.9070687245292</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8234913749231267</v>
+        <v>0.8233907919932038</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -4556,25 +4556,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H96" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7047791548756318</v>
+        <v>0.7048873188955587</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1200084736277919</v>
+        <v>0.1199645045140006</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1752123714965762</v>
+        <v>0.1751481765904408</v>
       </c>
       <c r="L96" t="n">
-        <v>2.289549836123472</v>
+        <v>2.289810133277117</v>
       </c>
       <c r="M96" t="n">
-        <v>0.5352377923799519</v>
+        <v>0.5350416901324424</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4595,25 +4595,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H97" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2223104608231914</v>
+        <v>0.2222538998289801</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4531162663749492</v>
+        <v>0.4532554064207092</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3245732728018594</v>
+        <v>0.3244906937503109</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9915046552714336</v>
+        <v>0.991252393237251</v>
       </c>
       <c r="M97" t="n">
-        <v>1.683922071926707</v>
+        <v>1.684256913012439</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4634,25 +4634,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H98" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7932938288800485</v>
+        <v>0.7934032354283808</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08402689882924862</v>
+        <v>0.08398242462260944</v>
       </c>
       <c r="K98" t="n">
-        <v>0.122679272290703</v>
+        <v>0.1226143399490098</v>
       </c>
       <c r="L98" t="n">
-        <v>2.502560758930849</v>
+        <v>2.502824046234152</v>
       </c>
       <c r="M98" t="n">
-        <v>0.3747599687784488</v>
+        <v>0.3745616138168381</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4673,25 +4673,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H99" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1724309684314614</v>
+        <v>0.1723600005499936</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5758198176586047</v>
+        <v>0.5759943986470157</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2517492139099338</v>
+        <v>0.2516456008029906</v>
       </c>
       <c r="L99" t="n">
-        <v>0.7690421192043181</v>
+        <v>0.7687256024529714</v>
       </c>
       <c r="M99" t="n">
-        <v>1.979208666885748</v>
+        <v>1.979628796744038</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4712,25 +4712,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H100" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6129520604261207</v>
+        <v>0.6130336242128935</v>
       </c>
       <c r="J100" t="n">
-        <v>0.15733656080239</v>
+        <v>0.1573034047915068</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2297113787714894</v>
+        <v>0.2296629709955998</v>
       </c>
       <c r="L100" t="n">
-        <v>2.068567560049852</v>
+        <v>2.06876384363428</v>
       </c>
       <c r="M100" t="n">
-        <v>0.7017210611786593</v>
+        <v>0.7015731853701201</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4804,25 +4804,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H102" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7905002785884614</v>
+        <v>0.7906183204723073</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08516248837867418</v>
+        <v>0.08511450387304587</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1243372330328643</v>
+        <v>0.124267175654647</v>
       </c>
       <c r="L102" t="n">
-        <v>2.495838068798248</v>
+        <v>2.496122137071569</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3798246981688869</v>
+        <v>0.3796106872737846</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4896,25 +4896,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H104" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7306887841345903</v>
+        <v>0.7308017675034149</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1094761040103292</v>
+        <v>0.10943017581162</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1598351118550806</v>
+        <v>0.1597680566849652</v>
       </c>
       <c r="L104" t="n">
-        <v>2.351901464258851</v>
+        <v>2.35217335919521</v>
       </c>
       <c r="M104" t="n">
-        <v>0.488263423886068</v>
+        <v>0.4880585841198253</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4935,25 +4935,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H105" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2088410622810532</v>
+        <v>0.2087783070930777</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4862509867886092</v>
+        <v>0.486405364551029</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3049079509303376</v>
+        <v>0.3048163283558934</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9314311377734972</v>
+        <v>0.9311512496351264</v>
       </c>
       <c r="M105" t="n">
-        <v>1.763660911296165</v>
+        <v>1.76403242200898</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4974,25 +4974,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H106" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7561931363601007</v>
+        <v>0.7562996864774504</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09910848115443062</v>
+        <v>0.09906516809859743</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1446983824854687</v>
+        <v>0.1446351454239522</v>
       </c>
       <c r="L106" t="n">
-        <v>2.413277791565771</v>
+        <v>2.413534204856303</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4420238259487606</v>
+        <v>0.4418306497197445</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -5013,25 +5013,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H107" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1947060007600483</v>
+        <v>0.1946429109719672</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5210232381302813</v>
+        <v>0.5211784390089609</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2842707611096705</v>
+        <v>0.2841786500190721</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8683887633898153</v>
+        <v>0.8681073829349738</v>
       </c>
       <c r="M107" t="n">
-        <v>1.847340475500514</v>
+        <v>1.847713967045955</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5052,25 +5052,25 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="H108" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8088625939809478</v>
+        <v>0.8089720370696631</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07769813252807002</v>
+        <v>0.07765364346761661</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1134392734909822</v>
+        <v>0.1133743194627202</v>
       </c>
       <c r="L108" t="n">
-        <v>2.540027055433826</v>
+        <v>2.54029043067171</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3465336710751923</v>
+        <v>0.3463352498655701</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -5091,25 +5091,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H109" t="n">
-        <v>96.8557364254</v>
+        <v>96.8539542681</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1624238894349637</v>
+        <v>0.1623500542124591</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6004372319899892</v>
+        <v>0.6006188666373506</v>
       </c>
       <c r="K109" t="n">
-        <v>0.237138878575047</v>
+        <v>0.2370310791501903</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7244105468799382</v>
+        <v>0.7240812417875675</v>
       </c>
       <c r="M109" t="n">
-        <v>2.038450574545014</v>
+        <v>2.038887679062242</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5130,25 +5130,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H110" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I110" t="n">
-        <v>0.300088307522365</v>
+        <v>0.3000402825188436</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2845169481616402</v>
+        <v>0.2845364705207953</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4153947443159948</v>
+        <v>0.4154232469603611</v>
       </c>
       <c r="L110" t="n">
-        <v>1.31565966688309</v>
+        <v>1.315544094516892</v>
       </c>
       <c r="M110" t="n">
-        <v>1.268945588800916</v>
+        <v>1.269032658522747</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5169,25 +5169,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H111" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5273428323446741</v>
+        <v>0.5273899226961274</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1921370600224902</v>
+        <v>0.1921179176032002</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2805201076328357</v>
+        <v>0.2804921597006723</v>
       </c>
       <c r="L111" t="n">
-        <v>1.862548604666858</v>
+        <v>1.862661927789055</v>
       </c>
       <c r="M111" t="n">
-        <v>0.8569312877003065</v>
+        <v>0.856845912510273</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -5208,25 +5208,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H112" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4044141255480652</v>
+        <v>0.4043946850755509</v>
       </c>
       <c r="J112" t="n">
-        <v>0.242108079045502</v>
+        <v>0.2421159816766053</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3534777954064329</v>
+        <v>0.3534893332478438</v>
       </c>
       <c r="L112" t="n">
-        <v>1.566720172050629</v>
+        <v>1.566673388474497</v>
       </c>
       <c r="M112" t="n">
-        <v>1.079802032542939</v>
+        <v>1.07983727827766</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5300,25 +5300,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H114" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5891714802993412</v>
+        <v>0.5892291980495786</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1670034632929507</v>
+        <v>0.1669800007928542</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2438250564077081</v>
+        <v>0.2437908011575672</v>
       </c>
       <c r="L114" t="n">
-        <v>2.011339497305732</v>
+        <v>2.011478395306303</v>
       </c>
       <c r="M114" t="n">
-        <v>0.7448354462865603</v>
+        <v>0.74473080353613</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5339,25 +5339,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H115" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2674516394166853</v>
+        <v>0.2674244774672478</v>
       </c>
       <c r="J115" t="n">
-        <v>0.342068967034954</v>
+        <v>0.3421357854305704</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3904793935483606</v>
+        <v>0.3904397371021818</v>
       </c>
       <c r="L115" t="n">
-        <v>1.192834311798417</v>
+        <v>1.192713169503925</v>
       </c>
       <c r="M115" t="n">
-        <v>1.416686294653223</v>
+        <v>1.416847093393893</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5378,25 +5378,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H116" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3397460228730299</v>
+        <v>0.3397126951668721</v>
       </c>
       <c r="J116" t="n">
-        <v>0.26839592566137</v>
+        <v>0.2684094735094016</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3918580514656002</v>
+        <v>0.3918778313237263</v>
       </c>
       <c r="L116" t="n">
-        <v>1.41109612008469</v>
+        <v>1.411015916824343</v>
       </c>
       <c r="M116" t="n">
-        <v>1.19704582844971</v>
+        <v>1.197106251851931</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5470,25 +5470,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H118" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I118" t="n">
-        <v>0.412683645279863</v>
+        <v>0.4126804792779635</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2387464856585923</v>
+        <v>0.2387477726512343</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3485698690615447</v>
+        <v>0.348571748070802</v>
       </c>
       <c r="L118" t="n">
-        <v>1.586620804901134</v>
+        <v>1.586613185904693</v>
       </c>
       <c r="M118" t="n">
-        <v>1.064809326037321</v>
+        <v>1.064815066024505</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5509,25 +5509,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H119" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I119" t="n">
-        <v>0.4002858198520971</v>
+        <v>0.4002773466475814</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2437862520926435</v>
+        <v>0.243789696484723</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3559279280552595</v>
+        <v>0.3559329568676956</v>
       </c>
       <c r="L119" t="n">
-        <v>1.556785387611551</v>
+        <v>1.55676499681044</v>
       </c>
       <c r="M119" t="n">
-        <v>1.08728668433319</v>
+        <v>1.087302046321865</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5601,25 +5601,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H121" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4439308479866954</v>
+        <v>0.4439413106425914</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2260443707371157</v>
+        <v>0.2260401176249629</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3300247812761889</v>
+        <v>0.3300185717324458</v>
       </c>
       <c r="L121" t="n">
-        <v>1.661817325236275</v>
+        <v>1.66184250366022</v>
       </c>
       <c r="M121" t="n">
-        <v>1.008157893487536</v>
+        <v>1.008138924607334</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -5640,25 +5640,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H122" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3244315240828105</v>
+        <v>0.3243923311775781</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2746213316736543</v>
+        <v>0.274637263748952</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4009471442435352</v>
+        <v>0.4009704050734699</v>
       </c>
       <c r="L122" t="n">
-        <v>1.374241716491967</v>
+        <v>1.374147398606204</v>
       </c>
       <c r="M122" t="n">
-        <v>1.224811139264498</v>
+        <v>1.224882196320326</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5679,25 +5679,25 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H123" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4978868381214151</v>
+        <v>0.4979211116600924</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2041110414140589</v>
+        <v>0.2040971090812633</v>
       </c>
       <c r="K123" t="n">
-        <v>0.298002120464526</v>
+        <v>0.2979817792586444</v>
       </c>
       <c r="L123" t="n">
-        <v>1.791662634828771</v>
+        <v>1.791745114238922</v>
       </c>
       <c r="M123" t="n">
-        <v>0.9103352447067028</v>
+        <v>0.9102731065024341</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -5718,25 +5718,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H124" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4798450322846717</v>
+        <v>0.4798578253959495</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2114451088273692</v>
+        <v>0.2114399083756303</v>
       </c>
       <c r="K124" t="n">
-        <v>0.308709858887959</v>
+        <v>0.3087022662284202</v>
       </c>
       <c r="L124" t="n">
-        <v>1.748244955741974</v>
+        <v>1.748275742416269</v>
       </c>
       <c r="M124" t="n">
-        <v>0.9430451853700668</v>
+        <v>0.9430219913553112</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5757,25 +5757,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H125" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I125" t="n">
-        <v>0.334615756616553</v>
+        <v>0.3345930051471526</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2704813997493687</v>
+        <v>0.2704906483141656</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3949028436340783</v>
+        <v>0.3949163465386818</v>
       </c>
       <c r="L125" t="n">
-        <v>1.398750113483737</v>
+        <v>1.398695361980139</v>
       </c>
       <c r="M125" t="n">
-        <v>1.206347042882185</v>
+        <v>1.206388291481179</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5849,25 +5849,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H127" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4715516883665968</v>
+        <v>0.4715743463719411</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2148163868428468</v>
+        <v>0.2148071762715687</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3136319247905563</v>
+        <v>0.3136184773564903</v>
       </c>
       <c r="L127" t="n">
-        <v>1.728286989890347</v>
+        <v>1.728341516472313</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9580810853190969</v>
+        <v>0.9580400061711964</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5941,25 +5941,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H129" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3040949296872705</v>
+        <v>0.3040490020750053</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2828882399645242</v>
+        <v>0.2829069097256077</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4130168303482054</v>
+        <v>0.4130440881993871</v>
       </c>
       <c r="L129" t="n">
-        <v>1.325301619410017</v>
+        <v>1.325191094424403</v>
       </c>
       <c r="M129" t="n">
-        <v>1.261681550241778</v>
+        <v>1.26176481737621</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -5980,25 +5980,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H130" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I130" t="n">
-        <v>0.629286939881297</v>
+        <v>0.629359046948703</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1506963659019117</v>
+        <v>0.1506670540858931</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2200166942167912</v>
+        <v>0.2199738989654039</v>
       </c>
       <c r="L130" t="n">
-        <v>2.107877513860682</v>
+        <v>2.108051039811513</v>
       </c>
       <c r="M130" t="n">
-        <v>0.6721057919225264</v>
+        <v>0.6719750612230833</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -6072,25 +6072,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H132" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4119286340122028</v>
+        <v>0.4119251433178108</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2390534008080477</v>
+        <v>0.2390548197895078</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3490179651797495</v>
+        <v>0.3490200368926814</v>
       </c>
       <c r="L132" t="n">
-        <v>1.584803867216358</v>
+        <v>1.584795466846114</v>
       </c>
       <c r="M132" t="n">
-        <v>1.066178167603893</v>
+        <v>1.066184496261205</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6111,25 +6111,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H133" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I133" t="n">
-        <v>0.4010639825536024</v>
+        <v>0.4010558405229473</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2434699257912185</v>
+        <v>0.2434732355597775</v>
       </c>
       <c r="K133" t="n">
-        <v>0.355466091655179</v>
+        <v>0.3554709239172752</v>
       </c>
       <c r="L133" t="n">
-        <v>1.558658039315986</v>
+        <v>1.558638445486117</v>
       </c>
       <c r="M133" t="n">
-        <v>1.085875869028834</v>
+        <v>1.085890630596608</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -6150,25 +6150,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H134" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6253237594847774</v>
+        <v>0.6254068589803354</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1523074148435865</v>
+        <v>0.1522736345608393</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2223688256716362</v>
+        <v>0.2223195064588253</v>
       </c>
       <c r="L134" t="n">
-        <v>2.098340104125968</v>
+        <v>2.098540083399832</v>
       </c>
       <c r="M134" t="n">
-        <v>0.6792910702023955</v>
+        <v>0.6791404101413431</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6189,25 +6189,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H135" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2526839101668628</v>
+        <v>0.2526439634754009</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3783975809895176</v>
+        <v>0.3784958498505139</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3689185088436197</v>
+        <v>0.3688601866740852</v>
       </c>
       <c r="L135" t="n">
-        <v>1.126970239344208</v>
+        <v>1.126792077100288</v>
       </c>
       <c r="M135" t="n">
-        <v>1.504111251812172</v>
+        <v>1.504347736225627</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6281,25 +6281,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H137" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2838751606060413</v>
+        <v>0.2838517355898898</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3016671049091385</v>
+        <v>0.3017247304488711</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4144577344848203</v>
+        <v>0.4144235339612392</v>
       </c>
       <c r="L137" t="n">
-        <v>1.266083216302944</v>
+        <v>1.265978740730909</v>
       </c>
       <c r="M137" t="n">
-        <v>1.319459049212236</v>
+        <v>1.319597725307853</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6320,25 +6320,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="H138" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I138" t="n">
-        <v>0.57839400333444</v>
+        <v>0.5784475997063278</v>
       </c>
       <c r="J138" t="n">
-        <v>0.171384551490065</v>
+        <v>0.1713627643470212</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2502214451754949</v>
+        <v>0.250189635946651</v>
       </c>
       <c r="L138" t="n">
-        <v>1.985403455178815</v>
+        <v>1.985532435065634</v>
       </c>
       <c r="M138" t="n">
-        <v>0.7643750996456901</v>
+        <v>0.7642779289877146</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6359,25 +6359,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H139" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2716408121316816</v>
+        <v>0.2716158056225424</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3317636021560632</v>
+        <v>0.3318251181685457</v>
       </c>
       <c r="K139" t="n">
-        <v>0.3965955857122551</v>
+        <v>0.396559076208912</v>
       </c>
       <c r="L139" t="n">
-        <v>1.2115180221073</v>
+        <v>1.211406493076539</v>
       </c>
       <c r="M139" t="n">
-        <v>1.391886392180445</v>
+        <v>1.392034430714549</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6451,25 +6451,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H141" t="n">
-        <v>91.365203212</v>
+        <v>91.36100993549999</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2411249390573042</v>
+        <v>0.2410844527132806</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4068326499190317</v>
+        <v>0.40693224632533</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3520424110236641</v>
+        <v>0.3519833009613896</v>
       </c>
       <c r="L141" t="n">
-        <v>1.075417228195577</v>
+        <v>1.075236659101231</v>
       </c>
       <c r="M141" t="n">
-        <v>1.572540360780759</v>
+        <v>1.572780039937379</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6490,25 +6490,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H142" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5250911206053259</v>
+        <v>0.525124081457086</v>
       </c>
       <c r="J142" t="n">
-        <v>0.193052389997835</v>
+        <v>0.1930389912776073</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2818564893968391</v>
+        <v>0.2818369272653067</v>
       </c>
       <c r="L142" t="n">
-        <v>1.857129851212817</v>
+        <v>1.857209171636565</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8610136593903441</v>
+        <v>0.8609539010981287</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6635,25 +6635,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H145" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2220281062941475</v>
+        <v>0.2219775664027345</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4538108585163972</v>
+        <v>0.4539351866492731</v>
       </c>
       <c r="K145" t="n">
-        <v>0.3241610351894553</v>
+        <v>0.3240872469479923</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9902453540718978</v>
+        <v>0.9900199461561958</v>
       </c>
       <c r="M145" t="n">
-        <v>1.685593610738647</v>
+        <v>1.685892806895812</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -6727,25 +6727,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H147" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3660798409473311</v>
+        <v>0.3660568521830351</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2576911215661256</v>
+        <v>0.2577004665922621</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3762290374865433</v>
+        <v>0.3762426812247028</v>
       </c>
       <c r="L147" t="n">
-        <v>1.474468560328537</v>
+        <v>1.474413237773808</v>
       </c>
       <c r="M147" t="n">
-        <v>1.14930240218492</v>
+        <v>1.149344081001489</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6766,25 +6766,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H148" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5336173870931311</v>
+        <v>0.5336671175718622</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1895864280109223</v>
+        <v>0.1895662123691617</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2767961848959467</v>
+        <v>0.276766670058976</v>
       </c>
       <c r="L148" t="n">
-        <v>1.87764834617534</v>
+        <v>1.877768022774563</v>
       </c>
       <c r="M148" t="n">
-        <v>0.8455554689287137</v>
+        <v>0.8454653071664608</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6911,25 +6911,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H151" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3331378982534846</v>
+        <v>0.3331018392733104</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2710821551815104</v>
+        <v>0.2710968133035324</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3957799465650051</v>
+        <v>0.3958013474231572</v>
       </c>
       <c r="L151" t="n">
-        <v>1.395193641325459</v>
+        <v>1.395106865243088</v>
       </c>
       <c r="M151" t="n">
-        <v>1.209026412109536</v>
+        <v>1.209091787333754</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6950,25 +6950,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H152" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4388267475129511</v>
+        <v>0.4388351360008313</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2281192083280687</v>
+        <v>0.2281157983736458</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3330540441589803</v>
+        <v>0.3330490656255229</v>
       </c>
       <c r="L152" t="n">
-        <v>1.649534286697834</v>
+        <v>1.649554473628017</v>
       </c>
       <c r="M152" t="n">
-        <v>1.017411669143186</v>
+        <v>1.01739646074646</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -6989,25 +6989,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H153" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3829003827190146</v>
+        <v>0.3828844087704155</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2508535029597502</v>
+        <v>0.2508599964347905</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3662461143212352</v>
+        <v>0.3662555947947941</v>
       </c>
       <c r="L153" t="n">
-        <v>1.514947262478279</v>
+        <v>1.51490882110604</v>
       </c>
       <c r="M153" t="n">
-        <v>1.118806623200486</v>
+        <v>1.118835584099166</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7028,25 +7028,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H154" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6003422722188323</v>
+        <v>0.6004056471366215</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1624624909679543</v>
+        <v>0.1624367288062514</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2371952368132133</v>
+        <v>0.2371576240571271</v>
       </c>
       <c r="L154" t="n">
-        <v>2.03822205346971</v>
+        <v>2.038374565466992</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7245827097170764</v>
+        <v>0.7244678104758814</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7067,25 +7067,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H155" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2665399422558834</v>
+        <v>0.2665117768890372</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3443117420505268</v>
+        <v>0.3443810288529686</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3891483156935898</v>
+        <v>0.3891071942579943</v>
       </c>
       <c r="L155" t="n">
-        <v>1.18876814246124</v>
+        <v>1.188642524925106</v>
       </c>
       <c r="M155" t="n">
-        <v>1.42208354184517</v>
+        <v>1.4222502808169</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7106,25 +7106,25 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H156" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4639333214452699</v>
+        <v>0.4639528340447835</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2179132839653375</v>
+        <v>0.2179053520143157</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3181533945893927</v>
+        <v>0.3181418139409009</v>
       </c>
       <c r="L156" t="n">
-        <v>1.709953358925202</v>
+        <v>1.710000316075251</v>
       </c>
       <c r="M156" t="n">
-        <v>0.9718932464854051</v>
+        <v>0.9718578699838479</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -7145,25 +7145,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H157" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3583071492204682</v>
+        <v>0.3582809901882513</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2608507523494031</v>
+        <v>0.2608613861023369</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3808420984301286</v>
+        <v>0.3808576237094118</v>
       </c>
       <c r="L157" t="n">
-        <v>1.455763546091533</v>
+        <v>1.455700594274166</v>
       </c>
       <c r="M157" t="n">
-        <v>1.163394355478338</v>
+        <v>1.163441782016422</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7237,25 +7237,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H159" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2533804382253035</v>
+        <v>0.2533401836450252</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3766841219657533</v>
+        <v>0.3767831482332381</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3699354398089431</v>
+        <v>0.3698766681217368</v>
       </c>
       <c r="L159" t="n">
-        <v>1.130076754484854</v>
+        <v>1.129897219056812</v>
       </c>
       <c r="M159" t="n">
-        <v>1.499987805706203</v>
+        <v>1.500226112821451</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7276,25 +7276,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H160" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I160" t="n">
-        <v>0.73433203678794</v>
+        <v>0.7344338597007496</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1079951069967724</v>
+        <v>0.1079537155688009</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1576728562152877</v>
+        <v>0.1576124247304494</v>
       </c>
       <c r="L160" t="n">
-        <v>2.360668966579108</v>
+        <v>2.360914003832698</v>
       </c>
       <c r="M160" t="n">
-        <v>0.4816581772056049</v>
+        <v>0.4814735714368522</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7315,25 +7315,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H161" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2042604090502138</v>
+        <v>0.2042019699973105</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4975193937364741</v>
+        <v>0.4976631538066161</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2982201972133121</v>
+        <v>0.2981348761960733</v>
       </c>
       <c r="L161" t="n">
-        <v>0.9110014243639535</v>
+        <v>0.9107407861880048</v>
       </c>
       <c r="M161" t="n">
-        <v>1.790778378422734</v>
+        <v>1.791124337615922</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7354,25 +7354,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H162" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5328418545275571</v>
+        <v>0.5328912598960373</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1899016851513995</v>
+        <v>0.1898816016682775</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2772564603210433</v>
+        <v>0.2772271384356851</v>
       </c>
       <c r="L162" t="n">
-        <v>1.875782023903715</v>
+        <v>1.875900918123797</v>
       </c>
       <c r="M162" t="n">
-        <v>0.846961515775242</v>
+        <v>0.8468719434405177</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7446,25 +7446,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H164" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I164" t="n">
-        <v>0.7310118339366576</v>
+        <v>0.7311234255875002</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1093447829525782</v>
+        <v>0.1092994204928861</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1596433831107642</v>
+        <v>0.1595771539196137</v>
       </c>
       <c r="L164" t="n">
-        <v>2.352678884920737</v>
+        <v>2.352947430682114</v>
       </c>
       <c r="M164" t="n">
-        <v>0.487677731968499</v>
+        <v>0.4874754153982722</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7485,25 +7485,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H165" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2060518896411884</v>
+        <v>0.2059886425700038</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4931123514826766</v>
+        <v>0.4932679392777906</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3008357588761351</v>
+        <v>0.3007434181522056</v>
       </c>
       <c r="L165" t="n">
-        <v>0.9189914277997002</v>
+        <v>0.9187093458622172</v>
       </c>
       <c r="M165" t="n">
-        <v>1.780172813324165</v>
+        <v>1.780547235985577</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7524,25 +7524,25 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H166" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6614894205557572</v>
+        <v>0.661585452482172</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1376059266033507</v>
+        <v>0.1375668892348894</v>
       </c>
       <c r="K166" t="n">
-        <v>0.200904652840892</v>
+        <v>0.2008476582829385</v>
       </c>
       <c r="L166" t="n">
-        <v>2.185372914508164</v>
+        <v>2.185604015729455</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6137224326509443</v>
+        <v>0.6135483259876068</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -7616,25 +7616,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H168" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I168" t="n">
-        <v>0.69077374392083</v>
+        <v>0.6908661593163599</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1257017301134838</v>
+        <v>0.1256641628795285</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1835245259656863</v>
+        <v>0.1834696778041116</v>
       </c>
       <c r="L168" t="n">
-        <v>2.255845757728177</v>
+        <v>2.256068155753191</v>
       </c>
       <c r="M168" t="n">
-        <v>0.5606297163061376</v>
+        <v>0.5604621664426971</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7708,25 +7708,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="H170" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I170" t="n">
-        <v>0.7529587550366844</v>
+        <v>0.753063411587191</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1004232703102909</v>
+        <v>0.1003807269970768</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1466179746530247</v>
+        <v>0.1465558614157321</v>
       </c>
       <c r="L170" t="n">
-        <v>2.405494239763078</v>
+        <v>2.405746096177305</v>
       </c>
       <c r="M170" t="n">
-        <v>0.4478877855838974</v>
+        <v>0.4476980424069624</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7747,25 +7747,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H171" t="n">
-        <v>94.64682357700001</v>
+        <v>94.6440632069</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1939365854787934</v>
+        <v>0.1938739742207346</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5229159997221681</v>
+        <v>0.523070023416993</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2831474147990385</v>
+        <v>0.2830560023622725</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8649571712354188</v>
+        <v>0.8646779250244763</v>
       </c>
       <c r="M171" t="n">
-        <v>1.851895413965543</v>
+        <v>1.852266072613252</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7786,25 +7786,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H172" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5914431125708618</v>
+        <v>0.591514993407652</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1660800355403</v>
+        <v>0.1660508156879463</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2424768518888381</v>
+        <v>0.2424341909044017</v>
       </c>
       <c r="L172" t="n">
-        <v>2.016806189601423</v>
+        <v>2.016979171127358</v>
       </c>
       <c r="M172" t="n">
-        <v>0.7407169585097382</v>
+        <v>0.7405866379682406</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -7825,25 +7825,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H173" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2666241830850385</v>
+        <v>0.266591736847045</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3441045096108054</v>
+        <v>0.3441843273562694</v>
       </c>
       <c r="K173" t="n">
-        <v>0.3892713073041562</v>
+        <v>0.3892239357966856</v>
       </c>
       <c r="L173" t="n">
-        <v>1.189143856559272</v>
+        <v>1.18899914633782</v>
       </c>
       <c r="M173" t="n">
-        <v>1.421584836136572</v>
+        <v>1.421776917865494</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7864,25 +7864,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H174" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3418562002044951</v>
+        <v>0.3418360512638121</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2675381299981727</v>
+        <v>0.2675463206244667</v>
       </c>
       <c r="K174" t="n">
-        <v>0.3906056697973322</v>
+        <v>0.3906176281117213</v>
       </c>
       <c r="L174" t="n">
-        <v>1.416174270410817</v>
+        <v>1.416125781903157</v>
       </c>
       <c r="M174" t="n">
-        <v>1.19322005979185</v>
+        <v>1.193256589985122</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7903,25 +7903,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H175" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4776897381612156</v>
+        <v>0.4777019356780902</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2123212446499124</v>
+        <v>0.2123162863097195</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3099890171888721</v>
+        <v>0.3099817780121904</v>
       </c>
       <c r="L175" t="n">
-        <v>1.743058231672519</v>
+        <v>1.743087585046461</v>
       </c>
       <c r="M175" t="n">
-        <v>0.9469527511386092</v>
+        <v>0.9469306369413488</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -7942,25 +7942,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H176" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4149621242218929</v>
+        <v>0.414973281500232</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2378202747065476</v>
+        <v>0.237815739227548</v>
       </c>
       <c r="K176" t="n">
-        <v>0.3472176010715595</v>
+        <v>0.34721097927222</v>
       </c>
       <c r="L176" t="n">
-        <v>1.592103973737238</v>
+        <v>1.592130823772916</v>
       </c>
       <c r="M176" t="n">
-        <v>1.060678425191202</v>
+        <v>1.060658196954864</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -7981,25 +7981,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H177" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3981196634254384</v>
+        <v>0.3980976071931053</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2446668034855942</v>
+        <v>0.244675769433697</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3572135330889674</v>
+        <v>0.3572266233731977</v>
       </c>
       <c r="L177" t="n">
-        <v>1.551572523365283</v>
+        <v>1.551519444952513</v>
       </c>
       <c r="M177" t="n">
-        <v>1.09121394354575</v>
+        <v>1.091253931674289</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8020,25 +8020,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H178" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3738692073867041</v>
+        <v>0.3738624809870535</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2545247124444292</v>
+        <v>0.2545274467532304</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3716060801688666</v>
+        <v>0.3716100722597163</v>
       </c>
       <c r="L178" t="n">
-        <v>1.493213702328979</v>
+        <v>1.493197515220877</v>
       </c>
       <c r="M178" t="n">
-        <v>1.135180217502154</v>
+        <v>1.135192412519407</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8165,25 +8165,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H181" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4956290135413933</v>
+        <v>0.4956490984865284</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2050288562839865</v>
+        <v>0.205020691672143</v>
       </c>
       <c r="K181" t="n">
-        <v>0.2993421301746203</v>
+        <v>0.2993302098413287</v>
       </c>
       <c r="L181" t="n">
-        <v>1.7862291707988</v>
+        <v>1.786277505300914</v>
       </c>
       <c r="M181" t="n">
-        <v>0.9144286990265799</v>
+        <v>0.9143922848577576</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8204,25 +8204,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H182" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4821898836094942</v>
+        <v>0.4822174177777084</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2104919172319129</v>
+        <v>0.2104807244806064</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3073181991585928</v>
+        <v>0.3073018577416853</v>
       </c>
       <c r="L182" t="n">
-        <v>1.753887849987076</v>
+        <v>1.75395411107481</v>
       </c>
       <c r="M182" t="n">
-        <v>0.9387939508543315</v>
+        <v>0.9387440311835044</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8296,25 +8296,25 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H184" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3491722229081652</v>
+        <v>0.3491550861431786</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2645641370292012</v>
+        <v>0.2645711031938298</v>
       </c>
       <c r="K184" t="n">
-        <v>0.3862636400626336</v>
+        <v>0.3862738106629915</v>
       </c>
       <c r="L184" t="n">
-        <v>1.433780308787129</v>
+        <v>1.433739069092527</v>
       </c>
       <c r="M184" t="n">
-        <v>1.179956051150237</v>
+        <v>1.179987120244481</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -8335,25 +8335,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H185" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4693016678311949</v>
+        <v>0.4693101794995903</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2157310293369126</v>
+        <v>0.2157275693091097</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3149673028318924</v>
+        <v>0.3149622511913001</v>
       </c>
       <c r="L185" t="n">
-        <v>1.722872306325477</v>
+        <v>1.722892789690071</v>
       </c>
       <c r="M185" t="n">
-        <v>0.9621603908426304</v>
+        <v>0.9621449591186291</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8374,25 +8374,25 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H186" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5159489355967712</v>
+        <v>0.5160040563265653</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1967687253671661</v>
+        <v>0.1967463185664369</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2872823390360625</v>
+        <v>0.2872496251069979</v>
       </c>
       <c r="L186" t="n">
-        <v>1.835129145826376</v>
+        <v>1.835261794086694</v>
       </c>
       <c r="M186" t="n">
-        <v>0.8775885151375609</v>
+        <v>0.8774885808063086</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -8413,25 +8413,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H187" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3021870205978118</v>
+        <v>0.3021292901772796</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2836638127651172</v>
+        <v>0.28368728041574</v>
       </c>
       <c r="K187" t="n">
-        <v>0.4141491666370711</v>
+        <v>0.4141834294069804</v>
       </c>
       <c r="L187" t="n">
-        <v>1.320710228430507</v>
+        <v>1.320571299938819</v>
       </c>
       <c r="M187" t="n">
-        <v>1.265140604932423</v>
+        <v>1.2652452706542</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8452,25 +8452,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H188" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6314755019074809</v>
+        <v>0.6315611662584982</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1498067065416744</v>
+        <v>0.1497718836347568</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2187177915508446</v>
+        <v>0.2186669501067449</v>
       </c>
       <c r="L188" t="n">
-        <v>2.113144297273287</v>
+        <v>2.11335044888224</v>
       </c>
       <c r="M188" t="n">
-        <v>0.6681379111758678</v>
+        <v>0.6679826010110153</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8544,25 +8544,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H190" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4142058842922062</v>
+        <v>0.4142167086744643</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2381276893121113</v>
+        <v>0.2381232891567218</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3476664263956825</v>
+        <v>0.3476600021688139</v>
       </c>
       <c r="L190" t="n">
-        <v>1.590284079272301</v>
+        <v>1.590310128192207</v>
       </c>
       <c r="M190" t="n">
-        <v>1.062049494332016</v>
+        <v>1.062029869638979</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -8583,25 +8583,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H191" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3988964160337048</v>
+        <v>0.3988746813057442</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2443510503928029</v>
+        <v>0.2443598856480715</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3567525335734922</v>
+        <v>0.3567654330461844</v>
       </c>
       <c r="L191" t="n">
-        <v>1.553441781674607</v>
+        <v>1.553389476963417</v>
       </c>
       <c r="M191" t="n">
-        <v>1.089805684751901</v>
+        <v>1.089845089990399</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8675,25 +8675,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H193" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2518194013873412</v>
+        <v>0.2517739290372442</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3805242725871406</v>
+        <v>0.3806361345683795</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3676563260255182</v>
+        <v>0.3675899363943765</v>
       </c>
       <c r="L193" t="n">
-        <v>1.123114530187542</v>
+        <v>1.122911723506109</v>
       </c>
       <c r="M193" t="n">
-        <v>1.50922914378694</v>
+        <v>1.509498340099515</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8714,25 +8714,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H194" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I194" t="n">
-        <v>0.5477977415914508</v>
+        <v>0.5478658689503377</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1838220562636379</v>
+        <v>0.1837943622153099</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2683802021449113</v>
+        <v>0.2683397688343525</v>
       </c>
       <c r="L194" t="n">
-        <v>1.911773426919264</v>
+        <v>1.911937375685366</v>
       </c>
       <c r="M194" t="n">
-        <v>0.8198463709358249</v>
+        <v>0.8197228554802822</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8753,25 +8753,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H195" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2831003416835539</v>
+        <v>0.2830719551863988</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3035731594584576</v>
+        <v>0.3036429902414589</v>
       </c>
       <c r="K195" t="n">
-        <v>0.4133264988579885</v>
+        <v>0.4132850545721422</v>
       </c>
       <c r="L195" t="n">
-        <v>1.26262752390865</v>
+        <v>1.262500920131339</v>
       </c>
       <c r="M195" t="n">
-        <v>1.324045977233361</v>
+        <v>1.324214025296519</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -8792,25 +8792,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="H196" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I196" t="n">
-        <v>0.5806828158515769</v>
+        <v>0.5807507025604388</v>
       </c>
       <c r="J196" t="n">
-        <v>0.170454139897733</v>
+        <v>0.1704265436746184</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2488630442506901</v>
+        <v>0.2488227537649428</v>
       </c>
       <c r="L196" t="n">
-        <v>1.990911491805421</v>
+        <v>1.991074861446259</v>
       </c>
       <c r="M196" t="n">
-        <v>0.7602254639438891</v>
+        <v>0.760102384788798</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8937,25 +8937,25 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H199" t="n">
-        <v>91.4284250658</v>
+        <v>91.424629044</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2402382124163653</v>
+        <v>0.2401920819018085</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4090139974557416</v>
+        <v>0.4091274785215511</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3507477901278933</v>
+        <v>0.3506804395766405</v>
       </c>
       <c r="L199" t="n">
-        <v>1.071462427376989</v>
+        <v>1.071256685282066</v>
       </c>
       <c r="M199" t="n">
-        <v>1.577789782495118</v>
+        <v>1.578062875141294</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -8976,25 +8976,25 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H200" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I200" t="n">
-        <v>0.2402080485395601</v>
+        <v>0.240166628161336</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4090882005926822</v>
+        <v>0.4091900947231134</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3507037508677577</v>
+        <v>0.3506432771155505</v>
       </c>
       <c r="L200" t="n">
-        <v>1.071327896486438</v>
+        <v>1.071143161599559</v>
       </c>
       <c r="M200" t="n">
-        <v>1.577968352645805</v>
+        <v>1.578213561284891</v>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
@@ -9068,25 +9068,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H202" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2697471389894154</v>
+        <v>0.26972118529443</v>
       </c>
       <c r="J202" t="n">
-        <v>0.336422038086038</v>
+        <v>0.3364858841757023</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3938308229245466</v>
+        <v>0.3937929305298677</v>
       </c>
       <c r="L202" t="n">
-        <v>1.203072239892793</v>
+        <v>1.202956486413158</v>
       </c>
       <c r="M202" t="n">
-        <v>1.40309693718266</v>
+        <v>1.403250583056975</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9160,25 +9160,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H204" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I204" t="n">
-        <v>0.2537114441403935</v>
+        <v>0.2536770478504511</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3758698474146319</v>
+        <v>0.3759544622878903</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3704187084449746</v>
+        <v>0.3703684898616585</v>
       </c>
       <c r="L204" t="n">
-        <v>1.131553040866155</v>
+        <v>1.131399633413012</v>
       </c>
       <c r="M204" t="n">
-        <v>1.49802825068887</v>
+        <v>1.498231876725329</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9199,25 +9199,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H205" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I205" t="n">
-        <v>0.6256013000826474</v>
+        <v>0.625672690210504</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1521945934623385</v>
+        <v>0.152165573085161</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2222041064550142</v>
+        <v>0.2221617367043351</v>
       </c>
       <c r="L205" t="n">
-        <v>2.099008006702956</v>
+        <v>2.099179807335847</v>
       </c>
       <c r="M205" t="n">
-        <v>0.6787878868420297</v>
+        <v>0.678658455959818</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9291,25 +9291,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H207" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6748410749097404</v>
+        <v>0.674928735386047</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1321784248334388</v>
+        <v>0.1321427904934768</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1929805002568206</v>
+        <v>0.1929284741204761</v>
       </c>
       <c r="L207" t="n">
-        <v>2.217503724986042</v>
+        <v>2.217714680278617</v>
       </c>
       <c r="M207" t="n">
-        <v>0.5895157747571371</v>
+        <v>0.5893568456009066</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9383,25 +9383,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H209" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I209" t="n">
-        <v>0.5128057110227647</v>
+        <v>0.5128457432860004</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1980464589338355</v>
+        <v>0.1980301856560974</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2891478300433998</v>
+        <v>0.2891240710579022</v>
       </c>
       <c r="L209" t="n">
-        <v>1.827564963111694</v>
+        <v>1.827661300915904</v>
       </c>
       <c r="M209" t="n">
-        <v>0.8832872068449062</v>
+        <v>0.8832146280261943</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9422,25 +9422,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H210" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I210" t="n">
-        <v>0.2433777058356029</v>
+        <v>0.2433379203543782</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4012908436444169</v>
+        <v>0.4013887159282296</v>
       </c>
       <c r="K210" t="n">
-        <v>0.3553314505199802</v>
+        <v>0.3552733637173921</v>
       </c>
       <c r="L210" t="n">
-        <v>1.085464568026789</v>
+        <v>1.085287124780527</v>
       </c>
       <c r="M210" t="n">
-        <v>1.559203981453231</v>
+        <v>1.559439511502081</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9461,25 +9461,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H211" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6512866378259073</v>
+        <v>0.6513668832651894</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1417533992577613</v>
+        <v>0.1417207791604921</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2069599629163314</v>
+        <v>0.2069123375743185</v>
       </c>
       <c r="L211" t="n">
-        <v>2.160819876394053</v>
+        <v>2.161012987369887</v>
       </c>
       <c r="M211" t="n">
-        <v>0.6322201606896152</v>
+        <v>0.6320746750557948</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9500,25 +9500,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H212" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3287738345357016</v>
+        <v>0.3287492882948824</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2728561648228855</v>
+        <v>0.27286614296956</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3983700006414128</v>
+        <v>0.3983845687355576</v>
       </c>
       <c r="L212" t="n">
-        <v>1.384691504248518</v>
+        <v>1.384632433620205</v>
       </c>
       <c r="M212" t="n">
-        <v>1.216938495110069</v>
+        <v>1.216982997644238</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9539,25 +9539,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H213" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I213" t="n">
-        <v>0.4777004321238273</v>
+        <v>0.477711755897921</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2123168975106393</v>
+        <v>0.2123122943504386</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3099826703655333</v>
+        <v>0.3099759497516404</v>
       </c>
       <c r="L213" t="n">
-        <v>1.743083966737015</v>
+        <v>1.743111217445403</v>
       </c>
       <c r="M213" t="n">
-        <v>0.9469333628974512</v>
+        <v>0.9469128328029564</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9578,25 +9578,25 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H214" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4405324322187139</v>
+        <v>0.4405413512445173</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2274258405614984</v>
+        <v>0.2274222149412531</v>
       </c>
       <c r="K214" t="n">
-        <v>0.3320417272197877</v>
+        <v>0.3320364338142295</v>
       </c>
       <c r="L214" t="n">
-        <v>1.65363902387593</v>
+        <v>1.653660487547782</v>
       </c>
       <c r="M214" t="n">
-        <v>1.014319248904283</v>
+        <v>1.014303078637989</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -9617,25 +9617,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H215" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3582468553925701</v>
+        <v>0.3582220418513565</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2608752620355406</v>
+        <v>0.260885348840912</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3808778825718892</v>
+        <v>0.3808926093077314</v>
       </c>
       <c r="L215" t="n">
-        <v>1.4556184487496</v>
+        <v>1.455558734861801</v>
       </c>
       <c r="M215" t="n">
-        <v>1.163503668678511</v>
+        <v>1.163548655830467</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9709,25 +9709,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H217" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I217" t="n">
-        <v>0.5836030543283778</v>
+        <v>0.5836585876532775</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1692670510860254</v>
+        <v>0.1692444765637083</v>
       </c>
       <c r="K217" t="n">
-        <v>0.247129894585597</v>
+        <v>0.2470969357830141</v>
       </c>
       <c r="L217" t="n">
-        <v>1.99793905757073</v>
+        <v>1.998072698742847</v>
       </c>
       <c r="M217" t="n">
-        <v>0.754931047843673</v>
+        <v>0.754830365474139</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9748,25 +9748,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H218" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4363587476204318</v>
+        <v>0.4363788608516653</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2291224603168976</v>
+        <v>0.2291142842066401</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3345187920626705</v>
+        <v>0.3345068549416945</v>
       </c>
       <c r="L218" t="n">
-        <v>1.643595034923966</v>
+        <v>1.64364343749669</v>
       </c>
       <c r="M218" t="n">
-        <v>1.021886173013363</v>
+        <v>1.021849707561615</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -9840,25 +9840,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="H220" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3576044223414878</v>
+        <v>0.3575913481373444</v>
       </c>
       <c r="J220" t="n">
-        <v>0.261136413682322</v>
+        <v>0.2611417283994535</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3812591639761901</v>
+        <v>0.3812669234632021</v>
       </c>
       <c r="L220" t="n">
-        <v>1.454072431000654</v>
+        <v>1.454040967875235</v>
       </c>
       <c r="M220" t="n">
-        <v>1.164668405023156</v>
+        <v>1.164692108661562</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9985,25 +9985,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H223" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I223" t="n">
-        <v>0.410599526992189</v>
+        <v>0.4105958863521382</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2395936882145573</v>
+        <v>0.2395951681495373</v>
       </c>
       <c r="K223" t="n">
-        <v>0.3498067847932537</v>
+        <v>0.3498089454983245</v>
       </c>
       <c r="L223" t="n">
-        <v>1.581605365769821</v>
+        <v>1.581596604554739</v>
       </c>
       <c r="M223" t="n">
-        <v>1.068587849436926</v>
+        <v>1.068594449946936</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10077,25 +10077,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H225" t="n">
-        <v>86.19489223870001</v>
+        <v>86.1888620081</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3352282290738052</v>
+        <v>0.3351947405268229</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2702324272057703</v>
+        <v>0.2702460404362509</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3945393437204246</v>
+        <v>0.3945592190369263</v>
       </c>
       <c r="L225" t="n">
-        <v>1.40022403094184</v>
+        <v>1.400143440617395</v>
       </c>
       <c r="M225" t="n">
-        <v>1.205236625337735</v>
+        <v>1.205297340345679</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10116,25 +10116,25 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H226" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I226" t="n">
-        <v>0.4862343599531668</v>
+        <v>0.4862634722218669</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2088478211572493</v>
+        <v>0.2088359869016801</v>
       </c>
       <c r="K226" t="n">
-        <v>0.304917818889584</v>
+        <v>0.304900540876453</v>
       </c>
       <c r="L226" t="n">
-        <v>1.763620898749084</v>
+        <v>1.763690957542054</v>
       </c>
       <c r="M226" t="n">
-        <v>0.9314612823613317</v>
+        <v>0.9314085015814932</v>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
@@ -10155,25 +10155,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H227" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I227" t="n">
-        <v>0.333893811511559</v>
+        <v>0.3338582466868718</v>
       </c>
       <c r="J227" t="n">
-        <v>0.270774873369285</v>
+        <v>0.2707893306150927</v>
       </c>
       <c r="K227" t="n">
-        <v>0.395331315119156</v>
+        <v>0.3953524226980354</v>
       </c>
       <c r="L227" t="n">
-        <v>1.397012749653833</v>
+        <v>1.396927162758651</v>
       </c>
       <c r="M227" t="n">
-        <v>1.207655935227011</v>
+        <v>1.207720414543314</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10194,25 +10194,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H228" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I228" t="n">
-        <v>0.443433109125699</v>
+        <v>0.44344343642428</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2262467036074394</v>
+        <v>0.2262425055185854</v>
       </c>
       <c r="K228" t="n">
-        <v>0.3303201872668616</v>
+        <v>0.3303140580571347</v>
       </c>
       <c r="L228" t="n">
-        <v>1.660619514643959</v>
+        <v>1.660644367329974</v>
       </c>
       <c r="M228" t="n">
-        <v>1.00906029808918</v>
+        <v>1.009041574612891</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10233,25 +10233,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H229" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I229" t="n">
-        <v>0.3748242380931501</v>
+        <v>0.3748049688987224</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2541364885800203</v>
+        <v>0.2541443215858852</v>
       </c>
       <c r="K229" t="n">
-        <v>0.3710392733268296</v>
+        <v>0.3710507095153924</v>
       </c>
       <c r="L229" t="n">
-        <v>1.49551198760628</v>
+        <v>1.49546561621156</v>
       </c>
       <c r="M229" t="n">
-        <v>1.13344873906689</v>
+        <v>1.133483674273048</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10272,25 +10272,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H230" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I230" t="n">
-        <v>0.392772200866801</v>
+        <v>0.3927604605196915</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2468405687533329</v>
+        <v>0.246845341252158</v>
       </c>
       <c r="K230" t="n">
-        <v>0.360387230379866</v>
+        <v>0.3603941982281506</v>
       </c>
       <c r="L230" t="n">
-        <v>1.538703832980269</v>
+        <v>1.538675579787225</v>
       </c>
       <c r="M230" t="n">
-        <v>1.100908936639865</v>
+        <v>1.100930221984624</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10364,25 +10364,25 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H232" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I232" t="n">
-        <v>0.5540732615108184</v>
+        <v>0.5541179460870624</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1812710319061714</v>
+        <v>0.1812528674442836</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2646557065830102</v>
+        <v>0.264629186468654</v>
       </c>
       <c r="L232" t="n">
-        <v>1.926875491115465</v>
+        <v>1.926983024729841</v>
       </c>
       <c r="M232" t="n">
-        <v>0.8084688023015245</v>
+        <v>0.8083877888015046</v>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -10456,25 +10456,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H234" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I234" t="n">
-        <v>0.4172027800226163</v>
+        <v>0.4172016054067089</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2369094390151966</v>
+        <v>0.2369099165013379</v>
       </c>
       <c r="K234" t="n">
-        <v>0.345887780962187</v>
+        <v>0.3458884780919533</v>
       </c>
       <c r="L234" t="n">
-        <v>1.597496121030036</v>
+        <v>1.59749329431208</v>
       </c>
       <c r="M234" t="n">
-        <v>1.056616098007777</v>
+        <v>1.056618227595967</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10495,25 +10495,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H235" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I235" t="n">
-        <v>0.4012479443783222</v>
+        <v>0.401239850721852</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2433951445616576</v>
+        <v>0.2433984346659138</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3553569110600202</v>
+        <v>0.3553617146122341</v>
       </c>
       <c r="L235" t="n">
-        <v>1.559100744194987</v>
+        <v>1.55908126677779</v>
       </c>
       <c r="M235" t="n">
-        <v>1.085542344744993</v>
+        <v>1.085557018609976</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10534,25 +10534,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H236" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I236" t="n">
-        <v>0.5871583052408819</v>
+        <v>0.5872289124551409</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1678218271378529</v>
+        <v>0.1677931250182354</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2450198676212653</v>
+        <v>0.2449779625266237</v>
       </c>
       <c r="L236" t="n">
-        <v>2.006494783343911</v>
+        <v>2.006664699892046</v>
       </c>
       <c r="M236" t="n">
-        <v>0.7484853490348241</v>
+        <v>0.7483573375813299</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10573,25 +10573,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H237" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I237" t="n">
-        <v>0.2703651459996774</v>
+        <v>0.2703342091438176</v>
       </c>
       <c r="J237" t="n">
-        <v>0.3349017408407935</v>
+        <v>0.3349778455062086</v>
       </c>
       <c r="K237" t="n">
-        <v>0.394733113159529</v>
+        <v>0.3946879453499738</v>
       </c>
       <c r="L237" t="n">
-        <v>1.205828551158561</v>
+        <v>1.205690572781427</v>
       </c>
       <c r="M237" t="n">
-        <v>1.39943833568191</v>
+        <v>1.3996214818686</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -10612,25 +10612,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H238" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I238" t="n">
-        <v>0.6957127747605605</v>
+        <v>0.6958056394036101</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1236939939997722</v>
+        <v>0.1236562441448739</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1805932312396673</v>
+        <v>0.1805381164515159</v>
       </c>
       <c r="L238" t="n">
-        <v>2.267731555521349</v>
+        <v>2.267955034662346</v>
       </c>
       <c r="M238" t="n">
-        <v>0.5516752132389838</v>
+        <v>0.5515068488861377</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10651,25 +10651,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H239" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2227421316352854</v>
+        <v>0.2226922913865422</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4520543561771977</v>
+        <v>0.4521769631891062</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3252035121875168</v>
+        <v>0.3251307454243516</v>
       </c>
       <c r="L239" t="n">
-        <v>0.993429907093373</v>
+        <v>0.9932076195839783</v>
       </c>
       <c r="M239" t="n">
-        <v>1.68136658071911</v>
+        <v>1.68166163499167</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10743,25 +10743,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H241" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3346149209868705</v>
+        <v>0.3345796299357102</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2704817394362315</v>
+        <v>0.2704960853919878</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3949033395768979</v>
+        <v>0.3949242846723021</v>
       </c>
       <c r="L241" t="n">
-        <v>1.398748102537509</v>
+        <v>1.398663174479433</v>
       </c>
       <c r="M241" t="n">
-        <v>1.206348557885592</v>
+        <v>1.206412540848266</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10782,25 +10782,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H242" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I242" t="n">
-        <v>0.6921122872906241</v>
+        <v>0.6922154776827528</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1251576067924292</v>
+        <v>0.1251156594785558</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1827301059169466</v>
+        <v>0.1826688628386914</v>
       </c>
       <c r="L242" t="n">
-        <v>2.259066967788819</v>
+        <v>2.25931529588695</v>
       </c>
       <c r="M242" t="n">
-        <v>0.5582029262942342</v>
+        <v>0.5580158412743588</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10821,25 +10821,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H243" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I243" t="n">
-        <v>0.2245157614657133</v>
+        <v>0.2244612432057587</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4476912267943453</v>
+        <v>0.4478253417138335</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3277930117399414</v>
+        <v>0.3277134150804077</v>
       </c>
       <c r="L243" t="n">
-        <v>1.001340296137081</v>
+        <v>1.001097144697684</v>
       </c>
       <c r="M243" t="n">
-        <v>1.670866692122977</v>
+        <v>1.671189440221908</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10913,25 +10913,25 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H245" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I245" t="n">
-        <v>0.2580634075502388</v>
+        <v>0.2580258863907925</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3651640174264125</v>
+        <v>0.3652563194786506</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3767725750233487</v>
+        <v>0.3767177941305569</v>
       </c>
       <c r="L245" t="n">
-        <v>1.150962797674065</v>
+        <v>1.150795453302934</v>
       </c>
       <c r="M245" t="n">
-        <v>1.472264627302586</v>
+        <v>1.472486752566509</v>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -10952,25 +10952,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H246" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6488504154529986</v>
+        <v>0.6489300179862353</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1427437335556916</v>
+        <v>0.1427113748023434</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2084058509913097</v>
+        <v>0.2083586072114213</v>
       </c>
       <c r="L246" t="n">
-        <v>2.154957097350306</v>
+        <v>2.155148661170127</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6366370516583845</v>
+        <v>0.6364927316184514</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11044,25 +11044,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="H248" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I248" t="n">
-        <v>0.7160000030310465</v>
+        <v>0.7160974810250311</v>
       </c>
       <c r="J248" t="n">
-        <v>0.115447153239412</v>
+        <v>0.1154075280386052</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1685528437295415</v>
+        <v>0.1684949909363636</v>
       </c>
       <c r="L248" t="n">
-        <v>2.316552852822681</v>
+        <v>2.316787434011457</v>
       </c>
       <c r="M248" t="n">
-        <v>0.5148943034477775</v>
+        <v>0.5147175750521793</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11083,25 +11083,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H249" t="n">
-        <v>93.36966548620001</v>
+        <v>93.3663445147</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2124655202407399</v>
+        <v>0.2124110266516515</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4773348202077798</v>
+        <v>0.4774688744369373</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3101996595514803</v>
+        <v>0.3101200989114112</v>
       </c>
       <c r="L249" t="n">
-        <v>0.9475962202736998</v>
+        <v>0.9473531788663656</v>
       </c>
       <c r="M249" t="n">
-        <v>1.74220412017482</v>
+        <v>1.742526722222223</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11175,25 +11175,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H251" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I251" t="n">
-        <v>0.4501581599563332</v>
+        <v>0.4501713483001426</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2235129431071816</v>
+        <v>0.2235075819918119</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3263288969364852</v>
+        <v>0.3263210697080454</v>
       </c>
       <c r="L251" t="n">
-        <v>1.676803376805485</v>
+        <v>1.676835114608473</v>
       </c>
       <c r="M251" t="n">
-        <v>0.9968677262580301</v>
+        <v>0.9968438156834812</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11214,25 +11214,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H252" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3187157699911142</v>
+        <v>0.3186744807519671</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2769448089467015</v>
+        <v>0.2769615931902573</v>
       </c>
       <c r="K252" t="n">
-        <v>0.4043394210621843</v>
+        <v>0.4043639260577756</v>
       </c>
       <c r="L252" t="n">
-        <v>1.360486731035527</v>
+        <v>1.360387368313677</v>
       </c>
       <c r="M252" t="n">
-        <v>1.235173847902289</v>
+        <v>1.235248705628547</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11253,25 +11253,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H253" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I253" t="n">
-        <v>0.50418477091864</v>
+        <v>0.5042217672449124</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2015509061306341</v>
+        <v>0.2015358669736129</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2942643229507258</v>
+        <v>0.2942423657814748</v>
       </c>
       <c r="L253" t="n">
-        <v>1.806818635706646</v>
+        <v>1.806907667516212</v>
       </c>
       <c r="M253" t="n">
-        <v>0.8989170413426282</v>
+        <v>0.8988499667023134</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11292,25 +11292,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H254" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4733095354034497</v>
+        <v>0.4733194871027292</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2141018148766465</v>
+        <v>0.2140977694704353</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3125886497199039</v>
+        <v>0.3125827434268355</v>
       </c>
       <c r="L254" t="n">
-        <v>1.732517255930253</v>
+        <v>1.732541204735023</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9548940943498434</v>
+        <v>0.9548760518381414</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11331,25 +11331,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H255" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3402479126087086</v>
+        <v>0.3402274205704157</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2681919054436144</v>
+        <v>0.2682002355404814</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3915601819476769</v>
+        <v>0.3915723438891029</v>
       </c>
       <c r="L255" t="n">
-        <v>1.412303919773803</v>
+        <v>1.41225460560035</v>
       </c>
       <c r="M255" t="n">
-        <v>1.19613589827852</v>
+        <v>1.196173050510547</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11370,25 +11370,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H256" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3411277545819532</v>
+        <v>0.3410949930977198</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2678342461048971</v>
+        <v>0.2678475637814147</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3910379993131498</v>
+        <v>0.3910574431208654</v>
       </c>
       <c r="L256" t="n">
-        <v>1.41442126305901</v>
+        <v>1.414342422414025</v>
       </c>
       <c r="M256" t="n">
-        <v>1.194540737627841</v>
+        <v>1.19460013446511</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11409,25 +11409,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H257" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I257" t="n">
-        <v>0.4778335130769306</v>
+        <v>0.4778589194359121</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2122627995622233</v>
+        <v>0.2122524717740194</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3099036873608461</v>
+        <v>0.3098886087900684</v>
       </c>
       <c r="L257" t="n">
-        <v>1.743404226591638</v>
+        <v>1.743465367097805</v>
       </c>
       <c r="M257" t="n">
-        <v>0.9466920860475161</v>
+        <v>0.9466460241121267</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11448,25 +11448,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H258" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I258" t="n">
-        <v>0.5070556746186753</v>
+        <v>0.5070932551925269</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2003838721062295</v>
+        <v>0.2003685954501923</v>
       </c>
       <c r="K258" t="n">
-        <v>0.2925604532750951</v>
+        <v>0.2925381493572808</v>
       </c>
       <c r="L258" t="n">
-        <v>1.813727477131121</v>
+        <v>1.813817914934861</v>
       </c>
       <c r="M258" t="n">
-        <v>0.8937120695937837</v>
+        <v>0.8936439357078576</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11540,25 +11540,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H260" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I260" t="n">
-        <v>0.6231544869984381</v>
+        <v>0.6232244110357885</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1531892329274642</v>
+        <v>0.1531608085220372</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2236562800740978</v>
+        <v>0.2236147804421743</v>
       </c>
       <c r="L260" t="n">
-        <v>2.093119741069412</v>
+        <v>2.09328801354954</v>
       </c>
       <c r="M260" t="n">
-        <v>0.6832239788564904</v>
+        <v>0.6830972060082858</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11579,25 +11579,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H261" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I261" t="n">
-        <v>0.2534063155754919</v>
+        <v>0.2533720085282468</v>
       </c>
       <c r="J261" t="n">
-        <v>0.37662046368429</v>
+        <v>0.3767048590205128</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3699732207402182</v>
+        <v>0.3699231324512403</v>
       </c>
       <c r="L261" t="n">
-        <v>1.130192167466694</v>
+        <v>1.130039158035981</v>
       </c>
       <c r="M261" t="n">
-        <v>1.499834611793088</v>
+        <v>1.500037709512779</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11618,25 +11618,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H262" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I262" t="n">
-        <v>0.405596862599873</v>
+        <v>0.4055906557915996</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2416272916260679</v>
+        <v>0.241629814718862</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3527758457740591</v>
+        <v>0.3527795294895385</v>
       </c>
       <c r="L262" t="n">
-        <v>1.569566433573678</v>
+        <v>1.569551496864337</v>
       </c>
       <c r="M262" t="n">
-        <v>1.077657720652263</v>
+        <v>1.077668973646124</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -11710,25 +11710,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H264" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I264" t="n">
-        <v>0.6191654224114685</v>
+        <v>0.6192463835075506</v>
       </c>
       <c r="J264" t="n">
-        <v>0.154810803897777</v>
+        <v>0.1547778928831095</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2260237736907545</v>
+        <v>0.2259757236093399</v>
       </c>
       <c r="L264" t="n">
-        <v>2.08352004092516</v>
+        <v>2.083714874131992</v>
       </c>
       <c r="M264" t="n">
-        <v>0.6904561853840856</v>
+        <v>0.6903094022586685</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11802,25 +11802,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H266" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I266" t="n">
-        <v>0.5389667612137844</v>
+        <v>0.5390176176547585</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1874118856854535</v>
+        <v>0.187391212335464</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2736213531007621</v>
+        <v>0.2735911700097775</v>
       </c>
       <c r="L266" t="n">
-        <v>1.890521636742115</v>
+        <v>1.890644022974053</v>
       </c>
       <c r="M266" t="n">
-        <v>0.8358570101571225</v>
+        <v>0.8357648070161696</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11894,25 +11894,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H268" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I268" t="n">
-        <v>0.5719922704843666</v>
+        <v>0.5720433035719665</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1739868819169242</v>
+        <v>0.1739661367593632</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2540208475987093</v>
+        <v>0.2539905596686703</v>
       </c>
       <c r="L268" t="n">
-        <v>1.969997659051809</v>
+        <v>1.97012047038457</v>
       </c>
       <c r="M268" t="n">
-        <v>0.7759814933494817</v>
+        <v>0.7758889699467599</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -11933,25 +11933,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H269" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I269" t="n">
-        <v>0.2739014435117607</v>
+        <v>0.273877625420638</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3262024489610687</v>
+        <v>0.3262610414652306</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3998961075271706</v>
+        <v>0.3998613331141314</v>
       </c>
       <c r="L269" t="n">
-        <v>1.221600438062453</v>
+        <v>1.221494209376045</v>
       </c>
       <c r="M269" t="n">
-        <v>1.378503454410377</v>
+        <v>1.378644457509823</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -11972,25 +11972,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="H270" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6458164985219056</v>
+        <v>0.6458939200061939</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1439770331211765</v>
+        <v>0.143945560973092</v>
       </c>
       <c r="K270" t="n">
-        <v>0.2102064683569178</v>
+        <v>0.2101605190207142</v>
       </c>
       <c r="L270" t="n">
-        <v>2.147655963922634</v>
+        <v>2.147842279039296</v>
       </c>
       <c r="M270" t="n">
-        <v>0.6421375677204474</v>
+        <v>0.6419972019399901</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12011,25 +12011,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H271" t="n">
-        <v>91.18885800530001</v>
+        <v>91.1845884344</v>
       </c>
       <c r="I271" t="n">
-        <v>0.2435903113049068</v>
+        <v>0.2435510847262838</v>
       </c>
       <c r="J271" t="n">
-        <v>0.4007678341899293</v>
+        <v>0.4008643315733419</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3556418545051639</v>
+        <v>0.3555845837003743</v>
       </c>
       <c r="L271" t="n">
-        <v>1.086412788419884</v>
+        <v>1.086237837879226</v>
       </c>
       <c r="M271" t="n">
-        <v>1.557945357074952</v>
+        <v>1.5581775784204</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12050,25 +12050,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H272" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I272" t="n">
-        <v>0.3587877787095891</v>
+        <v>0.358761902048305</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2606553745082971</v>
+        <v>0.2606658934762988</v>
       </c>
       <c r="K272" t="n">
-        <v>0.3805568467821138</v>
+        <v>0.3805722044753962</v>
       </c>
       <c r="L272" t="n">
-        <v>1.456920182910881</v>
+        <v>1.456857910620311</v>
       </c>
       <c r="M272" t="n">
-        <v>1.162522970307005</v>
+        <v>1.162569884904292</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -12089,25 +12089,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H273" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I273" t="n">
-        <v>0.461221920234511</v>
+        <v>0.4612401358626202</v>
       </c>
       <c r="J273" t="n">
-        <v>0.219015479579467</v>
+        <v>0.2190080748525934</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3197626001860219</v>
+        <v>0.3197517892847864</v>
       </c>
       <c r="L273" t="n">
-        <v>1.703428360889555</v>
+        <v>1.703472196872647</v>
       </c>
       <c r="M273" t="n">
-        <v>0.9768090389244231</v>
+        <v>0.9767760138425667</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12128,25 +12128,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H274" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5180389264949021</v>
+        <v>0.5180682883533866</v>
       </c>
       <c r="J274" t="n">
-        <v>0.195919135571178</v>
+        <v>0.1959071998563469</v>
       </c>
       <c r="K274" t="n">
-        <v>0.2860419379339199</v>
+        <v>0.2860245117902665</v>
       </c>
       <c r="L274" t="n">
-        <v>1.840158717418626</v>
+        <v>1.840229376850426</v>
       </c>
       <c r="M274" t="n">
-        <v>0.8737993446474539</v>
+        <v>0.8737461113593072</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12273,25 +12273,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H277" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4351454248858582</v>
+        <v>0.435152093972065</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2296156809407081</v>
+        <v>0.2296129699300549</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3352388941734338</v>
+        <v>0.3352349360978801</v>
       </c>
       <c r="L277" t="n">
-        <v>1.640675168831008</v>
+        <v>1.640691218014075</v>
       </c>
       <c r="M277" t="n">
-        <v>1.024085936995558</v>
+        <v>1.024073845888045</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12365,25 +12365,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H279" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I279" t="n">
-        <v>0.2826820518150842</v>
+        <v>0.282657869460738</v>
       </c>
       <c r="J279" t="n">
-        <v>0.3046021525348929</v>
+        <v>0.3046616411265844</v>
       </c>
       <c r="K279" t="n">
-        <v>0.4127157956500229</v>
+        <v>0.4126804894126775</v>
       </c>
       <c r="L279" t="n">
-        <v>1.260761951095275</v>
+        <v>1.260654097794891</v>
       </c>
       <c r="M279" t="n">
-        <v>1.326522253254702</v>
+        <v>1.326665412792431</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12457,25 +12457,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H281" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2366609798015351</v>
+        <v>0.2366180497917081</v>
       </c>
       <c r="J281" t="n">
-        <v>0.4178139896882238</v>
+        <v>0.4179195975123978</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3455250305102412</v>
+        <v>0.345462352695894</v>
       </c>
       <c r="L281" t="n">
-        <v>1.055507969914846</v>
+        <v>1.055316502071018</v>
       </c>
       <c r="M281" t="n">
-        <v>1.598966999574913</v>
+        <v>1.599221145233088</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12496,25 +12496,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H282" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I282" t="n">
-        <v>0.4493870475477106</v>
+        <v>0.4493998983397458</v>
       </c>
       <c r="J282" t="n">
-        <v>0.22382640343589</v>
+        <v>0.2238211795366887</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3267865490163994</v>
+        <v>0.3267789221235655</v>
       </c>
       <c r="L282" t="n">
-        <v>1.674947691659531</v>
+        <v>1.674978617142803</v>
       </c>
       <c r="M282" t="n">
-        <v>0.9982657593240694</v>
+        <v>0.9982424607336318</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12535,25 +12535,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H283" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I283" t="n">
-        <v>0.3663272600269403</v>
+        <v>0.3663045836911004</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2575905447044958</v>
+        <v>0.257599762727195</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3760821952685639</v>
+        <v>0.3760956535817046</v>
       </c>
       <c r="L283" t="n">
-        <v>1.475063975349385</v>
+        <v>1.475009404655006</v>
       </c>
       <c r="M283" t="n">
-        <v>1.148853829382051</v>
+        <v>1.148894941763289</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -12574,25 +12574,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H284" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I284" t="n">
-        <v>0.6603956480080796</v>
+        <v>0.6604900699337954</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1380505495902115</v>
+        <v>0.1380121666935791</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2015538024017088</v>
+        <v>0.2014977633726255</v>
       </c>
       <c r="L284" t="n">
-        <v>2.182740746425948</v>
+        <v>2.182967973174012</v>
       </c>
       <c r="M284" t="n">
-        <v>0.6157054511723433</v>
+        <v>0.6155342634533628</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12613,25 +12613,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H285" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I285" t="n">
-        <v>0.2384016549718787</v>
+        <v>0.2383541776771991</v>
       </c>
       <c r="J285" t="n">
-        <v>0.4135319287691783</v>
+        <v>0.4136487229140903</v>
       </c>
       <c r="K285" t="n">
-        <v>0.348066416258943</v>
+        <v>0.3479970994087107</v>
       </c>
       <c r="L285" t="n">
-        <v>1.063271381174579</v>
+        <v>1.063059632440308</v>
       </c>
       <c r="M285" t="n">
-        <v>1.588662202566478</v>
+        <v>1.588943268150982</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12652,25 +12652,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H286" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5830323992084745</v>
+        <v>0.5831010386471036</v>
       </c>
       <c r="J286" t="n">
-        <v>0.1694990247120022</v>
+        <v>0.1694711225011774</v>
       </c>
       <c r="K286" t="n">
-        <v>0.2474685760795233</v>
+        <v>0.247427838851719</v>
       </c>
       <c r="L286" t="n">
-        <v>1.996565773704947</v>
+        <v>1.99673095479303</v>
       </c>
       <c r="M286" t="n">
-        <v>0.7559656502155299</v>
+        <v>0.7558412063552511</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12691,25 +12691,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H287" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I287" t="n">
-        <v>0.2709352112308577</v>
+        <v>0.2709047303127617</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3334993803720901</v>
+        <v>0.3335743634306061</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3955654083970522</v>
+        <v>0.3955209062566322</v>
       </c>
       <c r="L287" t="n">
-        <v>1.208371042089625</v>
+        <v>1.208235097194917</v>
       </c>
       <c r="M287" t="n">
-        <v>1.396063549513323</v>
+        <v>1.396243996548451</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12730,25 +12730,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H288" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I288" t="n">
-        <v>0.6151552570929867</v>
+        <v>0.6152229947943375</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1564409524012249</v>
+        <v>0.1564134167502693</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2284037905057884</v>
+        <v>0.2283635884553932</v>
       </c>
       <c r="L288" t="n">
-        <v>2.073869561784749</v>
+        <v>2.074032572838406</v>
       </c>
       <c r="M288" t="n">
-        <v>0.6977266477094632</v>
+        <v>0.6976038387062014</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12769,25 +12769,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H289" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="I289" t="n">
-        <v>0.2580848478127348</v>
+        <v>0.2580526896155445</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3651112743806726</v>
+        <v>0.3651903835457607</v>
       </c>
       <c r="K289" t="n">
-        <v>0.3768038778065927</v>
+        <v>0.3767569268386949</v>
       </c>
       <c r="L289" t="n">
-        <v>1.151058421244797</v>
+        <v>1.150914995685328</v>
       </c>
       <c r="M289" t="n">
-        <v>1.472137700948611</v>
+        <v>1.472328077475977</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12808,25 +12808,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>92.3940054373</v>
+        <v>92.3902587142</v>
       </c>
       <c r="H290" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I290" t="n">
-        <v>0.6856263894479095</v>
+        <v>0.6857160849726646</v>
       </c>
       <c r="J290" t="n">
-        <v>0.1277941506309311</v>
+        <v>0.1277576890355022</v>
       </c>
       <c r="K290" t="n">
-        <v>0.1865794599211594</v>
+        <v>0.1865262259918331</v>
       </c>
       <c r="L290" t="n">
-        <v>2.243458628264888</v>
+        <v>2.243674480909827</v>
       </c>
       <c r="M290" t="n">
-        <v>0.5699619118139528</v>
+        <v>0.5697992930983397</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12900,25 +12900,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H292" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I292" t="n">
-        <v>0.5717410631893733</v>
+        <v>0.5717930481200894</v>
       </c>
       <c r="J292" t="n">
-        <v>0.1740889987035067</v>
+        <v>0.1740678666178499</v>
       </c>
       <c r="K292" t="n">
-        <v>0.2541699381071198</v>
+        <v>0.2541390852620608</v>
       </c>
       <c r="L292" t="n">
-        <v>1.96939312767524</v>
+        <v>1.969518229622329</v>
       </c>
       <c r="M292" t="n">
-        <v>0.77643693421764</v>
+        <v>0.7763426851156103</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -13045,25 +13045,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H295" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I295" t="n">
-        <v>0.3847767695543257</v>
+        <v>0.3847616341585879</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2500907440836075</v>
+        <v>0.2500968966835008</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3651324863620669</v>
+        <v>0.3651414691579112</v>
       </c>
       <c r="L295" t="n">
-        <v>1.519462795025044</v>
+        <v>1.519426371633675</v>
       </c>
       <c r="M295" t="n">
-        <v>1.115404718612889</v>
+        <v>1.115432159208414</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13137,25 +13137,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H297" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I297" t="n">
-        <v>0.2640430532025043</v>
+        <v>0.2640086375076418</v>
       </c>
       <c r="J297" t="n">
-        <v>0.3504540891218397</v>
+        <v>0.3505387517312014</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3855028576756562</v>
+        <v>0.3854526107611569</v>
       </c>
       <c r="L297" t="n">
-        <v>1.177632017283169</v>
+        <v>1.177478523284082</v>
       </c>
       <c r="M297" t="n">
-        <v>1.436865125041175</v>
+        <v>1.437068865954761</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13176,25 +13176,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H298" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I298" t="n">
-        <v>0.7106988866788115</v>
+        <v>0.7107955458294491</v>
       </c>
       <c r="J298" t="n">
-        <v>0.117602078585849</v>
+        <v>0.1175627862481914</v>
       </c>
       <c r="K298" t="n">
-        <v>0.1716990347353395</v>
+        <v>0.1716416679223595</v>
       </c>
       <c r="L298" t="n">
-        <v>2.303795694771774</v>
+        <v>2.304028305410707</v>
       </c>
       <c r="M298" t="n">
-        <v>0.5245052704928864</v>
+        <v>0.5243300266669337</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13215,25 +13215,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H299" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2157686802273532</v>
+        <v>0.2157155061448927</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4692090466407111</v>
+        <v>0.4693398548835639</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3150222731319358</v>
+        <v>0.3149446389715434</v>
       </c>
       <c r="L299" t="n">
-        <v>0.9623283138139954</v>
+        <v>0.9620911574062216</v>
       </c>
       <c r="M299" t="n">
-        <v>1.722649413054069</v>
+        <v>1.722964203622235</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13254,25 +13254,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H300" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I300" t="n">
-        <v>0.5034058426407898</v>
+        <v>0.5034425029873282</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2018675436419554</v>
+        <v>0.2018526410620617</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2947266137172548</v>
+        <v>0.29470485595061</v>
       </c>
       <c r="L300" t="n">
-        <v>1.804944141639624</v>
+        <v>1.805032364912595</v>
       </c>
       <c r="M300" t="n">
-        <v>0.900329244643121</v>
+        <v>0.9002627791367951</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13399,25 +13399,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H303" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I303" t="n">
-        <v>0.2175525205946812</v>
+        <v>0.2174946134696934</v>
       </c>
       <c r="J303" t="n">
-        <v>0.4648207993370843</v>
+        <v>0.4649632508645541</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3176266800682346</v>
+        <v>0.3175421356657524</v>
       </c>
       <c r="L303" t="n">
-        <v>0.9702842418522782</v>
+        <v>0.9700259760748327</v>
       </c>
       <c r="M303" t="n">
-        <v>1.712089078079487</v>
+        <v>1.712431888259415</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13438,25 +13438,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H304" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I304" t="n">
-        <v>0.6346007328181591</v>
+        <v>0.6346881629284742</v>
       </c>
       <c r="J304" t="n">
-        <v>0.1485362874722931</v>
+        <v>0.148500746777043</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2168629797095478</v>
+        <v>0.2168110902944828</v>
       </c>
       <c r="L304" t="n">
-        <v>2.120665178164025</v>
+        <v>2.120875579079905</v>
       </c>
       <c r="M304" t="n">
-        <v>0.662471842126427</v>
+        <v>0.6623133306256118</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13477,25 +13477,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H305" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2514975648214337</v>
+        <v>0.2514564800084675</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3813159905392732</v>
+        <v>0.3814170591791697</v>
       </c>
       <c r="K305" t="n">
-        <v>0.3671864446392931</v>
+        <v>0.3671264608123627</v>
       </c>
       <c r="L305" t="n">
-        <v>1.121679139103594</v>
+        <v>1.121495900837765</v>
       </c>
       <c r="M305" t="n">
-        <v>1.511134416257113</v>
+        <v>1.511377638349872</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -13516,25 +13516,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H306" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I306" t="n">
-        <v>0.665033270664324</v>
+        <v>0.6651181050891429</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1361653371283235</v>
+        <v>0.1361308515897793</v>
       </c>
       <c r="K306" t="n">
-        <v>0.1988013922073524</v>
+        <v>0.1987510433210777</v>
       </c>
       <c r="L306" t="n">
-        <v>2.193901204200325</v>
+        <v>2.194105358588507</v>
       </c>
       <c r="M306" t="n">
-        <v>0.607297403592323</v>
+        <v>0.6071435980904156</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13555,25 +13555,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H307" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2379509633014121</v>
+        <v>0.2379083063470112</v>
       </c>
       <c r="J307" t="n">
-        <v>0.4146406302785262</v>
+        <v>0.4147455663863525</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3474084064200617</v>
+        <v>0.3473461272666364</v>
       </c>
       <c r="L307" t="n">
-        <v>1.061261296324298</v>
+        <v>1.06107104630767</v>
       </c>
       <c r="M307" t="n">
-        <v>1.59133029725564</v>
+        <v>1.591582826425694</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13594,25 +13594,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="H308" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7303741927054623</v>
+        <v>0.7304747878981286</v>
       </c>
       <c r="J308" t="n">
-        <v>0.1096039867050966</v>
+        <v>0.1095630943503543</v>
       </c>
       <c r="K308" t="n">
-        <v>0.1600218205894411</v>
+        <v>0.1599621177515172</v>
       </c>
       <c r="L308" t="n">
-        <v>2.351144398705828</v>
+        <v>2.351386481445903</v>
       </c>
       <c r="M308" t="n">
-        <v>0.4888337807047309</v>
+        <v>0.4886514008025801</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13633,25 +13633,25 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H309" t="n">
-        <v>93.853042093</v>
+        <v>93.8499328617</v>
       </c>
       <c r="I309" t="n">
-        <v>0.2054540899207773</v>
+        <v>0.2053964173389236</v>
       </c>
       <c r="J309" t="n">
-        <v>0.4945829387948877</v>
+        <v>0.4947248133462481</v>
       </c>
       <c r="K309" t="n">
-        <v>0.2999629712843349</v>
+        <v>0.2998787693148284</v>
       </c>
       <c r="L309" t="n">
-        <v>0.916325241046667</v>
+        <v>0.916068021331599</v>
       </c>
       <c r="M309" t="n">
-        <v>1.783711787668998</v>
+        <v>1.784053209353573</v>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
@@ -13672,25 +13672,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H310" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I310" t="n">
-        <v>0.2855445901340532</v>
+        <v>0.2855265206287875</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2975603082702291</v>
+        <v>0.2976047592531827</v>
       </c>
       <c r="K310" t="n">
-        <v>0.4168951015957177</v>
+        <v>0.4168687201180298</v>
       </c>
       <c r="L310" t="n">
-        <v>1.273528871997877</v>
+        <v>1.273448282004392</v>
       </c>
       <c r="M310" t="n">
-        <v>1.309576026406405</v>
+        <v>1.309682997877578</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13711,25 +13711,25 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H311" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I311" t="n">
-        <v>0.5457453714698874</v>
+        <v>0.5457865593267507</v>
       </c>
       <c r="J311" t="n">
-        <v>0.1846563530610214</v>
+        <v>0.1846396100297762</v>
       </c>
       <c r="K311" t="n">
-        <v>0.2695982754690912</v>
+        <v>0.2695738306434732</v>
       </c>
       <c r="L311" t="n">
-        <v>1.906834389878754</v>
+        <v>1.906933508623725</v>
       </c>
       <c r="M311" t="n">
-        <v>0.8235673346521554</v>
+        <v>0.8234926607328017</v>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
@@ -13750,25 +13750,25 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H312" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I312" t="n">
-        <v>0.4366220183370185</v>
+        <v>0.4366425486034682</v>
       </c>
       <c r="J312" t="n">
-        <v>0.229015439700399</v>
+        <v>0.2290070940636308</v>
       </c>
       <c r="K312" t="n">
-        <v>0.3343625419625825</v>
+        <v>0.334350357332901</v>
       </c>
       <c r="L312" t="n">
-        <v>1.644228596973638</v>
+        <v>1.644278003143306</v>
       </c>
       <c r="M312" t="n">
-        <v>1.021408861063779</v>
+        <v>1.021371639523793</v>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
@@ -13789,25 +13789,25 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H313" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I313" t="n">
-        <v>0.3704090373230475</v>
+        <v>0.3703759647627352</v>
       </c>
       <c r="J313" t="n">
-        <v>0.2559312856410376</v>
+        <v>0.2559447297712459</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3736596770359149</v>
+        <v>0.373679305466019</v>
       </c>
       <c r="L313" t="n">
-        <v>1.484886789005057</v>
+        <v>1.484807199754224</v>
       </c>
       <c r="M313" t="n">
-        <v>1.141453533959028</v>
+        <v>1.141513494779757</v>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
@@ -13828,25 +13828,25 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H314" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I314" t="n">
-        <v>0.5547425963800349</v>
+        <v>0.5547996239844679</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1809989445609614</v>
+        <v>0.1809757626079399</v>
       </c>
       <c r="K314" t="n">
-        <v>0.2642584590590036</v>
+        <v>0.2642246134075922</v>
       </c>
       <c r="L314" t="n">
-        <v>1.928486248199108</v>
+        <v>1.928623485360996</v>
       </c>
       <c r="M314" t="n">
-        <v>0.8072552927418879</v>
+        <v>0.8071519012314119</v>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
@@ -13920,25 +13920,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H316" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I316" t="n">
-        <v>0.3395488077193319</v>
+        <v>0.3395280339422042</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2684760944230358</v>
+        <v>0.2684845390478845</v>
       </c>
       <c r="K316" t="n">
-        <v>0.3919750978576323</v>
+        <v>0.3919874270099113</v>
       </c>
       <c r="L316" t="n">
-        <v>1.410621521015628</v>
+        <v>1.410571528836524</v>
       </c>
       <c r="M316" t="n">
-        <v>1.19740338112674</v>
+        <v>1.197441044153565</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -13959,25 +13959,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H317" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I317" t="n">
-        <v>0.4741174283317259</v>
+        <v>0.4741277311381717</v>
       </c>
       <c r="J317" t="n">
-        <v>0.2137734031171846</v>
+        <v>0.213769214984483</v>
       </c>
       <c r="K317" t="n">
-        <v>0.3121091685510895</v>
+        <v>0.3121030538773452</v>
       </c>
       <c r="L317" t="n">
-        <v>1.734461453546267</v>
+        <v>1.734486247291861</v>
       </c>
       <c r="M317" t="n">
-        <v>0.9534293779026433</v>
+        <v>0.9534106988307944</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -13998,25 +13998,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H318" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I318" t="n">
-        <v>0.5505516678312994</v>
+        <v>0.5506200779417114</v>
       </c>
       <c r="J318" t="n">
-        <v>0.1827025740523173</v>
+        <v>0.182674765064345</v>
       </c>
       <c r="K318" t="n">
-        <v>0.2667457581163833</v>
+        <v>0.2667051569939436</v>
       </c>
       <c r="L318" t="n">
-        <v>1.918400761610281</v>
+        <v>1.918565390819078</v>
       </c>
       <c r="M318" t="n">
-        <v>0.8148534802733352</v>
+        <v>0.8147294521869786</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -14037,25 +14037,25 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H319" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I319" t="n">
-        <v>0.2799347241827946</v>
+        <v>0.2799048655097758</v>
       </c>
       <c r="J319" t="n">
-        <v>0.3113605785103253</v>
+        <v>0.3114340308459517</v>
       </c>
       <c r="K319" t="n">
-        <v>0.4087046973068801</v>
+        <v>0.4086611036442726</v>
       </c>
       <c r="L319" t="n">
-        <v>1.248508869855264</v>
+        <v>1.2483757001736</v>
       </c>
       <c r="M319" t="n">
-        <v>1.342786432837856</v>
+        <v>1.342963196182128</v>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
@@ -14076,25 +14076,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H320" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I320" t="n">
-        <v>0.4683116013528021</v>
+        <v>0.4683459080756955</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2161334953850398</v>
+        <v>0.2161195495627254</v>
       </c>
       <c r="K320" t="n">
-        <v>0.3155549032621581</v>
+        <v>0.3155345423615791</v>
       </c>
       <c r="L320" t="n">
-        <v>1.720489707320564</v>
+        <v>1.720572266588666</v>
       </c>
       <c r="M320" t="n">
-        <v>0.9639553894172773</v>
+        <v>0.9638931910497555</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -14115,25 +14115,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H321" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I321" t="n">
-        <v>0.3399448492911269</v>
+        <v>0.3399003533860415</v>
       </c>
       <c r="J321" t="n">
-        <v>0.268315101914176</v>
+        <v>0.2683331896804709</v>
       </c>
       <c r="K321" t="n">
-        <v>0.391740048794697</v>
+        <v>0.3917664569334876</v>
       </c>
       <c r="L321" t="n">
-        <v>1.411574596668078</v>
+        <v>1.411467517091612</v>
       </c>
       <c r="M321" t="n">
-        <v>1.196685354537225</v>
+        <v>1.1967660259749</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -14207,25 +14207,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H323" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="I323" t="n">
-        <v>0.3094498663524829</v>
+        <v>0.3094066494535205</v>
       </c>
       <c r="J323" t="n">
-        <v>0.2807114364420801</v>
+        <v>0.2807290042871868</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4098386972054369</v>
+        <v>0.4098643462592927</v>
       </c>
       <c r="L323" t="n">
-        <v>1.338188296262886</v>
+        <v>1.338084294619854</v>
       </c>
       <c r="M323" t="n">
-        <v>1.251973006531677</v>
+        <v>1.252051359120853</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14246,25 +14246,25 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>89.2833269484</v>
+        <v>89.2786071511</v>
       </c>
       <c r="H324" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5787374847477925</v>
+        <v>0.5788036992613984</v>
       </c>
       <c r="J324" t="n">
-        <v>0.1712449248992713</v>
+        <v>0.1712180084303258</v>
       </c>
       <c r="K324" t="n">
-        <v>0.2500175903529361</v>
+        <v>0.2499782923082757</v>
       </c>
       <c r="L324" t="n">
-        <v>1.986230044596314</v>
+        <v>1.986389390092471</v>
       </c>
       <c r="M324" t="n">
-        <v>0.7637523650507501</v>
+        <v>0.7636323175992531</v>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
@@ -14391,25 +14391,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H327" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I327" t="n">
-        <v>0.2732787995389295</v>
+        <v>0.2732494655629115</v>
       </c>
       <c r="J327" t="n">
-        <v>0.3277341531342332</v>
+        <v>0.3278063147152379</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3989870473268372</v>
+        <v>0.3989442197218507</v>
       </c>
       <c r="L327" t="n">
-        <v>1.218823445943626</v>
+        <v>1.218692616410585</v>
       </c>
       <c r="M327" t="n">
-        <v>1.382189506729537</v>
+        <v>1.382363163867564</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14430,25 +14430,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H328" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I328" t="n">
-        <v>0.6885431522451775</v>
+        <v>0.6886340712311616</v>
       </c>
       <c r="J328" t="n">
-        <v>0.1266084746970823</v>
+        <v>0.1265715157596904</v>
       </c>
       <c r="K328" t="n">
-        <v>0.1848483730577402</v>
+        <v>0.184794413009148</v>
       </c>
       <c r="L328" t="n">
-        <v>2.250477829793273</v>
+        <v>2.250696626702632</v>
       </c>
       <c r="M328" t="n">
-        <v>0.5646737971489872</v>
+        <v>0.5645089602882193</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14522,25 +14522,25 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H330" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I330" t="n">
-        <v>0.4770561250849328</v>
+        <v>0.4770811917078736</v>
       </c>
       <c r="J330" t="n">
-        <v>0.2125788109410842</v>
+        <v>0.212568621256962</v>
       </c>
       <c r="K330" t="n">
-        <v>0.3103650639739829</v>
+        <v>0.3103501870351644</v>
       </c>
       <c r="L330" t="n">
-        <v>1.741533439228782</v>
+        <v>1.741593762158785</v>
       </c>
       <c r="M330" t="n">
-        <v>0.9481014967972354</v>
+        <v>0.9480560508060503</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
@@ -14561,25 +14561,25 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H331" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I331" t="n">
-        <v>0.3418564691420366</v>
+        <v>0.3418239892685714</v>
       </c>
       <c r="J331" t="n">
-        <v>0.2675380206739689</v>
+        <v>0.2675512238745645</v>
       </c>
       <c r="K331" t="n">
-        <v>0.3906055101839946</v>
+        <v>0.3906247868568641</v>
       </c>
       <c r="L331" t="n">
-        <v>1.416174917610104</v>
+        <v>1.416096754662578</v>
       </c>
       <c r="M331" t="n">
-        <v>1.193219572205901</v>
+        <v>1.193278458480558</v>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
@@ -14600,25 +14600,25 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H332" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I332" t="n">
-        <v>0.6848962535555144</v>
+        <v>0.6849975872588195</v>
       </c>
       <c r="J332" t="n">
-        <v>0.1280909538392218</v>
+        <v>0.1280497612769026</v>
       </c>
       <c r="K332" t="n">
-        <v>0.1870127926052639</v>
+        <v>0.1869526514642778</v>
       </c>
       <c r="L332" t="n">
-        <v>2.241701553271807</v>
+        <v>2.241945413240737</v>
       </c>
       <c r="M332" t="n">
-        <v>0.5712856541229294</v>
+        <v>0.5711019352949858</v>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
@@ -14639,25 +14639,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H333" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I333" t="n">
-        <v>0.2277619543923633</v>
+        <v>0.2277090509522274</v>
       </c>
       <c r="J333" t="n">
-        <v>0.4397055921947862</v>
+        <v>0.4398357346575205</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3325324534128505</v>
+        <v>0.3324552143902521</v>
       </c>
       <c r="L333" t="n">
-        <v>1.01581831658994</v>
+        <v>1.015582367246934</v>
       </c>
       <c r="M333" t="n">
-        <v>1.651649229997209</v>
+        <v>1.651962418362813</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14731,25 +14731,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H335" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I335" t="n">
-        <v>0.2610987474259106</v>
+        <v>0.2610628824018466</v>
       </c>
       <c r="J335" t="n">
-        <v>0.3576970813322599</v>
+        <v>0.3577853092914576</v>
       </c>
       <c r="K335" t="n">
-        <v>0.3812041712418295</v>
+        <v>0.3811518083066959</v>
       </c>
       <c r="L335" t="n">
-        <v>1.164500413519561</v>
+        <v>1.164340455512236</v>
       </c>
       <c r="M335" t="n">
-        <v>1.454295415238609</v>
+        <v>1.454507736181069</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14770,25 +14770,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="H336" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I336" t="n">
-        <v>0.6411461611039705</v>
+        <v>0.6412231598761867</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1458755442666787</v>
+        <v>0.1458442439527696</v>
       </c>
       <c r="K336" t="n">
-        <v>0.2129782946293509</v>
+        <v>0.2129325961710437</v>
       </c>
       <c r="L336" t="n">
-        <v>2.136416777941262</v>
+        <v>2.136602075799604</v>
       </c>
       <c r="M336" t="n">
-        <v>0.650604927429387</v>
+        <v>0.6504653280293525</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14915,25 +14915,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H339" t="n">
-        <v>93.143191079</v>
+        <v>93.1397710852</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2157440298827761</v>
+        <v>0.2156910623422231</v>
       </c>
       <c r="J339" t="n">
-        <v>0.4692696864883708</v>
+        <v>0.4693999866381311</v>
       </c>
       <c r="K339" t="n">
-        <v>0.3149862836288531</v>
+        <v>0.3149089510196458</v>
       </c>
       <c r="L339" t="n">
-        <v>0.9622183732771814</v>
+        <v>0.9619821380463152</v>
       </c>
       <c r="M339" t="n">
-        <v>1.722795343093966</v>
+        <v>1.723108910934039</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -15007,25 +15007,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H341" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I341" t="n">
-        <v>0.2912959255223432</v>
+        <v>0.2912577963046848</v>
       </c>
       <c r="J341" t="n">
-        <v>0.2880910871860393</v>
+        <v>0.2881065868680143</v>
       </c>
       <c r="K341" t="n">
-        <v>0.4206129872916174</v>
+        <v>0.4206356168273009</v>
       </c>
       <c r="L341" t="n">
-        <v>1.294500763858647</v>
+        <v>1.294409005741355</v>
       </c>
       <c r="M341" t="n">
-        <v>1.284886248849735</v>
+        <v>1.284955377431344</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -15099,25 +15099,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H343" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I343" t="n">
-        <v>0.5078656263198597</v>
+        <v>0.5079035553345119</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2000546234472116</v>
+        <v>0.2000392051485724</v>
       </c>
       <c r="K343" t="n">
-        <v>0.2920797502329288</v>
+        <v>0.2920572395169157</v>
       </c>
       <c r="L343" t="n">
-        <v>1.815676629192508</v>
+        <v>1.815767905520451</v>
       </c>
       <c r="M343" t="n">
-        <v>0.8922436205745634</v>
+        <v>0.8921748549626327</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -15138,25 +15138,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H344" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I344" t="n">
-        <v>0.5155970316366252</v>
+        <v>0.5156373975061965</v>
       </c>
       <c r="J344" t="n">
-        <v>0.1969117757574694</v>
+        <v>0.1968953668673998</v>
       </c>
       <c r="K344" t="n">
-        <v>0.2874911926059053</v>
+        <v>0.2874672356264037</v>
       </c>
       <c r="L344" t="n">
-        <v>1.834282287515781</v>
+        <v>1.834379428144993</v>
       </c>
       <c r="M344" t="n">
-        <v>0.8782265198783135</v>
+        <v>0.8781533362286029</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -15177,25 +15177,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H345" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I345" t="n">
-        <v>0.2949488196333812</v>
+        <v>0.2949005523536702</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2866061708807393</v>
+        <v>0.2866257917261503</v>
       </c>
       <c r="K345" t="n">
-        <v>0.4184450094858794</v>
+        <v>0.4184736559201795</v>
       </c>
       <c r="L345" t="n">
-        <v>1.303291468386023</v>
+        <v>1.30317531298119</v>
       </c>
       <c r="M345" t="n">
-        <v>1.278263522128097</v>
+        <v>1.278351031098631</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -15216,25 +15216,25 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H346" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I346" t="n">
-        <v>0.4335417587965368</v>
+        <v>0.4335473901628523</v>
       </c>
       <c r="J346" t="n">
-        <v>0.230267577724985</v>
+        <v>0.2302652885516861</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3361906634784781</v>
+        <v>0.3361873212854616</v>
       </c>
       <c r="L346" t="n">
-        <v>1.636815939868089</v>
+        <v>1.636829491774018</v>
       </c>
       <c r="M346" t="n">
-        <v>1.026993396653433</v>
+        <v>1.02698318694052</v>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
@@ -15255,25 +15255,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H347" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I347" t="n">
-        <v>0.3708780100876451</v>
+        <v>0.370857505882447</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2557406463058353</v>
+        <v>0.2557489813485987</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3733813436065195</v>
+        <v>0.3733935127689542</v>
       </c>
       <c r="L347" t="n">
-        <v>1.486015373869455</v>
+        <v>1.485966030416295</v>
       </c>
       <c r="M347" t="n">
-        <v>1.140603282524026</v>
+        <v>1.14064045681475</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15294,25 +15294,25 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="H348" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I348" t="n">
-        <v>0.466645912634757</v>
+        <v>0.4666525621958831</v>
       </c>
       <c r="J348" t="n">
-        <v>0.2168106046200175</v>
+        <v>0.216807901546389</v>
       </c>
       <c r="K348" t="n">
-        <v>0.3165434827452255</v>
+        <v>0.316539536257728</v>
       </c>
       <c r="L348" t="n">
-        <v>1.716481220649497</v>
+        <v>1.716497222845377</v>
       </c>
       <c r="M348" t="n">
-        <v>0.966975296605278</v>
+        <v>0.9669632408968949</v>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
@@ -15333,25 +15333,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H349" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I349" t="n">
-        <v>0.339033447880541</v>
+        <v>0.3390128730711953</v>
       </c>
       <c r="J349" t="n">
-        <v>0.268685590292463</v>
+        <v>0.2686939540360995</v>
       </c>
       <c r="K349" t="n">
-        <v>0.392280961826996</v>
+        <v>0.3922931728927052</v>
       </c>
       <c r="L349" t="n">
-        <v>1.409381305468619</v>
+        <v>1.409331792106291</v>
       </c>
       <c r="M349" t="n">
-        <v>1.198337732704385</v>
+        <v>1.198375035001004</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15425,25 +15425,25 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H351" t="n">
-        <v>88.3377108717</v>
+        <v>88.3322180512</v>
       </c>
       <c r="I351" t="n">
-        <v>0.2813083835597773</v>
+        <v>0.2812887115720709</v>
       </c>
       <c r="J351" t="n">
-        <v>0.307981376442948</v>
+        <v>0.3080297695327056</v>
       </c>
       <c r="K351" t="n">
-        <v>0.4107102399972748</v>
+        <v>0.4106815188952235</v>
       </c>
       <c r="L351" t="n">
-        <v>1.254635390676607</v>
+        <v>1.254547653611436</v>
       </c>
       <c r="M351" t="n">
-        <v>1.334654369326119</v>
+        <v>1.33477082749334</v>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
@@ -15464,25 +15464,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H352" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I352" t="n">
-        <v>0.2531088268156263</v>
+        <v>0.2530743647550208</v>
       </c>
       <c r="J352" t="n">
-        <v>0.3773522860335591</v>
+        <v>0.3774370627026488</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3695388871508145</v>
+        <v>0.3694885725423304</v>
       </c>
       <c r="L352" t="n">
-        <v>1.128865367597693</v>
+        <v>1.128711666807393</v>
       </c>
       <c r="M352" t="n">
-        <v>1.501595745251492</v>
+        <v>1.501799760650277</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15503,25 +15503,25 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H353" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I353" t="n">
-        <v>0.6239151658142865</v>
+        <v>0.6239853626816841</v>
       </c>
       <c r="J353" t="n">
-        <v>0.1528800138966315</v>
+        <v>0.1528514785846812</v>
       </c>
       <c r="K353" t="n">
-        <v>0.223204820289082</v>
+        <v>0.2231631587336346</v>
       </c>
       <c r="L353" t="n">
-        <v>2.094950317731942</v>
+        <v>2.095119246778687</v>
       </c>
       <c r="M353" t="n">
-        <v>0.6818448619789765</v>
+        <v>0.6817175944876782</v>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
@@ -15542,25 +15542,25 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H354" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I354" t="n">
-        <v>0.3938122285975602</v>
+        <v>0.393814211233717</v>
       </c>
       <c r="J354" t="n">
-        <v>0.2464177932530243</v>
+        <v>0.2464169873033671</v>
       </c>
       <c r="K354" t="n">
-        <v>0.3597699781494155</v>
+        <v>0.3597688014629159</v>
       </c>
       <c r="L354" t="n">
-        <v>1.541206663942096</v>
+        <v>1.541211435164067</v>
       </c>
       <c r="M354" t="n">
-        <v>1.099023357908488</v>
+        <v>1.099019763373017</v>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
@@ -15634,25 +15634,25 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H356" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3183989866733226</v>
+        <v>0.3183706909451024</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2770735826531209</v>
+        <v>0.2770850849816657</v>
       </c>
       <c r="K356" t="n">
-        <v>0.4045274306735566</v>
+        <v>0.4045442240732319</v>
       </c>
       <c r="L356" t="n">
-        <v>1.359724390693524</v>
+        <v>1.359656296908539</v>
       </c>
       <c r="M356" t="n">
-        <v>1.235748178632919</v>
+        <v>1.235799479018229</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
@@ -15673,25 +15673,25 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H357" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I357" t="n">
-        <v>0.4865738731707509</v>
+        <v>0.4865887476753135</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2087098076541663</v>
+        <v>0.2087037611075961</v>
       </c>
       <c r="K357" t="n">
-        <v>0.3047163191750828</v>
+        <v>0.3047074912170903</v>
       </c>
       <c r="L357" t="n">
-        <v>1.764437938687335</v>
+        <v>1.764473734243031</v>
       </c>
       <c r="M357" t="n">
-        <v>0.9308457421375818</v>
+        <v>0.9308187745398788</v>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
@@ -15765,25 +15765,25 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H359" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="I359" t="n">
-        <v>0.4519314397506901</v>
+        <v>0.4519452120292612</v>
       </c>
       <c r="J359" t="n">
-        <v>0.2227920976623211</v>
+        <v>0.2227864991750971</v>
       </c>
       <c r="K359" t="n">
-        <v>0.3252764625869888</v>
+        <v>0.3252682887956417</v>
       </c>
       <c r="L359" t="n">
-        <v>1.681070781839059</v>
+        <v>1.681103924883425</v>
       </c>
       <c r="M359" t="n">
-        <v>0.9936527555739522</v>
+        <v>0.993627786320933</v>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
@@ -15804,25 +15804,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>85.014568916</v>
+        <v>85.0080441607</v>
       </c>
       <c r="H360" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4214990440613169</v>
+        <v>0.4214998813367409</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2351629902189769</v>
+        <v>0.2351626498631135</v>
       </c>
       <c r="K360" t="n">
-        <v>0.3433379657197062</v>
+        <v>0.3433374688001457</v>
       </c>
       <c r="L360" t="n">
-        <v>1.607835097903657</v>
+        <v>1.607837112810368</v>
       </c>
       <c r="M360" t="n">
-        <v>1.048826936376637</v>
+        <v>1.048825418389486</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -15896,25 +15896,25 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H362" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I362" t="n">
-        <v>0.6199292422364925</v>
+        <v>0.6200104707738946</v>
       </c>
       <c r="J362" t="n">
-        <v>0.1545003080339462</v>
+        <v>0.1544672883032949</v>
       </c>
       <c r="K362" t="n">
-        <v>0.2255704497295614</v>
+        <v>0.2255222409228105</v>
       </c>
       <c r="L362" t="n">
-        <v>2.085358176439039</v>
+        <v>2.085553653244494</v>
       </c>
       <c r="M362" t="n">
-        <v>0.6890713738313998</v>
+        <v>0.6889241058326951</v>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
@@ -15935,25 +15935,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H363" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I363" t="n">
-        <v>0.2547889965014042</v>
+        <v>0.254750176557994</v>
       </c>
       <c r="J363" t="n">
-        <v>0.3732190686065458</v>
+        <v>0.373314565667335</v>
       </c>
       <c r="K363" t="n">
-        <v>0.3719919348920501</v>
+        <v>0.3719352577746712</v>
       </c>
       <c r="L363" t="n">
-        <v>1.136358924396263</v>
+        <v>1.136185787448653</v>
       </c>
       <c r="M363" t="n">
-        <v>1.491649140711687</v>
+        <v>1.491878954776676</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -15974,25 +15974,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H364" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I364" t="n">
-        <v>0.5397718706495818</v>
+        <v>0.5398230622351343</v>
       </c>
       <c r="J364" t="n">
-        <v>0.1870846054269993</v>
+        <v>0.1870637958393763</v>
       </c>
       <c r="K364" t="n">
-        <v>0.273143523923419</v>
+        <v>0.2731131419254894</v>
       </c>
       <c r="L364" t="n">
-        <v>1.892459135872164</v>
+        <v>1.892582328630892</v>
       </c>
       <c r="M364" t="n">
-        <v>0.8343973402044169</v>
+        <v>0.8343045294436183</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -16066,25 +16066,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H366" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I366" t="n">
-        <v>0.5727854217085322</v>
+        <v>0.5728367737661429</v>
       </c>
       <c r="J366" t="n">
-        <v>0.1736644627201089</v>
+        <v>0.1736435878999419</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2535501155713589</v>
+        <v>0.2535196383339152</v>
       </c>
       <c r="L366" t="n">
-        <v>1.971906380696955</v>
+        <v>1.972029959632344</v>
       </c>
       <c r="M366" t="n">
-        <v>0.7745435037316855</v>
+        <v>0.7744504020337408</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -16158,25 +16158,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="H368" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I368" t="n">
-        <v>0.6465573784517319</v>
+        <v>0.6466350468160461</v>
       </c>
       <c r="J368" t="n">
-        <v>0.1436758624179952</v>
+        <v>0.1436442899121764</v>
       </c>
       <c r="K368" t="n">
-        <v>0.2097667591302729</v>
+        <v>0.2097206632717775</v>
       </c>
       <c r="L368" t="n">
-        <v>2.149438894485469</v>
+        <v>2.149625803719916</v>
       </c>
       <c r="M368" t="n">
-        <v>0.6407943463842584</v>
+        <v>0.6406535330083067</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -16197,25 +16197,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H369" t="n">
-        <v>91.2106692582</v>
+        <v>91.2064091198</v>
       </c>
       <c r="I369" t="n">
-        <v>0.2432860341175166</v>
+        <v>0.2432466517385583</v>
       </c>
       <c r="J369" t="n">
-        <v>0.4015163560709091</v>
+        <v>0.4016132367231464</v>
       </c>
       <c r="K369" t="n">
-        <v>0.3551976098115742</v>
+        <v>0.3551401115382952</v>
       </c>
       <c r="L369" t="n">
-        <v>1.085055712164124</v>
+        <v>1.08488006675397</v>
       </c>
       <c r="M369" t="n">
-        <v>1.559746678024302</v>
+        <v>1.559979821707735</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16289,25 +16289,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H371" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I371" t="n">
-        <v>0.4823400538841863</v>
+        <v>0.4823663037317935</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2104308724048023</v>
+        <v>0.2104202017350433</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3072290737110114</v>
+        <v>0.3072134945331632</v>
       </c>
       <c r="L371" t="n">
-        <v>1.754249235363571</v>
+        <v>1.754312405728544</v>
       </c>
       <c r="M371" t="n">
-        <v>0.9385216909254186</v>
+        <v>0.938474099738293</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16328,25 +16328,25 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H372" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I372" t="n">
-        <v>0.3521256053458784</v>
+        <v>0.3520859084738951</v>
       </c>
       <c r="J372" t="n">
-        <v>0.263363575062651</v>
+        <v>0.2633797120024816</v>
       </c>
       <c r="K372" t="n">
-        <v>0.3845108195914705</v>
+        <v>0.3845343795236232</v>
       </c>
       <c r="L372" t="n">
-        <v>1.440887635629106</v>
+        <v>1.440792104945309</v>
       </c>
       <c r="M372" t="n">
-        <v>1.174601544779423</v>
+        <v>1.174673515531068</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
@@ -16367,25 +16367,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H373" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="I373" t="n">
-        <v>0.4477361871943715</v>
+        <v>0.4477612089969792</v>
       </c>
       <c r="J373" t="n">
-        <v>0.2244974848803368</v>
+        <v>0.2244873134158621</v>
       </c>
       <c r="K373" t="n">
-        <v>0.3277663279252917</v>
+        <v>0.3277514775871587</v>
       </c>
       <c r="L373" t="n">
-        <v>1.670974889508406</v>
+        <v>1.671035104578096</v>
       </c>
       <c r="M373" t="n">
-        <v>1.001258782566302</v>
+        <v>1.001213417834745</v>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
@@ -16406,25 +16406,25 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="n">
-        <v>85.13323123639999</v>
+        <v>85.12638735500001</v>
       </c>
       <c r="H374" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I374" t="n">
-        <v>0.4258037055865055</v>
+        <v>0.4257929529116334</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2334131278103636</v>
+        <v>0.2334174988164092</v>
       </c>
       <c r="K374" t="n">
-        <v>0.3407831666031309</v>
+        <v>0.3407895482719574</v>
       </c>
       <c r="L374" t="n">
-        <v>1.618194283362647</v>
+        <v>1.618168407006858</v>
       </c>
       <c r="M374" t="n">
-        <v>1.041022550034222</v>
+        <v>1.041042044721185</v>
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
@@ -16551,25 +16551,25 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H377" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I377" t="n">
-        <v>0.3682701029826193</v>
+        <v>0.3682613791491317</v>
       </c>
       <c r="J377" t="n">
-        <v>0.2568007711452767</v>
+        <v>0.2568043174190522</v>
       </c>
       <c r="K377" t="n">
-        <v>0.374929125872104</v>
+        <v>0.3749343034318161</v>
       </c>
       <c r="L377" t="n">
-        <v>1.479739434819962</v>
+        <v>1.479718440879211</v>
       </c>
       <c r="M377" t="n">
-        <v>1.145331439307934</v>
+        <v>1.145347255688973</v>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
@@ -16590,25 +16590,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="H378" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I378" t="n">
-        <v>0.5110041485665159</v>
+        <v>0.5110292011382261</v>
       </c>
       <c r="J378" t="n">
-        <v>0.1987788013957253</v>
+        <v>0.1987686174234853</v>
       </c>
       <c r="K378" t="n">
-        <v>0.2902170500377589</v>
+        <v>0.2902021814382885</v>
       </c>
       <c r="L378" t="n">
-        <v>1.823229495737307</v>
+        <v>1.823289784852967</v>
       </c>
       <c r="M378" t="n">
-        <v>0.8865534542249347</v>
+        <v>0.8865080337087445</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16629,25 +16629,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H379" t="n">
-        <v>87.4419965586</v>
+        <v>87.4361235115</v>
       </c>
       <c r="I379" t="n">
-        <v>0.2967567729427714</v>
+        <v>0.2967207263331699</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2858712305110685</v>
+        <v>0.2858858836044025</v>
       </c>
       <c r="K379" t="n">
-        <v>0.41737199654616</v>
+        <v>0.4173933900624276</v>
       </c>
       <c r="L379" t="n">
-        <v>1.307642315374474</v>
+        <v>1.307555569061937</v>
       </c>
       <c r="M379" t="n">
-        <v>1.274985688079366</v>
+        <v>1.275051040875635</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16668,25 +16668,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="H380" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="I380" t="n">
-        <v>0.4762357237503018</v>
+        <v>0.4762597496402052</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2129123074185765</v>
+        <v>0.2129025407966646</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3108519688311218</v>
+        <v>0.3108377095631303</v>
       </c>
       <c r="L380" t="n">
-        <v>1.739559140082027</v>
+        <v>1.739616958483746</v>
       </c>
       <c r="M380" t="n">
-        <v>0.9495888910868513</v>
+        <v>0.949545331953124</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
@@ -16707,25 +16707,25 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="n">
-        <v>84.3303810501</v>
+        <v>84.3235712684</v>
       </c>
       <c r="H381" t="n">
-        <v>86.5053933141</v>
+        <v>86.499493761</v>
       </c>
       <c r="I381" t="n">
-        <v>0.3254165147351737</v>
+        <v>0.3253794287675624</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2742209289694416</v>
+        <v>0.2742360045660316</v>
       </c>
       <c r="K381" t="n">
-        <v>0.4003625562953847</v>
+        <v>0.4003845666664061</v>
       </c>
       <c r="L381" t="n">
-        <v>1.376612100500906</v>
+        <v>1.376522852969093</v>
       </c>
       <c r="M381" t="n">
-        <v>1.223025343203709</v>
+        <v>1.223092580364501</v>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>

--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3558361104790094</v>
+        <v>0.3558358099771864</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2618552396426791</v>
+        <v>0.2618553617978917</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3823086498783115</v>
+        <v>0.3823088282249219</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44981698131534</v>
+        <v>1.449816258156481</v>
       </c>
       <c r="M3" t="n">
-        <v>1.167874368806349</v>
+        <v>1.167874913618597</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -621,22 +621,22 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5301389990065563</v>
+        <v>0.5301396188176808</v>
       </c>
       <c r="J4" t="n">
-        <v>0.191000406907904</v>
+        <v>0.1910001549521623</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2788605940855398</v>
+        <v>0.2788602262301569</v>
       </c>
       <c r="L4" t="n">
-        <v>1.869277591105209</v>
+        <v>1.869279082683199</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8518618148092516</v>
+        <v>0.8518606910866438</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7120597143603279</v>
+        <v>0.7120617256075044</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1170488966014927</v>
+        <v>0.1170480790213397</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1708913890381794</v>
+        <v>0.170890195371156</v>
       </c>
       <c r="L6" t="n">
-        <v>2.307070532119163</v>
+        <v>2.307075372193669</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5220380788426575</v>
+        <v>0.5220344324351751</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -749,25 +749,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2223099924422413</v>
+        <v>0.2223089647790711</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4531174185920862</v>
+        <v>0.453119946643485</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3245725889656724</v>
+        <v>0.3245710885774438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9915025662923964</v>
+        <v>0.9914979829146571</v>
       </c>
       <c r="M7" t="n">
-        <v>1.683924844741931</v>
+        <v>1.683930928507899</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -791,22 +791,22 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6074011394580446</v>
+        <v>0.6074149451463924</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1595930327406322</v>
+        <v>0.1595874206721982</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2330058278013231</v>
+        <v>0.2329976341814094</v>
       </c>
       <c r="L8" t="n">
-        <v>2.055209246175457</v>
+        <v>2.055242469620587</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7117849260232197</v>
+        <v>0.7117598961980041</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -827,25 +827,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2694357713212993</v>
+        <v>0.2694303011479069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3371880025496036</v>
+        <v>0.337201459176149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3933762261290971</v>
+        <v>0.3933682396759441</v>
       </c>
       <c r="L9" t="n">
-        <v>1.201683540092995</v>
+        <v>1.201659143119665</v>
       </c>
       <c r="M9" t="n">
-        <v>1.404940233777908</v>
+        <v>1.404972617204391</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -869,22 +869,22 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.710192719119047</v>
+        <v>0.7102055916182096</v>
       </c>
       <c r="J10" t="n">
-        <v>0.117807837756485</v>
+        <v>0.1178026050332482</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1719994431244681</v>
+        <v>0.1719918033485423</v>
       </c>
       <c r="L10" t="n">
-        <v>2.302577600481609</v>
+        <v>2.302608578203171</v>
       </c>
       <c r="M10" t="n">
-        <v>0.525422956393923</v>
+        <v>0.5253996184482868</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -905,25 +905,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2232616856726914</v>
+        <v>0.2232551394159745</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4507762532451794</v>
+        <v>0.4507923570367026</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3259620610821293</v>
+        <v>0.3259525035473228</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9957471181002034</v>
+        <v>0.9957179217952463</v>
       </c>
       <c r="M11" t="n">
-        <v>1.678290820817668</v>
+        <v>1.67832957465743</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -947,22 +947,22 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.838117417588641</v>
+        <v>0.8381201773986344</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06580592780949557</v>
+        <v>0.06580480593551448</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09607665460186351</v>
+        <v>0.09607501666585112</v>
       </c>
       <c r="L12" t="n">
-        <v>2.610428907367786</v>
+        <v>2.610435548861755</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2934944380303502</v>
+        <v>0.2934894344723946</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -983,25 +983,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1458747679419855</v>
+        <v>0.1458727893887479</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6411480708627155</v>
+        <v>0.6411529381036802</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2129771611952989</v>
+        <v>0.2129742725075719</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6506014650212555</v>
+        <v>0.6505926406738156</v>
       </c>
       <c r="M13" t="n">
-        <v>2.136421373783445</v>
+        <v>2.136433086818613</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1075,25 +1075,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2516943032798534</v>
+        <v>0.2516989092247718</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3808320139315606</v>
+        <v>0.3808206833070611</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3674736827885859</v>
+        <v>0.367480407468167</v>
       </c>
       <c r="L15" t="n">
-        <v>1.122556592628146</v>
+        <v>1.122577135142482</v>
       </c>
       <c r="M15" t="n">
-        <v>1.509969724583268</v>
+        <v>1.509942457389351</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1117,22 +1117,22 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.717199375939492</v>
+        <v>0.7172014263682936</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1149596032766293</v>
+        <v>0.1149587697689863</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1678410207838788</v>
+        <v>0.16783980386272</v>
       </c>
       <c r="L16" t="n">
-        <v>2.319439148602355</v>
+        <v>2.319444082967601</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5127198306137667</v>
+        <v>0.512716113169679</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1209,22 +1209,22 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6810004162495613</v>
+        <v>0.6810021849187705</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1296746275408287</v>
+        <v>0.1296739085696055</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1893249562096099</v>
+        <v>0.189323906511624</v>
       </c>
       <c r="L18" t="n">
-        <v>2.232326204958294</v>
+        <v>2.232330461267936</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5783488388320961</v>
+        <v>0.5783456322204404</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1245,25 +1245,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2375745377266375</v>
+        <v>0.2375737017695618</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4155666371924716</v>
+        <v>0.4155686936468779</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3468588250808909</v>
+        <v>0.3468576045835602</v>
       </c>
       <c r="L19" t="n">
-        <v>1.059582438260803</v>
+        <v>1.059578709892246</v>
       </c>
       <c r="M19" t="n">
-        <v>1.593558736658305</v>
+        <v>1.593563685524194</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1287,22 +1287,22 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6341003811022152</v>
+        <v>0.6341017761900082</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1487396824787743</v>
+        <v>0.1487391153699154</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2171599364190105</v>
+        <v>0.2171591084400765</v>
       </c>
       <c r="L20" t="n">
-        <v>2.119461079725656</v>
+        <v>2.119464437010101</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6633789838553333</v>
+        <v>0.6633764545498226</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1323,25 +1323,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>0.258519736463621</v>
+        <v>0.2585191479450604</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3640414482994925</v>
+        <v>0.3640428960551514</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3774388152368866</v>
+        <v>0.3774379559997882</v>
       </c>
       <c r="L21" t="n">
-        <v>1.15299802462775</v>
+        <v>1.15299539983497</v>
       </c>
       <c r="M21" t="n">
-        <v>1.469563160135364</v>
+        <v>1.469566644165243</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1365,22 +1365,22 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.769039346886436</v>
+        <v>0.7690417648550697</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09388644435510735</v>
+        <v>0.09388546144102861</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1370742087584567</v>
+        <v>0.1370727737039018</v>
       </c>
       <c r="L22" t="n">
-        <v>2.444192249417765</v>
+        <v>2.444198068269111</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4187335418237788</v>
+        <v>0.4187291580269876</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1401,25 +1401,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>0.190939613000623</v>
+        <v>0.1909381794694655</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5302885520184675</v>
+        <v>0.5302920785051147</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2787718349809095</v>
+        <v>0.2787697420254197</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8515906739827785</v>
+        <v>0.8515842804338163</v>
       </c>
       <c r="M23" t="n">
-        <v>1.869637491036312</v>
+        <v>1.869645977540764</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1443,22 +1443,22 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6573033376681109</v>
+        <v>0.6573049176288743</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1393075863137761</v>
+        <v>0.1393069440533032</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2033890760181131</v>
+        <v>0.2033881383178226</v>
       </c>
       <c r="L24" t="n">
-        <v>2.175299089022446</v>
+        <v>2.175302891204446</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6213118349594413</v>
+        <v>0.621308970477732</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1535,22 +1535,22 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I26" t="n">
-        <v>0.792176196322699</v>
+        <v>0.79217875387643</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08448122100703297</v>
+        <v>0.08448018135104475</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1233425826702681</v>
+        <v>0.1233410647725253</v>
       </c>
       <c r="L26" t="n">
-        <v>2.499871171638365</v>
+        <v>2.499877326401815</v>
       </c>
       <c r="M26" t="n">
-        <v>0.376786245691367</v>
+        <v>0.3767816088256596</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1677,25 +1677,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1299031658963637</v>
+        <v>0.1299010274196409</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6804382118949452</v>
+        <v>0.6804434725476836</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1896586222086911</v>
+        <v>0.1896555000326756</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5793681198977823</v>
+        <v>0.5793585822915982</v>
       </c>
       <c r="M29" t="n">
-        <v>2.230973257893527</v>
+        <v>2.230985917675726</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1719,22 +1719,22 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7165666955014173</v>
+        <v>0.7165687411261461</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1152167904465783</v>
+        <v>0.1152159588918105</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1682165140520044</v>
+        <v>0.1682152999820433</v>
       </c>
       <c r="L30" t="n">
-        <v>2.317916600556256</v>
+        <v>2.317921523360482</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5138668853917393</v>
+        <v>0.5138631766574748</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1755,25 +1755,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2199938480350206</v>
+        <v>0.2199927907277698</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4588151338338495</v>
+        <v>0.4588177348096861</v>
       </c>
       <c r="K31" t="n">
-        <v>0.32119101813113</v>
+        <v>0.321189474462544</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9811725622361919</v>
+        <v>0.9811678466458534</v>
       </c>
       <c r="M31" t="n">
-        <v>1.697636419632679</v>
+        <v>1.697642678891602</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1797,22 +1797,22 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8576697464407175</v>
+        <v>0.8576725493506299</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05785782665011486</v>
+        <v>0.0578566872558415</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08447242690916769</v>
+        <v>0.08447076339352859</v>
       </c>
       <c r="L32" t="n">
-        <v>2.65748166623132</v>
+        <v>2.657488411445418</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2580459068595123</v>
+        <v>0.2580408251610531</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1939,25 +1939,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>0.163619453303936</v>
+        <v>0.1636176773823884</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5974961448723174</v>
+        <v>0.5975005136393245</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2388844018237466</v>
+        <v>0.2388818089782871</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7297427617355545</v>
+        <v>0.7297348411254522</v>
       </c>
       <c r="M35" t="n">
-        <v>2.031372836440699</v>
+        <v>2.031383349896261</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2031,25 +2031,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0.150218673634065</v>
+        <v>0.1502115511608125</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6304620628602</v>
+        <v>0.6304795841444012</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2193192635057349</v>
+        <v>0.2193088646947863</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6699752844079299</v>
+        <v>0.6699435181772239</v>
       </c>
       <c r="M37" t="n">
-        <v>2.110705452086335</v>
+        <v>2.11074761712799</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2073,22 +2073,22 @@
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8711041735012214</v>
+        <v>0.8711128968699261</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05239667743852793</v>
+        <v>0.05239313135368855</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07649914906025078</v>
+        <v>0.07649397177638528</v>
       </c>
       <c r="L38" t="n">
-        <v>2.689811669563915</v>
+        <v>2.689832662386164</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2336891813758346</v>
+        <v>0.2336733658374509</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2109,25 +2109,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1210838297748005</v>
+        <v>0.1210769603549254</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7021337787539906</v>
+        <v>0.7021506775268836</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1767823914712088</v>
+        <v>0.1767723621181911</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5400338807956103</v>
+        <v>0.5400032431829672</v>
       </c>
       <c r="M39" t="n">
-        <v>2.283183727733181</v>
+        <v>2.283224394698842</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2148,25 +2148,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H40" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4640501873067769</v>
+        <v>0.4640504801081277</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2178657775175704</v>
+        <v>0.217865658492631</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3180840351756528</v>
+        <v>0.3180838613992413</v>
       </c>
       <c r="L40" t="n">
-        <v>1.710234597095984</v>
+        <v>1.710235301723624</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9716813677283639</v>
+        <v>0.9716808368771344</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2187,25 +2187,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H41" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3678206119412558</v>
+        <v>0.3678203033187097</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2569834910807903</v>
+        <v>0.2569836165371099</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3751958969779539</v>
+        <v>0.3751960801441805</v>
       </c>
       <c r="L41" t="n">
-        <v>1.478657732801721</v>
+        <v>1.478656990100309</v>
       </c>
       <c r="M41" t="n">
-        <v>1.146146370220325</v>
+        <v>1.14614692975551</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2279,25 +2279,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H43" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2475164046246055</v>
+        <v>0.2475155390495327</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3911096446234704</v>
+        <v>0.3911117739381494</v>
       </c>
       <c r="K43" t="n">
-        <v>0.361373950751924</v>
+        <v>0.3613726870123178</v>
       </c>
       <c r="L43" t="n">
-        <v>1.103923164625741</v>
+        <v>1.103919304160916</v>
       </c>
       <c r="M43" t="n">
-        <v>1.534702884622335</v>
+        <v>1.534708008826766</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2318,25 +2318,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H44" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5428076713671913</v>
+        <v>0.5428217134815163</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1858505400946376</v>
+        <v>0.1858448319180828</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2713417885381709</v>
+        <v>0.2713334546004008</v>
       </c>
       <c r="L44" t="n">
-        <v>1.899764802639745</v>
+        <v>1.89979859504495</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8288934088220838</v>
+        <v>0.8288679503546491</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2357,25 +2357,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H45" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2952741706414042</v>
+        <v>0.2952619041357103</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2864739143734129</v>
+        <v>0.2864789007578413</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4182519149851829</v>
+        <v>0.4182591951064483</v>
       </c>
       <c r="L45" t="n">
-        <v>1.304074426909395</v>
+        <v>1.304044907513579</v>
       </c>
       <c r="M45" t="n">
-        <v>1.277673658105422</v>
+        <v>1.277695897379972</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2449,25 +2449,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H47" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2484304660951426</v>
+        <v>0.2484243041249278</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3888610534059492</v>
+        <v>0.3888762118526775</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3627084804989082</v>
+        <v>0.3626994840223946</v>
       </c>
       <c r="L47" t="n">
-        <v>1.107999878784336</v>
+        <v>1.107972396397178</v>
       </c>
       <c r="M47" t="n">
-        <v>1.529291640716756</v>
+        <v>1.529328119580427</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2488,25 +2488,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H48" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7989165969681622</v>
+        <v>0.7989196541363686</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08174122074464948</v>
+        <v>0.08173997799334615</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1193421822871882</v>
+        <v>0.1193403678702854</v>
       </c>
       <c r="L48" t="n">
-        <v>2.516091973191675</v>
+        <v>2.516099330279391</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3645658445211367</v>
+        <v>0.3645603018503238</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2527,25 +2527,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H49" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1704337411492837</v>
+        <v>0.170431772083695</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5807329967727621</v>
+        <v>0.5807378406741102</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2488332620779542</v>
+        <v>0.2488303872421948</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7601344855258053</v>
+        <v>0.7601257034932798</v>
       </c>
       <c r="M49" t="n">
-        <v>1.99103225239624</v>
+        <v>1.991043909264525</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2566,25 +2566,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H50" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5876313706270501</v>
+        <v>0.5876198566723179</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1676295241353455</v>
+        <v>0.1676342046047488</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2447391052376044</v>
+        <v>0.2447459387229333</v>
       </c>
       <c r="L50" t="n">
-        <v>2.007633217118755</v>
+        <v>2.007605508739887</v>
       </c>
       <c r="M50" t="n">
-        <v>0.747627677643641</v>
+        <v>0.7476485525371798</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2605,25 +2605,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H51" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2752536251201529</v>
+        <v>0.2752580076575111</v>
       </c>
       <c r="J51" t="n">
-        <v>0.322876082204424</v>
+        <v>0.3228653011625228</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4018702926754232</v>
+        <v>0.4018766911799661</v>
       </c>
       <c r="L51" t="n">
-        <v>1.227631168035882</v>
+        <v>1.227650714152499</v>
       </c>
       <c r="M51" t="n">
-        <v>1.370498539288695</v>
+        <v>1.370472594667534</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2697,25 +2697,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H53" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2449718855924113</v>
+        <v>0.2449709848450863</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3973691614426681</v>
+        <v>0.3973713772810876</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3576589529649206</v>
+        <v>0.3576576378738261</v>
       </c>
       <c r="L53" t="n">
-        <v>1.092574609742154</v>
+        <v>1.092570592409085</v>
       </c>
       <c r="M53" t="n">
-        <v>1.549766437292925</v>
+        <v>1.549771769717089</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2736,25 +2736,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H54" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6209595413201108</v>
+        <v>0.6209611490301798</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1540814872682476</v>
+        <v>0.1540808337275692</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2249589714116415</v>
+        <v>0.224958017242251</v>
       </c>
       <c r="L54" t="n">
-        <v>2.087837595371974</v>
+        <v>2.08784146433279</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6872034332163844</v>
+        <v>0.6872005184249584</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2828,25 +2828,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H56" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5707956454368409</v>
+        <v>0.5707967973398247</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1744733148630728</v>
+        <v>0.1744728466098274</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2547310397000863</v>
+        <v>0.254730356050348</v>
       </c>
       <c r="L56" t="n">
-        <v>1.967117976010609</v>
+        <v>1.967120748069822</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7781509842893046</v>
+        <v>0.7781488958798302</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2973,25 +2973,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H59" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2167751866276269</v>
+        <v>0.2167738817244836</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4667330408960378</v>
+        <v>0.4667362509577705</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3164917724763353</v>
+        <v>0.316489867317746</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9668173323592161</v>
+        <v>0.9668115124911968</v>
       </c>
       <c r="M59" t="n">
-        <v>1.716690895164449</v>
+        <v>1.716698620191057</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3012,25 +3012,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H60" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5954518545141106</v>
+        <v>0.5954532283250314</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1644504656446704</v>
+        <v>0.1644499071849466</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2400976798412189</v>
+        <v>0.240096864490022</v>
       </c>
       <c r="L60" t="n">
-        <v>2.026453243383551</v>
+        <v>2.026456549465117</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7334490767752302</v>
+        <v>0.7334465860448617</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3051,25 +3051,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H61" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2722442998185124</v>
+        <v>0.2722437572543179</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3302790224464595</v>
+        <v>0.330280357154378</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3974766777350281</v>
+        <v>0.3974758855913042</v>
       </c>
       <c r="L61" t="n">
-        <v>1.214209577190565</v>
+        <v>1.214207157354258</v>
       </c>
       <c r="M61" t="n">
-        <v>1.388313745074407</v>
+        <v>1.388316957054438</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3090,25 +3090,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H62" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I62" t="n">
-        <v>0.74523215587023</v>
+        <v>0.7452348564366079</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1035641642803943</v>
+        <v>0.1035630664891838</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1512036798493757</v>
+        <v>0.1512020770742083</v>
       </c>
       <c r="L62" t="n">
-        <v>2.386900147460065</v>
+        <v>2.386906646384032</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4618961726905587</v>
+        <v>0.4618912765417596</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3129,25 +3129,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H63" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2025059314269932</v>
+        <v>0.202504417649756</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5018354086895966</v>
+        <v>0.5018391325816003</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2956586598834101</v>
+        <v>0.2956564497686437</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9031764541643896</v>
+        <v>0.9031697027179117</v>
       </c>
       <c r="M63" t="n">
-        <v>1.8011648859522</v>
+        <v>1.801173847513445</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3168,25 +3168,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H64" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8246572271387733</v>
+        <v>0.8246604013170931</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07127754994358811</v>
+        <v>0.07127625962719797</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1040652229176386</v>
+        <v>0.104063339055709</v>
       </c>
       <c r="L64" t="n">
-        <v>2.578036904333958</v>
+        <v>2.578044543006988</v>
       </c>
       <c r="M64" t="n">
-        <v>0.317897872748403</v>
+        <v>0.3178921179373029</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3207,25 +3207,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H65" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1533553894985999</v>
+        <v>0.1533531993813837</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6227457418334443</v>
+        <v>0.6227511295217959</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2238988686679558</v>
+        <v>0.2238956710968203</v>
       </c>
       <c r="L65" t="n">
-        <v>0.6839650371637555</v>
+        <v>0.6839552692409715</v>
       </c>
       <c r="M65" t="n">
-        <v>2.092136094168289</v>
+        <v>2.092149059662208</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3246,25 +3246,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H66" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6598765986902001</v>
+        <v>0.6598785650221906</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1382615452478862</v>
+        <v>0.1382607459259388</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2018618560619138</v>
+        <v>0.2018606890518707</v>
       </c>
       <c r="L66" t="n">
-        <v>2.181491652132514</v>
+        <v>2.181496384118442</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6166464918055724</v>
+        <v>0.6166429268296871</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3391,25 +3391,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H69" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1550381235279826</v>
+        <v>0.1550359541893794</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6186062161211628</v>
+        <v>0.6186115526941266</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2263556603508545</v>
+        <v>0.226352493116494</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6914700309348023</v>
+        <v>0.6914603556846323</v>
       </c>
       <c r="M69" t="n">
-        <v>2.082174308714343</v>
+        <v>2.082187151198874</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3430,25 +3430,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H70" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7687660234154844</v>
+        <v>0.7687688953928522</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09399755145712023</v>
+        <v>0.09399638398664542</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1372364251273955</v>
+        <v>0.1372347206205023</v>
       </c>
       <c r="L70" t="n">
-        <v>2.443534495373849</v>
+        <v>2.443541406799059</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4192290794987562</v>
+        <v>0.4192238725804386</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3469,25 +3469,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H71" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1889994753064488</v>
+        <v>0.1889977657443074</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5350612907461361</v>
+        <v>0.5350654962690038</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2759392339474152</v>
+        <v>0.2759367379866888</v>
       </c>
       <c r="L71" t="n">
-        <v>0.8429376598667616</v>
+        <v>0.842930035219611</v>
       </c>
       <c r="M71" t="n">
-        <v>1.881123106185823</v>
+        <v>1.8811332267937</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3508,25 +3508,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H72" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I72" t="n">
-        <v>0.791693015101209</v>
+        <v>0.7917047242359228</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08467763613771993</v>
+        <v>0.0846728763268607</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1236293487610711</v>
+        <v>0.1236223994372166</v>
       </c>
       <c r="L72" t="n">
-        <v>2.498708394064698</v>
+        <v>2.498736572144985</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3776622571742309</v>
+        <v>0.3776410284177987</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3547,25 +3547,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H73" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1750178722316322</v>
+        <v>0.175010502504469</v>
       </c>
       <c r="J73" t="n">
-        <v>0.569456034310185</v>
+        <v>0.5694741638390063</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2555260934581829</v>
+        <v>0.2555153336565247</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7805797101530794</v>
+        <v>0.7805468411699317</v>
       </c>
       <c r="M73" t="n">
-        <v>1.963894196388738</v>
+        <v>1.963937825173544</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3586,25 +3586,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>98.218027897</v>
+        <v>98.21801907299999</v>
       </c>
       <c r="H74" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8383506408770616</v>
+        <v>0.8383609919539062</v>
       </c>
       <c r="J74" t="n">
-        <v>0.06571112159469038</v>
+        <v>0.06570691383987548</v>
       </c>
       <c r="K74" t="n">
-        <v>0.09593823752824794</v>
+        <v>0.09593209420621822</v>
       </c>
       <c r="L74" t="n">
-        <v>2.610990160159433</v>
+        <v>2.611015070067937</v>
       </c>
       <c r="M74" t="n">
-        <v>0.293071602312319</v>
+        <v>0.2930528357258447</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3731,25 +3731,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H77" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2659317764739156</v>
+        <v>0.2659310671196206</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3458078298741677</v>
+        <v>0.3458095748857333</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3882603936519167</v>
+        <v>0.3882593579946461</v>
       </c>
       <c r="L77" t="n">
-        <v>1.186055723073664</v>
+        <v>1.186052559353508</v>
       </c>
       <c r="M77" t="n">
-        <v>1.42568388327442</v>
+        <v>1.425688082651846</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3770,25 +3770,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H78" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4922477563572819</v>
+        <v>0.4922615796708618</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2064033510742756</v>
+        <v>0.2063977318411131</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3013488925684424</v>
+        <v>0.3013406884880252</v>
       </c>
       <c r="L78" t="n">
-        <v>1.778092161640288</v>
+        <v>1.77812542750061</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9205589457912693</v>
+        <v>0.9205338840113646</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3862,25 +3862,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H80" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6056128086788599</v>
+        <v>0.6056271287899968</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1603199964720082</v>
+        <v>0.1603141752886192</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2340671948491319</v>
+        <v>0.2340586959213841</v>
       </c>
       <c r="L80" t="n">
-        <v>2.050905620885711</v>
+        <v>2.050940082291374</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7150271842651564</v>
+        <v>0.7150012217872417</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3901,25 +3901,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H81" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2667997214976844</v>
+        <v>0.2667939854710491</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3436726851156964</v>
+        <v>0.3436867957412192</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3895275933866193</v>
+        <v>0.3895192187877317</v>
       </c>
       <c r="L81" t="n">
-        <v>1.189926757879672</v>
+        <v>1.189901175200879</v>
       </c>
       <c r="M81" t="n">
-        <v>1.420545648733708</v>
+        <v>1.420579606011389</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3940,25 +3940,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H82" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7643853519014103</v>
+        <v>0.7643885492826481</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0957783122351991</v>
+        <v>0.09577701248672843</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1398363358633907</v>
+        <v>0.1398344382306235</v>
       </c>
       <c r="L82" t="n">
-        <v>2.432992391567622</v>
+        <v>2.433000086078568</v>
       </c>
       <c r="M82" t="n">
-        <v>0.427171272568988</v>
+        <v>0.4271654756908088</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -3979,25 +3979,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H83" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1899665836271845</v>
+        <v>0.1899646947219471</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5326822042771261</v>
+        <v>0.5326868509840103</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2773512120956894</v>
+        <v>0.2773484542940427</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8472509629772429</v>
+        <v>0.8472425384598841</v>
       </c>
       <c r="M83" t="n">
-        <v>1.875397824927068</v>
+        <v>1.875409007246073</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4018,25 +4018,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H84" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5378076400939235</v>
+        <v>0.5377955118220905</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1878830731325515</v>
+        <v>0.1878880033243534</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2743092867735251</v>
+        <v>0.274316484853556</v>
       </c>
       <c r="L84" t="n">
-        <v>1.887732207055295</v>
+        <v>1.887703020319828</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8379585061711794</v>
+        <v>0.8379804948266163</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4163,25 +4163,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H87" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2635117189484735</v>
+        <v>0.2635109750392851</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3517611713867551</v>
+        <v>0.3517630014033585</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3847271096647714</v>
+        <v>0.3847260235573563</v>
       </c>
       <c r="L87" t="n">
-        <v>1.175262266510192</v>
+        <v>1.175258948675212</v>
       </c>
       <c r="M87" t="n">
-        <v>1.440010623825037</v>
+        <v>1.440015027767432</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4202,25 +4202,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H88" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I88" t="n">
-        <v>0.572231290057939</v>
+        <v>0.5722326495270275</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1738897194886426</v>
+        <v>0.1738891668589319</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2538789904534182</v>
+        <v>0.2538781836140406</v>
       </c>
       <c r="L88" t="n">
-        <v>1.970572860627235</v>
+        <v>1.970576132195123</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7755481489193461</v>
+        <v>0.7755456841908362</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4241,25 +4241,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H89" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I89" t="n">
-        <v>0.27964418809275</v>
+        <v>0.2796436663064709</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3120752972918349</v>
+        <v>0.3120765808860817</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4082805146154151</v>
+        <v>0.4082797528074474</v>
       </c>
       <c r="L89" t="n">
-        <v>1.247213078893665</v>
+        <v>1.24721075172686</v>
       </c>
       <c r="M89" t="n">
-        <v>1.34450640649092</v>
+        <v>1.344509495465692</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4333,25 +4333,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H91" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3115201700704398</v>
+        <v>0.3115193625497362</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2798698495648619</v>
+        <v>0.2798701778253105</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4086099803646984</v>
+        <v>0.4086104596249533</v>
       </c>
       <c r="L91" t="n">
-        <v>1.343170490576018</v>
+        <v>1.343168547274162</v>
       </c>
       <c r="M91" t="n">
-        <v>1.248219529059284</v>
+        <v>1.248220993100885</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4425,25 +4425,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H93" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2363027989522008</v>
+        <v>0.2363016443725287</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4186951145775861</v>
+        <v>0.4186979548435794</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3450020864702131</v>
+        <v>0.3450004007838919</v>
       </c>
       <c r="L93" t="n">
-        <v>1.053910483326816</v>
+        <v>1.053905333901478</v>
       </c>
       <c r="M93" t="n">
-        <v>1.601087430202972</v>
+        <v>1.60109426531463</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4464,25 +4464,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H94" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5458427470172015</v>
+        <v>0.545843844282064</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1846167695052026</v>
+        <v>0.1846163234625756</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2695404834775958</v>
+        <v>0.2695398322553604</v>
       </c>
       <c r="L94" t="n">
-        <v>1.9070687245292</v>
+        <v>1.907071365101553</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8233907919932038</v>
+        <v>0.8233888026430873</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -4556,25 +4556,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H96" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7048873188955587</v>
+        <v>0.7048900121648674</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1199645045140006</v>
+        <v>0.1199634096890783</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1751481765904408</v>
+        <v>0.1751465781460543</v>
       </c>
       <c r="L96" t="n">
-        <v>2.289810133277117</v>
+        <v>2.289816614640657</v>
       </c>
       <c r="M96" t="n">
-        <v>0.5350416901324424</v>
+        <v>0.5350368072132892</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4595,25 +4595,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H97" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2222538998289801</v>
+        <v>0.2222525229385741</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4532554064207092</v>
+        <v>0.4532587935711079</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3244906937503109</v>
+        <v>0.3244886834903181</v>
       </c>
       <c r="L97" t="n">
-        <v>0.991252393237251</v>
+        <v>0.9912462523060401</v>
       </c>
       <c r="M97" t="n">
-        <v>1.684256913012439</v>
+        <v>1.684265064203642</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4634,25 +4634,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H98" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7934032354283808</v>
+        <v>0.7934066243615733</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08398242462260944</v>
+        <v>0.08398104700749054</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1226143399490098</v>
+        <v>0.1226123286309362</v>
       </c>
       <c r="L98" t="n">
-        <v>2.502824046234152</v>
+        <v>2.502832201715656</v>
       </c>
       <c r="M98" t="n">
-        <v>0.3745616138168381</v>
+        <v>0.3745554696534078</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4673,25 +4673,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H99" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1723600005499936</v>
+        <v>0.1723578456986281</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5759943986470157</v>
+        <v>0.5759996995813749</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2516456008029906</v>
+        <v>0.2516424547199971</v>
       </c>
       <c r="L99" t="n">
-        <v>0.7687256024529714</v>
+        <v>0.7687159918158815</v>
       </c>
       <c r="M99" t="n">
-        <v>1.979628796744038</v>
+        <v>1.979641553464122</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4712,25 +4712,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H100" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6130336242128935</v>
+        <v>0.613035399655027</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1573034047915068</v>
+        <v>0.1573026830670622</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2296629709955998</v>
+        <v>0.2296619172779109</v>
       </c>
       <c r="L100" t="n">
-        <v>2.06876384363428</v>
+        <v>2.068768116242992</v>
       </c>
       <c r="M100" t="n">
-        <v>0.7015731853701201</v>
+        <v>0.7015699664790976</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4804,25 +4804,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H102" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7906183204723073</v>
+        <v>0.7906216930894375</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08511450387304587</v>
+        <v>0.08511313289047258</v>
       </c>
       <c r="K102" t="n">
-        <v>0.124267175654647</v>
+        <v>0.12426517402009</v>
       </c>
       <c r="L102" t="n">
-        <v>2.496122137071569</v>
+        <v>2.496130253288403</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3796106872737846</v>
+        <v>0.3796045726915077</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4896,25 +4896,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H104" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7308017675034149</v>
+        <v>0.7308046947055854</v>
       </c>
       <c r="J104" t="n">
-        <v>0.10943017581162</v>
+        <v>0.1094289858920385</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1597680566849652</v>
+        <v>0.1597663194023762</v>
       </c>
       <c r="L104" t="n">
-        <v>2.35217335919521</v>
+        <v>2.352180403519132</v>
       </c>
       <c r="M104" t="n">
-        <v>0.4880585841198253</v>
+        <v>0.4880532770784916</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4935,25 +4935,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H105" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2087783070930777</v>
+        <v>0.2087767150273481</v>
       </c>
       <c r="J105" t="n">
-        <v>0.486405364551029</v>
+        <v>0.4864092810327237</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3048163283558934</v>
+        <v>0.3048140039399282</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9311512496351264</v>
+        <v>0.9311441490219727</v>
       </c>
       <c r="M105" t="n">
-        <v>1.76403242200898</v>
+        <v>1.764041847038099</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4974,25 +4974,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H106" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7562996864774504</v>
+        <v>0.7563125374054205</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09906516809859743</v>
+        <v>0.09905994414413803</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1446351454239522</v>
+        <v>0.1446275184504415</v>
       </c>
       <c r="L106" t="n">
-        <v>2.413534204856303</v>
+        <v>2.413565130666703</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4418306497197445</v>
+        <v>0.4418073508828556</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -5013,25 +5013,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H107" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1946429109719672</v>
+        <v>0.1946355342351596</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5211784390089609</v>
+        <v>0.5211965857815077</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2841786500190721</v>
+        <v>0.2841678799833329</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8681073829349738</v>
+        <v>0.8680744826888116</v>
       </c>
       <c r="M107" t="n">
-        <v>1.847713967045955</v>
+        <v>1.847757637327856</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5052,25 +5052,25 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="H108" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8089720370696631</v>
+        <v>0.8089836434392812</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07765364346761661</v>
+        <v>0.07764892543118651</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1133743194627202</v>
+        <v>0.1133674311295323</v>
       </c>
       <c r="L108" t="n">
-        <v>2.54029043067171</v>
+        <v>2.540318361447376</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3463352498655701</v>
+        <v>0.3463142074230918</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -5091,25 +5091,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H109" t="n">
-        <v>96.8539542681</v>
+        <v>96.8539368501</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1623500542124591</v>
+        <v>0.1623424178803712</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6006188666373506</v>
+        <v>0.6006376520142866</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2370310791501903</v>
+        <v>0.237019930105342</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7240812417875675</v>
+        <v>0.7240471837464557</v>
       </c>
       <c r="M109" t="n">
-        <v>2.038887679062242</v>
+        <v>2.038932886148202</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5130,25 +5130,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H110" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3000402825188436</v>
+        <v>0.3000502987968343</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2845364705207953</v>
+        <v>0.2845323988630755</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4154232469603611</v>
+        <v>0.4154173023400902</v>
       </c>
       <c r="L110" t="n">
-        <v>1.315544094516892</v>
+        <v>1.315568198730593</v>
       </c>
       <c r="M110" t="n">
-        <v>1.269032658522747</v>
+        <v>1.269014498929317</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5169,25 +5169,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H111" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5273899226961274</v>
+        <v>0.5273773603391448</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1921179176032002</v>
+        <v>0.1921230242523802</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2804921597006723</v>
+        <v>0.2804996154084751</v>
       </c>
       <c r="L111" t="n">
-        <v>1.862661927789055</v>
+        <v>1.86263169642591</v>
       </c>
       <c r="M111" t="n">
-        <v>0.856845912510273</v>
+        <v>0.8568686881656158</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -5208,25 +5208,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H112" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I112" t="n">
-        <v>0.4043946850755509</v>
+        <v>0.404407292148925</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2421159816766053</v>
+        <v>0.2421108568500305</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3534893332478438</v>
+        <v>0.3534818510010445</v>
       </c>
       <c r="L112" t="n">
-        <v>1.566673388474497</v>
+        <v>1.566703727447819</v>
       </c>
       <c r="M112" t="n">
-        <v>1.07983727827766</v>
+        <v>1.079814421551136</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5300,25 +5300,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H114" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5892291980495786</v>
+        <v>0.5892316521529352</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1669800007928542</v>
+        <v>0.1669790031898638</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2437908011575672</v>
+        <v>0.2437893446572011</v>
       </c>
       <c r="L114" t="n">
-        <v>2.011478395306303</v>
+        <v>2.011484301116007</v>
       </c>
       <c r="M114" t="n">
-        <v>0.74473080353613</v>
+        <v>0.7447263542267923</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5339,25 +5339,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H115" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2674244774672478</v>
+        <v>0.2674234394158744</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3421357854305704</v>
+        <v>0.342138339036949</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3904397371021818</v>
+        <v>0.3904382215471766</v>
       </c>
       <c r="L115" t="n">
-        <v>1.192713169503925</v>
+        <v>1.1927085397948</v>
       </c>
       <c r="M115" t="n">
-        <v>1.416847093393893</v>
+        <v>1.416853238658024</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5378,25 +5378,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H116" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3397126951668721</v>
+        <v>0.3397000429536879</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2684094735094016</v>
+        <v>0.2684146166854927</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3918778313237263</v>
+        <v>0.3918853403608193</v>
       </c>
       <c r="L116" t="n">
-        <v>1.411015916824343</v>
+        <v>1.410985469221883</v>
       </c>
       <c r="M116" t="n">
-        <v>1.197106251851931</v>
+        <v>1.197129190417297</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5470,25 +5470,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H118" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4126804792779635</v>
+        <v>0.4126804568594952</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2387477726512343</v>
+        <v>0.2387477817644328</v>
       </c>
       <c r="K118" t="n">
-        <v>0.348571748070802</v>
+        <v>0.348571761376072</v>
       </c>
       <c r="L118" t="n">
-        <v>1.586613185904693</v>
+        <v>1.586613131954558</v>
       </c>
       <c r="M118" t="n">
-        <v>1.064815066024505</v>
+        <v>1.064815106669371</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5509,25 +5509,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H119" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I119" t="n">
-        <v>0.4002773466475814</v>
+        <v>0.4002771775857706</v>
       </c>
       <c r="J119" t="n">
-        <v>0.243789696484723</v>
+        <v>0.2437897652090363</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3559329568676956</v>
+        <v>0.355933057205193</v>
       </c>
       <c r="L119" t="n">
-        <v>1.55676499681044</v>
+        <v>1.556764589962505</v>
       </c>
       <c r="M119" t="n">
-        <v>1.087302046321865</v>
+        <v>1.087302352832302</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5601,25 +5601,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H121" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4439413106425914</v>
+        <v>0.443941641987063</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2260401176249629</v>
+        <v>0.2260399829320882</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3300185717324458</v>
+        <v>0.3300183750808488</v>
       </c>
       <c r="L121" t="n">
-        <v>1.66184250366022</v>
+        <v>1.661843301042038</v>
       </c>
       <c r="M121" t="n">
-        <v>1.008138924607334</v>
+        <v>1.008138323877113</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -5640,25 +5640,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H122" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3243923311775781</v>
+        <v>0.3243914131037243</v>
       </c>
       <c r="J122" t="n">
-        <v>0.274637263748952</v>
+        <v>0.2746376369497056</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4009704050734699</v>
+        <v>0.4009709499465701</v>
       </c>
       <c r="L122" t="n">
-        <v>1.374147398606204</v>
+        <v>1.374145189257743</v>
       </c>
       <c r="M122" t="n">
-        <v>1.224882196320326</v>
+        <v>1.224883860795687</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5679,25 +5679,25 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H123" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4979211116600924</v>
+        <v>0.4979220006767299</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2040971090812633</v>
+        <v>0.2040967476923862</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2979817792586444</v>
+        <v>0.2979812516308839</v>
       </c>
       <c r="L123" t="n">
-        <v>1.791745114238922</v>
+        <v>1.791747253661074</v>
       </c>
       <c r="M123" t="n">
-        <v>0.9102731065024341</v>
+        <v>0.9102714947080426</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -5718,25 +5718,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H124" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4798578253959495</v>
+        <v>0.4798586768810905</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2114399083756303</v>
+        <v>0.2114395622434592</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3087022662284202</v>
+        <v>0.3087017608754504</v>
       </c>
       <c r="L124" t="n">
-        <v>1.748275742416269</v>
+        <v>1.748277791518722</v>
       </c>
       <c r="M124" t="n">
-        <v>0.9430219913553112</v>
+        <v>0.9430204476058279</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5757,25 +5757,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H125" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3345930051471526</v>
+        <v>0.334592037019566</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2704906483141656</v>
+        <v>0.270491041861965</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3949163465386818</v>
+        <v>0.394916921118469</v>
       </c>
       <c r="L125" t="n">
-        <v>1.398695361980139</v>
+        <v>1.398693032177167</v>
       </c>
       <c r="M125" t="n">
-        <v>1.206388291481179</v>
+        <v>1.206390046704364</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5849,25 +5849,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H127" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4715743463719411</v>
+        <v>0.4715749730562152</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2148071762715687</v>
+        <v>0.2148069215218638</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3136184773564903</v>
+        <v>0.3136181054219211</v>
       </c>
       <c r="L127" t="n">
-        <v>1.728341516472313</v>
+        <v>1.728343024590567</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9580400061711964</v>
+        <v>0.9580388699875124</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5941,25 +5941,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H129" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3040490020750053</v>
+        <v>0.3040476590678828</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2829069097256077</v>
+        <v>0.2829074556634623</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4130440881993871</v>
+        <v>0.413044885268655</v>
       </c>
       <c r="L129" t="n">
-        <v>1.325191094424403</v>
+        <v>1.325187862472303</v>
       </c>
       <c r="M129" t="n">
-        <v>1.26176481737621</v>
+        <v>1.261767252259042</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -5980,25 +5980,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H130" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I130" t="n">
-        <v>0.629359046948703</v>
+        <v>0.6293620936450732</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1506670540858931</v>
+        <v>0.1506658155914336</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2199738989654039</v>
+        <v>0.2199720907634931</v>
       </c>
       <c r="L130" t="n">
-        <v>2.108051039811513</v>
+        <v>2.108058371698713</v>
       </c>
       <c r="M130" t="n">
-        <v>0.6719750612230833</v>
+        <v>0.671969537537794</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -6072,25 +6072,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H132" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4119251433178108</v>
+        <v>0.4119251118724787</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2390548197895078</v>
+        <v>0.2390548325721631</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3490200368926814</v>
+        <v>0.3490200555553581</v>
       </c>
       <c r="L132" t="n">
-        <v>1.584795466846114</v>
+        <v>1.584795391172794</v>
       </c>
       <c r="M132" t="n">
-        <v>1.066184496261205</v>
+        <v>1.066184553271848</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6111,25 +6111,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H133" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I133" t="n">
-        <v>0.4010558405229473</v>
+        <v>0.4010556806740102</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2434732355597775</v>
+        <v>0.2434733005390202</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3554709239172752</v>
+        <v>0.3554710187869696</v>
       </c>
       <c r="L133" t="n">
-        <v>1.558638445486117</v>
+        <v>1.558638060809</v>
       </c>
       <c r="M133" t="n">
-        <v>1.085890630596608</v>
+        <v>1.08589092040403</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -6150,25 +6150,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H134" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6254068589803354</v>
+        <v>0.6254098481478148</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1522736345608393</v>
+        <v>0.1522724194521079</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2223195064588253</v>
+        <v>0.2223177324000775</v>
       </c>
       <c r="L134" t="n">
-        <v>2.098540083399832</v>
+        <v>2.098547276843522</v>
       </c>
       <c r="M134" t="n">
-        <v>0.6791404101413431</v>
+        <v>0.679134990756401</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6189,25 +6189,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H135" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2526439634754009</v>
+        <v>0.2526426180166401</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3784958498505139</v>
+        <v>0.3784991596790652</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3688601866740852</v>
+        <v>0.3688582223042946</v>
       </c>
       <c r="L135" t="n">
-        <v>1.126792077100288</v>
+        <v>1.126786076354215</v>
       </c>
       <c r="M135" t="n">
-        <v>1.504347736225627</v>
+        <v>1.50435570134149</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6281,25 +6281,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H137" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2838517355898898</v>
+        <v>0.2838510199139729</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3017247304488711</v>
+        <v>0.3017264910116266</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4144235339612392</v>
+        <v>0.4144224890744005</v>
       </c>
       <c r="L137" t="n">
-        <v>1.265978740730909</v>
+        <v>1.265975548816319</v>
       </c>
       <c r="M137" t="n">
-        <v>1.319597725307853</v>
+        <v>1.31960196210928</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6320,25 +6320,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="H138" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I138" t="n">
-        <v>0.5784475997063278</v>
+        <v>0.578462745276484</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1713627643470212</v>
+        <v>0.1713566076111854</v>
       </c>
       <c r="K138" t="n">
-        <v>0.250189635946651</v>
+        <v>0.2501806471123307</v>
       </c>
       <c r="L138" t="n">
-        <v>1.985532435065634</v>
+        <v>1.985568882941783</v>
       </c>
       <c r="M138" t="n">
-        <v>0.7642779289877146</v>
+        <v>0.7642504699458869</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6359,25 +6359,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H139" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2716158056225424</v>
+        <v>0.2716099114457676</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3318251181685457</v>
+        <v>0.3318396178434118</v>
       </c>
       <c r="K139" t="n">
-        <v>0.396559076208912</v>
+        <v>0.3965504707108206</v>
       </c>
       <c r="L139" t="n">
-        <v>1.211406493076539</v>
+        <v>1.211380205048123</v>
       </c>
       <c r="M139" t="n">
-        <v>1.392034430714549</v>
+        <v>1.392069324241056</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6451,25 +6451,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H141" t="n">
-        <v>91.36100993549999</v>
+        <v>91.36094126890001</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2410844527132806</v>
+        <v>0.2410774879644801</v>
       </c>
       <c r="J141" t="n">
-        <v>0.40693224632533</v>
+        <v>0.406949379607379</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3519833009613896</v>
+        <v>0.3519731324281409</v>
       </c>
       <c r="L141" t="n">
-        <v>1.075236659101231</v>
+        <v>1.075205596321581</v>
       </c>
       <c r="M141" t="n">
-        <v>1.572780039937379</v>
+        <v>1.572821271250278</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6490,25 +6490,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H142" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I142" t="n">
-        <v>0.525124081457086</v>
+        <v>0.5251246633620937</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1930389912776073</v>
+        <v>0.1930387547308562</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2818369272653067</v>
+        <v>0.2818365819070501</v>
       </c>
       <c r="L142" t="n">
-        <v>1.857209171636565</v>
+        <v>1.857210571993331</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8609539010981287</v>
+        <v>0.8609528460996188</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6635,25 +6635,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H145" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2219775664027345</v>
+        <v>0.2219812683909209</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4539351866492731</v>
+        <v>0.4539260797583345</v>
       </c>
       <c r="K145" t="n">
-        <v>0.3240872469479923</v>
+        <v>0.3240926518507445</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9900199461561958</v>
+        <v>0.9900364570235072</v>
       </c>
       <c r="M145" t="n">
-        <v>1.685892806895812</v>
+        <v>1.685870891125748</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -6727,25 +6727,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H147" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3660568521830351</v>
+        <v>0.3660814384340446</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2577004665922621</v>
+        <v>0.2576904721812827</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3762426812247028</v>
+        <v>0.3762280893846728</v>
       </c>
       <c r="L147" t="n">
-        <v>1.474413237773808</v>
+        <v>1.474472404686807</v>
       </c>
       <c r="M147" t="n">
-        <v>1.149344081001489</v>
+        <v>1.149299505928521</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6766,25 +6766,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H148" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5336671175718622</v>
+        <v>0.5336546491595914</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1895662123691617</v>
+        <v>0.1895712808294344</v>
       </c>
       <c r="K148" t="n">
-        <v>0.276766670058976</v>
+        <v>0.2767740700109743</v>
       </c>
       <c r="L148" t="n">
-        <v>1.877768022774563</v>
+        <v>1.877738017489748</v>
       </c>
       <c r="M148" t="n">
-        <v>0.8454653071664608</v>
+        <v>0.8454879124992776</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6911,25 +6911,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H151" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3331018392733104</v>
+        <v>0.3331128193425139</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2710968133035324</v>
+        <v>0.2710923498607667</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3958013474231572</v>
+        <v>0.3957948307967194</v>
       </c>
       <c r="L151" t="n">
-        <v>1.395106865243088</v>
+        <v>1.395133288824261</v>
       </c>
       <c r="M151" t="n">
-        <v>1.209091787333754</v>
+        <v>1.20907188037902</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6950,25 +6950,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H152" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4388351360008313</v>
+        <v>0.4388217894933057</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2281157983736458</v>
+        <v>0.228121223783209</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3330490656255229</v>
+        <v>0.3330569867234852</v>
       </c>
       <c r="L152" t="n">
-        <v>1.649554473628017</v>
+        <v>1.649522355203402</v>
       </c>
       <c r="M152" t="n">
-        <v>1.01739646074646</v>
+        <v>1.017420658073112</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -6989,25 +6989,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H153" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3828844087704155</v>
+        <v>0.3828966107728061</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2508599964347905</v>
+        <v>0.2508550362712171</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3662555947947941</v>
+        <v>0.3662483529559769</v>
       </c>
       <c r="L153" t="n">
-        <v>1.51490882110604</v>
+        <v>1.514938185274395</v>
       </c>
       <c r="M153" t="n">
-        <v>1.118835584099166</v>
+        <v>1.118813461769628</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7028,25 +7028,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H154" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6004056471366215</v>
+        <v>0.6003944676535198</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1624367288062514</v>
+        <v>0.1624412733115773</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2371576240571271</v>
+        <v>0.2371642590349029</v>
       </c>
       <c r="L154" t="n">
-        <v>2.038374565466992</v>
+        <v>2.038347661995462</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7244678104758814</v>
+        <v>0.7244880789696349</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7067,25 +7067,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H155" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2665117768890372</v>
+        <v>0.2665157910618388</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3443810288529686</v>
+        <v>0.3443711539878767</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3891071942579943</v>
+        <v>0.3891130549502846</v>
       </c>
       <c r="L155" t="n">
-        <v>1.188642524925106</v>
+        <v>1.188660428135801</v>
       </c>
       <c r="M155" t="n">
-        <v>1.4222502808169</v>
+        <v>1.422226516913915</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7106,25 +7106,25 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H156" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4639528340447835</v>
+        <v>0.4639396041852671</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2179053520143157</v>
+        <v>0.217910730005989</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3181418139409009</v>
+        <v>0.3181496658087439</v>
       </c>
       <c r="L156" t="n">
-        <v>1.710000316075251</v>
+        <v>1.709968478364545</v>
       </c>
       <c r="M156" t="n">
-        <v>0.9718578699838479</v>
+        <v>0.9718818558267108</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -7145,25 +7145,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H157" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3582809901882513</v>
+        <v>0.3582926239367999</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2608613861023369</v>
+        <v>0.2608566569362601</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3808576237094118</v>
+        <v>0.3808507191269399</v>
       </c>
       <c r="L157" t="n">
-        <v>1.455700594274166</v>
+        <v>1.45572859093734</v>
       </c>
       <c r="M157" t="n">
-        <v>1.163441782016422</v>
+        <v>1.16342068993572</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7237,25 +7237,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H159" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2533401836450252</v>
+        <v>0.2533441676968265</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3767831482332381</v>
+        <v>0.3767733474658067</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3698766681217368</v>
+        <v>0.3698824848373668</v>
       </c>
       <c r="L159" t="n">
-        <v>1.129897219056812</v>
+        <v>1.129914987927847</v>
       </c>
       <c r="M159" t="n">
-        <v>1.500226112821451</v>
+        <v>1.500202527234787</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7276,25 +7276,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H160" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I160" t="n">
-        <v>0.7344338597007496</v>
+        <v>0.7344266534332906</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1079537155688009</v>
+        <v>0.1079566449458168</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1576124247304494</v>
+        <v>0.1576167016208926</v>
       </c>
       <c r="L160" t="n">
-        <v>2.360914003832698</v>
+        <v>2.360896661920764</v>
       </c>
       <c r="M160" t="n">
-        <v>0.4814735714368522</v>
+        <v>0.481486636458343</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7315,25 +7315,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H161" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2042019699973105</v>
+        <v>0.2042053948086407</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4976631538066161</v>
+        <v>0.4976547287707439</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2981348761960733</v>
+        <v>0.2981398764206155</v>
       </c>
       <c r="L161" t="n">
-        <v>0.9107407861880048</v>
+        <v>0.9107560608465376</v>
       </c>
       <c r="M161" t="n">
-        <v>1.791124337615922</v>
+        <v>1.791104062732847</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7354,25 +7354,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H162" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5328912598960373</v>
+        <v>0.5328787796088201</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1898816016682775</v>
+        <v>0.1898866749557642</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2772271384356851</v>
+        <v>0.2772345454354156</v>
       </c>
       <c r="L162" t="n">
-        <v>1.875900918123797</v>
+        <v>1.875870884261876</v>
       </c>
       <c r="M162" t="n">
-        <v>0.8468719434405177</v>
+        <v>0.8468945703027082</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7446,25 +7446,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H164" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I164" t="n">
-        <v>0.7311234255875002</v>
+        <v>0.731116103067779</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1092994204928861</v>
+        <v>0.1093023971269191</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1595771539196137</v>
+        <v>0.1595814998053019</v>
       </c>
       <c r="L164" t="n">
-        <v>2.352947430682114</v>
+        <v>2.352929809008639</v>
       </c>
       <c r="M164" t="n">
-        <v>0.4874754153982722</v>
+        <v>0.4874886911860592</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7485,25 +7485,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H165" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2059886425700038</v>
+        <v>0.2059920987159622</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4932679392777906</v>
+        <v>0.493259437158733</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3007434181522056</v>
+        <v>0.3007484641253048</v>
       </c>
       <c r="L165" t="n">
-        <v>0.9187093458622172</v>
+        <v>0.9187247602731914</v>
       </c>
       <c r="M165" t="n">
-        <v>1.780547235985577</v>
+        <v>1.780526775601504</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7524,25 +7524,25 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H166" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I166" t="n">
-        <v>0.661585452482172</v>
+        <v>0.6615758826792466</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1375668892348894</v>
+        <v>0.1375707793986802</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2008476582829385</v>
+        <v>0.2008533379220731</v>
       </c>
       <c r="L166" t="n">
-        <v>2.185604015729455</v>
+        <v>2.185580985959813</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6135483259876068</v>
+        <v>0.6135656761181136</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -7616,25 +7616,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H168" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I168" t="n">
-        <v>0.6908661593163599</v>
+        <v>0.6908687442130035</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1256641628795285</v>
+        <v>0.1256631121085352</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1834696778041116</v>
+        <v>0.1834681436784614</v>
       </c>
       <c r="L168" t="n">
-        <v>2.256068155753191</v>
+        <v>2.256074376317472</v>
       </c>
       <c r="M168" t="n">
-        <v>0.5604621664426971</v>
+        <v>0.5604574800040671</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7708,25 +7708,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="H170" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I170" t="n">
-        <v>0.753063411587191</v>
+        <v>0.7530666628673323</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1003807269970768</v>
+        <v>0.1003794053384828</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1465558614157321</v>
+        <v>0.1465539317941848</v>
       </c>
       <c r="L170" t="n">
-        <v>2.405746096177305</v>
+        <v>2.405753920396182</v>
       </c>
       <c r="M170" t="n">
-        <v>0.4476980424069624</v>
+        <v>0.4476921478096332</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7747,25 +7747,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H171" t="n">
-        <v>94.6440632069</v>
+        <v>94.6436579465</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1938739742207346</v>
+        <v>0.1938716511824548</v>
       </c>
       <c r="J171" t="n">
-        <v>0.523070023416993</v>
+        <v>0.5230757380911611</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2830560023622725</v>
+        <v>0.283052610726384</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8646779250244763</v>
+        <v>0.8646675642737485</v>
       </c>
       <c r="M171" t="n">
-        <v>1.852266072613252</v>
+        <v>1.852279824999868</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7786,25 +7786,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H172" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I172" t="n">
-        <v>0.591514993407652</v>
+        <v>0.5915041917241253</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1660508156879463</v>
+        <v>0.1660552066162093</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2424341909044017</v>
+        <v>0.2424406016596655</v>
       </c>
       <c r="L172" t="n">
-        <v>2.016979171127358</v>
+        <v>2.016953176832041</v>
       </c>
       <c r="M172" t="n">
-        <v>0.7405866379682406</v>
+        <v>0.7406062215082932</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -7825,25 +7825,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H173" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I173" t="n">
-        <v>0.266591736847045</v>
+        <v>0.2665955345176506</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3441843273562694</v>
+        <v>0.3441749850865795</v>
       </c>
       <c r="K173" t="n">
-        <v>0.3892239357966856</v>
+        <v>0.3892294803957698</v>
       </c>
       <c r="L173" t="n">
-        <v>1.18899914633782</v>
+        <v>1.189016083948722</v>
       </c>
       <c r="M173" t="n">
-        <v>1.421776917865494</v>
+        <v>1.421754435655508</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7864,25 +7864,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H174" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3418360512638121</v>
+        <v>0.3418110223213967</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2675463206244667</v>
+        <v>0.2675564949913021</v>
       </c>
       <c r="K174" t="n">
-        <v>0.3906176281117213</v>
+        <v>0.3906324826873011</v>
       </c>
       <c r="L174" t="n">
-        <v>1.416125781903157</v>
+        <v>1.416065549651491</v>
       </c>
       <c r="M174" t="n">
-        <v>1.193256589985122</v>
+        <v>1.193301967661208</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7903,25 +7903,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H175" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4777019356780902</v>
+        <v>0.4777295297453973</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2123162863097195</v>
+        <v>0.2123050692091881</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3099817780121904</v>
+        <v>0.3099654010454146</v>
       </c>
       <c r="L175" t="n">
-        <v>1.743087585046461</v>
+        <v>1.743153990281606</v>
       </c>
       <c r="M175" t="n">
-        <v>0.9469306369413488</v>
+        <v>0.9468806086729789</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -7942,25 +7942,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H176" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I176" t="n">
-        <v>0.414973281500232</v>
+        <v>0.4149599447310798</v>
       </c>
       <c r="J176" t="n">
-        <v>0.237815739227548</v>
+        <v>0.2378211606784229</v>
       </c>
       <c r="K176" t="n">
-        <v>0.34721097927222</v>
+        <v>0.3472188945904974</v>
       </c>
       <c r="L176" t="n">
-        <v>1.592130823772916</v>
+        <v>1.592098728783737</v>
       </c>
       <c r="M176" t="n">
-        <v>1.060658196954864</v>
+        <v>1.060682376625766</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -7981,25 +7981,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H177" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3980976071931053</v>
+        <v>0.3981100744392757</v>
       </c>
       <c r="J177" t="n">
-        <v>0.244675769433697</v>
+        <v>0.2446707014474489</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3572266233731977</v>
+        <v>0.3572192241132754</v>
       </c>
       <c r="L177" t="n">
-        <v>1.551519444952513</v>
+        <v>1.551549447431103</v>
       </c>
       <c r="M177" t="n">
-        <v>1.091253931674289</v>
+        <v>1.091231328455622</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8020,25 +8020,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H178" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3738624809870535</v>
+        <v>0.3738491605166147</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2545274467532304</v>
+        <v>0.2545328615786119</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3716100722597163</v>
+        <v>0.3716179779047734</v>
       </c>
       <c r="L178" t="n">
-        <v>1.493197515220877</v>
+        <v>1.493165459454617</v>
       </c>
       <c r="M178" t="n">
-        <v>1.135192412519407</v>
+        <v>1.135216562640609</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8165,25 +8165,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H181" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4956490984865284</v>
+        <v>0.4956631699849489</v>
       </c>
       <c r="J181" t="n">
-        <v>0.205020691672143</v>
+        <v>0.2050149715508338</v>
       </c>
       <c r="K181" t="n">
-        <v>0.2993302098413287</v>
+        <v>0.2993218584642173</v>
       </c>
       <c r="L181" t="n">
-        <v>1.786277505300914</v>
+        <v>1.786311368419064</v>
       </c>
       <c r="M181" t="n">
-        <v>0.9143922848577576</v>
+        <v>0.9143667731167187</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8204,25 +8204,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H182" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4822174177777084</v>
+        <v>0.482204576052724</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2104807244806064</v>
+        <v>0.2104859446940146</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3073018577416853</v>
+        <v>0.3073094792532614</v>
       </c>
       <c r="L182" t="n">
-        <v>1.75395411107481</v>
+        <v>1.753923207411433</v>
       </c>
       <c r="M182" t="n">
-        <v>0.9387440311835044</v>
+        <v>0.9387673133353052</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8296,25 +8296,25 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H184" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3491550861431786</v>
+        <v>0.3491418988914591</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2645711031938298</v>
+        <v>0.2645764638652606</v>
       </c>
       <c r="K184" t="n">
-        <v>0.3862738106629915</v>
+        <v>0.3862816372432804</v>
       </c>
       <c r="L184" t="n">
-        <v>1.433739069092527</v>
+        <v>1.433707333917658</v>
       </c>
       <c r="M184" t="n">
-        <v>1.179987120244481</v>
+        <v>1.180011028839062</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -8335,25 +8335,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H185" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4693101794995903</v>
+        <v>0.4693239397306908</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2157275693091097</v>
+        <v>0.2157219757192314</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3149622511913001</v>
+        <v>0.3149540845500778</v>
       </c>
       <c r="L185" t="n">
-        <v>1.722892789690071</v>
+        <v>1.72292590374215</v>
       </c>
       <c r="M185" t="n">
-        <v>0.9621449591186291</v>
+        <v>0.9621200117077719</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8374,25 +8374,25 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H186" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5160040563265653</v>
+        <v>0.5159916913901534</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1967463185664369</v>
+        <v>0.1967513449633523</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2872496251069979</v>
+        <v>0.2872569636464943</v>
       </c>
       <c r="L186" t="n">
-        <v>1.835261794086694</v>
+        <v>1.835232037816955</v>
       </c>
       <c r="M186" t="n">
-        <v>0.8774885808063086</v>
+        <v>0.8775109985365512</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -8413,25 +8413,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H187" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3021292901772796</v>
+        <v>0.3021390708960166</v>
       </c>
       <c r="J187" t="n">
-        <v>0.28368728041574</v>
+        <v>0.2836833045138144</v>
       </c>
       <c r="K187" t="n">
-        <v>0.4141834294069804</v>
+        <v>0.414177624590169</v>
       </c>
       <c r="L187" t="n">
-        <v>1.320571299938819</v>
+        <v>1.320594837278219</v>
       </c>
       <c r="M187" t="n">
-        <v>1.2652452706542</v>
+        <v>1.265227538131612</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8452,25 +8452,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H188" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6315611662584982</v>
+        <v>0.6315514437818801</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1497718836347568</v>
+        <v>0.1497758358610244</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2186669501067449</v>
+        <v>0.2186727203570955</v>
       </c>
       <c r="L188" t="n">
-        <v>2.11335044888224</v>
+        <v>2.113327051702736</v>
       </c>
       <c r="M188" t="n">
-        <v>0.6679826010110153</v>
+        <v>0.6680002279401686</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8544,25 +8544,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H190" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4142167086744643</v>
+        <v>0.4142033699513217</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2381232891567218</v>
+        <v>0.2381287114019018</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3476600021688139</v>
+        <v>0.3476679186467765</v>
       </c>
       <c r="L190" t="n">
-        <v>1.590310128192207</v>
+        <v>1.590278028500742</v>
       </c>
       <c r="M190" t="n">
-        <v>1.062029869638979</v>
+        <v>1.062054052852482</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -8583,25 +8583,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H191" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3988746813057442</v>
+        <v>0.3988871660650378</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2443598856480715</v>
+        <v>0.2443548105426676</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3567654330461844</v>
+        <v>0.3567580233922947</v>
       </c>
       <c r="L191" t="n">
-        <v>1.553389476963417</v>
+        <v>1.553419521587408</v>
       </c>
       <c r="M191" t="n">
-        <v>1.089845089990399</v>
+        <v>1.089822455020297</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8675,25 +8675,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H193" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2517739290372442</v>
+        <v>0.2517776343496503</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3806361345683795</v>
+        <v>0.3806270194998603</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3675899363943765</v>
+        <v>0.3675953461504894</v>
       </c>
       <c r="L193" t="n">
-        <v>1.122911723506109</v>
+        <v>1.12292824919944</v>
       </c>
       <c r="M193" t="n">
-        <v>1.509498340099515</v>
+        <v>1.50947640465007</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8714,25 +8714,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H194" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I194" t="n">
-        <v>0.5478658689503377</v>
+        <v>0.5478540833671628</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1837943622153099</v>
+        <v>0.1837991531027793</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2683397688343525</v>
+        <v>0.2683467635300578</v>
       </c>
       <c r="L194" t="n">
-        <v>1.911937375685366</v>
+        <v>1.911909013631546</v>
       </c>
       <c r="M194" t="n">
-        <v>0.8197228554802822</v>
+        <v>0.8197442228383958</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8753,25 +8753,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H195" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2830719551863988</v>
+        <v>0.2830757695525444</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3036429902414589</v>
+        <v>0.3036336069007407</v>
       </c>
       <c r="K195" t="n">
-        <v>0.4132850545721422</v>
+        <v>0.4132906235467149</v>
       </c>
       <c r="L195" t="n">
-        <v>1.262500920131339</v>
+        <v>1.262517932204348</v>
       </c>
       <c r="M195" t="n">
-        <v>1.324214025296519</v>
+        <v>1.324191444248937</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -8792,25 +8792,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="H196" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I196" t="n">
-        <v>0.5807507025604388</v>
+        <v>0.5807524721770052</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1704265436746184</v>
+        <v>0.1704258243182906</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2488227537649428</v>
+        <v>0.2488217035047042</v>
       </c>
       <c r="L196" t="n">
-        <v>1.991074861446259</v>
+        <v>1.99107912003572</v>
       </c>
       <c r="M196" t="n">
-        <v>0.760102384788798</v>
+        <v>0.760099176459576</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8937,25 +8937,25 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H199" t="n">
-        <v>91.424629044</v>
+        <v>91.4241912386</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2401920819018085</v>
+        <v>0.2401902876813727</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4091274785215511</v>
+        <v>0.4091318923038232</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3506804395766405</v>
+        <v>0.3506778200148041</v>
       </c>
       <c r="L199" t="n">
-        <v>1.071256685282066</v>
+        <v>1.071248683058922</v>
       </c>
       <c r="M199" t="n">
-        <v>1.578062875141294</v>
+        <v>1.578073496926274</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -8976,25 +8976,25 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H200" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I200" t="n">
-        <v>0.240166628161336</v>
+        <v>0.2401600084921684</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4091900947231134</v>
+        <v>0.4092063791092657</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3506432771155505</v>
+        <v>0.3506336123985659</v>
       </c>
       <c r="L200" t="n">
-        <v>1.071143161599559</v>
+        <v>1.071113637875071</v>
       </c>
       <c r="M200" t="n">
-        <v>1.578213561284891</v>
+        <v>1.578252749726363</v>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
@@ -9068,25 +9068,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H202" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I202" t="n">
-        <v>0.26972118529443</v>
+        <v>0.269720182834095</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3364858841757023</v>
+        <v>0.3364883502281263</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3937929305298677</v>
+        <v>0.3937914669377787</v>
       </c>
       <c r="L202" t="n">
-        <v>1.202956486413158</v>
+        <v>1.202952015440064</v>
       </c>
       <c r="M202" t="n">
-        <v>1.403250583056975</v>
+        <v>1.403256517622158</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9160,25 +9160,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H204" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I204" t="n">
-        <v>0.2536770478504511</v>
+        <v>0.2536758067589029</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3759544622878903</v>
+        <v>0.3759575153730987</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3703684898616585</v>
+        <v>0.3703666778679984</v>
       </c>
       <c r="L204" t="n">
-        <v>1.131399633413012</v>
+        <v>1.131394098144707</v>
       </c>
       <c r="M204" t="n">
-        <v>1.498231876725329</v>
+        <v>1.498239223987295</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9199,25 +9199,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H205" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I205" t="n">
-        <v>0.625672690210504</v>
+        <v>0.6256754711645524</v>
       </c>
       <c r="J205" t="n">
-        <v>0.152165573085161</v>
+        <v>0.1521644426160357</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2221617367043351</v>
+        <v>0.222160086219412</v>
       </c>
       <c r="L205" t="n">
-        <v>2.099179807335847</v>
+        <v>2.099186499713069</v>
       </c>
       <c r="M205" t="n">
-        <v>0.678658455959818</v>
+        <v>0.6786534140675189</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9291,25 +9291,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H207" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I207" t="n">
-        <v>0.674928735386047</v>
+        <v>0.6749318262501477</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1321427904934768</v>
+        <v>0.1321415340446555</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1929284741204761</v>
+        <v>0.1929266397051969</v>
       </c>
       <c r="L207" t="n">
-        <v>2.217714680278617</v>
+        <v>2.21772211845564</v>
       </c>
       <c r="M207" t="n">
-        <v>0.5893568456009066</v>
+        <v>0.5893512418391633</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9383,25 +9383,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H209" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I209" t="n">
-        <v>0.5128457432860004</v>
+        <v>0.5128472880961196</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1980301856560974</v>
+        <v>0.1980295576845042</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2891240710579022</v>
+        <v>0.2891231542193761</v>
       </c>
       <c r="L209" t="n">
-        <v>1.827661300915904</v>
+        <v>1.827665018507735</v>
       </c>
       <c r="M209" t="n">
-        <v>0.8832146280261943</v>
+        <v>0.8832118272728888</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9422,25 +9422,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H210" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I210" t="n">
-        <v>0.2433379203543782</v>
+        <v>0.2433365391775264</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4013887159282296</v>
+        <v>0.4013921136232852</v>
       </c>
       <c r="K210" t="n">
-        <v>0.3552733637173921</v>
+        <v>0.3552713471991885</v>
       </c>
       <c r="L210" t="n">
-        <v>1.085287124780527</v>
+        <v>1.085280964731768</v>
       </c>
       <c r="M210" t="n">
-        <v>1.559439511502081</v>
+        <v>1.559447688069044</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9461,25 +9461,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H211" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I211" t="n">
-        <v>0.6513668832651894</v>
+        <v>0.651369845981837</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1417207791604921</v>
+        <v>0.1417195748041313</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2069123375743185</v>
+        <v>0.2069105792140317</v>
       </c>
       <c r="L211" t="n">
-        <v>2.161012987369887</v>
+        <v>2.161020117159543</v>
       </c>
       <c r="M211" t="n">
-        <v>0.6320746750557948</v>
+        <v>0.6320693036264255</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9500,25 +9500,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H212" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3287492882948824</v>
+        <v>0.3287480481271023</v>
       </c>
       <c r="J212" t="n">
-        <v>0.27286614296956</v>
+        <v>0.2728666471028039</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3983845687355576</v>
+        <v>0.3983853047700937</v>
       </c>
       <c r="L212" t="n">
-        <v>1.384632433620205</v>
+        <v>1.384629449151401</v>
       </c>
       <c r="M212" t="n">
-        <v>1.216982997644238</v>
+        <v>1.216985246078505</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9539,25 +9539,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H213" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I213" t="n">
-        <v>0.477711755897921</v>
+        <v>0.4777128000411093</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2123122943504386</v>
+        <v>0.2123118699019881</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3099759497516404</v>
+        <v>0.3099753300569026</v>
       </c>
       <c r="L213" t="n">
-        <v>1.743111217445403</v>
+        <v>1.743113730180231</v>
       </c>
       <c r="M213" t="n">
-        <v>0.9469128328029564</v>
+        <v>0.9469109397628668</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9578,25 +9578,25 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H214" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4405413512445173</v>
+        <v>0.4405418708081602</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2274222149412531</v>
+        <v>0.2274220037365202</v>
       </c>
       <c r="K214" t="n">
-        <v>0.3320364338142295</v>
+        <v>0.3320361254553195</v>
       </c>
       <c r="L214" t="n">
-        <v>1.653660487547782</v>
+        <v>1.6536617378798</v>
       </c>
       <c r="M214" t="n">
-        <v>1.014303078637989</v>
+        <v>1.01430213666488</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -9617,25 +9617,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H215" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3582220418513565</v>
+        <v>0.3582211562275153</v>
       </c>
       <c r="J215" t="n">
-        <v>0.260885348840912</v>
+        <v>0.2608857088506036</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3808926093077314</v>
+        <v>0.3808931349218812</v>
       </c>
       <c r="L215" t="n">
-        <v>1.455558734861801</v>
+        <v>1.455556603604427</v>
       </c>
       <c r="M215" t="n">
-        <v>1.163548655830467</v>
+        <v>1.163550261473692</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9709,25 +9709,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H217" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I217" t="n">
-        <v>0.5836585876532775</v>
+        <v>0.5836609851645806</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1692444765637083</v>
+        <v>0.1692435019656177</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2470969357830141</v>
+        <v>0.2470955128698018</v>
       </c>
       <c r="L217" t="n">
-        <v>1.998072698742847</v>
+        <v>1.998078468363544</v>
       </c>
       <c r="M217" t="n">
-        <v>0.754830365474139</v>
+        <v>0.7548260187666548</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9748,25 +9748,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H218" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4363788608516653</v>
+        <v>0.4363793051314698</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2291142842066401</v>
+        <v>0.2291141036050936</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3345068549416945</v>
+        <v>0.3345065912634366</v>
       </c>
       <c r="L218" t="n">
-        <v>1.64364343749669</v>
+        <v>1.643644506657846</v>
       </c>
       <c r="M218" t="n">
-        <v>1.021849707561615</v>
+        <v>1.021848902078717</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -9840,25 +9840,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="H220" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3575913481373444</v>
+        <v>0.3575905009856011</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2611417283994535</v>
+        <v>0.2611420727700809</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3812669234632021</v>
+        <v>0.3812674262443181</v>
       </c>
       <c r="L220" t="n">
-        <v>1.454040967875235</v>
+        <v>1.454038929201121</v>
       </c>
       <c r="M220" t="n">
-        <v>1.164692108661562</v>
+        <v>1.164693644554561</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9985,25 +9985,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H223" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I223" t="n">
-        <v>0.4105958863521382</v>
+        <v>0.4105826087756654</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2395951681495373</v>
+        <v>0.2396005655383474</v>
       </c>
       <c r="K223" t="n">
-        <v>0.3498089454983245</v>
+        <v>0.3498168256859872</v>
       </c>
       <c r="L223" t="n">
-        <v>1.581596604554739</v>
+        <v>1.581564652012983</v>
       </c>
       <c r="M223" t="n">
-        <v>1.068594449946936</v>
+        <v>1.068618522301029</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10077,25 +10077,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H225" t="n">
-        <v>86.1888620081</v>
+        <v>86.18871961950001</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3351947405268229</v>
+        <v>0.3351812676697762</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2702460404362509</v>
+        <v>0.270251517207408</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3945592190369263</v>
+        <v>0.3945672151228157</v>
       </c>
       <c r="L225" t="n">
-        <v>1.400143440617395</v>
+        <v>1.400111018132144</v>
       </c>
       <c r="M225" t="n">
-        <v>1.205297340345679</v>
+        <v>1.20532176674504</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10116,25 +10116,25 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H226" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I226" t="n">
-        <v>0.4862634722218669</v>
+        <v>0.4862780016896647</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2088359869016801</v>
+        <v>0.2088300806139575</v>
       </c>
       <c r="K226" t="n">
-        <v>0.304900540876453</v>
+        <v>0.3048919176963779</v>
       </c>
       <c r="L226" t="n">
-        <v>1.763690957542054</v>
+        <v>1.763725922765372</v>
       </c>
       <c r="M226" t="n">
-        <v>0.9314085015814932</v>
+        <v>0.9313821595382503</v>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
@@ -10155,25 +10155,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H227" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I227" t="n">
-        <v>0.3338582466868718</v>
+        <v>0.3338456329122223</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2707893306150927</v>
+        <v>0.2707944581657633</v>
       </c>
       <c r="K227" t="n">
-        <v>0.3953524226980354</v>
+        <v>0.3953599089220144</v>
       </c>
       <c r="L227" t="n">
-        <v>1.396927162758651</v>
+        <v>1.396896807658681</v>
       </c>
       <c r="M227" t="n">
-        <v>1.207720414543314</v>
+        <v>1.207743283419304</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10194,25 +10194,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H228" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I228" t="n">
-        <v>0.44344343642428</v>
+        <v>0.4434573052048045</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2262425055185854</v>
+        <v>0.226236867802925</v>
       </c>
       <c r="K228" t="n">
-        <v>0.3303140580571347</v>
+        <v>0.3303058269922705</v>
       </c>
       <c r="L228" t="n">
-        <v>1.660644367329974</v>
+        <v>1.660677742606684</v>
       </c>
       <c r="M228" t="n">
-        <v>1.009041574612891</v>
+        <v>1.009016430401046</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10233,25 +10233,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H229" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I229" t="n">
-        <v>0.3748049688987224</v>
+        <v>0.374792158039817</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2541443215858852</v>
+        <v>0.2541495292521069</v>
       </c>
       <c r="K229" t="n">
-        <v>0.3710507095153924</v>
+        <v>0.371058312708076</v>
       </c>
       <c r="L229" t="n">
-        <v>1.49546561621156</v>
+        <v>1.495434786827527</v>
       </c>
       <c r="M229" t="n">
-        <v>1.133483674273048</v>
+        <v>1.133506900464397</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10272,25 +10272,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H230" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I230" t="n">
-        <v>0.3927604605196915</v>
+        <v>0.3927733551261858</v>
       </c>
       <c r="J230" t="n">
-        <v>0.246845341252158</v>
+        <v>0.2468400995422008</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3603941982281506</v>
+        <v>0.3603865453316133</v>
       </c>
       <c r="L230" t="n">
-        <v>1.538675579787225</v>
+        <v>1.538706610710171</v>
       </c>
       <c r="M230" t="n">
-        <v>1.100930221984624</v>
+        <v>1.100906843958216</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10364,25 +10364,25 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H232" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I232" t="n">
-        <v>0.5541179460870624</v>
+        <v>0.5541331818563938</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1812528674442836</v>
+        <v>0.1812466740421163</v>
       </c>
       <c r="K232" t="n">
-        <v>0.264629186468654</v>
+        <v>0.2646201441014898</v>
       </c>
       <c r="L232" t="n">
-        <v>1.926983024729841</v>
+        <v>1.927019689670671</v>
       </c>
       <c r="M232" t="n">
-        <v>0.8083877888015046</v>
+        <v>0.8083601662278387</v>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -10456,25 +10456,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H234" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I234" t="n">
-        <v>0.4172016054067089</v>
+        <v>0.4172149945581868</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2369099165013379</v>
+        <v>0.2369044737568346</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3458884780919533</v>
+        <v>0.3458805316849786</v>
       </c>
       <c r="L234" t="n">
-        <v>1.59749329431208</v>
+        <v>1.597525515359539</v>
       </c>
       <c r="M234" t="n">
-        <v>1.056618227595967</v>
+        <v>1.056593952955482</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10495,25 +10495,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H235" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I235" t="n">
-        <v>0.401239850721852</v>
+        <v>0.4012269978923886</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2433984346659138</v>
+        <v>0.243403659393338</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3553617146122341</v>
+        <v>0.3553693427142735</v>
       </c>
       <c r="L235" t="n">
-        <v>1.55908126677779</v>
+        <v>1.559050336391439</v>
       </c>
       <c r="M235" t="n">
-        <v>1.085557018609976</v>
+        <v>1.085580320894288</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10534,25 +10534,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H236" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I236" t="n">
-        <v>0.5872289124551409</v>
+        <v>0.587244325358137</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1677931250182354</v>
+        <v>0.1677868596105135</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2449779625266237</v>
+        <v>0.2449688150313496</v>
       </c>
       <c r="L236" t="n">
-        <v>2.006664699892046</v>
+        <v>2.006701791105761</v>
       </c>
       <c r="M236" t="n">
-        <v>0.7483573375813299</v>
+        <v>0.74832939386289</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10573,25 +10573,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H237" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I237" t="n">
-        <v>0.2703342091438176</v>
+        <v>0.2703285619702862</v>
       </c>
       <c r="J237" t="n">
-        <v>0.3349778455062086</v>
+        <v>0.334991737553096</v>
       </c>
       <c r="K237" t="n">
-        <v>0.3946879453499738</v>
+        <v>0.3946797004766179</v>
       </c>
       <c r="L237" t="n">
-        <v>1.205690572781427</v>
+        <v>1.205665386387476</v>
       </c>
       <c r="M237" t="n">
-        <v>1.3996214818686</v>
+        <v>1.399654913135906</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -10612,25 +10612,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H238" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I238" t="n">
-        <v>0.6958056394036101</v>
+        <v>0.6958207337928985</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1236562441448739</v>
+        <v>0.1236501082142689</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1805381164515159</v>
+        <v>0.1805291579928326</v>
       </c>
       <c r="L238" t="n">
-        <v>2.267955034662346</v>
+        <v>2.267991359371528</v>
       </c>
       <c r="M238" t="n">
-        <v>0.5515068488861377</v>
+        <v>0.5514794826356395</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10651,25 +10651,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H239" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2226922913865422</v>
+        <v>0.2226852025813547</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4521769631891062</v>
+        <v>0.4521944016498672</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3251307454243516</v>
+        <v>0.3251203957687779</v>
       </c>
       <c r="L239" t="n">
-        <v>0.9932076195839783</v>
+        <v>0.9931760035128422</v>
       </c>
       <c r="M239" t="n">
-        <v>1.68166163499167</v>
+        <v>1.68170360071838</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10743,25 +10743,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H241" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3345796299357102</v>
+        <v>0.334567011234331</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2704960853919878</v>
+        <v>0.270501214945394</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3949242846723021</v>
+        <v>0.3949317738202752</v>
       </c>
       <c r="L241" t="n">
-        <v>1.398663174479433</v>
+        <v>1.398632807523268</v>
       </c>
       <c r="M241" t="n">
-        <v>1.206412540848266</v>
+        <v>1.206435418656457</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10782,25 +10782,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H242" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I242" t="n">
-        <v>0.6922154776827528</v>
+        <v>0.6922306071444913</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1251156594785558</v>
+        <v>0.1251095092908572</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1826688628386914</v>
+        <v>0.1826598835646515</v>
       </c>
       <c r="L242" t="n">
-        <v>2.25931529588695</v>
+        <v>2.259351704998125</v>
       </c>
       <c r="M242" t="n">
-        <v>0.5580158412743588</v>
+        <v>0.5579884114372231</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10821,25 +10821,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H243" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I243" t="n">
-        <v>0.2244612432057587</v>
+        <v>0.22445419839117</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4478253417138335</v>
+        <v>0.4478426719577219</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3277134150804077</v>
+        <v>0.3277031296511081</v>
       </c>
       <c r="L243" t="n">
-        <v>1.001097144697684</v>
+        <v>1.001065724824618</v>
       </c>
       <c r="M243" t="n">
-        <v>1.671189440221908</v>
+        <v>1.671231145524274</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10913,25 +10913,25 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H245" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I245" t="n">
-        <v>0.2580258863907925</v>
+        <v>0.2580198197539781</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3652563194786506</v>
+        <v>0.3652712434052137</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3767177941305569</v>
+        <v>0.3767089368408081</v>
       </c>
       <c r="L245" t="n">
-        <v>1.150795453302934</v>
+        <v>1.150768396102743</v>
       </c>
       <c r="M245" t="n">
-        <v>1.472486752566509</v>
+        <v>1.472522667056449</v>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -10952,25 +10952,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H246" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6489300179862353</v>
+        <v>0.6489574391989275</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1427113748023434</v>
+        <v>0.1427002279679156</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2083586072114213</v>
+        <v>0.2083423328331568</v>
       </c>
       <c r="L246" t="n">
-        <v>2.155148661170127</v>
+        <v>2.155214650429939</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6364927316184514</v>
+        <v>0.6364430167369037</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11044,25 +11044,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="H248" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I248" t="n">
-        <v>0.7160974810250311</v>
+        <v>0.7161230448057498</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1154075280386052</v>
+        <v>0.1153971362578253</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1684949909363636</v>
+        <v>0.1684798189364249</v>
       </c>
       <c r="L248" t="n">
-        <v>2.316787434011457</v>
+        <v>2.316848953353674</v>
       </c>
       <c r="M248" t="n">
-        <v>0.5147175750521793</v>
+        <v>0.5146712277099008</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11083,25 +11083,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H249" t="n">
-        <v>93.3663445147</v>
+        <v>93.3666679438</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2124110266516515</v>
+        <v>0.2123981457126329</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4774688744369373</v>
+        <v>0.477500561546923</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3101200989114112</v>
+        <v>0.3101012927404441</v>
       </c>
       <c r="L249" t="n">
-        <v>0.9473531788663656</v>
+        <v>0.9472957298783428</v>
       </c>
       <c r="M249" t="n">
-        <v>1.742526722222223</v>
+        <v>1.742602977381213</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11175,25 +11175,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H251" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I251" t="n">
-        <v>0.4501713483001426</v>
+        <v>0.4501717547569256</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2235075819918119</v>
+        <v>0.2235074167654774</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3263210697080454</v>
+        <v>0.326320828477597</v>
       </c>
       <c r="L251" t="n">
-        <v>1.676835114608473</v>
+        <v>1.676836092748374</v>
       </c>
       <c r="M251" t="n">
-        <v>0.9968438156834812</v>
+        <v>0.9968430787740293</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11214,25 +11214,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H252" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3186744807519671</v>
+        <v>0.3186735035116106</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2769615931902573</v>
+        <v>0.2769619904424347</v>
       </c>
       <c r="K252" t="n">
-        <v>0.4043639260577756</v>
+        <v>0.4043645060459546</v>
       </c>
       <c r="L252" t="n">
-        <v>1.360387368313677</v>
+        <v>1.360385016580786</v>
       </c>
       <c r="M252" t="n">
-        <v>1.235248705628547</v>
+        <v>1.235250477373259</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11253,25 +11253,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H253" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I253" t="n">
-        <v>0.5042217672449124</v>
+        <v>0.5042227311795986</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2015358669736129</v>
+        <v>0.2015354751302445</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2942423657814748</v>
+        <v>0.294241793690157</v>
       </c>
       <c r="L253" t="n">
-        <v>1.806907667516212</v>
+        <v>1.806909987228953</v>
       </c>
       <c r="M253" t="n">
-        <v>0.8988499667023134</v>
+        <v>0.8988482190808904</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11292,25 +11292,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H254" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4733194871027292</v>
+        <v>0.4733202597952037</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2140977694704353</v>
+        <v>0.2140974553678034</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3125827434268355</v>
+        <v>0.312582284836993</v>
       </c>
       <c r="L254" t="n">
-        <v>1.732541204735023</v>
+        <v>1.732543064222604</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9548760518381414</v>
+        <v>0.9548746509404031</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11331,25 +11331,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H255" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3402274205704157</v>
+        <v>0.340226511791774</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2682002355404814</v>
+        <v>0.2682006049626935</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3915723438891029</v>
+        <v>0.3915728832455325</v>
       </c>
       <c r="L255" t="n">
-        <v>1.41225460560035</v>
+        <v>1.412252418620854</v>
       </c>
       <c r="M255" t="n">
-        <v>1.196173050510547</v>
+        <v>1.196174698133613</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11370,25 +11370,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H256" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3410949930977198</v>
+        <v>0.3410942065455695</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2678475637814147</v>
+        <v>0.2678478835180612</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3910574431208654</v>
+        <v>0.3910579099363693</v>
       </c>
       <c r="L256" t="n">
-        <v>1.414342422414025</v>
+        <v>1.414340529573078</v>
       </c>
       <c r="M256" t="n">
-        <v>1.19460013446511</v>
+        <v>1.194601560490553</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11409,25 +11409,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H257" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I257" t="n">
-        <v>0.4778589194359121</v>
+        <v>0.4778596217438021</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2122524717740194</v>
+        <v>0.2122521862830073</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3098886087900684</v>
+        <v>0.3098881919731906</v>
       </c>
       <c r="L257" t="n">
-        <v>1.743465367097805</v>
+        <v>1.743467057204597</v>
       </c>
       <c r="M257" t="n">
-        <v>0.9466460241121267</v>
+        <v>0.9466447508222124</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11448,25 +11448,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H258" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I258" t="n">
-        <v>0.5070932551925269</v>
+        <v>0.5070945102315599</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2003685954501923</v>
+        <v>0.2003680852717236</v>
       </c>
       <c r="K258" t="n">
-        <v>0.2925381493572808</v>
+        <v>0.2925374044967164</v>
       </c>
       <c r="L258" t="n">
-        <v>1.813817914934861</v>
+        <v>1.813820935191396</v>
       </c>
       <c r="M258" t="n">
-        <v>0.8936439357078576</v>
+        <v>0.8936416603118873</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11540,25 +11540,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H260" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I260" t="n">
-        <v>0.6232244110357885</v>
+        <v>0.6232274047361926</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1531608085220372</v>
+        <v>0.1531595915706534</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2236147804421743</v>
+        <v>0.223613003693154</v>
       </c>
       <c r="L260" t="n">
-        <v>2.09328801354954</v>
+        <v>2.093295217901732</v>
       </c>
       <c r="M260" t="n">
-        <v>0.6830972060082858</v>
+        <v>0.6830917784051141</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11579,25 +11579,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H261" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I261" t="n">
-        <v>0.2533720085282468</v>
+        <v>0.2533706642520937</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3767048590205128</v>
+        <v>0.3767081659398494</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3699231324512403</v>
+        <v>0.3699211698080568</v>
       </c>
       <c r="L261" t="n">
-        <v>1.130039158035981</v>
+        <v>1.130033162564338</v>
       </c>
       <c r="M261" t="n">
-        <v>1.500037709512779</v>
+        <v>1.500045667627605</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11618,25 +11618,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H262" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4055906557915996</v>
+        <v>0.4055905493058728</v>
       </c>
       <c r="J262" t="n">
-        <v>0.241629814718862</v>
+        <v>0.2416298580057428</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3527795294895385</v>
+        <v>0.3527795926883844</v>
       </c>
       <c r="L262" t="n">
-        <v>1.569551496864337</v>
+        <v>1.569551240606003</v>
       </c>
       <c r="M262" t="n">
-        <v>1.077668973646124</v>
+        <v>1.077669166705613</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -11710,25 +11710,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H264" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I264" t="n">
-        <v>0.6192463835075506</v>
+        <v>0.6192493183706644</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1547778928831095</v>
+        <v>0.1547766998493234</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2259757236093399</v>
+        <v>0.2259739817800121</v>
       </c>
       <c r="L264" t="n">
-        <v>2.083714874131992</v>
+        <v>2.083721936892005</v>
       </c>
       <c r="M264" t="n">
-        <v>0.6903094022586685</v>
+        <v>0.6903040813279823</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11802,25 +11802,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H266" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I266" t="n">
-        <v>0.5390176176547585</v>
+        <v>0.5390193454032765</v>
       </c>
       <c r="J266" t="n">
-        <v>0.187391212335464</v>
+        <v>0.1873905099986681</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2735911700097775</v>
+        <v>0.2735901445980554</v>
       </c>
       <c r="L266" t="n">
-        <v>1.890644022974053</v>
+        <v>1.890648180807885</v>
       </c>
       <c r="M266" t="n">
-        <v>0.8357648070161696</v>
+        <v>0.8357616745940597</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11894,25 +11894,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H268" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I268" t="n">
-        <v>0.5720433035719665</v>
+        <v>0.5720584326593687</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1739661367593632</v>
+        <v>0.1739599867238338</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2539905596686703</v>
+        <v>0.2539815806167974</v>
       </c>
       <c r="L268" t="n">
-        <v>1.97012047038457</v>
+        <v>1.970156878594904</v>
       </c>
       <c r="M268" t="n">
-        <v>0.7758889699467599</v>
+        <v>0.7758615407882989</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -11933,25 +11933,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H269" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I269" t="n">
-        <v>0.273877625420638</v>
+        <v>0.2738718086135388</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3262610414652306</v>
+        <v>0.3262753508106946</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3998613331141314</v>
+        <v>0.3998528405757666</v>
       </c>
       <c r="L269" t="n">
-        <v>1.221494209376045</v>
+        <v>1.221468266416383</v>
       </c>
       <c r="M269" t="n">
-        <v>1.378644457509823</v>
+        <v>1.378678893007851</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -11972,25 +11972,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="H270" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6458939200061939</v>
+        <v>0.6459092849911831</v>
       </c>
       <c r="J270" t="n">
-        <v>0.143945560973092</v>
+        <v>0.1439393150442345</v>
       </c>
       <c r="K270" t="n">
-        <v>0.2101605190207142</v>
+        <v>0.2101513999645824</v>
       </c>
       <c r="L270" t="n">
-        <v>2.147842279039296</v>
+        <v>2.147879254938132</v>
       </c>
       <c r="M270" t="n">
-        <v>0.6419972019399901</v>
+        <v>0.641969345097286</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12011,25 +12011,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H271" t="n">
-        <v>91.1845884344</v>
+        <v>91.18451766859999</v>
       </c>
       <c r="I271" t="n">
-        <v>0.2435510847262838</v>
+        <v>0.2435441829103614</v>
       </c>
       <c r="J271" t="n">
-        <v>0.4008643315733419</v>
+        <v>0.4008813100405109</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3555845837003743</v>
+        <v>0.3555745070491276</v>
       </c>
       <c r="L271" t="n">
-        <v>1.086237837879226</v>
+        <v>1.086207055780212</v>
       </c>
       <c r="M271" t="n">
-        <v>1.5581775784204</v>
+        <v>1.55821843717066</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12050,25 +12050,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H272" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I272" t="n">
-        <v>0.358761902048305</v>
+        <v>0.3587613374110725</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2606658934762988</v>
+        <v>0.2606661230036291</v>
       </c>
       <c r="K272" t="n">
-        <v>0.3805722044753962</v>
+        <v>0.3805725395852984</v>
       </c>
       <c r="L272" t="n">
-        <v>1.456857910620311</v>
+        <v>1.456856551818516</v>
       </c>
       <c r="M272" t="n">
-        <v>1.162569884904292</v>
+        <v>1.162570908596186</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -12089,25 +12089,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H273" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4612401358626202</v>
+        <v>0.4612406050793686</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2190080748525934</v>
+        <v>0.2190078841140778</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3197517892847864</v>
+        <v>0.3197515108065536</v>
       </c>
       <c r="L273" t="n">
-        <v>1.703472196872647</v>
+        <v>1.70347332604466</v>
       </c>
       <c r="M273" t="n">
-        <v>0.9767760138425667</v>
+        <v>0.9767751631487869</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12128,25 +12128,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H274" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5180682883533866</v>
+        <v>0.5180695732001102</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1959071998563469</v>
+        <v>0.1959066775609308</v>
       </c>
       <c r="K274" t="n">
-        <v>0.2860245117902665</v>
+        <v>0.286023749238959</v>
       </c>
       <c r="L274" t="n">
-        <v>1.840229376850426</v>
+        <v>1.840232468839289</v>
       </c>
       <c r="M274" t="n">
-        <v>0.8737461113593072</v>
+        <v>0.8737437819217513</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12273,25 +12273,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H277" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I277" t="n">
-        <v>0.435152093972065</v>
+        <v>0.4351523021481498</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2296129699300549</v>
+        <v>0.2296128853056302</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3352349360978801</v>
+        <v>0.3352348125462201</v>
       </c>
       <c r="L277" t="n">
-        <v>1.640691218014075</v>
+        <v>1.640691718990669</v>
       </c>
       <c r="M277" t="n">
-        <v>1.024073845888045</v>
+        <v>1.024073468463111</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12365,25 +12365,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H279" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I279" t="n">
-        <v>0.282657869460738</v>
+        <v>0.28265717927019</v>
       </c>
       <c r="J279" t="n">
-        <v>0.3046616411265844</v>
+        <v>0.3046633389953326</v>
       </c>
       <c r="K279" t="n">
-        <v>0.4126804894126775</v>
+        <v>0.4126794817344774</v>
       </c>
       <c r="L279" t="n">
-        <v>1.260654097794891</v>
+        <v>1.260651019545048</v>
       </c>
       <c r="M279" t="n">
-        <v>1.326665412792431</v>
+        <v>1.326669498720475</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12457,25 +12457,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H281" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2366180497917081</v>
+        <v>0.2366164624641419</v>
       </c>
       <c r="J281" t="n">
-        <v>0.4179195975123978</v>
+        <v>0.4179235023382108</v>
       </c>
       <c r="K281" t="n">
-        <v>0.345462352695894</v>
+        <v>0.3454600351976473</v>
       </c>
       <c r="L281" t="n">
-        <v>1.055316502071018</v>
+        <v>1.055309422590073</v>
       </c>
       <c r="M281" t="n">
-        <v>1.599221145233088</v>
+        <v>1.59923054221228</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12496,25 +12496,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H282" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I282" t="n">
-        <v>0.4493998983397458</v>
+        <v>0.449400295436269</v>
       </c>
       <c r="J282" t="n">
-        <v>0.2238211795366887</v>
+        <v>0.2238210181153378</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3267789221235655</v>
+        <v>0.3267786864483932</v>
       </c>
       <c r="L282" t="n">
-        <v>1.674978617142803</v>
+        <v>1.6749795727572</v>
       </c>
       <c r="M282" t="n">
-        <v>0.9982424607336318</v>
+        <v>0.9982417407944066</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12535,25 +12535,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H283" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I283" t="n">
-        <v>0.3663045836911004</v>
+        <v>0.3663040420567067</v>
       </c>
       <c r="J283" t="n">
-        <v>0.257599762727195</v>
+        <v>0.2575999829037778</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3760956535817046</v>
+        <v>0.3760959750395155</v>
       </c>
       <c r="L283" t="n">
-        <v>1.475009404655006</v>
+        <v>1.475008101209636</v>
       </c>
       <c r="M283" t="n">
-        <v>1.148894941763289</v>
+        <v>1.148895923750849</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -12574,25 +12574,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H284" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I284" t="n">
-        <v>0.6604900699337954</v>
+        <v>0.6604933200986296</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1380121666935791</v>
+        <v>0.1380108454883619</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2014977633726255</v>
+        <v>0.2014958344130084</v>
       </c>
       <c r="L284" t="n">
-        <v>2.182967973174012</v>
+        <v>2.182975794708897</v>
       </c>
       <c r="M284" t="n">
-        <v>0.6155342634533628</v>
+        <v>0.6155283708780941</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12613,25 +12613,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H285" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I285" t="n">
-        <v>0.2383541776771991</v>
+        <v>0.2383526259794081</v>
       </c>
       <c r="J285" t="n">
-        <v>0.4136487229140903</v>
+        <v>0.4136525400906563</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3479970994087107</v>
+        <v>0.3479948339299357</v>
       </c>
       <c r="L285" t="n">
-        <v>1.063059632440308</v>
+        <v>1.06305271186816</v>
       </c>
       <c r="M285" t="n">
-        <v>1.588943268150982</v>
+        <v>1.588952454201904</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12652,25 +12652,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H286" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5831010386471036</v>
+        <v>0.5831032264570292</v>
       </c>
       <c r="J286" t="n">
-        <v>0.1694711225011774</v>
+        <v>0.1694702331475491</v>
       </c>
       <c r="K286" t="n">
-        <v>0.247427838851719</v>
+        <v>0.2474265403954217</v>
       </c>
       <c r="L286" t="n">
-        <v>1.99673095479303</v>
+        <v>1.996736219766509</v>
       </c>
       <c r="M286" t="n">
-        <v>0.7558412063552511</v>
+        <v>0.7558372398380691</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12691,25 +12691,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H287" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I287" t="n">
-        <v>0.2709047303127617</v>
+        <v>0.2709038244557458</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3335743634306061</v>
+        <v>0.3335765918388655</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3955209062566322</v>
+        <v>0.3955195837053888</v>
       </c>
       <c r="L287" t="n">
-        <v>1.208235097194917</v>
+        <v>1.208231057072626</v>
       </c>
       <c r="M287" t="n">
-        <v>1.396243996548451</v>
+        <v>1.396249359221985</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12730,25 +12730,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H288" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I288" t="n">
-        <v>0.6152229947943375</v>
+        <v>0.6152381085776135</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1564134167502693</v>
+        <v>0.1564072729359295</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2283635884553932</v>
+        <v>0.228354618486457</v>
       </c>
       <c r="L288" t="n">
-        <v>2.074032572838406</v>
+        <v>2.074068944219297</v>
       </c>
       <c r="M288" t="n">
-        <v>0.6976038387062014</v>
+        <v>0.6975764372942453</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12769,25 +12769,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H289" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="I289" t="n">
-        <v>0.2580526896155445</v>
+        <v>0.2580463695239215</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3651903835457607</v>
+        <v>0.3652059309711529</v>
       </c>
       <c r="K289" t="n">
-        <v>0.3767569268386949</v>
+        <v>0.3767476995049255</v>
       </c>
       <c r="L289" t="n">
-        <v>1.150914995685328</v>
+        <v>1.15088680807669</v>
       </c>
       <c r="M289" t="n">
-        <v>1.472328077475977</v>
+        <v>1.472365492418384</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12808,25 +12808,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>92.3902587142</v>
+        <v>92.390201723</v>
       </c>
       <c r="H290" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I290" t="n">
-        <v>0.6857160849726646</v>
+        <v>0.6857310038149084</v>
       </c>
       <c r="J290" t="n">
-        <v>0.1277576890355022</v>
+        <v>0.1277516244654844</v>
       </c>
       <c r="K290" t="n">
-        <v>0.1865262259918331</v>
+        <v>0.1865173717196072</v>
       </c>
       <c r="L290" t="n">
-        <v>2.243674480909827</v>
+        <v>2.243710383164332</v>
       </c>
       <c r="M290" t="n">
-        <v>0.5697992930983397</v>
+        <v>0.5697722451160603</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12900,25 +12900,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H292" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I292" t="n">
-        <v>0.5717930481200894</v>
+        <v>0.5717948501802802</v>
       </c>
       <c r="J292" t="n">
-        <v>0.1740678666178499</v>
+        <v>0.1740671340730568</v>
       </c>
       <c r="K292" t="n">
-        <v>0.2541390852620608</v>
+        <v>0.2541380157466629</v>
       </c>
       <c r="L292" t="n">
-        <v>1.969518229622329</v>
+        <v>1.969522566287504</v>
       </c>
       <c r="M292" t="n">
-        <v>0.7763426851156103</v>
+        <v>0.7763394179658334</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -13045,25 +13045,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H295" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I295" t="n">
-        <v>0.3847616341585879</v>
+        <v>0.3847613307360594</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2500968966835008</v>
+        <v>0.2500970200259921</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3651414691579112</v>
+        <v>0.3651416492379485</v>
       </c>
       <c r="L295" t="n">
-        <v>1.519426371633675</v>
+        <v>1.519425641446127</v>
       </c>
       <c r="M295" t="n">
-        <v>1.115432159208414</v>
+        <v>1.115432709315925</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13137,25 +13137,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H297" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I297" t="n">
-        <v>0.2640086375076418</v>
+        <v>0.2640076987762474</v>
       </c>
       <c r="J297" t="n">
-        <v>0.3505387517312014</v>
+        <v>0.3505410610104315</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3854526107611569</v>
+        <v>0.3854512402133212</v>
       </c>
       <c r="L297" t="n">
-        <v>1.177478523284082</v>
+        <v>1.177474336542063</v>
       </c>
       <c r="M297" t="n">
-        <v>1.437068865954761</v>
+        <v>1.437074423244616</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13176,25 +13176,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H298" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I298" t="n">
-        <v>0.7107955458294491</v>
+        <v>0.7107990423904548</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1175627862481914</v>
+        <v>0.117561364881929</v>
       </c>
       <c r="K298" t="n">
-        <v>0.1716416679223595</v>
+        <v>0.1716395927276163</v>
       </c>
       <c r="L298" t="n">
-        <v>2.304028305410707</v>
+        <v>2.30403671989898</v>
       </c>
       <c r="M298" t="n">
-        <v>0.5243300266669337</v>
+        <v>0.5243236873734033</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13215,25 +13215,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H299" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2157155061448927</v>
+        <v>0.2157136654704023</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4693398548835639</v>
+        <v>0.4693443829428103</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3149446389715434</v>
+        <v>0.3149419515867873</v>
       </c>
       <c r="L299" t="n">
-        <v>0.9620911574062216</v>
+        <v>0.9620829479979942</v>
       </c>
       <c r="M299" t="n">
-        <v>1.722964203622235</v>
+        <v>1.722975100415218</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13254,25 +13254,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H300" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I300" t="n">
-        <v>0.5034425029873282</v>
+        <v>0.5034434576169184</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2018526410620617</v>
+        <v>0.2018522530012527</v>
       </c>
       <c r="K300" t="n">
-        <v>0.29470485595061</v>
+        <v>0.2947042893818289</v>
       </c>
       <c r="L300" t="n">
-        <v>1.805032364912595</v>
+        <v>1.805034662232584</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9002627791367951</v>
+        <v>0.900261048385587</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13399,25 +13399,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H303" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I303" t="n">
-        <v>0.2174946134696934</v>
+        <v>0.2174928066504953</v>
       </c>
       <c r="J303" t="n">
-        <v>0.4649632508645541</v>
+        <v>0.4649676956397815</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3175421356657524</v>
+        <v>0.3175394977097232</v>
       </c>
       <c r="L303" t="n">
-        <v>0.9700259760748327</v>
+        <v>0.9700179176612092</v>
       </c>
       <c r="M303" t="n">
-        <v>1.712431888259415</v>
+        <v>1.712442584629068</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13438,25 +13438,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H304" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I304" t="n">
-        <v>0.6346881629284742</v>
+        <v>0.6346907629294154</v>
       </c>
       <c r="J304" t="n">
-        <v>0.148500746777043</v>
+        <v>0.1484996898660913</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2168110902944828</v>
+        <v>0.2168095472044933</v>
       </c>
       <c r="L304" t="n">
-        <v>2.120875579079905</v>
+        <v>2.12088183599274</v>
       </c>
       <c r="M304" t="n">
-        <v>0.6623133306256118</v>
+        <v>0.6623086168027673</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13477,25 +13477,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H305" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2514564800084675</v>
+        <v>0.2514553144220566</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3814170591791697</v>
+        <v>0.3814199265217407</v>
       </c>
       <c r="K305" t="n">
-        <v>0.3671264608123627</v>
+        <v>0.3671247590562027</v>
       </c>
       <c r="L305" t="n">
-        <v>1.121495900837765</v>
+        <v>1.121490702322373</v>
       </c>
       <c r="M305" t="n">
-        <v>1.511377638349872</v>
+        <v>1.511384538621425</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -13516,25 +13516,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H306" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I306" t="n">
-        <v>0.6651181050891429</v>
+        <v>0.6651328188757917</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1361308515897793</v>
+        <v>0.1361248703756944</v>
       </c>
       <c r="K306" t="n">
-        <v>0.1987510433210777</v>
+        <v>0.1987423107485138</v>
       </c>
       <c r="L306" t="n">
-        <v>2.194105358588507</v>
+        <v>2.194140767375889</v>
       </c>
       <c r="M306" t="n">
-        <v>0.6071435980904156</v>
+        <v>0.607116921875597</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13555,25 +13555,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H307" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2379083063470112</v>
+        <v>0.2379014789276652</v>
       </c>
       <c r="J307" t="n">
-        <v>0.4147455663863525</v>
+        <v>0.4147623618379435</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3473461272666364</v>
+        <v>0.3473361592343913</v>
       </c>
       <c r="L307" t="n">
-        <v>1.06107104630767</v>
+        <v>1.061040596017387</v>
       </c>
       <c r="M307" t="n">
-        <v>1.591582826425694</v>
+        <v>1.591623244748222</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13594,25 +13594,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="H308" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7304747878981286</v>
+        <v>0.7304888530038423</v>
       </c>
       <c r="J308" t="n">
-        <v>0.1095630943503543</v>
+        <v>0.1095573768277064</v>
       </c>
       <c r="K308" t="n">
-        <v>0.1599621177515172</v>
+        <v>0.1599537701684514</v>
       </c>
       <c r="L308" t="n">
-        <v>2.351386481445903</v>
+        <v>2.351420329179978</v>
       </c>
       <c r="M308" t="n">
-        <v>0.4886514008025801</v>
+        <v>0.4886259006515706</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13633,25 +13633,25 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H309" t="n">
-        <v>93.8499328617</v>
+        <v>93.8498907716</v>
       </c>
       <c r="I309" t="n">
-        <v>0.2053964173389236</v>
+        <v>0.2053888176790981</v>
       </c>
       <c r="J309" t="n">
-        <v>0.4947248133462481</v>
+        <v>0.4947435085094186</v>
       </c>
       <c r="K309" t="n">
-        <v>0.2998787693148284</v>
+        <v>0.2998676738114832</v>
       </c>
       <c r="L309" t="n">
-        <v>0.916068021331599</v>
+        <v>0.9160341268487775</v>
       </c>
       <c r="M309" t="n">
-        <v>1.784053209353573</v>
+        <v>1.784098199339739</v>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
@@ -13672,25 +13672,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H310" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I310" t="n">
-        <v>0.2855265206287875</v>
+        <v>0.2855259135885331</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2976047592531827</v>
+        <v>0.2976062525722086</v>
       </c>
       <c r="K310" t="n">
-        <v>0.4168687201180298</v>
+        <v>0.4168678338392584</v>
       </c>
       <c r="L310" t="n">
-        <v>1.273448282004392</v>
+        <v>1.273445574604858</v>
       </c>
       <c r="M310" t="n">
-        <v>1.309682997877578</v>
+        <v>1.309686591555884</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13711,25 +13711,25 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H311" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I311" t="n">
-        <v>0.5457865593267507</v>
+        <v>0.5457881257602425</v>
       </c>
       <c r="J311" t="n">
-        <v>0.1846396100297762</v>
+        <v>0.1846389732681941</v>
       </c>
       <c r="K311" t="n">
-        <v>0.2695738306434732</v>
+        <v>0.2695729009715634</v>
       </c>
       <c r="L311" t="n">
-        <v>1.906933508623725</v>
+        <v>1.906937278252291</v>
       </c>
       <c r="M311" t="n">
-        <v>0.8234926607328017</v>
+        <v>0.8234898207761457</v>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
@@ -13750,25 +13750,25 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H312" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I312" t="n">
-        <v>0.4366425486034682</v>
+        <v>0.4366428873349861</v>
       </c>
       <c r="J312" t="n">
-        <v>0.2290070940636308</v>
+        <v>0.2290069563678918</v>
       </c>
       <c r="K312" t="n">
-        <v>0.334350357332901</v>
+        <v>0.3343501562971221</v>
       </c>
       <c r="L312" t="n">
-        <v>1.644278003143306</v>
+        <v>1.64427881830208</v>
       </c>
       <c r="M312" t="n">
-        <v>1.021371639523793</v>
+        <v>1.021371025400798</v>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
@@ -13789,25 +13789,25 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H313" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I313" t="n">
-        <v>0.3703759647627352</v>
+        <v>0.3703753717486057</v>
       </c>
       <c r="J313" t="n">
-        <v>0.2559447297712459</v>
+        <v>0.2559449708339001</v>
       </c>
       <c r="K313" t="n">
-        <v>0.373679305466019</v>
+        <v>0.3736796574174942</v>
       </c>
       <c r="L313" t="n">
-        <v>1.484807199754224</v>
+        <v>1.484805772663311</v>
       </c>
       <c r="M313" t="n">
-        <v>1.141513494779757</v>
+        <v>1.141514569919194</v>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
@@ -13828,25 +13828,25 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H314" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I314" t="n">
-        <v>0.5547996239844679</v>
+        <v>0.5548018729000744</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1809757626079399</v>
+        <v>0.1809748484146038</v>
       </c>
       <c r="K314" t="n">
-        <v>0.2642246134075922</v>
+        <v>0.2642232786853216</v>
       </c>
       <c r="L314" t="n">
-        <v>1.928623485360996</v>
+        <v>1.928628897385545</v>
       </c>
       <c r="M314" t="n">
-        <v>0.8071519012314119</v>
+        <v>0.8071478239291332</v>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
@@ -13920,25 +13920,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H316" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I316" t="n">
-        <v>0.3395280339422042</v>
+        <v>0.3395271177026567</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2684845390478845</v>
+        <v>0.2684849115029851</v>
       </c>
       <c r="K316" t="n">
-        <v>0.3919874270099113</v>
+        <v>0.3919879707943583</v>
       </c>
       <c r="L316" t="n">
-        <v>1.410571528836524</v>
+        <v>1.410569323902328</v>
       </c>
       <c r="M316" t="n">
-        <v>1.197441044153565</v>
+        <v>1.197442705303314</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -13959,25 +13959,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H317" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I317" t="n">
-        <v>0.4741277311381717</v>
+        <v>0.4741285136380405</v>
       </c>
       <c r="J317" t="n">
-        <v>0.213769214984483</v>
+        <v>0.2137688968951055</v>
       </c>
       <c r="K317" t="n">
-        <v>0.3121030538773452</v>
+        <v>0.312102589466854</v>
       </c>
       <c r="L317" t="n">
-        <v>1.734486247291861</v>
+        <v>1.734488130380976</v>
       </c>
       <c r="M317" t="n">
-        <v>0.9534106988307944</v>
+        <v>0.9534092801521705</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -13998,25 +13998,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H318" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I318" t="n">
-        <v>0.5506200779417114</v>
+        <v>0.550622256217282</v>
       </c>
       <c r="J318" t="n">
-        <v>0.182674765064345</v>
+        <v>0.1826738795864708</v>
       </c>
       <c r="K318" t="n">
-        <v>0.2667051569939436</v>
+        <v>0.2667038641962473</v>
       </c>
       <c r="L318" t="n">
-        <v>1.918565390819078</v>
+        <v>1.918570632848093</v>
       </c>
       <c r="M318" t="n">
-        <v>0.8147294521869786</v>
+        <v>0.8147255029556597</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -14037,25 +14037,25 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H319" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I319" t="n">
-        <v>0.2799048655097758</v>
+        <v>0.2799039705733178</v>
       </c>
       <c r="J319" t="n">
-        <v>0.3114340308459517</v>
+        <v>0.3114362323896383</v>
       </c>
       <c r="K319" t="n">
-        <v>0.4086611036442726</v>
+        <v>0.4086597970370439</v>
       </c>
       <c r="L319" t="n">
-        <v>1.2483757001736</v>
+        <v>1.248371708756997</v>
       </c>
       <c r="M319" t="n">
-        <v>1.342963196182128</v>
+        <v>1.342968494205959</v>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
@@ -14076,25 +14076,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H320" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I320" t="n">
-        <v>0.4683459080756955</v>
+        <v>0.4683467320620163</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2161195495627254</v>
+        <v>0.2161192146089365</v>
       </c>
       <c r="K320" t="n">
-        <v>0.3155345423615791</v>
+        <v>0.3155340533290473</v>
       </c>
       <c r="L320" t="n">
-        <v>1.720572266588666</v>
+        <v>1.720574249515096</v>
       </c>
       <c r="M320" t="n">
-        <v>0.9638931910497555</v>
+        <v>0.9638916971558568</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -14115,25 +14115,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H321" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I321" t="n">
-        <v>0.3399003533860415</v>
+        <v>0.3398993319672791</v>
       </c>
       <c r="J321" t="n">
-        <v>0.2683331896804709</v>
+        <v>0.26833360489135</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3917664569334876</v>
+        <v>0.391767063141371</v>
       </c>
       <c r="L321" t="n">
-        <v>1.411467517091612</v>
+        <v>1.411465059043208</v>
       </c>
       <c r="M321" t="n">
-        <v>1.1967660259749</v>
+        <v>1.196767877815421</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -14207,25 +14207,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H323" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="I323" t="n">
-        <v>0.3094066494535205</v>
+        <v>0.30939348886444</v>
       </c>
       <c r="J323" t="n">
-        <v>0.2807290042871868</v>
+        <v>0.2807343541201464</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4098643462592927</v>
+        <v>0.4098721570154136</v>
       </c>
       <c r="L323" t="n">
-        <v>1.338084294619854</v>
+        <v>1.338052623608734</v>
       </c>
       <c r="M323" t="n">
-        <v>1.252051359120853</v>
+        <v>1.252075219375853</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14246,25 +14246,25 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>89.2786071511</v>
+        <v>89.27851185750001</v>
       </c>
       <c r="H324" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5788036992613984</v>
+        <v>0.5788191886605949</v>
       </c>
       <c r="J324" t="n">
-        <v>0.1712180084303258</v>
+        <v>0.1712117119265875</v>
       </c>
       <c r="K324" t="n">
-        <v>0.2499782923082757</v>
+        <v>0.2499690994128177</v>
       </c>
       <c r="L324" t="n">
-        <v>1.986389390092471</v>
+        <v>1.986426665394602</v>
       </c>
       <c r="M324" t="n">
-        <v>0.7636323175992531</v>
+        <v>0.76360423519258</v>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
@@ -14391,25 +14391,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H327" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I327" t="n">
-        <v>0.2732494655629115</v>
+        <v>0.2732486466633396</v>
       </c>
       <c r="J327" t="n">
-        <v>0.3278063147152379</v>
+        <v>0.3278083292081847</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3989442197218507</v>
+        <v>0.3989430241284757</v>
       </c>
       <c r="L327" t="n">
-        <v>1.218692616410585</v>
+        <v>1.218688964118495</v>
       </c>
       <c r="M327" t="n">
-        <v>1.382363163867564</v>
+        <v>1.38236801175303</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14430,25 +14430,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H328" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I328" t="n">
-        <v>0.6886340712311616</v>
+        <v>0.6886374950974703</v>
       </c>
       <c r="J328" t="n">
-        <v>0.1265715157596904</v>
+        <v>0.1265701239441178</v>
       </c>
       <c r="K328" t="n">
-        <v>0.184794413009148</v>
+        <v>0.184792380958412</v>
       </c>
       <c r="L328" t="n">
-        <v>2.250696626702632</v>
+        <v>2.250704866250823</v>
       </c>
       <c r="M328" t="n">
-        <v>0.5645089602882193</v>
+        <v>0.5645027527907654</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14522,25 +14522,25 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H330" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I330" t="n">
-        <v>0.4770811917078736</v>
+        <v>0.4770818846081514</v>
       </c>
       <c r="J330" t="n">
-        <v>0.212568621256962</v>
+        <v>0.2125683395901823</v>
       </c>
       <c r="K330" t="n">
-        <v>0.3103501870351644</v>
+        <v>0.3103497758016662</v>
       </c>
       <c r="L330" t="n">
-        <v>1.741593762158785</v>
+        <v>1.74159542962612</v>
       </c>
       <c r="M330" t="n">
-        <v>0.9480560508060503</v>
+        <v>0.9480547945722131</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
@@ -14561,25 +14561,25 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H331" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I331" t="n">
-        <v>0.3418239892685714</v>
+        <v>0.3418232106382337</v>
       </c>
       <c r="J331" t="n">
-        <v>0.2675512238745645</v>
+        <v>0.267551540390962</v>
       </c>
       <c r="K331" t="n">
-        <v>0.3906247868568641</v>
+        <v>0.3906252489708044</v>
       </c>
       <c r="L331" t="n">
-        <v>1.416096754662578</v>
+        <v>1.416094880885505</v>
       </c>
       <c r="M331" t="n">
-        <v>1.193278458480558</v>
+        <v>1.19327987014369</v>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
@@ -14600,25 +14600,25 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H332" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I332" t="n">
-        <v>0.6849975872588195</v>
+        <v>0.6850009677222664</v>
       </c>
       <c r="J332" t="n">
-        <v>0.1280497612769026</v>
+        <v>0.1280483871047697</v>
       </c>
       <c r="K332" t="n">
-        <v>0.1869526514642778</v>
+        <v>0.1869506451729638</v>
       </c>
       <c r="L332" t="n">
-        <v>2.241945413240737</v>
+        <v>2.241953548339763</v>
       </c>
       <c r="M332" t="n">
-        <v>0.5711019352949858</v>
+        <v>0.571095806487273</v>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
@@ -14639,25 +14639,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H333" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I333" t="n">
-        <v>0.2277090509522274</v>
+        <v>0.2277073617827807</v>
       </c>
       <c r="J333" t="n">
-        <v>0.4398357346575205</v>
+        <v>0.4398398900143596</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3324552143902521</v>
+        <v>0.3324527482028598</v>
       </c>
       <c r="L333" t="n">
-        <v>1.015582367246934</v>
+        <v>1.015574833551202</v>
       </c>
       <c r="M333" t="n">
-        <v>1.651962418362813</v>
+        <v>1.651972418245939</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14731,25 +14731,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H335" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I335" t="n">
-        <v>0.2610628824018466</v>
+        <v>0.2610618407804044</v>
       </c>
       <c r="J335" t="n">
-        <v>0.3577853092914576</v>
+        <v>0.3577878716802053</v>
       </c>
       <c r="K335" t="n">
-        <v>0.3811518083066959</v>
+        <v>0.3811502875393904</v>
       </c>
       <c r="L335" t="n">
-        <v>1.164340455512236</v>
+        <v>1.164335809880604</v>
       </c>
       <c r="M335" t="n">
-        <v>1.454507736181069</v>
+        <v>1.454513902580006</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14770,25 +14770,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="H336" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I336" t="n">
-        <v>0.6412231598761867</v>
+        <v>0.6412381176971125</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1458442439527696</v>
+        <v>0.1458381635377591</v>
       </c>
       <c r="K336" t="n">
-        <v>0.2129325961710437</v>
+        <v>0.2129237187651283</v>
       </c>
       <c r="L336" t="n">
-        <v>2.136602075799604</v>
+        <v>2.136638071856466</v>
       </c>
       <c r="M336" t="n">
-        <v>0.6504653280293525</v>
+        <v>0.6504382093784056</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14915,25 +14915,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H339" t="n">
-        <v>93.1397710852</v>
+        <v>93.13972198659999</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2156910623422231</v>
+        <v>0.2156835916580878</v>
       </c>
       <c r="J339" t="n">
-        <v>0.4693999866381311</v>
+        <v>0.469418364521104</v>
       </c>
       <c r="K339" t="n">
-        <v>0.3149089510196458</v>
+        <v>0.3148980438208082</v>
       </c>
       <c r="L339" t="n">
-        <v>0.9619821380463152</v>
+        <v>0.9619488187950717</v>
       </c>
       <c r="M339" t="n">
-        <v>1.723108910934039</v>
+        <v>1.72315313738412</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -15007,25 +15007,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H341" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I341" t="n">
-        <v>0.2912577963046848</v>
+        <v>0.2912560089587429</v>
       </c>
       <c r="J341" t="n">
-        <v>0.2881065868680143</v>
+        <v>0.2881073134314053</v>
       </c>
       <c r="K341" t="n">
-        <v>0.4206356168273009</v>
+        <v>0.4206366776098518</v>
       </c>
       <c r="L341" t="n">
-        <v>1.294409005741355</v>
+        <v>1.29440470448608</v>
       </c>
       <c r="M341" t="n">
-        <v>1.284955377431344</v>
+        <v>1.284958617904068</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -15099,25 +15099,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H343" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I343" t="n">
-        <v>0.5079035553345119</v>
+        <v>0.5079048200118121</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2000392051485724</v>
+        <v>0.2000386910521089</v>
       </c>
       <c r="K343" t="n">
-        <v>0.2920572395169157</v>
+        <v>0.292056488936079</v>
       </c>
       <c r="L343" t="n">
-        <v>1.815767905520451</v>
+        <v>1.815770948971515</v>
       </c>
       <c r="M343" t="n">
-        <v>0.8921748549626327</v>
+        <v>0.8921725620924057</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -15138,25 +15138,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H344" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I344" t="n">
-        <v>0.5156373975061965</v>
+        <v>0.5156390970675974</v>
       </c>
       <c r="J344" t="n">
-        <v>0.1968953668673998</v>
+        <v>0.1968946759887815</v>
       </c>
       <c r="K344" t="n">
-        <v>0.2874672356264037</v>
+        <v>0.2874662269436211</v>
       </c>
       <c r="L344" t="n">
-        <v>1.834379428144993</v>
+        <v>1.834383518146413</v>
       </c>
       <c r="M344" t="n">
-        <v>0.8781533362286029</v>
+        <v>0.8781502549099658</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -15177,25 +15177,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H345" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I345" t="n">
-        <v>0.2949005523536702</v>
+        <v>0.2948988171976453</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2866257917261503</v>
+        <v>0.286626497074128</v>
       </c>
       <c r="K345" t="n">
-        <v>0.4184736559201795</v>
+        <v>0.4184746857282268</v>
       </c>
       <c r="L345" t="n">
-        <v>1.30317531298119</v>
+        <v>1.303171137321163</v>
       </c>
       <c r="M345" t="n">
-        <v>1.278351031098631</v>
+        <v>1.278354176950611</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -15216,25 +15216,25 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H346" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I346" t="n">
-        <v>0.4335473901628523</v>
+        <v>0.4335477120679991</v>
       </c>
       <c r="J346" t="n">
-        <v>0.2302652885516861</v>
+        <v>0.2302651576959354</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3361873212854616</v>
+        <v>0.3361871302360656</v>
       </c>
       <c r="L346" t="n">
-        <v>1.636829491774018</v>
+        <v>1.636830266440063</v>
       </c>
       <c r="M346" t="n">
-        <v>1.02698318694052</v>
+        <v>1.026982603323872</v>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
@@ -15255,25 +15255,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H347" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I347" t="n">
-        <v>0.370857505882447</v>
+        <v>0.370856892045503</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2557489813485987</v>
+        <v>0.2557492308758118</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3733935127689542</v>
+        <v>0.3733938770786852</v>
       </c>
       <c r="L347" t="n">
-        <v>1.485966030416295</v>
+        <v>1.485964553215194</v>
       </c>
       <c r="M347" t="n">
-        <v>1.14064045681475</v>
+        <v>1.140641569706121</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15294,25 +15294,25 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="H348" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I348" t="n">
-        <v>0.4666525621958831</v>
+        <v>0.4666665390409183</v>
       </c>
       <c r="J348" t="n">
-        <v>0.216807901546389</v>
+        <v>0.2168022199020657</v>
       </c>
       <c r="K348" t="n">
-        <v>0.316539536257728</v>
+        <v>0.3165312410570159</v>
       </c>
       <c r="L348" t="n">
-        <v>1.716497222845377</v>
+        <v>1.716530858179771</v>
       </c>
       <c r="M348" t="n">
-        <v>0.9669632408968949</v>
+        <v>0.9669379007632131</v>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
@@ -15333,25 +15333,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H349" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I349" t="n">
-        <v>0.3390128730711953</v>
+        <v>0.3389995019325105</v>
       </c>
       <c r="J349" t="n">
-        <v>0.2686939540360995</v>
+        <v>0.2686993894583291</v>
       </c>
       <c r="K349" t="n">
-        <v>0.3922931728927052</v>
+        <v>0.3923011086091604</v>
       </c>
       <c r="L349" t="n">
-        <v>1.409331792106291</v>
+        <v>1.409299614406692</v>
       </c>
       <c r="M349" t="n">
-        <v>1.198375035001004</v>
+        <v>1.198399276984148</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15425,25 +15425,25 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H351" t="n">
-        <v>88.3322180512</v>
+        <v>88.3321093066</v>
       </c>
       <c r="I351" t="n">
-        <v>0.2812887115720709</v>
+        <v>0.2812830564333134</v>
       </c>
       <c r="J351" t="n">
-        <v>0.3080297695327056</v>
+        <v>0.3080436811740491</v>
       </c>
       <c r="K351" t="n">
-        <v>0.4106815188952235</v>
+        <v>0.4106732623926375</v>
       </c>
       <c r="L351" t="n">
-        <v>1.254547653611436</v>
+        <v>1.254522431692578</v>
       </c>
       <c r="M351" t="n">
-        <v>1.33477082749334</v>
+        <v>1.334804305914785</v>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
@@ -15464,25 +15464,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H352" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I352" t="n">
-        <v>0.2530743647550208</v>
+        <v>0.253073015883975</v>
       </c>
       <c r="J352" t="n">
-        <v>0.3774370627026488</v>
+        <v>0.3774403809254216</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3694885725423304</v>
+        <v>0.3694866031906034</v>
       </c>
       <c r="L352" t="n">
-        <v>1.128711666807393</v>
+        <v>1.128705650842528</v>
       </c>
       <c r="M352" t="n">
-        <v>1.501799760650277</v>
+        <v>1.501807745966868</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15503,25 +15503,25 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H353" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I353" t="n">
-        <v>0.6239853626816841</v>
+        <v>0.6239883630888896</v>
       </c>
       <c r="J353" t="n">
-        <v>0.1528514785846812</v>
+        <v>0.1528502589069555</v>
       </c>
       <c r="K353" t="n">
-        <v>0.2231631587336346</v>
+        <v>0.223161378004155</v>
       </c>
       <c r="L353" t="n">
-        <v>2.095119246778687</v>
+        <v>2.095126467270824</v>
       </c>
       <c r="M353" t="n">
-        <v>0.6817175944876782</v>
+        <v>0.6817121547250213</v>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
@@ -15542,25 +15542,25 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H354" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I354" t="n">
-        <v>0.393814211233717</v>
+        <v>0.3938139170731021</v>
       </c>
       <c r="J354" t="n">
-        <v>0.2464169873033671</v>
+        <v>0.2464171068808528</v>
       </c>
       <c r="K354" t="n">
-        <v>0.3597688014629159</v>
+        <v>0.3597689760460451</v>
       </c>
       <c r="L354" t="n">
-        <v>1.541211435164067</v>
+        <v>1.541210727265351</v>
       </c>
       <c r="M354" t="n">
-        <v>1.099019763373017</v>
+        <v>1.099020296688604</v>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
@@ -15634,25 +15634,25 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H356" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3183706909451024</v>
+        <v>0.3183692312571373</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2770850849816657</v>
+        <v>0.2770856783507571</v>
       </c>
       <c r="K356" t="n">
-        <v>0.4045442240732319</v>
+        <v>0.4045450903921055</v>
       </c>
       <c r="L356" t="n">
-        <v>1.359656296908539</v>
+        <v>1.359652784163518</v>
       </c>
       <c r="M356" t="n">
-        <v>1.235799479018229</v>
+        <v>1.235802125444377</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
@@ -15673,25 +15673,25 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H357" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I357" t="n">
-        <v>0.4865887476753135</v>
+        <v>0.4865900210446196</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2087037611075961</v>
+        <v>0.2087032434777969</v>
       </c>
       <c r="K357" t="n">
-        <v>0.3047074912170903</v>
+        <v>0.3047067354775835</v>
       </c>
       <c r="L357" t="n">
-        <v>1.764473734243031</v>
+        <v>1.764476798611442</v>
       </c>
       <c r="M357" t="n">
-        <v>0.9308187745398788</v>
+        <v>0.9308164659109743</v>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
@@ -15765,25 +15765,25 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H359" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="I359" t="n">
-        <v>0.4519452120292612</v>
+        <v>0.4519323462594267</v>
       </c>
       <c r="J359" t="n">
-        <v>0.2227864991750971</v>
+        <v>0.2227917291628347</v>
       </c>
       <c r="K359" t="n">
-        <v>0.3252682887956417</v>
+        <v>0.3252759245777387</v>
       </c>
       <c r="L359" t="n">
-        <v>1.681103924883425</v>
+        <v>1.681072963356019</v>
       </c>
       <c r="M359" t="n">
-        <v>0.993627786320933</v>
+        <v>0.9936511120662428</v>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
@@ -15804,25 +15804,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>85.0080441607</v>
+        <v>85.0078813201</v>
       </c>
       <c r="H360" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4214998813367409</v>
+        <v>0.4215129268556221</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2351626498631135</v>
+        <v>0.2351573468066577</v>
       </c>
       <c r="K360" t="n">
-        <v>0.3433374688001457</v>
+        <v>0.3433297263377202</v>
       </c>
       <c r="L360" t="n">
-        <v>1.607837112810368</v>
+        <v>1.607868506904586</v>
       </c>
       <c r="M360" t="n">
-        <v>1.048825418389486</v>
+        <v>1.048801766757693</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -15896,25 +15896,25 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H362" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I362" t="n">
-        <v>0.6200104707738946</v>
+        <v>0.6200134125041944</v>
       </c>
       <c r="J362" t="n">
-        <v>0.1544672883032949</v>
+        <v>0.1544660924779698</v>
       </c>
       <c r="K362" t="n">
-        <v>0.2255222409228105</v>
+        <v>0.2255204950178358</v>
       </c>
       <c r="L362" t="n">
-        <v>2.085553653244494</v>
+        <v>2.085560732530419</v>
       </c>
       <c r="M362" t="n">
-        <v>0.6889241058326951</v>
+        <v>0.6889187724517452</v>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
@@ -15935,25 +15935,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H363" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I363" t="n">
-        <v>0.254750176557994</v>
+        <v>0.2547488634253391</v>
       </c>
       <c r="J363" t="n">
-        <v>0.373314565667335</v>
+        <v>0.373317795973666</v>
       </c>
       <c r="K363" t="n">
-        <v>0.3719352577746712</v>
+        <v>0.371933340600995</v>
       </c>
       <c r="L363" t="n">
-        <v>1.136185787448653</v>
+        <v>1.136179930877012</v>
       </c>
       <c r="M363" t="n">
-        <v>1.491878954776676</v>
+        <v>1.491886728521993</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -15974,25 +15974,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H364" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I364" t="n">
-        <v>0.5398230622351343</v>
+        <v>0.5398247991822589</v>
       </c>
       <c r="J364" t="n">
-        <v>0.1870637958393763</v>
+        <v>0.1870630897633094</v>
       </c>
       <c r="K364" t="n">
-        <v>0.2731131419254894</v>
+        <v>0.2731121110544317</v>
       </c>
       <c r="L364" t="n">
-        <v>1.892582328630892</v>
+        <v>1.892586508601208</v>
       </c>
       <c r="M364" t="n">
-        <v>0.8343045294436183</v>
+        <v>0.8343013803443597</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -16066,25 +16066,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H366" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I366" t="n">
-        <v>0.5728367737661429</v>
+        <v>0.5728519052442215</v>
       </c>
       <c r="J366" t="n">
-        <v>0.1736435878999419</v>
+        <v>0.173637436892593</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2535196383339152</v>
+        <v>0.2535106578631857</v>
       </c>
       <c r="L366" t="n">
-        <v>1.972029959632344</v>
+        <v>1.97206637359585</v>
       </c>
       <c r="M366" t="n">
-        <v>0.7744504020337408</v>
+        <v>0.7744229685409645</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -16158,25 +16158,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="H368" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I368" t="n">
-        <v>0.6466350468160461</v>
+        <v>0.6466504061027784</v>
       </c>
       <c r="J368" t="n">
-        <v>0.1436442899121764</v>
+        <v>0.1436380462996836</v>
       </c>
       <c r="K368" t="n">
-        <v>0.2097206632717775</v>
+        <v>0.2097115475975381</v>
       </c>
       <c r="L368" t="n">
-        <v>2.149625803719916</v>
+        <v>2.149662765905873</v>
       </c>
       <c r="M368" t="n">
-        <v>0.6406535330083067</v>
+        <v>0.6406256864965889</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -16197,25 +16197,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H369" t="n">
-        <v>91.2064091198</v>
+        <v>91.2063386152</v>
       </c>
       <c r="I369" t="n">
-        <v>0.2432466517385583</v>
+        <v>0.2432397420267475</v>
       </c>
       <c r="J369" t="n">
-        <v>0.4016132367231464</v>
+        <v>0.401630234614201</v>
       </c>
       <c r="K369" t="n">
-        <v>0.3551401115382952</v>
+        <v>0.3551300233590514</v>
       </c>
       <c r="L369" t="n">
-        <v>1.08488006675397</v>
+        <v>1.084849249439294</v>
       </c>
       <c r="M369" t="n">
-        <v>1.559979821707735</v>
+        <v>1.560020727201655</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16289,25 +16289,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H371" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I371" t="n">
-        <v>0.4823663037317935</v>
+        <v>0.482367501101765</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2104202017350433</v>
+        <v>0.2104197149992826</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3072134945331632</v>
+        <v>0.3072127838989525</v>
       </c>
       <c r="L371" t="n">
-        <v>1.754312405728544</v>
+        <v>1.754315287204247</v>
       </c>
       <c r="M371" t="n">
-        <v>0.938474099738293</v>
+        <v>0.9384719288968002</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16328,25 +16328,25 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H372" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I372" t="n">
-        <v>0.3520859084738951</v>
+        <v>0.352096957322494</v>
       </c>
       <c r="J372" t="n">
-        <v>0.2633797120024816</v>
+        <v>0.2633752206006122</v>
       </c>
       <c r="K372" t="n">
-        <v>0.3845343795236232</v>
+        <v>0.3845278220768938</v>
       </c>
       <c r="L372" t="n">
-        <v>1.440792104945309</v>
+        <v>1.440818694044376</v>
       </c>
       <c r="M372" t="n">
-        <v>1.174673515531068</v>
+        <v>1.17465348387873</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
@@ -16367,25 +16367,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H373" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="I373" t="n">
-        <v>0.4477612089969792</v>
+        <v>0.4477482904253686</v>
       </c>
       <c r="J373" t="n">
-        <v>0.2244873134158621</v>
+        <v>0.2244925648677364</v>
       </c>
       <c r="K373" t="n">
-        <v>0.3277514775871587</v>
+        <v>0.327759144706895</v>
       </c>
       <c r="L373" t="n">
-        <v>1.671035104578096</v>
+        <v>1.671004015983001</v>
       </c>
       <c r="M373" t="n">
-        <v>1.001213417834745</v>
+        <v>1.001236839310104</v>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
@@ -16406,25 +16406,25 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="n">
-        <v>85.12638735500001</v>
+        <v>85.1262266263</v>
       </c>
       <c r="H374" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I374" t="n">
-        <v>0.4257929529116334</v>
+        <v>0.4258061102165161</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2334174988164092</v>
+        <v>0.2334121503184894</v>
       </c>
       <c r="K374" t="n">
-        <v>0.3407895482719574</v>
+        <v>0.3407817394649945</v>
       </c>
       <c r="L374" t="n">
-        <v>1.618168407006858</v>
+        <v>1.618200070114543</v>
       </c>
       <c r="M374" t="n">
-        <v>1.041042044721185</v>
+        <v>1.041018190420463</v>
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
@@ -16551,25 +16551,25 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H377" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I377" t="n">
-        <v>0.3682613791491317</v>
+        <v>0.3682479466033835</v>
       </c>
       <c r="J377" t="n">
-        <v>0.2568043174190522</v>
+        <v>0.2568097778035026</v>
       </c>
       <c r="K377" t="n">
-        <v>0.3749343034318161</v>
+        <v>0.3749422755931138</v>
       </c>
       <c r="L377" t="n">
-        <v>1.479718440879211</v>
+        <v>1.479686115403264</v>
       </c>
       <c r="M377" t="n">
-        <v>1.145347255688973</v>
+        <v>1.145371609003622</v>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
@@ -16590,25 +16590,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="H378" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I378" t="n">
-        <v>0.5110292011382261</v>
+        <v>0.511044075951815</v>
       </c>
       <c r="J378" t="n">
-        <v>0.1987686174234853</v>
+        <v>0.1987625707512947</v>
       </c>
       <c r="K378" t="n">
-        <v>0.2902021814382885</v>
+        <v>0.2901933532968903</v>
       </c>
       <c r="L378" t="n">
-        <v>1.823289784852967</v>
+        <v>1.823325581152335</v>
       </c>
       <c r="M378" t="n">
-        <v>0.8865080337087445</v>
+        <v>0.8864810655507744</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16629,25 +16629,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H379" t="n">
-        <v>87.4361235115</v>
+        <v>87.4360012417</v>
       </c>
       <c r="I379" t="n">
-        <v>0.2967207263331699</v>
+        <v>0.2967075099730609</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2858858836044025</v>
+        <v>0.2858912561085118</v>
       </c>
       <c r="K379" t="n">
-        <v>0.4173933900624276</v>
+        <v>0.4174012339184273</v>
       </c>
       <c r="L379" t="n">
-        <v>1.307555569061937</v>
+        <v>1.30752376383761</v>
       </c>
       <c r="M379" t="n">
-        <v>1.275051040875635</v>
+        <v>1.275075002243963</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16668,25 +16668,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="H380" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="I380" t="n">
-        <v>0.4762597496402052</v>
+        <v>0.4762603702645185</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2129025407966646</v>
+        <v>0.2129022885103584</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3108377095631303</v>
+        <v>0.3108373412251232</v>
       </c>
       <c r="L380" t="n">
-        <v>1.739616958483746</v>
+        <v>1.739618452018679</v>
       </c>
       <c r="M380" t="n">
-        <v>0.949545331953124</v>
+        <v>0.9495442067561982</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
@@ -16707,25 +16707,25 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="n">
-        <v>84.3235712684</v>
+        <v>84.32302740999999</v>
       </c>
       <c r="H381" t="n">
-        <v>86.499493761</v>
+        <v>86.4989875671</v>
       </c>
       <c r="I381" t="n">
-        <v>0.3253794287675624</v>
+        <v>0.3253775655004073</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2742360045660316</v>
+        <v>0.2742367619917044</v>
       </c>
       <c r="K381" t="n">
-        <v>0.4003845666664061</v>
+        <v>0.4003856725078884</v>
       </c>
       <c r="L381" t="n">
-        <v>1.376522852969093</v>
+        <v>1.37651836900911</v>
       </c>
       <c r="M381" t="n">
-        <v>1.223092580364501</v>
+        <v>1.223095958483002</v>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>

--- a/Sezon/PremierLeague2025_26.xlsx
+++ b/Sezon/PremierLeague2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3558358099771864</v>
+        <v>0.3558652345110303</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2618553617978917</v>
+        <v>0.2618434006052723</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3823088282249219</v>
+        <v>0.3822913648836975</v>
       </c>
       <c r="L3" t="n">
-        <v>1.449816258156481</v>
+        <v>1.449887068416788</v>
       </c>
       <c r="M3" t="n">
-        <v>1.167874913618597</v>
+        <v>1.167821566699514</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -621,22 +621,22 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5301396188176808</v>
+        <v>0.5300854716314125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1910001549521623</v>
+        <v>0.1910221660034909</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2788602262301569</v>
+        <v>0.2788923623650966</v>
       </c>
       <c r="L4" t="n">
-        <v>1.869279082683199</v>
+        <v>1.869148777259334</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8518606910866438</v>
+        <v>0.8519588603755692</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7120617256075044</v>
+        <v>0.7119297429102082</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1170480790213397</v>
+        <v>0.1171017305243056</v>
       </c>
       <c r="K6" t="n">
-        <v>0.170890195371156</v>
+        <v>0.1709685265654862</v>
       </c>
       <c r="L6" t="n">
-        <v>2.307075372193669</v>
+        <v>2.306757755296111</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5220344324351751</v>
+        <v>0.522273718138403</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -749,25 +749,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2223089647790711</v>
+        <v>0.2223763912679566</v>
       </c>
       <c r="J7" t="n">
-        <v>0.453119946643485</v>
+        <v>0.4529540774808269</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3245710885774438</v>
+        <v>0.3246695312512166</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9914979829146571</v>
+        <v>0.9917987050550862</v>
       </c>
       <c r="M7" t="n">
-        <v>1.683930928507899</v>
+        <v>1.683531763693697</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -791,22 +791,22 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6074149451463924</v>
+        <v>0.6073144303778012</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1595874206721982</v>
+        <v>0.1596282803342271</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2329976341814094</v>
+        <v>0.2330572892879716</v>
       </c>
       <c r="L8" t="n">
-        <v>2.055242469620587</v>
+        <v>2.055000580421375</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7117598961980041</v>
+        <v>0.711942130290653</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -827,25 +827,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2694303011479069</v>
+        <v>0.2694701237108358</v>
       </c>
       <c r="J9" t="n">
-        <v>0.337201459176149</v>
+        <v>0.3371034956713441</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3933682396759441</v>
+        <v>0.3934263806178202</v>
       </c>
       <c r="L9" t="n">
-        <v>1.201659143119665</v>
+        <v>1.201836751750327</v>
       </c>
       <c r="M9" t="n">
-        <v>1.404972617204391</v>
+        <v>1.404736867631853</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -869,22 +869,22 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7102055916182096</v>
+        <v>0.7100739800815448</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1178026050332482</v>
+        <v>0.1178561056579087</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1719918033485423</v>
+        <v>0.1720699142605466</v>
       </c>
       <c r="L10" t="n">
-        <v>2.302608578203171</v>
+        <v>2.302291854505181</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5253996184482868</v>
+        <v>0.5256382312342727</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -905,25 +905,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2232551394159745</v>
+        <v>0.2233220598323401</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4507923570367026</v>
+        <v>0.4506277328124431</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3259525035473228</v>
+        <v>0.3260502073552166</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9957179217952463</v>
+        <v>0.996016386852237</v>
       </c>
       <c r="M11" t="n">
-        <v>1.67832957465743</v>
+        <v>1.677933405792546</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -947,28 +947,30 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8381201773986344</v>
+        <v>0.8379932818573372</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06580480593551448</v>
+        <v>0.06585638948888727</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09607501666585112</v>
+        <v>0.0961503286537754</v>
       </c>
       <c r="L12" t="n">
-        <v>2.610435548861755</v>
+        <v>2.610130174225787</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2934894344723946</v>
+        <v>0.2937194971204372</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Sunderland</t>
@@ -979,9 +981,17 @@
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G13" t="n">
         <v>86.18871961950001</v>
       </c>
@@ -1003,8 +1013,12 @@
       <c r="M13" t="n">
         <v>2.136433086818613</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1075,25 +1089,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H15" t="n">
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2516989092247718</v>
+        <v>0.2517390324208409</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3808206833070611</v>
+        <v>0.3807219802447313</v>
       </c>
       <c r="K15" t="n">
-        <v>0.367480407468167</v>
+        <v>0.3675389873344277</v>
       </c>
       <c r="L15" t="n">
-        <v>1.122577135142482</v>
+        <v>1.122756084596951</v>
       </c>
       <c r="M15" t="n">
-        <v>1.509942457389351</v>
+        <v>1.509704928068622</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1117,22 +1131,22 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7172014263682936</v>
+        <v>0.7170791719846271</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1149587697689863</v>
+        <v>0.1150084666729158</v>
       </c>
       <c r="K16" t="n">
-        <v>0.16783980386272</v>
+        <v>0.167912361342457</v>
       </c>
       <c r="L16" t="n">
-        <v>2.319444082967601</v>
+        <v>2.319149877296339</v>
       </c>
       <c r="M16" t="n">
-        <v>0.512716113169679</v>
+        <v>0.5129377613612044</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1209,22 +1223,22 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6810021849187705</v>
+        <v>0.6808888945699305</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1296739085696055</v>
+        <v>0.1297199615569388</v>
       </c>
       <c r="K18" t="n">
-        <v>0.189323906511624</v>
+        <v>0.1893911438731307</v>
       </c>
       <c r="L18" t="n">
-        <v>2.232330461267936</v>
+        <v>2.232057827582922</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5783456322204404</v>
+        <v>0.5785510285439471</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1245,25 +1259,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2375737017695618</v>
+        <v>0.2376272407811353</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4155686936468779</v>
+        <v>0.415436987678407</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3468576045835602</v>
+        <v>0.3469357715404576</v>
       </c>
       <c r="L19" t="n">
-        <v>1.059578709892246</v>
+        <v>1.059817493883864</v>
       </c>
       <c r="M19" t="n">
-        <v>1.593563685524194</v>
+        <v>1.593246734575679</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1287,22 +1301,22 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6341017761900082</v>
+        <v>0.6340037224431414</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1487391153699154</v>
+        <v>0.1487789746166092</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2171591084400765</v>
+        <v>0.2172173029402494</v>
       </c>
       <c r="L20" t="n">
-        <v>2.119464437010101</v>
+        <v>2.119228470269674</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6633764545498226</v>
+        <v>0.663554226790077</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1323,25 +1337,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2585191479450604</v>
+        <v>0.2585605072256917</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3640428960551514</v>
+        <v>0.3639411522247984</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3774379559997882</v>
+        <v>0.3774983405495099</v>
       </c>
       <c r="L21" t="n">
-        <v>1.15299539983497</v>
+        <v>1.153179862226585</v>
       </c>
       <c r="M21" t="n">
-        <v>1.469566644165243</v>
+        <v>1.469321797223905</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1365,22 +1379,22 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7690417648550697</v>
+        <v>0.7689120279985707</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09388546144102861</v>
+        <v>0.09393820000058098</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1370727737039018</v>
+        <v>0.1371497720008482</v>
       </c>
       <c r="L22" t="n">
-        <v>2.444198068269111</v>
+        <v>2.44388585599656</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4187291580269876</v>
+        <v>0.4189643720025912</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1401,25 +1415,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1909381794694655</v>
+        <v>0.1910150829333144</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5302920785051147</v>
+        <v>0.5301028959840466</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2787697420254197</v>
+        <v>0.278882021082639</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8515842804338163</v>
+        <v>0.8519272698825822</v>
       </c>
       <c r="M23" t="n">
-        <v>1.869645977540764</v>
+        <v>1.869190709034779</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1443,22 +1457,22 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6573049176288743</v>
+        <v>0.6571988685766603</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1393069440533032</v>
+        <v>0.1393500534241218</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2033881383178226</v>
+        <v>0.2034510779992179</v>
       </c>
       <c r="L24" t="n">
-        <v>2.175302891204446</v>
+        <v>2.175047683729199</v>
       </c>
       <c r="M24" t="n">
-        <v>0.621308970477732</v>
+        <v>0.6215012382715833</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1535,22 +1549,22 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I26" t="n">
-        <v>0.79217875387643</v>
+        <v>0.7920481252108461</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08448018135104475</v>
+        <v>0.08453328243461537</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1233410647725253</v>
+        <v>0.1234185923545384</v>
       </c>
       <c r="L26" t="n">
-        <v>2.499877326401815</v>
+        <v>2.499562967987077</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3767816088256596</v>
+        <v>0.3770184396583846</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1677,25 +1691,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1299010274196409</v>
+        <v>0.1299941210349643</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6804434725476836</v>
+        <v>0.6802144622539879</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1896555000326756</v>
+        <v>0.1897914167110478</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5793585822915982</v>
+        <v>0.5797737798159406</v>
       </c>
       <c r="M29" t="n">
-        <v>2.230985917675726</v>
+        <v>2.230434803473011</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1719,22 +1733,22 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7165687411261461</v>
+        <v>0.7164466193169438</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1152159588918105</v>
+        <v>0.1152656019036814</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1682152999820433</v>
+        <v>0.1682877787793748</v>
       </c>
       <c r="L30" t="n">
-        <v>2.317921523360482</v>
+        <v>2.317627636730206</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5138631766574748</v>
+        <v>0.5140845844904189</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1755,25 +1769,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2199927907277698</v>
+        <v>0.220055901264665</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4588177348096861</v>
+        <v>0.4586624828889241</v>
       </c>
       <c r="K31" t="n">
-        <v>0.321189474462544</v>
+        <v>0.3212816158464109</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9811678466458534</v>
+        <v>0.9814493196404058</v>
       </c>
       <c r="M31" t="n">
-        <v>1.697642678891602</v>
+        <v>1.697269064513183</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1797,22 +1811,22 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8576725493506299</v>
+        <v>0.8575498538632131</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0578566872558415</v>
+        <v>0.05790656347023856</v>
       </c>
       <c r="K32" t="n">
-        <v>0.08447076339352859</v>
+        <v>0.08454358266654829</v>
       </c>
       <c r="L32" t="n">
-        <v>2.657488411445418</v>
+        <v>2.657193144256188</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2580408251610531</v>
+        <v>0.2582632730772639</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1939,25 +1953,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1636176773823884</v>
+        <v>0.1637043792249315</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5975005136393245</v>
+        <v>0.5972872271066686</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2388818089782871</v>
+        <v>0.2390083936683999</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7297348411254522</v>
+        <v>0.7301215313431944</v>
       </c>
       <c r="M35" t="n">
-        <v>2.031383349896261</v>
+        <v>2.030870074988405</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2031,25 +2045,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1502115511608125</v>
+        <v>0.1503016408663091</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6304795841444012</v>
+        <v>0.6302579634688796</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2193088646947863</v>
+        <v>0.2194403956648113</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6699435181772239</v>
+        <v>0.6703453182637388</v>
       </c>
       <c r="M37" t="n">
-        <v>2.11074761712799</v>
+        <v>2.11021428607145</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2073,22 +2087,22 @@
         <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8711128968699261</v>
+        <v>0.8709882309591622</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05239313135368855</v>
+        <v>0.05244380855318612</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07649397177638528</v>
+        <v>0.07656796048765174</v>
       </c>
       <c r="L38" t="n">
-        <v>2.689832662386164</v>
+        <v>2.689532653365139</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2336733658374509</v>
+        <v>0.2338993861472101</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2109,31 +2123,33 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1210769603549254</v>
+        <v>0.1211751151229692</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7021506775268836</v>
+        <v>0.7019092167974955</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1767723621181911</v>
+        <v>0.1769156680795351</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5400032431829672</v>
+        <v>0.5404410134484429</v>
       </c>
       <c r="M39" t="n">
-        <v>2.283224394698842</v>
+        <v>2.282643318472021</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Manchester City</t>
@@ -2144,9 +2160,17 @@
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
       <c r="G40" t="n">
         <v>98.21801907299999</v>
       </c>
@@ -2168,8 +2192,12 @@
       <c r="M40" t="n">
         <v>0.9716808368771344</v>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2187,25 +2215,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H41" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3678203033187097</v>
+        <v>0.3678441708161196</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2569836165371099</v>
+        <v>0.2569739143023904</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3751960801441805</v>
+        <v>0.37518191488149</v>
       </c>
       <c r="L41" t="n">
-        <v>1.478656990100309</v>
+        <v>1.478714427329849</v>
       </c>
       <c r="M41" t="n">
-        <v>1.14614692975551</v>
+        <v>1.146103657788661</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2279,25 +2307,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H43" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2475155390495327</v>
+        <v>0.2475683874335631</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3911117739381494</v>
+        <v>0.3909817669134347</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3613726870123178</v>
+        <v>0.3614498456530021</v>
       </c>
       <c r="L43" t="n">
-        <v>1.103919304160916</v>
+        <v>1.104155007953691</v>
       </c>
       <c r="M43" t="n">
-        <v>1.534708008826766</v>
+        <v>1.534395146393306</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2318,25 +2346,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H44" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5428217134815163</v>
+        <v>0.5427489685667376</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1858448319180828</v>
+        <v>0.1858744030216514</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2713334546004008</v>
+        <v>0.2713766284116111</v>
       </c>
       <c r="L44" t="n">
-        <v>1.89979859504495</v>
+        <v>1.899623534111824</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8288679503546491</v>
+        <v>0.8289998374765652</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2357,25 +2385,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H45" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2952619041357103</v>
+        <v>0.2953274382638341</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2864789007578413</v>
+        <v>0.2864522608683602</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4182591951064483</v>
+        <v>0.4182203008678058</v>
       </c>
       <c r="L45" t="n">
-        <v>1.304044907513579</v>
+        <v>1.304202615659308</v>
       </c>
       <c r="M45" t="n">
-        <v>1.277695897379972</v>
+        <v>1.277577083472886</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2449,25 +2477,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H47" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2484243041249278</v>
+        <v>0.2484766160529371</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3888762118526775</v>
+        <v>0.3887475245097749</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3626994840223946</v>
+        <v>0.3627758594372881</v>
       </c>
       <c r="L47" t="n">
-        <v>1.107972396397178</v>
+        <v>1.108205707596099</v>
       </c>
       <c r="M47" t="n">
-        <v>1.529328119580427</v>
+        <v>1.529018432966613</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2488,25 +2516,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H48" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7989196541363686</v>
+        <v>0.7987900403159666</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08173997799334615</v>
+        <v>0.08179266653822501</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1193403678702854</v>
+        <v>0.1194172931458085</v>
       </c>
       <c r="L48" t="n">
-        <v>2.516099330279391</v>
+        <v>2.515787414093708</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3645603018503238</v>
+        <v>0.3647952927604835</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2527,25 +2555,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H49" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I49" t="n">
-        <v>0.170431772083695</v>
+        <v>0.1705158052660884</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5807378406741102</v>
+        <v>0.5805311190454226</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2488303872421948</v>
+        <v>0.248953075688489</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7601257034932798</v>
+        <v>0.7605004914867544</v>
       </c>
       <c r="M49" t="n">
-        <v>1.991043909264525</v>
+        <v>1.990546432824757</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2566,25 +2594,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H50" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5876198566723179</v>
+        <v>0.5875534229325198</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1676342046047488</v>
+        <v>0.1676612101900326</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2447459387229333</v>
+        <v>0.2447853668774476</v>
       </c>
       <c r="L50" t="n">
-        <v>2.007605508739887</v>
+        <v>2.007445635675007</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7476485525371798</v>
+        <v>0.7477689974475454</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2605,25 +2633,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H51" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2752580076575111</v>
+        <v>0.2752842397634369</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3228653011625228</v>
+        <v>0.3228007701819454</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4018766911799661</v>
+        <v>0.4019149900546178</v>
       </c>
       <c r="L51" t="n">
-        <v>1.227650714152499</v>
+        <v>1.227767709344928</v>
       </c>
       <c r="M51" t="n">
-        <v>1.370472594667534</v>
+        <v>1.370317300600454</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2697,25 +2725,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H53" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2449709848450863</v>
+        <v>0.2450199816574409</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3973713772810876</v>
+        <v>0.3972508451226954</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3576576378738261</v>
+        <v>0.3577291732198637</v>
       </c>
       <c r="L53" t="n">
-        <v>1.092570592409085</v>
+        <v>1.092789118192186</v>
       </c>
       <c r="M53" t="n">
-        <v>1.549771769717089</v>
+        <v>1.54948170858795</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2736,25 +2764,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H54" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6209611490301798</v>
+        <v>0.6208686245887821</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1540808337275692</v>
+        <v>0.154118445289113</v>
       </c>
       <c r="K54" t="n">
-        <v>0.224958017242251</v>
+        <v>0.2250129301221049</v>
       </c>
       <c r="L54" t="n">
-        <v>2.08784146433279</v>
+        <v>2.087618803888451</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6872005184249584</v>
+        <v>0.6873682659894438</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2828,25 +2856,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H56" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5707967973398247</v>
+        <v>0.5707247146669157</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1744728466098274</v>
+        <v>0.1745021485093839</v>
       </c>
       <c r="K56" t="n">
-        <v>0.254730356050348</v>
+        <v>0.2547731368237005</v>
       </c>
       <c r="L56" t="n">
-        <v>1.967120748069822</v>
+        <v>1.966947280824447</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7781488958798302</v>
+        <v>0.7782795823518522</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2973,25 +3001,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H59" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2167738817244836</v>
+        <v>0.2168382355300955</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4667362509577705</v>
+        <v>0.4665779405959651</v>
       </c>
       <c r="K59" t="n">
-        <v>0.316489867317746</v>
+        <v>0.3165838238739395</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9668115124911968</v>
+        <v>0.967098530464226</v>
       </c>
       <c r="M59" t="n">
-        <v>1.716698620191057</v>
+        <v>1.716317645661835</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -3012,25 +3040,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H60" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5954532283250314</v>
+        <v>0.5953707470835405</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1644499071849466</v>
+        <v>0.1644834361449022</v>
       </c>
       <c r="K60" t="n">
-        <v>0.240096864490022</v>
+        <v>0.2401458167715572</v>
       </c>
       <c r="L60" t="n">
-        <v>2.026456549465117</v>
+        <v>2.026258058022179</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7334465860448617</v>
+        <v>0.7335961252062638</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3051,25 +3079,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H61" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2722437572543179</v>
+        <v>0.272276679168093</v>
       </c>
       <c r="J61" t="n">
-        <v>0.330280357154378</v>
+        <v>0.3301993692464911</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3974758855913042</v>
+        <v>0.3975239515854159</v>
       </c>
       <c r="L61" t="n">
-        <v>1.214207157354258</v>
+        <v>1.214353989089695</v>
       </c>
       <c r="M61" t="n">
-        <v>1.388316957054438</v>
+        <v>1.388122059324889</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3090,25 +3118,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H62" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7452348564366079</v>
+        <v>0.7451085962931949</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1035630664891838</v>
+        <v>0.1036143917507337</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1512020770742083</v>
+        <v>0.1512770119560712</v>
       </c>
       <c r="L62" t="n">
-        <v>2.386906646384032</v>
+        <v>2.386602800835656</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4618912765417596</v>
+        <v>0.4621201872082724</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3129,25 +3157,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H63" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I63" t="n">
-        <v>0.202504417649756</v>
+        <v>0.2025757152930567</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5018391325816003</v>
+        <v>0.5016637403790807</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2956564497686437</v>
+        <v>0.2957605443278626</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9031697027179117</v>
+        <v>0.9034876902070326</v>
       </c>
       <c r="M63" t="n">
-        <v>1.801173847513445</v>
+        <v>1.800751765465105</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3168,25 +3196,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H64" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8246604013170931</v>
+        <v>0.8245325214548219</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07127625962719797</v>
+        <v>0.07132824331104803</v>
       </c>
       <c r="K64" t="n">
-        <v>0.104063339055709</v>
+        <v>0.1041392352341301</v>
       </c>
       <c r="L64" t="n">
-        <v>2.578044543006988</v>
+        <v>2.577736799598596</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3178921179373029</v>
+        <v>0.3181239651672743</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3207,25 +3235,25 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H65" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1533531993813837</v>
+        <v>0.1534419852420065</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6227511295217959</v>
+        <v>0.6225327163046642</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2238956710968203</v>
+        <v>0.2240252984533294</v>
       </c>
       <c r="L65" t="n">
-        <v>0.6839552692409715</v>
+        <v>0.6843512541793488</v>
       </c>
       <c r="M65" t="n">
-        <v>2.092149059662208</v>
+        <v>2.091623447367322</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -3246,25 +3274,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H66" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6598785650221906</v>
+        <v>0.6597724312725759</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1382607459259388</v>
+        <v>0.1383038897265952</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2018606890518707</v>
+        <v>0.201923679000829</v>
       </c>
       <c r="L66" t="n">
-        <v>2.181496384118442</v>
+        <v>2.181240972818557</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6166429268296871</v>
+        <v>0.6168353481806146</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3391,25 +3419,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H69" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1550359541893794</v>
+        <v>0.1551243440983814</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6186115526941266</v>
+        <v>0.6183941135179816</v>
       </c>
       <c r="K69" t="n">
-        <v>0.226352493116494</v>
+        <v>0.2264815423836369</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6914603556846323</v>
+        <v>0.6918545746787812</v>
       </c>
       <c r="M69" t="n">
-        <v>2.082187151198874</v>
+        <v>2.081663882937582</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3430,25 +3458,25 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H70" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7687688953928522</v>
+        <v>0.7686401131686007</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09399638398664542</v>
+        <v>0.09404873448430871</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1372347206205023</v>
+        <v>0.1373111523470907</v>
       </c>
       <c r="L70" t="n">
-        <v>2.443541406799059</v>
+        <v>2.443231491852893</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4192238725804386</v>
+        <v>0.4194573558000169</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3469,25 +3497,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H71" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1889977657443074</v>
+        <v>0.1890749637659708</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5350654962690038</v>
+        <v>0.5348755891357116</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2759367379866888</v>
+        <v>0.2760494470983174</v>
       </c>
       <c r="L71" t="n">
-        <v>0.842930035219611</v>
+        <v>0.84327433839623</v>
       </c>
       <c r="M71" t="n">
-        <v>1.8811332267937</v>
+        <v>1.880676214505452</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3508,25 +3536,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H72" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7917047242359228</v>
+        <v>0.7915750443176985</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0846728763268607</v>
+        <v>0.08472559174077296</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1236223994372166</v>
+        <v>0.1236993639415285</v>
       </c>
       <c r="L72" t="n">
-        <v>2.498736572144985</v>
+        <v>2.498424496894624</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3776410284177987</v>
+        <v>0.3778761391638474</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3547,25 +3575,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H73" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="I73" t="n">
-        <v>0.175010502504469</v>
+        <v>0.1750930006084063</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5694741638390063</v>
+        <v>0.5692712185033205</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2555153336565247</v>
+        <v>0.2556357808882732</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7805468411699317</v>
+        <v>0.7809147827134919</v>
       </c>
       <c r="M73" t="n">
-        <v>1.963937825173544</v>
+        <v>1.963449436398235</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3586,25 +3614,25 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>98.21801907299999</v>
+        <v>98.2188830855</v>
       </c>
       <c r="H74" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8383609919539062</v>
+        <v>0.8382279381374764</v>
       </c>
       <c r="J74" t="n">
-        <v>0.06570691383987548</v>
+        <v>0.06576100075712341</v>
       </c>
       <c r="K74" t="n">
-        <v>0.09593209420621822</v>
+        <v>0.09601106110540016</v>
       </c>
       <c r="L74" t="n">
-        <v>2.611015070067937</v>
+        <v>2.610694875517829</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2930528357258447</v>
+        <v>0.2932940633767704</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -3731,25 +3759,25 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H77" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2659310671196206</v>
+        <v>0.2659726312674466</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3458095748857333</v>
+        <v>0.3457073270820812</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3882593579946461</v>
+        <v>0.3883200416504721</v>
       </c>
       <c r="L77" t="n">
-        <v>1.186052559353508</v>
+        <v>1.186237935452812</v>
       </c>
       <c r="M77" t="n">
-        <v>1.425688082651846</v>
+        <v>1.425442022896716</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -3770,25 +3798,25 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H78" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4922615796708618</v>
+        <v>0.4922127361156113</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2063977318411131</v>
+        <v>0.2064175869448734</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3013406884880252</v>
+        <v>0.3013696769395152</v>
       </c>
       <c r="L78" t="n">
-        <v>1.77812542750061</v>
+        <v>1.778007885286349</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9205338840113646</v>
+        <v>0.9206224377741355</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3862,25 +3890,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H80" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6056271287899968</v>
+        <v>0.6055284079948315</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1603141752886192</v>
+        <v>0.1603543056931579</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2340586959213841</v>
+        <v>0.2341172863120105</v>
       </c>
       <c r="L80" t="n">
-        <v>2.050940082291374</v>
+        <v>2.050702510296505</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7150012217872417</v>
+        <v>0.715180203391484</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3901,25 +3929,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H81" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2667939854710491</v>
+        <v>0.2668350229712637</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3436867957412192</v>
+        <v>0.3435858434906914</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3895192187877317</v>
+        <v>0.3895791335380449</v>
       </c>
       <c r="L81" t="n">
-        <v>1.189901175200879</v>
+        <v>1.190084202451836</v>
       </c>
       <c r="M81" t="n">
-        <v>1.420579606011389</v>
+        <v>1.420336664010119</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3940,25 +3968,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H82" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7643885492826481</v>
+        <v>0.7642608489965235</v>
       </c>
       <c r="J82" t="n">
-        <v>0.09577701248672843</v>
+        <v>0.09582892317214488</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1398344382306235</v>
+        <v>0.1399102278313315</v>
       </c>
       <c r="L82" t="n">
-        <v>2.433000086078568</v>
+        <v>2.432692774820902</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4271654756908088</v>
+        <v>0.4273969973477661</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -3979,25 +4007,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H83" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1899646947219471</v>
+        <v>0.1900410982904603</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5326868509840103</v>
+        <v>0.5324988982054675</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2773484542940427</v>
+        <v>0.2774600035040721</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8472425384598841</v>
+        <v>0.8475832983754532</v>
       </c>
       <c r="M83" t="n">
-        <v>1.875409007246073</v>
+        <v>1.874956698120475</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4018,25 +4046,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H84" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5377955118220905</v>
+        <v>0.5377516529143225</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1878880033243534</v>
+        <v>0.1879058321486494</v>
       </c>
       <c r="K84" t="n">
-        <v>0.274316484853556</v>
+        <v>0.2743425149370282</v>
       </c>
       <c r="L84" t="n">
-        <v>1.887703020319828</v>
+        <v>1.887597473679996</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8379804948266163</v>
+        <v>0.8380600113829764</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4163,25 +4191,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H87" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2635109750392851</v>
+        <v>0.2635489226757643</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3517630014033585</v>
+        <v>0.3516696502176198</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3847260235573563</v>
+        <v>0.3847814271066159</v>
       </c>
       <c r="L87" t="n">
-        <v>1.175258948675212</v>
+        <v>1.175428195133909</v>
       </c>
       <c r="M87" t="n">
-        <v>1.440015027767432</v>
+        <v>1.439790377759475</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4202,25 +4230,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H88" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5722326495270275</v>
+        <v>0.5721603438076364</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1738891668589319</v>
+        <v>0.1739185594277901</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2538781836140406</v>
+        <v>0.2539210967645736</v>
       </c>
       <c r="L88" t="n">
-        <v>1.970576132195123</v>
+        <v>1.970402128187483</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7755456841908362</v>
+        <v>0.7756767750479441</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4241,25 +4269,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H89" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2796436663064709</v>
+        <v>0.2796720216965889</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3120765808860817</v>
+        <v>0.3120068266263913</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4082797528074474</v>
+        <v>0.4083211516770198</v>
       </c>
       <c r="L89" t="n">
-        <v>1.24721075172686</v>
+        <v>1.247337216766786</v>
       </c>
       <c r="M89" t="n">
-        <v>1.344509495465692</v>
+        <v>1.344341631556194</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4333,25 +4361,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H91" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3115193625497362</v>
+        <v>0.3115670032119018</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2798701778253105</v>
+        <v>0.2798508117024789</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4086104596249533</v>
+        <v>0.4085821850856193</v>
       </c>
       <c r="L91" t="n">
-        <v>1.343168547274162</v>
+        <v>1.343283194721325</v>
       </c>
       <c r="M91" t="n">
-        <v>1.248220993100885</v>
+        <v>1.248134620193056</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4425,25 +4453,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H93" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2363016443725287</v>
+        <v>0.2363552791453062</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4186979548435794</v>
+        <v>0.4185660133025468</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3450004007838919</v>
+        <v>0.345078707552147</v>
       </c>
       <c r="L93" t="n">
-        <v>1.053905333901478</v>
+        <v>1.054144544988066</v>
       </c>
       <c r="M93" t="n">
-        <v>1.60109426531463</v>
+        <v>1.600776747459787</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4464,25 +4492,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H94" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I94" t="n">
-        <v>0.545843844282064</v>
+        <v>0.5457831858316171</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1846163234625756</v>
+        <v>0.1846409813692614</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2695398322553604</v>
+        <v>0.2695758327991216</v>
       </c>
       <c r="L94" t="n">
-        <v>1.907071365101553</v>
+        <v>1.906925390293973</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8233888026430873</v>
+        <v>0.8234987769069058</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -4556,25 +4584,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H96" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7048900121648674</v>
+        <v>0.7047720085394198</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1199634096890783</v>
+        <v>0.1200113786425123</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1751465781460543</v>
+        <v>0.175216612818068</v>
       </c>
       <c r="L96" t="n">
-        <v>2.289816614640657</v>
+        <v>2.289532638436327</v>
       </c>
       <c r="M96" t="n">
-        <v>0.5350368072132892</v>
+        <v>0.535250748745605</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4595,25 +4623,25 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H97" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2222525229385741</v>
+        <v>0.2223137326349108</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4532587935711079</v>
+        <v>0.4531082177181194</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3244886834903181</v>
+        <v>0.3245780496469698</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9912462523060401</v>
+        <v>0.9915192475517022</v>
       </c>
       <c r="M97" t="n">
-        <v>1.684265064203642</v>
+        <v>1.683902702801328</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4634,25 +4662,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H98" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7934066243615733</v>
+        <v>0.7932776875589913</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08398104700749054</v>
+        <v>0.08403346034187344</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1226123286309362</v>
+        <v>0.1226888520991352</v>
       </c>
       <c r="L98" t="n">
-        <v>2.502832201715656</v>
+        <v>2.502521914776109</v>
       </c>
       <c r="M98" t="n">
-        <v>0.3745554696534078</v>
+        <v>0.3747892331247555</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4673,25 +4701,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H99" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1723578456986281</v>
+        <v>0.172440811039826</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5759996995813749</v>
+        <v>0.5757956048420281</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2516424547199971</v>
+        <v>0.2517635841181459</v>
       </c>
       <c r="L99" t="n">
-        <v>0.7687159918158815</v>
+        <v>0.7690860172376238</v>
       </c>
       <c r="M99" t="n">
-        <v>1.979641553464122</v>
+        <v>1.97915039864423</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4712,25 +4740,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H100" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I100" t="n">
-        <v>0.613035399655027</v>
+        <v>0.6129464029794753</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1573026830670622</v>
+        <v>0.1573388605774491</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2296619172779109</v>
+        <v>0.2297147364430757</v>
       </c>
       <c r="L100" t="n">
-        <v>2.068768116242992</v>
+        <v>2.068553945381502</v>
       </c>
       <c r="M100" t="n">
-        <v>0.7015699664790976</v>
+        <v>0.701731318175423</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4804,25 +4832,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H102" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7906216930894375</v>
+        <v>0.7904927607035815</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08511313289047258</v>
+        <v>0.08516554442943845</v>
       </c>
       <c r="K102" t="n">
-        <v>0.12426517402009</v>
+        <v>0.1243416948669801</v>
       </c>
       <c r="L102" t="n">
-        <v>2.496130253288403</v>
+        <v>2.495819976977725</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3796045726915077</v>
+        <v>0.3798383281552955</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4896,25 +4924,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H104" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7308046947055854</v>
+        <v>0.7306814037333283</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1094289858920385</v>
+        <v>0.1094791041734438</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1597663194023762</v>
+        <v>0.1598394920932279</v>
       </c>
       <c r="L104" t="n">
-        <v>2.352180403519132</v>
+        <v>2.351883703293213</v>
       </c>
       <c r="M104" t="n">
-        <v>0.4880532770784916</v>
+        <v>0.4882768046135592</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4935,25 +4963,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H105" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2087767150273481</v>
+        <v>0.2088446942145555</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4864092810327237</v>
+        <v>0.4862420522321932</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3048140039399282</v>
+        <v>0.3049132535532511</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9311441490219727</v>
+        <v>0.9314473361969176</v>
       </c>
       <c r="M105" t="n">
-        <v>1.764041847038099</v>
+        <v>1.763639410249831</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4974,25 +5002,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H106" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7563125374054205</v>
+        <v>0.7561856235101381</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09905994414413803</v>
+        <v>0.09911153515848044</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1446275184504415</v>
+        <v>0.1447028413313814</v>
       </c>
       <c r="L106" t="n">
-        <v>2.413565130666703</v>
+        <v>2.413259711861796</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4418073508828556</v>
+        <v>0.4420374468068228</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -5013,25 +5041,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H107" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1946355342351596</v>
+        <v>0.1947099713205091</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5211965857815077</v>
+        <v>0.5210134705515476</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2841678799833329</v>
+        <v>0.2842765581279433</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8680744826888116</v>
+        <v>0.8684064720894706</v>
       </c>
       <c r="M107" t="n">
-        <v>1.847757637327856</v>
+        <v>1.847316969782586</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5052,25 +5080,25 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="H108" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8089836434392812</v>
+        <v>0.80884702860375</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07764892543118651</v>
+        <v>0.07770445991717481</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1133674311295323</v>
+        <v>0.1134485114790752</v>
       </c>
       <c r="L108" t="n">
-        <v>2.540318361447376</v>
+        <v>2.539989597290325</v>
       </c>
       <c r="M108" t="n">
-        <v>0.3463142074230918</v>
+        <v>0.3465618912305997</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -5091,25 +5119,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H109" t="n">
-        <v>96.8539368501</v>
+        <v>96.8554584904</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1623424178803712</v>
+        <v>0.1624337847555684</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6006376520142866</v>
+        <v>0.6004128895013017</v>
       </c>
       <c r="K109" t="n">
-        <v>0.237019930105342</v>
+        <v>0.2371533257431299</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7240471837464557</v>
+        <v>0.7244546800098352</v>
       </c>
       <c r="M109" t="n">
-        <v>2.038932886148202</v>
+        <v>2.038391994247035</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5130,25 +5158,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H110" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3000502987968343</v>
+        <v>0.3001023629288659</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2845323988630755</v>
+        <v>0.2845112345817618</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4154173023400902</v>
+        <v>0.4153864024893723</v>
       </c>
       <c r="L110" t="n">
-        <v>1.315568198730593</v>
+        <v>1.31569349127597</v>
       </c>
       <c r="M110" t="n">
-        <v>1.269014498929317</v>
+        <v>1.268920106234658</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5169,25 +5197,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H111" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5273773603391448</v>
+        <v>0.5273261931158785</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1921230242523802</v>
+        <v>0.1921438239366347</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2804996154084751</v>
+        <v>0.2805299829474867</v>
       </c>
       <c r="L111" t="n">
-        <v>1.86263169642591</v>
+        <v>1.862508562295122</v>
       </c>
       <c r="M111" t="n">
-        <v>0.8568686881656158</v>
+        <v>0.8569614547573909</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -5208,25 +5236,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H112" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I112" t="n">
-        <v>0.404407292148925</v>
+        <v>0.404414517639511</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2421108568500305</v>
+        <v>0.2421079196587354</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3534818510010445</v>
+        <v>0.3534775627017537</v>
       </c>
       <c r="L112" t="n">
-        <v>1.566703727447819</v>
+        <v>1.566721115620287</v>
       </c>
       <c r="M112" t="n">
-        <v>1.079814421551136</v>
+        <v>1.07980132167796</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5300,25 +5328,25 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H114" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5892316521529352</v>
+        <v>0.5891673618667046</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1669790031898638</v>
+        <v>0.1670051374525592</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2437893446572011</v>
+        <v>0.2438275006807364</v>
       </c>
       <c r="L114" t="n">
-        <v>2.011484301116007</v>
+        <v>2.01132958628085</v>
       </c>
       <c r="M114" t="n">
-        <v>0.7447263542267923</v>
+        <v>0.7448429130384138</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -5339,25 +5367,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H115" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2674234394158744</v>
+        <v>0.2674535180157385</v>
       </c>
       <c r="J115" t="n">
-        <v>0.342138339036949</v>
+        <v>0.3420643456812832</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3904382215471766</v>
+        <v>0.3904821363029783</v>
       </c>
       <c r="L115" t="n">
-        <v>1.1927085397948</v>
+        <v>1.192842690350194</v>
       </c>
       <c r="M115" t="n">
-        <v>1.416853238658024</v>
+        <v>1.416675173346828</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5378,25 +5406,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H116" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3397000429536879</v>
+        <v>0.3397599048464233</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2684146166854927</v>
+        <v>0.2683902825827547</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3918853403608193</v>
+        <v>0.3918498125708219</v>
       </c>
       <c r="L116" t="n">
-        <v>1.410985469221883</v>
+        <v>1.411129527110092</v>
       </c>
       <c r="M116" t="n">
-        <v>1.197129190417297</v>
+        <v>1.197020660319086</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5470,25 +5498,25 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H118" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4126804568594952</v>
+        <v>0.4126966230442983</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2387477817644328</v>
+        <v>0.2387412101445942</v>
       </c>
       <c r="K118" t="n">
-        <v>0.348571761376072</v>
+        <v>0.3485621668111075</v>
       </c>
       <c r="L118" t="n">
-        <v>1.586613131954558</v>
+        <v>1.586652035944002</v>
       </c>
       <c r="M118" t="n">
-        <v>1.064815106669371</v>
+        <v>1.06478579724489</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -5509,25 +5537,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H119" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I119" t="n">
-        <v>0.4002771775857706</v>
+        <v>0.4002731336699232</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2437897652090363</v>
+        <v>0.243791409077267</v>
       </c>
       <c r="K119" t="n">
-        <v>0.355933057205193</v>
+        <v>0.3559354572528098</v>
       </c>
       <c r="L119" t="n">
-        <v>1.556764589962505</v>
+        <v>1.556754858262579</v>
       </c>
       <c r="M119" t="n">
-        <v>1.087302352832302</v>
+        <v>1.087309684484611</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5601,25 +5629,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H121" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I121" t="n">
-        <v>0.443941641987063</v>
+        <v>0.4439166293612977</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2260399829320882</v>
+        <v>0.2260501506661391</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3300183750808488</v>
+        <v>0.3300332199725631</v>
       </c>
       <c r="L121" t="n">
-        <v>1.661843301042038</v>
+        <v>1.661783108056456</v>
       </c>
       <c r="M121" t="n">
-        <v>1.008138323877113</v>
+        <v>1.00818367197098</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -5640,31 +5668,33 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H122" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3243914131037243</v>
+        <v>0.3244455025493587</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2746376369497056</v>
+        <v>0.2746156493701795</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4009709499465701</v>
+        <v>0.400938848080462</v>
       </c>
       <c r="L122" t="n">
-        <v>1.374145189257743</v>
+        <v>1.374275355728538</v>
       </c>
       <c r="M122" t="n">
-        <v>1.224883860795687</v>
+        <v>1.224785796191</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
+      <c r="A123" t="n">
+        <v>11</v>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Aston Villa</t>
@@ -5675,9 +5705,17 @@
           <t>AFC Bournemouth</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
       <c r="G123" t="n">
         <v>93.8498907716</v>
       </c>
@@ -5699,8 +5737,12 @@
       <c r="M123" t="n">
         <v>0.9102714947080426</v>
       </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -5718,25 +5760,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H124" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4798586768810905</v>
+        <v>0.4798434748948609</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2114395622434592</v>
+        <v>0.2114457419126582</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3087017608754504</v>
+        <v>0.3087107831924809</v>
       </c>
       <c r="L124" t="n">
-        <v>1.748277791518722</v>
+        <v>1.748241207877063</v>
       </c>
       <c r="M124" t="n">
-        <v>0.9430204476058279</v>
+        <v>0.9430480089304554</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5757,25 +5799,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H125" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I125" t="n">
-        <v>0.334592037019566</v>
+        <v>0.3346178334694624</v>
       </c>
       <c r="J125" t="n">
-        <v>0.270491041861965</v>
+        <v>0.2704805555002186</v>
       </c>
       <c r="K125" t="n">
-        <v>0.394916921118469</v>
+        <v>0.3949016110303191</v>
       </c>
       <c r="L125" t="n">
-        <v>1.398693032177167</v>
+        <v>1.398755111438706</v>
       </c>
       <c r="M125" t="n">
-        <v>1.206390046704364</v>
+        <v>1.206343277530975</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5849,25 +5891,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H127" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4715749730562152</v>
+        <v>0.4715365862477556</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2148069215218638</v>
+        <v>0.2148225259155465</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3136181054219211</v>
+        <v>0.3136408878366979</v>
       </c>
       <c r="L127" t="n">
-        <v>1.728343024590567</v>
+        <v>1.728250646579965</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9580388699875124</v>
+        <v>0.9581084655833376</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5941,25 +5983,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H129" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3040476590678828</v>
+        <v>0.304086039072281</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2829074556634623</v>
+        <v>0.2828918540356581</v>
       </c>
       <c r="K129" t="n">
-        <v>0.413044885268655</v>
+        <v>0.4130221068920609</v>
       </c>
       <c r="L129" t="n">
-        <v>1.325187862472303</v>
+        <v>1.325280224108904</v>
       </c>
       <c r="M129" t="n">
-        <v>1.261767252259042</v>
+        <v>1.261697668999035</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -5980,25 +6022,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H130" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6293620936450732</v>
+        <v>0.6292820501270967</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1506658155914336</v>
+        <v>0.1506983536068713</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2199720907634931</v>
+        <v>0.2200195962660321</v>
       </c>
       <c r="L130" t="n">
-        <v>2.108058371698713</v>
+        <v>2.107865746647322</v>
       </c>
       <c r="M130" t="n">
-        <v>0.671969537537794</v>
+        <v>0.6721146570866459</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -6072,25 +6114,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H132" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4119251118724787</v>
+        <v>0.4119416245095074</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2390548325721631</v>
+        <v>0.2390481201180865</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3490200555553581</v>
+        <v>0.3490102553724062</v>
       </c>
       <c r="L132" t="n">
-        <v>1.584795391172794</v>
+        <v>1.584835128900928</v>
       </c>
       <c r="M132" t="n">
-        <v>1.066184553271848</v>
+        <v>1.066154615726665</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6111,25 +6153,25 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H133" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I133" t="n">
-        <v>0.4010556806740102</v>
+        <v>0.4010512677595657</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2434733005390202</v>
+        <v>0.2434750944066806</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3554710187869696</v>
+        <v>0.3554736378337537</v>
       </c>
       <c r="L133" t="n">
-        <v>1.558638060809</v>
+        <v>1.558627441112451</v>
       </c>
       <c r="M133" t="n">
-        <v>1.08589092040403</v>
+        <v>1.085898921053795</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -6150,25 +6192,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H134" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6254098481478148</v>
+        <v>0.6253312750426118</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1522724194521079</v>
+        <v>0.1523043597387757</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2223177324000775</v>
+        <v>0.2223643652186125</v>
       </c>
       <c r="L134" t="n">
-        <v>2.098547276843522</v>
+        <v>2.098358190346448</v>
       </c>
       <c r="M134" t="n">
-        <v>0.679134990756401</v>
+        <v>0.6792774444349395</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6189,25 +6231,25 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H135" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2526426180166401</v>
+        <v>0.2526809917915029</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3784991596790652</v>
+        <v>0.3784047601929028</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3688582223042946</v>
+        <v>0.3689142480155943</v>
       </c>
       <c r="L135" t="n">
-        <v>1.126786076354215</v>
+        <v>1.126957223390103</v>
       </c>
       <c r="M135" t="n">
-        <v>1.50435570134149</v>
+        <v>1.504128528594303</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -6281,25 +6323,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H137" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2838510199139729</v>
+        <v>0.2838718441423253</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3017264910116266</v>
+        <v>0.3016752634098798</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4144224890744005</v>
+        <v>0.4144528924477949</v>
       </c>
       <c r="L137" t="n">
-        <v>1.265975548816319</v>
+        <v>1.266068424874771</v>
       </c>
       <c r="M137" t="n">
-        <v>1.31960196210928</v>
+        <v>1.319478682677434</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6320,25 +6362,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="H138" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I138" t="n">
-        <v>0.578462745276484</v>
+        <v>0.5784029583245727</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1713566076111854</v>
+        <v>0.1713809112501737</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2501806471123307</v>
+        <v>0.2502161304252536</v>
       </c>
       <c r="L138" t="n">
-        <v>1.985568882941783</v>
+        <v>1.985425005398972</v>
       </c>
       <c r="M138" t="n">
-        <v>0.7642504699458869</v>
+        <v>0.7643588641757748</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6359,25 +6401,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H139" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2716099114457676</v>
+        <v>0.271637626076899</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3318396178434118</v>
+        <v>0.3317714398508284</v>
       </c>
       <c r="K139" t="n">
-        <v>0.3965504707108206</v>
+        <v>0.3965909340722725</v>
       </c>
       <c r="L139" t="n">
-        <v>1.211380205048123</v>
+        <v>1.21150381230297</v>
       </c>
       <c r="M139" t="n">
-        <v>1.392069324241056</v>
+        <v>1.391905253624758</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6451,25 +6493,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H141" t="n">
-        <v>91.36094126890001</v>
+        <v>91.36544672470001</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2410774879644801</v>
+        <v>0.2411275847915778</v>
       </c>
       <c r="J141" t="n">
-        <v>0.406949379607379</v>
+        <v>0.4068261414127184</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3519731324281409</v>
+        <v>0.3520462737957037</v>
       </c>
       <c r="L141" t="n">
-        <v>1.075205596321581</v>
+        <v>1.075429028170437</v>
       </c>
       <c r="M141" t="n">
-        <v>1.572821271250278</v>
+        <v>1.572524698033859</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6490,25 +6532,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H142" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5251246633620937</v>
+        <v>0.525074532438025</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1930387547308562</v>
+        <v>0.1930591331552744</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2818365819070501</v>
+        <v>0.2818663344067006</v>
       </c>
       <c r="L142" t="n">
-        <v>1.857210571993331</v>
+        <v>1.857089931720776</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8609528460996188</v>
+        <v>0.8610437338725238</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6635,25 +6677,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H145" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2219812683909209</v>
+        <v>0.2220367776597358</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4539260797583345</v>
+        <v>0.45378952695705</v>
       </c>
       <c r="K145" t="n">
-        <v>0.3240926518507445</v>
+        <v>0.3241736953832142</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9900364570235072</v>
+        <v>0.9902840283624215</v>
       </c>
       <c r="M145" t="n">
-        <v>1.685870891125748</v>
+        <v>1.685542276254364</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -6727,25 +6769,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H147" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3660814384340446</v>
+        <v>0.3660807705316366</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2576904721812827</v>
+        <v>0.2576907436863266</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3762280893846728</v>
+        <v>0.3762284857820368</v>
       </c>
       <c r="L147" t="n">
-        <v>1.474472404686807</v>
+        <v>1.474470797376947</v>
       </c>
       <c r="M147" t="n">
-        <v>1.149299505928521</v>
+        <v>1.149300716841017</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6766,25 +6808,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H148" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5336546491595914</v>
+        <v>0.5336137525419907</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1895712808294344</v>
+        <v>0.1895879054707355</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2767740700109743</v>
+        <v>0.2767983419872738</v>
       </c>
       <c r="L148" t="n">
-        <v>1.877738017489748</v>
+        <v>1.877639599613246</v>
       </c>
       <c r="M148" t="n">
-        <v>0.8454879124992776</v>
+        <v>0.8455620583994803</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6911,25 +6953,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H151" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3331128193425139</v>
+        <v>0.333139659486734</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2710923498607667</v>
+        <v>0.271081439233035</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3957948307967194</v>
+        <v>0.3957789012802311</v>
       </c>
       <c r="L151" t="n">
-        <v>1.395133288824261</v>
+        <v>1.395197879740433</v>
       </c>
       <c r="M151" t="n">
-        <v>1.20907188037902</v>
+        <v>1.209023218979336</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6950,25 +6992,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H152" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4388217894933057</v>
+        <v>0.438825671070576</v>
       </c>
       <c r="J152" t="n">
-        <v>0.228121223783209</v>
+        <v>0.22811964590627</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3330569867234852</v>
+        <v>0.3330546830231541</v>
       </c>
       <c r="L152" t="n">
-        <v>1.649522355203402</v>
+        <v>1.649531696234882</v>
       </c>
       <c r="M152" t="n">
-        <v>1.017420658073112</v>
+        <v>1.017413620741964</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -6989,25 +7031,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H153" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3828966107728061</v>
+        <v>0.3829008642073956</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2508550362712171</v>
+        <v>0.2508533072327661</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3662483529559769</v>
+        <v>0.3662458285598384</v>
       </c>
       <c r="L153" t="n">
-        <v>1.514938185274395</v>
+        <v>1.514948421182025</v>
       </c>
       <c r="M153" t="n">
-        <v>1.118813461769628</v>
+        <v>1.118805750258137</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7028,25 +7070,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H154" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I154" t="n">
-        <v>0.6003944676535198</v>
+        <v>0.6003244241552285</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1624412733115773</v>
+        <v>0.1624697462783624</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2371642590349029</v>
+        <v>0.2372058295664091</v>
       </c>
       <c r="L154" t="n">
-        <v>2.038347661995462</v>
+        <v>2.038179102032095</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7244880789696349</v>
+        <v>0.7246150684014963</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7067,25 +7109,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H155" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2665157910618388</v>
+        <v>0.2665468118133723</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3443711539878767</v>
+        <v>0.3442948429391042</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3891130549502846</v>
+        <v>0.3891583452475236</v>
       </c>
       <c r="L155" t="n">
-        <v>1.188660428135801</v>
+        <v>1.188798780687641</v>
       </c>
       <c r="M155" t="n">
-        <v>1.422226516913915</v>
+        <v>1.422042874064836</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7106,25 +7148,25 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H156" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4639396041852671</v>
+        <v>0.4639315445819291</v>
       </c>
       <c r="J156" t="n">
-        <v>0.217910730005989</v>
+        <v>0.2179140062675085</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3181496658087439</v>
+        <v>0.3181544491505624</v>
       </c>
       <c r="L156" t="n">
-        <v>1.709968478364545</v>
+        <v>1.70994908289635</v>
       </c>
       <c r="M156" t="n">
-        <v>0.9718818558267108</v>
+        <v>0.9718964679530879</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -7145,25 +7187,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H157" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3582926239367999</v>
+        <v>0.3583082809227729</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2608566569362601</v>
+        <v>0.2608502923078159</v>
       </c>
       <c r="K157" t="n">
-        <v>0.3808507191269399</v>
+        <v>0.3808414267694112</v>
       </c>
       <c r="L157" t="n">
-        <v>1.45572859093734</v>
+        <v>1.45576626953773</v>
       </c>
       <c r="M157" t="n">
-        <v>1.16342068993572</v>
+        <v>1.163392303692859</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7237,25 +7279,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H159" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2533441676968265</v>
+        <v>0.2533826825537085</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3767733474658067</v>
+        <v>0.3766786009178769</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3698824848373668</v>
+        <v>0.3699387165284145</v>
       </c>
       <c r="L159" t="n">
-        <v>1.129914987927847</v>
+        <v>1.13008676418954</v>
       </c>
       <c r="M159" t="n">
-        <v>1.500202527234787</v>
+        <v>1.499974519282045</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7276,25 +7318,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H160" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I160" t="n">
-        <v>0.7344266534332906</v>
+        <v>0.7343146524175526</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1079566449458168</v>
+        <v>0.108002173814003</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1576167016208926</v>
+        <v>0.1576831737684444</v>
       </c>
       <c r="L160" t="n">
-        <v>2.360896661920764</v>
+        <v>2.360627131021102</v>
       </c>
       <c r="M160" t="n">
-        <v>0.481486636458343</v>
+        <v>0.4816896952104535</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7315,25 +7357,25 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H161" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2042053948086407</v>
+        <v>0.2042695718632149</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4976547287707439</v>
+        <v>0.4974968532164913</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2981398764206155</v>
+        <v>0.2982335749202938</v>
       </c>
       <c r="L161" t="n">
-        <v>0.9107560608465376</v>
+        <v>0.9110422905099386</v>
       </c>
       <c r="M161" t="n">
-        <v>1.791104062732847</v>
+        <v>1.790724134569768</v>
       </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
@@ -7354,25 +7396,25 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H162" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5328787796088201</v>
+        <v>0.53283823959264</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1898866749557642</v>
+        <v>0.1899031546371382</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2772345454354156</v>
+        <v>0.2772586057702218</v>
       </c>
       <c r="L162" t="n">
-        <v>1.875870884261876</v>
+        <v>1.875773324548142</v>
       </c>
       <c r="M162" t="n">
-        <v>0.8468945703027082</v>
+        <v>0.8469680696816364</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -7446,25 +7488,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H164" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I164" t="n">
-        <v>0.731116103067779</v>
+        <v>0.7310047412410913</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1093023971269191</v>
+        <v>0.109347666162158</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1595814998053019</v>
+        <v>0.1596475925967506</v>
       </c>
       <c r="L164" t="n">
-        <v>2.352929809008639</v>
+        <v>2.352661816320024</v>
       </c>
       <c r="M164" t="n">
-        <v>0.4874886911860592</v>
+        <v>0.4876905910832245</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7485,25 +7527,25 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H165" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2059920987159622</v>
+        <v>0.2060554463651087</v>
       </c>
       <c r="J165" t="n">
-        <v>0.493259437158733</v>
+        <v>0.4931036019418326</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3007484641253048</v>
+        <v>0.3008409516930587</v>
       </c>
       <c r="L165" t="n">
-        <v>0.9187247602731914</v>
+        <v>0.9190072907883848</v>
       </c>
       <c r="M165" t="n">
-        <v>1.780526775601504</v>
+        <v>1.780151757518556</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -7524,25 +7566,25 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H166" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6615758826792466</v>
+        <v>0.661483110268225</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1375707793986802</v>
+        <v>0.1376084917608842</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2008533379220731</v>
+        <v>0.2009083979708909</v>
       </c>
       <c r="L166" t="n">
-        <v>2.185580985959813</v>
+        <v>2.185357728775566</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6135656761181136</v>
+        <v>0.6137338732535434</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -7616,25 +7658,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="H168" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I168" t="n">
-        <v>0.6908687442130035</v>
+        <v>0.6907670313037346</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1256631121085352</v>
+        <v>0.1257044588196201</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1834681436784614</v>
+        <v>0.1835285098766454</v>
       </c>
       <c r="L168" t="n">
-        <v>2.256074376317472</v>
+        <v>2.255829603787849</v>
       </c>
       <c r="M168" t="n">
-        <v>0.5604574800040671</v>
+        <v>0.5606418863355057</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7693,7 +7735,9 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
+      <c r="A170" t="n">
+        <v>11</v>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Chelsea</t>
@@ -7704,9 +7748,17 @@
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
       <c r="G170" t="n">
         <v>94.6436579465</v>
       </c>
@@ -7728,8 +7780,12 @@
       <c r="M170" t="n">
         <v>0.4476921478096332</v>
       </c>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -7747,25 +7803,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H171" t="n">
-        <v>94.6436579465</v>
+        <v>94.64660840169999</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1938716511824548</v>
+        <v>0.1939459658933573</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5230757380911611</v>
+        <v>0.522892923902341</v>
       </c>
       <c r="K171" t="n">
-        <v>0.283052610726384</v>
+        <v>0.2831611102043017</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8646675642737485</v>
+        <v>0.8649990078843737</v>
       </c>
       <c r="M171" t="n">
-        <v>1.852279824999868</v>
+        <v>1.851839881911325</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7786,25 +7842,25 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H172" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5915041917241253</v>
+        <v>0.5914389417215061</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1660552066162093</v>
+        <v>0.1660817310075179</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2424406016596655</v>
+        <v>0.242479327270976</v>
       </c>
       <c r="L172" t="n">
-        <v>2.016953176832041</v>
+        <v>2.016796152435494</v>
       </c>
       <c r="M172" t="n">
-        <v>0.7406062215082932</v>
+        <v>0.7407245202935295</v>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
@@ -7825,25 +7881,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H173" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2665955345176506</v>
+        <v>0.2666260887012337</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3441749850865795</v>
+        <v>0.344099821794965</v>
       </c>
       <c r="K173" t="n">
-        <v>0.3892294803957698</v>
+        <v>0.3892740895038012</v>
       </c>
       <c r="L173" t="n">
-        <v>1.189016083948722</v>
+        <v>1.189152355607502</v>
       </c>
       <c r="M173" t="n">
-        <v>1.421754435655508</v>
+        <v>1.421573554888696</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7864,25 +7920,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H174" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3418110223213967</v>
+        <v>0.341870068448815</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2675564949913021</v>
+        <v>0.2675324925004817</v>
       </c>
       <c r="K174" t="n">
-        <v>0.3906324826873011</v>
+        <v>0.3905974390507033</v>
       </c>
       <c r="L174" t="n">
-        <v>1.416065549651491</v>
+        <v>1.416207644397148</v>
       </c>
       <c r="M174" t="n">
-        <v>1.193301967661208</v>
+        <v>1.193194916552148</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7903,31 +7959,33 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H175" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4777295297453973</v>
+        <v>0.4776744474859301</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2123050692091881</v>
+        <v>0.2123274603715732</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3099654010454146</v>
+        <v>0.3099980921424968</v>
       </c>
       <c r="L175" t="n">
-        <v>1.743153990281606</v>
+        <v>1.743021434600287</v>
       </c>
       <c r="M175" t="n">
-        <v>0.9468806086729789</v>
+        <v>0.9469804732572162</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
+      <c r="A176" t="n">
+        <v>11</v>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tottenham Hotspur</t>
@@ -7938,9 +7996,17 @@
           <t>Manchester United</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G176" t="n">
         <v>91.4241912386</v>
       </c>
@@ -7962,8 +8028,12 @@
       <c r="M176" t="n">
         <v>1.060682376625766</v>
       </c>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -7981,25 +8051,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H177" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3981100744392757</v>
+        <v>0.3981070569573959</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2446707014474489</v>
+        <v>0.2446719280660992</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3572192241132754</v>
+        <v>0.3572210149765048</v>
       </c>
       <c r="L177" t="n">
-        <v>1.551549447431103</v>
+        <v>1.551542185848692</v>
       </c>
       <c r="M177" t="n">
-        <v>1.091231328455622</v>
+        <v>1.091236799174802</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8020,25 +8090,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H178" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3738491605166147</v>
+        <v>0.3738827537053172</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2545328615786119</v>
+        <v>0.2545192058108466</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3716179779047734</v>
+        <v>0.3715980404838362</v>
       </c>
       <c r="L178" t="n">
-        <v>1.493165459454617</v>
+        <v>1.493246301599788</v>
       </c>
       <c r="M178" t="n">
-        <v>1.135216562640609</v>
+        <v>1.135155657916376</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8165,25 +8235,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H181" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4956631699849489</v>
+        <v>0.4956132015593904</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2050149715508338</v>
+        <v>0.205035283918947</v>
       </c>
       <c r="K181" t="n">
-        <v>0.2993218584642173</v>
+        <v>0.2993515145216626</v>
       </c>
       <c r="L181" t="n">
-        <v>1.786311368419064</v>
+        <v>1.786191119199834</v>
       </c>
       <c r="M181" t="n">
-        <v>0.9143667731167187</v>
+        <v>0.9144573662785037</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8204,25 +8274,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H182" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I182" t="n">
-        <v>0.482204576052724</v>
+        <v>0.4821882642893153</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2104859446940146</v>
+        <v>0.2104925754921483</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3073094792532614</v>
+        <v>0.3073191602185364</v>
       </c>
       <c r="L182" t="n">
-        <v>1.753923207411433</v>
+        <v>1.753883953086482</v>
       </c>
       <c r="M182" t="n">
-        <v>0.9387673133353052</v>
+        <v>0.9387968866949812</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8296,25 +8366,25 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H184" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3491418988914591</v>
+        <v>0.3491860302338707</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2645764638652606</v>
+        <v>0.2645585242951746</v>
       </c>
       <c r="K184" t="n">
-        <v>0.3862816372432804</v>
+        <v>0.3862554454709549</v>
       </c>
       <c r="L184" t="n">
-        <v>1.433707333917658</v>
+        <v>1.433813536172567</v>
       </c>
       <c r="M184" t="n">
-        <v>1.180011028839062</v>
+        <v>1.179931018356479</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -8335,25 +8405,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H185" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4693239397306908</v>
+        <v>0.4692866326460791</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2157219757192314</v>
+        <v>0.2157371412007809</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3149540845500778</v>
+        <v>0.3149762261531401</v>
       </c>
       <c r="L185" t="n">
-        <v>1.72292590374215</v>
+        <v>1.722836124091377</v>
       </c>
       <c r="M185" t="n">
-        <v>0.9621200117077719</v>
+        <v>0.9621876497554827</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8374,25 +8444,25 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H186" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5159916913901534</v>
+        <v>0.515959644704528</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1967513449633523</v>
+        <v>0.1967643720713301</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2872569636464943</v>
+        <v>0.2872759832241419</v>
       </c>
       <c r="L186" t="n">
-        <v>1.835232037816955</v>
+        <v>1.835154917337726</v>
       </c>
       <c r="M186" t="n">
-        <v>0.8775109985365512</v>
+        <v>0.877569099438132</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -8413,25 +8483,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H187" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3021390708960166</v>
+        <v>0.3021782113817906</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2836833045138144</v>
+        <v>0.2836673937472396</v>
       </c>
       <c r="K187" t="n">
-        <v>0.414177624590169</v>
+        <v>0.4141543948709698</v>
       </c>
       <c r="L187" t="n">
-        <v>1.320594837278219</v>
+        <v>1.320689029016342</v>
       </c>
       <c r="M187" t="n">
-        <v>1.265227538131612</v>
+        <v>1.265156576112689</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8452,25 +8522,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H188" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6315514437818801</v>
+        <v>0.6314705669109459</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1497758358610244</v>
+        <v>0.1498087126378268</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2186727203570955</v>
+        <v>0.2187207204512271</v>
       </c>
       <c r="L188" t="n">
-        <v>2.113327051702736</v>
+        <v>2.113132421184065</v>
       </c>
       <c r="M188" t="n">
-        <v>0.6680002279401686</v>
+        <v>0.6681468583647077</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8544,25 +8614,25 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H190" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4142033699513217</v>
+        <v>0.4142188363761856</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2381287114019018</v>
+        <v>0.2381224242373229</v>
       </c>
       <c r="K190" t="n">
-        <v>0.3476679186467765</v>
+        <v>0.3476587393864915</v>
       </c>
       <c r="L190" t="n">
-        <v>1.590278028500742</v>
+        <v>1.590315248515048</v>
       </c>
       <c r="M190" t="n">
-        <v>1.062054052852482</v>
+        <v>1.06202601209846</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -8583,25 +8653,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H191" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3988871660650378</v>
+        <v>0.3988837808648856</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2443548105426676</v>
+        <v>0.2443561866402904</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3567580233922947</v>
+        <v>0.356760032494824</v>
       </c>
       <c r="L191" t="n">
-        <v>1.553419521587408</v>
+        <v>1.553411375089481</v>
       </c>
       <c r="M191" t="n">
-        <v>1.089822455020297</v>
+        <v>1.089828592415695</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8675,25 +8745,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H193" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2517776343496503</v>
+        <v>0.2518164992996297</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3806270194998603</v>
+        <v>0.3805314117229109</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3675953461504894</v>
+        <v>0.3676520889774593</v>
       </c>
       <c r="L193" t="n">
-        <v>1.12292824919944</v>
+        <v>1.123101586876349</v>
       </c>
       <c r="M193" t="n">
-        <v>1.50947640465007</v>
+        <v>1.509246324146192</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8714,25 +8784,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H194" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I194" t="n">
-        <v>0.5478540833671628</v>
+        <v>0.547807581175291</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1837991531027793</v>
+        <v>0.1838180564328085</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2683467635300578</v>
+        <v>0.2683743623919004</v>
       </c>
       <c r="L194" t="n">
-        <v>1.911909013631546</v>
+        <v>1.911797105917773</v>
       </c>
       <c r="M194" t="n">
-        <v>0.8197442228383958</v>
+        <v>0.819828531690326</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8753,25 +8823,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H195" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2830757695525444</v>
+        <v>0.2830970336878298</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3036336069007407</v>
+        <v>0.3035812971279387</v>
       </c>
       <c r="K195" t="n">
-        <v>0.4132906235467149</v>
+        <v>0.4133216691842315</v>
       </c>
       <c r="L195" t="n">
-        <v>1.262517932204348</v>
+        <v>1.262612770247721</v>
       </c>
       <c r="M195" t="n">
-        <v>1.324191444248937</v>
+        <v>1.324065560568048</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -8792,25 +8862,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="H196" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I196" t="n">
-        <v>0.5807524721770052</v>
+        <v>0.5806916976179929</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1704258243182906</v>
+        <v>0.1704505294235801</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2488217035047042</v>
+        <v>0.2488577729584269</v>
       </c>
       <c r="L196" t="n">
-        <v>1.99107912003572</v>
+        <v>1.990932865812405</v>
       </c>
       <c r="M196" t="n">
-        <v>0.760099176459576</v>
+        <v>0.7602093612291673</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8937,25 +9007,25 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H199" t="n">
-        <v>91.4241912386</v>
+        <v>91.428666924</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2401902876813727</v>
+        <v>0.2402408857794256</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4091318923038232</v>
+        <v>0.4090074209826131</v>
       </c>
       <c r="K199" t="n">
-        <v>0.3506778200148041</v>
+        <v>0.3507516932379614</v>
       </c>
       <c r="L199" t="n">
-        <v>1.071248683058922</v>
+        <v>1.071474350576238</v>
       </c>
       <c r="M199" t="n">
-        <v>1.578073496926274</v>
+        <v>1.5777739561858</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -8976,25 +9046,25 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H200" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I200" t="n">
-        <v>0.2401600084921684</v>
+        <v>0.240216010711006</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4092063791092657</v>
+        <v>0.4090686136509255</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3506336123985659</v>
+        <v>0.3507153756380686</v>
       </c>
       <c r="L200" t="n">
-        <v>1.071113637875071</v>
+        <v>1.071363407771087</v>
       </c>
       <c r="M200" t="n">
-        <v>1.578252749726363</v>
+        <v>1.577921216590845</v>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
@@ -9068,25 +9138,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H202" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I202" t="n">
-        <v>0.269720182834095</v>
+        <v>0.2697537351166003</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3364883502281263</v>
+        <v>0.3364058116131631</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3937914669377787</v>
+        <v>0.3938404532702365</v>
       </c>
       <c r="L202" t="n">
-        <v>1.202952015440064</v>
+        <v>1.203101658620037</v>
       </c>
       <c r="M202" t="n">
-        <v>1.403256517622158</v>
+        <v>1.403057888109726</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9160,25 +9230,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H204" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I204" t="n">
-        <v>0.2536758067589029</v>
+        <v>0.2537188113717817</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3759575153730987</v>
+        <v>0.3758517240254171</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3703666778679984</v>
+        <v>0.3704294646028012</v>
       </c>
       <c r="L204" t="n">
-        <v>1.131394098144707</v>
+        <v>1.131585898718146</v>
       </c>
       <c r="M204" t="n">
-        <v>1.498239223987295</v>
+        <v>1.497984636679052</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9199,25 +9269,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H205" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I205" t="n">
-        <v>0.6256754711645524</v>
+        <v>0.6255834976051624</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1521644426160357</v>
+        <v>0.1522018302418039</v>
       </c>
       <c r="K205" t="n">
-        <v>0.222160086219412</v>
+        <v>0.2222146721530337</v>
       </c>
       <c r="L205" t="n">
-        <v>2.099186499713069</v>
+        <v>2.098965164968521</v>
       </c>
       <c r="M205" t="n">
-        <v>0.6786534140675189</v>
+        <v>0.6788201628784455</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9291,25 +9361,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H207" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6749318262501477</v>
+        <v>0.6748231042689627</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1321415340446555</v>
+        <v>0.1321857299719664</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1929266397051969</v>
+        <v>0.1929911657590709</v>
       </c>
       <c r="L207" t="n">
-        <v>2.21772211845564</v>
+        <v>2.217460478565959</v>
       </c>
       <c r="M207" t="n">
-        <v>0.5893512418391633</v>
+        <v>0.58954835567497</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9383,25 +9453,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H209" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I209" t="n">
-        <v>0.5128472880961196</v>
+        <v>0.5128034429020965</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1980295576845042</v>
+        <v>0.1980473809341071</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2891231542193761</v>
+        <v>0.2891491761637964</v>
       </c>
       <c r="L209" t="n">
-        <v>1.827665018507735</v>
+        <v>1.827559504870086</v>
       </c>
       <c r="M209" t="n">
-        <v>0.8832118272728888</v>
+        <v>0.8832913189661178</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9422,25 +9492,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H210" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I210" t="n">
-        <v>0.2433365391775264</v>
+        <v>0.2433855332467559</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4013921136232852</v>
+        <v>0.4012715882129803</v>
       </c>
       <c r="K210" t="n">
-        <v>0.3552713471991885</v>
+        <v>0.3553428785402636</v>
       </c>
       <c r="L210" t="n">
-        <v>1.085280964731768</v>
+        <v>1.085499478280531</v>
       </c>
       <c r="M210" t="n">
-        <v>1.559447688069044</v>
+        <v>1.559157643179205</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9461,25 +9531,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H211" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I211" t="n">
-        <v>0.651369845981837</v>
+        <v>0.6512686932017197</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1417195748041313</v>
+        <v>0.1417606938204391</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2069105792140317</v>
+        <v>0.2069706129778411</v>
       </c>
       <c r="L211" t="n">
-        <v>2.161020117159543</v>
+        <v>2.160776692583</v>
       </c>
       <c r="M211" t="n">
-        <v>0.6320693036264255</v>
+        <v>0.6322526944391585</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9500,25 +9570,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H212" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3287480481271023</v>
+        <v>0.3287875762037685</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2728666471028039</v>
+        <v>0.272850578778956</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3983853047700937</v>
+        <v>0.3983618450172756</v>
       </c>
       <c r="L212" t="n">
-        <v>1.384629449151401</v>
+        <v>1.384724573628581</v>
       </c>
       <c r="M212" t="n">
-        <v>1.216985246078505</v>
+        <v>1.216913581354144</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9539,25 +9609,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H213" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I213" t="n">
-        <v>0.4777128000411093</v>
+        <v>0.4776853575234306</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2123118699019881</v>
+        <v>0.2123230253969794</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3099753300569026</v>
+        <v>0.30999161707959</v>
       </c>
       <c r="L213" t="n">
-        <v>1.743113730180231</v>
+        <v>1.743047689649882</v>
       </c>
       <c r="M213" t="n">
-        <v>0.9469109397628668</v>
+        <v>0.9469606932705283</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9578,25 +9648,25 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H214" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I214" t="n">
-        <v>0.4405418708081602</v>
+        <v>0.4405319842111579</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2274220037365202</v>
+        <v>0.2274260226783911</v>
       </c>
       <c r="K214" t="n">
-        <v>0.3320361254553195</v>
+        <v>0.332041993110451</v>
       </c>
       <c r="L214" t="n">
-        <v>1.6536617378798</v>
+        <v>1.653637945743925</v>
       </c>
       <c r="M214" t="n">
-        <v>1.01430213666488</v>
+        <v>1.014320061145624</v>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
@@ -9617,25 +9687,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H215" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3582211562275153</v>
+        <v>0.3582482879560122</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2608857088506036</v>
+        <v>0.260874679692678</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3808931349218812</v>
+        <v>0.3808770323513099</v>
       </c>
       <c r="L215" t="n">
-        <v>1.455556603604427</v>
+        <v>1.455621896219347</v>
       </c>
       <c r="M215" t="n">
-        <v>1.163550261473692</v>
+        <v>1.163501071429344</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9709,25 +9779,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H217" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I217" t="n">
-        <v>0.5836609851645806</v>
+        <v>0.5835857182695867</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1692435019656177</v>
+        <v>0.1692740982643957</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2470955128698018</v>
+        <v>0.2471401834660177</v>
       </c>
       <c r="L217" t="n">
-        <v>1.998078468363544</v>
+        <v>1.997897338274778</v>
       </c>
       <c r="M217" t="n">
-        <v>0.7548260187666548</v>
+        <v>0.7549624782592046</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9748,25 +9818,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H218" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4363793051314698</v>
+        <v>0.4363713452693784</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2291141036050936</v>
+        <v>0.2291173393213909</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3345065912634366</v>
+        <v>0.3345113154092308</v>
       </c>
       <c r="L218" t="n">
-        <v>1.643644506657846</v>
+        <v>1.643625351217366</v>
       </c>
       <c r="M218" t="n">
-        <v>1.021848902078717</v>
+        <v>1.021863333373404</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -9840,25 +9910,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="H220" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3575905009856011</v>
+        <v>0.3576180013788826</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2611420727700809</v>
+        <v>0.2611308937484217</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3812674262443181</v>
+        <v>0.3812511048726957</v>
       </c>
       <c r="L220" t="n">
-        <v>1.454038929201121</v>
+        <v>1.454105109009344</v>
       </c>
       <c r="M220" t="n">
-        <v>1.164693644554561</v>
+        <v>1.164643786117961</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9985,25 +10055,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H223" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I223" t="n">
-        <v>0.4105826087756654</v>
+        <v>0.4105865168648949</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2396005655383474</v>
+        <v>0.239598976884189</v>
       </c>
       <c r="K223" t="n">
-        <v>0.3498168256859872</v>
+        <v>0.349814506250916</v>
       </c>
       <c r="L223" t="n">
-        <v>1.581564652012983</v>
+        <v>1.581574056845601</v>
       </c>
       <c r="M223" t="n">
-        <v>1.068618522301029</v>
+        <v>1.068611436903483</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10077,25 +10147,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H225" t="n">
-        <v>86.18871961950001</v>
+        <v>86.1952645961</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3351812676697762</v>
+        <v>0.3352301375969726</v>
       </c>
       <c r="J225" t="n">
-        <v>0.270251517207408</v>
+        <v>0.2702316513833445</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3945672151228157</v>
+        <v>0.3945382110196829</v>
       </c>
       <c r="L225" t="n">
-        <v>1.400111018132144</v>
+        <v>1.400228623810601</v>
       </c>
       <c r="M225" t="n">
-        <v>1.20532176674504</v>
+        <v>1.205233165169716</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10116,25 +10186,25 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H226" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I226" t="n">
-        <v>0.4862780016896647</v>
+        <v>0.4862320194925315</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2088300806139575</v>
+        <v>0.2088487725640116</v>
       </c>
       <c r="K226" t="n">
-        <v>0.3048919176963779</v>
+        <v>0.3049192079434569</v>
       </c>
       <c r="L226" t="n">
-        <v>1.763725922765372</v>
+        <v>1.763615266421051</v>
       </c>
       <c r="M226" t="n">
-        <v>0.9313821595382503</v>
+        <v>0.9314655256354916</v>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
@@ -10155,31 +10225,33 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H227" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I227" t="n">
-        <v>0.3338456329122223</v>
+        <v>0.3338955120822915</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2707944581657633</v>
+        <v>0.2707741820803693</v>
       </c>
       <c r="K227" t="n">
-        <v>0.3953599089220144</v>
+        <v>0.3953303058373392</v>
       </c>
       <c r="L227" t="n">
-        <v>1.396896807658681</v>
+        <v>1.397016842084214</v>
       </c>
       <c r="M227" t="n">
-        <v>1.207743283419304</v>
+        <v>1.207652852078447</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr"/>
+      <c r="A228" t="n">
+        <v>11</v>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Crystal Palace</t>
@@ -10190,9 +10262,17 @@
           <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G228" t="n">
         <v>93.3666679438</v>
       </c>
@@ -10214,8 +10294,12 @@
       <c r="M228" t="n">
         <v>1.009016430401046</v>
       </c>
-      <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -10233,25 +10317,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H229" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I229" t="n">
-        <v>0.374792158039817</v>
+        <v>0.3748249162357433</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2541495292521069</v>
+        <v>0.2541362129122994</v>
       </c>
       <c r="K229" t="n">
-        <v>0.371058312708076</v>
+        <v>0.3710388708519572</v>
       </c>
       <c r="L229" t="n">
-        <v>1.495434786827527</v>
+        <v>1.495513619559187</v>
       </c>
       <c r="M229" t="n">
-        <v>1.133506900464397</v>
+        <v>1.133447509588855</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10272,25 +10356,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H230" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I230" t="n">
-        <v>0.3927733551261858</v>
+        <v>0.3927724069492107</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2468400995422008</v>
+        <v>0.2468404849799956</v>
       </c>
       <c r="K230" t="n">
-        <v>0.3603865453316133</v>
+        <v>0.3603871080707936</v>
       </c>
       <c r="L230" t="n">
-        <v>1.538706610710171</v>
+        <v>1.538704328918426</v>
       </c>
       <c r="M230" t="n">
-        <v>1.100906843958216</v>
+        <v>1.10090856301078</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10364,25 +10448,25 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H232" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I232" t="n">
-        <v>0.5541331818563938</v>
+        <v>0.5540561755528803</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1812466740421163</v>
+        <v>0.1812779774175284</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2646201441014898</v>
+        <v>0.2646658470295914</v>
       </c>
       <c r="L232" t="n">
-        <v>1.927019689670671</v>
+        <v>1.926834373688232</v>
       </c>
       <c r="M232" t="n">
-        <v>0.8083601662278387</v>
+        <v>0.8084997792821764</v>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -10456,25 +10540,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H234" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I234" t="n">
-        <v>0.4172149945581868</v>
+        <v>0.4172023157722164</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2369044737568346</v>
+        <v>0.2369096277348713</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3458805316849786</v>
+        <v>0.3458880564929122</v>
       </c>
       <c r="L234" t="n">
-        <v>1.597525515359539</v>
+        <v>1.597495003809561</v>
       </c>
       <c r="M234" t="n">
-        <v>1.056593952955482</v>
+        <v>1.056616939697526</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10495,25 +10579,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H235" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I235" t="n">
-        <v>0.4012269978923886</v>
+        <v>0.4012479175118658</v>
       </c>
       <c r="J235" t="n">
-        <v>0.243403659393338</v>
+        <v>0.2433951554829814</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3553693427142735</v>
+        <v>0.3553569270051529</v>
       </c>
       <c r="L235" t="n">
-        <v>1.559050336391439</v>
+        <v>1.55910067954075</v>
       </c>
       <c r="M235" t="n">
-        <v>1.085580320894288</v>
+        <v>1.085542393454097</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10534,25 +10618,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H236" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I236" t="n">
-        <v>0.587244325358137</v>
+        <v>0.5871535088542598</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1677868596105135</v>
+        <v>0.1678237768885123</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2449688150313496</v>
+        <v>0.2450227142572279</v>
       </c>
       <c r="L236" t="n">
-        <v>2.006701791105761</v>
+        <v>2.006483240820007</v>
       </c>
       <c r="M236" t="n">
-        <v>0.74832939386289</v>
+        <v>0.7484940449227647</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10573,25 +10657,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H237" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I237" t="n">
-        <v>0.2703285619702862</v>
+        <v>0.2703668193406653</v>
       </c>
       <c r="J237" t="n">
-        <v>0.334991737553096</v>
+        <v>0.3348976244219635</v>
       </c>
       <c r="K237" t="n">
-        <v>0.3946797004766179</v>
+        <v>0.3947355562373713</v>
       </c>
       <c r="L237" t="n">
-        <v>1.205665386387476</v>
+        <v>1.205836014259367</v>
       </c>
       <c r="M237" t="n">
-        <v>1.399654913135906</v>
+        <v>1.399428429503262</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -10612,25 +10696,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H238" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I238" t="n">
-        <v>0.6958207337928985</v>
+        <v>0.6956950188381847</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1236501082142689</v>
+        <v>0.1237012118543964</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1805291579928326</v>
+        <v>0.1806037693074188</v>
       </c>
       <c r="L238" t="n">
-        <v>2.267991359371528</v>
+        <v>2.267688825821973</v>
       </c>
       <c r="M238" t="n">
-        <v>0.5514794826356395</v>
+        <v>0.5517074048706081</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10651,25 +10735,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H239" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2226852025813547</v>
+        <v>0.2227507035128163</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4521944016498672</v>
+        <v>0.4520332693584719</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3251203957687779</v>
+        <v>0.3252160271287118</v>
       </c>
       <c r="L239" t="n">
-        <v>0.9931760035128422</v>
+        <v>0.9934681376671607</v>
       </c>
       <c r="M239" t="n">
-        <v>1.68170360071838</v>
+        <v>1.681315835204128</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10743,25 +10827,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H241" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I241" t="n">
-        <v>0.334567011234331</v>
+        <v>0.334616604437586</v>
       </c>
       <c r="J241" t="n">
-        <v>0.270501214945394</v>
+        <v>0.2704810551066724</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3949317738202752</v>
+        <v>0.3949023404557416</v>
       </c>
       <c r="L241" t="n">
-        <v>1.398632807523268</v>
+        <v>1.398752153768499</v>
       </c>
       <c r="M241" t="n">
-        <v>1.206435418656457</v>
+        <v>1.206345505775759</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10782,25 +10866,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H242" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I242" t="n">
-        <v>0.6922306071444913</v>
+        <v>0.692105716520419</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1251095092908572</v>
+        <v>0.1251602778372281</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1826598835646515</v>
+        <v>0.182734005642353</v>
       </c>
       <c r="L242" t="n">
-        <v>2.259351704998125</v>
+        <v>2.25905115520361</v>
       </c>
       <c r="M242" t="n">
-        <v>0.5579884114372231</v>
+        <v>0.5582148391540372</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10821,25 +10905,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H243" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I243" t="n">
-        <v>0.22445419839117</v>
+        <v>0.2245187739481413</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4478426719577219</v>
+        <v>0.4476838160875725</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3277031296511081</v>
+        <v>0.3277974099642862</v>
       </c>
       <c r="L243" t="n">
-        <v>1.001065724824618</v>
+        <v>1.00135373180871</v>
       </c>
       <c r="M243" t="n">
-        <v>1.671231145524274</v>
+        <v>1.670848858227004</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10913,25 +10997,25 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H245" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I245" t="n">
-        <v>0.2580198197539781</v>
+        <v>0.2580654586453104</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3652712434052137</v>
+        <v>0.3651589717325363</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3767089368408081</v>
+        <v>0.3767755696221533</v>
       </c>
       <c r="L245" t="n">
-        <v>1.150768396102743</v>
+        <v>1.150971945558085</v>
       </c>
       <c r="M245" t="n">
-        <v>1.472522667056449</v>
+        <v>1.472252484819762</v>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
@@ -10952,25 +11036,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H246" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6489574391989275</v>
+        <v>0.6488444482390908</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1427002279679156</v>
+        <v>0.1427461592524021</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2083423328331568</v>
+        <v>0.2084093925085071</v>
       </c>
       <c r="L246" t="n">
-        <v>2.155214650429939</v>
+        <v>2.15494273722578</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6364430167369037</v>
+        <v>0.6366478702657136</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11044,25 +11128,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="H248" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I248" t="n">
-        <v>0.7161230448057498</v>
+        <v>0.7159824914575382</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1153971362578253</v>
+        <v>0.1154542717652284</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1684798189364249</v>
+        <v>0.1685632367772334</v>
       </c>
       <c r="L248" t="n">
-        <v>2.316848953353674</v>
+        <v>2.316510711149848</v>
       </c>
       <c r="M248" t="n">
-        <v>0.5146712277099008</v>
+        <v>0.5149260520729185</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11083,25 +11167,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H249" t="n">
-        <v>93.3666679438</v>
+        <v>93.36948554830001</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2123981457126329</v>
+        <v>0.2124743905222656</v>
       </c>
       <c r="J249" t="n">
-        <v>0.477500561546923</v>
+        <v>0.4773129993152267</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3101012927404441</v>
+        <v>0.3102126101625078</v>
       </c>
       <c r="L249" t="n">
-        <v>0.9472957298783428</v>
+        <v>0.9476357817293045</v>
       </c>
       <c r="M249" t="n">
-        <v>1.742602977381213</v>
+        <v>1.742151608108188</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11175,25 +11259,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H251" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I251" t="n">
-        <v>0.4501717547569256</v>
+        <v>0.4501568117930643</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2235074167654774</v>
+        <v>0.2235134911410308</v>
       </c>
       <c r="K251" t="n">
-        <v>0.326320828477597</v>
+        <v>0.3263296970659049</v>
       </c>
       <c r="L251" t="n">
-        <v>1.676836092748374</v>
+        <v>1.676800132445098</v>
       </c>
       <c r="M251" t="n">
-        <v>0.9968430787740293</v>
+        <v>0.9968701704889971</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11214,25 +11298,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H252" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3186735035116106</v>
+        <v>0.3187178411308159</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2769619904424347</v>
+        <v>0.2769439670199935</v>
       </c>
       <c r="K252" t="n">
-        <v>0.4043645060459546</v>
+        <v>0.4043381918491905</v>
       </c>
       <c r="L252" t="n">
-        <v>1.360385016580786</v>
+        <v>1.360491715241638</v>
       </c>
       <c r="M252" t="n">
-        <v>1.235250477373259</v>
+        <v>1.235170092909171</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11253,25 +11337,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H253" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I253" t="n">
-        <v>0.5042227311795986</v>
+        <v>0.5041819368864703</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2015354751302445</v>
+        <v>0.2015520581762316</v>
       </c>
       <c r="K253" t="n">
-        <v>0.294241793690157</v>
+        <v>0.2942660049372981</v>
       </c>
       <c r="L253" t="n">
-        <v>1.806909987228953</v>
+        <v>1.806811815596709</v>
       </c>
       <c r="M253" t="n">
-        <v>0.8988482190808904</v>
+        <v>0.898922179465993</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11292,25 +11376,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H254" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4733202597952037</v>
+        <v>0.473294459010735</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2140974553678034</v>
+        <v>0.2141079434915711</v>
       </c>
       <c r="K254" t="n">
-        <v>0.312582284836993</v>
+        <v>0.3125975974976939</v>
       </c>
       <c r="L254" t="n">
-        <v>1.732543064222604</v>
+        <v>1.732480974529899</v>
       </c>
       <c r="M254" t="n">
-        <v>0.9548746509404031</v>
+        <v>0.9549214279724073</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11331,25 +11415,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H255" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I255" t="n">
-        <v>0.340226511791774</v>
+        <v>0.3402617137664947</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2682006049626935</v>
+        <v>0.2681862952168721</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3915728832455325</v>
+        <v>0.3915519910166332</v>
       </c>
       <c r="L255" t="n">
-        <v>1.412252418620854</v>
+        <v>1.412337132316117</v>
       </c>
       <c r="M255" t="n">
-        <v>1.196174698133613</v>
+        <v>1.196110876667249</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11370,25 +11454,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H256" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3410942065455695</v>
+        <v>0.3411292750819613</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2678478835180612</v>
+        <v>0.2678336280154629</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3910579099363693</v>
+        <v>0.3910370969025758</v>
       </c>
       <c r="L256" t="n">
-        <v>1.414340529573078</v>
+        <v>1.41442492214846</v>
       </c>
       <c r="M256" t="n">
-        <v>1.194601560490553</v>
+        <v>1.194537980948964</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11409,25 +11493,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H257" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I257" t="n">
-        <v>0.4778596217438021</v>
+        <v>0.4778314040913737</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2122521862830073</v>
+        <v>0.2122636568734253</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3098881919731906</v>
+        <v>0.309904939035201</v>
       </c>
       <c r="L257" t="n">
-        <v>1.743467057204597</v>
+        <v>1.743399151309322</v>
       </c>
       <c r="M257" t="n">
-        <v>0.9466447508222124</v>
+        <v>0.946695909655477</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11448,25 +11532,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H258" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I258" t="n">
-        <v>0.5070945102315599</v>
+        <v>0.5070528970712327</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2003680852717236</v>
+        <v>0.2003850011905558</v>
       </c>
       <c r="K258" t="n">
-        <v>0.2925374044967164</v>
+        <v>0.2925621017382115</v>
       </c>
       <c r="L258" t="n">
-        <v>1.813820935191396</v>
+        <v>1.813720792951909</v>
       </c>
       <c r="M258" t="n">
-        <v>0.8936416603118873</v>
+        <v>0.8937171053098789</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11540,25 +11624,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H260" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I260" t="n">
-        <v>0.6232274047361926</v>
+        <v>0.6231368277036182</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1531595915706534</v>
+        <v>0.1531964115025942</v>
       </c>
       <c r="K260" t="n">
-        <v>0.223613003693154</v>
+        <v>0.2236667607937876</v>
       </c>
       <c r="L260" t="n">
-        <v>2.093295217901732</v>
+        <v>2.093077243904642</v>
       </c>
       <c r="M260" t="n">
-        <v>0.6830917784051141</v>
+        <v>0.6832559953015702</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11579,25 +11663,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H261" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I261" t="n">
-        <v>0.2533706642520937</v>
+        <v>0.2534136441595206</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3767081659398494</v>
+        <v>0.3766024353675793</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3699211698080568</v>
+        <v>0.3699839204729001</v>
       </c>
       <c r="L261" t="n">
-        <v>1.130033162564338</v>
+        <v>1.130224852951462</v>
       </c>
       <c r="M261" t="n">
-        <v>1.500045667627605</v>
+        <v>1.499791226575638</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11618,25 +11702,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H262" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4055905493058728</v>
+        <v>0.405596714871045</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2416298580057428</v>
+        <v>0.241627351678437</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3527795926883844</v>
+        <v>0.352775933450518</v>
       </c>
       <c r="L262" t="n">
-        <v>1.569551240606003</v>
+        <v>1.569566078063653</v>
       </c>
       <c r="M262" t="n">
-        <v>1.077669166705613</v>
+        <v>1.077657988485829</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -11710,25 +11794,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H264" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I264" t="n">
-        <v>0.6192493183706644</v>
+        <v>0.6191601969130222</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1547766998493234</v>
+        <v>0.1548129280841373</v>
       </c>
       <c r="K264" t="n">
-        <v>0.2259739817800121</v>
+        <v>0.2260268750028404</v>
       </c>
       <c r="L264" t="n">
-        <v>2.083721936892005</v>
+        <v>2.083507465741907</v>
       </c>
       <c r="M264" t="n">
-        <v>0.6903040813279823</v>
+        <v>0.6904656592552524</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11802,25 +11886,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H266" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I266" t="n">
-        <v>0.5390193454032765</v>
+        <v>0.5389632151092955</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1873905099986681</v>
+        <v>0.1874133271913433</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2735901445980554</v>
+        <v>0.2736234576993613</v>
       </c>
       <c r="L266" t="n">
-        <v>1.890648180807885</v>
+        <v>1.890513103027248</v>
       </c>
       <c r="M266" t="n">
-        <v>0.8357616745940597</v>
+        <v>0.8358634392733912</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11894,25 +11978,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H268" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I268" t="n">
-        <v>0.5720584326593687</v>
+        <v>0.5719879823843971</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1739599867238338</v>
+        <v>0.173988625046993</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2539815806167974</v>
+        <v>0.2540233925686098</v>
       </c>
       <c r="L268" t="n">
-        <v>1.970156878594904</v>
+        <v>1.969987339721801</v>
       </c>
       <c r="M268" t="n">
-        <v>0.7758615407882989</v>
+        <v>0.7759892677095888</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -11933,25 +12017,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H269" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I269" t="n">
-        <v>0.2738718086135388</v>
+        <v>0.2739029444676369</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3262753508106946</v>
+        <v>0.3261987566096134</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3998528405757666</v>
+        <v>0.3998982989227498</v>
       </c>
       <c r="L269" t="n">
-        <v>1.221468266416383</v>
+        <v>1.22160713232566</v>
       </c>
       <c r="M269" t="n">
-        <v>1.378678893007851</v>
+        <v>1.37849456875159</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -11972,25 +12056,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="H270" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6459092849911831</v>
+        <v>0.6457987844249703</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1439393150442345</v>
+        <v>0.1439842339735893</v>
       </c>
       <c r="K270" t="n">
-        <v>0.2101513999645824</v>
+        <v>0.2102169816014404</v>
       </c>
       <c r="L270" t="n">
-        <v>2.147879254938132</v>
+        <v>2.147613334876351</v>
       </c>
       <c r="M270" t="n">
-        <v>0.641969345097286</v>
+        <v>0.6421696835222082</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12011,25 +12095,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H271" t="n">
-        <v>91.18451766859999</v>
+        <v>91.1887364525</v>
       </c>
       <c r="I271" t="n">
-        <v>0.2435441829103614</v>
+        <v>0.2435980354561141</v>
       </c>
       <c r="J271" t="n">
-        <v>0.4008813100405109</v>
+        <v>0.4007488327779595</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3555745070491276</v>
+        <v>0.3556531317659266</v>
       </c>
       <c r="L271" t="n">
-        <v>1.086207055780212</v>
+        <v>1.086447238134269</v>
       </c>
       <c r="M271" t="n">
-        <v>1.55821843717066</v>
+        <v>1.557899630099805</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12050,25 +12134,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H272" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I272" t="n">
-        <v>0.3587613374110725</v>
+        <v>0.3587888798275211</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2606661230036291</v>
+        <v>0.2606549268993817</v>
       </c>
       <c r="K272" t="n">
-        <v>0.3805725395852984</v>
+        <v>0.3805561932730973</v>
       </c>
       <c r="L272" t="n">
-        <v>1.456856551818516</v>
+        <v>1.45692283275566</v>
       </c>
       <c r="M272" t="n">
-        <v>1.162570908596186</v>
+        <v>1.162520973971242</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -12089,25 +12173,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H273" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4612406050793686</v>
+        <v>0.461220238534521</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2190078841140778</v>
+        <v>0.2190161631973492</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3197515108065536</v>
+        <v>0.3197635982681298</v>
       </c>
       <c r="L273" t="n">
-        <v>1.70347332604466</v>
+        <v>1.703424313871693</v>
       </c>
       <c r="M273" t="n">
-        <v>0.9767751631487869</v>
+        <v>0.9768120878601774</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12128,25 +12212,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H274" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5180695732001102</v>
+        <v>0.5180226401536935</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1959066775609308</v>
+        <v>0.195925756035084</v>
       </c>
       <c r="K274" t="n">
-        <v>0.286023749238959</v>
+        <v>0.2860516038112226</v>
       </c>
       <c r="L274" t="n">
-        <v>1.840232468839289</v>
+        <v>1.840119524272303</v>
       </c>
       <c r="M274" t="n">
-        <v>0.8737437819217513</v>
+        <v>0.8738288719164744</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12273,25 +12357,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H277" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4351523021481498</v>
+        <v>0.4351444704334735</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2296128853056302</v>
+        <v>0.2296160689294823</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3352348125462201</v>
+        <v>0.3352394606370442</v>
       </c>
       <c r="L277" t="n">
-        <v>1.640691718990669</v>
+        <v>1.640672871937465</v>
       </c>
       <c r="M277" t="n">
-        <v>1.024073468463111</v>
+        <v>1.024087667425491</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12365,25 +12449,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H279" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I279" t="n">
-        <v>0.28265717927019</v>
+        <v>0.2826833183686041</v>
       </c>
       <c r="J279" t="n">
-        <v>0.3046633389953326</v>
+        <v>0.304599036813234</v>
       </c>
       <c r="K279" t="n">
-        <v>0.4126794817344774</v>
+        <v>0.4127176448181619</v>
       </c>
       <c r="L279" t="n">
-        <v>1.260651019545048</v>
+        <v>1.260767599923974</v>
       </c>
       <c r="M279" t="n">
-        <v>1.326669498720475</v>
+        <v>1.326514755257864</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12457,25 +12541,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H281" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2366164624641419</v>
+        <v>0.2366690245564609</v>
       </c>
       <c r="J281" t="n">
-        <v>0.4179235023382108</v>
+        <v>0.4177941995911063</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3454600351976473</v>
+        <v>0.3455367758524328</v>
       </c>
       <c r="L281" t="n">
-        <v>1.055309422590073</v>
+        <v>1.055543849521815</v>
       </c>
       <c r="M281" t="n">
-        <v>1.59923054221228</v>
+        <v>1.598919374625752</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12496,25 +12580,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H282" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I282" t="n">
-        <v>0.449400295436269</v>
+        <v>0.4493857200538788</v>
       </c>
       <c r="J282" t="n">
-        <v>0.2238210181153378</v>
+        <v>0.2238269430675289</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3267786864483932</v>
+        <v>0.3267873368785922</v>
       </c>
       <c r="L282" t="n">
-        <v>1.6749795727572</v>
+        <v>1.674944497040229</v>
       </c>
       <c r="M282" t="n">
-        <v>0.9982417407944066</v>
+        <v>0.998268166081179</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12535,25 +12619,25 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H283" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I283" t="n">
-        <v>0.3663040420567067</v>
+        <v>0.3663281397423414</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2575999829037778</v>
+        <v>0.2575901870966092</v>
       </c>
       <c r="K283" t="n">
-        <v>0.3760959750395155</v>
+        <v>0.3760816731610495</v>
       </c>
       <c r="L283" t="n">
-        <v>1.475008101209636</v>
+        <v>1.475066092388073</v>
       </c>
       <c r="M283" t="n">
-        <v>1.148895923750849</v>
+        <v>1.148852234450877</v>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
@@ -12574,25 +12658,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H284" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I284" t="n">
-        <v>0.6604933200986296</v>
+        <v>0.6603896121405151</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1380108454883619</v>
+        <v>0.1380530031949125</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2014958344130084</v>
+        <v>0.2015573846645723</v>
       </c>
       <c r="L284" t="n">
-        <v>2.182975794708897</v>
+        <v>2.182726221086118</v>
       </c>
       <c r="M284" t="n">
-        <v>0.6155283708780941</v>
+        <v>0.6157163942493099</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12613,25 +12697,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H285" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I285" t="n">
-        <v>0.2383526259794081</v>
+        <v>0.2384042378966246</v>
       </c>
       <c r="J285" t="n">
-        <v>0.4136525400906563</v>
+        <v>0.4135255747743035</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3479948339299357</v>
+        <v>0.3480701873290719</v>
       </c>
       <c r="L285" t="n">
-        <v>1.06305271186816</v>
+        <v>1.063282901018946</v>
       </c>
       <c r="M285" t="n">
-        <v>1.588952454201904</v>
+        <v>1.588646911651982</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12652,25 +12736,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H286" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5831032264570292</v>
+        <v>0.583027774535295</v>
       </c>
       <c r="J286" t="n">
-        <v>0.1694702331475491</v>
+        <v>0.1695009046604492</v>
       </c>
       <c r="K286" t="n">
-        <v>0.2474265403954217</v>
+        <v>0.2474713208042558</v>
       </c>
       <c r="L286" t="n">
-        <v>1.996736219766509</v>
+        <v>1.996554644410141</v>
       </c>
       <c r="M286" t="n">
-        <v>0.7558372398380691</v>
+        <v>0.7559740347856034</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12691,25 +12775,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H287" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I287" t="n">
-        <v>0.2709038244557458</v>
+        <v>0.2709368371398522</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3335765918388655</v>
+        <v>0.3334953806359637</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3955195837053888</v>
+        <v>0.3955677822241842</v>
       </c>
       <c r="L287" t="n">
-        <v>1.208231057072626</v>
+        <v>1.208378293643741</v>
       </c>
       <c r="M287" t="n">
-        <v>1.396249359221985</v>
+        <v>1.396053924132075</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12730,25 +12814,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H288" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I288" t="n">
-        <v>0.6152381085776135</v>
+        <v>0.6151499854422577</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1564072729359295</v>
+        <v>0.1564430953486758</v>
       </c>
       <c r="K288" t="n">
-        <v>0.228354618486457</v>
+        <v>0.2284069192090666</v>
       </c>
       <c r="L288" t="n">
-        <v>2.074068944219297</v>
+        <v>2.07385687553584</v>
       </c>
       <c r="M288" t="n">
-        <v>0.6975764372942453</v>
+        <v>0.6977362052550939</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12769,25 +12853,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H289" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="I289" t="n">
-        <v>0.2580463695239215</v>
+        <v>0.258086861361335</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3652059309711529</v>
+        <v>0.3651063210511157</v>
       </c>
       <c r="K289" t="n">
-        <v>0.3767476995049255</v>
+        <v>0.3768068175875492</v>
       </c>
       <c r="L289" t="n">
-        <v>1.15088680807669</v>
+        <v>1.151067401671554</v>
       </c>
       <c r="M289" t="n">
-        <v>1.472365492418384</v>
+        <v>1.472125780740896</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12808,25 +12892,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>92.390201723</v>
+        <v>92.3938518986</v>
       </c>
       <c r="H290" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I290" t="n">
-        <v>0.6857310038149084</v>
+        <v>0.6856086728045409</v>
       </c>
       <c r="J290" t="n">
-        <v>0.1277516244654844</v>
+        <v>0.1278013525184794</v>
       </c>
       <c r="K290" t="n">
-        <v>0.1865173717196072</v>
+        <v>0.1865899746769799</v>
       </c>
       <c r="L290" t="n">
-        <v>2.243710383164332</v>
+        <v>2.243415993090602</v>
       </c>
       <c r="M290" t="n">
-        <v>0.5697722451160603</v>
+        <v>0.5699940322324181</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12900,25 +12984,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H292" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I292" t="n">
-        <v>0.5717948501802802</v>
+        <v>0.5717236490571234</v>
       </c>
       <c r="J292" t="n">
-        <v>0.1740671340730568</v>
+        <v>0.1740960776190556</v>
       </c>
       <c r="K292" t="n">
-        <v>0.2541380157466629</v>
+        <v>0.2541802733238211</v>
       </c>
       <c r="L292" t="n">
-        <v>1.969522566287504</v>
+        <v>1.969351220495191</v>
       </c>
       <c r="M292" t="n">
-        <v>0.7763394179658334</v>
+        <v>0.7764685061809878</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -13045,25 +13129,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H295" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I295" t="n">
-        <v>0.3847613307360594</v>
+        <v>0.3847771910307847</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2500970200259921</v>
+        <v>0.2500905727517135</v>
       </c>
       <c r="K295" t="n">
-        <v>0.3651416492379485</v>
+        <v>0.3651322362175018</v>
       </c>
       <c r="L295" t="n">
-        <v>1.519425641446127</v>
+        <v>1.519463809309856</v>
       </c>
       <c r="M295" t="n">
-        <v>1.115432709315925</v>
+        <v>1.115403954472642</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13137,25 +13221,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H297" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I297" t="n">
-        <v>0.2640076987762474</v>
+        <v>0.2640449384073744</v>
       </c>
       <c r="J297" t="n">
-        <v>0.3505410610104315</v>
+        <v>0.3504494515178592</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3854512402133212</v>
+        <v>0.3855056100747665</v>
       </c>
       <c r="L297" t="n">
-        <v>1.177474336542063</v>
+        <v>1.17764042529689</v>
       </c>
       <c r="M297" t="n">
-        <v>1.437074423244616</v>
+        <v>1.436853964628344</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13176,25 +13260,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H298" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I298" t="n">
-        <v>0.7107990423904548</v>
+        <v>0.7106812369321601</v>
       </c>
       <c r="J298" t="n">
-        <v>0.117561364881929</v>
+        <v>0.1176092532796097</v>
       </c>
       <c r="K298" t="n">
-        <v>0.1716395927276163</v>
+        <v>0.1717095097882302</v>
       </c>
       <c r="L298" t="n">
-        <v>2.30403671989898</v>
+        <v>2.30375322058471</v>
       </c>
       <c r="M298" t="n">
-        <v>0.5243236873734033</v>
+        <v>0.5245372696270594</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13215,25 +13299,25 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H299" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2157136654704023</v>
+        <v>0.2157774904346335</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4693443829428103</v>
+        <v>0.4691873735308015</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3149419515867873</v>
+        <v>0.315035136034565</v>
       </c>
       <c r="L299" t="n">
-        <v>0.9620829479979942</v>
+        <v>0.9623676073384655</v>
       </c>
       <c r="M299" t="n">
-        <v>1.722975100415218</v>
+        <v>1.722597256626969</v>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
@@ -13254,25 +13338,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H300" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I300" t="n">
-        <v>0.5034434576169184</v>
+        <v>0.5034030289978099</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2018522530012527</v>
+        <v>0.2018686873992643</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2947042893818289</v>
+        <v>0.2947282836029258</v>
       </c>
       <c r="L300" t="n">
-        <v>1.805034662232584</v>
+        <v>1.804937370596355</v>
       </c>
       <c r="M300" t="n">
-        <v>0.900261048385587</v>
+        <v>0.9003343458007186</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13399,25 +13483,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H303" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I303" t="n">
-        <v>0.2174928066504953</v>
+        <v>0.2175557426899756</v>
       </c>
       <c r="J303" t="n">
-        <v>0.4649676956397815</v>
+        <v>0.4648128729826599</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3175394977097232</v>
+        <v>0.3176313843273644</v>
       </c>
       <c r="L303" t="n">
-        <v>0.9700179176612092</v>
+        <v>0.9702986123972912</v>
       </c>
       <c r="M303" t="n">
-        <v>1.712442584629068</v>
+        <v>1.712070003275344</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13438,25 +13522,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H304" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I304" t="n">
-        <v>0.6346907629294154</v>
+        <v>0.634594955808588</v>
       </c>
       <c r="J304" t="n">
-        <v>0.1484996898660913</v>
+        <v>0.1485386358501675</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2168095472044933</v>
+        <v>0.2168664083412445</v>
       </c>
       <c r="L304" t="n">
-        <v>2.12088183599274</v>
+        <v>2.120651275767008</v>
       </c>
       <c r="M304" t="n">
-        <v>0.6623086168027673</v>
+        <v>0.662482315891747</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13477,25 +13561,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H305" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I305" t="n">
-        <v>0.2514553144220566</v>
+        <v>0.2514998336170212</v>
       </c>
       <c r="J305" t="n">
-        <v>0.3814199265217407</v>
+        <v>0.381310409302128</v>
       </c>
       <c r="K305" t="n">
-        <v>0.3671247590562027</v>
+        <v>0.3671897570808508</v>
       </c>
       <c r="L305" t="n">
-        <v>1.121490702322373</v>
+        <v>1.121689257931914</v>
       </c>
       <c r="M305" t="n">
-        <v>1.511384538621425</v>
+        <v>1.511120984987235</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -13516,25 +13600,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H306" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I306" t="n">
-        <v>0.6651328188757917</v>
+        <v>0.665026998082319</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1361248703756944</v>
+        <v>0.1361678869584069</v>
       </c>
       <c r="K306" t="n">
-        <v>0.1987423107485138</v>
+        <v>0.1988051149592741</v>
       </c>
       <c r="L306" t="n">
-        <v>2.194140767375889</v>
+        <v>2.193886109206231</v>
       </c>
       <c r="M306" t="n">
-        <v>0.607116921875597</v>
+        <v>0.6073087758344948</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13555,25 +13639,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H307" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2379014789276652</v>
+        <v>0.2379536304017539</v>
       </c>
       <c r="J307" t="n">
-        <v>0.4147623618379435</v>
+        <v>0.4146340692116853</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3473361592343913</v>
+        <v>0.3474123003865608</v>
       </c>
       <c r="L307" t="n">
-        <v>1.061040596017387</v>
+        <v>1.061273191591823</v>
       </c>
       <c r="M307" t="n">
-        <v>1.591623244748222</v>
+        <v>1.591314508021617</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13594,25 +13678,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="H308" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7304888530038423</v>
+        <v>0.7303568461020896</v>
       </c>
       <c r="J308" t="n">
-        <v>0.1095573768277064</v>
+        <v>0.1096110381698823</v>
       </c>
       <c r="K308" t="n">
-        <v>0.1599537701684514</v>
+        <v>0.1600321157280281</v>
       </c>
       <c r="L308" t="n">
-        <v>2.351420329179978</v>
+        <v>2.351102654034297</v>
       </c>
       <c r="M308" t="n">
-        <v>0.4886259006515706</v>
+        <v>0.4888652302376749</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13633,25 +13717,25 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H309" t="n">
-        <v>93.8498907716</v>
+        <v>93.8528489091</v>
       </c>
       <c r="I309" t="n">
-        <v>0.2053888176790981</v>
+        <v>0.205463169719644</v>
       </c>
       <c r="J309" t="n">
-        <v>0.4947435085094186</v>
+        <v>0.4945606024896758</v>
       </c>
       <c r="K309" t="n">
-        <v>0.2998676738114832</v>
+        <v>0.2999762277906803</v>
       </c>
       <c r="L309" t="n">
-        <v>0.9160341268487775</v>
+        <v>0.9163657369496123</v>
       </c>
       <c r="M309" t="n">
-        <v>1.784098199339739</v>
+        <v>1.783658035259708</v>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
@@ -13672,25 +13756,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H310" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I310" t="n">
-        <v>0.2855259135885331</v>
+        <v>0.2855504476377863</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2976062525722086</v>
+        <v>0.2975458988110459</v>
       </c>
       <c r="K310" t="n">
-        <v>0.4168678338392584</v>
+        <v>0.4169036535511679</v>
       </c>
       <c r="L310" t="n">
-        <v>1.273445574604858</v>
+        <v>1.273554996464527</v>
       </c>
       <c r="M310" t="n">
-        <v>1.309686591555884</v>
+        <v>1.309541349984306</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13711,31 +13795,33 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H311" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I311" t="n">
-        <v>0.5457881257602425</v>
+        <v>0.5457284552176309</v>
       </c>
       <c r="J311" t="n">
-        <v>0.1846389732681941</v>
+        <v>0.1846632295863289</v>
       </c>
       <c r="K311" t="n">
-        <v>0.2695729009715634</v>
+        <v>0.2696083151960402</v>
       </c>
       <c r="L311" t="n">
-        <v>1.906937278252291</v>
+        <v>1.906793680848933</v>
       </c>
       <c r="M311" t="n">
-        <v>0.8234898207761457</v>
+        <v>0.823598003955027</v>
       </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr"/>
+      <c r="A312" t="n">
+        <v>11</v>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Everton</t>
@@ -13746,9 +13832,17 @@
           <t>Fulham</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr"/>
-      <c r="E312" t="inlineStr"/>
-      <c r="F312" t="inlineStr"/>
+      <c r="D312" t="n">
+        <v>2</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
       <c r="G312" t="n">
         <v>89.27851185750001</v>
       </c>
@@ -13770,8 +13864,12 @@
       <c r="M312" t="n">
         <v>1.021371025400798</v>
       </c>
-      <c r="N312" t="inlineStr"/>
-      <c r="O312" t="inlineStr"/>
+      <c r="N312" t="n">
+        <v>3</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
@@ -13789,25 +13887,25 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H313" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I313" t="n">
-        <v>0.3703753717486057</v>
+        <v>0.3703974602322772</v>
       </c>
       <c r="J313" t="n">
-        <v>0.2559449708339001</v>
+        <v>0.2559359917754971</v>
       </c>
       <c r="K313" t="n">
-        <v>0.3736796574174942</v>
+        <v>0.3736665479922258</v>
       </c>
       <c r="L313" t="n">
-        <v>1.484805772663311</v>
+        <v>1.484858928689057</v>
       </c>
       <c r="M313" t="n">
-        <v>1.141514569919194</v>
+        <v>1.141474523318717</v>
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
@@ -13828,25 +13926,25 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H314" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I314" t="n">
-        <v>0.5548018729000744</v>
+        <v>0.5547393794231044</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1809748484146038</v>
+        <v>0.1810002522670307</v>
       </c>
       <c r="K314" t="n">
-        <v>0.2642232786853216</v>
+        <v>0.2642603683098649</v>
       </c>
       <c r="L314" t="n">
-        <v>1.928628897385545</v>
+        <v>1.928478506579178</v>
       </c>
       <c r="M314" t="n">
-        <v>0.8071478239291332</v>
+        <v>0.807261125110957</v>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
@@ -13920,25 +14018,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H316" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I316" t="n">
-        <v>0.3395271177026567</v>
+        <v>0.3395626134657538</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2684849115029851</v>
+        <v>0.2684704823309944</v>
       </c>
       <c r="K316" t="n">
-        <v>0.3919879707943583</v>
+        <v>0.3919669042032518</v>
       </c>
       <c r="L316" t="n">
-        <v>1.410569323902328</v>
+        <v>1.410654744600513</v>
       </c>
       <c r="M316" t="n">
-        <v>1.197442705303314</v>
+        <v>1.197378351196235</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -13959,25 +14057,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H317" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I317" t="n">
-        <v>0.4741285136380405</v>
+        <v>0.4741023281512218</v>
       </c>
       <c r="J317" t="n">
-        <v>0.2137688968951055</v>
+        <v>0.2137795414019424</v>
       </c>
       <c r="K317" t="n">
-        <v>0.312102589466854</v>
+        <v>0.3121181304468358</v>
       </c>
       <c r="L317" t="n">
-        <v>1.734488130380976</v>
+        <v>1.734425114900501</v>
       </c>
       <c r="M317" t="n">
-        <v>0.9534092801521705</v>
+        <v>0.9534567546526629</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -13998,25 +14096,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H318" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I318" t="n">
-        <v>0.550622256217282</v>
+        <v>0.5505615690688079</v>
       </c>
       <c r="J318" t="n">
-        <v>0.1826738795864708</v>
+        <v>0.1826985491590212</v>
       </c>
       <c r="K318" t="n">
-        <v>0.2667038641962473</v>
+        <v>0.266739881772171</v>
       </c>
       <c r="L318" t="n">
-        <v>1.918570632848093</v>
+        <v>1.918424588978595</v>
       </c>
       <c r="M318" t="n">
-        <v>0.8147255029556597</v>
+        <v>0.8148355292492346</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -14037,25 +14135,25 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H319" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I319" t="n">
-        <v>0.2799039705733178</v>
+        <v>0.2799313986978845</v>
       </c>
       <c r="J319" t="n">
-        <v>0.3114362323896383</v>
+        <v>0.3113687592032041</v>
       </c>
       <c r="K319" t="n">
-        <v>0.4086597970370439</v>
+        <v>0.4086998420989114</v>
       </c>
       <c r="L319" t="n">
-        <v>1.248371708756997</v>
+        <v>1.248494038192565</v>
       </c>
       <c r="M319" t="n">
-        <v>1.342968494205959</v>
+        <v>1.342806119708524</v>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
@@ -14076,25 +14174,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H320" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I320" t="n">
-        <v>0.4683467320620163</v>
+        <v>0.4683235291840784</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2161192146089365</v>
+        <v>0.2161286466731389</v>
       </c>
       <c r="K320" t="n">
-        <v>0.3155340533290473</v>
+        <v>0.3155478241427827</v>
       </c>
       <c r="L320" t="n">
-        <v>1.720574249515096</v>
+        <v>1.720518411695018</v>
       </c>
       <c r="M320" t="n">
-        <v>0.9638916971558568</v>
+        <v>0.9639337641621992</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -14115,25 +14213,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H321" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I321" t="n">
-        <v>0.3398993319672791</v>
+        <v>0.339934447352275</v>
       </c>
       <c r="J321" t="n">
-        <v>0.26833360489135</v>
+        <v>0.2683193303446036</v>
       </c>
       <c r="K321" t="n">
-        <v>0.391767063141371</v>
+        <v>0.3917462223031213</v>
       </c>
       <c r="L321" t="n">
-        <v>1.411465059043208</v>
+        <v>1.411549564359946</v>
       </c>
       <c r="M321" t="n">
-        <v>1.196767877815421</v>
+        <v>1.196704213336932</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -14207,25 +14305,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H323" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="I323" t="n">
-        <v>0.30939348886444</v>
+        <v>0.3094406810953601</v>
       </c>
       <c r="J323" t="n">
-        <v>0.2807343541201464</v>
+        <v>0.2807151702864389</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4098721570154136</v>
+        <v>0.4098441486182009</v>
       </c>
       <c r="L323" t="n">
-        <v>1.338052623608734</v>
+        <v>1.338166191904281</v>
       </c>
       <c r="M323" t="n">
-        <v>1.252075219375853</v>
+        <v>1.251989659477518</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14246,25 +14344,25 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>89.27851185750001</v>
+        <v>89.2836238795</v>
       </c>
       <c r="H324" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5788191886605949</v>
+        <v>0.5787337625778393</v>
       </c>
       <c r="J324" t="n">
-        <v>0.1712117119265875</v>
+        <v>0.1712464379764881</v>
       </c>
       <c r="K324" t="n">
-        <v>0.2499690994128177</v>
+        <v>0.2500197994456726</v>
       </c>
       <c r="L324" t="n">
-        <v>1.986426665394602</v>
+        <v>1.98622108717919</v>
       </c>
       <c r="M324" t="n">
-        <v>0.76360423519258</v>
+        <v>0.7637591133751367</v>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
@@ -14391,25 +14489,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H327" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I327" t="n">
-        <v>0.2732486466633396</v>
+        <v>0.2732803757968296</v>
       </c>
       <c r="J327" t="n">
-        <v>0.3278083292081847</v>
+        <v>0.3277302755397992</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3989430241284757</v>
+        <v>0.3989893486633712</v>
       </c>
       <c r="L327" t="n">
-        <v>1.218688964118495</v>
+        <v>1.21883047605386</v>
       </c>
       <c r="M327" t="n">
-        <v>1.38236801175303</v>
+        <v>1.382180175282769</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14430,25 +14528,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H328" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I328" t="n">
-        <v>0.6886374950974703</v>
+        <v>0.6885253617891729</v>
       </c>
       <c r="J328" t="n">
-        <v>0.1265701239441178</v>
+        <v>0.1266157065897671</v>
       </c>
       <c r="K328" t="n">
-        <v>0.184792380958412</v>
+        <v>0.1848589316210599</v>
       </c>
       <c r="L328" t="n">
-        <v>2.250704866250823</v>
+        <v>2.250435016988579</v>
       </c>
       <c r="M328" t="n">
-        <v>0.5645027527907654</v>
+        <v>0.5647060513903612</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14522,31 +14620,33 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H330" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I330" t="n">
-        <v>0.4770818846081514</v>
+        <v>0.4770540368098645</v>
       </c>
       <c r="J330" t="n">
-        <v>0.2125683395901823</v>
+        <v>0.2125796598333884</v>
       </c>
       <c r="K330" t="n">
-        <v>0.3103497758016662</v>
+        <v>0.3103663033567471</v>
       </c>
       <c r="L330" t="n">
-        <v>1.74159542962612</v>
+        <v>1.74152841378634</v>
       </c>
       <c r="M330" t="n">
-        <v>0.9480547945722131</v>
+        <v>0.9481052828569123</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
+      <c r="A331" t="n">
+        <v>11</v>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Brentford</t>
@@ -14557,9 +14657,17 @@
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr"/>
-      <c r="E331" t="inlineStr"/>
-      <c r="F331" t="inlineStr"/>
+      <c r="D331" t="n">
+        <v>3</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
       <c r="G331" t="n">
         <v>91.2063386152</v>
       </c>
@@ -14581,8 +14689,12 @@
       <c r="M331" t="n">
         <v>1.19327987014369</v>
       </c>
-      <c r="N331" t="inlineStr"/>
-      <c r="O331" t="inlineStr"/>
+      <c r="N331" t="n">
+        <v>3</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
@@ -14600,25 +14712,25 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H332" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I332" t="n">
-        <v>0.6850009677222664</v>
+        <v>0.6848897966704501</v>
       </c>
       <c r="J332" t="n">
-        <v>0.1280483871047697</v>
+        <v>0.1280935785892479</v>
       </c>
       <c r="K332" t="n">
-        <v>0.1869506451729638</v>
+        <v>0.1870166247403019</v>
       </c>
       <c r="L332" t="n">
-        <v>2.241953548339763</v>
+        <v>2.241686014751652</v>
       </c>
       <c r="M332" t="n">
-        <v>0.571095806487273</v>
+        <v>0.5712973605080456</v>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
@@ -14639,25 +14751,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H333" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I333" t="n">
-        <v>0.2277073617827807</v>
+        <v>0.2277648676742163</v>
       </c>
       <c r="J333" t="n">
-        <v>0.4398398900143596</v>
+        <v>0.4396984255214278</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3324527482028598</v>
+        <v>0.3325367068043558</v>
       </c>
       <c r="L333" t="n">
-        <v>1.015574833551202</v>
+        <v>1.015831309827005</v>
       </c>
       <c r="M333" t="n">
-        <v>1.651972418245939</v>
+        <v>1.651631983368639</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14731,25 +14843,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H335" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I335" t="n">
-        <v>0.2610618407804044</v>
+        <v>0.2611006979179781</v>
       </c>
       <c r="J335" t="n">
-        <v>0.3577878716802053</v>
+        <v>0.3576922831217737</v>
       </c>
       <c r="K335" t="n">
-        <v>0.3811502875393904</v>
+        <v>0.3812070189602481</v>
       </c>
       <c r="L335" t="n">
-        <v>1.164335809880604</v>
+        <v>1.164509112714182</v>
       </c>
       <c r="M335" t="n">
-        <v>1.454513902580006</v>
+        <v>1.454283868325569</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14770,25 +14882,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="H336" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I336" t="n">
-        <v>0.6412381176971125</v>
+        <v>0.641140346219635</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1458381635377591</v>
+        <v>0.1458779080407988</v>
       </c>
       <c r="K336" t="n">
-        <v>0.2129237187651283</v>
+        <v>0.2129817457395662</v>
       </c>
       <c r="L336" t="n">
-        <v>2.136638071856466</v>
+        <v>2.136402784398471</v>
       </c>
       <c r="M336" t="n">
-        <v>0.6504382093784056</v>
+        <v>0.6506154698619624</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14915,25 +15027,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H339" t="n">
-        <v>93.13972198659999</v>
+        <v>93.1430173091</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2156835916580878</v>
+        <v>0.2157527956386326</v>
       </c>
       <c r="J339" t="n">
-        <v>0.469418364521104</v>
+        <v>0.469248122728964</v>
       </c>
       <c r="K339" t="n">
-        <v>0.3148980438208082</v>
+        <v>0.3149990816324034</v>
       </c>
       <c r="L339" t="n">
-        <v>0.9619488187950717</v>
+        <v>0.9622574685483011</v>
       </c>
       <c r="M339" t="n">
-        <v>1.72315313738412</v>
+        <v>1.722743449819296</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -15007,25 +15119,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H341" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I341" t="n">
-        <v>0.2912560089587429</v>
+        <v>0.2913096276925757</v>
       </c>
       <c r="J341" t="n">
-        <v>0.2881073134314053</v>
+        <v>0.28808551719814</v>
       </c>
       <c r="K341" t="n">
-        <v>0.4206366776098518</v>
+        <v>0.4206048551092844</v>
       </c>
       <c r="L341" t="n">
-        <v>1.29440470448608</v>
+        <v>1.294533738187011</v>
       </c>
       <c r="M341" t="n">
-        <v>1.284958617904068</v>
+        <v>1.284861406703704</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -15099,25 +15211,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H343" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I343" t="n">
-        <v>0.5079048200118121</v>
+        <v>0.5078628276365241</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2000386910521089</v>
+        <v>0.2000557611233642</v>
       </c>
       <c r="K343" t="n">
-        <v>0.292056488936079</v>
+        <v>0.2920814112401117</v>
       </c>
       <c r="L343" t="n">
-        <v>1.815770948971515</v>
+        <v>1.815669894149684</v>
       </c>
       <c r="M343" t="n">
-        <v>0.8921725620924057</v>
+        <v>0.8922486946102042</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -15138,25 +15250,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H344" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I344" t="n">
-        <v>0.5156390970675974</v>
+        <v>0.5155942028477</v>
       </c>
       <c r="J344" t="n">
-        <v>0.1968946759887815</v>
+        <v>0.1969129256716667</v>
       </c>
       <c r="K344" t="n">
-        <v>0.2874662269436211</v>
+        <v>0.2874928714806333</v>
       </c>
       <c r="L344" t="n">
-        <v>1.834383518146413</v>
+        <v>1.834275480023733</v>
       </c>
       <c r="M344" t="n">
-        <v>0.8781502549099658</v>
+        <v>0.8782316484956334</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -15177,25 +15289,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H345" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I345" t="n">
-        <v>0.2948988171976453</v>
+        <v>0.2949511512934102</v>
       </c>
       <c r="J345" t="n">
-        <v>0.286626497074128</v>
+        <v>0.2866052230514593</v>
       </c>
       <c r="K345" t="n">
-        <v>0.4184746857282268</v>
+        <v>0.4184436256551305</v>
       </c>
       <c r="L345" t="n">
-        <v>1.303171137321163</v>
+        <v>1.303297079535361</v>
       </c>
       <c r="M345" t="n">
-        <v>1.278354176950611</v>
+        <v>1.278259294809508</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -15216,25 +15328,25 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H346" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I346" t="n">
-        <v>0.4335477120679991</v>
+        <v>0.4335409148348363</v>
       </c>
       <c r="J346" t="n">
-        <v>0.2302651576959354</v>
+        <v>0.230267920798847</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3361871302360656</v>
+        <v>0.3361911643663167</v>
       </c>
       <c r="L346" t="n">
-        <v>1.636830266440063</v>
+        <v>1.636813908870826</v>
       </c>
       <c r="M346" t="n">
-        <v>1.026982603323872</v>
+        <v>1.026994926762858</v>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
@@ -15255,25 +15367,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H347" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I347" t="n">
-        <v>0.370856892045503</v>
+        <v>0.3708787117406777</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2557492308758118</v>
+        <v>0.2557403610810253</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3733938770786852</v>
+        <v>0.3733809271782969</v>
       </c>
       <c r="L347" t="n">
-        <v>1.485964553215194</v>
+        <v>1.48601706240033</v>
       </c>
       <c r="M347" t="n">
-        <v>1.140641569706121</v>
+        <v>1.140602010421373</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15294,25 +15406,25 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="H348" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I348" t="n">
-        <v>0.4666665390409183</v>
+        <v>0.4666442498239652</v>
       </c>
       <c r="J348" t="n">
-        <v>0.2168022199020657</v>
+        <v>0.2168112805593637</v>
       </c>
       <c r="K348" t="n">
-        <v>0.3165312410570159</v>
+        <v>0.316544469616671</v>
       </c>
       <c r="L348" t="n">
-        <v>1.716530858179771</v>
+        <v>1.716477219088567</v>
       </c>
       <c r="M348" t="n">
-        <v>0.9669379007632131</v>
+        <v>0.9669783112947622</v>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
@@ -15333,25 +15445,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H349" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I349" t="n">
-        <v>0.3389995019325105</v>
+        <v>0.339034877877066</v>
       </c>
       <c r="J349" t="n">
-        <v>0.2686993894583291</v>
+        <v>0.2686850089930626</v>
       </c>
       <c r="K349" t="n">
-        <v>0.3923011086091604</v>
+        <v>0.3922801131298713</v>
       </c>
       <c r="L349" t="n">
-        <v>1.409299614406692</v>
+        <v>1.40938474676107</v>
       </c>
       <c r="M349" t="n">
-        <v>1.198399276984148</v>
+        <v>1.198335140109059</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15425,25 +15537,25 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H351" t="n">
-        <v>88.3321093066</v>
+        <v>88.33766224359999</v>
       </c>
       <c r="I351" t="n">
-        <v>0.2812830564333134</v>
+        <v>0.2813143359208081</v>
       </c>
       <c r="J351" t="n">
-        <v>0.3080436811740491</v>
+        <v>0.3079667336348121</v>
       </c>
       <c r="K351" t="n">
-        <v>0.4106732623926375</v>
+        <v>0.4107189304443798</v>
       </c>
       <c r="L351" t="n">
-        <v>1.254522431692578</v>
+        <v>1.254661938206804</v>
       </c>
       <c r="M351" t="n">
-        <v>1.334804305914785</v>
+        <v>1.334619131348816</v>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
@@ -15464,25 +15576,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H352" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I352" t="n">
-        <v>0.253073015883975</v>
+        <v>0.2531161688356738</v>
       </c>
       <c r="J352" t="n">
-        <v>0.3774403809254216</v>
+        <v>0.3773342246642424</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3694866031906034</v>
+        <v>0.3695496065000837</v>
       </c>
       <c r="L352" t="n">
-        <v>1.128705650842528</v>
+        <v>1.128898113007105</v>
       </c>
       <c r="M352" t="n">
-        <v>1.501807745966868</v>
+        <v>1.501552280492811</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15503,25 +15615,25 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H353" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I353" t="n">
-        <v>0.6239883630888896</v>
+        <v>0.6238975006824121</v>
       </c>
       <c r="J353" t="n">
-        <v>0.1528502589069555</v>
+        <v>0.1528871948445479</v>
       </c>
       <c r="K353" t="n">
-        <v>0.223161378004155</v>
+        <v>0.22321530447304</v>
       </c>
       <c r="L353" t="n">
-        <v>2.095126467270824</v>
+        <v>2.094907806520276</v>
       </c>
       <c r="M353" t="n">
-        <v>0.6817121547250213</v>
+        <v>0.6818768890066838</v>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
@@ -15542,25 +15654,25 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H354" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I354" t="n">
-        <v>0.3938139170731021</v>
+        <v>0.3938254357459241</v>
       </c>
       <c r="J354" t="n">
-        <v>0.2464171068808528</v>
+        <v>0.2464124244935268</v>
       </c>
       <c r="K354" t="n">
-        <v>0.3597689760460451</v>
+        <v>0.3597621397605491</v>
       </c>
       <c r="L354" t="n">
-        <v>1.541210727265351</v>
+        <v>1.541238446998321</v>
       </c>
       <c r="M354" t="n">
-        <v>1.099020296688604</v>
+        <v>1.098999413241129</v>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
@@ -15634,31 +15746,33 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H356" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3183692312571373</v>
+        <v>0.3184127054221445</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2770856783507571</v>
+        <v>0.2770680059259575</v>
       </c>
       <c r="K356" t="n">
-        <v>0.4045450903921055</v>
+        <v>0.404519288651898</v>
       </c>
       <c r="L356" t="n">
-        <v>1.359652784163518</v>
+        <v>1.359757404918331</v>
       </c>
       <c r="M356" t="n">
-        <v>1.235802125444377</v>
+        <v>1.235723306429771</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr"/>
+      <c r="A357" t="n">
+        <v>11</v>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Nottingham Forest</t>
@@ -15669,9 +15783,17 @@
           <t>Leeds United</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr"/>
+      <c r="D357" t="n">
+        <v>3</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
       <c r="G357" t="n">
         <v>87.4360012417</v>
       </c>
@@ -15693,8 +15815,12 @@
       <c r="M357" t="n">
         <v>0.9308164659109743</v>
       </c>
-      <c r="N357" t="inlineStr"/>
-      <c r="O357" t="inlineStr"/>
+      <c r="N357" t="n">
+        <v>3</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -15765,25 +15891,25 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H359" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="I359" t="n">
-        <v>0.4519323462594267</v>
+        <v>0.4519171468884433</v>
       </c>
       <c r="J359" t="n">
-        <v>0.2227917291628347</v>
+        <v>0.2227979077689255</v>
       </c>
       <c r="K359" t="n">
-        <v>0.3252759245777387</v>
+        <v>0.3252849453426312</v>
       </c>
       <c r="L359" t="n">
-        <v>1.681072963356019</v>
+        <v>1.681036386007961</v>
       </c>
       <c r="M359" t="n">
-        <v>0.9936511120662428</v>
+        <v>0.9936786686494077</v>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
@@ -15804,25 +15930,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>85.0078813201</v>
+        <v>85.0149688919</v>
       </c>
       <c r="H360" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4215129268556221</v>
+        <v>0.4214990543629673</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2351573468066577</v>
+        <v>0.2351629860313141</v>
       </c>
       <c r="K360" t="n">
-        <v>0.3433297263377202</v>
+        <v>0.3433379596057186</v>
       </c>
       <c r="L360" t="n">
-        <v>1.607868506904586</v>
+        <v>1.607835122694621</v>
       </c>
       <c r="M360" t="n">
-        <v>1.048801766757693</v>
+        <v>1.048826917699661</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -15896,25 +16022,25 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H362" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I362" t="n">
-        <v>0.6200134125041944</v>
+        <v>0.6199240007335569</v>
       </c>
       <c r="J362" t="n">
-        <v>0.1544660924779698</v>
+        <v>0.1545024387261964</v>
       </c>
       <c r="K362" t="n">
-        <v>0.2255204950178358</v>
+        <v>0.2255735605402467</v>
       </c>
       <c r="L362" t="n">
-        <v>2.085560732530419</v>
+        <v>2.085345562740918</v>
       </c>
       <c r="M362" t="n">
-        <v>0.6889187724517452</v>
+        <v>0.6890808767188358</v>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
@@ -15935,25 +16061,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H363" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I363" t="n">
-        <v>0.2547488634253391</v>
+        <v>0.254791061135656</v>
       </c>
       <c r="J363" t="n">
-        <v>0.373317795973666</v>
+        <v>0.3732139896062863</v>
       </c>
       <c r="K363" t="n">
-        <v>0.371933340600995</v>
+        <v>0.3719949492580578</v>
       </c>
       <c r="L363" t="n">
-        <v>1.136179930877012</v>
+        <v>1.136368132665026</v>
       </c>
       <c r="M363" t="n">
-        <v>1.491886728521993</v>
+        <v>1.491636918076917</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -15974,25 +16100,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H364" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I364" t="n">
-        <v>0.5398247991822589</v>
+        <v>0.5397683043089041</v>
       </c>
       <c r="J364" t="n">
-        <v>0.1870630897633094</v>
+        <v>0.1870860551589821</v>
       </c>
       <c r="K364" t="n">
-        <v>0.2731121110544317</v>
+        <v>0.2731456405321138</v>
       </c>
       <c r="L364" t="n">
-        <v>1.892586508601208</v>
+        <v>1.892450553458826</v>
       </c>
       <c r="M364" t="n">
-        <v>0.8343013803443597</v>
+        <v>0.8344038060090599</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -16066,25 +16192,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H366" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I366" t="n">
-        <v>0.5728519052442215</v>
+        <v>0.5727811147951847</v>
       </c>
       <c r="J366" t="n">
-        <v>0.173637436892593</v>
+        <v>0.1736662134978924</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2535106578631857</v>
+        <v>0.2535526717069229</v>
       </c>
       <c r="L366" t="n">
-        <v>1.97206637359585</v>
+        <v>1.971896016092477</v>
       </c>
       <c r="M366" t="n">
-        <v>0.7744229685409645</v>
+        <v>0.7745513122006003</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -16158,25 +16284,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="H368" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I368" t="n">
-        <v>0.6466504061027784</v>
+        <v>0.6465396616810256</v>
       </c>
       <c r="J368" t="n">
-        <v>0.1436380462996836</v>
+        <v>0.1436830643573067</v>
       </c>
       <c r="K368" t="n">
-        <v>0.2097115475975381</v>
+        <v>0.2097772739616677</v>
       </c>
       <c r="L368" t="n">
-        <v>2.149662765905873</v>
+        <v>2.149396259004745</v>
       </c>
       <c r="M368" t="n">
-        <v>0.6406256864965889</v>
+        <v>0.6408264670335877</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -16197,25 +16323,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H369" t="n">
-        <v>91.2063386152</v>
+        <v>91.2105471326</v>
       </c>
       <c r="I369" t="n">
-        <v>0.2432397420267475</v>
+        <v>0.2432937710223625</v>
       </c>
       <c r="J369" t="n">
-        <v>0.401630234614201</v>
+        <v>0.4014973232849881</v>
       </c>
       <c r="K369" t="n">
-        <v>0.3551300233590514</v>
+        <v>0.3552089056926493</v>
       </c>
       <c r="L369" t="n">
-        <v>1.084849249439294</v>
+        <v>1.085090218759737</v>
       </c>
       <c r="M369" t="n">
-        <v>1.560020727201655</v>
+        <v>1.559700875547613</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16289,25 +16415,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H371" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="I371" t="n">
-        <v>0.482367501101765</v>
+        <v>0.4823380461068632</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2104197149992826</v>
+        <v>0.2104316885744459</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3072127838989525</v>
+        <v>0.307230265318691</v>
       </c>
       <c r="L371" t="n">
-        <v>1.754315287204247</v>
+        <v>1.754244403639281</v>
       </c>
       <c r="M371" t="n">
-        <v>0.9384719288968002</v>
+        <v>0.9385253310420285</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16328,31 +16454,33 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H372" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I372" t="n">
-        <v>0.352096957322494</v>
+        <v>0.3521267024977049</v>
       </c>
       <c r="J372" t="n">
-        <v>0.2633752206006122</v>
+        <v>0.2633631290659736</v>
       </c>
       <c r="K372" t="n">
-        <v>0.3845278220768938</v>
+        <v>0.3845101684363215</v>
       </c>
       <c r="L372" t="n">
-        <v>1.440818694044376</v>
+        <v>1.440890275929436</v>
       </c>
       <c r="M372" t="n">
-        <v>1.17465348387873</v>
+        <v>1.174599555634242</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr"/>
+      <c r="A373" t="n">
+        <v>11</v>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>West Ham United</t>
@@ -16363,9 +16491,17 @@
           <t>Burnley</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
-      <c r="F373" t="inlineStr"/>
+      <c r="D373" t="n">
+        <v>3</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
       <c r="G373" t="n">
         <v>86.4989875671</v>
       </c>
@@ -16387,8 +16523,12 @@
       <c r="M373" t="n">
         <v>1.001236839310104</v>
       </c>
-      <c r="N373" t="inlineStr"/>
-      <c r="O373" t="inlineStr"/>
+      <c r="N373" t="n">
+        <v>3</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr"/>
@@ -16406,25 +16546,25 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="n">
-        <v>85.1262266263</v>
+        <v>85.1332599464</v>
       </c>
       <c r="H374" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I374" t="n">
-        <v>0.4258061102165161</v>
+        <v>0.4257902297527997</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2334121503184894</v>
+        <v>0.2334186057915448</v>
       </c>
       <c r="K374" t="n">
-        <v>0.3407817394649945</v>
+        <v>0.3407911644556554</v>
       </c>
       <c r="L374" t="n">
-        <v>1.618200070114543</v>
+        <v>1.618161853714055</v>
       </c>
       <c r="M374" t="n">
-        <v>1.041018190420463</v>
+        <v>1.04104698183029</v>
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
@@ -16551,25 +16691,25 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H377" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I377" t="n">
-        <v>0.3682479466033835</v>
+        <v>0.3682708527266712</v>
       </c>
       <c r="J377" t="n">
-        <v>0.2568097778035026</v>
+        <v>0.2568004663712719</v>
       </c>
       <c r="K377" t="n">
-        <v>0.3749422755931138</v>
+        <v>0.3749286809020569</v>
       </c>
       <c r="L377" t="n">
-        <v>1.479686115403264</v>
+        <v>1.479741239082071</v>
       </c>
       <c r="M377" t="n">
-        <v>1.145371609003622</v>
+        <v>1.145330080015873</v>
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
@@ -16590,25 +16730,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="H378" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I378" t="n">
-        <v>0.511044075951815</v>
+        <v>0.510988325609293</v>
       </c>
       <c r="J378" t="n">
-        <v>0.1987625707512947</v>
+        <v>0.1987852334921573</v>
       </c>
       <c r="K378" t="n">
-        <v>0.2901933532968903</v>
+        <v>0.2902264408985498</v>
       </c>
       <c r="L378" t="n">
-        <v>1.823325581152335</v>
+        <v>1.823191417726429</v>
       </c>
       <c r="M378" t="n">
-        <v>0.8864810655507744</v>
+        <v>0.8865821413750218</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16629,25 +16769,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H379" t="n">
-        <v>87.4360012417</v>
+        <v>87.4419700413</v>
       </c>
       <c r="I379" t="n">
-        <v>0.2967075099730609</v>
+        <v>0.2967704521130555</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2858912561085118</v>
+        <v>0.2858656698727417</v>
       </c>
       <c r="K379" t="n">
-        <v>0.4174012339184273</v>
+        <v>0.4173638780142028</v>
       </c>
       <c r="L379" t="n">
-        <v>1.30752376383761</v>
+        <v>1.307675234353369</v>
       </c>
       <c r="M379" t="n">
-        <v>1.275075002243963</v>
+        <v>1.274960887632428</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16668,25 +16808,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="H380" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="I380" t="n">
-        <v>0.4762603702645185</v>
+        <v>0.4762207705605561</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2129022885103584</v>
+        <v>0.2129183859509934</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3108373412251232</v>
+        <v>0.3108608434884504</v>
       </c>
       <c r="L380" t="n">
-        <v>1.739618452018679</v>
+        <v>1.739523155170119</v>
       </c>
       <c r="M380" t="n">
-        <v>0.9495442067561982</v>
+        <v>0.9496160013414308</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
@@ -16707,25 +16847,25 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="n">
-        <v>84.32302740999999</v>
+        <v>84.3307967293</v>
       </c>
       <c r="H381" t="n">
-        <v>86.4989875671</v>
+        <v>86.5053895077</v>
       </c>
       <c r="I381" t="n">
-        <v>0.3253775655004073</v>
+        <v>0.3254301914181305</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2742367619917044</v>
+        <v>0.2742153693422234</v>
       </c>
       <c r="K381" t="n">
-        <v>0.4003856725078884</v>
+        <v>0.4003544392396461</v>
       </c>
       <c r="L381" t="n">
-        <v>1.37651836900911</v>
+        <v>1.376645013494038</v>
       </c>
       <c r="M381" t="n">
-        <v>1.223095958483002</v>
+        <v>1.223000547266316</v>
       </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
